--- a/vendas_cafe_em_reais.xlsx
+++ b/vendas_cafe_em_reais.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rotocastro/PycharmProjects/Vendas Cafe/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26F62C1F-C746-1B48-B974-94CB1008E8BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10FA68CE-A14B-AC41-B70C-0555235AB8A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="29400" yWindow="-6400" windowWidth="28800" windowHeight="17500" activeTab="1" xr2:uid="{AC82ADC5-E628-F847-8939-89BAF5623AE6}"/>
+    <workbookView xWindow="4440" yWindow="940" windowWidth="24960" windowHeight="16540" activeTab="2" xr2:uid="{AC82ADC5-E628-F847-8939-89BAF5623AE6}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2 (2)" sheetId="16" state="hidden" r:id="rId1"/>
@@ -24,7 +24,7 @@
     <sheet name="CashFlow_Edson_Luiz" sheetId="3" state="hidden" r:id="rId9"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Sheet2!$A$1:$Q$52</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Sheet2!$A$1:$Q$66</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">'VENDA CAFÉ 220125'!$A$3:$Z$61</definedName>
     <definedName name="LITRAGEM" localSheetId="7">#REF!</definedName>
     <definedName name="LITRAGEM" localSheetId="5">#REF!</definedName>
@@ -70,7 +70,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="872" uniqueCount="332">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="930" uniqueCount="346">
   <si>
     <t>026/24</t>
   </si>
@@ -1066,6 +1066,48 @@
   </si>
   <si>
     <t>Estoque</t>
+  </si>
+  <si>
+    <t>012/24</t>
+  </si>
+  <si>
+    <t>002/24</t>
+  </si>
+  <si>
+    <t>003/24</t>
+  </si>
+  <si>
+    <t>004/24</t>
+  </si>
+  <si>
+    <t>005/24</t>
+  </si>
+  <si>
+    <t>014/24</t>
+  </si>
+  <si>
+    <t>015/24</t>
+  </si>
+  <si>
+    <t>016/24</t>
+  </si>
+  <si>
+    <t>017/24</t>
+  </si>
+  <si>
+    <t>020/24</t>
+  </si>
+  <si>
+    <t>Itah</t>
+  </si>
+  <si>
+    <t>Expocaccer</t>
+  </si>
+  <si>
+    <t>051-055 e 065</t>
+  </si>
+  <si>
+    <t>060-064</t>
   </si>
 </sst>
 </file>
@@ -2566,27 +2608,27 @@
         <v>45961</v>
       </c>
       <c r="L6" s="177">
-        <f>futuros!B4</f>
-        <v>291</v>
+        <f>futuros!B3</f>
+        <v>295.55</v>
       </c>
       <c r="M6" s="177">
         <f>(L6+H6)*1.3228</f>
-        <v>424.61879999999996</v>
+        <v>430.63754</v>
       </c>
       <c r="N6" s="167">
         <f>(E6*(M6+H6))</f>
-        <v>145478.016</v>
+        <v>147404.0128</v>
       </c>
       <c r="O6" s="178">
         <v>5.7</v>
       </c>
       <c r="P6" s="167">
         <f t="shared" ref="P6:P16" si="1">M6*O6</f>
-        <v>2420.3271599999998</v>
+        <v>2454.6339780000003</v>
       </c>
       <c r="Q6" s="167">
         <f t="shared" ref="Q6:Q16" si="2">P6*E6</f>
-        <v>774504.6912</v>
+        <v>785482.87296000007</v>
       </c>
     </row>
     <row r="7" spans="2:20" x14ac:dyDescent="0.25">
@@ -2623,26 +2665,26 @@
       </c>
       <c r="L7" s="177">
         <f>L6</f>
-        <v>291</v>
+        <v>295.55</v>
       </c>
       <c r="M7" s="177">
         <f>(L7+H7)*1.3228</f>
-        <v>424.61879999999996</v>
+        <v>430.63754</v>
       </c>
       <c r="N7" s="167">
         <f>(E7*(M7+H7))</f>
-        <v>145478.016</v>
+        <v>147404.0128</v>
       </c>
       <c r="O7" s="178">
         <v>5.7</v>
       </c>
       <c r="P7" s="167">
         <f t="shared" si="1"/>
-        <v>2420.3271599999998</v>
+        <v>2454.6339780000003</v>
       </c>
       <c r="Q7" s="167">
         <f t="shared" si="2"/>
-        <v>774504.6912</v>
+        <v>785482.87296000007</v>
       </c>
     </row>
     <row r="8" spans="2:20" x14ac:dyDescent="0.25">
@@ -2679,26 +2721,26 @@
       </c>
       <c r="L8" s="177">
         <f>L7</f>
-        <v>291</v>
+        <v>295.55</v>
       </c>
       <c r="M8" s="177">
         <f>(L8+H8)*1.3228</f>
-        <v>424.61879999999996</v>
+        <v>430.63754</v>
       </c>
       <c r="N8" s="167">
         <f>(E8*(M8+H8))</f>
-        <v>145478.016</v>
+        <v>147404.0128</v>
       </c>
       <c r="O8" s="178">
         <v>5.7</v>
       </c>
       <c r="P8" s="167">
         <f t="shared" si="1"/>
-        <v>2420.3271599999998</v>
+        <v>2454.6339780000003</v>
       </c>
       <c r="Q8" s="167">
         <f t="shared" si="2"/>
-        <v>774504.6912</v>
+        <v>785482.87296000007</v>
       </c>
     </row>
     <row r="9" spans="2:20" x14ac:dyDescent="0.25">
@@ -2734,27 +2776,27 @@
         <v>46052</v>
       </c>
       <c r="L9" s="177">
-        <f>futuros!B4</f>
-        <v>291</v>
+        <f>futuros!B3</f>
+        <v>295.55</v>
       </c>
       <c r="M9" s="177">
         <f>(L9+H9)*1.3228</f>
-        <v>424.61879999999996</v>
+        <v>430.63754</v>
       </c>
       <c r="N9" s="167">
         <f>(E9*(M9+H9))</f>
-        <v>145478.016</v>
+        <v>147404.0128</v>
       </c>
       <c r="O9" s="178">
         <v>5.7</v>
       </c>
       <c r="P9" s="167">
         <f t="shared" si="1"/>
-        <v>2420.3271599999998</v>
+        <v>2454.6339780000003</v>
       </c>
       <c r="Q9" s="167">
         <f t="shared" si="2"/>
-        <v>774504.6912</v>
+        <v>785482.87296000007</v>
       </c>
     </row>
     <row r="10" spans="2:20" x14ac:dyDescent="0.25">
@@ -2790,27 +2832,27 @@
         <v>46114</v>
       </c>
       <c r="L10" s="177">
-        <f>futuros!B5</f>
-        <v>286.05</v>
+        <f>futuros!B4</f>
+        <v>288.75</v>
       </c>
       <c r="M10" s="177">
         <f>(L10+H10)*1.3228</f>
-        <v>418.07094000000001</v>
+        <v>421.64249999999998</v>
       </c>
       <c r="N10" s="167">
         <f>(E10*(M10+H10))</f>
-        <v>143382.70079999999</v>
+        <v>144525.6</v>
       </c>
       <c r="O10" s="178">
         <v>5.7</v>
       </c>
       <c r="P10" s="167">
         <f t="shared" si="1"/>
-        <v>2383.0043580000001</v>
+        <v>2403.3622500000001</v>
       </c>
       <c r="Q10" s="167">
         <f t="shared" si="2"/>
-        <v>762561.39456000004</v>
+        <v>769075.92</v>
       </c>
     </row>
     <row r="11" spans="2:20" x14ac:dyDescent="0.25">
@@ -2846,27 +2888,27 @@
         <v>45961</v>
       </c>
       <c r="L11" s="177">
-        <f>futuros!B4</f>
-        <v>291</v>
+        <f>futuros!B3</f>
+        <v>295.55</v>
       </c>
       <c r="M11" s="177">
         <f t="shared" ref="M11:M16" si="4">(L11+H11)*1.3228</f>
-        <v>421.97320000000002</v>
+        <v>427.99194</v>
       </c>
       <c r="N11" s="167">
         <f t="shared" ref="N11:N16" si="5">(E11*(M11+H11))</f>
-        <v>143991.424</v>
+        <v>145917.42079999999</v>
       </c>
       <c r="O11" s="178">
         <v>5.7</v>
       </c>
       <c r="P11" s="167">
         <f t="shared" si="1"/>
-        <v>2405.2472400000001</v>
+        <v>2439.5540580000002</v>
       </c>
       <c r="Q11" s="167">
         <f t="shared" si="2"/>
-        <v>769679.11680000008</v>
+        <v>780657.29856000002</v>
       </c>
     </row>
     <row r="12" spans="2:20" x14ac:dyDescent="0.25">
@@ -2902,27 +2944,27 @@
         <v>46022</v>
       </c>
       <c r="L12" s="177">
-        <f>futuros!B4</f>
-        <v>291</v>
+        <f>futuros!B3</f>
+        <v>295.55</v>
       </c>
       <c r="M12" s="177">
         <f t="shared" si="4"/>
-        <v>421.97320000000002</v>
+        <v>427.99194</v>
       </c>
       <c r="N12" s="167">
         <f t="shared" si="5"/>
-        <v>143991.424</v>
+        <v>145917.42079999999</v>
       </c>
       <c r="O12" s="178">
         <v>5.7</v>
       </c>
       <c r="P12" s="167">
         <f t="shared" si="1"/>
-        <v>2405.2472400000001</v>
+        <v>2439.5540580000002</v>
       </c>
       <c r="Q12" s="167">
         <f t="shared" si="2"/>
-        <v>769679.11680000008</v>
+        <v>780657.29856000002</v>
       </c>
     </row>
     <row r="13" spans="2:20" s="166" customFormat="1" x14ac:dyDescent="0.25">
@@ -2958,27 +3000,27 @@
         <v>46083</v>
       </c>
       <c r="L13" s="177">
-        <f>futuros!B5</f>
-        <v>286.05</v>
+        <f>futuros!B4</f>
+        <v>288.75</v>
       </c>
       <c r="M13" s="177">
         <f t="shared" si="4"/>
-        <v>415.42534000000001</v>
+        <v>418.99689999999998</v>
       </c>
       <c r="N13" s="167">
         <f t="shared" si="5"/>
-        <v>141896.10879999999</v>
+        <v>143039.008</v>
       </c>
       <c r="O13" s="178">
         <v>5.7</v>
       </c>
       <c r="P13" s="167">
         <f t="shared" si="1"/>
-        <v>2367.924438</v>
+        <v>2388.28233</v>
       </c>
       <c r="Q13" s="167">
         <f t="shared" si="2"/>
-        <v>757735.82016</v>
+        <v>764250.3456</v>
       </c>
       <c r="R13" s="163"/>
       <c r="S13" s="163"/>
@@ -3017,27 +3059,27 @@
         <v>46142</v>
       </c>
       <c r="L14" s="177">
-        <f>futuros!B6</f>
-        <v>281.3</v>
+        <f>futuros!B5</f>
+        <v>283.2</v>
       </c>
       <c r="M14" s="177">
         <f t="shared" si="4"/>
-        <v>409.14204000000001</v>
+        <v>411.65535999999997</v>
       </c>
       <c r="N14" s="167">
         <f t="shared" si="5"/>
-        <v>139885.4528</v>
+        <v>140689.71519999998</v>
       </c>
       <c r="O14" s="178">
         <v>5.7</v>
       </c>
       <c r="P14" s="167">
         <f t="shared" si="1"/>
-        <v>2332.1096280000002</v>
+        <v>2346.4355519999999</v>
       </c>
       <c r="Q14" s="167">
         <f t="shared" si="2"/>
-        <v>746275.08096000005</v>
+        <v>750859.37663999991</v>
       </c>
       <c r="R14" s="163"/>
       <c r="S14" s="163"/>
@@ -3076,27 +3118,27 @@
         <v>46052</v>
       </c>
       <c r="L15" s="177">
-        <f>futuros!B5</f>
-        <v>286.05</v>
+        <f>futuros!B4</f>
+        <v>288.75</v>
       </c>
       <c r="M15" s="177">
         <f t="shared" si="4"/>
-        <v>349.28534000000002</v>
+        <v>352.8569</v>
       </c>
       <c r="N15" s="167">
         <f t="shared" si="5"/>
-        <v>104731.3088</v>
+        <v>105874.208</v>
       </c>
       <c r="O15" s="178">
         <v>5.7</v>
       </c>
       <c r="P15" s="167">
         <f t="shared" si="1"/>
-        <v>1990.9264380000002</v>
+        <v>2011.28433</v>
       </c>
       <c r="Q15" s="167">
         <f t="shared" si="2"/>
-        <v>637096.46016000002</v>
+        <v>643610.98560000001</v>
       </c>
       <c r="R15" s="163"/>
       <c r="S15" s="163"/>
@@ -3135,27 +3177,27 @@
         <v>45991</v>
       </c>
       <c r="L16" s="177">
-        <f>futuros!B4</f>
-        <v>291</v>
+        <f>futuros!B3</f>
+        <v>295.55</v>
       </c>
       <c r="M16" s="177">
         <f t="shared" si="4"/>
-        <v>455.04320000000001</v>
+        <v>461.06193999999999</v>
       </c>
       <c r="N16" s="167">
         <f t="shared" si="5"/>
-        <v>162573.82399999999</v>
+        <v>164499.82080000002</v>
       </c>
       <c r="O16" s="178">
         <v>5.7</v>
       </c>
       <c r="P16" s="167">
         <f t="shared" si="1"/>
-        <v>2593.7462399999999</v>
+        <v>2628.053058</v>
       </c>
       <c r="Q16" s="167">
         <f t="shared" si="2"/>
-        <v>829998.79680000001</v>
+        <v>840976.97855999996</v>
       </c>
       <c r="R16" s="163"/>
       <c r="S16" s="163"/>
@@ -3282,20 +3324,20 @@
       <c r="L19" s="179"/>
       <c r="M19" s="182">
         <f>N19/E19</f>
-        <v>455.38489000000004</v>
+        <v>459.33911714285722</v>
       </c>
       <c r="N19" s="183">
         <f>SUM(N5:N18)</f>
-        <v>2040124.3072000002</v>
+        <v>2057839.2448000002</v>
       </c>
       <c r="O19" s="184"/>
       <c r="P19" s="185">
         <f>Q19/E19</f>
-        <v>2476.4010158571427</v>
+        <v>2498.9401105714287</v>
       </c>
       <c r="Q19" s="183">
         <f>SUM(Q5:Q18)</f>
-        <v>11094276.551039999</v>
+        <v>11195251.695360001</v>
       </c>
     </row>
     <row r="20" spans="2:17" x14ac:dyDescent="0.25">
@@ -3417,8 +3459,8 @@
         <v>179</v>
       </c>
       <c r="I25" s="177">
-        <f>futuros!B4</f>
-        <v>291</v>
+        <f>futuros!B3</f>
+        <v>295.55</v>
       </c>
       <c r="K25" s="163"/>
       <c r="L25" s="197">
@@ -3427,7 +3469,7 @@
       <c r="M25" s="163"/>
       <c r="N25" s="198">
         <f>(H25-I25)*1.3228*D25</f>
-        <v>-743427.35711999994</v>
+        <v>-773629.0935030001</v>
       </c>
       <c r="O25" s="178">
         <f>O5</f>
@@ -3435,7 +3477,7 @@
       </c>
       <c r="Q25" s="198">
         <f>N25*O25</f>
-        <v>-4237535.9355839994</v>
+        <v>-4409685.8329671007</v>
       </c>
     </row>
     <row r="26" spans="2:17" x14ac:dyDescent="0.25">
@@ -3460,7 +3502,7 @@
       </c>
       <c r="I26" s="177">
         <f>I25</f>
-        <v>291</v>
+        <v>295.55</v>
       </c>
       <c r="K26" s="163"/>
       <c r="L26" s="197">
@@ -3469,7 +3511,7 @@
       <c r="M26" s="163"/>
       <c r="N26" s="198">
         <f>(H26-I26)*1.3228*D26</f>
-        <v>-249121.66734000001</v>
+        <v>-261065.85687000005</v>
       </c>
       <c r="O26" s="178">
         <f>O6</f>
@@ -3477,7 +3519,7 @@
       </c>
       <c r="Q26" s="198">
         <f t="shared" ref="Q26:Q27" si="6">N26*O26</f>
-        <v>-1419993.5038380001</v>
+        <v>-1488075.3841590004</v>
       </c>
     </row>
     <row r="27" spans="2:17" x14ac:dyDescent="0.25">
@@ -3501,7 +3543,7 @@
       </c>
       <c r="I27" s="200">
         <f>I26</f>
-        <v>291</v>
+        <v>295.55</v>
       </c>
       <c r="K27" s="163"/>
       <c r="L27" s="197">
@@ -3510,7 +3552,7 @@
       <c r="M27" s="163"/>
       <c r="N27" s="198">
         <f>(H27-I27)*1.3228*D27</f>
-        <v>-273490.06406400003</v>
+        <v>-291576.97963800008</v>
       </c>
       <c r="O27" s="178">
         <f>O7</f>
@@ -3518,7 +3560,7 @@
       </c>
       <c r="Q27" s="198">
         <f t="shared" si="6"/>
-        <v>-1558893.3651648003</v>
+        <v>-1661988.7839366004</v>
       </c>
     </row>
     <row r="28" spans="2:17" x14ac:dyDescent="0.25">
@@ -3541,13 +3583,13 @@
       <c r="M28" s="202"/>
       <c r="N28" s="202">
         <f>SUM(N25:N27)</f>
-        <v>-1266039.088524</v>
+        <v>-1326271.9300110003</v>
       </c>
       <c r="O28" s="201"/>
       <c r="P28" s="201"/>
       <c r="Q28" s="202">
         <f>SUM(Q25:Q27)</f>
-        <v>-7216422.8045867998</v>
+        <v>-7559750.0010627015</v>
       </c>
     </row>
     <row r="29" spans="2:17" x14ac:dyDescent="0.25">
@@ -4230,8 +4272,8 @@
         <v>300.8</v>
       </c>
       <c r="I57" s="177">
-        <f>futuros!B9</f>
-        <v>261.25</v>
+        <f>futuros!B8</f>
+        <v>265.3</v>
       </c>
       <c r="K57" s="178">
         <f>O8</f>
@@ -4243,7 +4285,7 @@
       <c r="M57" s="198"/>
       <c r="N57" s="198">
         <f>(H57-I57)*1.3228*D57</f>
-        <v>133486.16211000003</v>
+        <v>119816.9091</v>
       </c>
       <c r="O57" s="166">
         <f>O25</f>
@@ -4251,7 +4293,7 @@
       </c>
       <c r="Q57" s="198">
         <f>N57*O57</f>
-        <v>760871.12402700027</v>
+        <v>682956.38187000004</v>
       </c>
     </row>
     <row r="58" spans="2:17" x14ac:dyDescent="0.25">
@@ -4275,7 +4317,7 @@
       </c>
       <c r="I58" s="177">
         <f>I57</f>
-        <v>261.25</v>
+        <v>265.3</v>
       </c>
       <c r="K58" s="178">
         <f>O9</f>
@@ -4287,7 +4329,7 @@
       <c r="M58" s="198"/>
       <c r="N58" s="198">
         <f>(H58-I58)*1.3228*D58</f>
-        <v>183456.75095999992</v>
+        <v>171306.30383999989</v>
       </c>
       <c r="O58" s="166">
         <f>O26</f>
@@ -4295,7 +4337,7 @@
       </c>
       <c r="Q58" s="198">
         <f>N58*O58</f>
-        <v>1045703.4804719996</v>
+        <v>976445.93188799941</v>
       </c>
     </row>
     <row r="59" spans="2:17" x14ac:dyDescent="0.25">
@@ -4318,13 +4360,13 @@
       <c r="M59" s="201"/>
       <c r="N59" s="202">
         <f>SUM(N56:N58)</f>
-        <v>316942.91306999995</v>
+        <v>291123.21293999988</v>
       </c>
       <c r="O59" s="201"/>
       <c r="P59" s="201"/>
       <c r="Q59" s="202">
         <f>SUM(Q56:Q58)</f>
-        <v>1806574.6044989999</v>
+        <v>1659402.3137579993</v>
       </c>
     </row>
     <row r="64" spans="2:17" x14ac:dyDescent="0.25">
@@ -4462,10 +4504,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E433115D-D1E6-C943-B0EC-2BC4BD1B44BA}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:T56"/>
+  <dimension ref="A1:T66"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="P59" sqref="P59"/>
+    <sheetView topLeftCell="A11" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="Q40" sqref="Q40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0.2"/>
@@ -4535,68 +4577,58 @@
         <v>255</v>
       </c>
     </row>
-    <row r="2" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A2" s="2">
-        <v>2024</v>
+        <v>2023</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>12</v>
+        <v>332</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>42</v>
+        <v>89</v>
       </c>
       <c r="D2" s="159" t="s">
-        <v>264</v>
+        <v>86</v>
       </c>
       <c r="E2" s="2">
-        <v>320</v>
+        <v>0.5</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="H2" s="2">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="I2" s="158">
-        <v>45564</v>
+        <v>45371</v>
       </c>
       <c r="J2" s="2">
         <v>1</v>
       </c>
       <c r="K2" s="158">
-        <v>45627</v>
-      </c>
-      <c r="L2" s="155">
-        <v>251.05</v>
-      </c>
-      <c r="M2" s="155">
-        <v>345.31693999999999</v>
-      </c>
-      <c r="N2" s="3">
-        <f t="shared" ref="N2:N23" si="0">M2*E2</f>
-        <v>110501.42079999999</v>
-      </c>
-      <c r="O2" s="160">
-        <v>5.8349509259259262</v>
-      </c>
+        <v>45371</v>
+      </c>
+      <c r="L2" s="155"/>
+      <c r="M2" s="155"/>
+      <c r="N2" s="3"/>
+      <c r="O2" s="160"/>
       <c r="P2" s="3">
-        <f>M2*O2</f>
-        <v>2014.9073987909073</v>
+        <v>1400</v>
       </c>
       <c r="Q2" s="3">
-        <f t="shared" ref="Q2:Q10" si="1">P2*E2</f>
-        <v>644770.36761309032</v>
+        <f t="shared" ref="Q2:Q23" si="0">P2*E2</f>
+        <v>700</v>
       </c>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A3" s="2">
-        <v>2024</v>
+        <v>2023</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>11</v>
+        <v>333</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>42</v>
@@ -4611,48 +4643,47 @@
         <v>27</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="H3" s="2">
-        <v>10</v>
+        <v>13.7</v>
       </c>
       <c r="I3" s="158">
-        <v>45564</v>
+        <v>45371</v>
       </c>
       <c r="J3" s="2">
         <v>1</v>
       </c>
       <c r="K3" s="158">
-        <v>45627</v>
-      </c>
-      <c r="L3" s="155">
-        <v>251.05</v>
-      </c>
+        <f>I3+90</f>
+        <v>45461</v>
+      </c>
+      <c r="L3" s="155"/>
       <c r="M3" s="155">
-        <v>345.31693999999999</v>
+        <v>271.5</v>
       </c>
       <c r="N3" s="3">
-        <f t="shared" si="0"/>
-        <v>110501.42079999999</v>
+        <f t="shared" ref="N3:N9" si="1">M3*E3</f>
+        <v>86880</v>
       </c>
       <c r="O3" s="160">
-        <v>5.8349509259259262</v>
+        <v>4.9740000000000002</v>
       </c>
       <c r="P3" s="3">
-        <f t="shared" ref="P3:P10" si="2">M3*O3</f>
-        <v>2014.9073987909073</v>
+        <f>O3*M3</f>
+        <v>1350.441</v>
       </c>
       <c r="Q3" s="3">
-        <f t="shared" si="1"/>
-        <v>644770.36761309032</v>
+        <f t="shared" si="0"/>
+        <v>432141.12</v>
       </c>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A4" s="2">
-        <v>2024</v>
+        <v>2023</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>10</v>
+        <v>335</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>42</v>
@@ -4664,51 +4695,50 @@
         <v>320</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="H4" s="2">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="I4" s="158">
-        <v>45564</v>
+        <v>45371</v>
       </c>
       <c r="J4" s="2">
         <v>1</v>
       </c>
       <c r="K4" s="158">
-        <v>45627</v>
-      </c>
-      <c r="L4" s="155">
-        <v>251.05</v>
-      </c>
+        <f>I4+60</f>
+        <v>45431</v>
+      </c>
+      <c r="L4" s="155"/>
       <c r="M4" s="155">
-        <v>345.31693999999999</v>
+        <v>271.5</v>
       </c>
       <c r="N4" s="3">
-        <f t="shared" si="0"/>
-        <v>110501.42079999999</v>
+        <f t="shared" si="1"/>
+        <v>86880</v>
       </c>
       <c r="O4" s="160">
-        <v>5.8349509259259262</v>
+        <v>5.0419999999999998</v>
       </c>
       <c r="P4" s="3">
-        <f t="shared" si="2"/>
-        <v>2014.9073987909073</v>
+        <f>O4*M4</f>
+        <v>1368.903</v>
       </c>
       <c r="Q4" s="3">
-        <f t="shared" si="1"/>
-        <v>644770.36761309032</v>
+        <f t="shared" si="0"/>
+        <v>438048.96</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A5" s="2">
-        <v>2024</v>
+        <v>2023</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>5</v>
+        <v>336</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>42</v>
@@ -4717,166 +4747,163 @@
         <v>264</v>
       </c>
       <c r="E5" s="2">
-        <v>160</v>
+        <v>320</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="H5" s="2">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="I5" s="158">
-        <v>45599</v>
+        <v>45371</v>
       </c>
       <c r="J5" s="2">
         <v>1</v>
       </c>
       <c r="K5" s="158">
-        <v>45658</v>
-      </c>
-      <c r="L5" s="155">
-        <v>280.75</v>
-      </c>
+        <f>I5+60</f>
+        <v>45431</v>
+      </c>
+      <c r="L5" s="155"/>
       <c r="M5" s="155">
-        <v>404.4461</v>
+        <v>271.5</v>
       </c>
       <c r="N5" s="3">
-        <f t="shared" si="0"/>
-        <v>64711.376000000004</v>
+        <f t="shared" si="1"/>
+        <v>86880</v>
       </c>
       <c r="O5" s="160">
-        <v>5.7499741972351099</v>
+        <v>5.0419999999999998</v>
       </c>
       <c r="P5" s="3">
-        <f t="shared" si="2"/>
-        <v>2325.554639172371</v>
+        <f>O5*M5</f>
+        <v>1368.903</v>
       </c>
       <c r="Q5" s="3">
-        <f t="shared" si="1"/>
-        <v>372088.74226757936</v>
+        <f t="shared" si="0"/>
+        <v>438048.96</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A6" s="2">
-        <v>2024</v>
+        <v>2023</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>4</v>
+        <v>278</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>42</v>
       </c>
       <c r="D6" s="159" t="s">
-        <v>264</v>
+        <v>46</v>
       </c>
       <c r="E6" s="2">
-        <v>160</v>
+        <v>320</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="H6" s="2">
-        <v>-8</v>
+        <v>20</v>
       </c>
       <c r="I6" s="158">
-        <v>45599</v>
+        <v>45383</v>
       </c>
       <c r="J6" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K6" s="158">
-        <v>45658</v>
-      </c>
-      <c r="L6" s="155">
-        <v>280.75</v>
-      </c>
+        <v>45748</v>
+      </c>
+      <c r="L6" s="155"/>
       <c r="M6" s="155">
-        <v>360.7937</v>
+        <v>326.8</v>
       </c>
       <c r="N6" s="3">
-        <f t="shared" si="0"/>
-        <v>57726.991999999998</v>
+        <f t="shared" si="1"/>
+        <v>104576</v>
       </c>
       <c r="O6" s="160">
-        <v>5.7499741972351099</v>
+        <f>(5.725*0.5+5.6337*0.5)</f>
+        <v>5.6793499999999995</v>
       </c>
       <c r="P6" s="3">
-        <f t="shared" si="2"/>
-        <v>2074.5544655249851</v>
+        <f>M6*O6</f>
+        <v>1856.0115799999999</v>
       </c>
       <c r="Q6" s="3">
-        <f t="shared" si="1"/>
-        <v>331928.71448399761</v>
+        <f t="shared" si="0"/>
+        <v>593923.70559999999</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A7" s="2">
-        <v>2024</v>
+        <v>2023</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>9</v>
+        <v>277</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>42</v>
       </c>
       <c r="D7" s="159" t="s">
-        <v>264</v>
+        <v>46</v>
       </c>
       <c r="E7" s="2">
-        <v>320</v>
+        <v>280</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="H7" s="2">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="I7" s="158">
-        <v>45630</v>
+        <v>45383</v>
       </c>
       <c r="J7" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K7" s="158">
-        <v>45689</v>
-      </c>
-      <c r="L7" s="155">
-        <v>323.25</v>
-      </c>
+        <v>45597</v>
+      </c>
+      <c r="L7" s="155"/>
       <c r="M7" s="155">
-        <v>440.82310000000001</v>
+        <v>316.81060714285712</v>
       </c>
       <c r="N7" s="3">
-        <f t="shared" si="0"/>
-        <v>141063.39199999999</v>
+        <f t="shared" si="1"/>
+        <v>88706.97</v>
       </c>
       <c r="O7" s="160">
-        <v>5.7669999035936632</v>
+        <f>5.76</f>
+        <v>5.76</v>
       </c>
       <c r="P7" s="3">
-        <f t="shared" si="2"/>
-        <v>2542.2267752018597</v>
+        <f>M7*O7</f>
+        <v>1824.8290971428569</v>
       </c>
       <c r="Q7" s="3">
-        <f t="shared" si="1"/>
-        <v>813512.56806459511</v>
+        <f t="shared" si="0"/>
+        <v>510952.14719999995</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A8" s="2">
-        <v>2024</v>
+        <v>2023</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>8</v>
+        <v>334</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>42</v>
@@ -4891,162 +4918,148 @@
         <v>27</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="H8" s="2">
-        <v>50</v>
+        <v>13.7</v>
       </c>
       <c r="I8" s="158">
-        <f>I7</f>
-        <v>45630</v>
+        <v>45442</v>
       </c>
       <c r="J8" s="2">
         <v>1</v>
       </c>
       <c r="K8" s="158">
-        <v>45689</v>
-      </c>
-      <c r="L8" s="155">
-        <v>323.25</v>
-      </c>
+        <f>I8+90</f>
+        <v>45532</v>
+      </c>
+      <c r="L8" s="155"/>
       <c r="M8" s="155">
-        <v>493.73509999999999</v>
+        <v>271.5</v>
       </c>
       <c r="N8" s="3">
-        <f t="shared" si="0"/>
-        <v>157995.23199999999</v>
+        <f t="shared" si="1"/>
+        <v>86880</v>
       </c>
       <c r="O8" s="160">
-        <v>5.7669999035936632</v>
+        <v>5.0419999999999998</v>
       </c>
       <c r="P8" s="3">
-        <f t="shared" si="2"/>
-        <v>2847.3702741008078</v>
+        <f>O8*M8</f>
+        <v>1368.903</v>
       </c>
       <c r="Q8" s="3">
-        <f t="shared" si="1"/>
-        <v>911158.48771225847</v>
+        <f t="shared" si="0"/>
+        <v>438048.96</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A9" s="2">
-        <v>2024</v>
+        <v>2023</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>7</v>
+        <v>337</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>42</v>
       </c>
       <c r="D9" s="159" t="s">
-        <v>264</v>
+        <v>342</v>
       </c>
       <c r="E9" s="2">
-        <v>320</v>
+        <v>50</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="H9" s="2">
-        <v>-8</v>
+        <v>0</v>
       </c>
       <c r="I9" s="158">
-        <f>I8</f>
-        <v>45630</v>
+        <v>45473</v>
       </c>
       <c r="J9" s="2">
         <v>1</v>
       </c>
       <c r="K9" s="158">
-        <v>45689</v>
-      </c>
-      <c r="L9" s="155">
-        <v>323.25</v>
-      </c>
+        <f>I9</f>
+        <v>45473</v>
+      </c>
+      <c r="L9" s="155"/>
       <c r="M9" s="155">
-        <v>417.0127</v>
+        <v>300.27999999999997</v>
       </c>
       <c r="N9" s="3">
-        <f t="shared" si="0"/>
-        <v>133444.06400000001</v>
+        <f t="shared" si="1"/>
+        <v>15013.999999999998</v>
       </c>
       <c r="O9" s="160">
-        <v>5.7669999035936632</v>
+        <v>5.4260000000000002</v>
       </c>
       <c r="P9" s="3">
-        <f t="shared" si="2"/>
-        <v>2404.912200697333</v>
+        <f>M9*O9</f>
+        <v>1629.3192799999999</v>
       </c>
       <c r="Q9" s="3">
-        <f t="shared" si="1"/>
-        <v>769571.90422314662</v>
+        <f t="shared" si="0"/>
+        <v>81465.963999999993</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A10" s="2">
-        <v>2024</v>
+        <v>2023</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>5</v>
+        <v>340</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>42</v>
+        <v>89</v>
       </c>
       <c r="D10" s="159" t="s">
-        <v>264</v>
+        <v>86</v>
       </c>
       <c r="E10" s="2">
-        <v>160</v>
+        <v>3</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="H10" s="2">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="I10" s="158">
-        <v>45349</v>
+        <v>45473</v>
       </c>
       <c r="J10" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K10" s="158">
-        <v>45778</v>
-      </c>
-      <c r="L10" s="155">
-        <v>393.05</v>
-      </c>
-      <c r="M10" s="155">
-        <v>557.75861999999995</v>
-      </c>
-      <c r="N10" s="3">
-        <f t="shared" si="0"/>
-        <v>89241.379199999996</v>
-      </c>
-      <c r="O10" s="160">
-        <v>5.5049999999999999</v>
-      </c>
+        <v>45580</v>
+      </c>
+      <c r="L10" s="155"/>
+      <c r="M10" s="155"/>
+      <c r="N10" s="3"/>
+      <c r="O10" s="160"/>
       <c r="P10" s="3">
-        <f t="shared" si="2"/>
-        <v>3070.4612030999997</v>
+        <v>1500</v>
       </c>
       <c r="Q10" s="3">
-        <f t="shared" si="1"/>
-        <v>491273.79249599995</v>
+        <f t="shared" si="0"/>
+        <v>4500</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A11" s="2">
-        <v>2024</v>
+        <v>2023</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>4</v>
+        <v>338</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>42</v>
@@ -5055,111 +5068,100 @@
         <v>264</v>
       </c>
       <c r="E11" s="2">
-        <v>160</v>
+        <v>320</v>
       </c>
       <c r="F11" s="2" t="s">
         <v>27</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="H11" s="2">
-        <v>-8</v>
+        <v>15</v>
       </c>
       <c r="I11" s="158">
-        <v>45349</v>
+        <v>45473</v>
       </c>
       <c r="J11" s="2">
         <v>1</v>
       </c>
       <c r="K11" s="158">
-        <v>45748</v>
-      </c>
-      <c r="L11" s="155">
-        <v>393.05</v>
-      </c>
+        <f>I11+90</f>
+        <v>45563</v>
+      </c>
+      <c r="L11" s="155"/>
       <c r="M11" s="155">
-        <v>526.34211999999991</v>
+        <v>308.54000000000002</v>
       </c>
       <c r="N11" s="3">
-        <f t="shared" si="0"/>
-        <v>84214.739199999982</v>
+        <f>M11*E11</f>
+        <v>98732.800000000003</v>
       </c>
       <c r="O11" s="160">
-        <f>(499233.9/(SUM(N10:N11)/2))</f>
-        <v>5.7563135230403049</v>
+        <f>572795/N11</f>
+        <v>5.8014661794256819</v>
       </c>
       <c r="P11" s="3">
-        <f t="shared" ref="P11:P13" si="3">M11*O11</f>
-        <v>3029.7902631017023</v>
+        <f>M11*O11</f>
+        <v>1789.984375</v>
       </c>
       <c r="Q11" s="3">
-        <f>P11*E11</f>
-        <v>484766.44209627237</v>
+        <f t="shared" si="0"/>
+        <v>572795</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A12" s="2">
-        <v>2024</v>
+        <v>2023</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>6</v>
+        <v>341</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>42</v>
+        <v>89</v>
       </c>
       <c r="D12" s="159" t="s">
-        <v>264</v>
+        <v>343</v>
       </c>
       <c r="E12" s="2">
-        <v>320</v>
+        <v>138</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="H12" s="2">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="I12" s="158">
-        <v>45678</v>
+        <v>45485</v>
       </c>
       <c r="J12" s="2">
         <v>1</v>
       </c>
       <c r="K12" s="158">
-        <v>45717</v>
-      </c>
-      <c r="L12" s="155">
-        <v>342</v>
-      </c>
-      <c r="M12" s="155">
-        <v>465.62559999999996</v>
-      </c>
-      <c r="N12" s="3">
-        <f t="shared" si="0"/>
-        <v>149000.19199999998</v>
-      </c>
-      <c r="O12" s="160">
-        <v>5.7249999999999996</v>
-      </c>
+        <v>45485</v>
+      </c>
+      <c r="L12" s="155"/>
+      <c r="M12" s="155"/>
+      <c r="N12" s="3"/>
+      <c r="O12" s="160"/>
       <c r="P12" s="3">
-        <f t="shared" si="3"/>
-        <v>2665.7065599999996</v>
+        <v>1520</v>
       </c>
       <c r="Q12" s="3">
-        <f>P12*E12</f>
-        <v>853026.09919999982</v>
+        <f t="shared" si="0"/>
+        <v>209760</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A13" s="2">
-        <v>2024</v>
+        <v>2023</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>3</v>
+        <v>339</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>42</v>
@@ -5174,48 +5176,48 @@
         <v>27</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="H13" s="2">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="I13" s="158">
-        <v>45678</v>
+        <v>45503</v>
       </c>
       <c r="J13" s="2">
         <v>1</v>
       </c>
       <c r="K13" s="158">
-        <v>45717</v>
-      </c>
-      <c r="L13" s="155">
-        <v>342</v>
-      </c>
+        <f>I13+90</f>
+        <v>45593</v>
+      </c>
+      <c r="L13" s="155"/>
       <c r="M13" s="155">
-        <v>465.62559999999996</v>
+        <v>308.54000000000002</v>
       </c>
       <c r="N13" s="3">
-        <f t="shared" si="0"/>
-        <v>149000.19199999998</v>
+        <f t="shared" ref="N13:N23" si="2">M13*E13</f>
+        <v>98732.800000000003</v>
       </c>
       <c r="O13" s="160">
-        <v>5.7249999999999996</v>
+        <f>579189/N13</f>
+        <v>5.8662268263434241</v>
       </c>
       <c r="P13" s="3">
-        <f t="shared" si="3"/>
-        <v>2665.7065599999996</v>
+        <f t="shared" ref="P13:P23" si="3">M13*O13</f>
+        <v>1809.9656250000003</v>
       </c>
       <c r="Q13" s="3">
-        <f>P13*E13</f>
-        <v>853026.09919999982</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
+        <f t="shared" si="0"/>
+        <v>579189.00000000012</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A14" s="2">
         <v>2024</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>42</v>
@@ -5224,44 +5226,54 @@
         <v>264</v>
       </c>
       <c r="E14" s="2">
-        <v>320</v>
+        <v>160</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="H14" s="2">
-        <v>-28</v>
+        <v>25</v>
       </c>
       <c r="I14" s="158">
-        <v>45746</v>
+        <v>45349</v>
       </c>
       <c r="J14" s="2">
         <v>1</v>
       </c>
       <c r="K14" s="158">
-        <v>45809</v>
+        <v>45778</v>
       </c>
       <c r="L14" s="155">
-        <v>370.95</v>
+        <v>393.05</v>
       </c>
       <c r="M14" s="155">
-        <v>453.65425999999997</v>
+        <v>557.75861999999995</v>
       </c>
       <c r="N14" s="3">
-        <f t="shared" si="0"/>
-        <v>145169.36319999999</v>
-      </c>
-      <c r="O14" s="160"/>
+        <f t="shared" si="2"/>
+        <v>89241.379199999996</v>
+      </c>
+      <c r="O14" s="160">
+        <v>5.5049999999999999</v>
+      </c>
+      <c r="P14" s="3">
+        <f t="shared" si="3"/>
+        <v>3070.4612030999997</v>
+      </c>
+      <c r="Q14" s="3">
+        <f t="shared" si="0"/>
+        <v>491273.79249599995</v>
+      </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A15" s="2">
         <v>2024</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>42</v>
@@ -5270,7 +5282,7 @@
         <v>264</v>
       </c>
       <c r="E15" s="2">
-        <v>320</v>
+        <v>160</v>
       </c>
       <c r="F15" s="2" t="s">
         <v>27</v>
@@ -5279,41 +5291,52 @@
         <v>37</v>
       </c>
       <c r="H15" s="2">
-        <v>10</v>
+        <v>-8</v>
       </c>
       <c r="I15" s="158">
-        <v>45746</v>
+        <v>45349</v>
       </c>
       <c r="J15" s="2">
         <v>1</v>
       </c>
       <c r="K15" s="158">
-        <v>45809</v>
+        <v>45748</v>
       </c>
       <c r="L15" s="155">
-        <v>329.5</v>
+        <v>393.05</v>
       </c>
       <c r="M15" s="155">
-        <v>449.09059999999999</v>
+        <v>526.34211999999991</v>
       </c>
       <c r="N15" s="3">
-        <f t="shared" si="0"/>
-        <v>143708.992</v>
-      </c>
-      <c r="O15" s="160"/>
+        <f t="shared" si="2"/>
+        <v>84214.739199999982</v>
+      </c>
+      <c r="O15" s="160">
+        <f>(499233.9/(SUM(N14:N15)/2))</f>
+        <v>5.7563135230403049</v>
+      </c>
+      <c r="P15" s="3">
+        <f t="shared" si="3"/>
+        <v>3029.7902631017023</v>
+      </c>
+      <c r="Q15" s="3">
+        <f t="shared" si="0"/>
+        <v>484766.44209627237</v>
+      </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A16" s="2">
         <v>2024</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>42</v>
       </c>
       <c r="D16" s="159" t="s">
-        <v>19</v>
+        <v>264</v>
       </c>
       <c r="E16" s="2">
         <v>320</v>
@@ -5322,106 +5345,110 @@
         <v>27</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="H16" s="2">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="I16" s="158">
-        <v>45671</v>
+        <v>45564</v>
       </c>
       <c r="J16" s="2">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="K16" s="158">
-        <v>45748</v>
-      </c>
-      <c r="L16" s="155"/>
+        <v>45627</v>
+      </c>
+      <c r="L16" s="155">
+        <v>251.05</v>
+      </c>
       <c r="M16" s="155">
-        <v>325</v>
+        <v>345.31693999999999</v>
       </c>
       <c r="N16" s="3">
-        <f t="shared" si="0"/>
-        <v>104000</v>
+        <f t="shared" si="2"/>
+        <v>110501.42079999999</v>
       </c>
       <c r="O16" s="160">
-        <v>5.8079999999999998</v>
+        <v>5.8349509259259262</v>
       </c>
       <c r="P16" s="3">
-        <f>M16*O16</f>
-        <v>1887.6</v>
+        <f t="shared" si="3"/>
+        <v>2014.9073987909073</v>
       </c>
       <c r="Q16" s="3">
-        <f>P16*E16</f>
-        <v>604032</v>
-      </c>
-    </row>
-    <row r="17" spans="1:20" x14ac:dyDescent="0.2">
+        <f t="shared" si="0"/>
+        <v>644770.36761309032</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A17" s="2">
         <v>2024</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="C17" s="2" t="s">
         <v>42</v>
       </c>
       <c r="D17" s="159" t="s">
-        <v>19</v>
+        <v>264</v>
       </c>
       <c r="E17" s="2">
         <v>320</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="H17" s="2">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="I17" s="158">
-        <v>45702</v>
+        <v>45564</v>
       </c>
       <c r="J17" s="2">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="K17" s="158">
-        <v>45778</v>
-      </c>
-      <c r="L17" s="155"/>
+        <v>45627</v>
+      </c>
+      <c r="L17" s="155">
+        <v>251.05</v>
+      </c>
       <c r="M17" s="155">
-        <v>325</v>
+        <v>345.31693999999999</v>
       </c>
       <c r="N17" s="3">
-        <f t="shared" si="0"/>
-        <v>104000</v>
+        <f t="shared" si="2"/>
+        <v>110501.42079999999</v>
       </c>
       <c r="O17" s="160">
-        <v>5.8079999999999998</v>
+        <v>5.8349509259259262</v>
       </c>
       <c r="P17" s="3">
-        <f>M17*O17</f>
-        <v>1887.6</v>
+        <f t="shared" si="3"/>
+        <v>2014.9073987909073</v>
       </c>
       <c r="Q17" s="3">
-        <f>P17*E17</f>
-        <v>604032</v>
-      </c>
-    </row>
-    <row r="18" spans="1:20" x14ac:dyDescent="0.2">
+        <f t="shared" si="0"/>
+        <v>644770.36761309032</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A18" s="2">
         <v>2024</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="C18" s="2" t="s">
         <v>42</v>
       </c>
       <c r="D18" s="159" t="s">
-        <v>91</v>
+        <v>264</v>
       </c>
       <c r="E18" s="2">
         <v>320</v>
@@ -5430,162 +5457,166 @@
         <v>27</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="H18" s="2">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="I18" s="158">
-        <v>45666</v>
+        <v>45564</v>
       </c>
       <c r="J18" s="2">
         <v>1</v>
       </c>
       <c r="K18" s="158">
-        <v>45658</v>
-      </c>
-      <c r="L18" s="155"/>
+        <v>45627</v>
+      </c>
+      <c r="L18" s="155">
+        <v>251.05</v>
+      </c>
       <c r="M18" s="155">
-        <v>468.27119999999996</v>
+        <v>345.31693999999999</v>
       </c>
       <c r="N18" s="3">
-        <f t="shared" si="0"/>
-        <v>149846.78399999999</v>
+        <f t="shared" si="2"/>
+        <v>110501.42079999999</v>
       </c>
       <c r="O18" s="160">
-        <v>5.8236999999999997</v>
+        <v>5.8349509259259262</v>
       </c>
       <c r="P18" s="3">
-        <f>M18*O18</f>
-        <v>2727.0709874399995</v>
+        <f t="shared" si="3"/>
+        <v>2014.9073987909073</v>
       </c>
       <c r="Q18" s="3">
-        <f t="shared" ref="Q18:Q19" si="4">P18*E18</f>
-        <v>872662.71598079987</v>
-      </c>
-    </row>
-    <row r="19" spans="1:20" x14ac:dyDescent="0.2">
+        <f t="shared" si="0"/>
+        <v>644770.36761309032</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A19" s="2">
-        <v>2023</v>
+        <v>2024</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>277</v>
+        <v>5</v>
       </c>
       <c r="C19" s="2" t="s">
         <v>42</v>
       </c>
       <c r="D19" s="159" t="s">
-        <v>46</v>
+        <v>264</v>
       </c>
       <c r="E19" s="2">
-        <v>280</v>
+        <v>160</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="H19" s="2">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="I19" s="158">
-        <v>45383</v>
+        <v>45599</v>
       </c>
       <c r="J19" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K19" s="158">
-        <v>45597</v>
-      </c>
-      <c r="L19" s="155"/>
+        <v>45658</v>
+      </c>
+      <c r="L19" s="155">
+        <v>280.75</v>
+      </c>
       <c r="M19" s="155">
-        <v>316.81060714285712</v>
+        <v>404.4461</v>
       </c>
       <c r="N19" s="3">
-        <f t="shared" si="0"/>
-        <v>88706.97</v>
+        <f t="shared" si="2"/>
+        <v>64711.376000000004</v>
       </c>
       <c r="O19" s="160">
-        <f>5.76</f>
-        <v>5.76</v>
+        <v>5.7499741972351099</v>
       </c>
       <c r="P19" s="3">
-        <f>M19*O19</f>
-        <v>1824.8290971428569</v>
+        <f t="shared" si="3"/>
+        <v>2325.554639172371</v>
       </c>
       <c r="Q19" s="3">
-        <f t="shared" si="4"/>
-        <v>510952.14719999995</v>
-      </c>
-    </row>
-    <row r="20" spans="1:20" x14ac:dyDescent="0.2">
+        <f t="shared" si="0"/>
+        <v>372088.74226757936</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A20" s="2">
-        <v>2023</v>
+        <v>2024</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>278</v>
+        <v>4</v>
       </c>
       <c r="C20" s="2" t="s">
         <v>42</v>
       </c>
       <c r="D20" s="159" t="s">
-        <v>46</v>
+        <v>264</v>
       </c>
       <c r="E20" s="2">
-        <v>320</v>
+        <v>160</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="H20" s="2">
-        <v>0</v>
+        <v>-8</v>
       </c>
       <c r="I20" s="158">
-        <v>45383</v>
+        <v>45599</v>
       </c>
       <c r="J20" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K20" s="158">
-        <v>45748</v>
-      </c>
-      <c r="L20" s="155"/>
+        <v>45658</v>
+      </c>
+      <c r="L20" s="155">
+        <v>280.75</v>
+      </c>
       <c r="M20" s="155">
-        <v>326.8</v>
+        <v>360.7937</v>
       </c>
       <c r="N20" s="3">
-        <f t="shared" si="0"/>
-        <v>104576</v>
+        <f t="shared" si="2"/>
+        <v>57726.991999999998</v>
       </c>
       <c r="O20" s="160">
-        <f>(5.725*0.5+5.6337*0.5)</f>
-        <v>5.6793499999999995</v>
+        <v>5.7499741972351099</v>
       </c>
       <c r="P20" s="3">
-        <f>M20*O20</f>
-        <v>1856.0115799999999</v>
+        <f t="shared" si="3"/>
+        <v>2074.5544655249851</v>
       </c>
       <c r="Q20" s="3">
-        <f>P20*E20</f>
-        <v>593923.70559999999</v>
-      </c>
-    </row>
-    <row r="21" spans="1:20" x14ac:dyDescent="0.2">
+        <f t="shared" si="0"/>
+        <v>331928.71448399761</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A21" s="2">
         <v>2024</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>47</v>
+        <v>9</v>
       </c>
       <c r="C21" s="2" t="s">
         <v>42</v>
       </c>
       <c r="D21" s="159" t="s">
-        <v>46</v>
+        <v>264</v>
       </c>
       <c r="E21" s="2">
         <v>320</v>
@@ -5594,42 +5625,54 @@
         <v>27</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="H21" s="2">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="I21" s="158">
-        <v>45695</v>
+        <v>45630</v>
       </c>
       <c r="J21" s="2">
         <v>1</v>
       </c>
       <c r="K21" s="158">
-        <v>45809</v>
-      </c>
-      <c r="L21" s="155"/>
+        <v>45689</v>
+      </c>
+      <c r="L21" s="155">
+        <v>323.25</v>
+      </c>
       <c r="M21" s="155">
-        <v>413</v>
+        <v>440.82310000000001</v>
       </c>
       <c r="N21" s="3">
-        <f t="shared" si="0"/>
-        <v>132160</v>
-      </c>
-      <c r="O21" s="160"/>
-    </row>
-    <row r="22" spans="1:20" x14ac:dyDescent="0.2">
+        <f t="shared" si="2"/>
+        <v>141063.39199999999</v>
+      </c>
+      <c r="O21" s="160">
+        <v>5.7669999035936632</v>
+      </c>
+      <c r="P21" s="3">
+        <f t="shared" si="3"/>
+        <v>2542.2267752018597</v>
+      </c>
+      <c r="Q21" s="3">
+        <f t="shared" si="0"/>
+        <v>813512.56806459511</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A22" s="2">
         <v>2024</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>84</v>
+        <v>8</v>
       </c>
       <c r="C22" s="2" t="s">
         <v>42</v>
       </c>
       <c r="D22" s="159" t="s">
-        <v>46</v>
+        <v>264</v>
       </c>
       <c r="E22" s="2">
         <v>320</v>
@@ -5638,462 +5681,524 @@
         <v>27</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H22" s="2">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="I22" s="158">
-        <v>45695</v>
+        <f>I21</f>
+        <v>45630</v>
       </c>
       <c r="J22" s="2">
         <v>1</v>
       </c>
       <c r="K22" s="158">
-        <v>45809</v>
-      </c>
-      <c r="L22" s="155"/>
+        <v>45689</v>
+      </c>
+      <c r="L22" s="155">
+        <v>323.25</v>
+      </c>
       <c r="M22" s="155">
-        <v>450</v>
+        <v>493.73509999999999</v>
       </c>
       <c r="N22" s="3">
-        <f t="shared" si="0"/>
-        <v>144000</v>
-      </c>
-      <c r="O22" s="160"/>
-    </row>
-    <row r="23" spans="1:20" x14ac:dyDescent="0.2">
+        <f t="shared" si="2"/>
+        <v>157995.23199999999</v>
+      </c>
+      <c r="O22" s="160">
+        <v>5.7669999035936632</v>
+      </c>
+      <c r="P22" s="3">
+        <f t="shared" si="3"/>
+        <v>2847.3702741008078</v>
+      </c>
+      <c r="Q22" s="3">
+        <f t="shared" si="0"/>
+        <v>911158.48771225847</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A23" s="2">
         <v>2024</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>85</v>
+        <v>7</v>
       </c>
       <c r="C23" s="2" t="s">
         <v>42</v>
       </c>
       <c r="D23" s="159" t="s">
-        <v>46</v>
+        <v>264</v>
       </c>
       <c r="E23" s="2">
-        <v>223</v>
+        <v>320</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="H23" s="2">
-        <v>0</v>
+        <v>-8</v>
       </c>
       <c r="I23" s="158">
-        <v>45695</v>
+        <f>I22</f>
+        <v>45630</v>
       </c>
       <c r="J23" s="2">
         <v>1</v>
       </c>
       <c r="K23" s="158">
-        <v>45809</v>
-      </c>
-      <c r="L23" s="155"/>
+        <v>45689</v>
+      </c>
+      <c r="L23" s="155">
+        <v>323.25</v>
+      </c>
       <c r="M23" s="155">
-        <v>409.35</v>
+        <v>417.0127</v>
       </c>
       <c r="N23" s="3">
-        <f t="shared" si="0"/>
-        <v>91285.05</v>
-      </c>
-      <c r="O23" s="160"/>
-    </row>
-    <row r="24" spans="1:20" x14ac:dyDescent="0.2">
+        <f t="shared" si="2"/>
+        <v>133444.06400000001</v>
+      </c>
+      <c r="O23" s="160">
+        <v>5.7669999035936632</v>
+      </c>
+      <c r="P23" s="3">
+        <f t="shared" si="3"/>
+        <v>2404.912200697333</v>
+      </c>
+      <c r="Q23" s="3">
+        <f t="shared" si="0"/>
+        <v>769571.90422314662</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A24" s="2">
         <v>2024</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>25</v>
+        <v>41</v>
       </c>
       <c r="C24" s="2" t="s">
         <v>89</v>
       </c>
       <c r="D24" s="159" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="E24" s="2">
-        <v>4</v>
+        <v>500</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="H24" s="2">
         <v>0</v>
       </c>
       <c r="I24" s="158">
-        <v>45656</v>
+        <v>45631</v>
       </c>
       <c r="J24" s="2">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="K24" s="158">
-        <v>45717</v>
+        <v>45631</v>
       </c>
       <c r="L24" s="158"/>
       <c r="M24" s="155"/>
       <c r="N24" s="3"/>
       <c r="O24" s="160"/>
       <c r="P24" s="3">
-        <v>2500</v>
+        <v>2105</v>
       </c>
       <c r="Q24" s="3">
-        <f t="shared" ref="Q24:Q36" si="5">E24*P24</f>
-        <v>10000</v>
-      </c>
-    </row>
-    <row r="25" spans="1:20" x14ac:dyDescent="0.2">
+        <f>E24*P24</f>
+        <v>1052500</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A25" s="2">
         <v>2024</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>26</v>
+        <v>43</v>
       </c>
       <c r="C25" s="2" t="s">
         <v>89</v>
       </c>
       <c r="D25" s="159" t="s">
-        <v>24</v>
+        <v>257</v>
       </c>
       <c r="E25" s="2">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G25" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="H25" s="2">
         <v>0</v>
       </c>
       <c r="I25" s="158">
-        <f>I24</f>
-        <v>45656</v>
+        <v>45632</v>
       </c>
       <c r="J25" s="2">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="K25" s="158">
-        <v>45717</v>
+        <v>45632</v>
       </c>
       <c r="L25" s="158"/>
       <c r="M25" s="155"/>
       <c r="N25" s="3"/>
       <c r="O25" s="160"/>
       <c r="P25" s="3">
-        <v>2137</v>
+        <v>2200</v>
       </c>
       <c r="Q25" s="3">
-        <f t="shared" si="5"/>
-        <v>8548</v>
-      </c>
-    </row>
-    <row r="26" spans="1:20" x14ac:dyDescent="0.2">
+        <f>E25*P25</f>
+        <v>44000</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A26" s="2">
         <v>2024</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>41</v>
+        <v>25</v>
       </c>
       <c r="C26" s="2" t="s">
         <v>89</v>
       </c>
       <c r="D26" s="159" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="E26" s="2">
-        <v>500</v>
+        <v>4</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="H26" s="2">
         <v>0</v>
       </c>
       <c r="I26" s="158">
-        <v>45631</v>
+        <v>45656</v>
       </c>
       <c r="J26" s="2">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="K26" s="158">
-        <v>45631</v>
+        <v>45717</v>
       </c>
       <c r="L26" s="158"/>
       <c r="M26" s="155"/>
       <c r="N26" s="3"/>
       <c r="O26" s="160"/>
       <c r="P26" s="3">
-        <v>2105</v>
+        <v>2500</v>
       </c>
       <c r="Q26" s="3">
-        <f t="shared" si="5"/>
-        <v>1052500</v>
-      </c>
-    </row>
-    <row r="27" spans="1:20" x14ac:dyDescent="0.2">
+        <f>E26*P26</f>
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A27" s="2">
         <v>2024</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>43</v>
+        <v>26</v>
       </c>
       <c r="C27" s="2" t="s">
         <v>89</v>
       </c>
       <c r="D27" s="159" t="s">
-        <v>257</v>
+        <v>24</v>
       </c>
       <c r="E27" s="2">
-        <v>20</v>
+        <v>4</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G27" s="2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="H27" s="2">
         <v>0</v>
       </c>
       <c r="I27" s="158">
-        <v>45632</v>
+        <f>I26</f>
+        <v>45656</v>
       </c>
       <c r="J27" s="2">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="K27" s="158">
-        <v>45632</v>
+        <v>45717</v>
       </c>
       <c r="L27" s="158"/>
       <c r="M27" s="155"/>
       <c r="N27" s="3"/>
       <c r="O27" s="160"/>
       <c r="P27" s="3">
-        <v>2200</v>
+        <v>2137</v>
       </c>
       <c r="Q27" s="3">
-        <f t="shared" si="5"/>
-        <v>44000</v>
-      </c>
-      <c r="T27" s="161"/>
-    </row>
-    <row r="28" spans="1:20" x14ac:dyDescent="0.2">
+        <f>E27*P27</f>
+        <v>8548</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A28" s="2">
         <v>2024</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>45</v>
+        <v>22</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>89</v>
+        <v>42</v>
       </c>
       <c r="D28" s="159" t="s">
-        <v>44</v>
+        <v>91</v>
       </c>
       <c r="E28" s="2">
-        <v>500</v>
+        <v>320</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="G28" s="2" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="H28" s="2">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="I28" s="158">
-        <v>45679</v>
+        <v>45666</v>
       </c>
       <c r="J28" s="2">
         <v>1</v>
       </c>
       <c r="K28" s="158">
-        <v>45679</v>
-      </c>
-      <c r="L28" s="158"/>
-      <c r="M28" s="155"/>
-      <c r="N28" s="3"/>
-      <c r="O28" s="160"/>
+        <v>45658</v>
+      </c>
+      <c r="L28" s="155"/>
+      <c r="M28" s="155">
+        <v>468.27119999999996</v>
+      </c>
+      <c r="N28" s="3">
+        <f>M28*E28</f>
+        <v>149846.78399999999</v>
+      </c>
+      <c r="O28" s="160">
+        <v>5.8236999999999997</v>
+      </c>
       <c r="P28" s="3">
-        <v>2000</v>
+        <f>M28*O28</f>
+        <v>2727.0709874399995</v>
       </c>
       <c r="Q28" s="3">
-        <f t="shared" si="5"/>
-        <v>1000000</v>
-      </c>
-    </row>
-    <row r="29" spans="1:20" x14ac:dyDescent="0.2">
+        <f>P28*E28</f>
+        <v>872662.71598079987</v>
+      </c>
+    </row>
+    <row r="29" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A29" s="2">
         <v>2024</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>87</v>
+        <v>20</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>89</v>
+        <v>42</v>
       </c>
       <c r="D29" s="159" t="s">
-        <v>86</v>
+        <v>19</v>
       </c>
       <c r="E29" s="2">
-        <v>0.5</v>
+        <v>320</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="G29" s="2" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="H29" s="2">
         <v>0</v>
       </c>
       <c r="I29" s="158">
-        <v>45708</v>
+        <v>45671</v>
       </c>
       <c r="J29" s="2">
         <v>4</v>
       </c>
       <c r="K29" s="158">
-        <v>45839</v>
-      </c>
-      <c r="L29" s="158"/>
-      <c r="M29" s="155"/>
-      <c r="N29" s="3"/>
-      <c r="O29" s="160"/>
+        <f>I29</f>
+        <v>45671</v>
+      </c>
+      <c r="L29" s="155"/>
+      <c r="M29" s="155">
+        <v>325</v>
+      </c>
+      <c r="N29" s="3">
+        <f>M29*E29</f>
+        <v>104000</v>
+      </c>
+      <c r="O29" s="160">
+        <v>5.8079999999999998</v>
+      </c>
       <c r="P29" s="3">
-        <v>2293.33</v>
+        <f>M29*O29</f>
+        <v>1887.6</v>
       </c>
       <c r="Q29" s="3">
-        <f t="shared" si="5"/>
-        <v>1146.665</v>
-      </c>
-    </row>
-    <row r="30" spans="1:20" x14ac:dyDescent="0.2">
+        <f>P29*E29</f>
+        <v>604032</v>
+      </c>
+    </row>
+    <row r="30" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A30" s="2">
         <v>2024</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>88</v>
+        <v>6</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>89</v>
+        <v>42</v>
       </c>
       <c r="D30" s="159" t="s">
-        <v>86</v>
+        <v>264</v>
       </c>
       <c r="E30" s="2">
-        <v>7</v>
+        <v>320</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="G30" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H30" s="2">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="I30" s="158">
-        <v>45708</v>
+        <v>45678</v>
       </c>
       <c r="J30" s="2">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="K30" s="158">
-        <v>45839</v>
-      </c>
-      <c r="L30" s="158"/>
-      <c r="M30" s="155"/>
-      <c r="N30" s="3"/>
-      <c r="O30" s="160"/>
+        <v>45717</v>
+      </c>
+      <c r="L30" s="155">
+        <v>342</v>
+      </c>
+      <c r="M30" s="155">
+        <v>465.62559999999996</v>
+      </c>
+      <c r="N30" s="3">
+        <f>M30*E30</f>
+        <v>149000.19199999998</v>
+      </c>
+      <c r="O30" s="160">
+        <v>5.7249999999999996</v>
+      </c>
       <c r="P30" s="3">
-        <v>2616.61</v>
+        <f>M30*O30</f>
+        <v>2665.7065599999996</v>
       </c>
       <c r="Q30" s="3">
-        <f t="shared" si="5"/>
-        <v>18316.27</v>
-      </c>
-    </row>
-    <row r="31" spans="1:20" x14ac:dyDescent="0.2">
+        <f>P30*E30</f>
+        <v>853026.09919999982</v>
+      </c>
+    </row>
+    <row r="31" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A31" s="2">
         <v>2024</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>181</v>
+        <v>3</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>89</v>
+        <v>42</v>
       </c>
       <c r="D31" s="159" t="s">
-        <v>94</v>
+        <v>264</v>
       </c>
       <c r="E31" s="2">
-        <v>486.3</v>
+        <v>320</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="G31" s="2" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="H31" s="2">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="I31" s="158">
-        <v>45684</v>
+        <v>45678</v>
       </c>
       <c r="J31" s="2">
         <v>1</v>
       </c>
       <c r="K31" s="158">
-        <v>45684</v>
-      </c>
-      <c r="L31" s="158"/>
-      <c r="M31" s="155"/>
-      <c r="N31" s="3"/>
-      <c r="O31" s="160"/>
+        <v>45717</v>
+      </c>
+      <c r="L31" s="155">
+        <v>342</v>
+      </c>
+      <c r="M31" s="155">
+        <v>465.62559999999996</v>
+      </c>
+      <c r="N31" s="3">
+        <f>M31*E31</f>
+        <v>149000.19199999998</v>
+      </c>
+      <c r="O31" s="160">
+        <v>5.7249999999999996</v>
+      </c>
       <c r="P31" s="3">
-        <v>810</v>
+        <f>M31*O31</f>
+        <v>2665.7065599999996</v>
       </c>
       <c r="Q31" s="3">
-        <f t="shared" si="5"/>
-        <v>393903</v>
-      </c>
-    </row>
-    <row r="32" spans="1:20" x14ac:dyDescent="0.2">
+        <f>P31*E31</f>
+        <v>853026.09919999982</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A32" s="2">
         <v>2024</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>182</v>
+        <v>45</v>
       </c>
       <c r="C32" s="2" t="s">
         <v>89</v>
       </c>
       <c r="D32" s="159" t="s">
-        <v>94</v>
+        <v>44</v>
       </c>
       <c r="E32" s="2">
-        <v>632.20000000000005</v>
+        <v>500</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G32" s="2" t="s">
         <v>32</v>
@@ -6102,32 +6207,32 @@
         <v>0</v>
       </c>
       <c r="I32" s="158">
-        <v>45700</v>
+        <v>45679</v>
       </c>
       <c r="J32" s="2">
         <v>1</v>
       </c>
       <c r="K32" s="158">
-        <v>45700</v>
+        <v>45679</v>
       </c>
       <c r="L32" s="158"/>
       <c r="M32" s="155"/>
       <c r="N32" s="3"/>
       <c r="O32" s="160"/>
       <c r="P32" s="3">
-        <v>2220</v>
+        <v>2000</v>
       </c>
       <c r="Q32" s="3">
-        <f t="shared" si="5"/>
-        <v>1403484</v>
-      </c>
-    </row>
-    <row r="33" spans="1:17" x14ac:dyDescent="0.2">
+        <f>E32*P32</f>
+        <v>1000000</v>
+      </c>
+    </row>
+    <row r="33" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A33" s="2">
         <v>2024</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="C33" s="2" t="s">
         <v>89</v>
@@ -6136,7 +6241,7 @@
         <v>94</v>
       </c>
       <c r="E33" s="2">
-        <v>363</v>
+        <v>486.3</v>
       </c>
       <c r="F33" s="2" t="s">
         <v>32</v>
@@ -6157,21 +6262,23 @@
         <v>45684</v>
       </c>
       <c r="L33" s="158"/>
+      <c r="M33" s="155"/>
       <c r="N33" s="3"/>
+      <c r="O33" s="160"/>
       <c r="P33" s="3">
-        <v>1750</v>
+        <v>810</v>
       </c>
       <c r="Q33" s="3">
-        <f t="shared" si="5"/>
-        <v>635250</v>
-      </c>
-    </row>
-    <row r="34" spans="1:17" x14ac:dyDescent="0.2">
+        <f>E33*P33</f>
+        <v>393903</v>
+      </c>
+    </row>
+    <row r="34" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A34" s="2">
         <v>2024</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C34" s="2" t="s">
         <v>89</v>
@@ -6180,7 +6287,7 @@
         <v>94</v>
       </c>
       <c r="E34" s="2">
-        <v>44.2</v>
+        <v>363</v>
       </c>
       <c r="F34" s="2" t="s">
         <v>32</v>
@@ -6192,446 +6299,463 @@
         <v>0</v>
       </c>
       <c r="I34" s="158">
-        <v>45700</v>
+        <v>45684</v>
       </c>
       <c r="J34" s="2">
         <v>1</v>
       </c>
       <c r="K34" s="158">
-        <v>45700</v>
+        <v>45684</v>
       </c>
       <c r="L34" s="158"/>
       <c r="N34" s="3"/>
       <c r="P34" s="3">
-        <v>2400</v>
+        <v>1750</v>
       </c>
       <c r="Q34" s="3">
-        <f t="shared" si="5"/>
-        <v>106080</v>
-      </c>
-    </row>
-    <row r="35" spans="1:17" x14ac:dyDescent="0.2">
+        <f>E34*P34</f>
+        <v>635250</v>
+      </c>
+    </row>
+    <row r="35" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A35" s="2">
         <v>2024</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>276</v>
+        <v>47</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>89</v>
+        <v>42</v>
       </c>
       <c r="D35" s="159" t="s">
-        <v>86</v>
+        <v>46</v>
       </c>
       <c r="E35" s="2">
-        <v>7</v>
+        <v>320</v>
       </c>
       <c r="F35" s="2" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="G35" s="2" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="H35" s="2">
         <v>0</v>
       </c>
       <c r="I35" s="158">
-        <v>45789</v>
+        <v>45695</v>
       </c>
       <c r="J35" s="2">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="K35" s="158">
-        <v>45789</v>
-      </c>
-      <c r="L35" s="158"/>
-      <c r="N35" s="3"/>
-      <c r="P35" s="3">
-        <v>2616.61</v>
-      </c>
-      <c r="Q35" s="3">
-        <f t="shared" ref="Q35" si="6">E35*P35</f>
-        <v>18316.27</v>
-      </c>
-    </row>
-    <row r="36" spans="1:17" x14ac:dyDescent="0.2">
+        <v>45809</v>
+      </c>
+      <c r="L35" s="155"/>
+      <c r="M35" s="155">
+        <v>413</v>
+      </c>
+      <c r="N35" s="3">
+        <f>M35*E35</f>
+        <v>132160</v>
+      </c>
+      <c r="O35" s="160"/>
+    </row>
+    <row r="36" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A36" s="2">
         <v>2024</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>256</v>
+        <v>84</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>89</v>
+        <v>42</v>
       </c>
       <c r="D36" s="159" t="s">
-        <v>257</v>
+        <v>46</v>
       </c>
       <c r="E36" s="2">
-        <v>5</v>
+        <v>320</v>
       </c>
       <c r="F36" s="2" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="G36" s="2" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="H36" s="2">
         <v>0</v>
       </c>
       <c r="I36" s="158">
-        <v>45778</v>
+        <v>45695</v>
       </c>
       <c r="J36" s="2">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="K36" s="158">
-        <v>45870</v>
-      </c>
-      <c r="L36" s="158"/>
-      <c r="N36" s="3"/>
-      <c r="P36" s="3">
-        <v>2700</v>
-      </c>
-      <c r="Q36" s="3">
-        <f t="shared" si="5"/>
-        <v>13500</v>
-      </c>
-    </row>
-    <row r="37" spans="1:17" x14ac:dyDescent="0.2">
+        <v>45809</v>
+      </c>
+      <c r="L36" s="155"/>
+      <c r="M36" s="155">
+        <v>450</v>
+      </c>
+      <c r="N36" s="3">
+        <f>M36*E36</f>
+        <v>144000</v>
+      </c>
+      <c r="O36" s="160"/>
+    </row>
+    <row r="37" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A37" s="2">
-        <v>2025</v>
+        <v>2024</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>258</v>
+        <v>85</v>
       </c>
       <c r="C37" s="2" t="s">
         <v>42</v>
       </c>
       <c r="D37" s="159" t="s">
-        <v>264</v>
+        <v>46</v>
       </c>
       <c r="E37" s="2">
-        <v>320</v>
+        <v>223</v>
       </c>
       <c r="F37" s="2" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="G37" s="2" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="H37" s="2">
         <v>0</v>
       </c>
       <c r="I37" s="158">
-        <v>45870</v>
+        <v>45695</v>
       </c>
       <c r="J37" s="2">
         <v>1</v>
       </c>
       <c r="K37" s="158">
-        <f t="shared" ref="K37:K42" si="7">I37+60</f>
-        <v>45930</v>
-      </c>
-      <c r="L37" s="158"/>
+        <v>45809</v>
+      </c>
+      <c r="L37" s="155"/>
       <c r="M37" s="155">
-        <v>505</v>
+        <v>409.35</v>
       </c>
       <c r="N37" s="3">
         <f>M37*E37</f>
-        <v>161600</v>
-      </c>
-    </row>
-    <row r="38" spans="1:17" x14ac:dyDescent="0.2">
+        <v>91285.05</v>
+      </c>
+      <c r="O37" s="160"/>
+      <c r="T37" s="161"/>
+    </row>
+    <row r="38" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A38" s="2">
-        <v>2025</v>
+        <v>2024</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>259</v>
+        <v>182</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>42</v>
+        <v>89</v>
       </c>
       <c r="D38" s="159" t="s">
-        <v>264</v>
+        <v>94</v>
       </c>
       <c r="E38" s="2">
-        <v>320</v>
+        <v>632.20000000000005</v>
       </c>
       <c r="F38" s="2" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="G38" s="2" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="H38" s="2">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="I38" s="158">
-        <v>45901</v>
+        <v>45700</v>
       </c>
       <c r="J38" s="2">
         <v>1</v>
       </c>
       <c r="K38" s="158">
-        <f t="shared" si="7"/>
-        <v>45961</v>
-      </c>
-      <c r="L38" s="155">
-        <v>330</v>
-      </c>
-      <c r="M38" s="155">
-        <f>(L38+H38)*1.3228</f>
-        <v>476.20799999999997</v>
-      </c>
-      <c r="N38" s="3">
-        <f>(E38*(M38+H38))</f>
-        <v>161986.56</v>
-      </c>
-    </row>
-    <row r="39" spans="1:17" x14ac:dyDescent="0.2">
+        <v>45700</v>
+      </c>
+      <c r="L38" s="158"/>
+      <c r="M38" s="155"/>
+      <c r="N38" s="3"/>
+      <c r="O38" s="160"/>
+      <c r="P38" s="3">
+        <v>2220</v>
+      </c>
+      <c r="Q38" s="3">
+        <f>E38*P38</f>
+        <v>1403484</v>
+      </c>
+    </row>
+    <row r="39" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A39" s="2">
-        <v>2025</v>
+        <v>2024</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>260</v>
+        <v>184</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>42</v>
+        <v>89</v>
       </c>
       <c r="D39" s="159" t="s">
-        <v>264</v>
+        <v>94</v>
       </c>
       <c r="E39" s="2">
-        <v>320</v>
+        <v>44.2</v>
       </c>
       <c r="F39" s="2" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="G39" s="2" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="H39" s="2">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="I39" s="158">
-        <v>45931</v>
+        <v>45700</v>
       </c>
       <c r="J39" s="2">
         <v>1</v>
       </c>
       <c r="K39" s="158">
-        <f t="shared" si="7"/>
-        <v>45991</v>
-      </c>
-      <c r="L39" s="155">
-        <v>330</v>
-      </c>
-      <c r="M39" s="155">
-        <f>(L39+H39)*1.3228</f>
-        <v>476.20799999999997</v>
-      </c>
-      <c r="N39" s="3">
-        <f>(E39*(M39+H39))</f>
-        <v>161986.56</v>
-      </c>
-    </row>
-    <row r="40" spans="1:17" x14ac:dyDescent="0.2">
+        <v>45700</v>
+      </c>
+      <c r="L39" s="158"/>
+      <c r="N39" s="3"/>
+      <c r="P39" s="3">
+        <v>2400</v>
+      </c>
+      <c r="Q39" s="3">
+        <f>E39*P39</f>
+        <v>106080</v>
+      </c>
+    </row>
+    <row r="40" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A40" s="2">
-        <v>2025</v>
+        <v>2024</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>261</v>
+        <v>21</v>
       </c>
       <c r="C40" s="2" t="s">
         <v>42</v>
       </c>
       <c r="D40" s="159" t="s">
-        <v>264</v>
+        <v>19</v>
       </c>
       <c r="E40" s="2">
         <v>320</v>
       </c>
       <c r="F40" s="2" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="G40" s="2" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="H40" s="2">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="I40" s="158">
-        <v>45962</v>
+        <v>45702</v>
       </c>
       <c r="J40" s="2">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="K40" s="158">
-        <f t="shared" si="7"/>
-        <v>46022</v>
-      </c>
-      <c r="L40" s="155">
-        <v>330</v>
-      </c>
+        <f>I40</f>
+        <v>45702</v>
+      </c>
+      <c r="L40" s="155"/>
       <c r="M40" s="155">
-        <f>(L40+H40)*1.3228</f>
-        <v>476.20799999999997</v>
+        <v>325</v>
       </c>
       <c r="N40" s="3">
-        <f>(E40*(M40+H40))</f>
-        <v>161986.56</v>
-      </c>
-    </row>
-    <row r="41" spans="1:17" x14ac:dyDescent="0.2">
+        <f>M40*E40</f>
+        <v>104000</v>
+      </c>
+      <c r="O40" s="160">
+        <v>5.8079999999999998</v>
+      </c>
+      <c r="P40" s="3">
+        <f>M40*O40</f>
+        <v>1887.6</v>
+      </c>
+      <c r="Q40" s="3">
+        <f>P40*E40</f>
+        <v>604032</v>
+      </c>
+    </row>
+    <row r="41" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A41" s="2">
-        <v>2025</v>
+        <v>2024</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>262</v>
+        <v>87</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>42</v>
+        <v>89</v>
       </c>
       <c r="D41" s="159" t="s">
-        <v>264</v>
+        <v>86</v>
       </c>
       <c r="E41" s="2">
-        <v>320</v>
+        <v>0.5</v>
       </c>
       <c r="F41" s="2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="G41" s="2" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="H41" s="2">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="I41" s="158">
-        <v>45992</v>
+        <v>45708</v>
       </c>
       <c r="J41" s="2">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="K41" s="158">
-        <f t="shared" si="7"/>
-        <v>46052</v>
-      </c>
-      <c r="L41" s="155">
-        <v>330</v>
-      </c>
-      <c r="M41" s="155">
-        <f>(L41+H41)*1.3228</f>
-        <v>476.20799999999997</v>
-      </c>
-      <c r="N41" s="3">
-        <f>(E41*(M41+H41))</f>
-        <v>161986.56</v>
-      </c>
-    </row>
-    <row r="42" spans="1:17" x14ac:dyDescent="0.2">
+        <v>45839</v>
+      </c>
+      <c r="L41" s="158"/>
+      <c r="M41" s="155"/>
+      <c r="N41" s="3"/>
+      <c r="O41" s="160"/>
+      <c r="P41" s="3">
+        <v>2293.33</v>
+      </c>
+      <c r="Q41" s="3">
+        <f>E41*P41</f>
+        <v>1146.665</v>
+      </c>
+    </row>
+    <row r="42" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A42" s="2">
-        <v>2025</v>
+        <v>2024</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>263</v>
+        <v>88</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>42</v>
+        <v>89</v>
       </c>
       <c r="D42" s="159" t="s">
-        <v>264</v>
+        <v>86</v>
       </c>
       <c r="E42" s="2">
-        <v>320</v>
+        <v>7</v>
       </c>
       <c r="F42" s="2" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="G42" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H42" s="2">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="I42" s="158">
-        <v>46054</v>
+        <v>45708</v>
       </c>
       <c r="J42" s="2">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="K42" s="158">
-        <f t="shared" si="7"/>
-        <v>46114</v>
-      </c>
-      <c r="L42" s="155">
-        <v>330</v>
-      </c>
-      <c r="M42" s="155">
-        <f>(L42+H42)*1.3228</f>
-        <v>476.20799999999997</v>
-      </c>
-      <c r="N42" s="3">
-        <f>(E42*(M42+H42))</f>
-        <v>161986.56</v>
-      </c>
-    </row>
-    <row r="43" spans="1:17" x14ac:dyDescent="0.2">
+        <v>45839</v>
+      </c>
+      <c r="L42" s="158"/>
+      <c r="M42" s="155"/>
+      <c r="N42" s="3"/>
+      <c r="O42" s="160"/>
+      <c r="P42" s="3">
+        <v>2616.61</v>
+      </c>
+      <c r="Q42" s="3">
+        <f>E42*P42</f>
+        <v>18316.27</v>
+      </c>
+    </row>
+    <row r="43" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A43" s="2">
-        <v>2025</v>
+        <v>2024</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>279</v>
+        <v>2</v>
       </c>
       <c r="C43" s="2" t="s">
         <v>42</v>
       </c>
       <c r="D43" s="159" t="s">
-        <v>19</v>
+        <v>264</v>
       </c>
       <c r="E43" s="2">
         <v>320</v>
       </c>
       <c r="F43" s="2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="G43" s="2" t="s">
         <v>39</v>
       </c>
       <c r="H43" s="2">
+        <v>-28</v>
+      </c>
+      <c r="I43" s="158">
+        <v>45746</v>
+      </c>
+      <c r="J43" s="2">
+        <v>1</v>
+      </c>
+      <c r="K43" s="158">
+        <v>45809</v>
+      </c>
+      <c r="L43" s="155">
+        <v>370.95</v>
+      </c>
+      <c r="M43" s="155">
+        <v>453.65425999999997</v>
+      </c>
+      <c r="N43" s="3">
+        <f>M43*E43</f>
+        <v>145169.36319999999</v>
+      </c>
+      <c r="O43" s="160">
+        <f>806560.96/N43</f>
+        <v>5.5559998488716937</v>
+      </c>
+      <c r="P43" s="3">
+        <f>M43*O43</f>
+        <v>2520.5029999999997</v>
+      </c>
+      <c r="Q43" s="3">
+        <f>P43*E43</f>
+        <v>806560.96</v>
+      </c>
+    </row>
+    <row r="44" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A44" s="2">
+        <v>2024</v>
+      </c>
+      <c r="B44" s="2" t="s">
         <v>0</v>
-      </c>
-      <c r="I43" s="158">
-        <v>45962</v>
-      </c>
-      <c r="J43" s="2">
-        <v>4</v>
-      </c>
-      <c r="K43" s="158">
-        <f>I43+120</f>
-        <v>46082</v>
-      </c>
-      <c r="M43" s="155">
-        <v>488</v>
-      </c>
-      <c r="N43" s="3">
-        <f t="shared" ref="N43:N52" si="8">(E43*(M43+H43))</f>
-        <v>156160</v>
-      </c>
-    </row>
-    <row r="44" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A44" s="2">
-        <v>2025</v>
-      </c>
-      <c r="B44" s="2" t="s">
-        <v>280</v>
       </c>
       <c r="C44" s="2" t="s">
         <v>42</v>
       </c>
       <c r="D44" s="159" t="s">
-        <v>19</v>
+        <v>264</v>
       </c>
       <c r="E44" s="2">
         <v>320</v>
@@ -6640,121 +6764,137 @@
         <v>27</v>
       </c>
       <c r="G44" s="2" t="s">
-        <v>289</v>
+        <v>37</v>
       </c>
       <c r="H44" s="2">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="I44" s="158">
-        <v>45962</v>
+        <v>45746</v>
       </c>
       <c r="J44" s="2">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="K44" s="158">
-        <f>I44+120</f>
-        <v>46082</v>
+        <v>45809</v>
+      </c>
+      <c r="L44" s="155">
+        <v>329.5</v>
       </c>
       <c r="M44" s="155">
-        <v>500</v>
+        <v>449.09059999999999</v>
       </c>
       <c r="N44" s="3">
-        <f t="shared" si="8"/>
-        <v>160000</v>
-      </c>
-    </row>
-    <row r="45" spans="1:17" x14ac:dyDescent="0.2">
+        <f>M44*E44</f>
+        <v>143708.992</v>
+      </c>
+      <c r="O44" s="160">
+        <f>798447.15/N44</f>
+        <v>5.5559999335323429</v>
+      </c>
+      <c r="P44" s="3">
+        <f>M44*O44</f>
+        <v>2495.1473437499999</v>
+      </c>
+      <c r="Q44" s="3">
+        <f>P44*E44</f>
+        <v>798447.14999999991</v>
+      </c>
+    </row>
+    <row r="45" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A45" s="2">
-        <v>2026</v>
+        <v>2024</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>281</v>
+        <v>256</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>42</v>
+        <v>89</v>
       </c>
       <c r="D45" s="159" t="s">
-        <v>19</v>
+        <v>257</v>
       </c>
       <c r="E45" s="2">
-        <v>320</v>
+        <v>5</v>
       </c>
       <c r="F45" s="2" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="G45" s="2" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="H45" s="2">
         <v>0</v>
       </c>
       <c r="I45" s="158">
-        <v>46327</v>
+        <v>45778</v>
       </c>
       <c r="J45" s="2">
         <v>4</v>
       </c>
       <c r="K45" s="158">
-        <f>I45+120</f>
-        <v>46447</v>
-      </c>
-      <c r="M45" s="155">
-        <v>423</v>
-      </c>
-      <c r="N45" s="3">
-        <f t="shared" si="8"/>
-        <v>135360</v>
-      </c>
-    </row>
-    <row r="46" spans="1:17" x14ac:dyDescent="0.2">
+        <v>45870</v>
+      </c>
+      <c r="L45" s="158"/>
+      <c r="N45" s="3"/>
+      <c r="P45" s="3">
+        <v>2700</v>
+      </c>
+      <c r="Q45" s="3">
+        <f>E45*P45</f>
+        <v>13500</v>
+      </c>
+    </row>
+    <row r="46" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A46" s="2">
-        <v>2026</v>
+        <v>2024</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>282</v>
+        <v>276</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>42</v>
+        <v>89</v>
       </c>
       <c r="D46" s="159" t="s">
-        <v>19</v>
+        <v>86</v>
       </c>
       <c r="E46" s="2">
-        <v>320</v>
+        <v>7</v>
       </c>
       <c r="F46" s="2" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="G46" s="2" t="s">
-        <v>289</v>
+        <v>35</v>
       </c>
       <c r="H46" s="2">
         <v>0</v>
       </c>
       <c r="I46" s="158">
-        <v>46327</v>
+        <v>45789</v>
       </c>
       <c r="J46" s="2">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="K46" s="158">
-        <f>I46+120</f>
-        <v>46447</v>
-      </c>
-      <c r="M46" s="155">
-        <v>436</v>
-      </c>
-      <c r="N46" s="3">
-        <f t="shared" si="8"/>
-        <v>139520</v>
-      </c>
-    </row>
-    <row r="47" spans="1:17" x14ac:dyDescent="0.2">
+        <v>45789</v>
+      </c>
+      <c r="L46" s="158"/>
+      <c r="N46" s="3"/>
+      <c r="P46" s="3">
+        <v>2616.61</v>
+      </c>
+      <c r="Q46" s="3">
+        <f>E46*P46</f>
+        <v>18316.27</v>
+      </c>
+    </row>
+    <row r="47" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A47" s="2">
         <v>2025</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>283</v>
+        <v>258</v>
       </c>
       <c r="C47" s="2" t="s">
         <v>42</v>
@@ -6772,36 +6912,33 @@
         <v>37</v>
       </c>
       <c r="H47" s="2">
-        <v>28</v>
+        <v>0</v>
       </c>
       <c r="I47" s="158">
-        <v>45901</v>
+        <v>45870</v>
       </c>
       <c r="J47" s="2">
         <v>1</v>
       </c>
       <c r="K47" s="158">
-        <f t="shared" ref="K47:K52" si="9">I47+60</f>
-        <v>45961</v>
-      </c>
-      <c r="L47" s="155">
-        <v>325</v>
-      </c>
+        <f t="shared" ref="K47:K52" si="4">I47+65</f>
+        <v>45935</v>
+      </c>
+      <c r="L47" s="158"/>
       <c r="M47" s="155">
-        <f t="shared" ref="M47:M52" si="10">(L47+H47)*1.3228</f>
-        <v>466.94839999999999</v>
+        <v>505</v>
       </c>
       <c r="N47" s="3">
-        <f t="shared" si="8"/>
-        <v>158383.48800000001</v>
-      </c>
-    </row>
-    <row r="48" spans="1:17" x14ac:dyDescent="0.2">
+        <f t="shared" ref="N47:N57" si="5">M47*E47</f>
+        <v>161600</v>
+      </c>
+    </row>
+    <row r="48" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A48" s="2">
         <v>2025</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>284</v>
+        <v>259</v>
       </c>
       <c r="C48" s="2" t="s">
         <v>42</v>
@@ -6819,28 +6956,28 @@
         <v>37</v>
       </c>
       <c r="H48" s="2">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="I48" s="158">
-        <v>45962</v>
+        <v>45901</v>
       </c>
       <c r="J48" s="2">
         <v>1</v>
       </c>
       <c r="K48" s="158">
-        <f t="shared" si="9"/>
-        <v>46022</v>
+        <f t="shared" si="4"/>
+        <v>45966</v>
       </c>
       <c r="L48" s="155">
-        <v>325</v>
+        <v>330</v>
       </c>
       <c r="M48" s="155">
-        <f t="shared" si="10"/>
-        <v>466.94839999999999</v>
+        <f>(L48+H48)*1.3228</f>
+        <v>476.20799999999997</v>
       </c>
       <c r="N48" s="3">
-        <f t="shared" si="8"/>
-        <v>158383.48800000001</v>
+        <f t="shared" si="5"/>
+        <v>152386.56</v>
       </c>
     </row>
     <row r="49" spans="1:17" x14ac:dyDescent="0.2">
@@ -6848,7 +6985,7 @@
         <v>2025</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>285</v>
+        <v>260</v>
       </c>
       <c r="C49" s="2" t="s">
         <v>42</v>
@@ -6866,28 +7003,28 @@
         <v>37</v>
       </c>
       <c r="H49" s="2">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="I49" s="158">
-        <v>46023</v>
+        <v>45931</v>
       </c>
       <c r="J49" s="2">
         <v>1</v>
       </c>
       <c r="K49" s="158">
-        <f t="shared" si="9"/>
-        <v>46083</v>
+        <f t="shared" si="4"/>
+        <v>45996</v>
       </c>
       <c r="L49" s="155">
-        <v>325</v>
+        <v>330</v>
       </c>
       <c r="M49" s="155">
-        <f t="shared" si="10"/>
-        <v>466.94839999999999</v>
+        <f>(L49+H49)*1.3228</f>
+        <v>476.20799999999997</v>
       </c>
       <c r="N49" s="3">
-        <f t="shared" si="8"/>
-        <v>158383.48800000001</v>
+        <f t="shared" si="5"/>
+        <v>152386.56</v>
       </c>
     </row>
     <row r="50" spans="1:17" x14ac:dyDescent="0.2">
@@ -6895,7 +7032,7 @@
         <v>2025</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>286</v>
+        <v>261</v>
       </c>
       <c r="C50" s="2" t="s">
         <v>42</v>
@@ -6913,28 +7050,28 @@
         <v>37</v>
       </c>
       <c r="H50" s="2">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="I50" s="158">
-        <v>46082</v>
+        <v>45901</v>
       </c>
       <c r="J50" s="2">
         <v>1</v>
       </c>
       <c r="K50" s="158">
-        <f t="shared" si="9"/>
-        <v>46142</v>
+        <f t="shared" si="4"/>
+        <v>45966</v>
       </c>
       <c r="L50" s="155">
-        <v>325</v>
+        <v>330</v>
       </c>
       <c r="M50" s="155">
-        <f t="shared" si="10"/>
-        <v>466.94839999999999</v>
+        <f>(L50+H50)*1.3228</f>
+        <v>476.20799999999997</v>
       </c>
       <c r="N50" s="3">
-        <f t="shared" si="8"/>
-        <v>158383.48800000001</v>
+        <f t="shared" si="5"/>
+        <v>152386.56</v>
       </c>
     </row>
     <row r="51" spans="1:17" x14ac:dyDescent="0.2">
@@ -6942,7 +7079,7 @@
         <v>2025</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>287</v>
+        <v>262</v>
       </c>
       <c r="C51" s="2" t="s">
         <v>42</v>
@@ -6954,34 +7091,34 @@
         <v>320</v>
       </c>
       <c r="F51" s="2" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="G51" s="2" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="H51" s="2">
-        <v>-22</v>
+        <v>30</v>
       </c>
       <c r="I51" s="158">
-        <v>45992</v>
+        <v>45931</v>
       </c>
       <c r="J51" s="2">
         <v>1</v>
       </c>
       <c r="K51" s="158">
-        <f t="shared" si="9"/>
-        <v>46052</v>
+        <f t="shared" si="4"/>
+        <v>45996</v>
       </c>
       <c r="L51" s="155">
-        <v>325</v>
+        <v>330</v>
       </c>
       <c r="M51" s="155">
-        <f t="shared" si="10"/>
-        <v>400.80840000000001</v>
+        <f>(L51+H51)*1.3228</f>
+        <v>476.20799999999997</v>
       </c>
       <c r="N51" s="3">
-        <f t="shared" si="8"/>
-        <v>121218.68799999999</v>
+        <f t="shared" si="5"/>
+        <v>152386.56</v>
       </c>
     </row>
     <row r="52" spans="1:17" x14ac:dyDescent="0.2">
@@ -6989,7 +7126,7 @@
         <v>2025</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>288</v>
+        <v>263</v>
       </c>
       <c r="C52" s="2" t="s">
         <v>42</v>
@@ -7004,219 +7141,675 @@
         <v>27</v>
       </c>
       <c r="G52" s="2" t="s">
-        <v>290</v>
+        <v>37</v>
       </c>
       <c r="H52" s="2">
-        <v>53</v>
+        <v>30</v>
       </c>
       <c r="I52" s="158">
-        <v>45931</v>
+        <v>46054</v>
       </c>
       <c r="J52" s="2">
         <v>1</v>
       </c>
       <c r="K52" s="158">
-        <f t="shared" si="9"/>
-        <v>45991</v>
+        <f t="shared" si="4"/>
+        <v>46119</v>
       </c>
       <c r="L52" s="155">
         <v>330</v>
       </c>
       <c r="M52" s="155">
-        <f t="shared" si="10"/>
-        <v>506.63240000000002</v>
+        <f>(L52+H52)*1.3228</f>
+        <v>476.20799999999997</v>
       </c>
       <c r="N52" s="3">
-        <f t="shared" si="8"/>
-        <v>179082.36799999999</v>
+        <f t="shared" si="5"/>
+        <v>152386.56</v>
       </c>
     </row>
     <row r="53" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A53" s="2">
         <v>2025</v>
       </c>
+      <c r="B53" s="2" t="s">
+        <v>279</v>
+      </c>
       <c r="C53" s="2" t="s">
-        <v>89</v>
+        <v>42</v>
       </c>
       <c r="D53" s="159" t="s">
-        <v>331</v>
+        <v>19</v>
       </c>
       <c r="E53" s="2">
-        <v>4000</v>
+        <v>320</v>
       </c>
       <c r="F53" s="2" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="G53" s="2" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="H53" s="2">
         <v>0</v>
       </c>
       <c r="I53" s="158">
-        <v>45992</v>
+        <v>45962</v>
       </c>
       <c r="J53" s="2">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="K53" s="158">
         <v>45992</v>
       </c>
-      <c r="L53" s="158"/>
-      <c r="N53" s="3"/>
-      <c r="P53" s="3">
-        <v>1600</v>
-      </c>
-      <c r="Q53" s="3">
-        <f t="shared" ref="Q53" si="11">E53*P53</f>
-        <v>6400000</v>
+      <c r="M53" s="155">
+        <v>488</v>
+      </c>
+      <c r="N53" s="3">
+        <f t="shared" si="5"/>
+        <v>156160</v>
       </c>
     </row>
     <row r="54" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A54" s="2">
         <v>2025</v>
       </c>
+      <c r="B54" s="2" t="s">
+        <v>280</v>
+      </c>
       <c r="C54" s="2" t="s">
         <v>42</v>
       </c>
       <c r="D54" s="159" t="s">
-        <v>331</v>
+        <v>19</v>
       </c>
       <c r="E54" s="2">
-        <v>2500</v>
+        <v>320</v>
       </c>
       <c r="F54" s="2" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="G54" s="2" t="s">
-        <v>32</v>
+        <v>289</v>
       </c>
       <c r="H54" s="2">
         <v>0</v>
       </c>
       <c r="I54" s="158">
-        <v>45992</v>
+        <v>45962</v>
       </c>
       <c r="J54" s="2">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="K54" s="158">
         <v>45992</v>
       </c>
-      <c r="L54" s="155">
-        <v>325</v>
-      </c>
       <c r="M54" s="155">
-        <f t="shared" ref="M54" si="12">(L54+H54)*1.3228</f>
-        <v>429.90999999999997</v>
+        <v>500</v>
       </c>
       <c r="N54" s="3">
-        <f t="shared" ref="N54" si="13">(E54*(M54+H54))</f>
-        <v>1074775</v>
+        <f t="shared" si="5"/>
+        <v>160000</v>
       </c>
     </row>
     <row r="55" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A55" s="2">
         <v>2025</v>
       </c>
+      <c r="B55" s="2" t="s">
+        <v>283</v>
+      </c>
       <c r="C55" s="2" t="s">
         <v>42</v>
       </c>
       <c r="D55" s="159" t="s">
-        <v>331</v>
+        <v>264</v>
       </c>
       <c r="E55" s="2">
-        <v>64.5</v>
+        <v>320</v>
       </c>
       <c r="F55" s="2" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="G55" s="2" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="H55" s="2">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="I55" s="158">
-        <v>45992</v>
+        <v>45901</v>
       </c>
       <c r="J55" s="2">
         <v>1</v>
       </c>
       <c r="K55" s="158">
-        <v>45992</v>
+        <f>I55+65</f>
+        <v>45966</v>
       </c>
       <c r="L55" s="155">
-        <v>330</v>
+        <v>325</v>
       </c>
       <c r="M55" s="155">
-        <f t="shared" ref="M55:M56" si="14">(L55+H55)*1.3228</f>
-        <v>436.524</v>
+        <f>(L55+H55)*1.3228</f>
+        <v>466.94839999999999</v>
       </c>
       <c r="N55" s="3">
-        <f t="shared" ref="N55:N56" si="15">(E55*(M55+H55))</f>
-        <v>28155.797999999999</v>
+        <f t="shared" si="5"/>
+        <v>149423.48800000001</v>
       </c>
     </row>
     <row r="56" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A56" s="2">
         <v>2025</v>
       </c>
+      <c r="B56" s="2" t="s">
+        <v>284</v>
+      </c>
       <c r="C56" s="2" t="s">
         <v>42</v>
       </c>
       <c r="D56" s="159" t="s">
-        <v>331</v>
+        <v>264</v>
       </c>
       <c r="E56" s="2">
-        <v>449</v>
+        <v>320</v>
       </c>
       <c r="F56" s="2" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="G56" s="2" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="H56" s="2">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="I56" s="158">
-        <v>46082</v>
+        <v>45962</v>
       </c>
       <c r="J56" s="2">
         <v>1</v>
       </c>
       <c r="K56" s="158">
-        <v>46082</v>
+        <f>I56+65</f>
+        <v>46027</v>
       </c>
       <c r="L56" s="155">
         <v>325</v>
       </c>
       <c r="M56" s="155">
-        <f t="shared" si="14"/>
+        <f>(L56+H56)*1.3228</f>
+        <v>466.94839999999999</v>
+      </c>
+      <c r="N56" s="3">
+        <f t="shared" si="5"/>
+        <v>149423.48800000001</v>
+      </c>
+    </row>
+    <row r="57" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A57" s="2">
+        <v>2025</v>
+      </c>
+      <c r="B57" s="2" t="s">
+        <v>285</v>
+      </c>
+      <c r="C57" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="D57" s="159" t="s">
+        <v>264</v>
+      </c>
+      <c r="E57" s="2">
+        <v>320</v>
+      </c>
+      <c r="F57" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="G57" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="H57" s="2">
+        <v>28</v>
+      </c>
+      <c r="I57" s="158">
+        <v>46023</v>
+      </c>
+      <c r="J57" s="2">
+        <v>1</v>
+      </c>
+      <c r="K57" s="158">
+        <f>I57+65</f>
+        <v>46088</v>
+      </c>
+      <c r="L57" s="155">
+        <v>325</v>
+      </c>
+      <c r="M57" s="155">
+        <f>(L57+H57)*1.3228</f>
+        <v>466.94839999999999</v>
+      </c>
+      <c r="N57" s="3">
+        <f t="shared" si="5"/>
+        <v>149423.48800000001</v>
+      </c>
+    </row>
+    <row r="58" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A58" s="2">
+        <v>2025</v>
+      </c>
+      <c r="C58" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="D58" s="159" t="s">
+        <v>331</v>
+      </c>
+      <c r="E58" s="2">
+        <v>4000</v>
+      </c>
+      <c r="F58" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="G58" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="H58" s="2">
+        <v>0</v>
+      </c>
+      <c r="I58" s="158">
+        <v>45992</v>
+      </c>
+      <c r="J58" s="2">
+        <v>4</v>
+      </c>
+      <c r="K58" s="158">
+        <v>45992</v>
+      </c>
+      <c r="L58" s="158"/>
+      <c r="N58" s="3"/>
+      <c r="P58" s="3">
+        <v>1600</v>
+      </c>
+      <c r="Q58" s="3">
+        <f>E58*P58</f>
+        <v>6400000</v>
+      </c>
+    </row>
+    <row r="59" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A59" s="2">
+        <v>2025</v>
+      </c>
+      <c r="C59" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="D59" s="159" t="s">
+        <v>331</v>
+      </c>
+      <c r="E59" s="2">
+        <v>2500</v>
+      </c>
+      <c r="F59" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="G59" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="H59" s="2">
+        <v>0</v>
+      </c>
+      <c r="I59" s="158">
+        <v>45992</v>
+      </c>
+      <c r="J59" s="2">
+        <v>4</v>
+      </c>
+      <c r="K59" s="158">
+        <v>45992</v>
+      </c>
+      <c r="L59" s="155">
+        <v>325</v>
+      </c>
+      <c r="M59" s="155">
+        <f t="shared" ref="M59:M64" si="6">(L59+H59)*1.3228</f>
         <v>429.90999999999997</v>
       </c>
-      <c r="N56" s="3">
-        <f t="shared" si="15"/>
+      <c r="N59" s="3">
+        <f t="shared" ref="N59:N66" si="7">M59*E59</f>
+        <v>1074775</v>
+      </c>
+    </row>
+    <row r="60" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A60" s="2">
+        <v>2025</v>
+      </c>
+      <c r="C60" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="D60" s="159" t="s">
+        <v>331</v>
+      </c>
+      <c r="E60" s="2">
+        <v>64.5</v>
+      </c>
+      <c r="F60" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="G60" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="H60" s="2">
+        <v>0</v>
+      </c>
+      <c r="I60" s="158">
+        <v>45992</v>
+      </c>
+      <c r="J60" s="2">
+        <v>1</v>
+      </c>
+      <c r="K60" s="158">
+        <v>45992</v>
+      </c>
+      <c r="L60" s="155">
+        <v>330</v>
+      </c>
+      <c r="M60" s="155">
+        <f t="shared" si="6"/>
+        <v>436.524</v>
+      </c>
+      <c r="N60" s="3">
+        <f t="shared" si="7"/>
+        <v>28155.797999999999</v>
+      </c>
+    </row>
+    <row r="61" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A61" s="2">
+        <v>2025</v>
+      </c>
+      <c r="B61" s="2" t="s">
+        <v>286</v>
+      </c>
+      <c r="C61" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="D61" s="159" t="s">
+        <v>264</v>
+      </c>
+      <c r="E61" s="2">
+        <v>320</v>
+      </c>
+      <c r="F61" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="G61" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="H61" s="2">
+        <v>28</v>
+      </c>
+      <c r="I61" s="158">
+        <v>46082</v>
+      </c>
+      <c r="J61" s="2">
+        <v>1</v>
+      </c>
+      <c r="K61" s="158">
+        <f>I61+65</f>
+        <v>46147</v>
+      </c>
+      <c r="L61" s="155">
+        <v>325</v>
+      </c>
+      <c r="M61" s="155">
+        <f t="shared" si="6"/>
+        <v>466.94839999999999</v>
+      </c>
+      <c r="N61" s="3">
+        <f t="shared" si="7"/>
+        <v>149423.48800000001</v>
+      </c>
+    </row>
+    <row r="62" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A62" s="2">
+        <v>2025</v>
+      </c>
+      <c r="B62" s="2" t="s">
+        <v>287</v>
+      </c>
+      <c r="C62" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="D62" s="159" t="s">
+        <v>264</v>
+      </c>
+      <c r="E62" s="2">
+        <v>320</v>
+      </c>
+      <c r="F62" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="G62" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="H62" s="2">
+        <v>-22</v>
+      </c>
+      <c r="I62" s="158">
+        <v>45992</v>
+      </c>
+      <c r="J62" s="2">
+        <v>1</v>
+      </c>
+      <c r="K62" s="158">
+        <f>I62+65</f>
+        <v>46057</v>
+      </c>
+      <c r="L62" s="155">
+        <v>325</v>
+      </c>
+      <c r="M62" s="155">
+        <f t="shared" si="6"/>
+        <v>400.80840000000001</v>
+      </c>
+      <c r="N62" s="3">
+        <f t="shared" si="7"/>
+        <v>128258.68799999999</v>
+      </c>
+    </row>
+    <row r="63" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A63" s="2">
+        <v>2025</v>
+      </c>
+      <c r="B63" s="2" t="s">
+        <v>288</v>
+      </c>
+      <c r="C63" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="D63" s="159" t="s">
+        <v>264</v>
+      </c>
+      <c r="E63" s="2">
+        <v>320</v>
+      </c>
+      <c r="F63" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="G63" s="2" t="s">
+        <v>290</v>
+      </c>
+      <c r="H63" s="2">
+        <v>53</v>
+      </c>
+      <c r="I63" s="158">
+        <v>45931</v>
+      </c>
+      <c r="J63" s="2">
+        <v>1</v>
+      </c>
+      <c r="K63" s="158">
+        <f>I63+65</f>
+        <v>45996</v>
+      </c>
+      <c r="L63" s="155">
+        <v>330</v>
+      </c>
+      <c r="M63" s="155">
+        <f t="shared" si="6"/>
+        <v>506.63240000000002</v>
+      </c>
+      <c r="N63" s="3">
+        <f t="shared" si="7"/>
+        <v>162122.36800000002</v>
+      </c>
+    </row>
+    <row r="64" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A64" s="2">
+        <v>2025</v>
+      </c>
+      <c r="C64" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="D64" s="159" t="s">
+        <v>331</v>
+      </c>
+      <c r="E64" s="2">
+        <v>449</v>
+      </c>
+      <c r="F64" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="G64" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="H64" s="2">
+        <v>0</v>
+      </c>
+      <c r="I64" s="158">
+        <v>46082</v>
+      </c>
+      <c r="J64" s="2">
+        <v>1</v>
+      </c>
+      <c r="K64" s="158">
+        <v>46082</v>
+      </c>
+      <c r="L64" s="155">
+        <v>325</v>
+      </c>
+      <c r="M64" s="155">
+        <f t="shared" si="6"/>
+        <v>429.90999999999997</v>
+      </c>
+      <c r="N64" s="3">
+        <f t="shared" si="7"/>
         <v>193029.59</v>
       </c>
     </row>
+    <row r="65" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A65" s="2">
+        <v>2026</v>
+      </c>
+      <c r="B65" s="2" t="s">
+        <v>281</v>
+      </c>
+      <c r="C65" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="D65" s="159" t="s">
+        <v>19</v>
+      </c>
+      <c r="E65" s="2">
+        <v>320</v>
+      </c>
+      <c r="F65" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="G65" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="H65" s="2">
+        <v>0</v>
+      </c>
+      <c r="I65" s="158">
+        <v>46327</v>
+      </c>
+      <c r="J65" s="2">
+        <v>4</v>
+      </c>
+      <c r="K65" s="158">
+        <f>I65+120</f>
+        <v>46447</v>
+      </c>
+      <c r="M65" s="155">
+        <v>423</v>
+      </c>
+      <c r="N65" s="3">
+        <f t="shared" si="7"/>
+        <v>135360</v>
+      </c>
+    </row>
+    <row r="66" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A66" s="2">
+        <v>2026</v>
+      </c>
+      <c r="B66" s="2" t="s">
+        <v>282</v>
+      </c>
+      <c r="C66" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="D66" s="159" t="s">
+        <v>19</v>
+      </c>
+      <c r="E66" s="2">
+        <v>320</v>
+      </c>
+      <c r="F66" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="G66" s="2" t="s">
+        <v>289</v>
+      </c>
+      <c r="H66" s="2">
+        <v>0</v>
+      </c>
+      <c r="I66" s="158">
+        <v>46327</v>
+      </c>
+      <c r="J66" s="2">
+        <v>4</v>
+      </c>
+      <c r="K66" s="158">
+        <f>I66+120</f>
+        <v>46447</v>
+      </c>
+      <c r="M66" s="155">
+        <v>436</v>
+      </c>
+      <c r="N66" s="3">
+        <f t="shared" si="7"/>
+        <v>139520</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:Q52" xr:uid="{E433115D-D1E6-C943-B0EC-2BC4BD1B44BA}"/>
+  <autoFilter ref="A1:Q66" xr:uid="{E433115D-D1E6-C943-B0EC-2BC4BD1B44BA}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A47:Q63">
+      <sortCondition ref="B1:B66"/>
+    </sortState>
+  </autoFilter>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
   <ignoredErrors>
-    <ignoredError sqref="O11" formulaRange="1"/>
+    <ignoredError sqref="Q40" formula="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{62549E7F-C2F6-E740-8F49-EDB7C93FB4DD}">
-  <dimension ref="A1:D14"/>
+  <dimension ref="A1:D13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
@@ -7240,163 +7833,151 @@
         <v>270</v>
       </c>
       <c r="D1" s="162">
-        <v>45839</v>
+        <v>45866</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="158">
-        <v>45866</v>
+        <v>45930</v>
       </c>
       <c r="B2" s="155">
-        <v>306.75</v>
+        <v>302.7</v>
       </c>
       <c r="C2" s="155">
-        <f t="shared" ref="C2:C13" si="0">B2*1.3228</f>
-        <v>405.76889999999997</v>
+        <f t="shared" ref="C2:C12" si="0">B2*1.3228</f>
+        <v>400.41155999999995</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="158">
-        <v>45930</v>
+        <v>46021</v>
       </c>
       <c r="B3" s="155">
-        <v>296.2</v>
+        <v>295.55</v>
       </c>
       <c r="C3" s="155">
         <f t="shared" si="0"/>
-        <v>391.81335999999999</v>
+        <v>390.95354000000003</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="158">
-        <v>46021</v>
+        <v>46112</v>
       </c>
       <c r="B4" s="155">
-        <v>291</v>
+        <v>288.75</v>
       </c>
       <c r="C4" s="155">
         <f t="shared" si="0"/>
-        <v>384.9348</v>
+        <v>381.95850000000002</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" s="158">
-        <v>46112</v>
+        <v>46173</v>
       </c>
       <c r="B5" s="155">
-        <v>286.05</v>
+        <v>283.2</v>
       </c>
       <c r="C5" s="155">
         <f t="shared" si="0"/>
-        <v>378.38693999999998</v>
+        <v>374.61696000000001</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" s="158">
-        <v>46173</v>
+        <v>46231</v>
       </c>
       <c r="B6" s="155">
-        <v>281.3</v>
+        <v>277.60000000000002</v>
       </c>
       <c r="C6" s="155">
         <f t="shared" si="0"/>
-        <v>372.10363999999998</v>
+        <v>367.20928000000004</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" s="158">
-        <v>46231</v>
+        <v>46295</v>
       </c>
       <c r="B7" s="155">
-        <v>274.64999999999998</v>
+        <v>270.60000000000002</v>
       </c>
       <c r="C7" s="155">
         <f t="shared" si="0"/>
-        <v>363.30701999999997</v>
+        <v>357.94968</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" s="158">
-        <v>46295</v>
+        <v>46386</v>
       </c>
       <c r="B8" s="155">
-        <v>267.95</v>
+        <v>265.3</v>
       </c>
       <c r="C8" s="155">
         <f t="shared" si="0"/>
-        <v>354.44425999999999</v>
+        <v>350.93884000000003</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" s="158">
-        <v>46386</v>
+        <v>46477</v>
       </c>
       <c r="B9" s="155">
-        <v>261.25</v>
+        <v>262.95</v>
       </c>
       <c r="C9" s="155">
         <f t="shared" si="0"/>
-        <v>345.58150000000001</v>
+        <v>347.83025999999995</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" s="158">
-        <v>46477</v>
+        <v>46538</v>
       </c>
       <c r="B10" s="155">
-        <v>257.85000000000002</v>
+        <v>257.60000000000002</v>
       </c>
       <c r="C10" s="155">
         <f t="shared" si="0"/>
-        <v>341.08398</v>
+        <v>340.75328000000002</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" s="158">
-        <v>46538</v>
+        <v>46596</v>
       </c>
       <c r="B11" s="155">
-        <v>254.3</v>
+        <v>254.95</v>
       </c>
       <c r="C11" s="155">
         <f t="shared" si="0"/>
-        <v>336.38803999999999</v>
+        <v>337.24786</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" s="158">
-        <v>46596</v>
+        <v>46660</v>
       </c>
       <c r="B12" s="155">
-        <v>249</v>
+        <v>251.85</v>
       </c>
       <c r="C12" s="155">
         <f t="shared" si="0"/>
-        <v>329.37720000000002</v>
+        <v>333.14717999999999</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" s="158">
-        <v>46660</v>
+        <v>46751</v>
       </c>
       <c r="B13" s="155">
-        <v>242.9</v>
+        <v>249.25</v>
       </c>
       <c r="C13" s="155">
-        <f t="shared" si="0"/>
-        <v>321.30811999999997</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A14" s="158">
-        <v>46751</v>
-      </c>
-      <c r="B14" s="155">
-        <v>241.9</v>
-      </c>
-      <c r="C14" s="155">
-        <f>B14*1.3228</f>
-        <v>319.98532</v>
+        <f>B13*1.3228</f>
+        <v>329.7079</v>
       </c>
     </row>
   </sheetData>
@@ -7407,10 +7988,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{435A83C4-FEBA-7F44-BF8C-E9ADE9845E60}">
-  <dimension ref="A1:N24"/>
+  <dimension ref="A1:N27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D24" sqref="D24"/>
+      <selection activeCell="Q13" sqref="Q13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -7476,7 +8057,7 @@
         <v>314</v>
       </c>
       <c r="D2" s="213">
-        <f t="shared" ref="D2:D24" si="0">283.5*F2</f>
+        <f t="shared" ref="D2:D25" si="0">283.5*F2</f>
         <v>1304.0999999999999</v>
       </c>
       <c r="E2" s="214" t="s">
@@ -7542,18 +8123,18 @@
         <v>45520</v>
       </c>
       <c r="K3" s="162">
-        <f t="shared" ref="K3:K14" si="1">J3</f>
+        <f t="shared" ref="K3:K13" si="1">J3</f>
         <v>45520</v>
       </c>
       <c r="L3" s="215">
-        <f t="shared" ref="L3:L24" si="2">D3*(G3-H3)*1.3228</f>
+        <f t="shared" ref="L3:L25" si="2">D3*(G3-H3)*1.3228</f>
         <v>-10387.882259999997</v>
       </c>
       <c r="M3" s="160">
         <v>5.4650999999999996</v>
       </c>
       <c r="N3" s="215">
-        <f t="shared" ref="N3:N14" si="3">IF(I3="",L3*M3,(D3*(G3*I3-H3*M3)*1.3328))</f>
+        <f t="shared" ref="N3:N13" si="3">IF(I3="",L3*M3,(D3*(G3*I3-H3*M3)*1.3328))</f>
         <v>-56770.815339125977</v>
       </c>
     </row>
@@ -8022,115 +8603,123 @@
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A14" s="209" t="s">
+      <c r="A14" s="1" t="s">
         <v>295</v>
       </c>
-      <c r="B14" s="209" t="s">
+      <c r="B14" s="1" t="s">
         <v>325</v>
       </c>
-      <c r="C14" s="208">
+      <c r="C14" s="2">
         <v>47899</v>
       </c>
-      <c r="D14" s="216">
-        <f t="shared" si="0"/>
+      <c r="D14" s="213">
+        <f>283.5*F14</f>
         <v>320.35499999999996</v>
       </c>
-      <c r="E14" s="216" t="s">
+      <c r="E14" s="213" t="s">
         <v>323</v>
       </c>
-      <c r="F14" s="217">
+      <c r="F14" s="155">
         <v>1.1299999999999999</v>
       </c>
-      <c r="G14" s="217">
+      <c r="G14" s="155">
         <v>238.17</v>
       </c>
-      <c r="H14" s="217">
+      <c r="H14" s="155">
         <f>370.95</f>
         <v>370.95</v>
       </c>
-      <c r="I14" s="208"/>
-      <c r="J14" s="219">
+      <c r="I14" s="2"/>
+      <c r="J14" s="162">
         <v>45769</v>
       </c>
-      <c r="K14" s="219">
-        <f t="shared" si="1"/>
+      <c r="K14" s="162">
+        <f>J14</f>
         <v>45769</v>
       </c>
-      <c r="L14" s="220">
-        <f t="shared" si="2"/>
+      <c r="L14" s="215">
+        <f>D14*(G14-H14)*1.3228</f>
         <v>-56267.595571319995</v>
       </c>
-      <c r="M14" s="218">
+      <c r="M14" s="160">
         <f>5.883</f>
         <v>5.883</v>
       </c>
-      <c r="N14" s="220">
-        <f t="shared" si="3"/>
+      <c r="N14" s="215">
+        <f>IF(I14="",L14*M14,(D14*(G14*I14-H14*M14)*1.3328))</f>
         <v>-331022.26474607555</v>
       </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A15" s="1" t="s">
+      <c r="A15" s="209" t="s">
         <v>295</v>
       </c>
-      <c r="B15" s="1" t="s">
-        <v>330</v>
-      </c>
-      <c r="C15" s="2">
-        <v>25852</v>
-      </c>
-      <c r="D15" s="213">
-        <f t="shared" si="0"/>
-        <v>5017.95</v>
-      </c>
-      <c r="E15" s="213"/>
-      <c r="F15" s="155">
-        <v>17.7</v>
-      </c>
-      <c r="G15" s="155">
-        <v>179</v>
-      </c>
-      <c r="H15" s="155">
-        <f>futuros!B4</f>
-        <v>291</v>
-      </c>
-      <c r="I15" s="2"/>
-      <c r="J15" s="162">
-        <v>45973</v>
-      </c>
-      <c r="K15" s="162"/>
-      <c r="L15" s="215">
-        <f t="shared" si="2"/>
-        <v>-743427.35712000006</v>
-      </c>
-      <c r="M15" s="160"/>
-      <c r="N15" s="215"/>
+      <c r="B15" s="209" t="s">
+        <v>325</v>
+      </c>
+      <c r="C15" s="208">
+        <f>C19</f>
+        <v>47616</v>
+      </c>
+      <c r="D15" s="216">
+        <f t="shared" ref="D15" si="4">283.5*F15</f>
+        <v>1417.5</v>
+      </c>
+      <c r="E15" s="216"/>
+      <c r="F15" s="217">
+        <v>5</v>
+      </c>
+      <c r="G15" s="217">
+        <f>G19</f>
+        <v>222.2</v>
+      </c>
+      <c r="H15" s="217">
+        <v>280</v>
+      </c>
+      <c r="I15" s="208"/>
+      <c r="J15" s="219">
+        <v>45769</v>
+      </c>
+      <c r="K15" s="219">
+        <v>45840</v>
+      </c>
+      <c r="L15" s="220">
+        <f t="shared" ref="L15" si="5">D15*(G15-H15)*1.3228</f>
+        <v>-108378.98820000002</v>
+      </c>
+      <c r="M15" s="218">
+        <f>5.4677</f>
+        <v>5.4676999999999998</v>
+      </c>
+      <c r="N15" s="220">
+        <f t="shared" ref="N15" si="6">IF(I15="",L15*M15,(D15*(G15*I15-H15*M15)*1.3328))</f>
+        <v>-592583.79378114012</v>
+      </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>330</v>
       </c>
       <c r="C16" s="2">
-        <v>507931308</v>
+        <v>25852</v>
       </c>
       <c r="D16" s="213">
         <f t="shared" si="0"/>
-        <v>1984.5</v>
+        <v>5017.95</v>
       </c>
       <c r="E16" s="213"/>
       <c r="F16" s="155">
-        <f>262500/37500</f>
-        <v>7</v>
+        <v>17.7</v>
       </c>
       <c r="G16" s="155">
-        <v>196.1</v>
+        <v>179</v>
       </c>
       <c r="H16" s="155">
-        <f>futuros!B4</f>
-        <v>291</v>
+        <f>futuros!B3</f>
+        <v>295.55</v>
       </c>
       <c r="I16" s="2"/>
       <c r="J16" s="162">
@@ -8139,7 +8728,7 @@
       <c r="K16" s="162"/>
       <c r="L16" s="215">
         <f t="shared" si="2"/>
-        <v>-249121.66734000001</v>
+        <v>-773629.09350299998</v>
       </c>
       <c r="M16" s="160"/>
       <c r="N16" s="215"/>
@@ -8149,10 +8738,10 @@
         <v>296</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="C17" s="2">
-        <v>29487615</v>
+        <v>507931308</v>
       </c>
       <c r="D17" s="213">
         <f t="shared" si="0"/>
@@ -8164,11 +8753,11 @@
         <v>7</v>
       </c>
       <c r="G17" s="155">
-        <v>330</v>
+        <v>196.1</v>
       </c>
       <c r="H17" s="155">
-        <f>futuros!B4</f>
-        <v>291</v>
+        <f>futuros!B3</f>
+        <v>295.55</v>
       </c>
       <c r="I17" s="2"/>
       <c r="J17" s="162">
@@ -8177,120 +8766,125 @@
       <c r="K17" s="162"/>
       <c r="L17" s="215">
         <f t="shared" si="2"/>
-        <v>102378.7674</v>
+        <v>-261065.85687000002</v>
       </c>
       <c r="M17" s="160"/>
       <c r="N17" s="215"/>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A18" s="209" t="s">
-        <v>295</v>
-      </c>
-      <c r="B18" s="209" t="s">
-        <v>330</v>
-      </c>
-      <c r="C18" s="208">
-        <v>47616</v>
-      </c>
-      <c r="D18" s="216">
-        <f t="shared" si="0"/>
-        <v>3005.1</v>
-      </c>
-      <c r="E18" s="216"/>
-      <c r="F18" s="217">
-        <v>10.6</v>
-      </c>
-      <c r="G18" s="217">
-        <v>222.2</v>
-      </c>
-      <c r="H18" s="217">
-        <f>futuros!B4</f>
-        <v>291</v>
-      </c>
-      <c r="I18" s="208"/>
-      <c r="J18" s="219">
-        <v>45980</v>
-      </c>
-      <c r="K18" s="219"/>
-      <c r="L18" s="220">
-        <f t="shared" si="2"/>
-        <v>-273490.06406400003</v>
-      </c>
-      <c r="M18" s="218"/>
-      <c r="N18" s="220"/>
-    </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A19" s="1" t="s">
+      <c r="A18" s="1" t="s">
         <v>296</v>
       </c>
-      <c r="B19" s="1" t="s">
+      <c r="B18" s="1" t="s">
         <v>329</v>
       </c>
-      <c r="C19" s="2">
-        <v>29487625</v>
-      </c>
-      <c r="D19" s="213">
+      <c r="C18" s="2">
+        <v>29487615</v>
+      </c>
+      <c r="D18" s="213">
         <f t="shared" si="0"/>
         <v>1984.5</v>
       </c>
-      <c r="E19" s="213"/>
-      <c r="F19" s="155">
+      <c r="E18" s="213" t="s">
+        <v>344</v>
+      </c>
+      <c r="F18" s="155">
         <f>262500/37500</f>
         <v>7</v>
       </c>
-      <c r="G19" s="155">
-        <v>325</v>
-      </c>
-      <c r="H19" s="155">
-        <f>futuros!B5</f>
-        <v>286.05</v>
-      </c>
-      <c r="I19" s="2"/>
-      <c r="J19" s="162">
-        <v>46063</v>
-      </c>
-      <c r="K19" s="162"/>
-      <c r="L19" s="215">
+      <c r="G18" s="155">
+        <v>330</v>
+      </c>
+      <c r="H18" s="155">
+        <f>futuros!B3</f>
+        <v>295.55</v>
+      </c>
+      <c r="I18" s="2"/>
+      <c r="J18" s="162">
+        <v>45973</v>
+      </c>
+      <c r="K18" s="162"/>
+      <c r="L18" s="215">
         <f t="shared" si="2"/>
-        <v>102247.51256999998</v>
-      </c>
-      <c r="M19" s="160"/>
-      <c r="N19" s="215"/>
+        <v>90434.577869999965</v>
+      </c>
+      <c r="M18" s="160"/>
+      <c r="N18" s="215"/>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A19" s="209" t="s">
+        <v>295</v>
+      </c>
+      <c r="B19" s="209" t="s">
+        <v>330</v>
+      </c>
+      <c r="C19" s="208">
+        <v>47616</v>
+      </c>
+      <c r="D19" s="216">
+        <f t="shared" si="0"/>
+        <v>1587.6</v>
+      </c>
+      <c r="E19" s="216"/>
+      <c r="F19" s="217">
+        <f>10.6-5</f>
+        <v>5.6</v>
+      </c>
+      <c r="G19" s="217">
+        <v>222.2</v>
+      </c>
+      <c r="H19" s="217">
+        <f>futuros!B3</f>
+        <v>295.55</v>
+      </c>
+      <c r="I19" s="208"/>
+      <c r="J19" s="219">
+        <v>45980</v>
+      </c>
+      <c r="K19" s="219"/>
+      <c r="L19" s="220">
+        <f t="shared" si="2"/>
+        <v>-154040.66848800005</v>
+      </c>
+      <c r="M19" s="218"/>
+      <c r="N19" s="220"/>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
         <v>296</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="C20" s="2">
-        <v>28133721</v>
+        <v>29487625</v>
       </c>
       <c r="D20" s="213">
         <f t="shared" si="0"/>
-        <v>2551.5</v>
-      </c>
-      <c r="E20" s="213"/>
+        <v>1984.5</v>
+      </c>
+      <c r="E20" s="213" t="s">
+        <v>345</v>
+      </c>
       <c r="F20" s="155">
-        <f>337500/37500</f>
-        <v>9</v>
+        <f>262500/37500</f>
+        <v>7</v>
       </c>
       <c r="G20" s="155">
-        <v>300.8</v>
+        <v>325</v>
       </c>
       <c r="H20" s="155">
-        <f>futuros!B9</f>
-        <v>261.25</v>
+        <f>futuros!B4</f>
+        <v>288.75</v>
       </c>
       <c r="I20" s="2"/>
       <c r="J20" s="162">
-        <v>46345</v>
+        <v>46063</v>
       </c>
       <c r="K20" s="162"/>
       <c r="L20" s="215">
         <f t="shared" si="2"/>
-        <v>133486.16211000003</v>
+        <v>95159.751749999996</v>
       </c>
       <c r="M20" s="160"/>
       <c r="N20" s="215"/>
@@ -8303,22 +8897,23 @@
         <v>330</v>
       </c>
       <c r="C21" s="2">
-        <v>28594897</v>
+        <v>28133721</v>
       </c>
       <c r="D21" s="213">
         <f t="shared" si="0"/>
-        <v>2268</v>
+        <v>2551.5</v>
       </c>
       <c r="E21" s="213"/>
       <c r="F21" s="155">
-        <v>8</v>
+        <f>337500/37500</f>
+        <v>9</v>
       </c>
       <c r="G21" s="155">
-        <v>322.39999999999998</v>
+        <v>300.8</v>
       </c>
       <c r="H21" s="155">
-        <f>futuros!B9</f>
-        <v>261.25</v>
+        <f>futuros!B8</f>
+        <v>265.3</v>
       </c>
       <c r="I21" s="2"/>
       <c r="J21" s="162">
@@ -8327,7 +8922,7 @@
       <c r="K21" s="162"/>
       <c r="L21" s="215">
         <f t="shared" si="2"/>
-        <v>183456.75095999995</v>
+        <v>119816.9091</v>
       </c>
       <c r="M21" s="160"/>
       <c r="N21" s="215"/>
@@ -8340,7 +8935,7 @@
         <v>330</v>
       </c>
       <c r="C22" s="2">
-        <v>29340843</v>
+        <v>28594897</v>
       </c>
       <c r="D22" s="213">
         <f t="shared" si="0"/>
@@ -8351,11 +8946,11 @@
         <v>8</v>
       </c>
       <c r="G22" s="155">
-        <v>307.2</v>
+        <v>322.39999999999998</v>
       </c>
       <c r="H22" s="155">
-        <f>futuros!B9</f>
-        <v>261.25</v>
+        <f>futuros!B8</f>
+        <v>265.3</v>
       </c>
       <c r="I22" s="2"/>
       <c r="J22" s="162">
@@ -8364,91 +8959,201 @@
       <c r="K22" s="162"/>
       <c r="L22" s="215">
         <f t="shared" si="2"/>
-        <v>137855.07287999996</v>
+        <v>171306.30383999989</v>
       </c>
       <c r="M22" s="160"/>
       <c r="N22" s="215"/>
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A23" s="209" t="s">
+      <c r="A23" s="1" t="s">
         <v>296</v>
       </c>
-      <c r="B23" s="209" t="s">
+      <c r="B23" s="1" t="s">
         <v>330</v>
       </c>
-      <c r="C23" s="208">
+      <c r="C23" s="2">
+        <v>29340843</v>
+      </c>
+      <c r="D23" s="213">
+        <f t="shared" si="0"/>
+        <v>2268</v>
+      </c>
+      <c r="E23" s="213"/>
+      <c r="F23" s="155">
+        <v>8</v>
+      </c>
+      <c r="G23" s="155">
+        <v>307.2</v>
+      </c>
+      <c r="H23" s="155">
+        <f>futuros!B8</f>
+        <v>265.3</v>
+      </c>
+      <c r="I23" s="2"/>
+      <c r="J23" s="162">
+        <v>46345</v>
+      </c>
+      <c r="K23" s="162"/>
+      <c r="L23" s="215">
+        <f t="shared" si="2"/>
+        <v>125704.62575999994</v>
+      </c>
+      <c r="M23" s="160"/>
+      <c r="N23" s="215"/>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A24" s="209" t="s">
+        <v>296</v>
+      </c>
+      <c r="B24" s="209" t="s">
+        <v>330</v>
+      </c>
+      <c r="C24" s="208">
         <v>29487626</v>
       </c>
-      <c r="D23" s="216">
+      <c r="D24" s="216">
         <f t="shared" si="0"/>
         <v>7938</v>
       </c>
-      <c r="E23" s="216"/>
-      <c r="F23" s="217">
+      <c r="E24" s="216"/>
+      <c r="F24" s="217">
         <f>1050000/37500</f>
         <v>28</v>
       </c>
-      <c r="G23" s="217">
+      <c r="G24" s="217">
         <v>288</v>
       </c>
-      <c r="H23" s="217">
-        <f>futuros!B9</f>
-        <v>261.25</v>
-      </c>
-      <c r="I23" s="208"/>
-      <c r="J23" s="219">
+      <c r="H24" s="217">
+        <f>futuros!B8</f>
+        <v>265.3</v>
+      </c>
+      <c r="I24" s="208"/>
+      <c r="J24" s="219">
         <v>46345</v>
       </c>
-      <c r="K23" s="219"/>
-      <c r="L23" s="220">
+      <c r="K24" s="219"/>
+      <c r="L24" s="220">
         <f t="shared" si="2"/>
-        <v>280885.33620000002</v>
-      </c>
-      <c r="M23" s="218"/>
-      <c r="N23" s="220"/>
-    </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A24" s="1" t="s">
+        <v>238358.7712799999</v>
+      </c>
+      <c r="M24" s="218"/>
+      <c r="N24" s="220"/>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A25" s="1" t="s">
         <v>296</v>
       </c>
-      <c r="B24" s="1" t="s">
+      <c r="B25" s="1" t="s">
         <v>330</v>
       </c>
-      <c r="C24" s="2">
+      <c r="C25" s="2">
         <v>29575268</v>
       </c>
-      <c r="D24" s="213">
+      <c r="D25" s="213">
         <f t="shared" si="0"/>
         <v>3118.5</v>
       </c>
-      <c r="E24" s="213"/>
-      <c r="F24" s="155">
+      <c r="E25" s="213"/>
+      <c r="F25" s="155">
         <f>412500/37500</f>
         <v>11</v>
       </c>
-      <c r="G24" s="155">
+      <c r="G25" s="155">
         <v>249</v>
       </c>
-      <c r="H24" s="155">
-        <f>futuros!B14</f>
-        <v>241.9</v>
-      </c>
-      <c r="I24" s="2"/>
-      <c r="J24" s="162">
+      <c r="H25" s="155">
+        <f>futuros!B13</f>
+        <v>249.25</v>
+      </c>
+      <c r="I25" s="2"/>
+      <c r="J25" s="162">
         <v>46710</v>
       </c>
-      <c r="K24" s="162"/>
-      <c r="L24" s="215">
+      <c r="K25" s="162"/>
+      <c r="L25" s="215">
         <f t="shared" si="2"/>
-        <v>29288.577779999978</v>
-      </c>
-      <c r="M24" s="160"/>
-      <c r="N24" s="215"/>
+        <v>-1031.2879499999999</v>
+      </c>
+      <c r="M25" s="160"/>
+      <c r="N25" s="215"/>
+    </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A26" s="1" t="s">
+        <v>296</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>330</v>
+      </c>
+      <c r="C26" s="2">
+        <v>29575268</v>
+      </c>
+      <c r="D26" s="213">
+        <f t="shared" ref="D26" si="7">283.5*F26</f>
+        <v>2268</v>
+      </c>
+      <c r="E26" s="213"/>
+      <c r="F26" s="155">
+        <v>8</v>
+      </c>
+      <c r="G26" s="155">
+        <v>235</v>
+      </c>
+      <c r="H26" s="155">
+        <f>futuros!B13</f>
+        <v>249.25</v>
+      </c>
+      <c r="I26" s="2"/>
+      <c r="J26" s="162">
+        <v>46710</v>
+      </c>
+      <c r="K26" s="162"/>
+      <c r="L26" s="215">
+        <f t="shared" ref="L26" si="8">D26*(G26-H26)*1.3228</f>
+        <v>-42751.573199999999</v>
+      </c>
+      <c r="M26" s="160"/>
+      <c r="N26" s="215"/>
+    </row>
+    <row r="27" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A27" s="1" t="s">
+        <v>296</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>330</v>
+      </c>
+      <c r="C27" s="2">
+        <v>29575268</v>
+      </c>
+      <c r="D27" s="213">
+        <f t="shared" ref="D27" si="9">283.5*F27</f>
+        <v>1417.5</v>
+      </c>
+      <c r="E27" s="213"/>
+      <c r="F27" s="155">
+        <v>5</v>
+      </c>
+      <c r="G27" s="155">
+        <v>251</v>
+      </c>
+      <c r="H27" s="155">
+        <f>futuros!B13</f>
+        <v>249.25</v>
+      </c>
+      <c r="I27" s="2"/>
+      <c r="J27" s="162">
+        <v>46710</v>
+      </c>
+      <c r="K27" s="162"/>
+      <c r="L27" s="215">
+        <f t="shared" ref="L27" si="10">D27*(G27-H27)*1.3228</f>
+        <v>3281.37075</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
     <ignoredError sqref="E7:E13" numberStoredAsText="1"/>
+    <ignoredError sqref="F19" formula="1"/>
   </ignoredErrors>
 </worksheet>
 </file>

--- a/vendas_cafe_em_reais.xlsx
+++ b/vendas_cafe_em_reais.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rotocastro/PycharmProjects/Vendas Cafe/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10FA68CE-A14B-AC41-B70C-0555235AB8A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A3D1F88-A0EE-DD4C-904E-2AC13FCA024D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4440" yWindow="940" windowWidth="24960" windowHeight="16540" activeTab="2" xr2:uid="{AC82ADC5-E628-F847-8939-89BAF5623AE6}"/>
   </bookViews>
@@ -2609,26 +2609,26 @@
       </c>
       <c r="L6" s="177">
         <f>futuros!B3</f>
-        <v>295.55</v>
+        <v>280.8</v>
       </c>
       <c r="M6" s="177">
         <f>(L6+H6)*1.3228</f>
-        <v>430.63754</v>
+        <v>411.12624</v>
       </c>
       <c r="N6" s="167">
         <f>(E6*(M6+H6))</f>
-        <v>147404.0128</v>
+        <v>141160.39679999999</v>
       </c>
       <c r="O6" s="178">
         <v>5.7</v>
       </c>
       <c r="P6" s="167">
         <f t="shared" ref="P6:P16" si="1">M6*O6</f>
-        <v>2454.6339780000003</v>
+        <v>2343.4195680000003</v>
       </c>
       <c r="Q6" s="167">
         <f t="shared" ref="Q6:Q16" si="2">P6*E6</f>
-        <v>785482.87296000007</v>
+        <v>749894.26176000014</v>
       </c>
     </row>
     <row r="7" spans="2:20" x14ac:dyDescent="0.25">
@@ -2665,26 +2665,26 @@
       </c>
       <c r="L7" s="177">
         <f>L6</f>
-        <v>295.55</v>
+        <v>280.8</v>
       </c>
       <c r="M7" s="177">
         <f>(L7+H7)*1.3228</f>
-        <v>430.63754</v>
+        <v>411.12624</v>
       </c>
       <c r="N7" s="167">
         <f>(E7*(M7+H7))</f>
-        <v>147404.0128</v>
+        <v>141160.39679999999</v>
       </c>
       <c r="O7" s="178">
         <v>5.7</v>
       </c>
       <c r="P7" s="167">
         <f t="shared" si="1"/>
-        <v>2454.6339780000003</v>
+        <v>2343.4195680000003</v>
       </c>
       <c r="Q7" s="167">
         <f t="shared" si="2"/>
-        <v>785482.87296000007</v>
+        <v>749894.26176000014</v>
       </c>
     </row>
     <row r="8" spans="2:20" x14ac:dyDescent="0.25">
@@ -2721,26 +2721,26 @@
       </c>
       <c r="L8" s="177">
         <f>L7</f>
-        <v>295.55</v>
+        <v>280.8</v>
       </c>
       <c r="M8" s="177">
         <f>(L8+H8)*1.3228</f>
-        <v>430.63754</v>
+        <v>411.12624</v>
       </c>
       <c r="N8" s="167">
         <f>(E8*(M8+H8))</f>
-        <v>147404.0128</v>
+        <v>141160.39679999999</v>
       </c>
       <c r="O8" s="178">
         <v>5.7</v>
       </c>
       <c r="P8" s="167">
         <f t="shared" si="1"/>
-        <v>2454.6339780000003</v>
+        <v>2343.4195680000003</v>
       </c>
       <c r="Q8" s="167">
         <f t="shared" si="2"/>
-        <v>785482.87296000007</v>
+        <v>749894.26176000014</v>
       </c>
     </row>
     <row r="9" spans="2:20" x14ac:dyDescent="0.25">
@@ -2777,26 +2777,26 @@
       </c>
       <c r="L9" s="177">
         <f>futuros!B3</f>
-        <v>295.55</v>
+        <v>280.8</v>
       </c>
       <c r="M9" s="177">
         <f>(L9+H9)*1.3228</f>
-        <v>430.63754</v>
+        <v>411.12624</v>
       </c>
       <c r="N9" s="167">
         <f>(E9*(M9+H9))</f>
-        <v>147404.0128</v>
+        <v>141160.39679999999</v>
       </c>
       <c r="O9" s="178">
         <v>5.7</v>
       </c>
       <c r="P9" s="167">
         <f t="shared" si="1"/>
-        <v>2454.6339780000003</v>
+        <v>2343.4195680000003</v>
       </c>
       <c r="Q9" s="167">
         <f t="shared" si="2"/>
-        <v>785482.87296000007</v>
+        <v>749894.26176000014</v>
       </c>
     </row>
     <row r="10" spans="2:20" x14ac:dyDescent="0.25">
@@ -2833,26 +2833,26 @@
       </c>
       <c r="L10" s="177">
         <f>futuros!B4</f>
-        <v>288.75</v>
+        <v>273.89999999999998</v>
       </c>
       <c r="M10" s="177">
         <f>(L10+H10)*1.3228</f>
-        <v>421.64249999999998</v>
+        <v>401.99891999999994</v>
       </c>
       <c r="N10" s="167">
         <f>(E10*(M10+H10))</f>
-        <v>144525.6</v>
+        <v>138239.65439999997</v>
       </c>
       <c r="O10" s="178">
         <v>5.7</v>
       </c>
       <c r="P10" s="167">
         <f t="shared" si="1"/>
-        <v>2403.3622500000001</v>
+        <v>2291.3938439999997</v>
       </c>
       <c r="Q10" s="167">
         <f t="shared" si="2"/>
-        <v>769075.92</v>
+        <v>733246.03007999994</v>
       </c>
     </row>
     <row r="11" spans="2:20" x14ac:dyDescent="0.25">
@@ -2889,26 +2889,26 @@
       </c>
       <c r="L11" s="177">
         <f>futuros!B3</f>
-        <v>295.55</v>
+        <v>280.8</v>
       </c>
       <c r="M11" s="177">
         <f t="shared" ref="M11:M16" si="4">(L11+H11)*1.3228</f>
-        <v>427.99194</v>
+        <v>408.48063999999999</v>
       </c>
       <c r="N11" s="167">
         <f t="shared" ref="N11:N16" si="5">(E11*(M11+H11))</f>
-        <v>145917.42079999999</v>
+        <v>139673.80479999998</v>
       </c>
       <c r="O11" s="178">
         <v>5.7</v>
       </c>
       <c r="P11" s="167">
         <f t="shared" si="1"/>
-        <v>2439.5540580000002</v>
+        <v>2328.3396480000001</v>
       </c>
       <c r="Q11" s="167">
         <f t="shared" si="2"/>
-        <v>780657.29856000002</v>
+        <v>745068.6873600001</v>
       </c>
     </row>
     <row r="12" spans="2:20" x14ac:dyDescent="0.25">
@@ -2945,26 +2945,26 @@
       </c>
       <c r="L12" s="177">
         <f>futuros!B3</f>
-        <v>295.55</v>
+        <v>280.8</v>
       </c>
       <c r="M12" s="177">
         <f t="shared" si="4"/>
-        <v>427.99194</v>
+        <v>408.48063999999999</v>
       </c>
       <c r="N12" s="167">
         <f t="shared" si="5"/>
-        <v>145917.42079999999</v>
+        <v>139673.80479999998</v>
       </c>
       <c r="O12" s="178">
         <v>5.7</v>
       </c>
       <c r="P12" s="167">
         <f t="shared" si="1"/>
-        <v>2439.5540580000002</v>
+        <v>2328.3396480000001</v>
       </c>
       <c r="Q12" s="167">
         <f t="shared" si="2"/>
-        <v>780657.29856000002</v>
+        <v>745068.6873600001</v>
       </c>
     </row>
     <row r="13" spans="2:20" s="166" customFormat="1" x14ac:dyDescent="0.25">
@@ -3001,26 +3001,26 @@
       </c>
       <c r="L13" s="177">
         <f>futuros!B4</f>
-        <v>288.75</v>
+        <v>273.89999999999998</v>
       </c>
       <c r="M13" s="177">
         <f t="shared" si="4"/>
-        <v>418.99689999999998</v>
+        <v>399.35331999999994</v>
       </c>
       <c r="N13" s="167">
         <f t="shared" si="5"/>
-        <v>143039.008</v>
+        <v>136753.0624</v>
       </c>
       <c r="O13" s="178">
         <v>5.7</v>
       </c>
       <c r="P13" s="167">
         <f t="shared" si="1"/>
-        <v>2388.28233</v>
+        <v>2276.3139239999996</v>
       </c>
       <c r="Q13" s="167">
         <f t="shared" si="2"/>
-        <v>764250.3456</v>
+        <v>728420.4556799999</v>
       </c>
       <c r="R13" s="163"/>
       <c r="S13" s="163"/>
@@ -3060,26 +3060,26 @@
       </c>
       <c r="L14" s="177">
         <f>futuros!B5</f>
-        <v>283.2</v>
+        <v>268.60000000000002</v>
       </c>
       <c r="M14" s="177">
         <f t="shared" si="4"/>
-        <v>411.65535999999997</v>
+        <v>392.34248000000002</v>
       </c>
       <c r="N14" s="167">
         <f t="shared" si="5"/>
-        <v>140689.71519999998</v>
+        <v>134509.59360000002</v>
       </c>
       <c r="O14" s="178">
         <v>5.7</v>
       </c>
       <c r="P14" s="167">
         <f t="shared" si="1"/>
-        <v>2346.4355519999999</v>
+        <v>2236.3521360000004</v>
       </c>
       <c r="Q14" s="167">
         <f t="shared" si="2"/>
-        <v>750859.37663999991</v>
+        <v>715632.6835200002</v>
       </c>
       <c r="R14" s="163"/>
       <c r="S14" s="163"/>
@@ -3119,26 +3119,26 @@
       </c>
       <c r="L15" s="177">
         <f>futuros!B4</f>
-        <v>288.75</v>
+        <v>273.89999999999998</v>
       </c>
       <c r="M15" s="177">
         <f t="shared" si="4"/>
-        <v>352.8569</v>
+        <v>333.21331999999995</v>
       </c>
       <c r="N15" s="167">
         <f t="shared" si="5"/>
-        <v>105874.208</v>
+        <v>99588.262399999978</v>
       </c>
       <c r="O15" s="178">
         <v>5.7</v>
       </c>
       <c r="P15" s="167">
         <f t="shared" si="1"/>
-        <v>2011.28433</v>
+        <v>1899.3159239999998</v>
       </c>
       <c r="Q15" s="167">
         <f t="shared" si="2"/>
-        <v>643610.98560000001</v>
+        <v>607781.09567999991</v>
       </c>
       <c r="R15" s="163"/>
       <c r="S15" s="163"/>
@@ -3178,26 +3178,26 @@
       </c>
       <c r="L16" s="177">
         <f>futuros!B3</f>
-        <v>295.55</v>
+        <v>280.8</v>
       </c>
       <c r="M16" s="177">
         <f t="shared" si="4"/>
-        <v>461.06193999999999</v>
+        <v>441.55063999999999</v>
       </c>
       <c r="N16" s="167">
         <f t="shared" si="5"/>
-        <v>164499.82080000002</v>
+        <v>158256.20480000001</v>
       </c>
       <c r="O16" s="178">
         <v>5.7</v>
       </c>
       <c r="P16" s="167">
         <f t="shared" si="1"/>
-        <v>2628.053058</v>
+        <v>2516.8386479999999</v>
       </c>
       <c r="Q16" s="167">
         <f t="shared" si="2"/>
-        <v>840976.97855999996</v>
+        <v>805388.36736000003</v>
       </c>
       <c r="R16" s="163"/>
       <c r="S16" s="163"/>
@@ -3324,20 +3324,20 @@
       <c r="L19" s="179"/>
       <c r="M19" s="182">
         <f>N19/E19</f>
-        <v>459.33911714285722</v>
+        <v>443.99463714285707</v>
       </c>
       <c r="N19" s="183">
         <f>SUM(N5:N18)</f>
-        <v>2057839.2448000002</v>
+        <v>1989095.9743999997</v>
       </c>
       <c r="O19" s="184"/>
       <c r="P19" s="185">
         <f>Q19/E19</f>
-        <v>2498.9401105714287</v>
+        <v>2411.4765745714285</v>
       </c>
       <c r="Q19" s="183">
         <f>SUM(Q5:Q18)</f>
-        <v>11195251.695360001</v>
+        <v>10803415.05408</v>
       </c>
     </row>
     <row r="20" spans="2:17" x14ac:dyDescent="0.25">
@@ -3460,7 +3460,7 @@
       </c>
       <c r="I25" s="177">
         <f>futuros!B3</f>
-        <v>295.55</v>
+        <v>280.8</v>
       </c>
       <c r="K25" s="163"/>
       <c r="L25" s="197">
@@ -3469,7 +3469,7 @@
       <c r="M25" s="163"/>
       <c r="N25" s="198">
         <f>(H25-I25)*1.3228*D25</f>
-        <v>-773629.0935030001</v>
+        <v>-675722.36566800007</v>
       </c>
       <c r="O25" s="178">
         <f>O5</f>
@@ -3477,7 +3477,7 @@
       </c>
       <c r="Q25" s="198">
         <f>N25*O25</f>
-        <v>-4409685.8329671007</v>
+        <v>-3851617.4843076007</v>
       </c>
     </row>
     <row r="26" spans="2:17" x14ac:dyDescent="0.25">
@@ -3502,7 +3502,7 @@
       </c>
       <c r="I26" s="177">
         <f>I25</f>
-        <v>295.55</v>
+        <v>280.8</v>
       </c>
       <c r="K26" s="163"/>
       <c r="L26" s="197">
@@ -3511,7 +3511,7 @@
       <c r="M26" s="163"/>
       <c r="N26" s="198">
         <f>(H26-I26)*1.3228*D26</f>
-        <v>-261065.85687000005</v>
+        <v>-222345.68202000004</v>
       </c>
       <c r="O26" s="178">
         <f>O6</f>
@@ -3519,7 +3519,7 @@
       </c>
       <c r="Q26" s="198">
         <f t="shared" ref="Q26:Q27" si="6">N26*O26</f>
-        <v>-1488075.3841590004</v>
+        <v>-1267370.3875140003</v>
       </c>
     </row>
     <row r="27" spans="2:17" x14ac:dyDescent="0.25">
@@ -3543,7 +3543,7 @@
       </c>
       <c r="I27" s="200">
         <f>I26</f>
-        <v>295.55</v>
+        <v>280.8</v>
       </c>
       <c r="K27" s="163"/>
       <c r="L27" s="197">
@@ -3552,7 +3552,7 @@
       <c r="M27" s="163"/>
       <c r="N27" s="198">
         <f>(H27-I27)*1.3228*D27</f>
-        <v>-291576.97963800008</v>
+        <v>-232943.57200800008</v>
       </c>
       <c r="O27" s="178">
         <f>O7</f>
@@ -3560,7 +3560,7 @@
       </c>
       <c r="Q27" s="198">
         <f t="shared" si="6"/>
-        <v>-1661988.7839366004</v>
+        <v>-1327778.3604456005</v>
       </c>
     </row>
     <row r="28" spans="2:17" x14ac:dyDescent="0.25">
@@ -3583,13 +3583,13 @@
       <c r="M28" s="202"/>
       <c r="N28" s="202">
         <f>SUM(N25:N27)</f>
-        <v>-1326271.9300110003</v>
+        <v>-1131011.6196960001</v>
       </c>
       <c r="O28" s="201"/>
       <c r="P28" s="201"/>
       <c r="Q28" s="202">
         <f>SUM(Q25:Q27)</f>
-        <v>-7559750.0010627015</v>
+        <v>-6446766.2322672009</v>
       </c>
     </row>
     <row r="29" spans="2:17" x14ac:dyDescent="0.25">
@@ -4273,7 +4273,7 @@
       </c>
       <c r="I57" s="177">
         <f>futuros!B8</f>
-        <v>265.3</v>
+        <v>255.3</v>
       </c>
       <c r="K57" s="178">
         <f>O8</f>
@@ -4285,7 +4285,7 @@
       <c r="M57" s="198"/>
       <c r="N57" s="198">
         <f>(H57-I57)*1.3228*D57</f>
-        <v>119816.9091</v>
+        <v>153568.15109999999</v>
       </c>
       <c r="O57" s="166">
         <f>O25</f>
@@ -4293,7 +4293,7 @@
       </c>
       <c r="Q57" s="198">
         <f>N57*O57</f>
-        <v>682956.38187000004</v>
+        <v>875338.46126999997</v>
       </c>
     </row>
     <row r="58" spans="2:17" x14ac:dyDescent="0.25">
@@ -4317,7 +4317,7 @@
       </c>
       <c r="I58" s="177">
         <f>I57</f>
-        <v>265.3</v>
+        <v>255.3</v>
       </c>
       <c r="K58" s="178">
         <f>O9</f>
@@ -4329,7 +4329,7 @@
       <c r="M58" s="198"/>
       <c r="N58" s="198">
         <f>(H58-I58)*1.3228*D58</f>
-        <v>171306.30383999989</v>
+        <v>201307.40783999988</v>
       </c>
       <c r="O58" s="166">
         <f>O26</f>
@@ -4337,7 +4337,7 @@
       </c>
       <c r="Q58" s="198">
         <f>N58*O58</f>
-        <v>976445.93188799941</v>
+        <v>1147452.2246879993</v>
       </c>
     </row>
     <row r="59" spans="2:17" x14ac:dyDescent="0.25">
@@ -4360,13 +4360,13 @@
       <c r="M59" s="201"/>
       <c r="N59" s="202">
         <f>SUM(N56:N58)</f>
-        <v>291123.21293999988</v>
+        <v>354875.5589399999</v>
       </c>
       <c r="O59" s="201"/>
       <c r="P59" s="201"/>
       <c r="Q59" s="202">
         <f>SUM(Q56:Q58)</f>
-        <v>1659402.3137579993</v>
+        <v>2022790.6859579994</v>
       </c>
     </row>
     <row r="64" spans="2:17" x14ac:dyDescent="0.25">
@@ -7810,7 +7810,7 @@
   <dimension ref="A1:D13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0.2"/>
@@ -7833,7 +7833,7 @@
         <v>270</v>
       </c>
       <c r="D1" s="162">
-        <v>45866</v>
+        <v>45873</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -7841,11 +7841,11 @@
         <v>45930</v>
       </c>
       <c r="B2" s="155">
-        <v>302.7</v>
+        <v>288</v>
       </c>
       <c r="C2" s="155">
         <f t="shared" ref="C2:C12" si="0">B2*1.3228</f>
-        <v>400.41155999999995</v>
+        <v>380.96640000000002</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -7853,11 +7853,11 @@
         <v>46021</v>
       </c>
       <c r="B3" s="155">
-        <v>295.55</v>
+        <v>280.8</v>
       </c>
       <c r="C3" s="155">
         <f t="shared" si="0"/>
-        <v>390.95354000000003</v>
+        <v>371.44224000000003</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
@@ -7865,11 +7865,11 @@
         <v>46112</v>
       </c>
       <c r="B4" s="155">
-        <v>288.75</v>
+        <v>273.89999999999998</v>
       </c>
       <c r="C4" s="155">
         <f t="shared" si="0"/>
-        <v>381.95850000000002</v>
+        <v>362.31491999999997</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
@@ -7877,11 +7877,11 @@
         <v>46173</v>
       </c>
       <c r="B5" s="155">
-        <v>283.2</v>
+        <v>268.60000000000002</v>
       </c>
       <c r="C5" s="155">
         <f t="shared" si="0"/>
-        <v>374.61696000000001</v>
+        <v>355.30408</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
@@ -7889,11 +7889,11 @@
         <v>46231</v>
       </c>
       <c r="B6" s="155">
-        <v>277.60000000000002</v>
+        <v>264.14999999999998</v>
       </c>
       <c r="C6" s="155">
         <f t="shared" si="0"/>
-        <v>367.20928000000004</v>
+        <v>349.41761999999994</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
@@ -7901,11 +7901,11 @@
         <v>46295</v>
       </c>
       <c r="B7" s="155">
-        <v>270.60000000000002</v>
+        <v>258.55</v>
       </c>
       <c r="C7" s="155">
         <f t="shared" si="0"/>
-        <v>357.94968</v>
+        <v>342.00994000000003</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
@@ -7913,11 +7913,11 @@
         <v>46386</v>
       </c>
       <c r="B8" s="155">
-        <v>265.3</v>
+        <v>255.3</v>
       </c>
       <c r="C8" s="155">
         <f t="shared" si="0"/>
-        <v>350.93884000000003</v>
+        <v>337.71084000000002</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
@@ -7925,11 +7925,11 @@
         <v>46477</v>
       </c>
       <c r="B9" s="155">
-        <v>262.95</v>
+        <v>249.8</v>
       </c>
       <c r="C9" s="155">
         <f t="shared" si="0"/>
-        <v>347.83025999999995</v>
+        <v>330.43544000000003</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
@@ -7937,11 +7937,11 @@
         <v>46538</v>
       </c>
       <c r="B10" s="155">
-        <v>257.60000000000002</v>
+        <v>248.25</v>
       </c>
       <c r="C10" s="155">
         <f t="shared" si="0"/>
-        <v>340.75328000000002</v>
+        <v>328.38509999999997</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
@@ -7949,11 +7949,11 @@
         <v>46596</v>
       </c>
       <c r="B11" s="155">
-        <v>254.95</v>
+        <v>246.3</v>
       </c>
       <c r="C11" s="155">
         <f t="shared" si="0"/>
-        <v>337.24786</v>
+        <v>325.80563999999998</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
@@ -7961,11 +7961,11 @@
         <v>46660</v>
       </c>
       <c r="B12" s="155">
-        <v>251.85</v>
+        <v>244</v>
       </c>
       <c r="C12" s="155">
         <f t="shared" si="0"/>
-        <v>333.14717999999999</v>
+        <v>322.76319999999998</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
@@ -7973,11 +7973,11 @@
         <v>46751</v>
       </c>
       <c r="B13" s="155">
-        <v>249.25</v>
+        <v>241.4</v>
       </c>
       <c r="C13" s="155">
         <f>B13*1.3228</f>
-        <v>329.7079</v>
+        <v>319.32391999999999</v>
       </c>
     </row>
   </sheetData>
@@ -7991,7 +7991,7 @@
   <dimension ref="A1:N27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="Q13" sqref="Q13"/>
+      <selection activeCell="G27" sqref="G27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -8719,7 +8719,7 @@
       </c>
       <c r="H16" s="155">
         <f>futuros!B3</f>
-        <v>295.55</v>
+        <v>280.8</v>
       </c>
       <c r="I16" s="2"/>
       <c r="J16" s="162">
@@ -8728,7 +8728,7 @@
       <c r="K16" s="162"/>
       <c r="L16" s="215">
         <f t="shared" si="2"/>
-        <v>-773629.09350299998</v>
+        <v>-675722.36566800007</v>
       </c>
       <c r="M16" s="160"/>
       <c r="N16" s="215"/>
@@ -8757,7 +8757,7 @@
       </c>
       <c r="H17" s="155">
         <f>futuros!B3</f>
-        <v>295.55</v>
+        <v>280.8</v>
       </c>
       <c r="I17" s="2"/>
       <c r="J17" s="162">
@@ -8766,7 +8766,7 @@
       <c r="K17" s="162"/>
       <c r="L17" s="215">
         <f t="shared" si="2"/>
-        <v>-261065.85687000002</v>
+        <v>-222345.68202000004</v>
       </c>
       <c r="M17" s="160"/>
       <c r="N17" s="215"/>
@@ -8797,7 +8797,7 @@
       </c>
       <c r="H18" s="155">
         <f>futuros!B3</f>
-        <v>295.55</v>
+        <v>280.8</v>
       </c>
       <c r="I18" s="2"/>
       <c r="J18" s="162">
@@ -8806,7 +8806,7 @@
       <c r="K18" s="162"/>
       <c r="L18" s="215">
         <f t="shared" si="2"/>
-        <v>90434.577869999965</v>
+        <v>129154.75271999997</v>
       </c>
       <c r="M18" s="160"/>
       <c r="N18" s="215"/>
@@ -8835,7 +8835,7 @@
       </c>
       <c r="H19" s="217">
         <f>futuros!B3</f>
-        <v>295.55</v>
+        <v>280.8</v>
       </c>
       <c r="I19" s="208"/>
       <c r="J19" s="219">
@@ -8844,7 +8844,7 @@
       <c r="K19" s="219"/>
       <c r="L19" s="220">
         <f t="shared" si="2"/>
-        <v>-154040.66848800005</v>
+        <v>-123064.52860800004</v>
       </c>
       <c r="M19" s="218"/>
       <c r="N19" s="220"/>
@@ -8875,7 +8875,7 @@
       </c>
       <c r="H20" s="155">
         <f>futuros!B4</f>
-        <v>288.75</v>
+        <v>273.89999999999998</v>
       </c>
       <c r="I20" s="2"/>
       <c r="J20" s="162">
@@ -8884,7 +8884,7 @@
       <c r="K20" s="162"/>
       <c r="L20" s="215">
         <f t="shared" si="2"/>
-        <v>95159.751749999996</v>
+        <v>134142.43626000005</v>
       </c>
       <c r="M20" s="160"/>
       <c r="N20" s="215"/>
@@ -8913,7 +8913,7 @@
       </c>
       <c r="H21" s="155">
         <f>futuros!B8</f>
-        <v>265.3</v>
+        <v>255.3</v>
       </c>
       <c r="I21" s="2"/>
       <c r="J21" s="162">
@@ -8922,7 +8922,7 @@
       <c r="K21" s="162"/>
       <c r="L21" s="215">
         <f t="shared" si="2"/>
-        <v>119816.9091</v>
+        <v>153568.15109999999</v>
       </c>
       <c r="M21" s="160"/>
       <c r="N21" s="215"/>
@@ -8950,7 +8950,7 @@
       </c>
       <c r="H22" s="155">
         <f>futuros!B8</f>
-        <v>265.3</v>
+        <v>255.3</v>
       </c>
       <c r="I22" s="2"/>
       <c r="J22" s="162">
@@ -8959,7 +8959,7 @@
       <c r="K22" s="162"/>
       <c r="L22" s="215">
         <f t="shared" si="2"/>
-        <v>171306.30383999989</v>
+        <v>201307.40783999991</v>
       </c>
       <c r="M22" s="160"/>
       <c r="N22" s="215"/>
@@ -8987,7 +8987,7 @@
       </c>
       <c r="H23" s="155">
         <f>futuros!B8</f>
-        <v>265.3</v>
+        <v>255.3</v>
       </c>
       <c r="I23" s="2"/>
       <c r="J23" s="162">
@@ -8996,7 +8996,7 @@
       <c r="K23" s="162"/>
       <c r="L23" s="215">
         <f t="shared" si="2"/>
-        <v>125704.62575999994</v>
+        <v>155705.72975999993</v>
       </c>
       <c r="M23" s="160"/>
       <c r="N23" s="215"/>
@@ -9025,7 +9025,7 @@
       </c>
       <c r="H24" s="217">
         <f>futuros!B8</f>
-        <v>265.3</v>
+        <v>255.3</v>
       </c>
       <c r="I24" s="208"/>
       <c r="J24" s="219">
@@ -9034,7 +9034,7 @@
       <c r="K24" s="219"/>
       <c r="L24" s="220">
         <f t="shared" si="2"/>
-        <v>238358.7712799999</v>
+        <v>343362.63527999987</v>
       </c>
       <c r="M24" s="218"/>
       <c r="N24" s="220"/>
@@ -9063,7 +9063,7 @@
       </c>
       <c r="H25" s="155">
         <f>futuros!B13</f>
-        <v>249.25</v>
+        <v>241.4</v>
       </c>
       <c r="I25" s="2"/>
       <c r="J25" s="162">
@@ -9072,7 +9072,7 @@
       <c r="K25" s="162"/>
       <c r="L25" s="215">
         <f t="shared" si="2"/>
-        <v>-1031.2879499999999</v>
+        <v>31351.153679999978</v>
       </c>
       <c r="M25" s="160"/>
       <c r="N25" s="215"/>
@@ -9100,7 +9100,7 @@
       </c>
       <c r="H26" s="155">
         <f>futuros!B13</f>
-        <v>249.25</v>
+        <v>241.4</v>
       </c>
       <c r="I26" s="2"/>
       <c r="J26" s="162">
@@ -9109,7 +9109,7 @@
       <c r="K26" s="162"/>
       <c r="L26" s="215">
         <f t="shared" ref="L26" si="8">D26*(G26-H26)*1.3228</f>
-        <v>-42751.573199999999</v>
+        <v>-19200.706560000017</v>
       </c>
       <c r="M26" s="160"/>
       <c r="N26" s="215"/>
@@ -9137,7 +9137,7 @@
       </c>
       <c r="H27" s="155">
         <f>futuros!B13</f>
-        <v>249.25</v>
+        <v>241.4</v>
       </c>
       <c r="I27" s="2"/>
       <c r="J27" s="162">
@@ -9146,7 +9146,7 @@
       <c r="K27" s="162"/>
       <c r="L27" s="215">
         <f t="shared" ref="L27" si="10">D27*(G27-H27)*1.3228</f>
-        <v>3281.37075</v>
+        <v>18000.66239999999</v>
       </c>
     </row>
   </sheetData>

--- a/vendas_cafe_em_reais.xlsx
+++ b/vendas_cafe_em_reais.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rotocastro/PycharmProjects/Vendas Cafe/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A3D1F88-A0EE-DD4C-904E-2AC13FCA024D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC356FB8-A029-C147-BB5E-C918FB43C6E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4440" yWindow="940" windowWidth="24960" windowHeight="16540" activeTab="2" xr2:uid="{AC82ADC5-E628-F847-8939-89BAF5623AE6}"/>
+    <workbookView xWindow="4440" yWindow="940" windowWidth="24960" windowHeight="16540" activeTab="1" xr2:uid="{AC82ADC5-E628-F847-8939-89BAF5623AE6}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2 (2)" sheetId="16" state="hidden" r:id="rId1"/>
@@ -24,7 +24,7 @@
     <sheet name="CashFlow_Edson_Luiz" sheetId="3" state="hidden" r:id="rId9"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Sheet2!$A$1:$Q$66</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Sheet2!$A$1:$Q$69</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">'VENDA CAFÉ 220125'!$A$3:$Z$61</definedName>
     <definedName name="LITRAGEM" localSheetId="7">#REF!</definedName>
     <definedName name="LITRAGEM" localSheetId="5">#REF!</definedName>
@@ -70,7 +70,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="930" uniqueCount="346">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="945" uniqueCount="352">
   <si>
     <t>026/24</t>
   </si>
@@ -1108,6 +1108,24 @@
   </si>
   <si>
     <t>060-064</t>
+  </si>
+  <si>
+    <t>067/25</t>
+  </si>
+  <si>
+    <t>068/25</t>
+  </si>
+  <si>
+    <t>069/25</t>
+  </si>
+  <si>
+    <t>Paulo Henrique Teixeira</t>
+  </si>
+  <si>
+    <t>Wells Coffee</t>
+  </si>
+  <si>
+    <t>Naves Comércio de Café</t>
   </si>
 </sst>
 </file>
@@ -4504,10 +4522,11 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E433115D-D1E6-C943-B0EC-2BC4BD1B44BA}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:T66"/>
+  <dimension ref="A1:T69"/>
   <sheetViews>
-    <sheetView topLeftCell="A11" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="Q40" sqref="Q40"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E66" sqref="E66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0.2"/>
@@ -4582,25 +4601,25 @@
         <v>2023</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>89</v>
+        <v>42</v>
       </c>
       <c r="D2" s="159" t="s">
-        <v>86</v>
+        <v>264</v>
       </c>
       <c r="E2" s="2">
-        <v>0.5</v>
+        <v>320</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="G2" s="2" t="s">
         <v>32</v>
       </c>
       <c r="H2" s="2">
-        <v>0</v>
+        <v>13.7</v>
       </c>
       <c r="I2" s="158">
         <v>45371</v>
@@ -4609,18 +4628,27 @@
         <v>1</v>
       </c>
       <c r="K2" s="158">
-        <v>45371</v>
+        <f>I2+90</f>
+        <v>45461</v>
       </c>
       <c r="L2" s="155"/>
-      <c r="M2" s="155"/>
-      <c r="N2" s="3"/>
-      <c r="O2" s="160"/>
+      <c r="M2" s="155">
+        <v>271.5</v>
+      </c>
+      <c r="N2" s="3">
+        <f>M2*E2</f>
+        <v>86880</v>
+      </c>
+      <c r="O2" s="160">
+        <v>4.9740000000000002</v>
+      </c>
       <c r="P2" s="3">
-        <v>1400</v>
+        <f>O2*M2</f>
+        <v>1350.441</v>
       </c>
       <c r="Q2" s="3">
-        <f t="shared" ref="Q2:Q23" si="0">P2*E2</f>
-        <v>700</v>
+        <f>P2*E2</f>
+        <v>432141.12</v>
       </c>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.2">
@@ -4628,7 +4656,7 @@
         <v>2023</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>42</v>
@@ -4649,33 +4677,33 @@
         <v>13.7</v>
       </c>
       <c r="I3" s="158">
-        <v>45371</v>
+        <v>45442</v>
       </c>
       <c r="J3" s="2">
         <v>1</v>
       </c>
       <c r="K3" s="158">
         <f>I3+90</f>
-        <v>45461</v>
+        <v>45532</v>
       </c>
       <c r="L3" s="155"/>
       <c r="M3" s="155">
         <v>271.5</v>
       </c>
       <c r="N3" s="3">
-        <f t="shared" ref="N3:N9" si="1">M3*E3</f>
+        <f>M3*E3</f>
         <v>86880</v>
       </c>
       <c r="O3" s="160">
-        <v>4.9740000000000002</v>
+        <v>5.0419999999999998</v>
       </c>
       <c r="P3" s="3">
         <f>O3*M3</f>
-        <v>1350.441</v>
+        <v>1368.903</v>
       </c>
       <c r="Q3" s="3">
-        <f t="shared" si="0"/>
-        <v>432141.12</v>
+        <f>P3*E3</f>
+        <v>438048.96</v>
       </c>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.2">
@@ -4718,7 +4746,7 @@
         <v>271.5</v>
       </c>
       <c r="N4" s="3">
-        <f t="shared" si="1"/>
+        <f>M4*E4</f>
         <v>86880</v>
       </c>
       <c r="O4" s="160">
@@ -4729,7 +4757,7 @@
         <v>1368.903</v>
       </c>
       <c r="Q4" s="3">
-        <f t="shared" si="0"/>
+        <f>P4*E4</f>
         <v>438048.96</v>
       </c>
     </row>
@@ -4773,7 +4801,7 @@
         <v>271.5</v>
       </c>
       <c r="N5" s="3">
-        <f t="shared" si="1"/>
+        <f>M5*E5</f>
         <v>86880</v>
       </c>
       <c r="O5" s="160">
@@ -4784,7 +4812,7 @@
         <v>1368.903</v>
       </c>
       <c r="Q5" s="3">
-        <f t="shared" si="0"/>
+        <f>P5*E5</f>
         <v>438048.96</v>
       </c>
     </row>
@@ -4827,7 +4855,7 @@
         <v>326.8</v>
       </c>
       <c r="N6" s="3">
-        <f t="shared" si="1"/>
+        <f>M6*E6</f>
         <v>104576</v>
       </c>
       <c r="O6" s="160">
@@ -4839,7 +4867,7 @@
         <v>1856.0115799999999</v>
       </c>
       <c r="Q6" s="3">
-        <f t="shared" si="0"/>
+        <f>P6*E6</f>
         <v>593923.70559999999</v>
       </c>
     </row>
@@ -4848,16 +4876,16 @@
         <v>2023</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>277</v>
+        <v>332</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>42</v>
+        <v>89</v>
       </c>
       <c r="D7" s="159" t="s">
-        <v>46</v>
+        <v>86</v>
       </c>
       <c r="E7" s="2">
-        <v>280</v>
+        <v>0.5</v>
       </c>
       <c r="F7" s="2" t="s">
         <v>32</v>
@@ -4866,36 +4894,27 @@
         <v>32</v>
       </c>
       <c r="H7" s="2">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="I7" s="158">
-        <v>45383</v>
+        <v>45371</v>
       </c>
       <c r="J7" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K7" s="158">
-        <v>45597</v>
+        <v>45371</v>
       </c>
       <c r="L7" s="155"/>
-      <c r="M7" s="155">
-        <v>316.81060714285712</v>
-      </c>
-      <c r="N7" s="3">
-        <f t="shared" si="1"/>
-        <v>88706.97</v>
-      </c>
-      <c r="O7" s="160">
-        <f>5.76</f>
-        <v>5.76</v>
-      </c>
+      <c r="M7" s="155"/>
+      <c r="N7" s="3"/>
+      <c r="O7" s="160"/>
       <c r="P7" s="3">
-        <f>M7*O7</f>
-        <v>1824.8290971428569</v>
+        <v>1400</v>
       </c>
       <c r="Q7" s="3">
-        <f t="shared" si="0"/>
-        <v>510952.14719999995</v>
+        <f>P7*E7</f>
+        <v>700</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.2">
@@ -4903,54 +4922,54 @@
         <v>2023</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>334</v>
+        <v>277</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>42</v>
       </c>
       <c r="D8" s="159" t="s">
-        <v>264</v>
+        <v>46</v>
       </c>
       <c r="E8" s="2">
-        <v>320</v>
+        <v>280</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="G8" s="2" t="s">
         <v>32</v>
       </c>
       <c r="H8" s="2">
-        <v>13.7</v>
+        <v>18</v>
       </c>
       <c r="I8" s="158">
-        <v>45442</v>
+        <v>45383</v>
       </c>
       <c r="J8" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K8" s="158">
-        <f>I8+90</f>
-        <v>45532</v>
+        <v>45597</v>
       </c>
       <c r="L8" s="155"/>
       <c r="M8" s="155">
-        <v>271.5</v>
+        <v>316.81060714285712</v>
       </c>
       <c r="N8" s="3">
-        <f t="shared" si="1"/>
-        <v>86880</v>
+        <f>M8*E8</f>
+        <v>88706.97</v>
       </c>
       <c r="O8" s="160">
-        <v>5.0419999999999998</v>
+        <f>5.76</f>
+        <v>5.76</v>
       </c>
       <c r="P8" s="3">
-        <f>O8*M8</f>
-        <v>1368.903</v>
+        <f>M8*O8</f>
+        <v>1824.8290971428569</v>
       </c>
       <c r="Q8" s="3">
-        <f t="shared" si="0"/>
-        <v>438048.96</v>
+        <f>P8*E8</f>
+        <v>510952.14719999995</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.2">
@@ -4993,7 +5012,7 @@
         <v>300.27999999999997</v>
       </c>
       <c r="N9" s="3">
-        <f t="shared" si="1"/>
+        <f>M9*E9</f>
         <v>15013.999999999998</v>
       </c>
       <c r="O9" s="160">
@@ -5004,7 +5023,7 @@
         <v>1629.3192799999999</v>
       </c>
       <c r="Q9" s="3">
-        <f t="shared" si="0"/>
+        <f>P9*E9</f>
         <v>81465.963999999993</v>
       </c>
     </row>
@@ -5013,45 +5032,55 @@
         <v>2023</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>89</v>
+        <v>42</v>
       </c>
       <c r="D10" s="159" t="s">
-        <v>86</v>
+        <v>264</v>
       </c>
       <c r="E10" s="2">
-        <v>3</v>
+        <v>320</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="G10" s="2" t="s">
         <v>32</v>
       </c>
       <c r="H10" s="2">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="I10" s="158">
         <v>45473</v>
       </c>
       <c r="J10" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K10" s="158">
-        <v>45580</v>
+        <f>I10+90</f>
+        <v>45563</v>
       </c>
       <c r="L10" s="155"/>
-      <c r="M10" s="155"/>
-      <c r="N10" s="3"/>
-      <c r="O10" s="160"/>
+      <c r="M10" s="155">
+        <v>308.54000000000002</v>
+      </c>
+      <c r="N10" s="3">
+        <f>M10*E10</f>
+        <v>98732.800000000003</v>
+      </c>
+      <c r="O10" s="160">
+        <f>572795/N10</f>
+        <v>5.8014661794256819</v>
+      </c>
       <c r="P10" s="3">
-        <v>1500</v>
+        <f>M10*O10</f>
+        <v>1789.984375</v>
       </c>
       <c r="Q10" s="3">
-        <f t="shared" si="0"/>
-        <v>4500</v>
+        <f>P10*E10</f>
+        <v>572795</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.2">
@@ -5059,7 +5088,7 @@
         <v>2023</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>42</v>
@@ -5080,14 +5109,14 @@
         <v>15</v>
       </c>
       <c r="I11" s="158">
-        <v>45473</v>
+        <v>45503</v>
       </c>
       <c r="J11" s="2">
         <v>1</v>
       </c>
       <c r="K11" s="158">
         <f>I11+90</f>
-        <v>45563</v>
+        <v>45593</v>
       </c>
       <c r="L11" s="155"/>
       <c r="M11" s="155">
@@ -5098,16 +5127,16 @@
         <v>98732.800000000003</v>
       </c>
       <c r="O11" s="160">
-        <f>572795/N11</f>
-        <v>5.8014661794256819</v>
+        <f>579189/N11</f>
+        <v>5.8662268263434241</v>
       </c>
       <c r="P11" s="3">
         <f>M11*O11</f>
-        <v>1789.984375</v>
+        <v>1809.9656250000003</v>
       </c>
       <c r="Q11" s="3">
-        <f t="shared" si="0"/>
-        <v>572795</v>
+        <f>P11*E11</f>
+        <v>579189.00000000012</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.2">
@@ -5115,19 +5144,19 @@
         <v>2023</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>89</v>
       </c>
       <c r="D12" s="159" t="s">
-        <v>343</v>
+        <v>86</v>
       </c>
       <c r="E12" s="2">
-        <v>138</v>
+        <v>3</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G12" s="2" t="s">
         <v>32</v>
@@ -5136,32 +5165,32 @@
         <v>0</v>
       </c>
       <c r="I12" s="158">
-        <v>45485</v>
+        <v>45473</v>
       </c>
       <c r="J12" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K12" s="158">
-        <v>45485</v>
+        <v>45580</v>
       </c>
       <c r="L12" s="155"/>
       <c r="M12" s="155"/>
       <c r="N12" s="3"/>
       <c r="O12" s="160"/>
       <c r="P12" s="3">
-        <v>1520</v>
+        <v>1500</v>
       </c>
       <c r="Q12" s="3">
-        <f t="shared" si="0"/>
-        <v>209760</v>
+        <f>P12*E12</f>
+        <v>4500</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A13" s="2">
-        <v>2023</v>
+        <v>2024</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>339</v>
+        <v>12</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>42</v>
@@ -5176,40 +5205,40 @@
         <v>27</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="H13" s="2">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="I13" s="158">
-        <v>45503</v>
+        <v>45564</v>
       </c>
       <c r="J13" s="2">
         <v>1</v>
       </c>
       <c r="K13" s="158">
-        <f>I13+90</f>
-        <v>45593</v>
-      </c>
-      <c r="L13" s="155"/>
+        <v>45627</v>
+      </c>
+      <c r="L13" s="155">
+        <v>251.05</v>
+      </c>
       <c r="M13" s="155">
-        <v>308.54000000000002</v>
+        <v>345.31693999999999</v>
       </c>
       <c r="N13" s="3">
-        <f t="shared" ref="N13:N23" si="2">M13*E13</f>
-        <v>98732.800000000003</v>
+        <f>M13*E13</f>
+        <v>110501.42079999999</v>
       </c>
       <c r="O13" s="160">
-        <f>579189/N13</f>
-        <v>5.8662268263434241</v>
+        <v>5.8349509259259262</v>
       </c>
       <c r="P13" s="3">
-        <f t="shared" ref="P13:P23" si="3">M13*O13</f>
-        <v>1809.9656250000003</v>
+        <f>M13*O13</f>
+        <v>2014.9073987909073</v>
       </c>
       <c r="Q13" s="3">
-        <f t="shared" si="0"/>
-        <v>579189.00000000012</v>
+        <f>P13*E13</f>
+        <v>644770.36761309032</v>
       </c>
     </row>
     <row r="14" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -5217,7 +5246,7 @@
         <v>2024</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>42</v>
@@ -5226,103 +5255,92 @@
         <v>264</v>
       </c>
       <c r="E14" s="2">
-        <v>160</v>
+        <v>320</v>
       </c>
       <c r="F14" s="2" t="s">
         <v>27</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="H14" s="2">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="I14" s="158">
-        <v>45349</v>
+        <v>45564</v>
       </c>
       <c r="J14" s="2">
         <v>1</v>
       </c>
       <c r="K14" s="158">
-        <v>45778</v>
+        <v>45627</v>
       </c>
       <c r="L14" s="155">
-        <v>393.05</v>
+        <v>251.05</v>
       </c>
       <c r="M14" s="155">
-        <v>557.75861999999995</v>
+        <v>345.31693999999999</v>
       </c>
       <c r="N14" s="3">
-        <f t="shared" si="2"/>
-        <v>89241.379199999996</v>
+        <f>M14*E14</f>
+        <v>110501.42079999999</v>
       </c>
       <c r="O14" s="160">
-        <v>5.5049999999999999</v>
+        <v>5.8349509259259262</v>
       </c>
       <c r="P14" s="3">
-        <f t="shared" si="3"/>
-        <v>3070.4612030999997</v>
+        <f>M14*O14</f>
+        <v>2014.9073987909073</v>
       </c>
       <c r="Q14" s="3">
-        <f t="shared" si="0"/>
-        <v>491273.79249599995</v>
+        <f>P14*E14</f>
+        <v>644770.36761309032</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A15" s="2">
-        <v>2024</v>
+        <v>2023</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>4</v>
+        <v>341</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>42</v>
+        <v>89</v>
       </c>
       <c r="D15" s="159" t="s">
-        <v>264</v>
+        <v>343</v>
       </c>
       <c r="E15" s="2">
-        <v>160</v>
+        <v>138</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="H15" s="2">
-        <v>-8</v>
+        <v>0</v>
       </c>
       <c r="I15" s="158">
-        <v>45349</v>
+        <v>45485</v>
       </c>
       <c r="J15" s="2">
         <v>1</v>
       </c>
       <c r="K15" s="158">
-        <v>45748</v>
-      </c>
-      <c r="L15" s="155">
-        <v>393.05</v>
-      </c>
-      <c r="M15" s="155">
-        <v>526.34211999999991</v>
-      </c>
-      <c r="N15" s="3">
-        <f t="shared" si="2"/>
-        <v>84214.739199999982</v>
-      </c>
-      <c r="O15" s="160">
-        <f>(499233.9/(SUM(N14:N15)/2))</f>
-        <v>5.7563135230403049</v>
-      </c>
+        <v>45485</v>
+      </c>
+      <c r="L15" s="155"/>
+      <c r="M15" s="155"/>
+      <c r="N15" s="3"/>
+      <c r="O15" s="160"/>
       <c r="P15" s="3">
-        <f t="shared" si="3"/>
-        <v>3029.7902631017023</v>
+        <v>1520</v>
       </c>
       <c r="Q15" s="3">
-        <f t="shared" si="0"/>
-        <v>484766.44209627237</v>
+        <f>P15*E15</f>
+        <v>209760</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.2">
@@ -5330,13 +5348,13 @@
         <v>2024</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>42</v>
       </c>
       <c r="D16" s="159" t="s">
-        <v>264</v>
+        <v>91</v>
       </c>
       <c r="E16" s="2">
         <v>320</v>
@@ -5345,40 +5363,38 @@
         <v>27</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="H16" s="2">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="I16" s="158">
-        <v>45564</v>
+        <v>45666</v>
       </c>
       <c r="J16" s="2">
         <v>1</v>
       </c>
       <c r="K16" s="158">
-        <v>45627</v>
-      </c>
-      <c r="L16" s="155">
-        <v>251.05</v>
-      </c>
+        <v>45658</v>
+      </c>
+      <c r="L16" s="155"/>
       <c r="M16" s="155">
-        <v>345.31693999999999</v>
+        <v>468.27119999999996</v>
       </c>
       <c r="N16" s="3">
-        <f t="shared" si="2"/>
-        <v>110501.42079999999</v>
+        <f>M16*E16</f>
+        <v>149846.78399999999</v>
       </c>
       <c r="O16" s="160">
-        <v>5.8349509259259262</v>
+        <v>5.8236999999999997</v>
       </c>
       <c r="P16" s="3">
-        <f t="shared" si="3"/>
-        <v>2014.9073987909073</v>
+        <f>M16*O16</f>
+        <v>2727.0709874399995</v>
       </c>
       <c r="Q16" s="3">
-        <f t="shared" si="0"/>
-        <v>644770.36761309032</v>
+        <f>P16*E16</f>
+        <v>872662.71598079987</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.2">
@@ -5386,7 +5402,7 @@
         <v>2024</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C17" s="2" t="s">
         <v>42</v>
@@ -5401,7 +5417,7 @@
         <v>27</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H17" s="2">
         <v>10</v>
@@ -5422,18 +5438,18 @@
         <v>345.31693999999999</v>
       </c>
       <c r="N17" s="3">
-        <f t="shared" si="2"/>
+        <f>M17*E17</f>
         <v>110501.42079999999</v>
       </c>
       <c r="O17" s="160">
         <v>5.8349509259259262</v>
       </c>
       <c r="P17" s="3">
-        <f t="shared" si="3"/>
+        <f>M17*O17</f>
         <v>2014.9073987909073</v>
       </c>
       <c r="Q17" s="3">
-        <f t="shared" si="0"/>
+        <f>P17*E17</f>
         <v>644770.36761309032</v>
       </c>
     </row>
@@ -5442,7 +5458,7 @@
         <v>2024</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="C18" s="2" t="s">
         <v>42</v>
@@ -5463,34 +5479,34 @@
         <v>10</v>
       </c>
       <c r="I18" s="158">
-        <v>45564</v>
+        <v>45678</v>
       </c>
       <c r="J18" s="2">
         <v>1</v>
       </c>
       <c r="K18" s="158">
-        <v>45627</v>
+        <v>45717</v>
       </c>
       <c r="L18" s="155">
-        <v>251.05</v>
+        <v>342</v>
       </c>
       <c r="M18" s="155">
-        <v>345.31693999999999</v>
+        <v>465.62559999999996</v>
       </c>
       <c r="N18" s="3">
-        <f t="shared" si="2"/>
-        <v>110501.42079999999</v>
+        <f>M18*E18</f>
+        <v>149000.19199999998</v>
       </c>
       <c r="O18" s="160">
-        <v>5.8349509259259262</v>
+        <v>5.7249999999999996</v>
       </c>
       <c r="P18" s="3">
-        <f t="shared" si="3"/>
-        <v>2014.9073987909073</v>
+        <f>M18*O18</f>
+        <v>2665.7065599999996</v>
       </c>
       <c r="Q18" s="3">
-        <f t="shared" si="0"/>
-        <v>644770.36761309032</v>
+        <f>P18*E18</f>
+        <v>853026.09919999982</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.2">
@@ -5498,7 +5514,7 @@
         <v>2024</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="C19" s="2" t="s">
         <v>42</v>
@@ -5507,46 +5523,46 @@
         <v>264</v>
       </c>
       <c r="E19" s="2">
-        <v>160</v>
+        <v>320</v>
       </c>
       <c r="F19" s="2" t="s">
         <v>27</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H19" s="2">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="I19" s="158">
-        <v>45599</v>
+        <v>45630</v>
       </c>
       <c r="J19" s="2">
         <v>1</v>
       </c>
       <c r="K19" s="158">
-        <v>45658</v>
+        <v>45689</v>
       </c>
       <c r="L19" s="155">
-        <v>280.75</v>
+        <v>323.25</v>
       </c>
       <c r="M19" s="155">
-        <v>404.4461</v>
+        <v>440.82310000000001</v>
       </c>
       <c r="N19" s="3">
-        <f t="shared" si="2"/>
-        <v>64711.376000000004</v>
+        <f>M19*E19</f>
+        <v>141063.39199999999</v>
       </c>
       <c r="O19" s="160">
-        <v>5.7499741972351099</v>
+        <v>5.7669999035936632</v>
       </c>
       <c r="P19" s="3">
-        <f t="shared" si="3"/>
-        <v>2325.554639172371</v>
+        <f>M19*O19</f>
+        <v>2542.2267752018597</v>
       </c>
       <c r="Q19" s="3">
-        <f t="shared" si="0"/>
-        <v>372088.74226757936</v>
+        <f>P19*E19</f>
+        <v>813512.56806459511</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.2">
@@ -5554,7 +5570,7 @@
         <v>2024</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C20" s="2" t="s">
         <v>42</v>
@@ -5563,46 +5579,46 @@
         <v>264</v>
       </c>
       <c r="E20" s="2">
-        <v>160</v>
+        <v>320</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G20" s="2" t="s">
         <v>37</v>
       </c>
       <c r="H20" s="2">
-        <v>-8</v>
+        <v>10</v>
       </c>
       <c r="I20" s="158">
-        <v>45599</v>
+        <v>45678</v>
       </c>
       <c r="J20" s="2">
         <v>1</v>
       </c>
       <c r="K20" s="158">
-        <v>45658</v>
+        <v>45717</v>
       </c>
       <c r="L20" s="155">
-        <v>280.75</v>
+        <v>342</v>
       </c>
       <c r="M20" s="155">
-        <v>360.7937</v>
+        <v>465.62559999999996</v>
       </c>
       <c r="N20" s="3">
-        <f t="shared" si="2"/>
-        <v>57726.991999999998</v>
+        <f>M20*E20</f>
+        <v>149000.19199999998</v>
       </c>
       <c r="O20" s="160">
-        <v>5.7499741972351099</v>
+        <v>5.7249999999999996</v>
       </c>
       <c r="P20" s="3">
-        <f t="shared" si="3"/>
-        <v>2074.5544655249851</v>
+        <f>M20*O20</f>
+        <v>2665.7065599999996</v>
       </c>
       <c r="Q20" s="3">
-        <f t="shared" si="0"/>
-        <v>331928.71448399761</v>
+        <f>P20*E20</f>
+        <v>853026.09919999982</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.2">
@@ -5610,7 +5626,7 @@
         <v>2024</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="C21" s="2" t="s">
         <v>42</v>
@@ -5631,34 +5647,35 @@
         <v>10</v>
       </c>
       <c r="I21" s="158">
-        <v>45630</v>
+        <v>45746</v>
       </c>
       <c r="J21" s="2">
         <v>1</v>
       </c>
       <c r="K21" s="158">
-        <v>45689</v>
+        <v>45809</v>
       </c>
       <c r="L21" s="155">
-        <v>323.25</v>
+        <v>329.5</v>
       </c>
       <c r="M21" s="155">
-        <v>440.82310000000001</v>
+        <v>449.09059999999999</v>
       </c>
       <c r="N21" s="3">
-        <f t="shared" si="2"/>
-        <v>141063.39199999999</v>
+        <f>M21*E21</f>
+        <v>143708.992</v>
       </c>
       <c r="O21" s="160">
-        <v>5.7669999035936632</v>
+        <f>798447.15/N21</f>
+        <v>5.5559999335323429</v>
       </c>
       <c r="P21" s="3">
-        <f t="shared" si="3"/>
-        <v>2542.2267752018597</v>
+        <f>M21*O21</f>
+        <v>2495.1473437499999</v>
       </c>
       <c r="Q21" s="3">
-        <f t="shared" si="0"/>
-        <v>813512.56806459511</v>
+        <f>P21*E21</f>
+        <v>798447.14999999991</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.2">
@@ -5666,7 +5683,7 @@
         <v>2024</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C22" s="2" t="s">
         <v>42</v>
@@ -5675,47 +5692,46 @@
         <v>264</v>
       </c>
       <c r="E22" s="2">
-        <v>320</v>
+        <v>160</v>
       </c>
       <c r="F22" s="2" t="s">
         <v>27</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="H22" s="2">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="I22" s="158">
-        <f>I21</f>
-        <v>45630</v>
+        <v>45349</v>
       </c>
       <c r="J22" s="2">
         <v>1</v>
       </c>
       <c r="K22" s="158">
-        <v>45689</v>
+        <v>45778</v>
       </c>
       <c r="L22" s="155">
-        <v>323.25</v>
+        <v>393.05</v>
       </c>
       <c r="M22" s="155">
-        <v>493.73509999999999</v>
+        <v>557.75861999999995</v>
       </c>
       <c r="N22" s="3">
-        <f t="shared" si="2"/>
-        <v>157995.23199999999</v>
+        <f>M22*E22</f>
+        <v>89241.379199999996</v>
       </c>
       <c r="O22" s="160">
-        <v>5.7669999035936632</v>
+        <v>5.5049999999999999</v>
       </c>
       <c r="P22" s="3">
-        <f t="shared" si="3"/>
-        <v>2847.3702741008078</v>
+        <f>M22*O22</f>
+        <v>3070.4612030999997</v>
       </c>
       <c r="Q22" s="3">
-        <f t="shared" si="0"/>
-        <v>911158.48771225847</v>
+        <f>P22*E22</f>
+        <v>491273.79249599995</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.2">
@@ -5723,7 +5739,7 @@
         <v>2024</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C23" s="2" t="s">
         <v>42</v>
@@ -5732,47 +5748,46 @@
         <v>264</v>
       </c>
       <c r="E23" s="2">
-        <v>320</v>
+        <v>160</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="H23" s="2">
-        <v>-8</v>
+        <v>25</v>
       </c>
       <c r="I23" s="158">
-        <f>I22</f>
-        <v>45630</v>
+        <v>45599</v>
       </c>
       <c r="J23" s="2">
         <v>1</v>
       </c>
       <c r="K23" s="158">
-        <v>45689</v>
+        <v>45658</v>
       </c>
       <c r="L23" s="155">
-        <v>323.25</v>
+        <v>280.75</v>
       </c>
       <c r="M23" s="155">
-        <v>417.0127</v>
+        <v>404.4461</v>
       </c>
       <c r="N23" s="3">
-        <f t="shared" si="2"/>
-        <v>133444.06400000001</v>
+        <f>M23*E23</f>
+        <v>64711.376000000004</v>
       </c>
       <c r="O23" s="160">
-        <v>5.7669999035936632</v>
+        <v>5.7499741972351099</v>
       </c>
       <c r="P23" s="3">
-        <f t="shared" si="3"/>
-        <v>2404.912200697333</v>
+        <f>M23*O23</f>
+        <v>2325.554639172371</v>
       </c>
       <c r="Q23" s="3">
-        <f t="shared" si="0"/>
-        <v>769571.90422314662</v>
+        <f>P23*E23</f>
+        <v>372088.74226757936</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.2">
@@ -5780,45 +5795,56 @@
         <v>2024</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>41</v>
+        <v>4</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>89</v>
+        <v>42</v>
       </c>
       <c r="D24" s="159" t="s">
-        <v>31</v>
+        <v>264</v>
       </c>
       <c r="E24" s="2">
-        <v>500</v>
+        <v>160</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="H24" s="2">
-        <v>0</v>
+        <v>-8</v>
       </c>
       <c r="I24" s="158">
-        <v>45631</v>
+        <v>45349</v>
       </c>
       <c r="J24" s="2">
         <v>1</v>
       </c>
       <c r="K24" s="158">
-        <v>45631</v>
-      </c>
-      <c r="L24" s="158"/>
-      <c r="M24" s="155"/>
-      <c r="N24" s="3"/>
-      <c r="O24" s="160"/>
+        <v>45748</v>
+      </c>
+      <c r="L24" s="155">
+        <v>393.05</v>
+      </c>
+      <c r="M24" s="155">
+        <v>526.34211999999991</v>
+      </c>
+      <c r="N24" s="3">
+        <f>M24*E24</f>
+        <v>84214.739199999982</v>
+      </c>
+      <c r="O24" s="160">
+        <f>(499233.9/(SUM(N23:N24)/2))</f>
+        <v>6.7044507181236135</v>
+      </c>
       <c r="P24" s="3">
-        <v>2105</v>
+        <f>M24*O24</f>
+        <v>3528.8348044127047</v>
       </c>
       <c r="Q24" s="3">
-        <f>E24*P24</f>
-        <v>1052500</v>
+        <f>P24*E24</f>
+        <v>564613.5687060327</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.2">
@@ -5826,45 +5852,55 @@
         <v>2024</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>43</v>
+        <v>4</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>89</v>
+        <v>42</v>
       </c>
       <c r="D25" s="159" t="s">
-        <v>257</v>
+        <v>264</v>
       </c>
       <c r="E25" s="2">
-        <v>20</v>
+        <v>160</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="G25" s="2" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="H25" s="2">
-        <v>0</v>
+        <v>-8</v>
       </c>
       <c r="I25" s="158">
-        <v>45632</v>
+        <v>45599</v>
       </c>
       <c r="J25" s="2">
         <v>1</v>
       </c>
       <c r="K25" s="158">
-        <v>45632</v>
-      </c>
-      <c r="L25" s="158"/>
-      <c r="M25" s="155"/>
-      <c r="N25" s="3"/>
-      <c r="O25" s="160"/>
+        <v>45658</v>
+      </c>
+      <c r="L25" s="155">
+        <v>280.75</v>
+      </c>
+      <c r="M25" s="155">
+        <v>360.7937</v>
+      </c>
+      <c r="N25" s="3">
+        <f>M25*E25</f>
+        <v>57726.991999999998</v>
+      </c>
+      <c r="O25" s="160">
+        <v>5.7499741972351099</v>
+      </c>
       <c r="P25" s="3">
-        <v>2200</v>
+        <f>M25*O25</f>
+        <v>2074.5544655249851</v>
       </c>
       <c r="Q25" s="3">
-        <f>E25*P25</f>
-        <v>44000</v>
+        <f>P25*E25</f>
+        <v>331928.71448399761</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.2">
@@ -5872,45 +5908,56 @@
         <v>2024</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>25</v>
+        <v>2</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>89</v>
+        <v>42</v>
       </c>
       <c r="D26" s="159" t="s">
-        <v>24</v>
+        <v>264</v>
       </c>
       <c r="E26" s="2">
-        <v>4</v>
+        <v>320</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="H26" s="2">
-        <v>0</v>
+        <v>-28</v>
       </c>
       <c r="I26" s="158">
-        <v>45656</v>
+        <v>45746</v>
       </c>
       <c r="J26" s="2">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="K26" s="158">
-        <v>45717</v>
-      </c>
-      <c r="L26" s="158"/>
-      <c r="M26" s="155"/>
-      <c r="N26" s="3"/>
-      <c r="O26" s="160"/>
+        <v>45809</v>
+      </c>
+      <c r="L26" s="155">
+        <v>370.95</v>
+      </c>
+      <c r="M26" s="155">
+        <v>453.65425999999997</v>
+      </c>
+      <c r="N26" s="3">
+        <f>M26*E26</f>
+        <v>145169.36319999999</v>
+      </c>
+      <c r="O26" s="160">
+        <f>806560.96/N26</f>
+        <v>5.5559998488716937</v>
+      </c>
       <c r="P26" s="3">
-        <v>2500</v>
+        <f>M26*O26</f>
+        <v>2520.5029999999997</v>
       </c>
       <c r="Q26" s="3">
-        <f>E26*P26</f>
-        <v>10000</v>
+        <f>P26*E26</f>
+        <v>806560.96</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.2">
@@ -5918,46 +5965,56 @@
         <v>2024</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>26</v>
+        <v>8</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>89</v>
+        <v>42</v>
       </c>
       <c r="D27" s="159" t="s">
-        <v>24</v>
+        <v>264</v>
       </c>
       <c r="E27" s="2">
-        <v>4</v>
+        <v>320</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="G27" s="2" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="H27" s="2">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="I27" s="158">
         <f>I26</f>
-        <v>45656</v>
+        <v>45746</v>
       </c>
       <c r="J27" s="2">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="K27" s="158">
-        <v>45717</v>
-      </c>
-      <c r="L27" s="158"/>
-      <c r="M27" s="155"/>
-      <c r="N27" s="3"/>
-      <c r="O27" s="160"/>
+        <v>45689</v>
+      </c>
+      <c r="L27" s="155">
+        <v>323.25</v>
+      </c>
+      <c r="M27" s="155">
+        <v>493.73509999999999</v>
+      </c>
+      <c r="N27" s="3">
+        <f>M27*E27</f>
+        <v>157995.23199999999</v>
+      </c>
+      <c r="O27" s="160">
+        <v>5.7669999035936632</v>
+      </c>
       <c r="P27" s="3">
-        <v>2137</v>
+        <f>M27*O27</f>
+        <v>2847.3702741008078</v>
       </c>
       <c r="Q27" s="3">
-        <f>E27*P27</f>
-        <v>8548</v>
+        <f>P27*E27</f>
+        <v>911158.48771225847</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.2">
@@ -5965,13 +6022,13 @@
         <v>2024</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C28" s="2" t="s">
         <v>42</v>
       </c>
       <c r="D28" s="159" t="s">
-        <v>91</v>
+        <v>19</v>
       </c>
       <c r="E28" s="2">
         <v>320</v>
@@ -5980,38 +6037,39 @@
         <v>27</v>
       </c>
       <c r="G28" s="2" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="H28" s="2">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="I28" s="158">
-        <v>45666</v>
+        <v>45671</v>
       </c>
       <c r="J28" s="2">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="K28" s="158">
-        <v>45658</v>
+        <f>I28</f>
+        <v>45671</v>
       </c>
       <c r="L28" s="155"/>
       <c r="M28" s="155">
-        <v>468.27119999999996</v>
+        <v>325</v>
       </c>
       <c r="N28" s="3">
         <f>M28*E28</f>
-        <v>149846.78399999999</v>
+        <v>104000</v>
       </c>
       <c r="O28" s="160">
-        <v>5.8236999999999997</v>
+        <v>5.8079999999999998</v>
       </c>
       <c r="P28" s="3">
         <f>M28*O28</f>
-        <v>2727.0709874399995</v>
+        <v>1887.6</v>
       </c>
       <c r="Q28" s="3">
         <f>P28*E28</f>
-        <v>872662.71598079987</v>
+        <v>604032</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.2">
@@ -6019,7 +6077,7 @@
         <v>2024</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C29" s="2" t="s">
         <v>42</v>
@@ -6031,23 +6089,23 @@
         <v>320</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="G29" s="2" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="H29" s="2">
         <v>0</v>
       </c>
       <c r="I29" s="158">
-        <v>45671</v>
+        <v>45702</v>
       </c>
       <c r="J29" s="2">
         <v>4</v>
       </c>
       <c r="K29" s="158">
         <f>I29</f>
-        <v>45671</v>
+        <v>45702</v>
       </c>
       <c r="L29" s="155"/>
       <c r="M29" s="155">
@@ -6074,55 +6132,45 @@
         <v>2024</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>6</v>
+        <v>25</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>42</v>
+        <v>89</v>
       </c>
       <c r="D30" s="159" t="s">
-        <v>264</v>
+        <v>24</v>
       </c>
       <c r="E30" s="2">
-        <v>320</v>
+        <v>4</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="G30" s="2" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="H30" s="2">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="I30" s="158">
-        <v>45678</v>
+        <v>45656</v>
       </c>
       <c r="J30" s="2">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="K30" s="158">
         <v>45717</v>
       </c>
-      <c r="L30" s="155">
-        <v>342</v>
-      </c>
-      <c r="M30" s="155">
-        <v>465.62559999999996</v>
-      </c>
-      <c r="N30" s="3">
-        <f>M30*E30</f>
-        <v>149000.19199999998</v>
-      </c>
-      <c r="O30" s="160">
-        <v>5.7249999999999996</v>
-      </c>
+      <c r="L30" s="158"/>
+      <c r="M30" s="155"/>
+      <c r="N30" s="3"/>
+      <c r="O30" s="160"/>
       <c r="P30" s="3">
-        <f>M30*O30</f>
-        <v>2665.7065599999996</v>
+        <v>2500</v>
       </c>
       <c r="Q30" s="3">
-        <f>P30*E30</f>
-        <v>853026.09919999982</v>
+        <f>E30*P30</f>
+        <v>10000</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.2">
@@ -6130,55 +6178,46 @@
         <v>2024</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>3</v>
+        <v>26</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>42</v>
+        <v>89</v>
       </c>
       <c r="D31" s="159" t="s">
-        <v>264</v>
+        <v>24</v>
       </c>
       <c r="E31" s="2">
-        <v>320</v>
+        <v>4</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="G31" s="2" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="H31" s="2">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="I31" s="158">
-        <v>45678</v>
+        <f>I30</f>
+        <v>45656</v>
       </c>
       <c r="J31" s="2">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="K31" s="158">
         <v>45717</v>
       </c>
-      <c r="L31" s="155">
-        <v>342</v>
-      </c>
-      <c r="M31" s="155">
-        <v>465.62559999999996</v>
-      </c>
-      <c r="N31" s="3">
-        <f>M31*E31</f>
-        <v>149000.19199999998</v>
-      </c>
-      <c r="O31" s="160">
-        <v>5.7249999999999996</v>
-      </c>
+      <c r="L31" s="158"/>
+      <c r="M31" s="155"/>
+      <c r="N31" s="3"/>
+      <c r="O31" s="160"/>
       <c r="P31" s="3">
-        <f>M31*O31</f>
-        <v>2665.7065599999996</v>
+        <v>2137</v>
       </c>
       <c r="Q31" s="3">
-        <f>P31*E31</f>
-        <v>853026.09919999982</v>
+        <f>E31*P31</f>
+        <v>8548</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.2">
@@ -6186,45 +6225,56 @@
         <v>2024</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>45</v>
+        <v>7</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>89</v>
+        <v>42</v>
       </c>
       <c r="D32" s="159" t="s">
-        <v>44</v>
+        <v>264</v>
       </c>
       <c r="E32" s="2">
-        <v>500</v>
+        <v>320</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G32" s="2" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="H32" s="2">
-        <v>0</v>
+        <v>-8</v>
       </c>
       <c r="I32" s="158">
-        <v>45679</v>
+        <f>I31</f>
+        <v>45656</v>
       </c>
       <c r="J32" s="2">
         <v>1</v>
       </c>
       <c r="K32" s="158">
-        <v>45679</v>
-      </c>
-      <c r="L32" s="158"/>
-      <c r="M32" s="155"/>
-      <c r="N32" s="3"/>
-      <c r="O32" s="160"/>
+        <v>45689</v>
+      </c>
+      <c r="L32" s="155">
+        <v>323.25</v>
+      </c>
+      <c r="M32" s="155">
+        <v>417.0127</v>
+      </c>
+      <c r="N32" s="3">
+        <f>M32*E32</f>
+        <v>133444.06400000001</v>
+      </c>
+      <c r="O32" s="160">
+        <v>5.7669999035936632</v>
+      </c>
       <c r="P32" s="3">
-        <v>2000</v>
+        <f>M32*O32</f>
+        <v>2404.912200697333</v>
       </c>
       <c r="Q32" s="3">
-        <f>E32*P32</f>
-        <v>1000000</v>
+        <f>P32*E32</f>
+        <v>769571.90422314662</v>
       </c>
     </row>
     <row r="33" spans="1:20" x14ac:dyDescent="0.2">
@@ -6232,45 +6282,45 @@
         <v>2024</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>181</v>
+        <v>41</v>
       </c>
       <c r="C33" s="2" t="s">
         <v>89</v>
       </c>
       <c r="D33" s="159" t="s">
-        <v>94</v>
+        <v>31</v>
       </c>
       <c r="E33" s="2">
-        <v>486.3</v>
+        <v>500</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G33" s="2" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="H33" s="2">
         <v>0</v>
       </c>
       <c r="I33" s="158">
-        <v>45684</v>
+        <v>45631</v>
       </c>
       <c r="J33" s="2">
         <v>1</v>
       </c>
       <c r="K33" s="158">
-        <v>45684</v>
+        <v>45631</v>
       </c>
       <c r="L33" s="158"/>
       <c r="M33" s="155"/>
       <c r="N33" s="3"/>
       <c r="O33" s="160"/>
       <c r="P33" s="3">
-        <v>810</v>
+        <v>2105</v>
       </c>
       <c r="Q33" s="3">
         <f>E33*P33</f>
-        <v>393903</v>
+        <v>1052500</v>
       </c>
     </row>
     <row r="34" spans="1:20" x14ac:dyDescent="0.2">
@@ -6278,43 +6328,45 @@
         <v>2024</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>183</v>
+        <v>43</v>
       </c>
       <c r="C34" s="2" t="s">
         <v>89</v>
       </c>
       <c r="D34" s="159" t="s">
-        <v>94</v>
+        <v>257</v>
       </c>
       <c r="E34" s="2">
-        <v>363</v>
+        <v>20</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G34" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="H34" s="2">
         <v>0</v>
       </c>
       <c r="I34" s="158">
-        <v>45684</v>
+        <v>45632</v>
       </c>
       <c r="J34" s="2">
         <v>1</v>
       </c>
       <c r="K34" s="158">
-        <v>45684</v>
+        <v>45632</v>
       </c>
       <c r="L34" s="158"/>
+      <c r="M34" s="155"/>
       <c r="N34" s="3"/>
+      <c r="O34" s="160"/>
       <c r="P34" s="3">
-        <v>1750</v>
+        <v>2200</v>
       </c>
       <c r="Q34" s="3">
         <f>E34*P34</f>
-        <v>635250</v>
+        <v>44000</v>
       </c>
     </row>
     <row r="35" spans="1:20" x14ac:dyDescent="0.2">
@@ -6322,51 +6374,53 @@
         <v>2024</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>42</v>
+        <v>89</v>
       </c>
       <c r="D35" s="159" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="E35" s="2">
-        <v>320</v>
+        <v>500</v>
       </c>
       <c r="F35" s="2" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="G35" s="2" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="H35" s="2">
         <v>0</v>
       </c>
       <c r="I35" s="158">
-        <v>45695</v>
+        <v>45679</v>
       </c>
       <c r="J35" s="2">
         <v>1</v>
       </c>
       <c r="K35" s="158">
-        <v>45809</v>
-      </c>
-      <c r="L35" s="155"/>
-      <c r="M35" s="155">
-        <v>413</v>
-      </c>
-      <c r="N35" s="3">
-        <f>M35*E35</f>
-        <v>132160</v>
-      </c>
+        <v>45679</v>
+      </c>
+      <c r="L35" s="158"/>
+      <c r="M35" s="155"/>
+      <c r="N35" s="3"/>
       <c r="O35" s="160"/>
+      <c r="P35" s="3">
+        <v>2000</v>
+      </c>
+      <c r="Q35" s="3">
+        <f>E35*P35</f>
+        <v>1000000</v>
+      </c>
     </row>
     <row r="36" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A36" s="2">
         <v>2024</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>84</v>
+        <v>47</v>
       </c>
       <c r="C36" s="2" t="s">
         <v>42</v>
@@ -6397,11 +6451,11 @@
       </c>
       <c r="L36" s="155"/>
       <c r="M36" s="155">
-        <v>450</v>
+        <v>413</v>
       </c>
       <c r="N36" s="3">
         <f>M36*E36</f>
-        <v>144000</v>
+        <v>132160</v>
       </c>
       <c r="O36" s="160"/>
     </row>
@@ -6410,7 +6464,7 @@
         <v>2024</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C37" s="2" t="s">
         <v>42</v>
@@ -6419,13 +6473,13 @@
         <v>46</v>
       </c>
       <c r="E37" s="2">
-        <v>223</v>
+        <v>320</v>
       </c>
       <c r="F37" s="2" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="G37" s="2" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="H37" s="2">
         <v>0</v>
@@ -6441,11 +6495,11 @@
       </c>
       <c r="L37" s="155"/>
       <c r="M37" s="155">
-        <v>409.35</v>
+        <v>450</v>
       </c>
       <c r="N37" s="3">
         <f>M37*E37</f>
-        <v>91285.05</v>
+        <v>144000</v>
       </c>
       <c r="O37" s="160"/>
       <c r="T37" s="161"/>
@@ -6455,19 +6509,19 @@
         <v>2024</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>182</v>
+        <v>85</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>89</v>
+        <v>42</v>
       </c>
       <c r="D38" s="159" t="s">
-        <v>94</v>
+        <v>46</v>
       </c>
       <c r="E38" s="2">
-        <v>632.20000000000005</v>
+        <v>223</v>
       </c>
       <c r="F38" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G38" s="2" t="s">
         <v>32</v>
@@ -6476,44 +6530,42 @@
         <v>0</v>
       </c>
       <c r="I38" s="158">
-        <v>45700</v>
+        <v>45695</v>
       </c>
       <c r="J38" s="2">
         <v>1</v>
       </c>
       <c r="K38" s="158">
-        <v>45700</v>
-      </c>
-      <c r="L38" s="158"/>
-      <c r="M38" s="155"/>
-      <c r="N38" s="3"/>
+        <v>45809</v>
+      </c>
+      <c r="L38" s="155"/>
+      <c r="M38" s="155">
+        <v>409.35</v>
+      </c>
+      <c r="N38" s="3">
+        <f>M38*E38</f>
+        <v>91285.05</v>
+      </c>
       <c r="O38" s="160"/>
-      <c r="P38" s="3">
-        <v>2220</v>
-      </c>
-      <c r="Q38" s="3">
-        <f>E38*P38</f>
-        <v>1403484</v>
-      </c>
     </row>
     <row r="39" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A39" s="2">
         <v>2024</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>184</v>
+        <v>87</v>
       </c>
       <c r="C39" s="2" t="s">
         <v>89</v>
       </c>
       <c r="D39" s="159" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
       <c r="E39" s="2">
-        <v>44.2</v>
+        <v>0.5</v>
       </c>
       <c r="F39" s="2" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="G39" s="2" t="s">
         <v>32</v>
@@ -6522,22 +6574,24 @@
         <v>0</v>
       </c>
       <c r="I39" s="158">
-        <v>45700</v>
+        <v>45708</v>
       </c>
       <c r="J39" s="2">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="K39" s="158">
-        <v>45700</v>
+        <v>45839</v>
       </c>
       <c r="L39" s="158"/>
+      <c r="M39" s="155"/>
       <c r="N39" s="3"/>
+      <c r="O39" s="160"/>
       <c r="P39" s="3">
-        <v>2400</v>
+        <v>2293.33</v>
       </c>
       <c r="Q39" s="3">
         <f>E39*P39</f>
-        <v>106080</v>
+        <v>1146.665</v>
       </c>
     </row>
     <row r="40" spans="1:20" x14ac:dyDescent="0.2">
@@ -6545,54 +6599,45 @@
         <v>2024</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>21</v>
+        <v>88</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>42</v>
+        <v>89</v>
       </c>
       <c r="D40" s="159" t="s">
-        <v>19</v>
+        <v>86</v>
       </c>
       <c r="E40" s="2">
-        <v>320</v>
+        <v>7</v>
       </c>
       <c r="F40" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G40" s="2" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="H40" s="2">
         <v>0</v>
       </c>
       <c r="I40" s="158">
-        <v>45702</v>
+        <v>45708</v>
       </c>
       <c r="J40" s="2">
         <v>4</v>
       </c>
       <c r="K40" s="158">
-        <f>I40</f>
-        <v>45702</v>
-      </c>
-      <c r="L40" s="155"/>
-      <c r="M40" s="155">
-        <v>325</v>
-      </c>
-      <c r="N40" s="3">
-        <f>M40*E40</f>
-        <v>104000</v>
-      </c>
-      <c r="O40" s="160">
-        <v>5.8079999999999998</v>
-      </c>
+        <v>45839</v>
+      </c>
+      <c r="L40" s="158"/>
+      <c r="M40" s="155"/>
+      <c r="N40" s="3"/>
+      <c r="O40" s="160"/>
       <c r="P40" s="3">
-        <f>M40*O40</f>
-        <v>1887.6</v>
+        <v>2616.61</v>
       </c>
       <c r="Q40" s="3">
-        <f>P40*E40</f>
-        <v>604032</v>
+        <f>E40*P40</f>
+        <v>18316.27</v>
       </c>
     </row>
     <row r="41" spans="1:20" x14ac:dyDescent="0.2">
@@ -6600,19 +6645,19 @@
         <v>2024</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>87</v>
+        <v>181</v>
       </c>
       <c r="C41" s="2" t="s">
         <v>89</v>
       </c>
       <c r="D41" s="159" t="s">
-        <v>86</v>
+        <v>94</v>
       </c>
       <c r="E41" s="2">
-        <v>0.5</v>
+        <v>486.3</v>
       </c>
       <c r="F41" s="2" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="G41" s="2" t="s">
         <v>32</v>
@@ -6621,24 +6666,24 @@
         <v>0</v>
       </c>
       <c r="I41" s="158">
-        <v>45708</v>
+        <v>45684</v>
       </c>
       <c r="J41" s="2">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="K41" s="158">
-        <v>45839</v>
+        <v>45684</v>
       </c>
       <c r="L41" s="158"/>
       <c r="M41" s="155"/>
       <c r="N41" s="3"/>
       <c r="O41" s="160"/>
       <c r="P41" s="3">
-        <v>2293.33</v>
+        <v>810</v>
       </c>
       <c r="Q41" s="3">
         <f>E41*P41</f>
-        <v>1146.665</v>
+        <v>393903</v>
       </c>
     </row>
     <row r="42" spans="1:20" x14ac:dyDescent="0.2">
@@ -6646,45 +6691,45 @@
         <v>2024</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>88</v>
+        <v>182</v>
       </c>
       <c r="C42" s="2" t="s">
         <v>89</v>
       </c>
       <c r="D42" s="159" t="s">
-        <v>86</v>
+        <v>94</v>
       </c>
       <c r="E42" s="2">
-        <v>7</v>
+        <v>632.20000000000005</v>
       </c>
       <c r="F42" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G42" s="2" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="H42" s="2">
         <v>0</v>
       </c>
       <c r="I42" s="158">
-        <v>45708</v>
+        <v>45700</v>
       </c>
       <c r="J42" s="2">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="K42" s="158">
-        <v>45839</v>
+        <v>45700</v>
       </c>
       <c r="L42" s="158"/>
       <c r="M42" s="155"/>
       <c r="N42" s="3"/>
       <c r="O42" s="160"/>
       <c r="P42" s="3">
-        <v>2616.61</v>
+        <v>2220</v>
       </c>
       <c r="Q42" s="3">
         <f>E42*P42</f>
-        <v>18316.27</v>
+        <v>1403484</v>
       </c>
     </row>
     <row r="43" spans="1:20" x14ac:dyDescent="0.2">
@@ -6692,56 +6737,43 @@
         <v>2024</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>2</v>
+        <v>183</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>42</v>
+        <v>89</v>
       </c>
       <c r="D43" s="159" t="s">
-        <v>264</v>
+        <v>94</v>
       </c>
       <c r="E43" s="2">
-        <v>320</v>
+        <v>363</v>
       </c>
       <c r="F43" s="2" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="G43" s="2" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="H43" s="2">
-        <v>-28</v>
+        <v>0</v>
       </c>
       <c r="I43" s="158">
-        <v>45746</v>
+        <v>45684</v>
       </c>
       <c r="J43" s="2">
         <v>1</v>
       </c>
       <c r="K43" s="158">
-        <v>45809</v>
-      </c>
-      <c r="L43" s="155">
-        <v>370.95</v>
-      </c>
-      <c r="M43" s="155">
-        <v>453.65425999999997</v>
-      </c>
-      <c r="N43" s="3">
-        <f>M43*E43</f>
-        <v>145169.36319999999</v>
-      </c>
-      <c r="O43" s="160">
-        <f>806560.96/N43</f>
-        <v>5.5559998488716937</v>
-      </c>
+        <v>45684</v>
+      </c>
+      <c r="L43" s="158"/>
+      <c r="N43" s="3"/>
       <c r="P43" s="3">
-        <f>M43*O43</f>
-        <v>2520.5029999999997</v>
+        <v>1750</v>
       </c>
       <c r="Q43" s="3">
-        <f>P43*E43</f>
-        <v>806560.96</v>
+        <f>E43*P43</f>
+        <v>635250</v>
       </c>
     </row>
     <row r="44" spans="1:20" x14ac:dyDescent="0.2">
@@ -6749,56 +6781,43 @@
         <v>2024</v>
       </c>
       <c r="B44" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="C44" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="D44" s="159" t="s">
+        <v>94</v>
+      </c>
+      <c r="E44" s="2">
+        <v>44.2</v>
+      </c>
+      <c r="F44" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="G44" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="H44" s="2">
         <v>0</v>
       </c>
-      <c r="C44" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="D44" s="159" t="s">
-        <v>264</v>
-      </c>
-      <c r="E44" s="2">
-        <v>320</v>
-      </c>
-      <c r="F44" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="G44" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="H44" s="2">
-        <v>10</v>
-      </c>
       <c r="I44" s="158">
-        <v>45746</v>
+        <v>45700</v>
       </c>
       <c r="J44" s="2">
         <v>1</v>
       </c>
       <c r="K44" s="158">
-        <v>45809</v>
-      </c>
-      <c r="L44" s="155">
-        <v>329.5</v>
-      </c>
-      <c r="M44" s="155">
-        <v>449.09059999999999</v>
-      </c>
-      <c r="N44" s="3">
-        <f>M44*E44</f>
-        <v>143708.992</v>
-      </c>
-      <c r="O44" s="160">
-        <f>798447.15/N44</f>
-        <v>5.5559999335323429</v>
-      </c>
+        <v>45700</v>
+      </c>
+      <c r="L44" s="158"/>
+      <c r="N44" s="3"/>
       <c r="P44" s="3">
-        <f>M44*O44</f>
-        <v>2495.1473437499999</v>
+        <v>2400</v>
       </c>
       <c r="Q44" s="3">
-        <f>P44*E44</f>
-        <v>798447.14999999991</v>
+        <f>E44*P44</f>
+        <v>106080</v>
       </c>
     </row>
     <row r="45" spans="1:20" x14ac:dyDescent="0.2">
@@ -6806,131 +6825,131 @@
         <v>2024</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>256</v>
+        <v>276</v>
       </c>
       <c r="C45" s="2" t="s">
         <v>89</v>
       </c>
       <c r="D45" s="159" t="s">
-        <v>257</v>
+        <v>86</v>
       </c>
       <c r="E45" s="2">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="F45" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G45" s="2" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="H45" s="2">
         <v>0</v>
       </c>
       <c r="I45" s="158">
-        <v>45778</v>
+        <v>45789</v>
       </c>
       <c r="J45" s="2">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="K45" s="158">
-        <v>45870</v>
+        <v>45789</v>
       </c>
       <c r="L45" s="158"/>
       <c r="N45" s="3"/>
       <c r="P45" s="3">
-        <v>2700</v>
+        <v>2616.61</v>
       </c>
       <c r="Q45" s="3">
         <f>E45*P45</f>
-        <v>13500</v>
+        <v>18316.27</v>
       </c>
     </row>
     <row r="46" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A46" s="2">
-        <v>2024</v>
+        <v>2025</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>276</v>
+        <v>258</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>89</v>
+        <v>42</v>
       </c>
       <c r="D46" s="159" t="s">
-        <v>86</v>
+        <v>264</v>
       </c>
       <c r="E46" s="2">
-        <v>7</v>
+        <v>320</v>
       </c>
       <c r="F46" s="2" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="G46" s="2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="H46" s="2">
         <v>0</v>
       </c>
       <c r="I46" s="158">
-        <v>45789</v>
+        <v>45870</v>
       </c>
       <c r="J46" s="2">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="K46" s="158">
-        <v>45789</v>
+        <f>I46+65</f>
+        <v>45935</v>
       </c>
       <c r="L46" s="158"/>
-      <c r="N46" s="3"/>
-      <c r="P46" s="3">
-        <v>2616.61</v>
-      </c>
-      <c r="Q46" s="3">
-        <f>E46*P46</f>
-        <v>18316.27</v>
+      <c r="M46" s="155">
+        <v>505</v>
+      </c>
+      <c r="N46" s="3">
+        <f>M46*E46</f>
+        <v>161600</v>
       </c>
     </row>
     <row r="47" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A47" s="2">
-        <v>2025</v>
+        <v>2024</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>42</v>
+        <v>89</v>
       </c>
       <c r="D47" s="159" t="s">
-        <v>264</v>
+        <v>257</v>
       </c>
       <c r="E47" s="2">
-        <v>320</v>
+        <v>5</v>
       </c>
       <c r="F47" s="2" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="G47" s="2" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="H47" s="2">
         <v>0</v>
       </c>
       <c r="I47" s="158">
+        <v>45778</v>
+      </c>
+      <c r="J47" s="2">
+        <v>4</v>
+      </c>
+      <c r="K47" s="158">
         <v>45870</v>
       </c>
-      <c r="J47" s="2">
-        <v>1</v>
-      </c>
-      <c r="K47" s="158">
-        <f t="shared" ref="K47:K52" si="4">I47+65</f>
-        <v>45935</v>
-      </c>
       <c r="L47" s="158"/>
-      <c r="M47" s="155">
-        <v>505</v>
-      </c>
-      <c r="N47" s="3">
-        <f t="shared" ref="N47:N57" si="5">M47*E47</f>
-        <v>161600</v>
+      <c r="N47" s="3"/>
+      <c r="P47" s="3">
+        <v>2700</v>
+      </c>
+      <c r="Q47" s="3">
+        <f>E47*P47</f>
+        <v>13500</v>
       </c>
     </row>
     <row r="48" spans="1:20" x14ac:dyDescent="0.2">
@@ -6965,7 +6984,7 @@
         <v>1</v>
       </c>
       <c r="K48" s="158">
-        <f t="shared" si="4"/>
+        <f>I48+65</f>
         <v>45966</v>
       </c>
       <c r="L48" s="155">
@@ -6976,7 +6995,7 @@
         <v>476.20799999999997</v>
       </c>
       <c r="N48" s="3">
-        <f t="shared" si="5"/>
+        <f>M48*E48</f>
         <v>152386.56</v>
       </c>
     </row>
@@ -7012,7 +7031,7 @@
         <v>1</v>
       </c>
       <c r="K49" s="158">
-        <f t="shared" si="4"/>
+        <f>I49+65</f>
         <v>45996</v>
       </c>
       <c r="L49" s="155">
@@ -7023,7 +7042,7 @@
         <v>476.20799999999997</v>
       </c>
       <c r="N49" s="3">
-        <f t="shared" si="5"/>
+        <f>M49*E49</f>
         <v>152386.56</v>
       </c>
     </row>
@@ -7059,7 +7078,7 @@
         <v>1</v>
       </c>
       <c r="K50" s="158">
-        <f t="shared" si="4"/>
+        <f>I50+65</f>
         <v>45966</v>
       </c>
       <c r="L50" s="155">
@@ -7070,7 +7089,7 @@
         <v>476.20799999999997</v>
       </c>
       <c r="N50" s="3">
-        <f t="shared" si="5"/>
+        <f>M50*E50</f>
         <v>152386.56</v>
       </c>
     </row>
@@ -7106,7 +7125,7 @@
         <v>1</v>
       </c>
       <c r="K51" s="158">
-        <f t="shared" si="4"/>
+        <f>I51+65</f>
         <v>45996</v>
       </c>
       <c r="L51" s="155">
@@ -7117,7 +7136,7 @@
         <v>476.20799999999997</v>
       </c>
       <c r="N51" s="3">
-        <f t="shared" si="5"/>
+        <f>M51*E51</f>
         <v>152386.56</v>
       </c>
     </row>
@@ -7153,7 +7172,7 @@
         <v>1</v>
       </c>
       <c r="K52" s="158">
-        <f t="shared" si="4"/>
+        <f>I52+65</f>
         <v>46119</v>
       </c>
       <c r="L52" s="155">
@@ -7164,7 +7183,7 @@
         <v>476.20799999999997</v>
       </c>
       <c r="N52" s="3">
-        <f t="shared" si="5"/>
+        <f>M52*E52</f>
         <v>152386.56</v>
       </c>
     </row>
@@ -7206,7 +7225,7 @@
         <v>488</v>
       </c>
       <c r="N53" s="3">
-        <f t="shared" si="5"/>
+        <f>M53*E53</f>
         <v>156160</v>
       </c>
     </row>
@@ -7248,22 +7267,22 @@
         <v>500</v>
       </c>
       <c r="N54" s="3">
-        <f t="shared" si="5"/>
+        <f>M54*E54</f>
         <v>160000</v>
       </c>
     </row>
     <row r="55" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A55" s="2">
-        <v>2025</v>
+        <v>2026</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="C55" s="2" t="s">
         <v>42</v>
       </c>
       <c r="D55" s="159" t="s">
-        <v>264</v>
+        <v>19</v>
       </c>
       <c r="E55" s="2">
         <v>320</v>
@@ -7272,45 +7291,41 @@
         <v>27</v>
       </c>
       <c r="G55" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="H55" s="2">
-        <v>28</v>
+        <v>0</v>
       </c>
       <c r="I55" s="158">
-        <v>45901</v>
+        <v>46327</v>
       </c>
       <c r="J55" s="2">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="K55" s="158">
-        <f>I55+65</f>
-        <v>45966</v>
-      </c>
-      <c r="L55" s="155">
-        <v>325</v>
+        <f>I55+120</f>
+        <v>46447</v>
       </c>
       <c r="M55" s="155">
-        <f>(L55+H55)*1.3228</f>
-        <v>466.94839999999999</v>
+        <v>423</v>
       </c>
       <c r="N55" s="3">
-        <f t="shared" si="5"/>
-        <v>149423.48800000001</v>
+        <f>M55*E55</f>
+        <v>135360</v>
       </c>
     </row>
     <row r="56" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A56" s="2">
-        <v>2025</v>
+        <v>2026</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="C56" s="2" t="s">
         <v>42</v>
       </c>
       <c r="D56" s="159" t="s">
-        <v>264</v>
+        <v>19</v>
       </c>
       <c r="E56" s="2">
         <v>320</v>
@@ -7319,31 +7334,27 @@
         <v>27</v>
       </c>
       <c r="G56" s="2" t="s">
-        <v>37</v>
+        <v>289</v>
       </c>
       <c r="H56" s="2">
-        <v>28</v>
+        <v>0</v>
       </c>
       <c r="I56" s="158">
-        <v>45962</v>
+        <v>46327</v>
       </c>
       <c r="J56" s="2">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="K56" s="158">
-        <f>I56+65</f>
-        <v>46027</v>
-      </c>
-      <c r="L56" s="155">
-        <v>325</v>
+        <f>I56+120</f>
+        <v>46447</v>
       </c>
       <c r="M56" s="155">
-        <f>(L56+H56)*1.3228</f>
-        <v>466.94839999999999</v>
+        <v>436</v>
       </c>
       <c r="N56" s="3">
-        <f t="shared" si="5"/>
-        <v>149423.48800000001</v>
+        <f>M56*E56</f>
+        <v>139520</v>
       </c>
     </row>
     <row r="57" spans="1:17" x14ac:dyDescent="0.2">
@@ -7351,7 +7362,7 @@
         <v>2025</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="C57" s="2" t="s">
         <v>42</v>
@@ -7372,14 +7383,14 @@
         <v>28</v>
       </c>
       <c r="I57" s="158">
-        <v>46023</v>
+        <v>45901</v>
       </c>
       <c r="J57" s="2">
         <v>1</v>
       </c>
       <c r="K57" s="158">
         <f>I57+65</f>
-        <v>46088</v>
+        <v>45966</v>
       </c>
       <c r="L57" s="155">
         <v>325</v>
@@ -7389,7 +7400,7 @@
         <v>466.94839999999999</v>
       </c>
       <c r="N57" s="3">
-        <f t="shared" si="5"/>
+        <f>M57*E57</f>
         <v>149423.48800000001</v>
       </c>
     </row>
@@ -7397,127 +7408,141 @@
       <c r="A58" s="2">
         <v>2025</v>
       </c>
+      <c r="B58" s="2" t="s">
+        <v>284</v>
+      </c>
       <c r="C58" s="2" t="s">
-        <v>89</v>
+        <v>42</v>
       </c>
       <c r="D58" s="159" t="s">
-        <v>331</v>
+        <v>264</v>
       </c>
       <c r="E58" s="2">
-        <v>4000</v>
+        <v>320</v>
       </c>
       <c r="F58" s="2" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="G58" s="2" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="H58" s="2">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="I58" s="158">
-        <v>45992</v>
+        <v>45962</v>
       </c>
       <c r="J58" s="2">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="K58" s="158">
-        <v>45992</v>
-      </c>
-      <c r="L58" s="158"/>
-      <c r="N58" s="3"/>
-      <c r="P58" s="3">
-        <v>1600</v>
-      </c>
-      <c r="Q58" s="3">
-        <f>E58*P58</f>
-        <v>6400000</v>
+        <f>I58+65</f>
+        <v>46027</v>
+      </c>
+      <c r="L58" s="155">
+        <v>325</v>
+      </c>
+      <c r="M58" s="155">
+        <f>(L58+H58)*1.3228</f>
+        <v>466.94839999999999</v>
+      </c>
+      <c r="N58" s="3">
+        <f>M58*E58</f>
+        <v>149423.48800000001</v>
       </c>
     </row>
     <row r="59" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A59" s="2">
         <v>2025</v>
       </c>
+      <c r="B59" s="2" t="s">
+        <v>285</v>
+      </c>
       <c r="C59" s="2" t="s">
         <v>42</v>
       </c>
       <c r="D59" s="159" t="s">
-        <v>331</v>
+        <v>264</v>
       </c>
       <c r="E59" s="2">
-        <v>2500</v>
+        <v>320</v>
       </c>
       <c r="F59" s="2" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="G59" s="2" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="H59" s="2">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="I59" s="158">
-        <v>45992</v>
+        <v>46023</v>
       </c>
       <c r="J59" s="2">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="K59" s="158">
-        <v>45992</v>
+        <f>I59+65</f>
+        <v>46088</v>
       </c>
       <c r="L59" s="155">
         <v>325</v>
       </c>
       <c r="M59" s="155">
-        <f t="shared" ref="M59:M64" si="6">(L59+H59)*1.3228</f>
-        <v>429.90999999999997</v>
+        <f>(L59+H59)*1.3228</f>
+        <v>466.94839999999999</v>
       </c>
       <c r="N59" s="3">
-        <f t="shared" ref="N59:N66" si="7">M59*E59</f>
-        <v>1074775</v>
+        <f>M59*E59</f>
+        <v>149423.48800000001</v>
       </c>
     </row>
     <row r="60" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A60" s="2">
         <v>2025</v>
       </c>
+      <c r="B60" s="2" t="s">
+        <v>286</v>
+      </c>
       <c r="C60" s="2" t="s">
         <v>42</v>
       </c>
       <c r="D60" s="159" t="s">
-        <v>331</v>
+        <v>264</v>
       </c>
       <c r="E60" s="2">
-        <v>64.5</v>
+        <v>320</v>
       </c>
       <c r="F60" s="2" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="G60" s="2" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="H60" s="2">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="I60" s="158">
-        <v>45992</v>
+        <v>46082</v>
       </c>
       <c r="J60" s="2">
         <v>1</v>
       </c>
       <c r="K60" s="158">
-        <v>45992</v>
+        <f>I60+65</f>
+        <v>46147</v>
       </c>
       <c r="L60" s="155">
-        <v>330</v>
+        <v>325</v>
       </c>
       <c r="M60" s="155">
-        <f t="shared" si="6"/>
-        <v>436.524</v>
+        <f>(L60+H60)*1.3228</f>
+        <v>466.94839999999999</v>
       </c>
       <c r="N60" s="3">
-        <f t="shared" si="7"/>
-        <v>28155.797999999999</v>
+        <f>M60*E60</f>
+        <v>149423.48800000001</v>
       </c>
     </row>
     <row r="61" spans="1:17" x14ac:dyDescent="0.2">
@@ -7525,7 +7550,7 @@
         <v>2025</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="C61" s="2" t="s">
         <v>42</v>
@@ -7537,34 +7562,34 @@
         <v>320</v>
       </c>
       <c r="F61" s="2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="G61" s="2" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="H61" s="2">
-        <v>28</v>
+        <v>-22</v>
       </c>
       <c r="I61" s="158">
-        <v>46082</v>
+        <v>45992</v>
       </c>
       <c r="J61" s="2">
         <v>1</v>
       </c>
       <c r="K61" s="158">
         <f>I61+65</f>
-        <v>46147</v>
+        <v>46057</v>
       </c>
       <c r="L61" s="155">
         <v>325</v>
       </c>
       <c r="M61" s="155">
-        <f t="shared" si="6"/>
-        <v>466.94839999999999</v>
+        <f>(L61+H61)*1.3228</f>
+        <v>400.80840000000001</v>
       </c>
       <c r="N61" s="3">
-        <f t="shared" si="7"/>
-        <v>149423.48800000001</v>
+        <f>M61*E61</f>
+        <v>128258.68799999999</v>
       </c>
     </row>
     <row r="62" spans="1:17" x14ac:dyDescent="0.2">
@@ -7572,7 +7597,7 @@
         <v>2025</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="C62" s="2" t="s">
         <v>42</v>
@@ -7584,51 +7609,51 @@
         <v>320</v>
       </c>
       <c r="F62" s="2" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="G62" s="2" t="s">
-        <v>32</v>
+        <v>290</v>
       </c>
       <c r="H62" s="2">
-        <v>-22</v>
+        <v>53</v>
       </c>
       <c r="I62" s="158">
-        <v>45992</v>
+        <v>45931</v>
       </c>
       <c r="J62" s="2">
         <v>1</v>
       </c>
       <c r="K62" s="158">
         <f>I62+65</f>
-        <v>46057</v>
+        <v>45996</v>
       </c>
       <c r="L62" s="155">
-        <v>325</v>
+        <v>330</v>
       </c>
       <c r="M62" s="155">
-        <f t="shared" si="6"/>
-        <v>400.80840000000001</v>
+        <f>(L62+H62)*1.3228</f>
+        <v>506.63240000000002</v>
       </c>
       <c r="N62" s="3">
-        <f t="shared" si="7"/>
-        <v>128258.68799999999</v>
+        <f>M62*E62</f>
+        <v>162122.36800000002</v>
       </c>
     </row>
     <row r="63" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A63" s="2">
-        <v>2025</v>
+        <v>2024</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>288</v>
+        <v>346</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>42</v>
+        <v>89</v>
       </c>
       <c r="D63" s="159" t="s">
-        <v>264</v>
+        <v>349</v>
       </c>
       <c r="E63" s="2">
-        <v>320</v>
+        <v>0.5</v>
       </c>
       <c r="F63" s="2" t="s">
         <v>27</v>
@@ -7637,171 +7662,295 @@
         <v>290</v>
       </c>
       <c r="H63" s="2">
-        <v>53</v>
+        <v>0</v>
       </c>
       <c r="I63" s="158">
-        <v>45931</v>
+        <v>45809</v>
       </c>
       <c r="J63" s="2">
         <v>1</v>
       </c>
       <c r="K63" s="158">
-        <f>I63+65</f>
-        <v>45996</v>
-      </c>
-      <c r="L63" s="155">
-        <v>330</v>
-      </c>
-      <c r="M63" s="155">
-        <f t="shared" si="6"/>
-        <v>506.63240000000002</v>
-      </c>
-      <c r="N63" s="3">
-        <f t="shared" si="7"/>
-        <v>162122.36800000002</v>
+        <v>45809</v>
+      </c>
+      <c r="L63" s="155"/>
+      <c r="M63" s="155"/>
+      <c r="N63" s="3"/>
+      <c r="P63" s="3">
+        <v>3000</v>
+      </c>
+      <c r="Q63" s="3">
+        <f>E63*P63</f>
+        <v>1500</v>
       </c>
     </row>
     <row r="64" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A64" s="2">
         <v>2025</v>
       </c>
+      <c r="B64" s="2" t="s">
+        <v>347</v>
+      </c>
       <c r="C64" s="2" t="s">
         <v>42</v>
       </c>
       <c r="D64" s="159" t="s">
-        <v>331</v>
+        <v>350</v>
       </c>
       <c r="E64" s="2">
-        <v>449</v>
+        <v>320</v>
       </c>
       <c r="F64" s="2" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="G64" s="2" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="H64" s="2">
         <v>0</v>
       </c>
       <c r="I64" s="158">
-        <v>46082</v>
+        <v>45931</v>
       </c>
       <c r="J64" s="2">
         <v>1</v>
       </c>
       <c r="K64" s="158">
-        <v>46082</v>
-      </c>
-      <c r="L64" s="155">
-        <v>325</v>
-      </c>
+        <v>45931</v>
+      </c>
+      <c r="L64" s="155"/>
       <c r="M64" s="155">
-        <f t="shared" si="6"/>
-        <v>429.90999999999997</v>
+        <v>463.2</v>
       </c>
       <c r="N64" s="3">
-        <f t="shared" si="7"/>
-        <v>193029.59</v>
-      </c>
-    </row>
-    <row r="65" spans="1:14" x14ac:dyDescent="0.2">
+        <f>M64*E64</f>
+        <v>148224</v>
+      </c>
+    </row>
+    <row r="65" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A65" s="2">
-        <v>2026</v>
+        <v>2025</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>281</v>
+        <v>348</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>42</v>
+        <v>89</v>
       </c>
       <c r="D65" s="159" t="s">
-        <v>19</v>
+        <v>351</v>
       </c>
       <c r="E65" s="2">
-        <v>320</v>
+        <v>12</v>
       </c>
       <c r="F65" s="2" t="s">
         <v>27</v>
       </c>
       <c r="G65" s="2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="H65" s="2">
         <v>0</v>
       </c>
       <c r="I65" s="158">
-        <v>46327</v>
+        <v>45880</v>
       </c>
       <c r="J65" s="2">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="K65" s="158">
-        <f>I65+120</f>
-        <v>46447</v>
-      </c>
-      <c r="M65" s="155">
-        <v>423</v>
-      </c>
-      <c r="N65" s="3">
-        <f t="shared" si="7"/>
-        <v>135360</v>
-      </c>
-    </row>
-    <row r="66" spans="1:14" x14ac:dyDescent="0.2">
+        <v>45880</v>
+      </c>
+      <c r="L65" s="155"/>
+      <c r="M65" s="155"/>
+      <c r="N65" s="3"/>
+      <c r="P65" s="3">
+        <v>2350</v>
+      </c>
+      <c r="Q65" s="3">
+        <f>E65*P65</f>
+        <v>28200</v>
+      </c>
+    </row>
+    <row r="66" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A66" s="2">
-        <v>2026</v>
-      </c>
-      <c r="B66" s="2" t="s">
-        <v>282</v>
+        <v>2025</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>42</v>
+        <v>89</v>
       </c>
       <c r="D66" s="159" t="s">
-        <v>19</v>
+        <v>331</v>
       </c>
       <c r="E66" s="2">
-        <v>320</v>
+        <v>4000</v>
       </c>
       <c r="F66" s="2" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="G66" s="2" t="s">
-        <v>289</v>
+        <v>32</v>
       </c>
       <c r="H66" s="2">
         <v>0</v>
       </c>
       <c r="I66" s="158">
-        <v>46327</v>
+        <v>45992</v>
       </c>
       <c r="J66" s="2">
         <v>4</v>
       </c>
       <c r="K66" s="158">
-        <f>I66+120</f>
-        <v>46447</v>
-      </c>
-      <c r="M66" s="155">
-        <v>436</v>
-      </c>
-      <c r="N66" s="3">
-        <f t="shared" si="7"/>
-        <v>139520</v>
+        <v>45992</v>
+      </c>
+      <c r="L66" s="158"/>
+      <c r="N66" s="3"/>
+      <c r="P66" s="3">
+        <v>1600</v>
+      </c>
+      <c r="Q66" s="3">
+        <f>E66*P66</f>
+        <v>6400000</v>
+      </c>
+    </row>
+    <row r="67" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A67" s="2">
+        <v>2025</v>
+      </c>
+      <c r="C67" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="D67" s="159" t="s">
+        <v>331</v>
+      </c>
+      <c r="E67" s="2">
+        <v>2500</v>
+      </c>
+      <c r="F67" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="G67" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="H67" s="2">
+        <v>0</v>
+      </c>
+      <c r="I67" s="158">
+        <v>45992</v>
+      </c>
+      <c r="J67" s="2">
+        <v>4</v>
+      </c>
+      <c r="K67" s="158">
+        <v>45992</v>
+      </c>
+      <c r="L67" s="155">
+        <v>325</v>
+      </c>
+      <c r="M67" s="155">
+        <f>(L67+H67)*1.3228</f>
+        <v>429.90999999999997</v>
+      </c>
+      <c r="N67" s="3">
+        <f>M67*E67</f>
+        <v>1074775</v>
+      </c>
+    </row>
+    <row r="68" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A68" s="2">
+        <v>2025</v>
+      </c>
+      <c r="C68" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="D68" s="159" t="s">
+        <v>331</v>
+      </c>
+      <c r="E68" s="2">
+        <v>64.5</v>
+      </c>
+      <c r="F68" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="G68" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="H68" s="2">
+        <v>0</v>
+      </c>
+      <c r="I68" s="158">
+        <v>45992</v>
+      </c>
+      <c r="J68" s="2">
+        <v>1</v>
+      </c>
+      <c r="K68" s="158">
+        <v>45992</v>
+      </c>
+      <c r="L68" s="155">
+        <v>330</v>
+      </c>
+      <c r="M68" s="155">
+        <f>(L68+H68)*1.3228</f>
+        <v>436.524</v>
+      </c>
+      <c r="N68" s="3">
+        <f>M68*E68</f>
+        <v>28155.797999999999</v>
+      </c>
+    </row>
+    <row r="69" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A69" s="2">
+        <v>2025</v>
+      </c>
+      <c r="C69" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="D69" s="159" t="s">
+        <v>331</v>
+      </c>
+      <c r="E69" s="2">
+        <v>449</v>
+      </c>
+      <c r="F69" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="G69" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="H69" s="2">
+        <v>0</v>
+      </c>
+      <c r="I69" s="158">
+        <v>46082</v>
+      </c>
+      <c r="J69" s="2">
+        <v>1</v>
+      </c>
+      <c r="K69" s="158">
+        <v>46082</v>
+      </c>
+      <c r="L69" s="155">
+        <v>325</v>
+      </c>
+      <c r="M69" s="155">
+        <f>(L69+H69)*1.3228</f>
+        <v>429.90999999999997</v>
+      </c>
+      <c r="N69" s="3">
+        <f>M69*E69</f>
+        <v>193029.59</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:Q66" xr:uid="{E433115D-D1E6-C943-B0EC-2BC4BD1B44BA}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A47:Q63">
-      <sortCondition ref="B1:B66"/>
+  <autoFilter ref="A1:Q69" xr:uid="{E433115D-D1E6-C943-B0EC-2BC4BD1B44BA}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:Q69">
+      <sortCondition ref="B1:B69"/>
     </sortState>
   </autoFilter>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
-  <ignoredErrors>
-    <ignoredError sqref="Q40" formula="1"/>
-  </ignoredErrors>
 </worksheet>
 </file>
 
@@ -7809,8 +7958,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{62549E7F-C2F6-E740-8F49-EDB7C93FB4DD}">
   <dimension ref="A1:D13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0.2"/>

--- a/vendas_cafe_em_reais.xlsx
+++ b/vendas_cafe_em_reais.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rotocastro/PycharmProjects/Vendas Cafe/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC356FB8-A029-C147-BB5E-C918FB43C6E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{062E2DC9-1AE3-8B4B-AA9A-30D22E4DF0C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4440" yWindow="940" windowWidth="24960" windowHeight="16540" activeTab="1" xr2:uid="{AC82ADC5-E628-F847-8939-89BAF5623AE6}"/>
+    <workbookView xWindow="4440" yWindow="940" windowWidth="24960" windowHeight="16540" activeTab="2" xr2:uid="{AC82ADC5-E628-F847-8939-89BAF5623AE6}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2 (2)" sheetId="16" state="hidden" r:id="rId1"/>
@@ -2627,26 +2627,26 @@
       </c>
       <c r="L6" s="177">
         <f>futuros!B3</f>
-        <v>280.8</v>
+        <v>307.75</v>
       </c>
       <c r="M6" s="177">
         <f>(L6+H6)*1.3228</f>
-        <v>411.12624</v>
+        <v>446.77569999999997</v>
       </c>
       <c r="N6" s="167">
         <f>(E6*(M6+H6))</f>
-        <v>141160.39679999999</v>
+        <v>152568.22399999999</v>
       </c>
       <c r="O6" s="178">
         <v>5.7</v>
       </c>
       <c r="P6" s="167">
         <f t="shared" ref="P6:P16" si="1">M6*O6</f>
-        <v>2343.4195680000003</v>
+        <v>2546.62149</v>
       </c>
       <c r="Q6" s="167">
         <f t="shared" ref="Q6:Q16" si="2">P6*E6</f>
-        <v>749894.26176000014</v>
+        <v>814918.87679999997</v>
       </c>
     </row>
     <row r="7" spans="2:20" x14ac:dyDescent="0.25">
@@ -2683,26 +2683,26 @@
       </c>
       <c r="L7" s="177">
         <f>L6</f>
-        <v>280.8</v>
+        <v>307.75</v>
       </c>
       <c r="M7" s="177">
         <f>(L7+H7)*1.3228</f>
-        <v>411.12624</v>
+        <v>446.77569999999997</v>
       </c>
       <c r="N7" s="167">
         <f>(E7*(M7+H7))</f>
-        <v>141160.39679999999</v>
+        <v>152568.22399999999</v>
       </c>
       <c r="O7" s="178">
         <v>5.7</v>
       </c>
       <c r="P7" s="167">
         <f t="shared" si="1"/>
-        <v>2343.4195680000003</v>
+        <v>2546.62149</v>
       </c>
       <c r="Q7" s="167">
         <f t="shared" si="2"/>
-        <v>749894.26176000014</v>
+        <v>814918.87679999997</v>
       </c>
     </row>
     <row r="8" spans="2:20" x14ac:dyDescent="0.25">
@@ -2739,26 +2739,26 @@
       </c>
       <c r="L8" s="177">
         <f>L7</f>
-        <v>280.8</v>
+        <v>307.75</v>
       </c>
       <c r="M8" s="177">
         <f>(L8+H8)*1.3228</f>
-        <v>411.12624</v>
+        <v>446.77569999999997</v>
       </c>
       <c r="N8" s="167">
         <f>(E8*(M8+H8))</f>
-        <v>141160.39679999999</v>
+        <v>152568.22399999999</v>
       </c>
       <c r="O8" s="178">
         <v>5.7</v>
       </c>
       <c r="P8" s="167">
         <f t="shared" si="1"/>
-        <v>2343.4195680000003</v>
+        <v>2546.62149</v>
       </c>
       <c r="Q8" s="167">
         <f t="shared" si="2"/>
-        <v>749894.26176000014</v>
+        <v>814918.87679999997</v>
       </c>
     </row>
     <row r="9" spans="2:20" x14ac:dyDescent="0.25">
@@ -2795,26 +2795,26 @@
       </c>
       <c r="L9" s="177">
         <f>futuros!B3</f>
-        <v>280.8</v>
+        <v>307.75</v>
       </c>
       <c r="M9" s="177">
         <f>(L9+H9)*1.3228</f>
-        <v>411.12624</v>
+        <v>446.77569999999997</v>
       </c>
       <c r="N9" s="167">
         <f>(E9*(M9+H9))</f>
-        <v>141160.39679999999</v>
+        <v>152568.22399999999</v>
       </c>
       <c r="O9" s="178">
         <v>5.7</v>
       </c>
       <c r="P9" s="167">
         <f t="shared" si="1"/>
-        <v>2343.4195680000003</v>
+        <v>2546.62149</v>
       </c>
       <c r="Q9" s="167">
         <f t="shared" si="2"/>
-        <v>749894.26176000014</v>
+        <v>814918.87679999997</v>
       </c>
     </row>
     <row r="10" spans="2:20" x14ac:dyDescent="0.25">
@@ -2851,26 +2851,26 @@
       </c>
       <c r="L10" s="177">
         <f>futuros!B4</f>
-        <v>273.89999999999998</v>
+        <v>298.55</v>
       </c>
       <c r="M10" s="177">
         <f>(L10+H10)*1.3228</f>
-        <v>401.99891999999994</v>
+        <v>434.60594000000003</v>
       </c>
       <c r="N10" s="167">
         <f>(E10*(M10+H10))</f>
-        <v>138239.65439999997</v>
+        <v>148673.9008</v>
       </c>
       <c r="O10" s="178">
         <v>5.7</v>
       </c>
       <c r="P10" s="167">
         <f t="shared" si="1"/>
-        <v>2291.3938439999997</v>
+        <v>2477.253858</v>
       </c>
       <c r="Q10" s="167">
         <f t="shared" si="2"/>
-        <v>733246.03007999994</v>
+        <v>792721.23456000001</v>
       </c>
     </row>
     <row r="11" spans="2:20" x14ac:dyDescent="0.25">
@@ -2907,26 +2907,26 @@
       </c>
       <c r="L11" s="177">
         <f>futuros!B3</f>
-        <v>280.8</v>
+        <v>307.75</v>
       </c>
       <c r="M11" s="177">
         <f t="shared" ref="M11:M16" si="4">(L11+H11)*1.3228</f>
-        <v>408.48063999999999</v>
+        <v>444.13009999999997</v>
       </c>
       <c r="N11" s="167">
         <f t="shared" ref="N11:N16" si="5">(E11*(M11+H11))</f>
-        <v>139673.80479999998</v>
+        <v>151081.63199999998</v>
       </c>
       <c r="O11" s="178">
         <v>5.7</v>
       </c>
       <c r="P11" s="167">
         <f t="shared" si="1"/>
-        <v>2328.3396480000001</v>
+        <v>2531.5415699999999</v>
       </c>
       <c r="Q11" s="167">
         <f t="shared" si="2"/>
-        <v>745068.6873600001</v>
+        <v>810093.30239999993</v>
       </c>
     </row>
     <row r="12" spans="2:20" x14ac:dyDescent="0.25">
@@ -2963,26 +2963,26 @@
       </c>
       <c r="L12" s="177">
         <f>futuros!B3</f>
-        <v>280.8</v>
+        <v>307.75</v>
       </c>
       <c r="M12" s="177">
         <f t="shared" si="4"/>
-        <v>408.48063999999999</v>
+        <v>444.13009999999997</v>
       </c>
       <c r="N12" s="167">
         <f t="shared" si="5"/>
-        <v>139673.80479999998</v>
+        <v>151081.63199999998</v>
       </c>
       <c r="O12" s="178">
         <v>5.7</v>
       </c>
       <c r="P12" s="167">
         <f t="shared" si="1"/>
-        <v>2328.3396480000001</v>
+        <v>2531.5415699999999</v>
       </c>
       <c r="Q12" s="167">
         <f t="shared" si="2"/>
-        <v>745068.6873600001</v>
+        <v>810093.30239999993</v>
       </c>
     </row>
     <row r="13" spans="2:20" s="166" customFormat="1" x14ac:dyDescent="0.25">
@@ -3019,26 +3019,26 @@
       </c>
       <c r="L13" s="177">
         <f>futuros!B4</f>
-        <v>273.89999999999998</v>
+        <v>298.55</v>
       </c>
       <c r="M13" s="177">
         <f t="shared" si="4"/>
-        <v>399.35331999999994</v>
+        <v>431.96034000000003</v>
       </c>
       <c r="N13" s="167">
         <f t="shared" si="5"/>
-        <v>136753.0624</v>
+        <v>147187.3088</v>
       </c>
       <c r="O13" s="178">
         <v>5.7</v>
       </c>
       <c r="P13" s="167">
         <f t="shared" si="1"/>
-        <v>2276.3139239999996</v>
+        <v>2462.1739380000004</v>
       </c>
       <c r="Q13" s="167">
         <f t="shared" si="2"/>
-        <v>728420.4556799999</v>
+        <v>787895.66016000009</v>
       </c>
       <c r="R13" s="163"/>
       <c r="S13" s="163"/>
@@ -3078,26 +3078,26 @@
       </c>
       <c r="L14" s="177">
         <f>futuros!B5</f>
-        <v>268.60000000000002</v>
+        <v>293.10000000000002</v>
       </c>
       <c r="M14" s="177">
         <f t="shared" si="4"/>
-        <v>392.34248000000002</v>
+        <v>424.75108</v>
       </c>
       <c r="N14" s="167">
         <f t="shared" si="5"/>
-        <v>134509.59360000002</v>
+        <v>144880.3456</v>
       </c>
       <c r="O14" s="178">
         <v>5.7</v>
       </c>
       <c r="P14" s="167">
         <f t="shared" si="1"/>
-        <v>2236.3521360000004</v>
+        <v>2421.0811560000002</v>
       </c>
       <c r="Q14" s="167">
         <f t="shared" si="2"/>
-        <v>715632.6835200002</v>
+        <v>774745.96992000006</v>
       </c>
       <c r="R14" s="163"/>
       <c r="S14" s="163"/>
@@ -3137,26 +3137,26 @@
       </c>
       <c r="L15" s="177">
         <f>futuros!B4</f>
-        <v>273.89999999999998</v>
+        <v>298.55</v>
       </c>
       <c r="M15" s="177">
         <f t="shared" si="4"/>
-        <v>333.21331999999995</v>
+        <v>365.82033999999999</v>
       </c>
       <c r="N15" s="167">
         <f t="shared" si="5"/>
-        <v>99588.262399999978</v>
+        <v>110022.5088</v>
       </c>
       <c r="O15" s="178">
         <v>5.7</v>
       </c>
       <c r="P15" s="167">
         <f t="shared" si="1"/>
-        <v>1899.3159239999998</v>
+        <v>2085.1759379999999</v>
       </c>
       <c r="Q15" s="167">
         <f t="shared" si="2"/>
-        <v>607781.09567999991</v>
+        <v>667256.30015999998</v>
       </c>
       <c r="R15" s="163"/>
       <c r="S15" s="163"/>
@@ -3196,26 +3196,26 @@
       </c>
       <c r="L16" s="177">
         <f>futuros!B3</f>
-        <v>280.8</v>
+        <v>307.75</v>
       </c>
       <c r="M16" s="177">
         <f t="shared" si="4"/>
-        <v>441.55063999999999</v>
+        <v>477.20009999999996</v>
       </c>
       <c r="N16" s="167">
         <f t="shared" si="5"/>
-        <v>158256.20480000001</v>
+        <v>169664.03200000001</v>
       </c>
       <c r="O16" s="178">
         <v>5.7</v>
       </c>
       <c r="P16" s="167">
         <f t="shared" si="1"/>
-        <v>2516.8386479999999</v>
+        <v>2720.0405699999997</v>
       </c>
       <c r="Q16" s="167">
         <f t="shared" si="2"/>
-        <v>805388.36736000003</v>
+        <v>870412.98239999986</v>
       </c>
       <c r="R16" s="163"/>
       <c r="S16" s="163"/>
@@ -3342,20 +3342,20 @@
       <c r="L19" s="179"/>
       <c r="M19" s="182">
         <f>N19/E19</f>
-        <v>443.99463714285707</v>
+        <v>471.12148571428571</v>
       </c>
       <c r="N19" s="183">
         <f>SUM(N5:N18)</f>
-        <v>1989095.9743999997</v>
+        <v>2110624.2560000001</v>
       </c>
       <c r="O19" s="184"/>
       <c r="P19" s="185">
         <f>Q19/E19</f>
-        <v>2411.4765745714285</v>
+        <v>2566.0996114285713</v>
       </c>
       <c r="Q19" s="183">
         <f>SUM(Q5:Q18)</f>
-        <v>10803415.05408</v>
+        <v>11496126.259199999</v>
       </c>
     </row>
     <row r="20" spans="2:17" x14ac:dyDescent="0.25">
@@ -3478,7 +3478,7 @@
       </c>
       <c r="I25" s="177">
         <f>futuros!B3</f>
-        <v>280.8</v>
+        <v>307.75</v>
       </c>
       <c r="K25" s="163"/>
       <c r="L25" s="197">
@@ -3487,7 +3487,7 @@
       <c r="M25" s="163"/>
       <c r="N25" s="198">
         <f>(H25-I25)*1.3228*D25</f>
-        <v>-675722.36566800007</v>
+        <v>-854609.57347499987</v>
       </c>
       <c r="O25" s="178">
         <f>O5</f>
@@ -3495,7 +3495,7 @@
       </c>
       <c r="Q25" s="198">
         <f>N25*O25</f>
-        <v>-3851617.4843076007</v>
+        <v>-4871274.5688074995</v>
       </c>
     </row>
     <row r="26" spans="2:17" x14ac:dyDescent="0.25">
@@ -3520,7 +3520,7 @@
       </c>
       <c r="I26" s="177">
         <f>I25</f>
-        <v>280.8</v>
+        <v>307.75</v>
       </c>
       <c r="K26" s="163"/>
       <c r="L26" s="197">
@@ -3529,7 +3529,7 @@
       <c r="M26" s="163"/>
       <c r="N26" s="198">
         <f>(H26-I26)*1.3228*D26</f>
-        <v>-222345.68202000004</v>
+        <v>-293092.03538999998</v>
       </c>
       <c r="O26" s="178">
         <f>O6</f>
@@ -3537,7 +3537,7 @@
       </c>
       <c r="Q26" s="198">
         <f t="shared" ref="Q26:Q27" si="6">N26*O26</f>
-        <v>-1267370.3875140003</v>
+        <v>-1670624.6017229999</v>
       </c>
     </row>
     <row r="27" spans="2:17" x14ac:dyDescent="0.25">
@@ -3561,7 +3561,7 @@
       </c>
       <c r="I27" s="200">
         <f>I26</f>
-        <v>280.8</v>
+        <v>307.75</v>
       </c>
       <c r="K27" s="163"/>
       <c r="L27" s="197">
@@ -3570,7 +3570,7 @@
       <c r="M27" s="163"/>
       <c r="N27" s="198">
         <f>(H27-I27)*1.3228*D27</f>
-        <v>-232943.57200800008</v>
+        <v>-340073.76425400004</v>
       </c>
       <c r="O27" s="178">
         <f>O7</f>
@@ -3578,7 +3578,7 @@
       </c>
       <c r="Q27" s="198">
         <f t="shared" si="6"/>
-        <v>-1327778.3604456005</v>
+        <v>-1938420.4562478003</v>
       </c>
     </row>
     <row r="28" spans="2:17" x14ac:dyDescent="0.25">
@@ -3601,13 +3601,13 @@
       <c r="M28" s="202"/>
       <c r="N28" s="202">
         <f>SUM(N25:N27)</f>
-        <v>-1131011.6196960001</v>
+        <v>-1487775.3731189999</v>
       </c>
       <c r="O28" s="201"/>
       <c r="P28" s="201"/>
       <c r="Q28" s="202">
         <f>SUM(Q25:Q27)</f>
-        <v>-6446766.2322672009</v>
+        <v>-8480319.6267783009</v>
       </c>
     </row>
     <row r="29" spans="2:17" x14ac:dyDescent="0.25">
@@ -4291,7 +4291,7 @@
       </c>
       <c r="I57" s="177">
         <f>futuros!B8</f>
-        <v>255.3</v>
+        <v>276</v>
       </c>
       <c r="K57" s="178">
         <f>O8</f>
@@ -4303,7 +4303,7 @@
       <c r="M57" s="198"/>
       <c r="N57" s="198">
         <f>(H57-I57)*1.3228*D57</f>
-        <v>153568.15109999999</v>
+        <v>83703.080160000027</v>
       </c>
       <c r="O57" s="166">
         <f>O25</f>
@@ -4311,7 +4311,7 @@
       </c>
       <c r="Q57" s="198">
         <f>N57*O57</f>
-        <v>875338.46126999997</v>
+        <v>477107.55691200017</v>
       </c>
     </row>
     <row r="58" spans="2:17" x14ac:dyDescent="0.25">
@@ -4335,7 +4335,7 @@
       </c>
       <c r="I58" s="177">
         <f>I57</f>
-        <v>255.3</v>
+        <v>276</v>
       </c>
       <c r="K58" s="178">
         <f>O9</f>
@@ -4347,7 +4347,7 @@
       <c r="M58" s="198"/>
       <c r="N58" s="198">
         <f>(H58-I58)*1.3228*D58</f>
-        <v>201307.40783999988</v>
+        <v>139205.12255999993</v>
       </c>
       <c r="O58" s="166">
         <f>O26</f>
@@ -4355,7 +4355,7 @@
       </c>
       <c r="Q58" s="198">
         <f>N58*O58</f>
-        <v>1147452.2246879993</v>
+        <v>793469.19859199959</v>
       </c>
     </row>
     <row r="59" spans="2:17" x14ac:dyDescent="0.25">
@@ -4378,13 +4378,13 @@
       <c r="M59" s="201"/>
       <c r="N59" s="202">
         <f>SUM(N56:N58)</f>
-        <v>354875.5589399999</v>
+        <v>222908.20271999994</v>
       </c>
       <c r="O59" s="201"/>
       <c r="P59" s="201"/>
       <c r="Q59" s="202">
         <f>SUM(Q56:Q58)</f>
-        <v>2022790.6859579994</v>
+        <v>1270576.7555039998</v>
       </c>
     </row>
     <row r="64" spans="2:17" x14ac:dyDescent="0.25">
@@ -4524,8 +4524,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:T69"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A48" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="E66" sqref="E66"/>
     </sheetView>
   </sheetViews>
@@ -4647,7 +4647,7 @@
         <v>1350.441</v>
       </c>
       <c r="Q2" s="3">
-        <f>P2*E2</f>
+        <f t="shared" ref="Q2:Q29" si="0">P2*E2</f>
         <v>432141.12</v>
       </c>
     </row>
@@ -4702,7 +4702,7 @@
         <v>1368.903</v>
       </c>
       <c r="Q3" s="3">
-        <f>P3*E3</f>
+        <f t="shared" si="0"/>
         <v>438048.96</v>
       </c>
     </row>
@@ -4757,7 +4757,7 @@
         <v>1368.903</v>
       </c>
       <c r="Q4" s="3">
-        <f>P4*E4</f>
+        <f t="shared" si="0"/>
         <v>438048.96</v>
       </c>
     </row>
@@ -4812,7 +4812,7 @@
         <v>1368.903</v>
       </c>
       <c r="Q5" s="3">
-        <f>P5*E5</f>
+        <f t="shared" si="0"/>
         <v>438048.96</v>
       </c>
     </row>
@@ -4867,7 +4867,7 @@
         <v>1856.0115799999999</v>
       </c>
       <c r="Q6" s="3">
-        <f>P6*E6</f>
+        <f t="shared" si="0"/>
         <v>593923.70559999999</v>
       </c>
     </row>
@@ -4913,7 +4913,7 @@
         <v>1400</v>
       </c>
       <c r="Q7" s="3">
-        <f>P7*E7</f>
+        <f t="shared" si="0"/>
         <v>700</v>
       </c>
     </row>
@@ -4968,7 +4968,7 @@
         <v>1824.8290971428569</v>
       </c>
       <c r="Q8" s="3">
-        <f>P8*E8</f>
+        <f t="shared" si="0"/>
         <v>510952.14719999995</v>
       </c>
     </row>
@@ -5023,7 +5023,7 @@
         <v>1629.3192799999999</v>
       </c>
       <c r="Q9" s="3">
-        <f>P9*E9</f>
+        <f t="shared" si="0"/>
         <v>81465.963999999993</v>
       </c>
     </row>
@@ -5079,7 +5079,7 @@
         <v>1789.984375</v>
       </c>
       <c r="Q10" s="3">
-        <f>P10*E10</f>
+        <f t="shared" si="0"/>
         <v>572795</v>
       </c>
     </row>
@@ -5135,7 +5135,7 @@
         <v>1809.9656250000003</v>
       </c>
       <c r="Q11" s="3">
-        <f>P11*E11</f>
+        <f t="shared" si="0"/>
         <v>579189.00000000012</v>
       </c>
     </row>
@@ -5181,7 +5181,7 @@
         <v>1500</v>
       </c>
       <c r="Q12" s="3">
-        <f>P12*E12</f>
+        <f t="shared" si="0"/>
         <v>4500</v>
       </c>
     </row>
@@ -5237,7 +5237,7 @@
         <v>2014.9073987909073</v>
       </c>
       <c r="Q13" s="3">
-        <f>P13*E13</f>
+        <f t="shared" si="0"/>
         <v>644770.36761309032</v>
       </c>
     </row>
@@ -5293,7 +5293,7 @@
         <v>2014.9073987909073</v>
       </c>
       <c r="Q14" s="3">
-        <f>P14*E14</f>
+        <f t="shared" si="0"/>
         <v>644770.36761309032</v>
       </c>
     </row>
@@ -5339,7 +5339,7 @@
         <v>1520</v>
       </c>
       <c r="Q15" s="3">
-        <f>P15*E15</f>
+        <f t="shared" si="0"/>
         <v>209760</v>
       </c>
     </row>
@@ -5382,18 +5382,18 @@
         <v>468.27119999999996</v>
       </c>
       <c r="N16" s="3">
-        <f>M16*E16</f>
+        <f t="shared" ref="N16:N29" si="1">M16*E16</f>
         <v>149846.78399999999</v>
       </c>
       <c r="O16" s="160">
         <v>5.8236999999999997</v>
       </c>
       <c r="P16" s="3">
-        <f>M16*O16</f>
+        <f t="shared" ref="P16:P29" si="2">M16*O16</f>
         <v>2727.0709874399995</v>
       </c>
       <c r="Q16" s="3">
-        <f>P16*E16</f>
+        <f t="shared" si="0"/>
         <v>872662.71598079987</v>
       </c>
     </row>
@@ -5438,18 +5438,18 @@
         <v>345.31693999999999</v>
       </c>
       <c r="N17" s="3">
-        <f>M17*E17</f>
+        <f t="shared" si="1"/>
         <v>110501.42079999999</v>
       </c>
       <c r="O17" s="160">
         <v>5.8349509259259262</v>
       </c>
       <c r="P17" s="3">
-        <f>M17*O17</f>
+        <f t="shared" si="2"/>
         <v>2014.9073987909073</v>
       </c>
       <c r="Q17" s="3">
-        <f>P17*E17</f>
+        <f t="shared" si="0"/>
         <v>644770.36761309032</v>
       </c>
     </row>
@@ -5494,18 +5494,18 @@
         <v>465.62559999999996</v>
       </c>
       <c r="N18" s="3">
-        <f>M18*E18</f>
+        <f t="shared" si="1"/>
         <v>149000.19199999998</v>
       </c>
       <c r="O18" s="160">
         <v>5.7249999999999996</v>
       </c>
       <c r="P18" s="3">
-        <f>M18*O18</f>
+        <f t="shared" si="2"/>
         <v>2665.7065599999996</v>
       </c>
       <c r="Q18" s="3">
-        <f>P18*E18</f>
+        <f t="shared" si="0"/>
         <v>853026.09919999982</v>
       </c>
     </row>
@@ -5550,18 +5550,18 @@
         <v>440.82310000000001</v>
       </c>
       <c r="N19" s="3">
-        <f>M19*E19</f>
+        <f t="shared" si="1"/>
         <v>141063.39199999999</v>
       </c>
       <c r="O19" s="160">
         <v>5.7669999035936632</v>
       </c>
       <c r="P19" s="3">
-        <f>M19*O19</f>
+        <f t="shared" si="2"/>
         <v>2542.2267752018597</v>
       </c>
       <c r="Q19" s="3">
-        <f>P19*E19</f>
+        <f t="shared" si="0"/>
         <v>813512.56806459511</v>
       </c>
     </row>
@@ -5606,18 +5606,18 @@
         <v>465.62559999999996</v>
       </c>
       <c r="N20" s="3">
-        <f>M20*E20</f>
+        <f t="shared" si="1"/>
         <v>149000.19199999998</v>
       </c>
       <c r="O20" s="160">
         <v>5.7249999999999996</v>
       </c>
       <c r="P20" s="3">
-        <f>M20*O20</f>
+        <f t="shared" si="2"/>
         <v>2665.7065599999996</v>
       </c>
       <c r="Q20" s="3">
-        <f>P20*E20</f>
+        <f t="shared" si="0"/>
         <v>853026.09919999982</v>
       </c>
     </row>
@@ -5662,7 +5662,7 @@
         <v>449.09059999999999</v>
       </c>
       <c r="N21" s="3">
-        <f>M21*E21</f>
+        <f t="shared" si="1"/>
         <v>143708.992</v>
       </c>
       <c r="O21" s="160">
@@ -5670,11 +5670,11 @@
         <v>5.5559999335323429</v>
       </c>
       <c r="P21" s="3">
-        <f>M21*O21</f>
+        <f t="shared" si="2"/>
         <v>2495.1473437499999</v>
       </c>
       <c r="Q21" s="3">
-        <f>P21*E21</f>
+        <f t="shared" si="0"/>
         <v>798447.14999999991</v>
       </c>
     </row>
@@ -5719,18 +5719,18 @@
         <v>557.75861999999995</v>
       </c>
       <c r="N22" s="3">
-        <f>M22*E22</f>
+        <f t="shared" si="1"/>
         <v>89241.379199999996</v>
       </c>
       <c r="O22" s="160">
         <v>5.5049999999999999</v>
       </c>
       <c r="P22" s="3">
-        <f>M22*O22</f>
+        <f t="shared" si="2"/>
         <v>3070.4612030999997</v>
       </c>
       <c r="Q22" s="3">
-        <f>P22*E22</f>
+        <f t="shared" si="0"/>
         <v>491273.79249599995</v>
       </c>
     </row>
@@ -5775,18 +5775,18 @@
         <v>404.4461</v>
       </c>
       <c r="N23" s="3">
-        <f>M23*E23</f>
+        <f t="shared" si="1"/>
         <v>64711.376000000004</v>
       </c>
       <c r="O23" s="160">
         <v>5.7499741972351099</v>
       </c>
       <c r="P23" s="3">
-        <f>M23*O23</f>
+        <f t="shared" si="2"/>
         <v>2325.554639172371</v>
       </c>
       <c r="Q23" s="3">
-        <f>P23*E23</f>
+        <f t="shared" si="0"/>
         <v>372088.74226757936</v>
       </c>
     </row>
@@ -5831,7 +5831,7 @@
         <v>526.34211999999991</v>
       </c>
       <c r="N24" s="3">
-        <f>M24*E24</f>
+        <f t="shared" si="1"/>
         <v>84214.739199999982</v>
       </c>
       <c r="O24" s="160">
@@ -5839,11 +5839,11 @@
         <v>6.7044507181236135</v>
       </c>
       <c r="P24" s="3">
-        <f>M24*O24</f>
+        <f t="shared" si="2"/>
         <v>3528.8348044127047</v>
       </c>
       <c r="Q24" s="3">
-        <f>P24*E24</f>
+        <f t="shared" si="0"/>
         <v>564613.5687060327</v>
       </c>
     </row>
@@ -5888,18 +5888,18 @@
         <v>360.7937</v>
       </c>
       <c r="N25" s="3">
-        <f>M25*E25</f>
+        <f t="shared" si="1"/>
         <v>57726.991999999998</v>
       </c>
       <c r="O25" s="160">
         <v>5.7499741972351099</v>
       </c>
       <c r="P25" s="3">
-        <f>M25*O25</f>
+        <f t="shared" si="2"/>
         <v>2074.5544655249851</v>
       </c>
       <c r="Q25" s="3">
-        <f>P25*E25</f>
+        <f t="shared" si="0"/>
         <v>331928.71448399761</v>
       </c>
     </row>
@@ -5944,7 +5944,7 @@
         <v>453.65425999999997</v>
       </c>
       <c r="N26" s="3">
-        <f>M26*E26</f>
+        <f t="shared" si="1"/>
         <v>145169.36319999999</v>
       </c>
       <c r="O26" s="160">
@@ -5952,11 +5952,11 @@
         <v>5.5559998488716937</v>
       </c>
       <c r="P26" s="3">
-        <f>M26*O26</f>
+        <f t="shared" si="2"/>
         <v>2520.5029999999997</v>
       </c>
       <c r="Q26" s="3">
-        <f>P26*E26</f>
+        <f t="shared" si="0"/>
         <v>806560.96</v>
       </c>
     </row>
@@ -6002,18 +6002,18 @@
         <v>493.73509999999999</v>
       </c>
       <c r="N27" s="3">
-        <f>M27*E27</f>
+        <f t="shared" si="1"/>
         <v>157995.23199999999</v>
       </c>
       <c r="O27" s="160">
         <v>5.7669999035936632</v>
       </c>
       <c r="P27" s="3">
-        <f>M27*O27</f>
+        <f t="shared" si="2"/>
         <v>2847.3702741008078</v>
       </c>
       <c r="Q27" s="3">
-        <f>P27*E27</f>
+        <f t="shared" si="0"/>
         <v>911158.48771225847</v>
       </c>
     </row>
@@ -6057,18 +6057,18 @@
         <v>325</v>
       </c>
       <c r="N28" s="3">
-        <f>M28*E28</f>
+        <f t="shared" si="1"/>
         <v>104000</v>
       </c>
       <c r="O28" s="160">
         <v>5.8079999999999998</v>
       </c>
       <c r="P28" s="3">
-        <f>M28*O28</f>
+        <f t="shared" si="2"/>
         <v>1887.6</v>
       </c>
       <c r="Q28" s="3">
-        <f>P28*E28</f>
+        <f t="shared" si="0"/>
         <v>604032</v>
       </c>
     </row>
@@ -6112,18 +6112,18 @@
         <v>325</v>
       </c>
       <c r="N29" s="3">
-        <f>M29*E29</f>
+        <f t="shared" si="1"/>
         <v>104000</v>
       </c>
       <c r="O29" s="160">
         <v>5.8079999999999998</v>
       </c>
       <c r="P29" s="3">
-        <f>M29*O29</f>
+        <f t="shared" si="2"/>
         <v>1887.6</v>
       </c>
       <c r="Q29" s="3">
-        <f>P29*E29</f>
+        <f t="shared" si="0"/>
         <v>604032</v>
       </c>
     </row>
@@ -6590,7 +6590,7 @@
         <v>2293.33</v>
       </c>
       <c r="Q39" s="3">
-        <f>E39*P39</f>
+        <f t="shared" ref="Q39:Q45" si="3">E39*P39</f>
         <v>1146.665</v>
       </c>
     </row>
@@ -6636,7 +6636,7 @@
         <v>2616.61</v>
       </c>
       <c r="Q40" s="3">
-        <f>E40*P40</f>
+        <f t="shared" si="3"/>
         <v>18316.27</v>
       </c>
     </row>
@@ -6682,7 +6682,7 @@
         <v>810</v>
       </c>
       <c r="Q41" s="3">
-        <f>E41*P41</f>
+        <f t="shared" si="3"/>
         <v>393903</v>
       </c>
     </row>
@@ -6728,7 +6728,7 @@
         <v>2220</v>
       </c>
       <c r="Q42" s="3">
-        <f>E42*P42</f>
+        <f t="shared" si="3"/>
         <v>1403484</v>
       </c>
     </row>
@@ -6772,7 +6772,7 @@
         <v>1750</v>
       </c>
       <c r="Q43" s="3">
-        <f>E43*P43</f>
+        <f t="shared" si="3"/>
         <v>635250</v>
       </c>
     </row>
@@ -6816,7 +6816,7 @@
         <v>2400</v>
       </c>
       <c r="Q44" s="3">
-        <f>E44*P44</f>
+        <f t="shared" si="3"/>
         <v>106080</v>
       </c>
     </row>
@@ -6860,7 +6860,7 @@
         <v>2616.61</v>
       </c>
       <c r="Q45" s="3">
-        <f>E45*P45</f>
+        <f t="shared" si="3"/>
         <v>18316.27</v>
       </c>
     </row>
@@ -6995,7 +6995,7 @@
         <v>476.20799999999997</v>
       </c>
       <c r="N48" s="3">
-        <f>M48*E48</f>
+        <f t="shared" ref="N48:N62" si="4">M48*E48</f>
         <v>152386.56</v>
       </c>
     </row>
@@ -7042,7 +7042,7 @@
         <v>476.20799999999997</v>
       </c>
       <c r="N49" s="3">
-        <f>M49*E49</f>
+        <f t="shared" si="4"/>
         <v>152386.56</v>
       </c>
     </row>
@@ -7089,7 +7089,7 @@
         <v>476.20799999999997</v>
       </c>
       <c r="N50" s="3">
-        <f>M50*E50</f>
+        <f t="shared" si="4"/>
         <v>152386.56</v>
       </c>
     </row>
@@ -7136,7 +7136,7 @@
         <v>476.20799999999997</v>
       </c>
       <c r="N51" s="3">
-        <f>M51*E51</f>
+        <f t="shared" si="4"/>
         <v>152386.56</v>
       </c>
     </row>
@@ -7183,7 +7183,7 @@
         <v>476.20799999999997</v>
       </c>
       <c r="N52" s="3">
-        <f>M52*E52</f>
+        <f t="shared" si="4"/>
         <v>152386.56</v>
       </c>
     </row>
@@ -7225,7 +7225,7 @@
         <v>488</v>
       </c>
       <c r="N53" s="3">
-        <f>M53*E53</f>
+        <f t="shared" si="4"/>
         <v>156160</v>
       </c>
     </row>
@@ -7267,7 +7267,7 @@
         <v>500</v>
       </c>
       <c r="N54" s="3">
-        <f>M54*E54</f>
+        <f t="shared" si="4"/>
         <v>160000</v>
       </c>
     </row>
@@ -7310,7 +7310,7 @@
         <v>423</v>
       </c>
       <c r="N55" s="3">
-        <f>M55*E55</f>
+        <f t="shared" si="4"/>
         <v>135360</v>
       </c>
     </row>
@@ -7353,7 +7353,7 @@
         <v>436</v>
       </c>
       <c r="N56" s="3">
-        <f>M56*E56</f>
+        <f t="shared" si="4"/>
         <v>139520</v>
       </c>
     </row>
@@ -7389,18 +7389,18 @@
         <v>1</v>
       </c>
       <c r="K57" s="158">
-        <f>I57+65</f>
+        <f t="shared" ref="K57:K62" si="5">I57+65</f>
         <v>45966</v>
       </c>
       <c r="L57" s="155">
         <v>325</v>
       </c>
       <c r="M57" s="155">
-        <f>(L57+H57)*1.3228</f>
+        <f t="shared" ref="M57:M62" si="6">(L57+H57)*1.3228</f>
         <v>466.94839999999999</v>
       </c>
       <c r="N57" s="3">
-        <f>M57*E57</f>
+        <f t="shared" si="4"/>
         <v>149423.48800000001</v>
       </c>
     </row>
@@ -7436,18 +7436,18 @@
         <v>1</v>
       </c>
       <c r="K58" s="158">
-        <f>I58+65</f>
+        <f t="shared" si="5"/>
         <v>46027</v>
       </c>
       <c r="L58" s="155">
         <v>325</v>
       </c>
       <c r="M58" s="155">
-        <f>(L58+H58)*1.3228</f>
+        <f t="shared" si="6"/>
         <v>466.94839999999999</v>
       </c>
       <c r="N58" s="3">
-        <f>M58*E58</f>
+        <f t="shared" si="4"/>
         <v>149423.48800000001</v>
       </c>
     </row>
@@ -7483,18 +7483,18 @@
         <v>1</v>
       </c>
       <c r="K59" s="158">
-        <f>I59+65</f>
+        <f t="shared" si="5"/>
         <v>46088</v>
       </c>
       <c r="L59" s="155">
         <v>325</v>
       </c>
       <c r="M59" s="155">
-        <f>(L59+H59)*1.3228</f>
+        <f t="shared" si="6"/>
         <v>466.94839999999999</v>
       </c>
       <c r="N59" s="3">
-        <f>M59*E59</f>
+        <f t="shared" si="4"/>
         <v>149423.48800000001</v>
       </c>
     </row>
@@ -7530,18 +7530,18 @@
         <v>1</v>
       </c>
       <c r="K60" s="158">
-        <f>I60+65</f>
+        <f t="shared" si="5"/>
         <v>46147</v>
       </c>
       <c r="L60" s="155">
         <v>325</v>
       </c>
       <c r="M60" s="155">
-        <f>(L60+H60)*1.3228</f>
+        <f t="shared" si="6"/>
         <v>466.94839999999999</v>
       </c>
       <c r="N60" s="3">
-        <f>M60*E60</f>
+        <f t="shared" si="4"/>
         <v>149423.48800000001</v>
       </c>
     </row>
@@ -7577,18 +7577,18 @@
         <v>1</v>
       </c>
       <c r="K61" s="158">
-        <f>I61+65</f>
+        <f t="shared" si="5"/>
         <v>46057</v>
       </c>
       <c r="L61" s="155">
         <v>325</v>
       </c>
       <c r="M61" s="155">
-        <f>(L61+H61)*1.3228</f>
+        <f t="shared" si="6"/>
         <v>400.80840000000001</v>
       </c>
       <c r="N61" s="3">
-        <f>M61*E61</f>
+        <f t="shared" si="4"/>
         <v>128258.68799999999</v>
       </c>
     </row>
@@ -7624,18 +7624,18 @@
         <v>1</v>
       </c>
       <c r="K62" s="158">
-        <f>I62+65</f>
+        <f t="shared" si="5"/>
         <v>45996</v>
       </c>
       <c r="L62" s="155">
         <v>330</v>
       </c>
       <c r="M62" s="155">
-        <f>(L62+H62)*1.3228</f>
+        <f t="shared" si="6"/>
         <v>506.63240000000002</v>
       </c>
       <c r="N62" s="3">
-        <f>M62*E62</f>
+        <f t="shared" si="4"/>
         <v>162122.36800000002</v>
       </c>
     </row>
@@ -7958,8 +7958,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{62549E7F-C2F6-E740-8F49-EDB7C93FB4DD}">
   <dimension ref="A1:D13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0.2"/>
@@ -7982,7 +7982,7 @@
         <v>270</v>
       </c>
       <c r="D1" s="162">
-        <v>45873</v>
+        <v>45880</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -7990,11 +7990,11 @@
         <v>45930</v>
       </c>
       <c r="B2" s="155">
-        <v>288</v>
+        <v>315</v>
       </c>
       <c r="C2" s="155">
         <f t="shared" ref="C2:C12" si="0">B2*1.3228</f>
-        <v>380.96640000000002</v>
+        <v>416.68200000000002</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -8002,11 +8002,11 @@
         <v>46021</v>
       </c>
       <c r="B3" s="155">
-        <v>280.8</v>
+        <v>307.75</v>
       </c>
       <c r="C3" s="155">
         <f t="shared" si="0"/>
-        <v>371.44224000000003</v>
+        <v>407.0917</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
@@ -8014,11 +8014,11 @@
         <v>46112</v>
       </c>
       <c r="B4" s="155">
-        <v>273.89999999999998</v>
+        <v>298.55</v>
       </c>
       <c r="C4" s="155">
         <f t="shared" si="0"/>
-        <v>362.31491999999997</v>
+        <v>394.92194000000001</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
@@ -8026,11 +8026,11 @@
         <v>46173</v>
       </c>
       <c r="B5" s="155">
-        <v>268.60000000000002</v>
+        <v>293.10000000000002</v>
       </c>
       <c r="C5" s="155">
         <f t="shared" si="0"/>
-        <v>355.30408</v>
+        <v>387.71268000000003</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
@@ -8038,11 +8038,11 @@
         <v>46231</v>
       </c>
       <c r="B6" s="155">
-        <v>264.14999999999998</v>
+        <v>287.05</v>
       </c>
       <c r="C6" s="155">
         <f t="shared" si="0"/>
-        <v>349.41761999999994</v>
+        <v>379.70974000000001</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
@@ -8050,11 +8050,11 @@
         <v>46295</v>
       </c>
       <c r="B7" s="155">
-        <v>258.55</v>
+        <v>280.39999999999998</v>
       </c>
       <c r="C7" s="155">
         <f t="shared" si="0"/>
-        <v>342.00994000000003</v>
+        <v>370.91311999999994</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
@@ -8062,11 +8062,11 @@
         <v>46386</v>
       </c>
       <c r="B8" s="155">
-        <v>255.3</v>
+        <v>276</v>
       </c>
       <c r="C8" s="155">
         <f t="shared" si="0"/>
-        <v>337.71084000000002</v>
+        <v>365.09280000000001</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
@@ -8074,11 +8074,11 @@
         <v>46477</v>
       </c>
       <c r="B9" s="155">
-        <v>249.8</v>
+        <v>274.2</v>
       </c>
       <c r="C9" s="155">
         <f t="shared" si="0"/>
-        <v>330.43544000000003</v>
+        <v>362.71175999999997</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
@@ -8086,11 +8086,11 @@
         <v>46538</v>
       </c>
       <c r="B10" s="155">
-        <v>248.25</v>
+        <v>265.89999999999998</v>
       </c>
       <c r="C10" s="155">
         <f t="shared" si="0"/>
-        <v>328.38509999999997</v>
+        <v>351.73251999999997</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
@@ -8098,11 +8098,11 @@
         <v>46596</v>
       </c>
       <c r="B11" s="155">
-        <v>246.3</v>
+        <v>265.8</v>
       </c>
       <c r="C11" s="155">
         <f t="shared" si="0"/>
-        <v>325.80563999999998</v>
+        <v>351.60023999999999</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
@@ -8110,11 +8110,11 @@
         <v>46660</v>
       </c>
       <c r="B12" s="155">
-        <v>244</v>
+        <v>263.8</v>
       </c>
       <c r="C12" s="155">
         <f t="shared" si="0"/>
-        <v>322.76319999999998</v>
+        <v>348.95463999999998</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
@@ -8122,11 +8122,11 @@
         <v>46751</v>
       </c>
       <c r="B13" s="155">
-        <v>241.4</v>
+        <v>261.89999999999998</v>
       </c>
       <c r="C13" s="155">
         <f>B13*1.3228</f>
-        <v>319.32391999999999</v>
+        <v>346.44131999999996</v>
       </c>
     </row>
   </sheetData>
@@ -8868,7 +8868,7 @@
       </c>
       <c r="H16" s="155">
         <f>futuros!B3</f>
-        <v>280.8</v>
+        <v>307.75</v>
       </c>
       <c r="I16" s="2"/>
       <c r="J16" s="162">
@@ -8877,7 +8877,7 @@
       <c r="K16" s="162"/>
       <c r="L16" s="215">
         <f t="shared" si="2"/>
-        <v>-675722.36566800007</v>
+        <v>-854609.57347499998</v>
       </c>
       <c r="M16" s="160"/>
       <c r="N16" s="215"/>
@@ -8906,7 +8906,7 @@
       </c>
       <c r="H17" s="155">
         <f>futuros!B3</f>
-        <v>280.8</v>
+        <v>307.75</v>
       </c>
       <c r="I17" s="2"/>
       <c r="J17" s="162">
@@ -8915,7 +8915,7 @@
       <c r="K17" s="162"/>
       <c r="L17" s="215">
         <f t="shared" si="2"/>
-        <v>-222345.68202000004</v>
+        <v>-293092.03539000003</v>
       </c>
       <c r="M17" s="160"/>
       <c r="N17" s="215"/>
@@ -8946,7 +8946,7 @@
       </c>
       <c r="H18" s="155">
         <f>futuros!B3</f>
-        <v>280.8</v>
+        <v>307.75</v>
       </c>
       <c r="I18" s="2"/>
       <c r="J18" s="162">
@@ -8955,7 +8955,7 @@
       <c r="K18" s="162"/>
       <c r="L18" s="215">
         <f t="shared" si="2"/>
-        <v>129154.75271999997</v>
+        <v>58408.39935</v>
       </c>
       <c r="M18" s="160"/>
       <c r="N18" s="215"/>
@@ -8984,7 +8984,7 @@
       </c>
       <c r="H19" s="217">
         <f>futuros!B3</f>
-        <v>280.8</v>
+        <v>307.75</v>
       </c>
       <c r="I19" s="208"/>
       <c r="J19" s="219">
@@ -8993,7 +8993,7 @@
       <c r="K19" s="219"/>
       <c r="L19" s="220">
         <f t="shared" si="2"/>
-        <v>-123064.52860800004</v>
+        <v>-179661.61130400002</v>
       </c>
       <c r="M19" s="218"/>
       <c r="N19" s="220"/>
@@ -9024,7 +9024,7 @@
       </c>
       <c r="H20" s="155">
         <f>futuros!B4</f>
-        <v>273.89999999999998</v>
+        <v>298.55</v>
       </c>
       <c r="I20" s="2"/>
       <c r="J20" s="162">
@@ -9033,7 +9033,7 @@
       <c r="K20" s="162"/>
       <c r="L20" s="215">
         <f t="shared" si="2"/>
-        <v>134142.43626000005</v>
+        <v>69433.805069999973</v>
       </c>
       <c r="M20" s="160"/>
       <c r="N20" s="215"/>
@@ -9062,7 +9062,7 @@
       </c>
       <c r="H21" s="155">
         <f>futuros!B8</f>
-        <v>255.3</v>
+        <v>276</v>
       </c>
       <c r="I21" s="2"/>
       <c r="J21" s="162">
@@ -9071,7 +9071,7 @@
       <c r="K21" s="162"/>
       <c r="L21" s="215">
         <f t="shared" si="2"/>
-        <v>153568.15109999999</v>
+        <v>83703.080160000027</v>
       </c>
       <c r="M21" s="160"/>
       <c r="N21" s="215"/>
@@ -9099,7 +9099,7 @@
       </c>
       <c r="H22" s="155">
         <f>futuros!B8</f>
-        <v>255.3</v>
+        <v>276</v>
       </c>
       <c r="I22" s="2"/>
       <c r="J22" s="162">
@@ -9108,7 +9108,7 @@
       <c r="K22" s="162"/>
       <c r="L22" s="215">
         <f t="shared" si="2"/>
-        <v>201307.40783999991</v>
+        <v>139205.12255999993</v>
       </c>
       <c r="M22" s="160"/>
       <c r="N22" s="215"/>
@@ -9136,7 +9136,7 @@
       </c>
       <c r="H23" s="155">
         <f>futuros!B8</f>
-        <v>255.3</v>
+        <v>276</v>
       </c>
       <c r="I23" s="2"/>
       <c r="J23" s="162">
@@ -9145,7 +9145,7 @@
       <c r="K23" s="162"/>
       <c r="L23" s="215">
         <f t="shared" si="2"/>
-        <v>155705.72975999993</v>
+        <v>93603.444479999962</v>
       </c>
       <c r="M23" s="160"/>
       <c r="N23" s="215"/>
@@ -9174,7 +9174,7 @@
       </c>
       <c r="H24" s="217">
         <f>futuros!B8</f>
-        <v>255.3</v>
+        <v>276</v>
       </c>
       <c r="I24" s="208"/>
       <c r="J24" s="219">
@@ -9183,7 +9183,7 @@
       <c r="K24" s="219"/>
       <c r="L24" s="220">
         <f t="shared" si="2"/>
-        <v>343362.63527999987</v>
+        <v>126004.63679999999</v>
       </c>
       <c r="M24" s="218"/>
       <c r="N24" s="220"/>
@@ -9212,7 +9212,7 @@
       </c>
       <c r="H25" s="155">
         <f>futuros!B13</f>
-        <v>241.4</v>
+        <v>261.89999999999998</v>
       </c>
       <c r="I25" s="2"/>
       <c r="J25" s="162">
@@ -9221,7 +9221,7 @@
       <c r="K25" s="162"/>
       <c r="L25" s="215">
         <f t="shared" si="2"/>
-        <v>31351.153679999978</v>
+        <v>-53214.458219999906</v>
       </c>
       <c r="M25" s="160"/>
       <c r="N25" s="215"/>
@@ -9249,7 +9249,7 @@
       </c>
       <c r="H26" s="155">
         <f>futuros!B13</f>
-        <v>241.4</v>
+        <v>261.89999999999998</v>
       </c>
       <c r="I26" s="2"/>
       <c r="J26" s="162">
@@ -9258,7 +9258,7 @@
       <c r="K26" s="162"/>
       <c r="L26" s="215">
         <f t="shared" ref="L26" si="8">D26*(G26-H26)*1.3228</f>
-        <v>-19200.706560000017</v>
+        <v>-80702.969759999934</v>
       </c>
       <c r="M26" s="160"/>
       <c r="N26" s="215"/>
@@ -9286,7 +9286,7 @@
       </c>
       <c r="H27" s="155">
         <f>futuros!B13</f>
-        <v>241.4</v>
+        <v>261.89999999999998</v>
       </c>
       <c r="I27" s="2"/>
       <c r="J27" s="162">
@@ -9295,7 +9295,7 @@
       <c r="K27" s="162"/>
       <c r="L27" s="215">
         <f t="shared" ref="L27" si="10">D27*(G27-H27)*1.3228</f>
-        <v>18000.66239999999</v>
+        <v>-20438.252099999958</v>
       </c>
     </row>
   </sheetData>

--- a/vendas_cafe_em_reais.xlsx
+++ b/vendas_cafe_em_reais.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rotocastro/PycharmProjects/Vendas Cafe/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{062E2DC9-1AE3-8B4B-AA9A-30D22E4DF0C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E2D4A16-BED4-6447-A560-755CC4CD77C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4440" yWindow="940" windowWidth="24960" windowHeight="16540" activeTab="2" xr2:uid="{AC82ADC5-E628-F847-8939-89BAF5623AE6}"/>
+    <workbookView xWindow="4440" yWindow="940" windowWidth="24960" windowHeight="16540" activeTab="3" xr2:uid="{AC82ADC5-E628-F847-8939-89BAF5623AE6}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2 (2)" sheetId="16" state="hidden" r:id="rId1"/>
@@ -70,7 +70,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="945" uniqueCount="352">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="947" uniqueCount="352">
   <si>
     <t>026/24</t>
   </si>
@@ -7958,7 +7958,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{62549E7F-C2F6-E740-8F49-EDB7C93FB4DD}">
   <dimension ref="A1:D13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
@@ -8137,10 +8137,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{435A83C4-FEBA-7F44-BF8C-E9ADE9845E60}">
-  <dimension ref="A1:N27"/>
+  <dimension ref="A1:N28"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G27" sqref="G27"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -9233,9 +9233,7 @@
       <c r="B26" s="1" t="s">
         <v>330</v>
       </c>
-      <c r="C26" s="2">
-        <v>29575268</v>
-      </c>
+      <c r="C26" s="2"/>
       <c r="D26" s="213">
         <f t="shared" ref="D26" si="7">283.5*F26</f>
         <v>2268</v>
@@ -9270,9 +9268,7 @@
       <c r="B27" s="1" t="s">
         <v>330</v>
       </c>
-      <c r="C27" s="2">
-        <v>29575268</v>
-      </c>
+      <c r="C27" s="2"/>
       <c r="D27" s="213">
         <f t="shared" ref="D27" si="9">283.5*F27</f>
         <v>1417.5</v>
@@ -9296,6 +9292,39 @@
       <c r="L27" s="215">
         <f t="shared" ref="L27" si="10">D27*(G27-H27)*1.3228</f>
         <v>-20438.252099999958</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A28" s="1" t="s">
+        <v>296</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>330</v>
+      </c>
+      <c r="C28" s="2"/>
+      <c r="D28" s="213">
+        <f t="shared" ref="D28" si="11">283.5*F28</f>
+        <v>1417.5</v>
+      </c>
+      <c r="E28" s="213"/>
+      <c r="F28" s="155">
+        <v>5</v>
+      </c>
+      <c r="G28" s="155">
+        <v>263</v>
+      </c>
+      <c r="H28" s="155">
+        <f>futuros!B13</f>
+        <v>261.89999999999998</v>
+      </c>
+      <c r="I28" s="2"/>
+      <c r="J28" s="162">
+        <v>46710</v>
+      </c>
+      <c r="K28" s="162"/>
+      <c r="L28" s="215">
+        <f t="shared" ref="L28" si="12">D28*(G28-H28)*1.3228</f>
+        <v>2062.5759000000426</v>
       </c>
     </row>
   </sheetData>

--- a/vendas_cafe_em_reais.xlsx
+++ b/vendas_cafe_em_reais.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rotocastro/PycharmProjects/Vendas Cafe/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E2D4A16-BED4-6447-A560-755CC4CD77C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A51E11C-0BB0-3644-BBE6-979C70BD724F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4440" yWindow="940" windowWidth="24960" windowHeight="16540" activeTab="3" xr2:uid="{AC82ADC5-E628-F847-8939-89BAF5623AE6}"/>
   </bookViews>
@@ -24,7 +24,7 @@
     <sheet name="CashFlow_Edson_Luiz" sheetId="3" state="hidden" r:id="rId9"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Sheet2!$A$1:$Q$69</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Sheet2!$A$1:$Q$70</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">'VENDA CAFÉ 220125'!$A$3:$Z$61</definedName>
     <definedName name="LITRAGEM" localSheetId="7">#REF!</definedName>
     <definedName name="LITRAGEM" localSheetId="5">#REF!</definedName>
@@ -70,7 +70,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="947" uniqueCount="352">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="952" uniqueCount="353">
   <si>
     <t>026/24</t>
   </si>
@@ -1126,6 +1126,9 @@
   </si>
   <si>
     <t>Naves Comércio de Café</t>
+  </si>
+  <si>
+    <t>070/25</t>
   </si>
 </sst>
 </file>
@@ -2627,26 +2630,26 @@
       </c>
       <c r="L6" s="177">
         <f>futuros!B3</f>
-        <v>307.75</v>
+        <v>332.4</v>
       </c>
       <c r="M6" s="177">
         <f>(L6+H6)*1.3228</f>
-        <v>446.77569999999997</v>
+        <v>479.38271999999995</v>
       </c>
       <c r="N6" s="167">
         <f>(E6*(M6+H6))</f>
-        <v>152568.22399999999</v>
+        <v>163002.47039999999</v>
       </c>
       <c r="O6" s="178">
         <v>5.7</v>
       </c>
       <c r="P6" s="167">
         <f t="shared" ref="P6:P16" si="1">M6*O6</f>
-        <v>2546.62149</v>
+        <v>2732.4815039999999</v>
       </c>
       <c r="Q6" s="167">
         <f t="shared" ref="Q6:Q16" si="2">P6*E6</f>
-        <v>814918.87679999997</v>
+        <v>874394.08127999993</v>
       </c>
     </row>
     <row r="7" spans="2:20" x14ac:dyDescent="0.25">
@@ -2683,26 +2686,26 @@
       </c>
       <c r="L7" s="177">
         <f>L6</f>
-        <v>307.75</v>
+        <v>332.4</v>
       </c>
       <c r="M7" s="177">
         <f>(L7+H7)*1.3228</f>
-        <v>446.77569999999997</v>
+        <v>479.38271999999995</v>
       </c>
       <c r="N7" s="167">
         <f>(E7*(M7+H7))</f>
-        <v>152568.22399999999</v>
+        <v>163002.47039999999</v>
       </c>
       <c r="O7" s="178">
         <v>5.7</v>
       </c>
       <c r="P7" s="167">
         <f t="shared" si="1"/>
-        <v>2546.62149</v>
+        <v>2732.4815039999999</v>
       </c>
       <c r="Q7" s="167">
         <f t="shared" si="2"/>
-        <v>814918.87679999997</v>
+        <v>874394.08127999993</v>
       </c>
     </row>
     <row r="8" spans="2:20" x14ac:dyDescent="0.25">
@@ -2739,26 +2742,26 @@
       </c>
       <c r="L8" s="177">
         <f>L7</f>
-        <v>307.75</v>
+        <v>332.4</v>
       </c>
       <c r="M8" s="177">
         <f>(L8+H8)*1.3228</f>
-        <v>446.77569999999997</v>
+        <v>479.38271999999995</v>
       </c>
       <c r="N8" s="167">
         <f>(E8*(M8+H8))</f>
-        <v>152568.22399999999</v>
+        <v>163002.47039999999</v>
       </c>
       <c r="O8" s="178">
         <v>5.7</v>
       </c>
       <c r="P8" s="167">
         <f t="shared" si="1"/>
-        <v>2546.62149</v>
+        <v>2732.4815039999999</v>
       </c>
       <c r="Q8" s="167">
         <f t="shared" si="2"/>
-        <v>814918.87679999997</v>
+        <v>874394.08127999993</v>
       </c>
     </row>
     <row r="9" spans="2:20" x14ac:dyDescent="0.25">
@@ -2795,26 +2798,26 @@
       </c>
       <c r="L9" s="177">
         <f>futuros!B3</f>
-        <v>307.75</v>
+        <v>332.4</v>
       </c>
       <c r="M9" s="177">
         <f>(L9+H9)*1.3228</f>
-        <v>446.77569999999997</v>
+        <v>479.38271999999995</v>
       </c>
       <c r="N9" s="167">
         <f>(E9*(M9+H9))</f>
-        <v>152568.22399999999</v>
+        <v>163002.47039999999</v>
       </c>
       <c r="O9" s="178">
         <v>5.7</v>
       </c>
       <c r="P9" s="167">
         <f t="shared" si="1"/>
-        <v>2546.62149</v>
+        <v>2732.4815039999999</v>
       </c>
       <c r="Q9" s="167">
         <f t="shared" si="2"/>
-        <v>814918.87679999997</v>
+        <v>874394.08127999993</v>
       </c>
     </row>
     <row r="10" spans="2:20" x14ac:dyDescent="0.25">
@@ -2851,26 +2854,26 @@
       </c>
       <c r="L10" s="177">
         <f>futuros!B4</f>
-        <v>298.55</v>
+        <v>321.25</v>
       </c>
       <c r="M10" s="177">
         <f>(L10+H10)*1.3228</f>
-        <v>434.60594000000003</v>
+        <v>464.63349999999997</v>
       </c>
       <c r="N10" s="167">
         <f>(E10*(M10+H10))</f>
-        <v>148673.9008</v>
+        <v>158282.72</v>
       </c>
       <c r="O10" s="178">
         <v>5.7</v>
       </c>
       <c r="P10" s="167">
         <f t="shared" si="1"/>
-        <v>2477.253858</v>
+        <v>2648.41095</v>
       </c>
       <c r="Q10" s="167">
         <f t="shared" si="2"/>
-        <v>792721.23456000001</v>
+        <v>847491.50399999996</v>
       </c>
     </row>
     <row r="11" spans="2:20" x14ac:dyDescent="0.25">
@@ -2907,26 +2910,26 @@
       </c>
       <c r="L11" s="177">
         <f>futuros!B3</f>
-        <v>307.75</v>
+        <v>332.4</v>
       </c>
       <c r="M11" s="177">
         <f t="shared" ref="M11:M16" si="4">(L11+H11)*1.3228</f>
-        <v>444.13009999999997</v>
+        <v>476.73711999999995</v>
       </c>
       <c r="N11" s="167">
         <f t="shared" ref="N11:N16" si="5">(E11*(M11+H11))</f>
-        <v>151081.63199999998</v>
+        <v>161515.87839999999</v>
       </c>
       <c r="O11" s="178">
         <v>5.7</v>
       </c>
       <c r="P11" s="167">
         <f t="shared" si="1"/>
-        <v>2531.5415699999999</v>
+        <v>2717.4015839999997</v>
       </c>
       <c r="Q11" s="167">
         <f t="shared" si="2"/>
-        <v>810093.30239999993</v>
+        <v>869568.50687999988</v>
       </c>
     </row>
     <row r="12" spans="2:20" x14ac:dyDescent="0.25">
@@ -2963,26 +2966,26 @@
       </c>
       <c r="L12" s="177">
         <f>futuros!B3</f>
-        <v>307.75</v>
+        <v>332.4</v>
       </c>
       <c r="M12" s="177">
         <f t="shared" si="4"/>
-        <v>444.13009999999997</v>
+        <v>476.73711999999995</v>
       </c>
       <c r="N12" s="167">
         <f t="shared" si="5"/>
-        <v>151081.63199999998</v>
+        <v>161515.87839999999</v>
       </c>
       <c r="O12" s="178">
         <v>5.7</v>
       </c>
       <c r="P12" s="167">
         <f t="shared" si="1"/>
-        <v>2531.5415699999999</v>
+        <v>2717.4015839999997</v>
       </c>
       <c r="Q12" s="167">
         <f t="shared" si="2"/>
-        <v>810093.30239999993</v>
+        <v>869568.50687999988</v>
       </c>
     </row>
     <row r="13" spans="2:20" s="166" customFormat="1" x14ac:dyDescent="0.25">
@@ -3019,26 +3022,26 @@
       </c>
       <c r="L13" s="177">
         <f>futuros!B4</f>
-        <v>298.55</v>
+        <v>321.25</v>
       </c>
       <c r="M13" s="177">
         <f t="shared" si="4"/>
-        <v>431.96034000000003</v>
+        <v>461.98789999999997</v>
       </c>
       <c r="N13" s="167">
         <f t="shared" si="5"/>
-        <v>147187.3088</v>
+        <v>156796.128</v>
       </c>
       <c r="O13" s="178">
         <v>5.7</v>
       </c>
       <c r="P13" s="167">
         <f t="shared" si="1"/>
-        <v>2462.1739380000004</v>
+        <v>2633.3310299999998</v>
       </c>
       <c r="Q13" s="167">
         <f t="shared" si="2"/>
-        <v>787895.66016000009</v>
+        <v>842665.92959999992</v>
       </c>
       <c r="R13" s="163"/>
       <c r="S13" s="163"/>
@@ -3078,26 +3081,26 @@
       </c>
       <c r="L14" s="177">
         <f>futuros!B5</f>
-        <v>293.10000000000002</v>
+        <v>312.95</v>
       </c>
       <c r="M14" s="177">
         <f t="shared" si="4"/>
-        <v>424.75108</v>
+        <v>451.00865999999996</v>
       </c>
       <c r="N14" s="167">
         <f t="shared" si="5"/>
-        <v>144880.3456</v>
+        <v>153282.77119999999</v>
       </c>
       <c r="O14" s="178">
         <v>5.7</v>
       </c>
       <c r="P14" s="167">
         <f t="shared" si="1"/>
-        <v>2421.0811560000002</v>
+        <v>2570.749362</v>
       </c>
       <c r="Q14" s="167">
         <f t="shared" si="2"/>
-        <v>774745.96992000006</v>
+        <v>822639.79584000004</v>
       </c>
       <c r="R14" s="163"/>
       <c r="S14" s="163"/>
@@ -3137,26 +3140,26 @@
       </c>
       <c r="L15" s="177">
         <f>futuros!B4</f>
-        <v>298.55</v>
+        <v>321.25</v>
       </c>
       <c r="M15" s="177">
         <f t="shared" si="4"/>
-        <v>365.82033999999999</v>
+        <v>395.84789999999998</v>
       </c>
       <c r="N15" s="167">
         <f t="shared" si="5"/>
-        <v>110022.5088</v>
+        <v>119631.32799999999</v>
       </c>
       <c r="O15" s="178">
         <v>5.7</v>
       </c>
       <c r="P15" s="167">
         <f t="shared" si="1"/>
-        <v>2085.1759379999999</v>
+        <v>2256.3330299999998</v>
       </c>
       <c r="Q15" s="167">
         <f t="shared" si="2"/>
-        <v>667256.30015999998</v>
+        <v>722026.56959999993</v>
       </c>
       <c r="R15" s="163"/>
       <c r="S15" s="163"/>
@@ -3196,26 +3199,26 @@
       </c>
       <c r="L16" s="177">
         <f>futuros!B3</f>
-        <v>307.75</v>
+        <v>332.4</v>
       </c>
       <c r="M16" s="177">
         <f t="shared" si="4"/>
-        <v>477.20009999999996</v>
+        <v>509.80711999999994</v>
       </c>
       <c r="N16" s="167">
         <f t="shared" si="5"/>
-        <v>169664.03200000001</v>
+        <v>180098.27839999998</v>
       </c>
       <c r="O16" s="178">
         <v>5.7</v>
       </c>
       <c r="P16" s="167">
         <f t="shared" si="1"/>
-        <v>2720.0405699999997</v>
+        <v>2905.9005839999995</v>
       </c>
       <c r="Q16" s="167">
         <f t="shared" si="2"/>
-        <v>870412.98239999986</v>
+        <v>929888.18687999982</v>
       </c>
       <c r="R16" s="163"/>
       <c r="S16" s="163"/>
@@ -3342,20 +3345,20 @@
       <c r="L19" s="179"/>
       <c r="M19" s="182">
         <f>N19/E19</f>
-        <v>471.12148571428571</v>
+        <v>495.73501428571427</v>
       </c>
       <c r="N19" s="183">
         <f>SUM(N5:N18)</f>
-        <v>2110624.2560000001</v>
+        <v>2220892.8640000001</v>
       </c>
       <c r="O19" s="184"/>
       <c r="P19" s="185">
         <f>Q19/E19</f>
-        <v>2566.0996114285713</v>
+        <v>2706.3967242857143</v>
       </c>
       <c r="Q19" s="183">
         <f>SUM(Q5:Q18)</f>
-        <v>11496126.259199999</v>
+        <v>12124657.3248</v>
       </c>
     </row>
     <row r="20" spans="2:17" x14ac:dyDescent="0.25">
@@ -3478,7 +3481,7 @@
       </c>
       <c r="I25" s="177">
         <f>futuros!B3</f>
-        <v>307.75</v>
+        <v>332.4</v>
       </c>
       <c r="K25" s="163"/>
       <c r="L25" s="197">
@@ -3487,7 +3490,7 @@
       <c r="M25" s="163"/>
       <c r="N25" s="198">
         <f>(H25-I25)*1.3228*D25</f>
-        <v>-854609.57347499987</v>
+        <v>-1018229.9694839998</v>
       </c>
       <c r="O25" s="178">
         <f>O5</f>
@@ -3495,7 +3498,7 @@
       </c>
       <c r="Q25" s="198">
         <f>N25*O25</f>
-        <v>-4871274.5688074995</v>
+        <v>-5803910.8260587985</v>
       </c>
     </row>
     <row r="26" spans="2:17" x14ac:dyDescent="0.25">
@@ -3520,7 +3523,7 @@
       </c>
       <c r="I26" s="177">
         <f>I25</f>
-        <v>307.75</v>
+        <v>332.4</v>
       </c>
       <c r="K26" s="163"/>
       <c r="L26" s="197">
@@ -3529,7 +3532,7 @@
       <c r="M26" s="163"/>
       <c r="N26" s="198">
         <f>(H26-I26)*1.3228*D26</f>
-        <v>-293092.03538999998</v>
+        <v>-357800.66657999996</v>
       </c>
       <c r="O26" s="178">
         <f>O6</f>
@@ -3537,7 +3540,7 @@
       </c>
       <c r="Q26" s="198">
         <f t="shared" ref="Q26:Q27" si="6">N26*O26</f>
-        <v>-1670624.6017229999</v>
+        <v>-2039463.7995059998</v>
       </c>
     </row>
     <row r="27" spans="2:17" x14ac:dyDescent="0.25">
@@ -3561,7 +3564,7 @@
       </c>
       <c r="I27" s="200">
         <f>I26</f>
-        <v>307.75</v>
+        <v>332.4</v>
       </c>
       <c r="K27" s="163"/>
       <c r="L27" s="197">
@@ -3570,7 +3573,7 @@
       <c r="M27" s="163"/>
       <c r="N27" s="198">
         <f>(H27-I27)*1.3228*D27</f>
-        <v>-340073.76425400004</v>
+        <v>-438061.1200559999</v>
       </c>
       <c r="O27" s="178">
         <f>O7</f>
@@ -3578,7 +3581,7 @@
       </c>
       <c r="Q27" s="198">
         <f t="shared" si="6"/>
-        <v>-1938420.4562478003</v>
+        <v>-2496948.3843191997</v>
       </c>
     </row>
     <row r="28" spans="2:17" x14ac:dyDescent="0.25">
@@ -3601,13 +3604,13 @@
       <c r="M28" s="202"/>
       <c r="N28" s="202">
         <f>SUM(N25:N27)</f>
-        <v>-1487775.3731189999</v>
+        <v>-1814091.7561199996</v>
       </c>
       <c r="O28" s="201"/>
       <c r="P28" s="201"/>
       <c r="Q28" s="202">
         <f>SUM(Q25:Q27)</f>
-        <v>-8480319.6267783009</v>
+        <v>-10340323.009883998</v>
       </c>
     </row>
     <row r="29" spans="2:17" x14ac:dyDescent="0.25">
@@ -4291,7 +4294,7 @@
       </c>
       <c r="I57" s="177">
         <f>futuros!B8</f>
-        <v>276</v>
+        <v>292.55</v>
       </c>
       <c r="K57" s="178">
         <f>O8</f>
@@ -4303,7 +4306,7 @@
       <c r="M57" s="198"/>
       <c r="N57" s="198">
         <f>(H57-I57)*1.3228*D57</f>
-        <v>83703.080160000027</v>
+        <v>27844.774649999999</v>
       </c>
       <c r="O57" s="166">
         <f>O25</f>
@@ -4311,7 +4314,7 @@
       </c>
       <c r="Q57" s="198">
         <f>N57*O57</f>
-        <v>477107.55691200017</v>
+        <v>158715.215505</v>
       </c>
     </row>
     <row r="58" spans="2:17" x14ac:dyDescent="0.25">
@@ -4335,7 +4338,7 @@
       </c>
       <c r="I58" s="177">
         <f>I57</f>
-        <v>276</v>
+        <v>292.55</v>
       </c>
       <c r="K58" s="178">
         <f>O9</f>
@@ -4347,7 +4350,7 @@
       <c r="M58" s="198"/>
       <c r="N58" s="198">
         <f>(H58-I58)*1.3228*D58</f>
-        <v>139205.12255999993</v>
+        <v>89553.2954399999</v>
       </c>
       <c r="O58" s="166">
         <f>O26</f>
@@ -4355,7 +4358,7 @@
       </c>
       <c r="Q58" s="198">
         <f>N58*O58</f>
-        <v>793469.19859199959</v>
+        <v>510453.78400799946</v>
       </c>
     </row>
     <row r="59" spans="2:17" x14ac:dyDescent="0.25">
@@ -4378,13 +4381,13 @@
       <c r="M59" s="201"/>
       <c r="N59" s="202">
         <f>SUM(N56:N58)</f>
-        <v>222908.20271999994</v>
+        <v>117398.07008999991</v>
       </c>
       <c r="O59" s="201"/>
       <c r="P59" s="201"/>
       <c r="Q59" s="202">
         <f>SUM(Q56:Q58)</f>
-        <v>1270576.7555039998</v>
+        <v>669168.99951299943</v>
       </c>
     </row>
     <row r="64" spans="2:17" x14ac:dyDescent="0.25">
@@ -4522,10 +4525,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E433115D-D1E6-C943-B0EC-2BC4BD1B44BA}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:T69"/>
+  <dimension ref="A1:T70"/>
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A48" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="E66" sqref="E66"/>
     </sheetView>
   </sheetViews>
@@ -7776,41 +7779,45 @@
       <c r="A66" s="2">
         <v>2025</v>
       </c>
+      <c r="B66" s="2" t="s">
+        <v>352</v>
+      </c>
       <c r="C66" s="2" t="s">
         <v>89</v>
       </c>
       <c r="D66" s="159" t="s">
-        <v>331</v>
+        <v>257</v>
       </c>
       <c r="E66" s="2">
-        <v>4000</v>
+        <v>10</v>
       </c>
       <c r="F66" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G66" s="2" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="H66" s="2">
         <v>0</v>
       </c>
       <c r="I66" s="158">
-        <v>45992</v>
+        <v>45887</v>
       </c>
       <c r="J66" s="2">
         <v>4</v>
       </c>
       <c r="K66" s="158">
-        <v>45992</v>
-      </c>
-      <c r="L66" s="158"/>
+        <v>45880</v>
+      </c>
+      <c r="L66" s="155"/>
+      <c r="M66" s="155"/>
       <c r="N66" s="3"/>
       <c r="P66" s="3">
-        <v>1600</v>
+        <v>2250</v>
       </c>
       <c r="Q66" s="3">
         <f>E66*P66</f>
-        <v>6400000</v>
+        <v>22500</v>
       </c>
     </row>
     <row r="67" spans="1:17" x14ac:dyDescent="0.2">
@@ -7818,13 +7825,14 @@
         <v>2025</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>42</v>
+        <v>89</v>
       </c>
       <c r="D67" s="159" t="s">
         <v>331</v>
       </c>
       <c r="E67" s="2">
-        <v>2500</v>
+        <f>3000-E66-E65</f>
+        <v>2978</v>
       </c>
       <c r="F67" s="2" t="s">
         <v>32</v>
@@ -7844,16 +7852,14 @@
       <c r="K67" s="158">
         <v>45992</v>
       </c>
-      <c r="L67" s="155">
-        <v>325</v>
-      </c>
-      <c r="M67" s="155">
-        <f>(L67+H67)*1.3228</f>
-        <v>429.90999999999997</v>
-      </c>
-      <c r="N67" s="3">
-        <f>M67*E67</f>
-        <v>1074775</v>
+      <c r="L67" s="158"/>
+      <c r="N67" s="3"/>
+      <c r="P67" s="3">
+        <v>1600</v>
+      </c>
+      <c r="Q67" s="3">
+        <f>E67*P67</f>
+        <v>4764800</v>
       </c>
     </row>
     <row r="68" spans="1:17" x14ac:dyDescent="0.2">
@@ -7867,7 +7873,8 @@
         <v>331</v>
       </c>
       <c r="E68" s="2">
-        <v>64.5</v>
+        <f>7000-4800-E69-E70</f>
+        <v>1686.5</v>
       </c>
       <c r="F68" s="2" t="s">
         <v>32</v>
@@ -7882,21 +7889,21 @@
         <v>45992</v>
       </c>
       <c r="J68" s="2">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="K68" s="158">
         <v>45992</v>
       </c>
       <c r="L68" s="155">
-        <v>330</v>
+        <v>325</v>
       </c>
       <c r="M68" s="155">
         <f>(L68+H68)*1.3228</f>
-        <v>436.524</v>
+        <v>429.90999999999997</v>
       </c>
       <c r="N68" s="3">
         <f>M68*E68</f>
-        <v>28155.797999999999</v>
+        <v>725043.21499999997</v>
       </c>
     </row>
     <row r="69" spans="1:17" x14ac:dyDescent="0.2">
@@ -7910,7 +7917,7 @@
         <v>331</v>
       </c>
       <c r="E69" s="2">
-        <v>449</v>
+        <v>64.5</v>
       </c>
       <c r="F69" s="2" t="s">
         <v>32</v>
@@ -7922,30 +7929,73 @@
         <v>0</v>
       </c>
       <c r="I69" s="158">
-        <v>46082</v>
+        <v>45992</v>
       </c>
       <c r="J69" s="2">
         <v>1</v>
       </c>
       <c r="K69" s="158">
-        <v>46082</v>
+        <v>45992</v>
       </c>
       <c r="L69" s="155">
-        <v>325</v>
+        <v>330</v>
       </c>
       <c r="M69" s="155">
         <f>(L69+H69)*1.3228</f>
-        <v>429.90999999999997</v>
+        <v>436.524</v>
       </c>
       <c r="N69" s="3">
         <f>M69*E69</f>
+        <v>28155.797999999999</v>
+      </c>
+    </row>
+    <row r="70" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A70" s="2">
+        <v>2025</v>
+      </c>
+      <c r="C70" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="D70" s="159" t="s">
+        <v>331</v>
+      </c>
+      <c r="E70" s="2">
+        <v>449</v>
+      </c>
+      <c r="F70" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="G70" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="H70" s="2">
+        <v>0</v>
+      </c>
+      <c r="I70" s="158">
+        <v>46082</v>
+      </c>
+      <c r="J70" s="2">
+        <v>1</v>
+      </c>
+      <c r="K70" s="158">
+        <v>46082</v>
+      </c>
+      <c r="L70" s="155">
+        <v>325</v>
+      </c>
+      <c r="M70" s="155">
+        <f>(L70+H70)*1.3228</f>
+        <v>429.90999999999997</v>
+      </c>
+      <c r="N70" s="3">
+        <f>M70*E70</f>
         <v>193029.59</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:Q69" xr:uid="{E433115D-D1E6-C943-B0EC-2BC4BD1B44BA}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:Q69">
-      <sortCondition ref="B1:B69"/>
+  <autoFilter ref="A1:Q70" xr:uid="{E433115D-D1E6-C943-B0EC-2BC4BD1B44BA}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:Q70">
+      <sortCondition ref="B1:B70"/>
     </sortState>
   </autoFilter>
   <phoneticPr fontId="5" type="noConversion"/>
@@ -7982,7 +8032,7 @@
         <v>270</v>
       </c>
       <c r="D1" s="162">
-        <v>45880</v>
+        <v>45887</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -7990,11 +8040,11 @@
         <v>45930</v>
       </c>
       <c r="B2" s="155">
-        <v>315</v>
+        <v>340</v>
       </c>
       <c r="C2" s="155">
         <f t="shared" ref="C2:C12" si="0">B2*1.3228</f>
-        <v>416.68200000000002</v>
+        <v>449.75200000000001</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -8002,11 +8052,11 @@
         <v>46021</v>
       </c>
       <c r="B3" s="155">
-        <v>307.75</v>
+        <v>332.4</v>
       </c>
       <c r="C3" s="155">
         <f t="shared" si="0"/>
-        <v>407.0917</v>
+        <v>439.69871999999998</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
@@ -8014,11 +8064,11 @@
         <v>46112</v>
       </c>
       <c r="B4" s="155">
-        <v>298.55</v>
+        <v>321.25</v>
       </c>
       <c r="C4" s="155">
         <f t="shared" si="0"/>
-        <v>394.92194000000001</v>
+        <v>424.9495</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
@@ -8026,11 +8076,11 @@
         <v>46173</v>
       </c>
       <c r="B5" s="155">
-        <v>293.10000000000002</v>
+        <v>312.95</v>
       </c>
       <c r="C5" s="155">
         <f t="shared" si="0"/>
-        <v>387.71268000000003</v>
+        <v>413.97026</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
@@ -8038,11 +8088,11 @@
         <v>46231</v>
       </c>
       <c r="B6" s="155">
-        <v>287.05</v>
+        <v>305.45</v>
       </c>
       <c r="C6" s="155">
         <f t="shared" si="0"/>
-        <v>379.70974000000001</v>
+        <v>404.04926</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
@@ -8050,11 +8100,11 @@
         <v>46295</v>
       </c>
       <c r="B7" s="155">
-        <v>280.39999999999998</v>
+        <v>297.39999999999998</v>
       </c>
       <c r="C7" s="155">
         <f t="shared" si="0"/>
-        <v>370.91311999999994</v>
+        <v>393.40071999999998</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
@@ -8062,11 +8112,11 @@
         <v>46386</v>
       </c>
       <c r="B8" s="155">
-        <v>276</v>
+        <v>292.55</v>
       </c>
       <c r="C8" s="155">
         <f t="shared" si="0"/>
-        <v>365.09280000000001</v>
+        <v>386.98514</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
@@ -8074,11 +8124,11 @@
         <v>46477</v>
       </c>
       <c r="B9" s="155">
-        <v>274.2</v>
+        <v>289.5</v>
       </c>
       <c r="C9" s="155">
         <f t="shared" si="0"/>
-        <v>362.71175999999997</v>
+        <v>382.95060000000001</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
@@ -8086,11 +8136,11 @@
         <v>46538</v>
       </c>
       <c r="B10" s="155">
-        <v>265.89999999999998</v>
+        <v>286.35000000000002</v>
       </c>
       <c r="C10" s="155">
         <f t="shared" si="0"/>
-        <v>351.73251999999997</v>
+        <v>378.78378000000004</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
@@ -8098,11 +8148,11 @@
         <v>46596</v>
       </c>
       <c r="B11" s="155">
-        <v>265.8</v>
+        <v>282.89999999999998</v>
       </c>
       <c r="C11" s="155">
         <f t="shared" si="0"/>
-        <v>351.60023999999999</v>
+        <v>374.22011999999995</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
@@ -8110,11 +8160,11 @@
         <v>46660</v>
       </c>
       <c r="B12" s="155">
-        <v>263.8</v>
+        <v>279.10000000000002</v>
       </c>
       <c r="C12" s="155">
         <f t="shared" si="0"/>
-        <v>348.95463999999998</v>
+        <v>369.19348000000002</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
@@ -8122,11 +8172,11 @@
         <v>46751</v>
       </c>
       <c r="B13" s="155">
-        <v>261.89999999999998</v>
+        <v>275.75</v>
       </c>
       <c r="C13" s="155">
         <f>B13*1.3228</f>
-        <v>346.44131999999996</v>
+        <v>364.76209999999998</v>
       </c>
     </row>
   </sheetData>
@@ -8140,7 +8190,7 @@
   <dimension ref="A1:N28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E24" sqref="E24"/>
+      <selection activeCell="J29" sqref="J29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -8868,7 +8918,7 @@
       </c>
       <c r="H16" s="155">
         <f>futuros!B3</f>
-        <v>307.75</v>
+        <v>332.4</v>
       </c>
       <c r="I16" s="2"/>
       <c r="J16" s="162">
@@ -8877,7 +8927,7 @@
       <c r="K16" s="162"/>
       <c r="L16" s="215">
         <f t="shared" si="2"/>
-        <v>-854609.57347499998</v>
+        <v>-1018229.9694839999</v>
       </c>
       <c r="M16" s="160"/>
       <c r="N16" s="215"/>
@@ -8906,7 +8956,7 @@
       </c>
       <c r="H17" s="155">
         <f>futuros!B3</f>
-        <v>307.75</v>
+        <v>332.4</v>
       </c>
       <c r="I17" s="2"/>
       <c r="J17" s="162">
@@ -8915,7 +8965,7 @@
       <c r="K17" s="162"/>
       <c r="L17" s="215">
         <f t="shared" si="2"/>
-        <v>-293092.03539000003</v>
+        <v>-357800.66657999996</v>
       </c>
       <c r="M17" s="160"/>
       <c r="N17" s="215"/>
@@ -8946,7 +8996,7 @@
       </c>
       <c r="H18" s="155">
         <f>futuros!B3</f>
-        <v>307.75</v>
+        <v>332.4</v>
       </c>
       <c r="I18" s="2"/>
       <c r="J18" s="162">
@@ -8955,7 +9005,7 @@
       <c r="K18" s="162"/>
       <c r="L18" s="215">
         <f t="shared" si="2"/>
-        <v>58408.39935</v>
+        <v>-6300.2318399999403</v>
       </c>
       <c r="M18" s="160"/>
       <c r="N18" s="215"/>
@@ -8984,7 +9034,7 @@
       </c>
       <c r="H19" s="217">
         <f>futuros!B3</f>
-        <v>307.75</v>
+        <v>332.4</v>
       </c>
       <c r="I19" s="208"/>
       <c r="J19" s="219">
@@ -8993,7 +9043,7 @@
       <c r="K19" s="219"/>
       <c r="L19" s="220">
         <f t="shared" si="2"/>
-        <v>-179661.61130400002</v>
+        <v>-231428.51625599994</v>
       </c>
       <c r="M19" s="218"/>
       <c r="N19" s="220"/>
@@ -9024,7 +9074,7 @@
       </c>
       <c r="H20" s="155">
         <f>futuros!B4</f>
-        <v>298.55</v>
+        <v>321.25</v>
       </c>
       <c r="I20" s="2"/>
       <c r="J20" s="162">
@@ -9033,7 +9083,7 @@
       <c r="K20" s="162"/>
       <c r="L20" s="215">
         <f t="shared" si="2"/>
-        <v>69433.805069999973</v>
+        <v>9844.1122500000001</v>
       </c>
       <c r="M20" s="160"/>
       <c r="N20" s="215"/>
@@ -9062,7 +9112,7 @@
       </c>
       <c r="H21" s="155">
         <f>futuros!B8</f>
-        <v>276</v>
+        <v>292.55</v>
       </c>
       <c r="I21" s="2"/>
       <c r="J21" s="162">
@@ -9071,7 +9121,7 @@
       <c r="K21" s="162"/>
       <c r="L21" s="215">
         <f t="shared" si="2"/>
-        <v>83703.080160000027</v>
+        <v>27844.774649999999</v>
       </c>
       <c r="M21" s="160"/>
       <c r="N21" s="215"/>
@@ -9099,7 +9149,7 @@
       </c>
       <c r="H22" s="155">
         <f>futuros!B8</f>
-        <v>276</v>
+        <v>292.55</v>
       </c>
       <c r="I22" s="2"/>
       <c r="J22" s="162">
@@ -9108,7 +9158,7 @@
       <c r="K22" s="162"/>
       <c r="L22" s="215">
         <f t="shared" si="2"/>
-        <v>139205.12255999993</v>
+        <v>89553.295439999885</v>
       </c>
       <c r="M22" s="160"/>
       <c r="N22" s="215"/>
@@ -9136,7 +9186,7 @@
       </c>
       <c r="H23" s="155">
         <f>futuros!B8</f>
-        <v>276</v>
+        <v>292.55</v>
       </c>
       <c r="I23" s="2"/>
       <c r="J23" s="162">
@@ -9145,7 +9195,7 @@
       <c r="K23" s="162"/>
       <c r="L23" s="215">
         <f t="shared" si="2"/>
-        <v>93603.444479999962</v>
+        <v>43951.617359999931</v>
       </c>
       <c r="M23" s="160"/>
       <c r="N23" s="215"/>
@@ -9174,7 +9224,7 @@
       </c>
       <c r="H24" s="217">
         <f>futuros!B8</f>
-        <v>276</v>
+        <v>292.55</v>
       </c>
       <c r="I24" s="208"/>
       <c r="J24" s="219">
@@ -9183,7 +9233,7 @@
       <c r="K24" s="219"/>
       <c r="L24" s="220">
         <f t="shared" si="2"/>
-        <v>126004.63679999999</v>
+        <v>-47776.758120000115</v>
       </c>
       <c r="M24" s="218"/>
       <c r="N24" s="220"/>
@@ -9212,7 +9262,7 @@
       </c>
       <c r="H25" s="155">
         <f>futuros!B13</f>
-        <v>261.89999999999998</v>
+        <v>275.75</v>
       </c>
       <c r="I25" s="2"/>
       <c r="J25" s="162">
@@ -9221,7 +9271,7 @@
       <c r="K25" s="162"/>
       <c r="L25" s="215">
         <f t="shared" si="2"/>
-        <v>-53214.458219999906</v>
+        <v>-110347.81065</v>
       </c>
       <c r="M25" s="160"/>
       <c r="N25" s="215"/>
@@ -9247,7 +9297,7 @@
       </c>
       <c r="H26" s="155">
         <f>futuros!B13</f>
-        <v>261.89999999999998</v>
+        <v>275.75</v>
       </c>
       <c r="I26" s="2"/>
       <c r="J26" s="162">
@@ -9256,7 +9306,7 @@
       <c r="K26" s="162"/>
       <c r="L26" s="215">
         <f t="shared" ref="L26" si="8">D26*(G26-H26)*1.3228</f>
-        <v>-80702.969759999934</v>
+        <v>-122254.4988</v>
       </c>
       <c r="M26" s="160"/>
       <c r="N26" s="215"/>
@@ -9282,7 +9332,7 @@
       </c>
       <c r="H27" s="155">
         <f>futuros!B13</f>
-        <v>261.89999999999998</v>
+        <v>275.75</v>
       </c>
       <c r="I27" s="2"/>
       <c r="J27" s="162">
@@ -9291,7 +9341,7 @@
       <c r="K27" s="162"/>
       <c r="L27" s="215">
         <f t="shared" ref="L27" si="10">D27*(G27-H27)*1.3228</f>
-        <v>-20438.252099999958</v>
+        <v>-46407.957750000001</v>
       </c>
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.2">
@@ -9315,7 +9365,7 @@
       </c>
       <c r="H28" s="155">
         <f>futuros!B13</f>
-        <v>261.89999999999998</v>
+        <v>275.75</v>
       </c>
       <c r="I28" s="2"/>
       <c r="J28" s="162">
@@ -9324,7 +9374,7 @@
       <c r="K28" s="162"/>
       <c r="L28" s="215">
         <f t="shared" ref="L28" si="12">D28*(G28-H28)*1.3228</f>
-        <v>2062.5759000000426</v>
+        <v>-23907.12975</v>
       </c>
     </row>
   </sheetData>

--- a/vendas_cafe_em_reais.xlsx
+++ b/vendas_cafe_em_reais.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rotocastro/PycharmProjects/Vendas Cafe/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A51E11C-0BB0-3644-BBE6-979C70BD724F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71512790-8116-5A43-B914-8A80FBF536BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4440" yWindow="940" windowWidth="24960" windowHeight="16540" activeTab="3" xr2:uid="{AC82ADC5-E628-F847-8939-89BAF5623AE6}"/>
   </bookViews>
@@ -2630,26 +2630,26 @@
       </c>
       <c r="L6" s="177">
         <f>futuros!B3</f>
-        <v>332.4</v>
+        <v>362.15</v>
       </c>
       <c r="M6" s="177">
         <f>(L6+H6)*1.3228</f>
-        <v>479.38271999999995</v>
+        <v>518.73601999999994</v>
       </c>
       <c r="N6" s="167">
         <f>(E6*(M6+H6))</f>
-        <v>163002.47039999999</v>
+        <v>175595.52639999997</v>
       </c>
       <c r="O6" s="178">
         <v>5.7</v>
       </c>
       <c r="P6" s="167">
         <f t="shared" ref="P6:P16" si="1">M6*O6</f>
-        <v>2732.4815039999999</v>
+        <v>2956.795314</v>
       </c>
       <c r="Q6" s="167">
         <f t="shared" ref="Q6:Q16" si="2">P6*E6</f>
-        <v>874394.08127999993</v>
+        <v>946174.50047999993</v>
       </c>
     </row>
     <row r="7" spans="2:20" x14ac:dyDescent="0.25">
@@ -2686,26 +2686,26 @@
       </c>
       <c r="L7" s="177">
         <f>L6</f>
-        <v>332.4</v>
+        <v>362.15</v>
       </c>
       <c r="M7" s="177">
         <f>(L7+H7)*1.3228</f>
-        <v>479.38271999999995</v>
+        <v>518.73601999999994</v>
       </c>
       <c r="N7" s="167">
         <f>(E7*(M7+H7))</f>
-        <v>163002.47039999999</v>
+        <v>175595.52639999997</v>
       </c>
       <c r="O7" s="178">
         <v>5.7</v>
       </c>
       <c r="P7" s="167">
         <f t="shared" si="1"/>
-        <v>2732.4815039999999</v>
+        <v>2956.795314</v>
       </c>
       <c r="Q7" s="167">
         <f t="shared" si="2"/>
-        <v>874394.08127999993</v>
+        <v>946174.50047999993</v>
       </c>
     </row>
     <row r="8" spans="2:20" x14ac:dyDescent="0.25">
@@ -2742,26 +2742,26 @@
       </c>
       <c r="L8" s="177">
         <f>L7</f>
-        <v>332.4</v>
+        <v>362.15</v>
       </c>
       <c r="M8" s="177">
         <f>(L8+H8)*1.3228</f>
-        <v>479.38271999999995</v>
+        <v>518.73601999999994</v>
       </c>
       <c r="N8" s="167">
         <f>(E8*(M8+H8))</f>
-        <v>163002.47039999999</v>
+        <v>175595.52639999997</v>
       </c>
       <c r="O8" s="178">
         <v>5.7</v>
       </c>
       <c r="P8" s="167">
         <f t="shared" si="1"/>
-        <v>2732.4815039999999</v>
+        <v>2956.795314</v>
       </c>
       <c r="Q8" s="167">
         <f t="shared" si="2"/>
-        <v>874394.08127999993</v>
+        <v>946174.50047999993</v>
       </c>
     </row>
     <row r="9" spans="2:20" x14ac:dyDescent="0.25">
@@ -2798,26 +2798,26 @@
       </c>
       <c r="L9" s="177">
         <f>futuros!B3</f>
-        <v>332.4</v>
+        <v>362.15</v>
       </c>
       <c r="M9" s="177">
         <f>(L9+H9)*1.3228</f>
-        <v>479.38271999999995</v>
+        <v>518.73601999999994</v>
       </c>
       <c r="N9" s="167">
         <f>(E9*(M9+H9))</f>
-        <v>163002.47039999999</v>
+        <v>175595.52639999997</v>
       </c>
       <c r="O9" s="178">
         <v>5.7</v>
       </c>
       <c r="P9" s="167">
         <f t="shared" si="1"/>
-        <v>2732.4815039999999</v>
+        <v>2956.795314</v>
       </c>
       <c r="Q9" s="167">
         <f t="shared" si="2"/>
-        <v>874394.08127999993</v>
+        <v>946174.50047999993</v>
       </c>
     </row>
     <row r="10" spans="2:20" x14ac:dyDescent="0.25">
@@ -2854,26 +2854,26 @@
       </c>
       <c r="L10" s="177">
         <f>futuros!B4</f>
-        <v>321.25</v>
+        <v>70.400000000000006</v>
       </c>
       <c r="M10" s="177">
         <f>(L10+H10)*1.3228</f>
-        <v>464.63349999999997</v>
+        <v>132.80912000000001</v>
       </c>
       <c r="N10" s="167">
         <f>(E10*(M10+H10))</f>
-        <v>158282.72</v>
+        <v>52098.918400000002</v>
       </c>
       <c r="O10" s="178">
         <v>5.7</v>
       </c>
       <c r="P10" s="167">
         <f t="shared" si="1"/>
-        <v>2648.41095</v>
+        <v>757.0119840000001</v>
       </c>
       <c r="Q10" s="167">
         <f t="shared" si="2"/>
-        <v>847491.50399999996</v>
+        <v>242243.83488000004</v>
       </c>
     </row>
     <row r="11" spans="2:20" x14ac:dyDescent="0.25">
@@ -2910,26 +2910,26 @@
       </c>
       <c r="L11" s="177">
         <f>futuros!B3</f>
-        <v>332.4</v>
+        <v>362.15</v>
       </c>
       <c r="M11" s="177">
         <f t="shared" ref="M11:M16" si="4">(L11+H11)*1.3228</f>
-        <v>476.73711999999995</v>
+        <v>516.09041999999999</v>
       </c>
       <c r="N11" s="167">
         <f t="shared" ref="N11:N16" si="5">(E11*(M11+H11))</f>
-        <v>161515.87839999999</v>
+        <v>174108.9344</v>
       </c>
       <c r="O11" s="178">
         <v>5.7</v>
       </c>
       <c r="P11" s="167">
         <f t="shared" si="1"/>
-        <v>2717.4015839999997</v>
+        <v>2941.7153940000003</v>
       </c>
       <c r="Q11" s="167">
         <f t="shared" si="2"/>
-        <v>869568.50687999988</v>
+        <v>941348.92608000012</v>
       </c>
     </row>
     <row r="12" spans="2:20" x14ac:dyDescent="0.25">
@@ -2966,26 +2966,26 @@
       </c>
       <c r="L12" s="177">
         <f>futuros!B3</f>
-        <v>332.4</v>
+        <v>362.15</v>
       </c>
       <c r="M12" s="177">
         <f t="shared" si="4"/>
-        <v>476.73711999999995</v>
+        <v>516.09041999999999</v>
       </c>
       <c r="N12" s="167">
         <f t="shared" si="5"/>
-        <v>161515.87839999999</v>
+        <v>174108.9344</v>
       </c>
       <c r="O12" s="178">
         <v>5.7</v>
       </c>
       <c r="P12" s="167">
         <f t="shared" si="1"/>
-        <v>2717.4015839999997</v>
+        <v>2941.7153940000003</v>
       </c>
       <c r="Q12" s="167">
         <f t="shared" si="2"/>
-        <v>869568.50687999988</v>
+        <v>941348.92608000012</v>
       </c>
     </row>
     <row r="13" spans="2:20" s="166" customFormat="1" x14ac:dyDescent="0.25">
@@ -3022,26 +3022,26 @@
       </c>
       <c r="L13" s="177">
         <f>futuros!B4</f>
-        <v>321.25</v>
+        <v>70.400000000000006</v>
       </c>
       <c r="M13" s="177">
         <f t="shared" si="4"/>
-        <v>461.98789999999997</v>
+        <v>130.16352000000001</v>
       </c>
       <c r="N13" s="167">
         <f t="shared" si="5"/>
-        <v>156796.128</v>
+        <v>50612.326400000005</v>
       </c>
       <c r="O13" s="178">
         <v>5.7</v>
       </c>
       <c r="P13" s="167">
         <f t="shared" si="1"/>
-        <v>2633.3310299999998</v>
+        <v>741.93206400000008</v>
       </c>
       <c r="Q13" s="167">
         <f t="shared" si="2"/>
-        <v>842665.92959999992</v>
+        <v>237418.26048000003</v>
       </c>
       <c r="R13" s="163"/>
       <c r="S13" s="163"/>
@@ -3081,26 +3081,26 @@
       </c>
       <c r="L14" s="177">
         <f>futuros!B5</f>
-        <v>312.95</v>
+        <v>343.35</v>
       </c>
       <c r="M14" s="177">
         <f t="shared" si="4"/>
-        <v>451.00865999999996</v>
+        <v>491.22178000000002</v>
       </c>
       <c r="N14" s="167">
         <f t="shared" si="5"/>
-        <v>153282.77119999999</v>
+        <v>166150.96960000001</v>
       </c>
       <c r="O14" s="178">
         <v>5.7</v>
       </c>
       <c r="P14" s="167">
         <f t="shared" si="1"/>
-        <v>2570.749362</v>
+        <v>2799.9641460000003</v>
       </c>
       <c r="Q14" s="167">
         <f t="shared" si="2"/>
-        <v>822639.79584000004</v>
+        <v>895988.52672000008</v>
       </c>
       <c r="R14" s="163"/>
       <c r="S14" s="163"/>
@@ -3140,26 +3140,26 @@
       </c>
       <c r="L15" s="177">
         <f>futuros!B4</f>
-        <v>321.25</v>
+        <v>70.400000000000006</v>
       </c>
       <c r="M15" s="177">
         <f t="shared" si="4"/>
-        <v>395.84789999999998</v>
+        <v>64.023520000000005</v>
       </c>
       <c r="N15" s="167">
         <f t="shared" si="5"/>
-        <v>119631.32799999999</v>
+        <v>13447.526400000002</v>
       </c>
       <c r="O15" s="178">
         <v>5.7</v>
       </c>
       <c r="P15" s="167">
         <f t="shared" si="1"/>
-        <v>2256.3330299999998</v>
+        <v>364.93406400000003</v>
       </c>
       <c r="Q15" s="167">
         <f t="shared" si="2"/>
-        <v>722026.56959999993</v>
+        <v>116778.90048000001</v>
       </c>
       <c r="R15" s="163"/>
       <c r="S15" s="163"/>
@@ -3199,26 +3199,26 @@
       </c>
       <c r="L16" s="177">
         <f>futuros!B3</f>
-        <v>332.4</v>
+        <v>362.15</v>
       </c>
       <c r="M16" s="177">
         <f t="shared" si="4"/>
-        <v>509.80711999999994</v>
+        <v>549.16041999999993</v>
       </c>
       <c r="N16" s="167">
         <f t="shared" si="5"/>
-        <v>180098.27839999998</v>
+        <v>192691.33439999999</v>
       </c>
       <c r="O16" s="178">
         <v>5.7</v>
       </c>
       <c r="P16" s="167">
         <f t="shared" si="1"/>
-        <v>2905.9005839999995</v>
+        <v>3130.2143939999996</v>
       </c>
       <c r="Q16" s="167">
         <f t="shared" si="2"/>
-        <v>929888.18687999982</v>
+        <v>1001668.6060799998</v>
       </c>
       <c r="R16" s="163"/>
       <c r="S16" s="163"/>
@@ -3345,20 +3345,20 @@
       <c r="L19" s="179"/>
       <c r="M19" s="182">
         <f>N19/E19</f>
-        <v>495.73501428571427</v>
+        <v>447.17880571428566</v>
       </c>
       <c r="N19" s="183">
         <f>SUM(N5:N18)</f>
-        <v>2220892.8640000001</v>
+        <v>2003361.0495999998</v>
       </c>
       <c r="O19" s="184"/>
       <c r="P19" s="185">
         <f>Q19/E19</f>
-        <v>2706.3967242857143</v>
+        <v>2429.6263354285711</v>
       </c>
       <c r="Q19" s="183">
         <f>SUM(Q5:Q18)</f>
-        <v>12124657.3248</v>
+        <v>10884725.982719999</v>
       </c>
     </row>
     <row r="20" spans="2:17" x14ac:dyDescent="0.25">
@@ -3481,7 +3481,7 @@
       </c>
       <c r="I25" s="177">
         <f>futuros!B3</f>
-        <v>332.4</v>
+        <v>362.15</v>
       </c>
       <c r="K25" s="163"/>
       <c r="L25" s="197">
@@ -3490,7 +3490,7 @@
       <c r="M25" s="163"/>
       <c r="N25" s="198">
         <f>(H25-I25)*1.3228*D25</f>
-        <v>-1018229.9694839998</v>
+        <v>-1215702.8612189998</v>
       </c>
       <c r="O25" s="178">
         <f>O5</f>
@@ -3498,7 +3498,7 @@
       </c>
       <c r="Q25" s="198">
         <f>N25*O25</f>
-        <v>-5803910.8260587985</v>
+        <v>-6929506.3089482989</v>
       </c>
     </row>
     <row r="26" spans="2:17" x14ac:dyDescent="0.25">
@@ -3523,7 +3523,7 @@
       </c>
       <c r="I26" s="177">
         <f>I25</f>
-        <v>332.4</v>
+        <v>362.15</v>
       </c>
       <c r="K26" s="163"/>
       <c r="L26" s="197">
@@ -3532,7 +3532,7 @@
       <c r="M26" s="163"/>
       <c r="N26" s="198">
         <f>(H26-I26)*1.3228*D26</f>
-        <v>-357800.66657999996</v>
+        <v>-435897.29042999994</v>
       </c>
       <c r="O26" s="178">
         <f>O6</f>
@@ -3540,7 +3540,7 @@
       </c>
       <c r="Q26" s="198">
         <f t="shared" ref="Q26:Q27" si="6">N26*O26</f>
-        <v>-2039463.7995059998</v>
+        <v>-2484614.5554509996</v>
       </c>
     </row>
     <row r="27" spans="2:17" x14ac:dyDescent="0.25">
@@ -3564,7 +3564,7 @@
       </c>
       <c r="I27" s="200">
         <f>I26</f>
-        <v>332.4</v>
+        <v>362.15</v>
       </c>
       <c r="K27" s="163"/>
       <c r="L27" s="197">
@@ -3573,7 +3573,7 @@
       <c r="M27" s="163"/>
       <c r="N27" s="198">
         <f>(H27-I27)*1.3228*D27</f>
-        <v>-438061.1200559999</v>
+        <v>-556321.7218859999</v>
       </c>
       <c r="O27" s="178">
         <f>O7</f>
@@ -3581,7 +3581,7 @@
       </c>
       <c r="Q27" s="198">
         <f t="shared" si="6"/>
-        <v>-2496948.3843191997</v>
+        <v>-3171033.8147501997</v>
       </c>
     </row>
     <row r="28" spans="2:17" x14ac:dyDescent="0.25">
@@ -3604,13 +3604,13 @@
       <c r="M28" s="202"/>
       <c r="N28" s="202">
         <f>SUM(N25:N27)</f>
-        <v>-1814091.7561199996</v>
+        <v>-2207921.8735349998</v>
       </c>
       <c r="O28" s="201"/>
       <c r="P28" s="201"/>
       <c r="Q28" s="202">
         <f>SUM(Q25:Q27)</f>
-        <v>-10340323.009883998</v>
+        <v>-12585154.679149499</v>
       </c>
     </row>
     <row r="29" spans="2:17" x14ac:dyDescent="0.25">
@@ -4294,7 +4294,7 @@
       </c>
       <c r="I57" s="177">
         <f>futuros!B8</f>
-        <v>292.55</v>
+        <v>309.75</v>
       </c>
       <c r="K57" s="178">
         <f>O8</f>
@@ -4306,7 +4306,7 @@
       <c r="M57" s="198"/>
       <c r="N57" s="198">
         <f>(H57-I57)*1.3228*D57</f>
-        <v>27844.774649999999</v>
+        <v>-30207.36158999996</v>
       </c>
       <c r="O57" s="166">
         <f>O25</f>
@@ -4314,7 +4314,7 @@
       </c>
       <c r="Q57" s="198">
         <f>N57*O57</f>
-        <v>158715.215505</v>
+        <v>-172181.96106299979</v>
       </c>
     </row>
     <row r="58" spans="2:17" x14ac:dyDescent="0.25">
@@ -4338,7 +4338,7 @@
       </c>
       <c r="I58" s="177">
         <f>I57</f>
-        <v>292.55</v>
+        <v>309.75</v>
       </c>
       <c r="K58" s="178">
         <f>O9</f>
@@ -4350,7 +4350,7 @@
       <c r="M58" s="198"/>
       <c r="N58" s="198">
         <f>(H58-I58)*1.3228*D58</f>
-        <v>89553.2954399999</v>
+        <v>37951.396559999936</v>
       </c>
       <c r="O58" s="166">
         <f>O26</f>
@@ -4358,7 +4358,7 @@
       </c>
       <c r="Q58" s="198">
         <f>N58*O58</f>
-        <v>510453.78400799946</v>
+        <v>216322.96039199963</v>
       </c>
     </row>
     <row r="59" spans="2:17" x14ac:dyDescent="0.25">
@@ -4381,13 +4381,13 @@
       <c r="M59" s="201"/>
       <c r="N59" s="202">
         <f>SUM(N56:N58)</f>
-        <v>117398.07008999991</v>
+        <v>7744.0349699999751</v>
       </c>
       <c r="O59" s="201"/>
       <c r="P59" s="201"/>
       <c r="Q59" s="202">
         <f>SUM(Q56:Q58)</f>
-        <v>669168.99951299943</v>
+        <v>44140.999328999838</v>
       </c>
     </row>
     <row r="64" spans="2:17" x14ac:dyDescent="0.25">
@@ -4528,8 +4528,8 @@
   <dimension ref="A1:T70"/>
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E66" sqref="E66"/>
+      <pane ySplit="1" topLeftCell="A53" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E46" sqref="E46:E66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0.2"/>
@@ -7789,7 +7789,7 @@
         <v>257</v>
       </c>
       <c r="E66" s="2">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="F66" s="2" t="s">
         <v>33</v>
@@ -7817,7 +7817,7 @@
       </c>
       <c r="Q66" s="3">
         <f>E66*P66</f>
-        <v>22500</v>
+        <v>45000</v>
       </c>
     </row>
     <row r="67" spans="1:17" x14ac:dyDescent="0.2">
@@ -7832,7 +7832,7 @@
       </c>
       <c r="E67" s="2">
         <f>3000-E66-E65</f>
-        <v>2978</v>
+        <v>2968</v>
       </c>
       <c r="F67" s="2" t="s">
         <v>32</v>
@@ -7859,7 +7859,7 @@
       </c>
       <c r="Q67" s="3">
         <f>E67*P67</f>
-        <v>4764800</v>
+        <v>4748800</v>
       </c>
     </row>
     <row r="68" spans="1:17" x14ac:dyDescent="0.2">
@@ -8032,7 +8032,7 @@
         <v>270</v>
       </c>
       <c r="D1" s="162">
-        <v>45887</v>
+        <v>45890</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -8040,11 +8040,11 @@
         <v>45930</v>
       </c>
       <c r="B2" s="155">
-        <v>340</v>
+        <v>372.45</v>
       </c>
       <c r="C2" s="155">
         <f t="shared" ref="C2:C12" si="0">B2*1.3228</f>
-        <v>449.75200000000001</v>
+        <v>492.67685999999998</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -8052,11 +8052,11 @@
         <v>46021</v>
       </c>
       <c r="B3" s="155">
-        <v>332.4</v>
+        <v>362.15</v>
       </c>
       <c r="C3" s="155">
         <f t="shared" si="0"/>
-        <v>439.69871999999998</v>
+        <v>479.05201999999997</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
@@ -8064,11 +8064,11 @@
         <v>46112</v>
       </c>
       <c r="B4" s="155">
-        <v>321.25</v>
+        <v>70.400000000000006</v>
       </c>
       <c r="C4" s="155">
         <f t="shared" si="0"/>
-        <v>424.9495</v>
+        <v>93.12512000000001</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
@@ -8076,11 +8076,11 @@
         <v>46173</v>
       </c>
       <c r="B5" s="155">
-        <v>312.95</v>
+        <v>343.35</v>
       </c>
       <c r="C5" s="155">
         <f t="shared" si="0"/>
-        <v>413.97026</v>
+        <v>454.18338</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
@@ -8088,11 +8088,11 @@
         <v>46231</v>
       </c>
       <c r="B6" s="155">
-        <v>305.45</v>
+        <v>333.4</v>
       </c>
       <c r="C6" s="155">
         <f t="shared" si="0"/>
-        <v>404.04926</v>
+        <v>441.02151999999995</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
@@ -8100,11 +8100,11 @@
         <v>46295</v>
       </c>
       <c r="B7" s="155">
-        <v>297.39999999999998</v>
+        <v>320.55</v>
       </c>
       <c r="C7" s="155">
         <f t="shared" si="0"/>
-        <v>393.40071999999998</v>
+        <v>424.02354000000003</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
@@ -8112,11 +8112,11 @@
         <v>46386</v>
       </c>
       <c r="B8" s="155">
-        <v>292.55</v>
+        <v>309.75</v>
       </c>
       <c r="C8" s="155">
         <f t="shared" si="0"/>
-        <v>386.98514</v>
+        <v>409.7373</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
@@ -8124,11 +8124,11 @@
         <v>46477</v>
       </c>
       <c r="B9" s="155">
-        <v>289.5</v>
+        <v>302.3</v>
       </c>
       <c r="C9" s="155">
         <f t="shared" si="0"/>
-        <v>382.95060000000001</v>
+        <v>399.88244000000003</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
@@ -8136,11 +8136,11 @@
         <v>46538</v>
       </c>
       <c r="B10" s="155">
-        <v>286.35000000000002</v>
+        <v>295.89999999999998</v>
       </c>
       <c r="C10" s="155">
         <f t="shared" si="0"/>
-        <v>378.78378000000004</v>
+        <v>391.41651999999993</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
@@ -8148,11 +8148,11 @@
         <v>46596</v>
       </c>
       <c r="B11" s="155">
-        <v>282.89999999999998</v>
+        <v>290.35000000000002</v>
       </c>
       <c r="C11" s="155">
         <f t="shared" si="0"/>
-        <v>374.22011999999995</v>
+        <v>384.07498000000004</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
@@ -8160,11 +8160,11 @@
         <v>46660</v>
       </c>
       <c r="B12" s="155">
-        <v>279.10000000000002</v>
+        <v>284.2</v>
       </c>
       <c r="C12" s="155">
         <f t="shared" si="0"/>
-        <v>369.19348000000002</v>
+        <v>375.93975999999998</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
@@ -8172,11 +8172,11 @@
         <v>46751</v>
       </c>
       <c r="B13" s="155">
-        <v>275.75</v>
+        <v>279.39999999999998</v>
       </c>
       <c r="C13" s="155">
         <f>B13*1.3228</f>
-        <v>364.76209999999998</v>
+        <v>369.59031999999996</v>
       </c>
     </row>
   </sheetData>
@@ -8190,7 +8190,7 @@
   <dimension ref="A1:N28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J29" sqref="J29"/>
+      <selection activeCell="D25" sqref="D25:D28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -8918,7 +8918,7 @@
       </c>
       <c r="H16" s="155">
         <f>futuros!B3</f>
-        <v>332.4</v>
+        <v>362.15</v>
       </c>
       <c r="I16" s="2"/>
       <c r="J16" s="162">
@@ -8927,7 +8927,7 @@
       <c r="K16" s="162"/>
       <c r="L16" s="215">
         <f t="shared" si="2"/>
-        <v>-1018229.9694839999</v>
+        <v>-1215702.8612189998</v>
       </c>
       <c r="M16" s="160"/>
       <c r="N16" s="215"/>
@@ -8956,7 +8956,7 @@
       </c>
       <c r="H17" s="155">
         <f>futuros!B3</f>
-        <v>332.4</v>
+        <v>362.15</v>
       </c>
       <c r="I17" s="2"/>
       <c r="J17" s="162">
@@ -8965,7 +8965,7 @@
       <c r="K17" s="162"/>
       <c r="L17" s="215">
         <f t="shared" si="2"/>
-        <v>-357800.66657999996</v>
+        <v>-435897.29042999994</v>
       </c>
       <c r="M17" s="160"/>
       <c r="N17" s="215"/>
@@ -8996,7 +8996,7 @@
       </c>
       <c r="H18" s="155">
         <f>futuros!B3</f>
-        <v>332.4</v>
+        <v>362.15</v>
       </c>
       <c r="I18" s="2"/>
       <c r="J18" s="162">
@@ -9005,7 +9005,7 @@
       <c r="K18" s="162"/>
       <c r="L18" s="215">
         <f t="shared" si="2"/>
-        <v>-6300.2318399999403</v>
+        <v>-84396.855689999938</v>
       </c>
       <c r="M18" s="160"/>
       <c r="N18" s="215"/>
@@ -9034,7 +9034,7 @@
       </c>
       <c r="H19" s="217">
         <f>futuros!B3</f>
-        <v>332.4</v>
+        <v>362.15</v>
       </c>
       <c r="I19" s="208"/>
       <c r="J19" s="219">
@@ -9043,7 +9043,7 @@
       <c r="K19" s="219"/>
       <c r="L19" s="220">
         <f t="shared" si="2"/>
-        <v>-231428.51625599994</v>
+        <v>-293905.81533599994</v>
       </c>
       <c r="M19" s="218"/>
       <c r="N19" s="220"/>
@@ -9074,7 +9074,7 @@
       </c>
       <c r="H20" s="155">
         <f>futuros!B4</f>
-        <v>321.25</v>
+        <v>70.400000000000006</v>
       </c>
       <c r="I20" s="2"/>
       <c r="J20" s="162">
@@ -9083,7 +9083,7 @@
       <c r="K20" s="162"/>
       <c r="L20" s="215">
         <f t="shared" si="2"/>
-        <v>9844.1122500000001</v>
+        <v>668349.59435999999</v>
       </c>
       <c r="M20" s="160"/>
       <c r="N20" s="215"/>
@@ -9112,7 +9112,7 @@
       </c>
       <c r="H21" s="155">
         <f>futuros!B8</f>
-        <v>292.55</v>
+        <v>309.75</v>
       </c>
       <c r="I21" s="2"/>
       <c r="J21" s="162">
@@ -9121,7 +9121,7 @@
       <c r="K21" s="162"/>
       <c r="L21" s="215">
         <f t="shared" si="2"/>
-        <v>27844.774649999999</v>
+        <v>-30207.36158999996</v>
       </c>
       <c r="M21" s="160"/>
       <c r="N21" s="215"/>
@@ -9149,7 +9149,7 @@
       </c>
       <c r="H22" s="155">
         <f>futuros!B8</f>
-        <v>292.55</v>
+        <v>309.75</v>
       </c>
       <c r="I22" s="2"/>
       <c r="J22" s="162">
@@ -9158,7 +9158,7 @@
       <c r="K22" s="162"/>
       <c r="L22" s="215">
         <f t="shared" si="2"/>
-        <v>89553.295439999885</v>
+        <v>37951.396559999936</v>
       </c>
       <c r="M22" s="160"/>
       <c r="N22" s="215"/>
@@ -9186,7 +9186,7 @@
       </c>
       <c r="H23" s="155">
         <f>futuros!B8</f>
-        <v>292.55</v>
+        <v>309.75</v>
       </c>
       <c r="I23" s="2"/>
       <c r="J23" s="162">
@@ -9195,7 +9195,7 @@
       <c r="K23" s="162"/>
       <c r="L23" s="215">
         <f t="shared" si="2"/>
-        <v>43951.617359999931</v>
+        <v>-7650.2815200000341</v>
       </c>
       <c r="M23" s="160"/>
       <c r="N23" s="215"/>
@@ -9224,7 +9224,7 @@
       </c>
       <c r="H24" s="217">
         <f>futuros!B8</f>
-        <v>292.55</v>
+        <v>309.75</v>
       </c>
       <c r="I24" s="208"/>
       <c r="J24" s="219">
@@ -9233,7 +9233,7 @@
       <c r="K24" s="219"/>
       <c r="L24" s="220">
         <f t="shared" si="2"/>
-        <v>-47776.758120000115</v>
+        <v>-228383.40419999999</v>
       </c>
       <c r="M24" s="218"/>
       <c r="N24" s="220"/>
@@ -9262,7 +9262,7 @@
       </c>
       <c r="H25" s="155">
         <f>futuros!B13</f>
-        <v>275.75</v>
+        <v>279.39999999999998</v>
       </c>
       <c r="I25" s="2"/>
       <c r="J25" s="162">
@@ -9271,7 +9271,7 @@
       <c r="K25" s="162"/>
       <c r="L25" s="215">
         <f t="shared" si="2"/>
-        <v>-110347.81065</v>
+        <v>-125404.61471999991</v>
       </c>
       <c r="M25" s="160"/>
       <c r="N25" s="215"/>
@@ -9297,7 +9297,7 @@
       </c>
       <c r="H26" s="155">
         <f>futuros!B13</f>
-        <v>275.75</v>
+        <v>279.39999999999998</v>
       </c>
       <c r="I26" s="2"/>
       <c r="J26" s="162">
@@ -9306,7 +9306,7 @@
       <c r="K26" s="162"/>
       <c r="L26" s="215">
         <f t="shared" ref="L26" si="8">D26*(G26-H26)*1.3228</f>
-        <v>-122254.4988</v>
+        <v>-133204.90175999995</v>
       </c>
       <c r="M26" s="160"/>
       <c r="N26" s="215"/>
@@ -9332,7 +9332,7 @@
       </c>
       <c r="H27" s="155">
         <f>futuros!B13</f>
-        <v>275.75</v>
+        <v>279.39999999999998</v>
       </c>
       <c r="I27" s="2"/>
       <c r="J27" s="162">
@@ -9341,7 +9341,7 @@
       <c r="K27" s="162"/>
       <c r="L27" s="215">
         <f t="shared" ref="L27" si="10">D27*(G27-H27)*1.3228</f>
-        <v>-46407.957750000001</v>
+        <v>-53251.959599999958</v>
       </c>
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.2">
@@ -9365,7 +9365,7 @@
       </c>
       <c r="H28" s="155">
         <f>futuros!B13</f>
-        <v>275.75</v>
+        <v>279.39999999999998</v>
       </c>
       <c r="I28" s="2"/>
       <c r="J28" s="162">
@@ -9374,7 +9374,7 @@
       <c r="K28" s="162"/>
       <c r="L28" s="215">
         <f t="shared" ref="L28" si="12">D28*(G28-H28)*1.3228</f>
-        <v>-23907.12975</v>
+        <v>-30751.131599999957</v>
       </c>
     </row>
   </sheetData>

--- a/vendas_cafe_em_reais.xlsx
+++ b/vendas_cafe_em_reais.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rotocastro/PycharmProjects/Vendas Cafe/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71512790-8116-5A43-B914-8A80FBF536BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD6745CE-9AC1-564C-8456-6280606F25EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4440" yWindow="940" windowWidth="24960" windowHeight="16540" activeTab="3" xr2:uid="{AC82ADC5-E628-F847-8939-89BAF5623AE6}"/>
+    <workbookView xWindow="4440" yWindow="940" windowWidth="24960" windowHeight="16700" activeTab="1" xr2:uid="{AC82ADC5-E628-F847-8939-89BAF5623AE6}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2 (2)" sheetId="16" state="hidden" r:id="rId1"/>
@@ -2630,26 +2630,26 @@
       </c>
       <c r="L6" s="177">
         <f>futuros!B3</f>
-        <v>362.15</v>
+        <v>386.1</v>
       </c>
       <c r="M6" s="177">
         <f>(L6+H6)*1.3228</f>
-        <v>518.73601999999994</v>
+        <v>550.41708000000006</v>
       </c>
       <c r="N6" s="167">
         <f>(E6*(M6+H6))</f>
-        <v>175595.52639999997</v>
+        <v>185733.46560000003</v>
       </c>
       <c r="O6" s="178">
         <v>5.7</v>
       </c>
       <c r="P6" s="167">
         <f t="shared" ref="P6:P16" si="1">M6*O6</f>
-        <v>2956.795314</v>
+        <v>3137.3773560000004</v>
       </c>
       <c r="Q6" s="167">
         <f t="shared" ref="Q6:Q16" si="2">P6*E6</f>
-        <v>946174.50047999993</v>
+        <v>1003960.7539200002</v>
       </c>
     </row>
     <row r="7" spans="2:20" x14ac:dyDescent="0.25">
@@ -2686,26 +2686,26 @@
       </c>
       <c r="L7" s="177">
         <f>L6</f>
-        <v>362.15</v>
+        <v>386.1</v>
       </c>
       <c r="M7" s="177">
         <f>(L7+H7)*1.3228</f>
-        <v>518.73601999999994</v>
+        <v>550.41708000000006</v>
       </c>
       <c r="N7" s="167">
         <f>(E7*(M7+H7))</f>
-        <v>175595.52639999997</v>
+        <v>185733.46560000003</v>
       </c>
       <c r="O7" s="178">
         <v>5.7</v>
       </c>
       <c r="P7" s="167">
         <f t="shared" si="1"/>
-        <v>2956.795314</v>
+        <v>3137.3773560000004</v>
       </c>
       <c r="Q7" s="167">
         <f t="shared" si="2"/>
-        <v>946174.50047999993</v>
+        <v>1003960.7539200002</v>
       </c>
     </row>
     <row r="8" spans="2:20" x14ac:dyDescent="0.25">
@@ -2742,26 +2742,26 @@
       </c>
       <c r="L8" s="177">
         <f>L7</f>
-        <v>362.15</v>
+        <v>386.1</v>
       </c>
       <c r="M8" s="177">
         <f>(L8+H8)*1.3228</f>
-        <v>518.73601999999994</v>
+        <v>550.41708000000006</v>
       </c>
       <c r="N8" s="167">
         <f>(E8*(M8+H8))</f>
-        <v>175595.52639999997</v>
+        <v>185733.46560000003</v>
       </c>
       <c r="O8" s="178">
         <v>5.7</v>
       </c>
       <c r="P8" s="167">
         <f t="shared" si="1"/>
-        <v>2956.795314</v>
+        <v>3137.3773560000004</v>
       </c>
       <c r="Q8" s="167">
         <f t="shared" si="2"/>
-        <v>946174.50047999993</v>
+        <v>1003960.7539200002</v>
       </c>
     </row>
     <row r="9" spans="2:20" x14ac:dyDescent="0.25">
@@ -2798,26 +2798,26 @@
       </c>
       <c r="L9" s="177">
         <f>futuros!B3</f>
-        <v>362.15</v>
+        <v>386.1</v>
       </c>
       <c r="M9" s="177">
         <f>(L9+H9)*1.3228</f>
-        <v>518.73601999999994</v>
+        <v>550.41708000000006</v>
       </c>
       <c r="N9" s="167">
         <f>(E9*(M9+H9))</f>
-        <v>175595.52639999997</v>
+        <v>185733.46560000003</v>
       </c>
       <c r="O9" s="178">
         <v>5.7</v>
       </c>
       <c r="P9" s="167">
         <f t="shared" si="1"/>
-        <v>2956.795314</v>
+        <v>3137.3773560000004</v>
       </c>
       <c r="Q9" s="167">
         <f t="shared" si="2"/>
-        <v>946174.50047999993</v>
+        <v>1003960.7539200002</v>
       </c>
     </row>
     <row r="10" spans="2:20" x14ac:dyDescent="0.25">
@@ -2854,26 +2854,26 @@
       </c>
       <c r="L10" s="177">
         <f>futuros!B4</f>
-        <v>70.400000000000006</v>
+        <v>373.9</v>
       </c>
       <c r="M10" s="177">
         <f>(L10+H10)*1.3228</f>
-        <v>132.80912000000001</v>
+        <v>534.27891999999997</v>
       </c>
       <c r="N10" s="167">
         <f>(E10*(M10+H10))</f>
-        <v>52098.918400000002</v>
+        <v>180569.25439999998</v>
       </c>
       <c r="O10" s="178">
         <v>5.7</v>
       </c>
       <c r="P10" s="167">
         <f t="shared" si="1"/>
-        <v>757.0119840000001</v>
+        <v>3045.3898439999998</v>
       </c>
       <c r="Q10" s="167">
         <f t="shared" si="2"/>
-        <v>242243.83488000004</v>
+        <v>974524.75007999991</v>
       </c>
     </row>
     <row r="11" spans="2:20" x14ac:dyDescent="0.25">
@@ -2910,26 +2910,26 @@
       </c>
       <c r="L11" s="177">
         <f>futuros!B3</f>
-        <v>362.15</v>
+        <v>386.1</v>
       </c>
       <c r="M11" s="177">
         <f t="shared" ref="M11:M16" si="4">(L11+H11)*1.3228</f>
-        <v>516.09041999999999</v>
+        <v>547.77148</v>
       </c>
       <c r="N11" s="167">
         <f t="shared" ref="N11:N16" si="5">(E11*(M11+H11))</f>
-        <v>174108.9344</v>
+        <v>184246.87359999999</v>
       </c>
       <c r="O11" s="178">
         <v>5.7</v>
       </c>
       <c r="P11" s="167">
         <f t="shared" si="1"/>
-        <v>2941.7153940000003</v>
+        <v>3122.2974360000003</v>
       </c>
       <c r="Q11" s="167">
         <f t="shared" si="2"/>
-        <v>941348.92608000012</v>
+        <v>999135.17952000012</v>
       </c>
     </row>
     <row r="12" spans="2:20" x14ac:dyDescent="0.25">
@@ -2966,26 +2966,26 @@
       </c>
       <c r="L12" s="177">
         <f>futuros!B3</f>
-        <v>362.15</v>
+        <v>386.1</v>
       </c>
       <c r="M12" s="177">
         <f t="shared" si="4"/>
-        <v>516.09041999999999</v>
+        <v>547.77148</v>
       </c>
       <c r="N12" s="167">
         <f t="shared" si="5"/>
-        <v>174108.9344</v>
+        <v>184246.87359999999</v>
       </c>
       <c r="O12" s="178">
         <v>5.7</v>
       </c>
       <c r="P12" s="167">
         <f t="shared" si="1"/>
-        <v>2941.7153940000003</v>
+        <v>3122.2974360000003</v>
       </c>
       <c r="Q12" s="167">
         <f t="shared" si="2"/>
-        <v>941348.92608000012</v>
+        <v>999135.17952000012</v>
       </c>
     </row>
     <row r="13" spans="2:20" s="166" customFormat="1" x14ac:dyDescent="0.25">
@@ -3022,26 +3022,26 @@
       </c>
       <c r="L13" s="177">
         <f>futuros!B4</f>
-        <v>70.400000000000006</v>
+        <v>373.9</v>
       </c>
       <c r="M13" s="177">
         <f t="shared" si="4"/>
-        <v>130.16352000000001</v>
+        <v>531.63331999999991</v>
       </c>
       <c r="N13" s="167">
         <f t="shared" si="5"/>
-        <v>50612.326400000005</v>
+        <v>179082.66239999997</v>
       </c>
       <c r="O13" s="178">
         <v>5.7</v>
       </c>
       <c r="P13" s="167">
         <f t="shared" si="1"/>
-        <v>741.93206400000008</v>
+        <v>3030.3099239999997</v>
       </c>
       <c r="Q13" s="167">
         <f t="shared" si="2"/>
-        <v>237418.26048000003</v>
+        <v>969699.17567999987</v>
       </c>
       <c r="R13" s="163"/>
       <c r="S13" s="163"/>
@@ -3081,26 +3081,26 @@
       </c>
       <c r="L14" s="177">
         <f>futuros!B5</f>
-        <v>343.35</v>
+        <v>363.65</v>
       </c>
       <c r="M14" s="177">
         <f t="shared" si="4"/>
-        <v>491.22178000000002</v>
+        <v>518.07461999999998</v>
       </c>
       <c r="N14" s="167">
         <f t="shared" si="5"/>
-        <v>166150.96960000001</v>
+        <v>174743.87839999999</v>
       </c>
       <c r="O14" s="178">
         <v>5.7</v>
       </c>
       <c r="P14" s="167">
         <f t="shared" si="1"/>
-        <v>2799.9641460000003</v>
+        <v>2953.0253339999999</v>
       </c>
       <c r="Q14" s="167">
         <f t="shared" si="2"/>
-        <v>895988.52672000008</v>
+        <v>944968.10687999998</v>
       </c>
       <c r="R14" s="163"/>
       <c r="S14" s="163"/>
@@ -3140,26 +3140,26 @@
       </c>
       <c r="L15" s="177">
         <f>futuros!B4</f>
-        <v>70.400000000000006</v>
+        <v>373.9</v>
       </c>
       <c r="M15" s="177">
         <f t="shared" si="4"/>
-        <v>64.023520000000005</v>
+        <v>465.49331999999998</v>
       </c>
       <c r="N15" s="167">
         <f t="shared" si="5"/>
-        <v>13447.526400000002</v>
+        <v>141917.86239999998</v>
       </c>
       <c r="O15" s="178">
         <v>5.7</v>
       </c>
       <c r="P15" s="167">
         <f t="shared" si="1"/>
-        <v>364.93406400000003</v>
+        <v>2653.3119240000001</v>
       </c>
       <c r="Q15" s="167">
         <f t="shared" si="2"/>
-        <v>116778.90048000001</v>
+        <v>849059.81568</v>
       </c>
       <c r="R15" s="163"/>
       <c r="S15" s="163"/>
@@ -3199,26 +3199,26 @@
       </c>
       <c r="L16" s="177">
         <f>futuros!B3</f>
-        <v>362.15</v>
+        <v>386.1</v>
       </c>
       <c r="M16" s="177">
         <f t="shared" si="4"/>
-        <v>549.16041999999993</v>
+        <v>580.84148000000005</v>
       </c>
       <c r="N16" s="167">
         <f t="shared" si="5"/>
-        <v>192691.33439999999</v>
+        <v>202829.27360000001</v>
       </c>
       <c r="O16" s="178">
         <v>5.7</v>
       </c>
       <c r="P16" s="167">
         <f t="shared" si="1"/>
-        <v>3130.2143939999996</v>
+        <v>3310.7964360000005</v>
       </c>
       <c r="Q16" s="167">
         <f t="shared" si="2"/>
-        <v>1001668.6060799998</v>
+        <v>1059454.8595200002</v>
       </c>
       <c r="R16" s="163"/>
       <c r="S16" s="163"/>
@@ -3345,20 +3345,20 @@
       <c r="L19" s="179"/>
       <c r="M19" s="182">
         <f>N19/E19</f>
-        <v>447.17880571428566</v>
+        <v>550.96663857142858</v>
       </c>
       <c r="N19" s="183">
         <f>SUM(N5:N18)</f>
-        <v>2003361.0495999998</v>
+        <v>2468330.5408000001</v>
       </c>
       <c r="O19" s="184"/>
       <c r="P19" s="185">
         <f>Q19/E19</f>
-        <v>2429.6263354285711</v>
+        <v>3021.2169827142857</v>
       </c>
       <c r="Q19" s="183">
         <f>SUM(Q5:Q18)</f>
-        <v>10884725.982719999</v>
+        <v>13535052.082559999</v>
       </c>
     </row>
     <row r="20" spans="2:17" x14ac:dyDescent="0.25">
@@ -3481,7 +3481,7 @@
       </c>
       <c r="I25" s="177">
         <f>futuros!B3</f>
-        <v>362.15</v>
+        <v>386.1</v>
       </c>
       <c r="K25" s="163"/>
       <c r="L25" s="197">
@@ -3490,7 +3490,7 @@
       <c r="M25" s="163"/>
       <c r="N25" s="198">
         <f>(H25-I25)*1.3228*D25</f>
-        <v>-1215702.8612189998</v>
+        <v>-1374676.8362460001</v>
       </c>
       <c r="O25" s="178">
         <f>O5</f>
@@ -3498,7 +3498,7 @@
       </c>
       <c r="Q25" s="198">
         <f>N25*O25</f>
-        <v>-6929506.3089482989</v>
+        <v>-7835657.9666022006</v>
       </c>
     </row>
     <row r="26" spans="2:17" x14ac:dyDescent="0.25">
@@ -3523,7 +3523,7 @@
       </c>
       <c r="I26" s="177">
         <f>I25</f>
-        <v>362.15</v>
+        <v>386.1</v>
       </c>
       <c r="K26" s="163"/>
       <c r="L26" s="197">
@@ -3532,7 +3532,7 @@
       <c r="M26" s="163"/>
       <c r="N26" s="198">
         <f>(H26-I26)*1.3228*D26</f>
-        <v>-435897.29042999994</v>
+        <v>-498768.35400000005</v>
       </c>
       <c r="O26" s="178">
         <f>O6</f>
@@ -3540,7 +3540,7 @@
       </c>
       <c r="Q26" s="198">
         <f t="shared" ref="Q26:Q27" si="6">N26*O26</f>
-        <v>-2484614.5554509996</v>
+        <v>-2842979.6178000006</v>
       </c>
     </row>
     <row r="27" spans="2:17" x14ac:dyDescent="0.25">
@@ -3564,7 +3564,7 @@
       </c>
       <c r="I27" s="200">
         <f>I26</f>
-        <v>362.15</v>
+        <v>386.1</v>
       </c>
       <c r="K27" s="163"/>
       <c r="L27" s="197">
@@ -3573,7 +3573,7 @@
       <c r="M27" s="163"/>
       <c r="N27" s="198">
         <f>(H27-I27)*1.3228*D27</f>
-        <v>-556321.7218859999</v>
+        <v>-651526.4752920001</v>
       </c>
       <c r="O27" s="178">
         <f>O7</f>
@@ -3581,7 +3581,7 @@
       </c>
       <c r="Q27" s="198">
         <f t="shared" si="6"/>
-        <v>-3171033.8147501997</v>
+        <v>-3713700.9091644008</v>
       </c>
     </row>
     <row r="28" spans="2:17" x14ac:dyDescent="0.25">
@@ -3604,13 +3604,13 @@
       <c r="M28" s="202"/>
       <c r="N28" s="202">
         <f>SUM(N25:N27)</f>
-        <v>-2207921.8735349998</v>
+        <v>-2524971.6655380004</v>
       </c>
       <c r="O28" s="201"/>
       <c r="P28" s="201"/>
       <c r="Q28" s="202">
         <f>SUM(Q25:Q27)</f>
-        <v>-12585154.679149499</v>
+        <v>-14392338.493566602</v>
       </c>
     </row>
     <row r="29" spans="2:17" x14ac:dyDescent="0.25">
@@ -4294,7 +4294,7 @@
       </c>
       <c r="I57" s="177">
         <f>futuros!B8</f>
-        <v>309.75</v>
+        <v>326.35000000000002</v>
       </c>
       <c r="K57" s="178">
         <f>O8</f>
@@ -4306,7 +4306,7 @@
       <c r="M57" s="198"/>
       <c r="N57" s="198">
         <f>(H57-I57)*1.3228*D57</f>
-        <v>-30207.36158999996</v>
+        <v>-86234.423310000027</v>
       </c>
       <c r="O57" s="166">
         <f>O25</f>
@@ -4314,7 +4314,7 @@
       </c>
       <c r="Q57" s="198">
         <f>N57*O57</f>
-        <v>-172181.96106299979</v>
+        <v>-491536.2128670002</v>
       </c>
     </row>
     <row r="58" spans="2:17" x14ac:dyDescent="0.25">
@@ -4338,7 +4338,7 @@
       </c>
       <c r="I58" s="177">
         <f>I57</f>
-        <v>309.75</v>
+        <v>326.35000000000002</v>
       </c>
       <c r="K58" s="178">
         <f>O9</f>
@@ -4350,7 +4350,7 @@
       <c r="M58" s="198"/>
       <c r="N58" s="198">
         <f>(H58-I58)*1.3228*D58</f>
-        <v>37951.396559999936</v>
+        <v>-11850.436080000138</v>
       </c>
       <c r="O58" s="166">
         <f>O26</f>
@@ -4358,7 +4358,7 @@
       </c>
       <c r="Q58" s="198">
         <f>N58*O58</f>
-        <v>216322.96039199963</v>
+        <v>-67547.48565600079</v>
       </c>
     </row>
     <row r="59" spans="2:17" x14ac:dyDescent="0.25">
@@ -4381,13 +4381,13 @@
       <c r="M59" s="201"/>
       <c r="N59" s="202">
         <f>SUM(N56:N58)</f>
-        <v>7744.0349699999751</v>
+        <v>-98084.859390000172</v>
       </c>
       <c r="O59" s="201"/>
       <c r="P59" s="201"/>
       <c r="Q59" s="202">
         <f>SUM(Q56:Q58)</f>
-        <v>44140.999328999838</v>
+        <v>-559083.69852300105</v>
       </c>
     </row>
     <row r="64" spans="2:17" x14ac:dyDescent="0.25">
@@ -4527,9 +4527,9 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:T70"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A53" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E46" sqref="E46:E66"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A30" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E64" sqref="E64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0.2"/>
@@ -8032,7 +8032,7 @@
         <v>270</v>
       </c>
       <c r="D1" s="162">
-        <v>45890</v>
+        <v>45901</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -8040,11 +8040,11 @@
         <v>45930</v>
       </c>
       <c r="B2" s="155">
-        <v>372.45</v>
+        <v>396.85</v>
       </c>
       <c r="C2" s="155">
         <f t="shared" ref="C2:C12" si="0">B2*1.3228</f>
-        <v>492.67685999999998</v>
+        <v>524.95317999999997</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -8052,11 +8052,11 @@
         <v>46021</v>
       </c>
       <c r="B3" s="155">
-        <v>362.15</v>
+        <v>386.1</v>
       </c>
       <c r="C3" s="155">
         <f t="shared" si="0"/>
-        <v>479.05201999999997</v>
+        <v>510.73308000000003</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
@@ -8064,11 +8064,11 @@
         <v>46112</v>
       </c>
       <c r="B4" s="155">
-        <v>70.400000000000006</v>
+        <v>373.9</v>
       </c>
       <c r="C4" s="155">
         <f t="shared" si="0"/>
-        <v>93.12512000000001</v>
+        <v>494.59491999999995</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
@@ -8076,11 +8076,11 @@
         <v>46173</v>
       </c>
       <c r="B5" s="155">
-        <v>343.35</v>
+        <v>363.65</v>
       </c>
       <c r="C5" s="155">
         <f t="shared" si="0"/>
-        <v>454.18338</v>
+        <v>481.03621999999996</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
@@ -8088,11 +8088,11 @@
         <v>46231</v>
       </c>
       <c r="B6" s="155">
-        <v>333.4</v>
+        <v>352.2</v>
       </c>
       <c r="C6" s="155">
         <f t="shared" si="0"/>
-        <v>441.02151999999995</v>
+        <v>465.89015999999998</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
@@ -8100,11 +8100,11 @@
         <v>46295</v>
       </c>
       <c r="B7" s="155">
-        <v>320.55</v>
+        <v>338.6</v>
       </c>
       <c r="C7" s="155">
         <f t="shared" si="0"/>
-        <v>424.02354000000003</v>
+        <v>447.90008</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
@@ -8112,11 +8112,11 @@
         <v>46386</v>
       </c>
       <c r="B8" s="155">
-        <v>309.75</v>
+        <v>326.35000000000002</v>
       </c>
       <c r="C8" s="155">
         <f t="shared" si="0"/>
-        <v>409.7373</v>
+        <v>431.69578000000001</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
@@ -8124,11 +8124,11 @@
         <v>46477</v>
       </c>
       <c r="B9" s="155">
-        <v>302.3</v>
+        <v>317.64999999999998</v>
       </c>
       <c r="C9" s="155">
         <f t="shared" si="0"/>
-        <v>399.88244000000003</v>
+        <v>420.18741999999997</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
@@ -8136,11 +8136,11 @@
         <v>46538</v>
       </c>
       <c r="B10" s="155">
-        <v>295.89999999999998</v>
+        <v>310.55</v>
       </c>
       <c r="C10" s="155">
         <f t="shared" si="0"/>
-        <v>391.41651999999993</v>
+        <v>410.79554000000002</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
@@ -8148,11 +8148,11 @@
         <v>46596</v>
       </c>
       <c r="B11" s="155">
-        <v>290.35000000000002</v>
+        <v>304.14999999999998</v>
       </c>
       <c r="C11" s="155">
         <f t="shared" si="0"/>
-        <v>384.07498000000004</v>
+        <v>402.32961999999998</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
@@ -8160,11 +8160,11 @@
         <v>46660</v>
       </c>
       <c r="B12" s="155">
-        <v>284.2</v>
+        <v>297.35000000000002</v>
       </c>
       <c r="C12" s="155">
         <f t="shared" si="0"/>
-        <v>375.93975999999998</v>
+        <v>393.33458000000002</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
@@ -8172,11 +8172,11 @@
         <v>46751</v>
       </c>
       <c r="B13" s="155">
-        <v>279.39999999999998</v>
+        <v>291.64999999999998</v>
       </c>
       <c r="C13" s="155">
         <f>B13*1.3228</f>
-        <v>369.59031999999996</v>
+        <v>385.79461999999995</v>
       </c>
     </row>
   </sheetData>
@@ -8189,8 +8189,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{435A83C4-FEBA-7F44-BF8C-E9ADE9845E60}">
   <dimension ref="A1:N28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D25" sqref="D25:D28"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A15" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="L16" sqref="L16:L28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -8918,7 +8919,7 @@
       </c>
       <c r="H16" s="155">
         <f>futuros!B3</f>
-        <v>362.15</v>
+        <v>386.1</v>
       </c>
       <c r="I16" s="2"/>
       <c r="J16" s="162">
@@ -8927,7 +8928,7 @@
       <c r="K16" s="162"/>
       <c r="L16" s="215">
         <f t="shared" si="2"/>
-        <v>-1215702.8612189998</v>
+        <v>-1374676.8362460001</v>
       </c>
       <c r="M16" s="160"/>
       <c r="N16" s="215"/>
@@ -8956,7 +8957,7 @@
       </c>
       <c r="H17" s="155">
         <f>futuros!B3</f>
-        <v>362.15</v>
+        <v>386.1</v>
       </c>
       <c r="I17" s="2"/>
       <c r="J17" s="162">
@@ -8965,7 +8966,7 @@
       <c r="K17" s="162"/>
       <c r="L17" s="215">
         <f t="shared" si="2"/>
-        <v>-435897.29042999994</v>
+        <v>-498768.35400000005</v>
       </c>
       <c r="M17" s="160"/>
       <c r="N17" s="215"/>
@@ -8996,7 +8997,7 @@
       </c>
       <c r="H18" s="155">
         <f>futuros!B3</f>
-        <v>362.15</v>
+        <v>386.1</v>
       </c>
       <c r="I18" s="2"/>
       <c r="J18" s="162">
@@ -9005,7 +9006,7 @@
       <c r="K18" s="162"/>
       <c r="L18" s="215">
         <f t="shared" si="2"/>
-        <v>-84396.855689999938</v>
+        <v>-147267.91926000005</v>
       </c>
       <c r="M18" s="160"/>
       <c r="N18" s="215"/>
@@ -9034,7 +9035,7 @@
       </c>
       <c r="H19" s="217">
         <f>futuros!B3</f>
-        <v>362.15</v>
+        <v>386.1</v>
       </c>
       <c r="I19" s="208"/>
       <c r="J19" s="219">
@@ -9043,7 +9044,7 @@
       <c r="K19" s="219"/>
       <c r="L19" s="220">
         <f t="shared" si="2"/>
-        <v>-293905.81533599994</v>
+        <v>-344202.66619200003</v>
       </c>
       <c r="M19" s="218"/>
       <c r="N19" s="220"/>
@@ -9074,7 +9075,7 @@
       </c>
       <c r="H20" s="155">
         <f>futuros!B4</f>
-        <v>70.400000000000006</v>
+        <v>373.9</v>
       </c>
       <c r="I20" s="2"/>
       <c r="J20" s="162">
@@ -9083,7 +9084,7 @@
       <c r="K20" s="162"/>
       <c r="L20" s="215">
         <f t="shared" si="2"/>
-        <v>668349.59435999999</v>
+        <v>-128367.22373999994</v>
       </c>
       <c r="M20" s="160"/>
       <c r="N20" s="215"/>
@@ -9112,7 +9113,7 @@
       </c>
       <c r="H21" s="155">
         <f>futuros!B8</f>
-        <v>309.75</v>
+        <v>326.35000000000002</v>
       </c>
       <c r="I21" s="2"/>
       <c r="J21" s="162">
@@ -9121,7 +9122,7 @@
       <c r="K21" s="162"/>
       <c r="L21" s="215">
         <f t="shared" si="2"/>
-        <v>-30207.36158999996</v>
+        <v>-86234.423310000027</v>
       </c>
       <c r="M21" s="160"/>
       <c r="N21" s="215"/>
@@ -9149,7 +9150,7 @@
       </c>
       <c r="H22" s="155">
         <f>futuros!B8</f>
-        <v>309.75</v>
+        <v>326.35000000000002</v>
       </c>
       <c r="I22" s="2"/>
       <c r="J22" s="162">
@@ -9158,7 +9159,7 @@
       <c r="K22" s="162"/>
       <c r="L22" s="215">
         <f t="shared" si="2"/>
-        <v>37951.396559999936</v>
+        <v>-11850.436080000138</v>
       </c>
       <c r="M22" s="160"/>
       <c r="N22" s="215"/>
@@ -9186,7 +9187,7 @@
       </c>
       <c r="H23" s="155">
         <f>futuros!B8</f>
-        <v>309.75</v>
+        <v>326.35000000000002</v>
       </c>
       <c r="I23" s="2"/>
       <c r="J23" s="162">
@@ -9195,7 +9196,7 @@
       <c r="K23" s="162"/>
       <c r="L23" s="215">
         <f t="shared" si="2"/>
-        <v>-7650.2815200000341</v>
+        <v>-57452.114160000099</v>
       </c>
       <c r="M23" s="160"/>
       <c r="N23" s="215"/>
@@ -9224,7 +9225,7 @@
       </c>
       <c r="H24" s="217">
         <f>futuros!B8</f>
-        <v>309.75</v>
+        <v>326.35000000000002</v>
       </c>
       <c r="I24" s="208"/>
       <c r="J24" s="219">
@@ -9233,7 +9234,7 @@
       <c r="K24" s="219"/>
       <c r="L24" s="220">
         <f t="shared" si="2"/>
-        <v>-228383.40419999999</v>
+        <v>-402689.81844000024</v>
       </c>
       <c r="M24" s="218"/>
       <c r="N24" s="220"/>
@@ -9262,7 +9263,7 @@
       </c>
       <c r="H25" s="155">
         <f>futuros!B13</f>
-        <v>279.39999999999998</v>
+        <v>291.64999999999998</v>
       </c>
       <c r="I25" s="2"/>
       <c r="J25" s="162">
@@ -9271,7 +9272,7 @@
       <c r="K25" s="162"/>
       <c r="L25" s="215">
         <f t="shared" si="2"/>
-        <v>-125404.61471999991</v>
+        <v>-175937.72426999992</v>
       </c>
       <c r="M25" s="160"/>
       <c r="N25" s="215"/>
@@ -9297,7 +9298,7 @@
       </c>
       <c r="H26" s="155">
         <f>futuros!B13</f>
-        <v>279.39999999999998</v>
+        <v>291.64999999999998</v>
       </c>
       <c r="I26" s="2"/>
       <c r="J26" s="162">
@@ -9306,7 +9307,7 @@
       <c r="K26" s="162"/>
       <c r="L26" s="215">
         <f t="shared" ref="L26" si="8">D26*(G26-H26)*1.3228</f>
-        <v>-133204.90175999995</v>
+        <v>-169956.25415999992</v>
       </c>
       <c r="M26" s="160"/>
       <c r="N26" s="215"/>
@@ -9332,7 +9333,7 @@
       </c>
       <c r="H27" s="155">
         <f>futuros!B13</f>
-        <v>279.39999999999998</v>
+        <v>291.64999999999998</v>
       </c>
       <c r="I27" s="2"/>
       <c r="J27" s="162">
@@ -9341,7 +9342,7 @@
       <c r="K27" s="162"/>
       <c r="L27" s="215">
         <f t="shared" ref="L27" si="10">D27*(G27-H27)*1.3228</f>
-        <v>-53251.959599999958</v>
+        <v>-76221.554849999957</v>
       </c>
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.2">
@@ -9365,7 +9366,7 @@
       </c>
       <c r="H28" s="155">
         <f>futuros!B13</f>
-        <v>279.39999999999998</v>
+        <v>291.64999999999998</v>
       </c>
       <c r="I28" s="2"/>
       <c r="J28" s="162">
@@ -9374,7 +9375,7 @@
       <c r="K28" s="162"/>
       <c r="L28" s="215">
         <f t="shared" ref="L28" si="12">D28*(G28-H28)*1.3228</f>
-        <v>-30751.131599999957</v>
+        <v>-53720.726849999963</v>
       </c>
     </row>
   </sheetData>

--- a/vendas_cafe_em_reais.xlsx
+++ b/vendas_cafe_em_reais.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rotocastro/PycharmProjects/Vendas Cafe/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD6745CE-9AC1-564C-8456-6280606F25EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B83F93CE-704F-974E-A6CA-60BE15191B06}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4440" yWindow="940" windowWidth="24960" windowHeight="16700" activeTab="1" xr2:uid="{AC82ADC5-E628-F847-8939-89BAF5623AE6}"/>
   </bookViews>
@@ -4528,8 +4528,8 @@
   <dimension ref="A1:T70"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A30" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E64" sqref="E64"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E65" sqref="E65:E67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0.2"/>
@@ -7873,8 +7873,8 @@
         <v>331</v>
       </c>
       <c r="E68" s="2">
-        <f>7000-4800-E69-E70</f>
-        <v>1686.5</v>
+        <f>5600-4800-E69-E70</f>
+        <v>286.5</v>
       </c>
       <c r="F68" s="2" t="s">
         <v>32</v>
@@ -7903,7 +7903,7 @@
       </c>
       <c r="N68" s="3">
         <f>M68*E68</f>
-        <v>725043.21499999997</v>
+        <v>123169.215</v>
       </c>
     </row>
     <row r="69" spans="1:17" x14ac:dyDescent="0.2">

--- a/vendas_cafe_em_reais.xlsx
+++ b/vendas_cafe_em_reais.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rotocastro/PycharmProjects/Vendas Cafe/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B83F93CE-704F-974E-A6CA-60BE15191B06}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54081BE0-CFD2-C545-9BB8-E56EA28ADED3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4440" yWindow="940" windowWidth="24960" windowHeight="16700" activeTab="1" xr2:uid="{AC82ADC5-E628-F847-8939-89BAF5623AE6}"/>
   </bookViews>
@@ -4529,7 +4529,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E65" sqref="E65:E67"/>
+      <selection pane="bottomLeft" activeCell="G72" sqref="G72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0.2"/>
@@ -7831,8 +7831,8 @@
         <v>331</v>
       </c>
       <c r="E67" s="2">
-        <f>3000-E66-E65</f>
-        <v>2968</v>
+        <f>2400-E66-E65</f>
+        <v>2368</v>
       </c>
       <c r="F67" s="2" t="s">
         <v>32</v>
@@ -7859,7 +7859,7 @@
       </c>
       <c r="Q67" s="3">
         <f>E67*P67</f>
-        <v>4748800</v>
+        <v>3788800</v>
       </c>
     </row>
     <row r="68" spans="1:17" x14ac:dyDescent="0.2">
@@ -7873,7 +7873,7 @@
         <v>331</v>
       </c>
       <c r="E68" s="2">
-        <f>5600-4800-E69-E70</f>
+        <f>0.7*8000-4800-E69-E70</f>
         <v>286.5</v>
       </c>
       <c r="F68" s="2" t="s">
@@ -8190,8 +8190,8 @@
   <dimension ref="A1:N28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A15" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L16" sqref="L16:L28"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="L16" sqref="L16:L19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/vendas_cafe_em_reais.xlsx
+++ b/vendas_cafe_em_reais.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rotocastro/PycharmProjects/Vendas Cafe/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54081BE0-CFD2-C545-9BB8-E56EA28ADED3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42019A95-C7FA-5F4F-9F57-BE3C4703570A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4440" yWindow="940" windowWidth="24960" windowHeight="16700" activeTab="1" xr2:uid="{AC82ADC5-E628-F847-8939-89BAF5623AE6}"/>
+    <workbookView xWindow="33240" yWindow="-5680" windowWidth="24060" windowHeight="14420" activeTab="2" xr2:uid="{AC82ADC5-E628-F847-8939-89BAF5623AE6}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2 (2)" sheetId="16" state="hidden" r:id="rId1"/>
@@ -24,7 +24,7 @@
     <sheet name="CashFlow_Edson_Luiz" sheetId="3" state="hidden" r:id="rId9"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Sheet2!$A$1:$Q$70</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Sheet2!$A$1:$Q$71</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">'VENDA CAFÉ 220125'!$A$3:$Z$61</definedName>
     <definedName name="LITRAGEM" localSheetId="7">#REF!</definedName>
     <definedName name="LITRAGEM" localSheetId="5">#REF!</definedName>
@@ -70,7 +70,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="952" uniqueCount="353">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="957" uniqueCount="354">
   <si>
     <t>026/24</t>
   </si>
@@ -1129,6 +1129,9 @@
   </si>
   <si>
     <t>070/25</t>
+  </si>
+  <si>
+    <t>071/25</t>
   </si>
 </sst>
 </file>
@@ -2630,26 +2633,26 @@
       </c>
       <c r="L6" s="177">
         <f>futuros!B3</f>
-        <v>386.1</v>
+        <v>373.3</v>
       </c>
       <c r="M6" s="177">
         <f>(L6+H6)*1.3228</f>
-        <v>550.41708000000006</v>
+        <v>533.48523999999998</v>
       </c>
       <c r="N6" s="167">
         <f>(E6*(M6+H6))</f>
-        <v>185733.46560000003</v>
+        <v>180315.27679999999</v>
       </c>
       <c r="O6" s="178">
         <v>5.7</v>
       </c>
       <c r="P6" s="167">
         <f t="shared" ref="P6:P16" si="1">M6*O6</f>
-        <v>3137.3773560000004</v>
+        <v>3040.8658679999999</v>
       </c>
       <c r="Q6" s="167">
         <f t="shared" ref="Q6:Q16" si="2">P6*E6</f>
-        <v>1003960.7539200002</v>
+        <v>973077.07776000001</v>
       </c>
     </row>
     <row r="7" spans="2:20" x14ac:dyDescent="0.25">
@@ -2686,26 +2689,26 @@
       </c>
       <c r="L7" s="177">
         <f>L6</f>
-        <v>386.1</v>
+        <v>373.3</v>
       </c>
       <c r="M7" s="177">
         <f>(L7+H7)*1.3228</f>
-        <v>550.41708000000006</v>
+        <v>533.48523999999998</v>
       </c>
       <c r="N7" s="167">
         <f>(E7*(M7+H7))</f>
-        <v>185733.46560000003</v>
+        <v>180315.27679999999</v>
       </c>
       <c r="O7" s="178">
         <v>5.7</v>
       </c>
       <c r="P7" s="167">
         <f t="shared" si="1"/>
-        <v>3137.3773560000004</v>
+        <v>3040.8658679999999</v>
       </c>
       <c r="Q7" s="167">
         <f t="shared" si="2"/>
-        <v>1003960.7539200002</v>
+        <v>973077.07776000001</v>
       </c>
     </row>
     <row r="8" spans="2:20" x14ac:dyDescent="0.25">
@@ -2742,26 +2745,26 @@
       </c>
       <c r="L8" s="177">
         <f>L7</f>
-        <v>386.1</v>
+        <v>373.3</v>
       </c>
       <c r="M8" s="177">
         <f>(L8+H8)*1.3228</f>
-        <v>550.41708000000006</v>
+        <v>533.48523999999998</v>
       </c>
       <c r="N8" s="167">
         <f>(E8*(M8+H8))</f>
-        <v>185733.46560000003</v>
+        <v>180315.27679999999</v>
       </c>
       <c r="O8" s="178">
         <v>5.7</v>
       </c>
       <c r="P8" s="167">
         <f t="shared" si="1"/>
-        <v>3137.3773560000004</v>
+        <v>3040.8658679999999</v>
       </c>
       <c r="Q8" s="167">
         <f t="shared" si="2"/>
-        <v>1003960.7539200002</v>
+        <v>973077.07776000001</v>
       </c>
     </row>
     <row r="9" spans="2:20" x14ac:dyDescent="0.25">
@@ -2798,26 +2801,26 @@
       </c>
       <c r="L9" s="177">
         <f>futuros!B3</f>
-        <v>386.1</v>
+        <v>373.3</v>
       </c>
       <c r="M9" s="177">
         <f>(L9+H9)*1.3228</f>
-        <v>550.41708000000006</v>
+        <v>533.48523999999998</v>
       </c>
       <c r="N9" s="167">
         <f>(E9*(M9+H9))</f>
-        <v>185733.46560000003</v>
+        <v>180315.27679999999</v>
       </c>
       <c r="O9" s="178">
         <v>5.7</v>
       </c>
       <c r="P9" s="167">
         <f t="shared" si="1"/>
-        <v>3137.3773560000004</v>
+        <v>3040.8658679999999</v>
       </c>
       <c r="Q9" s="167">
         <f t="shared" si="2"/>
-        <v>1003960.7539200002</v>
+        <v>973077.07776000001</v>
       </c>
     </row>
     <row r="10" spans="2:20" x14ac:dyDescent="0.25">
@@ -2854,26 +2857,26 @@
       </c>
       <c r="L10" s="177">
         <f>futuros!B4</f>
-        <v>373.9</v>
+        <v>361.1</v>
       </c>
       <c r="M10" s="177">
         <f>(L10+H10)*1.3228</f>
-        <v>534.27891999999997</v>
+        <v>517.34708000000001</v>
       </c>
       <c r="N10" s="167">
         <f>(E10*(M10+H10))</f>
-        <v>180569.25439999998</v>
+        <v>175151.0656</v>
       </c>
       <c r="O10" s="178">
         <v>5.7</v>
       </c>
       <c r="P10" s="167">
         <f t="shared" si="1"/>
-        <v>3045.3898439999998</v>
+        <v>2948.8783560000002</v>
       </c>
       <c r="Q10" s="167">
         <f t="shared" si="2"/>
-        <v>974524.75007999991</v>
+        <v>943641.07392000011</v>
       </c>
     </row>
     <row r="11" spans="2:20" x14ac:dyDescent="0.25">
@@ -2910,26 +2913,26 @@
       </c>
       <c r="L11" s="177">
         <f>futuros!B3</f>
-        <v>386.1</v>
+        <v>373.3</v>
       </c>
       <c r="M11" s="177">
         <f t="shared" ref="M11:M16" si="4">(L11+H11)*1.3228</f>
-        <v>547.77148</v>
+        <v>530.83964000000003</v>
       </c>
       <c r="N11" s="167">
         <f t="shared" ref="N11:N16" si="5">(E11*(M11+H11))</f>
-        <v>184246.87359999999</v>
+        <v>178828.68480000002</v>
       </c>
       <c r="O11" s="178">
         <v>5.7</v>
       </c>
       <c r="P11" s="167">
         <f t="shared" si="1"/>
-        <v>3122.2974360000003</v>
+        <v>3025.7859480000002</v>
       </c>
       <c r="Q11" s="167">
         <f t="shared" si="2"/>
-        <v>999135.17952000012</v>
+        <v>968251.50336000009</v>
       </c>
     </row>
     <row r="12" spans="2:20" x14ac:dyDescent="0.25">
@@ -2966,26 +2969,26 @@
       </c>
       <c r="L12" s="177">
         <f>futuros!B3</f>
-        <v>386.1</v>
+        <v>373.3</v>
       </c>
       <c r="M12" s="177">
         <f t="shared" si="4"/>
-        <v>547.77148</v>
+        <v>530.83964000000003</v>
       </c>
       <c r="N12" s="167">
         <f t="shared" si="5"/>
-        <v>184246.87359999999</v>
+        <v>178828.68480000002</v>
       </c>
       <c r="O12" s="178">
         <v>5.7</v>
       </c>
       <c r="P12" s="167">
         <f t="shared" si="1"/>
-        <v>3122.2974360000003</v>
+        <v>3025.7859480000002</v>
       </c>
       <c r="Q12" s="167">
         <f t="shared" si="2"/>
-        <v>999135.17952000012</v>
+        <v>968251.50336000009</v>
       </c>
     </row>
     <row r="13" spans="2:20" s="166" customFormat="1" x14ac:dyDescent="0.25">
@@ -3022,26 +3025,26 @@
       </c>
       <c r="L13" s="177">
         <f>futuros!B4</f>
-        <v>373.9</v>
+        <v>361.1</v>
       </c>
       <c r="M13" s="177">
         <f t="shared" si="4"/>
-        <v>531.63331999999991</v>
+        <v>514.70148000000006</v>
       </c>
       <c r="N13" s="167">
         <f t="shared" si="5"/>
-        <v>179082.66239999997</v>
+        <v>173664.47360000003</v>
       </c>
       <c r="O13" s="178">
         <v>5.7</v>
       </c>
       <c r="P13" s="167">
         <f t="shared" si="1"/>
-        <v>3030.3099239999997</v>
+        <v>2933.7984360000005</v>
       </c>
       <c r="Q13" s="167">
         <f t="shared" si="2"/>
-        <v>969699.17567999987</v>
+        <v>938815.49952000019</v>
       </c>
       <c r="R13" s="163"/>
       <c r="S13" s="163"/>
@@ -3081,26 +3084,26 @@
       </c>
       <c r="L14" s="177">
         <f>futuros!B5</f>
-        <v>363.65</v>
+        <v>350.45</v>
       </c>
       <c r="M14" s="177">
         <f t="shared" si="4"/>
-        <v>518.07461999999998</v>
+        <v>500.61365999999998</v>
       </c>
       <c r="N14" s="167">
         <f t="shared" si="5"/>
-        <v>174743.87839999999</v>
+        <v>169156.37119999999</v>
       </c>
       <c r="O14" s="178">
         <v>5.7</v>
       </c>
       <c r="P14" s="167">
         <f t="shared" si="1"/>
-        <v>2953.0253339999999</v>
+        <v>2853.4978620000002</v>
       </c>
       <c r="Q14" s="167">
         <f t="shared" si="2"/>
-        <v>944968.10687999998</v>
+        <v>913119.31584000005</v>
       </c>
       <c r="R14" s="163"/>
       <c r="S14" s="163"/>
@@ -3140,26 +3143,26 @@
       </c>
       <c r="L15" s="177">
         <f>futuros!B4</f>
-        <v>373.9</v>
+        <v>361.1</v>
       </c>
       <c r="M15" s="177">
         <f t="shared" si="4"/>
-        <v>465.49331999999998</v>
+        <v>448.56148000000002</v>
       </c>
       <c r="N15" s="167">
         <f t="shared" si="5"/>
-        <v>141917.86239999998</v>
+        <v>136499.67360000001</v>
       </c>
       <c r="O15" s="178">
         <v>5.7</v>
       </c>
       <c r="P15" s="167">
         <f t="shared" si="1"/>
-        <v>2653.3119240000001</v>
+        <v>2556.800436</v>
       </c>
       <c r="Q15" s="167">
         <f t="shared" si="2"/>
-        <v>849059.81568</v>
+        <v>818176.13951999997</v>
       </c>
       <c r="R15" s="163"/>
       <c r="S15" s="163"/>
@@ -3199,26 +3202,26 @@
       </c>
       <c r="L16" s="177">
         <f>futuros!B3</f>
-        <v>386.1</v>
+        <v>373.3</v>
       </c>
       <c r="M16" s="177">
         <f t="shared" si="4"/>
-        <v>580.84148000000005</v>
+        <v>563.90963999999997</v>
       </c>
       <c r="N16" s="167">
         <f t="shared" si="5"/>
-        <v>202829.27360000001</v>
+        <v>197411.08479999998</v>
       </c>
       <c r="O16" s="178">
         <v>5.7</v>
       </c>
       <c r="P16" s="167">
         <f t="shared" si="1"/>
-        <v>3310.7964360000005</v>
+        <v>3214.284948</v>
       </c>
       <c r="Q16" s="167">
         <f t="shared" si="2"/>
-        <v>1059454.8595200002</v>
+        <v>1028571.18336</v>
       </c>
       <c r="R16" s="163"/>
       <c r="S16" s="163"/>
@@ -3345,20 +3348,20 @@
       <c r="L19" s="179"/>
       <c r="M19" s="182">
         <f>N19/E19</f>
-        <v>550.96663857142858</v>
+        <v>537.62525571428569</v>
       </c>
       <c r="N19" s="183">
         <f>SUM(N5:N18)</f>
-        <v>2468330.5408000001</v>
+        <v>2408561.1455999999</v>
       </c>
       <c r="O19" s="184"/>
       <c r="P19" s="185">
         <f>Q19/E19</f>
-        <v>3021.2169827142857</v>
+        <v>2945.1711004285721</v>
       </c>
       <c r="Q19" s="183">
         <f>SUM(Q5:Q18)</f>
-        <v>13535052.082559999</v>
+        <v>13194366.529920002</v>
       </c>
     </row>
     <row r="20" spans="2:17" x14ac:dyDescent="0.25">
@@ -3481,7 +3484,7 @@
       </c>
       <c r="I25" s="177">
         <f>futuros!B3</f>
-        <v>386.1</v>
+        <v>373.3</v>
       </c>
       <c r="K25" s="163"/>
       <c r="L25" s="197">
@@ -3490,7 +3493,7 @@
       <c r="M25" s="163"/>
       <c r="N25" s="198">
         <f>(H25-I25)*1.3228*D25</f>
-        <v>-1374676.8362460001</v>
+        <v>-1289713.7097179999</v>
       </c>
       <c r="O25" s="178">
         <f>O5</f>
@@ -3498,7 +3501,7 @@
       </c>
       <c r="Q25" s="198">
         <f>N25*O25</f>
-        <v>-7835657.9666022006</v>
+        <v>-7351368.1453925995</v>
       </c>
     </row>
     <row r="26" spans="2:17" x14ac:dyDescent="0.25">
@@ -3523,7 +3526,7 @@
       </c>
       <c r="I26" s="177">
         <f>I25</f>
-        <v>386.1</v>
+        <v>373.3</v>
       </c>
       <c r="K26" s="163"/>
       <c r="L26" s="197">
@@ -3532,7 +3535,7 @@
       <c r="M26" s="163"/>
       <c r="N26" s="198">
         <f>(H26-I26)*1.3228*D26</f>
-        <v>-498768.35400000005</v>
+        <v>-465167.11752000003</v>
       </c>
       <c r="O26" s="178">
         <f>O6</f>
@@ -3540,7 +3543,7 @@
       </c>
       <c r="Q26" s="198">
         <f t="shared" ref="Q26:Q27" si="6">N26*O26</f>
-        <v>-2842979.6178000006</v>
+        <v>-2651452.5698640002</v>
       </c>
     </row>
     <row r="27" spans="2:17" x14ac:dyDescent="0.25">
@@ -3564,7 +3567,7 @@
       </c>
       <c r="I27" s="200">
         <f>I26</f>
-        <v>386.1</v>
+        <v>373.3</v>
       </c>
       <c r="K27" s="163"/>
       <c r="L27" s="197">
@@ -3573,7 +3576,7 @@
       <c r="M27" s="163"/>
       <c r="N27" s="198">
         <f>(H27-I27)*1.3228*D27</f>
-        <v>-651526.4752920001</v>
+        <v>-600644.602908</v>
       </c>
       <c r="O27" s="178">
         <f>O7</f>
@@ -3581,7 +3584,7 @@
       </c>
       <c r="Q27" s="198">
         <f t="shared" si="6"/>
-        <v>-3713700.9091644008</v>
+        <v>-3423674.2365756002</v>
       </c>
     </row>
     <row r="28" spans="2:17" x14ac:dyDescent="0.25">
@@ -3604,13 +3607,13 @@
       <c r="M28" s="202"/>
       <c r="N28" s="202">
         <f>SUM(N25:N27)</f>
-        <v>-2524971.6655380004</v>
+        <v>-2355525.4301459999</v>
       </c>
       <c r="O28" s="201"/>
       <c r="P28" s="201"/>
       <c r="Q28" s="202">
         <f>SUM(Q25:Q27)</f>
-        <v>-14392338.493566602</v>
+        <v>-13426494.951832199</v>
       </c>
     </row>
     <row r="29" spans="2:17" x14ac:dyDescent="0.25">
@@ -4294,7 +4297,7 @@
       </c>
       <c r="I57" s="177">
         <f>futuros!B8</f>
-        <v>326.35000000000002</v>
+        <v>312.2</v>
       </c>
       <c r="K57" s="178">
         <f>O8</f>
@@ -4306,7 +4309,7 @@
       <c r="M57" s="198"/>
       <c r="N57" s="198">
         <f>(H57-I57)*1.3228*D57</f>
-        <v>-86234.423310000027</v>
+        <v>-38476.41587999992</v>
       </c>
       <c r="O57" s="166">
         <f>O25</f>
@@ -4314,7 +4317,7 @@
       </c>
       <c r="Q57" s="198">
         <f>N57*O57</f>
-        <v>-491536.2128670002</v>
+        <v>-219315.57051599954</v>
       </c>
     </row>
     <row r="58" spans="2:17" x14ac:dyDescent="0.25">
@@ -4338,7 +4341,7 @@
       </c>
       <c r="I58" s="177">
         <f>I57</f>
-        <v>326.35000000000002</v>
+        <v>312.2</v>
       </c>
       <c r="K58" s="178">
         <f>O9</f>
@@ -4350,7 +4353,7 @@
       <c r="M58" s="198"/>
       <c r="N58" s="198">
         <f>(H58-I58)*1.3228*D58</f>
-        <v>-11850.436080000138</v>
+        <v>30601.126079999965</v>
       </c>
       <c r="O58" s="166">
         <f>O26</f>
@@ -4358,7 +4361,7 @@
       </c>
       <c r="Q58" s="198">
         <f>N58*O58</f>
-        <v>-67547.48565600079</v>
+        <v>174426.41865599982</v>
       </c>
     </row>
     <row r="59" spans="2:17" x14ac:dyDescent="0.25">
@@ -4381,13 +4384,13 @@
       <c r="M59" s="201"/>
       <c r="N59" s="202">
         <f>SUM(N56:N58)</f>
-        <v>-98084.859390000172</v>
+        <v>-7875.289799999955</v>
       </c>
       <c r="O59" s="201"/>
       <c r="P59" s="201"/>
       <c r="Q59" s="202">
         <f>SUM(Q56:Q58)</f>
-        <v>-559083.69852300105</v>
+        <v>-44889.151859999722</v>
       </c>
     </row>
     <row r="64" spans="2:17" x14ac:dyDescent="0.25">
@@ -4525,11 +4528,11 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E433115D-D1E6-C943-B0EC-2BC4BD1B44BA}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:T70"/>
+  <dimension ref="A1:T71"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G72" sqref="G72"/>
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A39" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E69" sqref="E69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0.2"/>
@@ -7824,42 +7827,45 @@
       <c r="A67" s="2">
         <v>2025</v>
       </c>
+      <c r="B67" s="2" t="s">
+        <v>353</v>
+      </c>
       <c r="C67" s="2" t="s">
         <v>89</v>
       </c>
       <c r="D67" s="159" t="s">
-        <v>331</v>
+        <v>24</v>
       </c>
       <c r="E67" s="2">
-        <f>2400-E66-E65</f>
-        <v>2368</v>
+        <v>3</v>
       </c>
       <c r="F67" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G67" s="2" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="H67" s="2">
         <v>0</v>
       </c>
       <c r="I67" s="158">
-        <v>45992</v>
+        <v>45889</v>
       </c>
       <c r="J67" s="2">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="K67" s="158">
-        <v>45992</v>
-      </c>
-      <c r="L67" s="158"/>
+        <v>45920</v>
+      </c>
+      <c r="L67" s="155"/>
+      <c r="M67" s="155"/>
       <c r="N67" s="3"/>
       <c r="P67" s="3">
-        <v>1600</v>
+        <v>2500</v>
       </c>
       <c r="Q67" s="3">
         <f>E67*P67</f>
-        <v>3788800</v>
+        <v>7500</v>
       </c>
     </row>
     <row r="68" spans="1:17" x14ac:dyDescent="0.2">
@@ -7867,14 +7873,14 @@
         <v>2025</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>42</v>
+        <v>89</v>
       </c>
       <c r="D68" s="159" t="s">
         <v>331</v>
       </c>
       <c r="E68" s="2">
-        <f>0.7*8000-4800-E69-E70</f>
-        <v>286.5</v>
+        <f>2400-E66-E65-E67</f>
+        <v>2365</v>
       </c>
       <c r="F68" s="2" t="s">
         <v>32</v>
@@ -7894,16 +7900,14 @@
       <c r="K68" s="158">
         <v>45992</v>
       </c>
-      <c r="L68" s="155">
-        <v>325</v>
-      </c>
-      <c r="M68" s="155">
-        <f>(L68+H68)*1.3228</f>
-        <v>429.90999999999997</v>
-      </c>
-      <c r="N68" s="3">
-        <f>M68*E68</f>
-        <v>123169.215</v>
+      <c r="L68" s="158"/>
+      <c r="N68" s="3"/>
+      <c r="P68" s="3">
+        <v>1600</v>
+      </c>
+      <c r="Q68" s="3">
+        <f>E68*P68</f>
+        <v>3784000</v>
       </c>
     </row>
     <row r="69" spans="1:17" x14ac:dyDescent="0.2">
@@ -7917,7 +7921,8 @@
         <v>331</v>
       </c>
       <c r="E69" s="2">
-        <v>64.5</v>
+        <f>0.7*8000-4800-E70-E71</f>
+        <v>286.5</v>
       </c>
       <c r="F69" s="2" t="s">
         <v>32</v>
@@ -7932,21 +7937,21 @@
         <v>45992</v>
       </c>
       <c r="J69" s="2">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="K69" s="158">
         <v>45992</v>
       </c>
       <c r="L69" s="155">
-        <v>330</v>
+        <v>325</v>
       </c>
       <c r="M69" s="155">
         <f>(L69+H69)*1.3228</f>
-        <v>436.524</v>
+        <v>429.90999999999997</v>
       </c>
       <c r="N69" s="3">
         <f>M69*E69</f>
-        <v>28155.797999999999</v>
+        <v>123169.215</v>
       </c>
     </row>
     <row r="70" spans="1:17" x14ac:dyDescent="0.2">
@@ -7960,7 +7965,7 @@
         <v>331</v>
       </c>
       <c r="E70" s="2">
-        <v>449</v>
+        <v>64.5</v>
       </c>
       <c r="F70" s="2" t="s">
         <v>32</v>
@@ -7972,30 +7977,73 @@
         <v>0</v>
       </c>
       <c r="I70" s="158">
-        <v>46082</v>
+        <v>45992</v>
       </c>
       <c r="J70" s="2">
         <v>1</v>
       </c>
       <c r="K70" s="158">
-        <v>46082</v>
+        <v>45992</v>
       </c>
       <c r="L70" s="155">
-        <v>325</v>
+        <v>330</v>
       </c>
       <c r="M70" s="155">
         <f>(L70+H70)*1.3228</f>
-        <v>429.90999999999997</v>
+        <v>436.524</v>
       </c>
       <c r="N70" s="3">
         <f>M70*E70</f>
+        <v>28155.797999999999</v>
+      </c>
+    </row>
+    <row r="71" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A71" s="2">
+        <v>2025</v>
+      </c>
+      <c r="C71" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="D71" s="159" t="s">
+        <v>331</v>
+      </c>
+      <c r="E71" s="2">
+        <v>449</v>
+      </c>
+      <c r="F71" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="G71" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="H71" s="2">
+        <v>0</v>
+      </c>
+      <c r="I71" s="158">
+        <v>46082</v>
+      </c>
+      <c r="J71" s="2">
+        <v>1</v>
+      </c>
+      <c r="K71" s="158">
+        <v>46082</v>
+      </c>
+      <c r="L71" s="155">
+        <v>325</v>
+      </c>
+      <c r="M71" s="155">
+        <f>(L71+H71)*1.3228</f>
+        <v>429.90999999999997</v>
+      </c>
+      <c r="N71" s="3">
+        <f>M71*E71</f>
         <v>193029.59</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:Q70" xr:uid="{E433115D-D1E6-C943-B0EC-2BC4BD1B44BA}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:Q70">
-      <sortCondition ref="B1:B70"/>
+  <autoFilter ref="A1:Q71" xr:uid="{E433115D-D1E6-C943-B0EC-2BC4BD1B44BA}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:Q71">
+      <sortCondition ref="B1:B71"/>
     </sortState>
   </autoFilter>
   <phoneticPr fontId="5" type="noConversion"/>
@@ -8008,8 +8056,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{62549E7F-C2F6-E740-8F49-EDB7C93FB4DD}">
   <dimension ref="A1:D13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0.2"/>
@@ -8032,7 +8080,7 @@
         <v>270</v>
       </c>
       <c r="D1" s="162">
-        <v>45901</v>
+        <v>45908</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -8040,11 +8088,11 @@
         <v>45930</v>
       </c>
       <c r="B2" s="155">
-        <v>396.85</v>
+        <v>386.95</v>
       </c>
       <c r="C2" s="155">
         <f t="shared" ref="C2:C12" si="0">B2*1.3228</f>
-        <v>524.95317999999997</v>
+        <v>511.85746</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -8052,11 +8100,11 @@
         <v>46021</v>
       </c>
       <c r="B3" s="155">
-        <v>386.1</v>
+        <v>373.3</v>
       </c>
       <c r="C3" s="155">
         <f t="shared" si="0"/>
-        <v>510.73308000000003</v>
+        <v>493.80124000000001</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
@@ -8064,11 +8112,11 @@
         <v>46112</v>
       </c>
       <c r="B4" s="155">
-        <v>373.9</v>
+        <v>361.1</v>
       </c>
       <c r="C4" s="155">
         <f t="shared" si="0"/>
-        <v>494.59491999999995</v>
+        <v>477.66308000000004</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
@@ -8076,11 +8124,11 @@
         <v>46173</v>
       </c>
       <c r="B5" s="155">
-        <v>363.65</v>
+        <v>350.45</v>
       </c>
       <c r="C5" s="155">
         <f t="shared" si="0"/>
-        <v>481.03621999999996</v>
+        <v>463.57525999999996</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
@@ -8088,11 +8136,11 @@
         <v>46231</v>
       </c>
       <c r="B6" s="155">
-        <v>352.2</v>
+        <v>337.95</v>
       </c>
       <c r="C6" s="155">
         <f t="shared" si="0"/>
-        <v>465.89015999999998</v>
+        <v>447.04025999999999</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
@@ -8100,11 +8148,11 @@
         <v>46295</v>
       </c>
       <c r="B7" s="155">
-        <v>338.6</v>
+        <v>324.25</v>
       </c>
       <c r="C7" s="155">
         <f t="shared" si="0"/>
-        <v>447.90008</v>
+        <v>428.91789999999997</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
@@ -8112,11 +8160,11 @@
         <v>46386</v>
       </c>
       <c r="B8" s="155">
-        <v>326.35000000000002</v>
+        <v>312.2</v>
       </c>
       <c r="C8" s="155">
         <f t="shared" si="0"/>
-        <v>431.69578000000001</v>
+        <v>412.97816</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
@@ -8124,11 +8172,11 @@
         <v>46477</v>
       </c>
       <c r="B9" s="155">
-        <v>317.64999999999998</v>
+        <v>306.8</v>
       </c>
       <c r="C9" s="155">
         <f t="shared" si="0"/>
-        <v>420.18741999999997</v>
+        <v>405.83503999999999</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
@@ -8136,11 +8184,11 @@
         <v>46538</v>
       </c>
       <c r="B10" s="155">
-        <v>310.55</v>
+        <v>298.85000000000002</v>
       </c>
       <c r="C10" s="155">
         <f t="shared" si="0"/>
-        <v>410.79554000000002</v>
+        <v>395.31878</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
@@ -8148,11 +8196,11 @@
         <v>46596</v>
       </c>
       <c r="B11" s="155">
-        <v>304.14999999999998</v>
+        <v>292.3</v>
       </c>
       <c r="C11" s="155">
         <f t="shared" si="0"/>
-        <v>402.32961999999998</v>
+        <v>386.65444000000002</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
@@ -8160,11 +8208,11 @@
         <v>46660</v>
       </c>
       <c r="B12" s="155">
-        <v>297.35000000000002</v>
+        <v>284.89999999999998</v>
       </c>
       <c r="C12" s="155">
         <f t="shared" si="0"/>
-        <v>393.33458000000002</v>
+        <v>376.86571999999995</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
@@ -8172,11 +8220,11 @@
         <v>46751</v>
       </c>
       <c r="B13" s="155">
-        <v>291.64999999999998</v>
+        <v>279.05</v>
       </c>
       <c r="C13" s="155">
         <f>B13*1.3228</f>
-        <v>385.79461999999995</v>
+        <v>369.12734</v>
       </c>
     </row>
   </sheetData>
@@ -8190,8 +8238,8 @@
   <dimension ref="A1:N28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L16" sqref="L16:L19"/>
+      <pane ySplit="1" topLeftCell="A15" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="L16" sqref="L16:L28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -8919,7 +8967,7 @@
       </c>
       <c r="H16" s="155">
         <f>futuros!B3</f>
-        <v>386.1</v>
+        <v>373.3</v>
       </c>
       <c r="I16" s="2"/>
       <c r="J16" s="162">
@@ -8928,7 +8976,7 @@
       <c r="K16" s="162"/>
       <c r="L16" s="215">
         <f t="shared" si="2"/>
-        <v>-1374676.8362460001</v>
+        <v>-1289713.7097180001</v>
       </c>
       <c r="M16" s="160"/>
       <c r="N16" s="215"/>
@@ -8957,7 +9005,7 @@
       </c>
       <c r="H17" s="155">
         <f>futuros!B3</f>
-        <v>386.1</v>
+        <v>373.3</v>
       </c>
       <c r="I17" s="2"/>
       <c r="J17" s="162">
@@ -8966,7 +9014,7 @@
       <c r="K17" s="162"/>
       <c r="L17" s="215">
         <f t="shared" si="2"/>
-        <v>-498768.35400000005</v>
+        <v>-465167.11752000003</v>
       </c>
       <c r="M17" s="160"/>
       <c r="N17" s="215"/>
@@ -8997,7 +9045,7 @@
       </c>
       <c r="H18" s="155">
         <f>futuros!B3</f>
-        <v>386.1</v>
+        <v>373.3</v>
       </c>
       <c r="I18" s="2"/>
       <c r="J18" s="162">
@@ -9006,7 +9054,7 @@
       <c r="K18" s="162"/>
       <c r="L18" s="215">
         <f t="shared" si="2"/>
-        <v>-147267.91926000005</v>
+        <v>-113666.68278000003</v>
       </c>
       <c r="M18" s="160"/>
       <c r="N18" s="215"/>
@@ -9035,7 +9083,7 @@
       </c>
       <c r="H19" s="217">
         <f>futuros!B3</f>
-        <v>386.1</v>
+        <v>373.3</v>
       </c>
       <c r="I19" s="208"/>
       <c r="J19" s="219">
@@ -9044,7 +9092,7 @@
       <c r="K19" s="219"/>
       <c r="L19" s="220">
         <f t="shared" si="2"/>
-        <v>-344202.66619200003</v>
+        <v>-317321.67700800003</v>
       </c>
       <c r="M19" s="218"/>
       <c r="N19" s="220"/>
@@ -9075,7 +9123,7 @@
       </c>
       <c r="H20" s="155">
         <f>futuros!B4</f>
-        <v>373.9</v>
+        <v>361.1</v>
       </c>
       <c r="I20" s="2"/>
       <c r="J20" s="162">
@@ -9084,7 +9132,7 @@
       <c r="K20" s="162"/>
       <c r="L20" s="215">
         <f t="shared" si="2"/>
-        <v>-128367.22373999994</v>
+        <v>-94765.987260000053</v>
       </c>
       <c r="M20" s="160"/>
       <c r="N20" s="215"/>
@@ -9113,7 +9161,7 @@
       </c>
       <c r="H21" s="155">
         <f>futuros!B8</f>
-        <v>326.35000000000002</v>
+        <v>312.2</v>
       </c>
       <c r="I21" s="2"/>
       <c r="J21" s="162">
@@ -9122,7 +9170,7 @@
       <c r="K21" s="162"/>
       <c r="L21" s="215">
         <f t="shared" si="2"/>
-        <v>-86234.423310000027</v>
+        <v>-38476.41587999992</v>
       </c>
       <c r="M21" s="160"/>
       <c r="N21" s="215"/>
@@ -9150,7 +9198,7 @@
       </c>
       <c r="H22" s="155">
         <f>futuros!B8</f>
-        <v>326.35000000000002</v>
+        <v>312.2</v>
       </c>
       <c r="I22" s="2"/>
       <c r="J22" s="162">
@@ -9159,7 +9207,7 @@
       <c r="K22" s="162"/>
       <c r="L22" s="215">
         <f t="shared" si="2"/>
-        <v>-11850.436080000138</v>
+        <v>30601.126079999965</v>
       </c>
       <c r="M22" s="160"/>
       <c r="N22" s="215"/>
@@ -9187,7 +9235,7 @@
       </c>
       <c r="H23" s="155">
         <f>futuros!B8</f>
-        <v>326.35000000000002</v>
+        <v>312.2</v>
       </c>
       <c r="I23" s="2"/>
       <c r="J23" s="162">
@@ -9196,7 +9244,7 @@
       <c r="K23" s="162"/>
       <c r="L23" s="215">
         <f t="shared" si="2"/>
-        <v>-57452.114160000099</v>
+        <v>-15000.552</v>
       </c>
       <c r="M23" s="160"/>
       <c r="N23" s="215"/>
@@ -9225,7 +9273,7 @@
       </c>
       <c r="H24" s="217">
         <f>futuros!B8</f>
-        <v>326.35000000000002</v>
+        <v>312.2</v>
       </c>
       <c r="I24" s="208"/>
       <c r="J24" s="219">
@@ -9234,7 +9282,7 @@
       <c r="K24" s="219"/>
       <c r="L24" s="220">
         <f t="shared" si="2"/>
-        <v>-402689.81844000024</v>
+        <v>-254109.3508799999</v>
       </c>
       <c r="M24" s="218"/>
       <c r="N24" s="220"/>
@@ -9263,7 +9311,7 @@
       </c>
       <c r="H25" s="155">
         <f>futuros!B13</f>
-        <v>291.64999999999998</v>
+        <v>279.05</v>
       </c>
       <c r="I25" s="2"/>
       <c r="J25" s="162">
@@ -9272,7 +9320,7 @@
       <c r="K25" s="162"/>
       <c r="L25" s="215">
         <f t="shared" si="2"/>
-        <v>-175937.72426999992</v>
+        <v>-123960.81159000004</v>
       </c>
       <c r="M25" s="160"/>
       <c r="N25" s="215"/>
@@ -9298,7 +9346,7 @@
       </c>
       <c r="H26" s="155">
         <f>futuros!B13</f>
-        <v>291.64999999999998</v>
+        <v>279.05</v>
       </c>
       <c r="I26" s="2"/>
       <c r="J26" s="162">
@@ -9307,7 +9355,7 @@
       <c r="K26" s="162"/>
       <c r="L26" s="215">
         <f t="shared" ref="L26" si="8">D26*(G26-H26)*1.3228</f>
-        <v>-169956.25415999992</v>
+        <v>-132154.86312000002</v>
       </c>
       <c r="M26" s="160"/>
       <c r="N26" s="215"/>
@@ -9333,7 +9381,7 @@
       </c>
       <c r="H27" s="155">
         <f>futuros!B13</f>
-        <v>291.64999999999998</v>
+        <v>279.05</v>
       </c>
       <c r="I27" s="2"/>
       <c r="J27" s="162">
@@ -9342,7 +9390,7 @@
       <c r="K27" s="162"/>
       <c r="L27" s="215">
         <f t="shared" ref="L27" si="10">D27*(G27-H27)*1.3228</f>
-        <v>-76221.554849999957</v>
+        <v>-52595.685450000019</v>
       </c>
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.2">
@@ -9366,7 +9414,7 @@
       </c>
       <c r="H28" s="155">
         <f>futuros!B13</f>
-        <v>291.64999999999998</v>
+        <v>279.05</v>
       </c>
       <c r="I28" s="2"/>
       <c r="J28" s="162">
@@ -9375,7 +9423,7 @@
       <c r="K28" s="162"/>
       <c r="L28" s="215">
         <f t="shared" ref="L28" si="12">D28*(G28-H28)*1.3228</f>
-        <v>-53720.726849999963</v>
+        <v>-30094.857450000018</v>
       </c>
     </row>
   </sheetData>

--- a/vendas_cafe_em_reais.xlsx
+++ b/vendas_cafe_em_reais.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rotocastro/PycharmProjects/Vendas Cafe/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42019A95-C7FA-5F4F-9F57-BE3C4703570A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C925BF8-C978-8F44-8CA6-3F406E6B792A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="33240" yWindow="-5680" windowWidth="24060" windowHeight="14420" activeTab="2" xr2:uid="{AC82ADC5-E628-F847-8939-89BAF5623AE6}"/>
+    <workbookView xWindow="5260" yWindow="3300" windowWidth="24060" windowHeight="14420" activeTab="3" xr2:uid="{AC82ADC5-E628-F847-8939-89BAF5623AE6}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2 (2)" sheetId="16" state="hidden" r:id="rId1"/>
@@ -2633,26 +2633,26 @@
       </c>
       <c r="L6" s="177">
         <f>futuros!B3</f>
-        <v>373.3</v>
+        <v>385.35</v>
       </c>
       <c r="M6" s="177">
         <f>(L6+H6)*1.3228</f>
-        <v>533.48523999999998</v>
+        <v>549.42498000000001</v>
       </c>
       <c r="N6" s="167">
         <f>(E6*(M6+H6))</f>
-        <v>180315.27679999999</v>
+        <v>185415.99359999999</v>
       </c>
       <c r="O6" s="178">
         <v>5.7</v>
       </c>
       <c r="P6" s="167">
         <f t="shared" ref="P6:P16" si="1">M6*O6</f>
-        <v>3040.8658679999999</v>
+        <v>3131.7223859999999</v>
       </c>
       <c r="Q6" s="167">
         <f t="shared" ref="Q6:Q16" si="2">P6*E6</f>
-        <v>973077.07776000001</v>
+        <v>1002151.1635199999</v>
       </c>
     </row>
     <row r="7" spans="2:20" x14ac:dyDescent="0.25">
@@ -2689,26 +2689,26 @@
       </c>
       <c r="L7" s="177">
         <f>L6</f>
-        <v>373.3</v>
+        <v>385.35</v>
       </c>
       <c r="M7" s="177">
         <f>(L7+H7)*1.3228</f>
-        <v>533.48523999999998</v>
+        <v>549.42498000000001</v>
       </c>
       <c r="N7" s="167">
         <f>(E7*(M7+H7))</f>
-        <v>180315.27679999999</v>
+        <v>185415.99359999999</v>
       </c>
       <c r="O7" s="178">
         <v>5.7</v>
       </c>
       <c r="P7" s="167">
         <f t="shared" si="1"/>
-        <v>3040.8658679999999</v>
+        <v>3131.7223859999999</v>
       </c>
       <c r="Q7" s="167">
         <f t="shared" si="2"/>
-        <v>973077.07776000001</v>
+        <v>1002151.1635199999</v>
       </c>
     </row>
     <row r="8" spans="2:20" x14ac:dyDescent="0.25">
@@ -2745,26 +2745,26 @@
       </c>
       <c r="L8" s="177">
         <f>L7</f>
-        <v>373.3</v>
+        <v>385.35</v>
       </c>
       <c r="M8" s="177">
         <f>(L8+H8)*1.3228</f>
-        <v>533.48523999999998</v>
+        <v>549.42498000000001</v>
       </c>
       <c r="N8" s="167">
         <f>(E8*(M8+H8))</f>
-        <v>180315.27679999999</v>
+        <v>185415.99359999999</v>
       </c>
       <c r="O8" s="178">
         <v>5.7</v>
       </c>
       <c r="P8" s="167">
         <f t="shared" si="1"/>
-        <v>3040.8658679999999</v>
+        <v>3131.7223859999999</v>
       </c>
       <c r="Q8" s="167">
         <f t="shared" si="2"/>
-        <v>973077.07776000001</v>
+        <v>1002151.1635199999</v>
       </c>
     </row>
     <row r="9" spans="2:20" x14ac:dyDescent="0.25">
@@ -2801,26 +2801,26 @@
       </c>
       <c r="L9" s="177">
         <f>futuros!B3</f>
-        <v>373.3</v>
+        <v>385.35</v>
       </c>
       <c r="M9" s="177">
         <f>(L9+H9)*1.3228</f>
-        <v>533.48523999999998</v>
+        <v>549.42498000000001</v>
       </c>
       <c r="N9" s="167">
         <f>(E9*(M9+H9))</f>
-        <v>180315.27679999999</v>
+        <v>185415.99359999999</v>
       </c>
       <c r="O9" s="178">
         <v>5.7</v>
       </c>
       <c r="P9" s="167">
         <f t="shared" si="1"/>
-        <v>3040.8658679999999</v>
+        <v>3131.7223859999999</v>
       </c>
       <c r="Q9" s="167">
         <f t="shared" si="2"/>
-        <v>973077.07776000001</v>
+        <v>1002151.1635199999</v>
       </c>
     </row>
     <row r="10" spans="2:20" x14ac:dyDescent="0.25">
@@ -2857,26 +2857,26 @@
       </c>
       <c r="L10" s="177">
         <f>futuros!B4</f>
-        <v>361.1</v>
+        <v>372.55</v>
       </c>
       <c r="M10" s="177">
         <f>(L10+H10)*1.3228</f>
-        <v>517.34708000000001</v>
+        <v>532.49314000000004</v>
       </c>
       <c r="N10" s="167">
         <f>(E10*(M10+H10))</f>
-        <v>175151.0656</v>
+        <v>179997.80480000001</v>
       </c>
       <c r="O10" s="178">
         <v>5.7</v>
       </c>
       <c r="P10" s="167">
         <f t="shared" si="1"/>
-        <v>2948.8783560000002</v>
+        <v>3035.2108980000003</v>
       </c>
       <c r="Q10" s="167">
         <f t="shared" si="2"/>
-        <v>943641.07392000011</v>
+        <v>971267.48736000014</v>
       </c>
     </row>
     <row r="11" spans="2:20" x14ac:dyDescent="0.25">
@@ -2913,26 +2913,26 @@
       </c>
       <c r="L11" s="177">
         <f>futuros!B3</f>
-        <v>373.3</v>
+        <v>385.35</v>
       </c>
       <c r="M11" s="177">
         <f t="shared" ref="M11:M16" si="4">(L11+H11)*1.3228</f>
-        <v>530.83964000000003</v>
+        <v>546.77938000000006</v>
       </c>
       <c r="N11" s="167">
         <f t="shared" ref="N11:N16" si="5">(E11*(M11+H11))</f>
-        <v>178828.68480000002</v>
+        <v>183929.40160000001</v>
       </c>
       <c r="O11" s="178">
         <v>5.7</v>
       </c>
       <c r="P11" s="167">
         <f t="shared" si="1"/>
-        <v>3025.7859480000002</v>
+        <v>3116.6424660000002</v>
       </c>
       <c r="Q11" s="167">
         <f t="shared" si="2"/>
-        <v>968251.50336000009</v>
+        <v>997325.58912000014</v>
       </c>
     </row>
     <row r="12" spans="2:20" x14ac:dyDescent="0.25">
@@ -2969,26 +2969,26 @@
       </c>
       <c r="L12" s="177">
         <f>futuros!B3</f>
-        <v>373.3</v>
+        <v>385.35</v>
       </c>
       <c r="M12" s="177">
         <f t="shared" si="4"/>
-        <v>530.83964000000003</v>
+        <v>546.77938000000006</v>
       </c>
       <c r="N12" s="167">
         <f t="shared" si="5"/>
-        <v>178828.68480000002</v>
+        <v>183929.40160000001</v>
       </c>
       <c r="O12" s="178">
         <v>5.7</v>
       </c>
       <c r="P12" s="167">
         <f t="shared" si="1"/>
-        <v>3025.7859480000002</v>
+        <v>3116.6424660000002</v>
       </c>
       <c r="Q12" s="167">
         <f t="shared" si="2"/>
-        <v>968251.50336000009</v>
+        <v>997325.58912000014</v>
       </c>
     </row>
     <row r="13" spans="2:20" s="166" customFormat="1" x14ac:dyDescent="0.25">
@@ -3025,26 +3025,26 @@
       </c>
       <c r="L13" s="177">
         <f>futuros!B4</f>
-        <v>361.1</v>
+        <v>372.55</v>
       </c>
       <c r="M13" s="177">
         <f t="shared" si="4"/>
-        <v>514.70148000000006</v>
+        <v>529.84753999999998</v>
       </c>
       <c r="N13" s="167">
         <f t="shared" si="5"/>
-        <v>173664.47360000003</v>
+        <v>178511.21279999998</v>
       </c>
       <c r="O13" s="178">
         <v>5.7</v>
       </c>
       <c r="P13" s="167">
         <f t="shared" si="1"/>
-        <v>2933.7984360000005</v>
+        <v>3020.1309780000001</v>
       </c>
       <c r="Q13" s="167">
         <f t="shared" si="2"/>
-        <v>938815.49952000019</v>
+        <v>966441.9129600001</v>
       </c>
       <c r="R13" s="163"/>
       <c r="S13" s="163"/>
@@ -3084,26 +3084,26 @@
       </c>
       <c r="L14" s="177">
         <f>futuros!B5</f>
-        <v>350.45</v>
+        <v>361.35</v>
       </c>
       <c r="M14" s="177">
         <f t="shared" si="4"/>
-        <v>500.61365999999998</v>
+        <v>515.03218000000004</v>
       </c>
       <c r="N14" s="167">
         <f t="shared" si="5"/>
-        <v>169156.37119999999</v>
+        <v>173770.29760000002</v>
       </c>
       <c r="O14" s="178">
         <v>5.7</v>
       </c>
       <c r="P14" s="167">
         <f t="shared" si="1"/>
-        <v>2853.4978620000002</v>
+        <v>2935.6834260000005</v>
       </c>
       <c r="Q14" s="167">
         <f t="shared" si="2"/>
-        <v>913119.31584000005</v>
+        <v>939418.6963200001</v>
       </c>
       <c r="R14" s="163"/>
       <c r="S14" s="163"/>
@@ -3143,26 +3143,26 @@
       </c>
       <c r="L15" s="177">
         <f>futuros!B4</f>
-        <v>361.1</v>
+        <v>372.55</v>
       </c>
       <c r="M15" s="177">
         <f t="shared" si="4"/>
-        <v>448.56148000000002</v>
+        <v>463.70753999999999</v>
       </c>
       <c r="N15" s="167">
         <f t="shared" si="5"/>
-        <v>136499.67360000001</v>
+        <v>141346.41279999999</v>
       </c>
       <c r="O15" s="178">
         <v>5.7</v>
       </c>
       <c r="P15" s="167">
         <f t="shared" si="1"/>
-        <v>2556.800436</v>
+        <v>2643.1329780000001</v>
       </c>
       <c r="Q15" s="167">
         <f t="shared" si="2"/>
-        <v>818176.13951999997</v>
+        <v>845802.55296</v>
       </c>
       <c r="R15" s="163"/>
       <c r="S15" s="163"/>
@@ -3202,26 +3202,26 @@
       </c>
       <c r="L16" s="177">
         <f>futuros!B3</f>
-        <v>373.3</v>
+        <v>385.35</v>
       </c>
       <c r="M16" s="177">
         <f t="shared" si="4"/>
-        <v>563.90963999999997</v>
+        <v>579.84938</v>
       </c>
       <c r="N16" s="167">
         <f t="shared" si="5"/>
-        <v>197411.08479999998</v>
+        <v>202511.80160000001</v>
       </c>
       <c r="O16" s="178">
         <v>5.7</v>
       </c>
       <c r="P16" s="167">
         <f t="shared" si="1"/>
-        <v>3214.284948</v>
+        <v>3305.141466</v>
       </c>
       <c r="Q16" s="167">
         <f t="shared" si="2"/>
-        <v>1028571.18336</v>
+        <v>1057645.2691200001</v>
       </c>
       <c r="R16" s="163"/>
       <c r="S16" s="163"/>
@@ -3348,20 +3348,20 @@
       <c r="L19" s="179"/>
       <c r="M19" s="182">
         <f>N19/E19</f>
-        <v>537.62525571428569</v>
+        <v>549.87060428571431</v>
       </c>
       <c r="N19" s="183">
         <f>SUM(N5:N18)</f>
-        <v>2408561.1455999999</v>
+        <v>2463420.3072000002</v>
       </c>
       <c r="O19" s="184"/>
       <c r="P19" s="185">
         <f>Q19/E19</f>
-        <v>2945.1711004285721</v>
+        <v>3014.9695872857151</v>
       </c>
       <c r="Q19" s="183">
         <f>SUM(Q5:Q18)</f>
-        <v>13194366.529920002</v>
+        <v>13507063.751040004</v>
       </c>
     </row>
     <row r="20" spans="2:17" x14ac:dyDescent="0.25">
@@ -3484,7 +3484,7 @@
       </c>
       <c r="I25" s="177">
         <f>futuros!B3</f>
-        <v>373.3</v>
+        <v>385.35</v>
       </c>
       <c r="K25" s="163"/>
       <c r="L25" s="197">
@@ -3493,7 +3493,7 @@
       <c r="M25" s="163"/>
       <c r="N25" s="198">
         <f>(H25-I25)*1.3228*D25</f>
-        <v>-1289713.7097179999</v>
+        <v>-1369698.5280510001</v>
       </c>
       <c r="O25" s="178">
         <f>O5</f>
@@ -3501,7 +3501,7 @@
       </c>
       <c r="Q25" s="198">
         <f>N25*O25</f>
-        <v>-7351368.1453925995</v>
+        <v>-7807281.6098907003</v>
       </c>
     </row>
     <row r="26" spans="2:17" x14ac:dyDescent="0.25">
@@ -3526,7 +3526,7 @@
       </c>
       <c r="I26" s="177">
         <f>I25</f>
-        <v>373.3</v>
+        <v>385.35</v>
       </c>
       <c r="K26" s="163"/>
       <c r="L26" s="197">
@@ -3535,7 +3535,7 @@
       <c r="M26" s="163"/>
       <c r="N26" s="198">
         <f>(H26-I26)*1.3228*D26</f>
-        <v>-465167.11752000003</v>
+        <v>-496799.53155000007</v>
       </c>
       <c r="O26" s="178">
         <f>O6</f>
@@ -3543,7 +3543,7 @@
       </c>
       <c r="Q26" s="198">
         <f t="shared" ref="Q26:Q27" si="6">N26*O26</f>
-        <v>-2651452.5698640002</v>
+        <v>-2831757.3298350004</v>
       </c>
     </row>
     <row r="27" spans="2:17" x14ac:dyDescent="0.25">
@@ -3567,7 +3567,7 @@
       </c>
       <c r="I27" s="200">
         <f>I26</f>
-        <v>373.3</v>
+        <v>385.35</v>
       </c>
       <c r="K27" s="163"/>
       <c r="L27" s="197">
@@ -3576,7 +3576,7 @@
       <c r="M27" s="163"/>
       <c r="N27" s="198">
         <f>(H27-I27)*1.3228*D27</f>
-        <v>-600644.602908</v>
+        <v>-648545.11558200011</v>
       </c>
       <c r="O27" s="178">
         <f>O7</f>
@@ -3584,7 +3584,7 @@
       </c>
       <c r="Q27" s="198">
         <f t="shared" si="6"/>
-        <v>-3423674.2365756002</v>
+        <v>-3696707.1588174007</v>
       </c>
     </row>
     <row r="28" spans="2:17" x14ac:dyDescent="0.25">
@@ -3607,13 +3607,13 @@
       <c r="M28" s="202"/>
       <c r="N28" s="202">
         <f>SUM(N25:N27)</f>
-        <v>-2355525.4301459999</v>
+        <v>-2515043.175183</v>
       </c>
       <c r="O28" s="201"/>
       <c r="P28" s="201"/>
       <c r="Q28" s="202">
         <f>SUM(Q25:Q27)</f>
-        <v>-13426494.951832199</v>
+        <v>-14335746.098543102</v>
       </c>
     </row>
     <row r="29" spans="2:17" x14ac:dyDescent="0.25">
@@ -4297,7 +4297,7 @@
       </c>
       <c r="I57" s="177">
         <f>futuros!B8</f>
-        <v>312.2</v>
+        <v>320.75</v>
       </c>
       <c r="K57" s="178">
         <f>O8</f>
@@ -4309,7 +4309,7 @@
       <c r="M57" s="198"/>
       <c r="N57" s="198">
         <f>(H57-I57)*1.3228*D57</f>
-        <v>-38476.41587999992</v>
+        <v>-67333.727789999961</v>
       </c>
       <c r="O57" s="166">
         <f>O25</f>
@@ -4317,7 +4317,7 @@
       </c>
       <c r="Q57" s="198">
         <f>N57*O57</f>
-        <v>-219315.57051599954</v>
+        <v>-383802.24840299977</v>
       </c>
     </row>
     <row r="58" spans="2:17" x14ac:dyDescent="0.25">
@@ -4341,7 +4341,7 @@
       </c>
       <c r="I58" s="177">
         <f>I57</f>
-        <v>312.2</v>
+        <v>320.75</v>
       </c>
       <c r="K58" s="178">
         <f>O9</f>
@@ -4353,7 +4353,7 @@
       <c r="M58" s="198"/>
       <c r="N58" s="198">
         <f>(H58-I58)*1.3228*D58</f>
-        <v>30601.126079999965</v>
+        <v>4950.1821599999312</v>
       </c>
       <c r="O58" s="166">
         <f>O26</f>
@@ -4361,7 +4361,7 @@
       </c>
       <c r="Q58" s="198">
         <f>N58*O58</f>
-        <v>174426.41865599982</v>
+        <v>28216.038311999608</v>
       </c>
     </row>
     <row r="59" spans="2:17" x14ac:dyDescent="0.25">
@@ -4384,13 +4384,13 @@
       <c r="M59" s="201"/>
       <c r="N59" s="202">
         <f>SUM(N56:N58)</f>
-        <v>-7875.289799999955</v>
+        <v>-62383.54563000003</v>
       </c>
       <c r="O59" s="201"/>
       <c r="P59" s="201"/>
       <c r="Q59" s="202">
         <f>SUM(Q56:Q58)</f>
-        <v>-44889.151859999722</v>
+        <v>-355586.21009100019</v>
       </c>
     </row>
     <row r="64" spans="2:17" x14ac:dyDescent="0.25">
@@ -8056,8 +8056,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{62549E7F-C2F6-E740-8F49-EDB7C93FB4DD}">
   <dimension ref="A1:D13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0.2"/>
@@ -8088,11 +8088,11 @@
         <v>45930</v>
       </c>
       <c r="B2" s="155">
-        <v>386.95</v>
+        <v>399.75</v>
       </c>
       <c r="C2" s="155">
         <f t="shared" ref="C2:C12" si="0">B2*1.3228</f>
-        <v>511.85746</v>
+        <v>528.78930000000003</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -8100,11 +8100,11 @@
         <v>46021</v>
       </c>
       <c r="B3" s="155">
-        <v>373.3</v>
+        <v>385.35</v>
       </c>
       <c r="C3" s="155">
         <f t="shared" si="0"/>
-        <v>493.80124000000001</v>
+        <v>509.74098000000004</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
@@ -8112,11 +8112,11 @@
         <v>46112</v>
       </c>
       <c r="B4" s="155">
-        <v>361.1</v>
+        <v>372.55</v>
       </c>
       <c r="C4" s="155">
         <f t="shared" si="0"/>
-        <v>477.66308000000004</v>
+        <v>492.80914000000001</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
@@ -8124,11 +8124,11 @@
         <v>46173</v>
       </c>
       <c r="B5" s="155">
-        <v>350.45</v>
+        <v>361.35</v>
       </c>
       <c r="C5" s="155">
         <f t="shared" si="0"/>
-        <v>463.57525999999996</v>
+        <v>477.99378000000002</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
@@ -8136,11 +8136,11 @@
         <v>46231</v>
       </c>
       <c r="B6" s="155">
-        <v>337.95</v>
+        <v>348.65</v>
       </c>
       <c r="C6" s="155">
         <f t="shared" si="0"/>
-        <v>447.04025999999999</v>
+        <v>461.19421999999997</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
@@ -8148,11 +8148,11 @@
         <v>46295</v>
       </c>
       <c r="B7" s="155">
-        <v>324.25</v>
+        <v>333.2</v>
       </c>
       <c r="C7" s="155">
         <f t="shared" si="0"/>
-        <v>428.91789999999997</v>
+        <v>440.75695999999999</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
@@ -8160,11 +8160,11 @@
         <v>46386</v>
       </c>
       <c r="B8" s="155">
-        <v>312.2</v>
+        <v>320.75</v>
       </c>
       <c r="C8" s="155">
         <f t="shared" si="0"/>
-        <v>412.97816</v>
+        <v>424.28809999999999</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
@@ -8172,11 +8172,11 @@
         <v>46477</v>
       </c>
       <c r="B9" s="155">
-        <v>306.8</v>
+        <v>312.14999999999998</v>
       </c>
       <c r="C9" s="155">
         <f t="shared" si="0"/>
-        <v>405.83503999999999</v>
+        <v>412.91201999999998</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
@@ -8184,11 +8184,11 @@
         <v>46538</v>
       </c>
       <c r="B10" s="155">
-        <v>298.85000000000002</v>
+        <v>304.89999999999998</v>
       </c>
       <c r="C10" s="155">
         <f t="shared" si="0"/>
-        <v>395.31878</v>
+        <v>403.32171999999997</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
@@ -8196,11 +8196,11 @@
         <v>46596</v>
       </c>
       <c r="B11" s="155">
-        <v>292.3</v>
+        <v>298</v>
       </c>
       <c r="C11" s="155">
         <f t="shared" si="0"/>
-        <v>386.65444000000002</v>
+        <v>394.19439999999997</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
@@ -8208,11 +8208,11 @@
         <v>46660</v>
       </c>
       <c r="B12" s="155">
-        <v>284.89999999999998</v>
+        <v>279.05</v>
       </c>
       <c r="C12" s="155">
         <f t="shared" si="0"/>
-        <v>376.86571999999995</v>
+        <v>369.12734</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
@@ -8220,11 +8220,11 @@
         <v>46751</v>
       </c>
       <c r="B13" s="155">
-        <v>279.05</v>
+        <v>274</v>
       </c>
       <c r="C13" s="155">
         <f>B13*1.3228</f>
-        <v>369.12734</v>
+        <v>362.44720000000001</v>
       </c>
     </row>
   </sheetData>
@@ -8237,8 +8237,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{435A83C4-FEBA-7F44-BF8C-E9ADE9845E60}">
   <dimension ref="A1:N28"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A15" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="L16" sqref="L16:L28"/>
     </sheetView>
   </sheetViews>
@@ -8967,7 +8967,7 @@
       </c>
       <c r="H16" s="155">
         <f>futuros!B3</f>
-        <v>373.3</v>
+        <v>385.35</v>
       </c>
       <c r="I16" s="2"/>
       <c r="J16" s="162">
@@ -8976,7 +8976,7 @@
       <c r="K16" s="162"/>
       <c r="L16" s="215">
         <f t="shared" si="2"/>
-        <v>-1289713.7097180001</v>
+        <v>-1369698.5280510001</v>
       </c>
       <c r="M16" s="160"/>
       <c r="N16" s="215"/>
@@ -9005,7 +9005,7 @@
       </c>
       <c r="H17" s="155">
         <f>futuros!B3</f>
-        <v>373.3</v>
+        <v>385.35</v>
       </c>
       <c r="I17" s="2"/>
       <c r="J17" s="162">
@@ -9014,7 +9014,7 @@
       <c r="K17" s="162"/>
       <c r="L17" s="215">
         <f t="shared" si="2"/>
-        <v>-465167.11752000003</v>
+        <v>-496799.53155000007</v>
       </c>
       <c r="M17" s="160"/>
       <c r="N17" s="215"/>
@@ -9045,7 +9045,7 @@
       </c>
       <c r="H18" s="155">
         <f>futuros!B3</f>
-        <v>373.3</v>
+        <v>385.35</v>
       </c>
       <c r="I18" s="2"/>
       <c r="J18" s="162">
@@ -9054,7 +9054,7 @@
       <c r="K18" s="162"/>
       <c r="L18" s="215">
         <f t="shared" si="2"/>
-        <v>-113666.68278000003</v>
+        <v>-145299.09681000005</v>
       </c>
       <c r="M18" s="160"/>
       <c r="N18" s="215"/>
@@ -9083,7 +9083,7 @@
       </c>
       <c r="H19" s="217">
         <f>futuros!B3</f>
-        <v>373.3</v>
+        <v>385.35</v>
       </c>
       <c r="I19" s="208"/>
       <c r="J19" s="219">
@@ -9092,7 +9092,7 @@
       <c r="K19" s="219"/>
       <c r="L19" s="220">
         <f t="shared" si="2"/>
-        <v>-317321.67700800003</v>
+        <v>-342627.60823200003</v>
       </c>
       <c r="M19" s="218"/>
       <c r="N19" s="220"/>
@@ -9123,7 +9123,7 @@
       </c>
       <c r="H20" s="155">
         <f>futuros!B4</f>
-        <v>361.1</v>
+        <v>372.55</v>
       </c>
       <c r="I20" s="2"/>
       <c r="J20" s="162">
@@ -9132,7 +9132,7 @@
       <c r="K20" s="162"/>
       <c r="L20" s="215">
         <f t="shared" si="2"/>
-        <v>-94765.987260000053</v>
+        <v>-124823.34333000002</v>
       </c>
       <c r="M20" s="160"/>
       <c r="N20" s="215"/>
@@ -9161,7 +9161,7 @@
       </c>
       <c r="H21" s="155">
         <f>futuros!B8</f>
-        <v>312.2</v>
+        <v>320.75</v>
       </c>
       <c r="I21" s="2"/>
       <c r="J21" s="162">
@@ -9170,7 +9170,7 @@
       <c r="K21" s="162"/>
       <c r="L21" s="215">
         <f t="shared" si="2"/>
-        <v>-38476.41587999992</v>
+        <v>-67333.727789999961</v>
       </c>
       <c r="M21" s="160"/>
       <c r="N21" s="215"/>
@@ -9198,7 +9198,7 @@
       </c>
       <c r="H22" s="155">
         <f>futuros!B8</f>
-        <v>312.2</v>
+        <v>320.75</v>
       </c>
       <c r="I22" s="2"/>
       <c r="J22" s="162">
@@ -9207,7 +9207,7 @@
       <c r="K22" s="162"/>
       <c r="L22" s="215">
         <f t="shared" si="2"/>
-        <v>30601.126079999965</v>
+        <v>4950.1821599999321</v>
       </c>
       <c r="M22" s="160"/>
       <c r="N22" s="215"/>
@@ -9235,7 +9235,7 @@
       </c>
       <c r="H23" s="155">
         <f>futuros!B8</f>
-        <v>312.2</v>
+        <v>320.75</v>
       </c>
       <c r="I23" s="2"/>
       <c r="J23" s="162">
@@ -9244,7 +9244,7 @@
       <c r="K23" s="162"/>
       <c r="L23" s="215">
         <f t="shared" si="2"/>
-        <v>-15000.552</v>
+        <v>-40651.495920000038</v>
       </c>
       <c r="M23" s="160"/>
       <c r="N23" s="215"/>
@@ -9273,7 +9273,7 @@
       </c>
       <c r="H24" s="217">
         <f>futuros!B8</f>
-        <v>312.2</v>
+        <v>320.75</v>
       </c>
       <c r="I24" s="208"/>
       <c r="J24" s="219">
@@ -9282,7 +9282,7 @@
       <c r="K24" s="219"/>
       <c r="L24" s="220">
         <f t="shared" si="2"/>
-        <v>-254109.3508799999</v>
+        <v>-343887.65460000001</v>
       </c>
       <c r="M24" s="218"/>
       <c r="N24" s="220"/>
@@ -9311,7 +9311,7 @@
       </c>
       <c r="H25" s="155">
         <f>futuros!B13</f>
-        <v>279.05</v>
+        <v>274</v>
       </c>
       <c r="I25" s="2"/>
       <c r="J25" s="162">
@@ -9320,7 +9320,7 @@
       <c r="K25" s="162"/>
       <c r="L25" s="215">
         <f t="shared" si="2"/>
-        <v>-123960.81159000004</v>
+        <v>-103128.795</v>
       </c>
       <c r="M25" s="160"/>
       <c r="N25" s="215"/>
@@ -9346,7 +9346,7 @@
       </c>
       <c r="H26" s="155">
         <f>futuros!B13</f>
-        <v>279.05</v>
+        <v>274</v>
       </c>
       <c r="I26" s="2"/>
       <c r="J26" s="162">
@@ -9355,7 +9355,7 @@
       <c r="K26" s="162"/>
       <c r="L26" s="215">
         <f t="shared" ref="L26" si="8">D26*(G26-H26)*1.3228</f>
-        <v>-132154.86312000002</v>
+        <v>-117004.30559999999</v>
       </c>
       <c r="M26" s="160"/>
       <c r="N26" s="215"/>
@@ -9381,7 +9381,7 @@
       </c>
       <c r="H27" s="155">
         <f>futuros!B13</f>
-        <v>279.05</v>
+        <v>274</v>
       </c>
       <c r="I27" s="2"/>
       <c r="J27" s="162">
@@ -9390,7 +9390,7 @@
       <c r="K27" s="162"/>
       <c r="L27" s="215">
         <f t="shared" ref="L27" si="10">D27*(G27-H27)*1.3228</f>
-        <v>-52595.685450000019</v>
+        <v>-43126.587</v>
       </c>
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.2">
@@ -9414,7 +9414,7 @@
       </c>
       <c r="H28" s="155">
         <f>futuros!B13</f>
-        <v>279.05</v>
+        <v>274</v>
       </c>
       <c r="I28" s="2"/>
       <c r="J28" s="162">
@@ -9423,7 +9423,7 @@
       <c r="K28" s="162"/>
       <c r="L28" s="215">
         <f t="shared" ref="L28" si="12">D28*(G28-H28)*1.3228</f>
-        <v>-30094.857450000018</v>
+        <v>-20625.758999999998</v>
       </c>
     </row>
   </sheetData>

--- a/vendas_cafe_em_reais.xlsx
+++ b/vendas_cafe_em_reais.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rotocastro/PycharmProjects/Vendas Cafe/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C925BF8-C978-8F44-8CA6-3F406E6B792A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42019A95-C7FA-5F4F-9F57-BE3C4703570A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5260" yWindow="3300" windowWidth="24060" windowHeight="14420" activeTab="3" xr2:uid="{AC82ADC5-E628-F847-8939-89BAF5623AE6}"/>
+    <workbookView xWindow="33240" yWindow="-5680" windowWidth="24060" windowHeight="14420" activeTab="2" xr2:uid="{AC82ADC5-E628-F847-8939-89BAF5623AE6}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2 (2)" sheetId="16" state="hidden" r:id="rId1"/>
@@ -2633,26 +2633,26 @@
       </c>
       <c r="L6" s="177">
         <f>futuros!B3</f>
-        <v>385.35</v>
+        <v>373.3</v>
       </c>
       <c r="M6" s="177">
         <f>(L6+H6)*1.3228</f>
-        <v>549.42498000000001</v>
+        <v>533.48523999999998</v>
       </c>
       <c r="N6" s="167">
         <f>(E6*(M6+H6))</f>
-        <v>185415.99359999999</v>
+        <v>180315.27679999999</v>
       </c>
       <c r="O6" s="178">
         <v>5.7</v>
       </c>
       <c r="P6" s="167">
         <f t="shared" ref="P6:P16" si="1">M6*O6</f>
-        <v>3131.7223859999999</v>
+        <v>3040.8658679999999</v>
       </c>
       <c r="Q6" s="167">
         <f t="shared" ref="Q6:Q16" si="2">P6*E6</f>
-        <v>1002151.1635199999</v>
+        <v>973077.07776000001</v>
       </c>
     </row>
     <row r="7" spans="2:20" x14ac:dyDescent="0.25">
@@ -2689,26 +2689,26 @@
       </c>
       <c r="L7" s="177">
         <f>L6</f>
-        <v>385.35</v>
+        <v>373.3</v>
       </c>
       <c r="M7" s="177">
         <f>(L7+H7)*1.3228</f>
-        <v>549.42498000000001</v>
+        <v>533.48523999999998</v>
       </c>
       <c r="N7" s="167">
         <f>(E7*(M7+H7))</f>
-        <v>185415.99359999999</v>
+        <v>180315.27679999999</v>
       </c>
       <c r="O7" s="178">
         <v>5.7</v>
       </c>
       <c r="P7" s="167">
         <f t="shared" si="1"/>
-        <v>3131.7223859999999</v>
+        <v>3040.8658679999999</v>
       </c>
       <c r="Q7" s="167">
         <f t="shared" si="2"/>
-        <v>1002151.1635199999</v>
+        <v>973077.07776000001</v>
       </c>
     </row>
     <row r="8" spans="2:20" x14ac:dyDescent="0.25">
@@ -2745,26 +2745,26 @@
       </c>
       <c r="L8" s="177">
         <f>L7</f>
-        <v>385.35</v>
+        <v>373.3</v>
       </c>
       <c r="M8" s="177">
         <f>(L8+H8)*1.3228</f>
-        <v>549.42498000000001</v>
+        <v>533.48523999999998</v>
       </c>
       <c r="N8" s="167">
         <f>(E8*(M8+H8))</f>
-        <v>185415.99359999999</v>
+        <v>180315.27679999999</v>
       </c>
       <c r="O8" s="178">
         <v>5.7</v>
       </c>
       <c r="P8" s="167">
         <f t="shared" si="1"/>
-        <v>3131.7223859999999</v>
+        <v>3040.8658679999999</v>
       </c>
       <c r="Q8" s="167">
         <f t="shared" si="2"/>
-        <v>1002151.1635199999</v>
+        <v>973077.07776000001</v>
       </c>
     </row>
     <row r="9" spans="2:20" x14ac:dyDescent="0.25">
@@ -2801,26 +2801,26 @@
       </c>
       <c r="L9" s="177">
         <f>futuros!B3</f>
-        <v>385.35</v>
+        <v>373.3</v>
       </c>
       <c r="M9" s="177">
         <f>(L9+H9)*1.3228</f>
-        <v>549.42498000000001</v>
+        <v>533.48523999999998</v>
       </c>
       <c r="N9" s="167">
         <f>(E9*(M9+H9))</f>
-        <v>185415.99359999999</v>
+        <v>180315.27679999999</v>
       </c>
       <c r="O9" s="178">
         <v>5.7</v>
       </c>
       <c r="P9" s="167">
         <f t="shared" si="1"/>
-        <v>3131.7223859999999</v>
+        <v>3040.8658679999999</v>
       </c>
       <c r="Q9" s="167">
         <f t="shared" si="2"/>
-        <v>1002151.1635199999</v>
+        <v>973077.07776000001</v>
       </c>
     </row>
     <row r="10" spans="2:20" x14ac:dyDescent="0.25">
@@ -2857,26 +2857,26 @@
       </c>
       <c r="L10" s="177">
         <f>futuros!B4</f>
-        <v>372.55</v>
+        <v>361.1</v>
       </c>
       <c r="M10" s="177">
         <f>(L10+H10)*1.3228</f>
-        <v>532.49314000000004</v>
+        <v>517.34708000000001</v>
       </c>
       <c r="N10" s="167">
         <f>(E10*(M10+H10))</f>
-        <v>179997.80480000001</v>
+        <v>175151.0656</v>
       </c>
       <c r="O10" s="178">
         <v>5.7</v>
       </c>
       <c r="P10" s="167">
         <f t="shared" si="1"/>
-        <v>3035.2108980000003</v>
+        <v>2948.8783560000002</v>
       </c>
       <c r="Q10" s="167">
         <f t="shared" si="2"/>
-        <v>971267.48736000014</v>
+        <v>943641.07392000011</v>
       </c>
     </row>
     <row r="11" spans="2:20" x14ac:dyDescent="0.25">
@@ -2913,26 +2913,26 @@
       </c>
       <c r="L11" s="177">
         <f>futuros!B3</f>
-        <v>385.35</v>
+        <v>373.3</v>
       </c>
       <c r="M11" s="177">
         <f t="shared" ref="M11:M16" si="4">(L11+H11)*1.3228</f>
-        <v>546.77938000000006</v>
+        <v>530.83964000000003</v>
       </c>
       <c r="N11" s="167">
         <f t="shared" ref="N11:N16" si="5">(E11*(M11+H11))</f>
-        <v>183929.40160000001</v>
+        <v>178828.68480000002</v>
       </c>
       <c r="O11" s="178">
         <v>5.7</v>
       </c>
       <c r="P11" s="167">
         <f t="shared" si="1"/>
-        <v>3116.6424660000002</v>
+        <v>3025.7859480000002</v>
       </c>
       <c r="Q11" s="167">
         <f t="shared" si="2"/>
-        <v>997325.58912000014</v>
+        <v>968251.50336000009</v>
       </c>
     </row>
     <row r="12" spans="2:20" x14ac:dyDescent="0.25">
@@ -2969,26 +2969,26 @@
       </c>
       <c r="L12" s="177">
         <f>futuros!B3</f>
-        <v>385.35</v>
+        <v>373.3</v>
       </c>
       <c r="M12" s="177">
         <f t="shared" si="4"/>
-        <v>546.77938000000006</v>
+        <v>530.83964000000003</v>
       </c>
       <c r="N12" s="167">
         <f t="shared" si="5"/>
-        <v>183929.40160000001</v>
+        <v>178828.68480000002</v>
       </c>
       <c r="O12" s="178">
         <v>5.7</v>
       </c>
       <c r="P12" s="167">
         <f t="shared" si="1"/>
-        <v>3116.6424660000002</v>
+        <v>3025.7859480000002</v>
       </c>
       <c r="Q12" s="167">
         <f t="shared" si="2"/>
-        <v>997325.58912000014</v>
+        <v>968251.50336000009</v>
       </c>
     </row>
     <row r="13" spans="2:20" s="166" customFormat="1" x14ac:dyDescent="0.25">
@@ -3025,26 +3025,26 @@
       </c>
       <c r="L13" s="177">
         <f>futuros!B4</f>
-        <v>372.55</v>
+        <v>361.1</v>
       </c>
       <c r="M13" s="177">
         <f t="shared" si="4"/>
-        <v>529.84753999999998</v>
+        <v>514.70148000000006</v>
       </c>
       <c r="N13" s="167">
         <f t="shared" si="5"/>
-        <v>178511.21279999998</v>
+        <v>173664.47360000003</v>
       </c>
       <c r="O13" s="178">
         <v>5.7</v>
       </c>
       <c r="P13" s="167">
         <f t="shared" si="1"/>
-        <v>3020.1309780000001</v>
+        <v>2933.7984360000005</v>
       </c>
       <c r="Q13" s="167">
         <f t="shared" si="2"/>
-        <v>966441.9129600001</v>
+        <v>938815.49952000019</v>
       </c>
       <c r="R13" s="163"/>
       <c r="S13" s="163"/>
@@ -3084,26 +3084,26 @@
       </c>
       <c r="L14" s="177">
         <f>futuros!B5</f>
-        <v>361.35</v>
+        <v>350.45</v>
       </c>
       <c r="M14" s="177">
         <f t="shared" si="4"/>
-        <v>515.03218000000004</v>
+        <v>500.61365999999998</v>
       </c>
       <c r="N14" s="167">
         <f t="shared" si="5"/>
-        <v>173770.29760000002</v>
+        <v>169156.37119999999</v>
       </c>
       <c r="O14" s="178">
         <v>5.7</v>
       </c>
       <c r="P14" s="167">
         <f t="shared" si="1"/>
-        <v>2935.6834260000005</v>
+        <v>2853.4978620000002</v>
       </c>
       <c r="Q14" s="167">
         <f t="shared" si="2"/>
-        <v>939418.6963200001</v>
+        <v>913119.31584000005</v>
       </c>
       <c r="R14" s="163"/>
       <c r="S14" s="163"/>
@@ -3143,26 +3143,26 @@
       </c>
       <c r="L15" s="177">
         <f>futuros!B4</f>
-        <v>372.55</v>
+        <v>361.1</v>
       </c>
       <c r="M15" s="177">
         <f t="shared" si="4"/>
-        <v>463.70753999999999</v>
+        <v>448.56148000000002</v>
       </c>
       <c r="N15" s="167">
         <f t="shared" si="5"/>
-        <v>141346.41279999999</v>
+        <v>136499.67360000001</v>
       </c>
       <c r="O15" s="178">
         <v>5.7</v>
       </c>
       <c r="P15" s="167">
         <f t="shared" si="1"/>
-        <v>2643.1329780000001</v>
+        <v>2556.800436</v>
       </c>
       <c r="Q15" s="167">
         <f t="shared" si="2"/>
-        <v>845802.55296</v>
+        <v>818176.13951999997</v>
       </c>
       <c r="R15" s="163"/>
       <c r="S15" s="163"/>
@@ -3202,26 +3202,26 @@
       </c>
       <c r="L16" s="177">
         <f>futuros!B3</f>
-        <v>385.35</v>
+        <v>373.3</v>
       </c>
       <c r="M16" s="177">
         <f t="shared" si="4"/>
-        <v>579.84938</v>
+        <v>563.90963999999997</v>
       </c>
       <c r="N16" s="167">
         <f t="shared" si="5"/>
-        <v>202511.80160000001</v>
+        <v>197411.08479999998</v>
       </c>
       <c r="O16" s="178">
         <v>5.7</v>
       </c>
       <c r="P16" s="167">
         <f t="shared" si="1"/>
-        <v>3305.141466</v>
+        <v>3214.284948</v>
       </c>
       <c r="Q16" s="167">
         <f t="shared" si="2"/>
-        <v>1057645.2691200001</v>
+        <v>1028571.18336</v>
       </c>
       <c r="R16" s="163"/>
       <c r="S16" s="163"/>
@@ -3348,20 +3348,20 @@
       <c r="L19" s="179"/>
       <c r="M19" s="182">
         <f>N19/E19</f>
-        <v>549.87060428571431</v>
+        <v>537.62525571428569</v>
       </c>
       <c r="N19" s="183">
         <f>SUM(N5:N18)</f>
-        <v>2463420.3072000002</v>
+        <v>2408561.1455999999</v>
       </c>
       <c r="O19" s="184"/>
       <c r="P19" s="185">
         <f>Q19/E19</f>
-        <v>3014.9695872857151</v>
+        <v>2945.1711004285721</v>
       </c>
       <c r="Q19" s="183">
         <f>SUM(Q5:Q18)</f>
-        <v>13507063.751040004</v>
+        <v>13194366.529920002</v>
       </c>
     </row>
     <row r="20" spans="2:17" x14ac:dyDescent="0.25">
@@ -3484,7 +3484,7 @@
       </c>
       <c r="I25" s="177">
         <f>futuros!B3</f>
-        <v>385.35</v>
+        <v>373.3</v>
       </c>
       <c r="K25" s="163"/>
       <c r="L25" s="197">
@@ -3493,7 +3493,7 @@
       <c r="M25" s="163"/>
       <c r="N25" s="198">
         <f>(H25-I25)*1.3228*D25</f>
-        <v>-1369698.5280510001</v>
+        <v>-1289713.7097179999</v>
       </c>
       <c r="O25" s="178">
         <f>O5</f>
@@ -3501,7 +3501,7 @@
       </c>
       <c r="Q25" s="198">
         <f>N25*O25</f>
-        <v>-7807281.6098907003</v>
+        <v>-7351368.1453925995</v>
       </c>
     </row>
     <row r="26" spans="2:17" x14ac:dyDescent="0.25">
@@ -3526,7 +3526,7 @@
       </c>
       <c r="I26" s="177">
         <f>I25</f>
-        <v>385.35</v>
+        <v>373.3</v>
       </c>
       <c r="K26" s="163"/>
       <c r="L26" s="197">
@@ -3535,7 +3535,7 @@
       <c r="M26" s="163"/>
       <c r="N26" s="198">
         <f>(H26-I26)*1.3228*D26</f>
-        <v>-496799.53155000007</v>
+        <v>-465167.11752000003</v>
       </c>
       <c r="O26" s="178">
         <f>O6</f>
@@ -3543,7 +3543,7 @@
       </c>
       <c r="Q26" s="198">
         <f t="shared" ref="Q26:Q27" si="6">N26*O26</f>
-        <v>-2831757.3298350004</v>
+        <v>-2651452.5698640002</v>
       </c>
     </row>
     <row r="27" spans="2:17" x14ac:dyDescent="0.25">
@@ -3567,7 +3567,7 @@
       </c>
       <c r="I27" s="200">
         <f>I26</f>
-        <v>385.35</v>
+        <v>373.3</v>
       </c>
       <c r="K27" s="163"/>
       <c r="L27" s="197">
@@ -3576,7 +3576,7 @@
       <c r="M27" s="163"/>
       <c r="N27" s="198">
         <f>(H27-I27)*1.3228*D27</f>
-        <v>-648545.11558200011</v>
+        <v>-600644.602908</v>
       </c>
       <c r="O27" s="178">
         <f>O7</f>
@@ -3584,7 +3584,7 @@
       </c>
       <c r="Q27" s="198">
         <f t="shared" si="6"/>
-        <v>-3696707.1588174007</v>
+        <v>-3423674.2365756002</v>
       </c>
     </row>
     <row r="28" spans="2:17" x14ac:dyDescent="0.25">
@@ -3607,13 +3607,13 @@
       <c r="M28" s="202"/>
       <c r="N28" s="202">
         <f>SUM(N25:N27)</f>
-        <v>-2515043.175183</v>
+        <v>-2355525.4301459999</v>
       </c>
       <c r="O28" s="201"/>
       <c r="P28" s="201"/>
       <c r="Q28" s="202">
         <f>SUM(Q25:Q27)</f>
-        <v>-14335746.098543102</v>
+        <v>-13426494.951832199</v>
       </c>
     </row>
     <row r="29" spans="2:17" x14ac:dyDescent="0.25">
@@ -4297,7 +4297,7 @@
       </c>
       <c r="I57" s="177">
         <f>futuros!B8</f>
-        <v>320.75</v>
+        <v>312.2</v>
       </c>
       <c r="K57" s="178">
         <f>O8</f>
@@ -4309,7 +4309,7 @@
       <c r="M57" s="198"/>
       <c r="N57" s="198">
         <f>(H57-I57)*1.3228*D57</f>
-        <v>-67333.727789999961</v>
+        <v>-38476.41587999992</v>
       </c>
       <c r="O57" s="166">
         <f>O25</f>
@@ -4317,7 +4317,7 @@
       </c>
       <c r="Q57" s="198">
         <f>N57*O57</f>
-        <v>-383802.24840299977</v>
+        <v>-219315.57051599954</v>
       </c>
     </row>
     <row r="58" spans="2:17" x14ac:dyDescent="0.25">
@@ -4341,7 +4341,7 @@
       </c>
       <c r="I58" s="177">
         <f>I57</f>
-        <v>320.75</v>
+        <v>312.2</v>
       </c>
       <c r="K58" s="178">
         <f>O9</f>
@@ -4353,7 +4353,7 @@
       <c r="M58" s="198"/>
       <c r="N58" s="198">
         <f>(H58-I58)*1.3228*D58</f>
-        <v>4950.1821599999312</v>
+        <v>30601.126079999965</v>
       </c>
       <c r="O58" s="166">
         <f>O26</f>
@@ -4361,7 +4361,7 @@
       </c>
       <c r="Q58" s="198">
         <f>N58*O58</f>
-        <v>28216.038311999608</v>
+        <v>174426.41865599982</v>
       </c>
     </row>
     <row r="59" spans="2:17" x14ac:dyDescent="0.25">
@@ -4384,13 +4384,13 @@
       <c r="M59" s="201"/>
       <c r="N59" s="202">
         <f>SUM(N56:N58)</f>
-        <v>-62383.54563000003</v>
+        <v>-7875.289799999955</v>
       </c>
       <c r="O59" s="201"/>
       <c r="P59" s="201"/>
       <c r="Q59" s="202">
         <f>SUM(Q56:Q58)</f>
-        <v>-355586.21009100019</v>
+        <v>-44889.151859999722</v>
       </c>
     </row>
     <row r="64" spans="2:17" x14ac:dyDescent="0.25">
@@ -8056,8 +8056,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{62549E7F-C2F6-E740-8F49-EDB7C93FB4DD}">
   <dimension ref="A1:D13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0.2"/>
@@ -8088,11 +8088,11 @@
         <v>45930</v>
       </c>
       <c r="B2" s="155">
-        <v>399.75</v>
+        <v>386.95</v>
       </c>
       <c r="C2" s="155">
         <f t="shared" ref="C2:C12" si="0">B2*1.3228</f>
-        <v>528.78930000000003</v>
+        <v>511.85746</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -8100,11 +8100,11 @@
         <v>46021</v>
       </c>
       <c r="B3" s="155">
-        <v>385.35</v>
+        <v>373.3</v>
       </c>
       <c r="C3" s="155">
         <f t="shared" si="0"/>
-        <v>509.74098000000004</v>
+        <v>493.80124000000001</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
@@ -8112,11 +8112,11 @@
         <v>46112</v>
       </c>
       <c r="B4" s="155">
-        <v>372.55</v>
+        <v>361.1</v>
       </c>
       <c r="C4" s="155">
         <f t="shared" si="0"/>
-        <v>492.80914000000001</v>
+        <v>477.66308000000004</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
@@ -8124,11 +8124,11 @@
         <v>46173</v>
       </c>
       <c r="B5" s="155">
-        <v>361.35</v>
+        <v>350.45</v>
       </c>
       <c r="C5" s="155">
         <f t="shared" si="0"/>
-        <v>477.99378000000002</v>
+        <v>463.57525999999996</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
@@ -8136,11 +8136,11 @@
         <v>46231</v>
       </c>
       <c r="B6" s="155">
-        <v>348.65</v>
+        <v>337.95</v>
       </c>
       <c r="C6" s="155">
         <f t="shared" si="0"/>
-        <v>461.19421999999997</v>
+        <v>447.04025999999999</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
@@ -8148,11 +8148,11 @@
         <v>46295</v>
       </c>
       <c r="B7" s="155">
-        <v>333.2</v>
+        <v>324.25</v>
       </c>
       <c r="C7" s="155">
         <f t="shared" si="0"/>
-        <v>440.75695999999999</v>
+        <v>428.91789999999997</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
@@ -8160,11 +8160,11 @@
         <v>46386</v>
       </c>
       <c r="B8" s="155">
-        <v>320.75</v>
+        <v>312.2</v>
       </c>
       <c r="C8" s="155">
         <f t="shared" si="0"/>
-        <v>424.28809999999999</v>
+        <v>412.97816</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
@@ -8172,11 +8172,11 @@
         <v>46477</v>
       </c>
       <c r="B9" s="155">
-        <v>312.14999999999998</v>
+        <v>306.8</v>
       </c>
       <c r="C9" s="155">
         <f t="shared" si="0"/>
-        <v>412.91201999999998</v>
+        <v>405.83503999999999</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
@@ -8184,11 +8184,11 @@
         <v>46538</v>
       </c>
       <c r="B10" s="155">
-        <v>304.89999999999998</v>
+        <v>298.85000000000002</v>
       </c>
       <c r="C10" s="155">
         <f t="shared" si="0"/>
-        <v>403.32171999999997</v>
+        <v>395.31878</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
@@ -8196,11 +8196,11 @@
         <v>46596</v>
       </c>
       <c r="B11" s="155">
-        <v>298</v>
+        <v>292.3</v>
       </c>
       <c r="C11" s="155">
         <f t="shared" si="0"/>
-        <v>394.19439999999997</v>
+        <v>386.65444000000002</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
@@ -8208,11 +8208,11 @@
         <v>46660</v>
       </c>
       <c r="B12" s="155">
-        <v>279.05</v>
+        <v>284.89999999999998</v>
       </c>
       <c r="C12" s="155">
         <f t="shared" si="0"/>
-        <v>369.12734</v>
+        <v>376.86571999999995</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
@@ -8220,11 +8220,11 @@
         <v>46751</v>
       </c>
       <c r="B13" s="155">
-        <v>274</v>
+        <v>279.05</v>
       </c>
       <c r="C13" s="155">
         <f>B13*1.3228</f>
-        <v>362.44720000000001</v>
+        <v>369.12734</v>
       </c>
     </row>
   </sheetData>
@@ -8237,8 +8237,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{435A83C4-FEBA-7F44-BF8C-E9ADE9845E60}">
   <dimension ref="A1:N28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A15" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="L16" sqref="L16:L28"/>
     </sheetView>
   </sheetViews>
@@ -8967,7 +8967,7 @@
       </c>
       <c r="H16" s="155">
         <f>futuros!B3</f>
-        <v>385.35</v>
+        <v>373.3</v>
       </c>
       <c r="I16" s="2"/>
       <c r="J16" s="162">
@@ -8976,7 +8976,7 @@
       <c r="K16" s="162"/>
       <c r="L16" s="215">
         <f t="shared" si="2"/>
-        <v>-1369698.5280510001</v>
+        <v>-1289713.7097180001</v>
       </c>
       <c r="M16" s="160"/>
       <c r="N16" s="215"/>
@@ -9005,7 +9005,7 @@
       </c>
       <c r="H17" s="155">
         <f>futuros!B3</f>
-        <v>385.35</v>
+        <v>373.3</v>
       </c>
       <c r="I17" s="2"/>
       <c r="J17" s="162">
@@ -9014,7 +9014,7 @@
       <c r="K17" s="162"/>
       <c r="L17" s="215">
         <f t="shared" si="2"/>
-        <v>-496799.53155000007</v>
+        <v>-465167.11752000003</v>
       </c>
       <c r="M17" s="160"/>
       <c r="N17" s="215"/>
@@ -9045,7 +9045,7 @@
       </c>
       <c r="H18" s="155">
         <f>futuros!B3</f>
-        <v>385.35</v>
+        <v>373.3</v>
       </c>
       <c r="I18" s="2"/>
       <c r="J18" s="162">
@@ -9054,7 +9054,7 @@
       <c r="K18" s="162"/>
       <c r="L18" s="215">
         <f t="shared" si="2"/>
-        <v>-145299.09681000005</v>
+        <v>-113666.68278000003</v>
       </c>
       <c r="M18" s="160"/>
       <c r="N18" s="215"/>
@@ -9083,7 +9083,7 @@
       </c>
       <c r="H19" s="217">
         <f>futuros!B3</f>
-        <v>385.35</v>
+        <v>373.3</v>
       </c>
       <c r="I19" s="208"/>
       <c r="J19" s="219">
@@ -9092,7 +9092,7 @@
       <c r="K19" s="219"/>
       <c r="L19" s="220">
         <f t="shared" si="2"/>
-        <v>-342627.60823200003</v>
+        <v>-317321.67700800003</v>
       </c>
       <c r="M19" s="218"/>
       <c r="N19" s="220"/>
@@ -9123,7 +9123,7 @@
       </c>
       <c r="H20" s="155">
         <f>futuros!B4</f>
-        <v>372.55</v>
+        <v>361.1</v>
       </c>
       <c r="I20" s="2"/>
       <c r="J20" s="162">
@@ -9132,7 +9132,7 @@
       <c r="K20" s="162"/>
       <c r="L20" s="215">
         <f t="shared" si="2"/>
-        <v>-124823.34333000002</v>
+        <v>-94765.987260000053</v>
       </c>
       <c r="M20" s="160"/>
       <c r="N20" s="215"/>
@@ -9161,7 +9161,7 @@
       </c>
       <c r="H21" s="155">
         <f>futuros!B8</f>
-        <v>320.75</v>
+        <v>312.2</v>
       </c>
       <c r="I21" s="2"/>
       <c r="J21" s="162">
@@ -9170,7 +9170,7 @@
       <c r="K21" s="162"/>
       <c r="L21" s="215">
         <f t="shared" si="2"/>
-        <v>-67333.727789999961</v>
+        <v>-38476.41587999992</v>
       </c>
       <c r="M21" s="160"/>
       <c r="N21" s="215"/>
@@ -9198,7 +9198,7 @@
       </c>
       <c r="H22" s="155">
         <f>futuros!B8</f>
-        <v>320.75</v>
+        <v>312.2</v>
       </c>
       <c r="I22" s="2"/>
       <c r="J22" s="162">
@@ -9207,7 +9207,7 @@
       <c r="K22" s="162"/>
       <c r="L22" s="215">
         <f t="shared" si="2"/>
-        <v>4950.1821599999321</v>
+        <v>30601.126079999965</v>
       </c>
       <c r="M22" s="160"/>
       <c r="N22" s="215"/>
@@ -9235,7 +9235,7 @@
       </c>
       <c r="H23" s="155">
         <f>futuros!B8</f>
-        <v>320.75</v>
+        <v>312.2</v>
       </c>
       <c r="I23" s="2"/>
       <c r="J23" s="162">
@@ -9244,7 +9244,7 @@
       <c r="K23" s="162"/>
       <c r="L23" s="215">
         <f t="shared" si="2"/>
-        <v>-40651.495920000038</v>
+        <v>-15000.552</v>
       </c>
       <c r="M23" s="160"/>
       <c r="N23" s="215"/>
@@ -9273,7 +9273,7 @@
       </c>
       <c r="H24" s="217">
         <f>futuros!B8</f>
-        <v>320.75</v>
+        <v>312.2</v>
       </c>
       <c r="I24" s="208"/>
       <c r="J24" s="219">
@@ -9282,7 +9282,7 @@
       <c r="K24" s="219"/>
       <c r="L24" s="220">
         <f t="shared" si="2"/>
-        <v>-343887.65460000001</v>
+        <v>-254109.3508799999</v>
       </c>
       <c r="M24" s="218"/>
       <c r="N24" s="220"/>
@@ -9311,7 +9311,7 @@
       </c>
       <c r="H25" s="155">
         <f>futuros!B13</f>
-        <v>274</v>
+        <v>279.05</v>
       </c>
       <c r="I25" s="2"/>
       <c r="J25" s="162">
@@ -9320,7 +9320,7 @@
       <c r="K25" s="162"/>
       <c r="L25" s="215">
         <f t="shared" si="2"/>
-        <v>-103128.795</v>
+        <v>-123960.81159000004</v>
       </c>
       <c r="M25" s="160"/>
       <c r="N25" s="215"/>
@@ -9346,7 +9346,7 @@
       </c>
       <c r="H26" s="155">
         <f>futuros!B13</f>
-        <v>274</v>
+        <v>279.05</v>
       </c>
       <c r="I26" s="2"/>
       <c r="J26" s="162">
@@ -9355,7 +9355,7 @@
       <c r="K26" s="162"/>
       <c r="L26" s="215">
         <f t="shared" ref="L26" si="8">D26*(G26-H26)*1.3228</f>
-        <v>-117004.30559999999</v>
+        <v>-132154.86312000002</v>
       </c>
       <c r="M26" s="160"/>
       <c r="N26" s="215"/>
@@ -9381,7 +9381,7 @@
       </c>
       <c r="H27" s="155">
         <f>futuros!B13</f>
-        <v>274</v>
+        <v>279.05</v>
       </c>
       <c r="I27" s="2"/>
       <c r="J27" s="162">
@@ -9390,7 +9390,7 @@
       <c r="K27" s="162"/>
       <c r="L27" s="215">
         <f t="shared" ref="L27" si="10">D27*(G27-H27)*1.3228</f>
-        <v>-43126.587</v>
+        <v>-52595.685450000019</v>
       </c>
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.2">
@@ -9414,7 +9414,7 @@
       </c>
       <c r="H28" s="155">
         <f>futuros!B13</f>
-        <v>274</v>
+        <v>279.05</v>
       </c>
       <c r="I28" s="2"/>
       <c r="J28" s="162">
@@ -9423,7 +9423,7 @@
       <c r="K28" s="162"/>
       <c r="L28" s="215">
         <f t="shared" ref="L28" si="12">D28*(G28-H28)*1.3228</f>
-        <v>-20625.758999999998</v>
+        <v>-30094.857450000018</v>
       </c>
     </row>
   </sheetData>

--- a/vendas_cafe_em_reais.xlsx
+++ b/vendas_cafe_em_reais.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rotocastro/PycharmProjects/Vendas Cafe/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42019A95-C7FA-5F4F-9F57-BE3C4703570A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B3DDE4E-ED7C-7743-A7AE-12493A24F97E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="33240" yWindow="-5680" windowWidth="24060" windowHeight="14420" activeTab="2" xr2:uid="{AC82ADC5-E628-F847-8939-89BAF5623AE6}"/>
+    <workbookView xWindow="5340" yWindow="1960" windowWidth="24060" windowHeight="14420" activeTab="2" xr2:uid="{AC82ADC5-E628-F847-8939-89BAF5623AE6}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2 (2)" sheetId="16" state="hidden" r:id="rId1"/>
@@ -2633,26 +2633,26 @@
       </c>
       <c r="L6" s="177">
         <f>futuros!B3</f>
-        <v>373.3</v>
+        <v>398.55</v>
       </c>
       <c r="M6" s="177">
         <f>(L6+H6)*1.3228</f>
-        <v>533.48523999999998</v>
+        <v>566.88594000000001</v>
       </c>
       <c r="N6" s="167">
         <f>(E6*(M6+H6))</f>
-        <v>180315.27679999999</v>
+        <v>191003.50080000001</v>
       </c>
       <c r="O6" s="178">
         <v>5.7</v>
       </c>
       <c r="P6" s="167">
         <f t="shared" ref="P6:P16" si="1">M6*O6</f>
-        <v>3040.8658679999999</v>
+        <v>3231.2498580000001</v>
       </c>
       <c r="Q6" s="167">
         <f t="shared" ref="Q6:Q16" si="2">P6*E6</f>
-        <v>973077.07776000001</v>
+        <v>1033999.95456</v>
       </c>
     </row>
     <row r="7" spans="2:20" x14ac:dyDescent="0.25">
@@ -2689,26 +2689,26 @@
       </c>
       <c r="L7" s="177">
         <f>L6</f>
-        <v>373.3</v>
+        <v>398.55</v>
       </c>
       <c r="M7" s="177">
         <f>(L7+H7)*1.3228</f>
-        <v>533.48523999999998</v>
+        <v>566.88594000000001</v>
       </c>
       <c r="N7" s="167">
         <f>(E7*(M7+H7))</f>
-        <v>180315.27679999999</v>
+        <v>191003.50080000001</v>
       </c>
       <c r="O7" s="178">
         <v>5.7</v>
       </c>
       <c r="P7" s="167">
         <f t="shared" si="1"/>
-        <v>3040.8658679999999</v>
+        <v>3231.2498580000001</v>
       </c>
       <c r="Q7" s="167">
         <f t="shared" si="2"/>
-        <v>973077.07776000001</v>
+        <v>1033999.95456</v>
       </c>
     </row>
     <row r="8" spans="2:20" x14ac:dyDescent="0.25">
@@ -2745,26 +2745,26 @@
       </c>
       <c r="L8" s="177">
         <f>L7</f>
-        <v>373.3</v>
+        <v>398.55</v>
       </c>
       <c r="M8" s="177">
         <f>(L8+H8)*1.3228</f>
-        <v>533.48523999999998</v>
+        <v>566.88594000000001</v>
       </c>
       <c r="N8" s="167">
         <f>(E8*(M8+H8))</f>
-        <v>180315.27679999999</v>
+        <v>191003.50080000001</v>
       </c>
       <c r="O8" s="178">
         <v>5.7</v>
       </c>
       <c r="P8" s="167">
         <f t="shared" si="1"/>
-        <v>3040.8658679999999</v>
+        <v>3231.2498580000001</v>
       </c>
       <c r="Q8" s="167">
         <f t="shared" si="2"/>
-        <v>973077.07776000001</v>
+        <v>1033999.95456</v>
       </c>
     </row>
     <row r="9" spans="2:20" x14ac:dyDescent="0.25">
@@ -2801,26 +2801,26 @@
       </c>
       <c r="L9" s="177">
         <f>futuros!B3</f>
-        <v>373.3</v>
+        <v>398.55</v>
       </c>
       <c r="M9" s="177">
         <f>(L9+H9)*1.3228</f>
-        <v>533.48523999999998</v>
+        <v>566.88594000000001</v>
       </c>
       <c r="N9" s="167">
         <f>(E9*(M9+H9))</f>
-        <v>180315.27679999999</v>
+        <v>191003.50080000001</v>
       </c>
       <c r="O9" s="178">
         <v>5.7</v>
       </c>
       <c r="P9" s="167">
         <f t="shared" si="1"/>
-        <v>3040.8658679999999</v>
+        <v>3231.2498580000001</v>
       </c>
       <c r="Q9" s="167">
         <f t="shared" si="2"/>
-        <v>973077.07776000001</v>
+        <v>1033999.95456</v>
       </c>
     </row>
     <row r="10" spans="2:20" x14ac:dyDescent="0.25">
@@ -2857,26 +2857,26 @@
       </c>
       <c r="L10" s="177">
         <f>futuros!B4</f>
-        <v>361.1</v>
+        <v>383.3</v>
       </c>
       <c r="M10" s="177">
         <f>(L10+H10)*1.3228</f>
-        <v>517.34708000000001</v>
+        <v>546.71324000000004</v>
       </c>
       <c r="N10" s="167">
         <f>(E10*(M10+H10))</f>
-        <v>175151.0656</v>
+        <v>184548.23680000001</v>
       </c>
       <c r="O10" s="178">
         <v>5.7</v>
       </c>
       <c r="P10" s="167">
         <f t="shared" si="1"/>
-        <v>2948.8783560000002</v>
+        <v>3116.2654680000005</v>
       </c>
       <c r="Q10" s="167">
         <f t="shared" si="2"/>
-        <v>943641.07392000011</v>
+        <v>997204.94976000022</v>
       </c>
     </row>
     <row r="11" spans="2:20" x14ac:dyDescent="0.25">
@@ -2913,26 +2913,26 @@
       </c>
       <c r="L11" s="177">
         <f>futuros!B3</f>
-        <v>373.3</v>
+        <v>398.55</v>
       </c>
       <c r="M11" s="177">
         <f t="shared" ref="M11:M16" si="4">(L11+H11)*1.3228</f>
-        <v>530.83964000000003</v>
+        <v>564.24034000000006</v>
       </c>
       <c r="N11" s="167">
         <f t="shared" ref="N11:N16" si="5">(E11*(M11+H11))</f>
-        <v>178828.68480000002</v>
+        <v>189516.90880000003</v>
       </c>
       <c r="O11" s="178">
         <v>5.7</v>
       </c>
       <c r="P11" s="167">
         <f t="shared" si="1"/>
-        <v>3025.7859480000002</v>
+        <v>3216.1699380000005</v>
       </c>
       <c r="Q11" s="167">
         <f t="shared" si="2"/>
-        <v>968251.50336000009</v>
+        <v>1029174.3801600002</v>
       </c>
     </row>
     <row r="12" spans="2:20" x14ac:dyDescent="0.25">
@@ -2969,26 +2969,26 @@
       </c>
       <c r="L12" s="177">
         <f>futuros!B3</f>
-        <v>373.3</v>
+        <v>398.55</v>
       </c>
       <c r="M12" s="177">
         <f t="shared" si="4"/>
-        <v>530.83964000000003</v>
+        <v>564.24034000000006</v>
       </c>
       <c r="N12" s="167">
         <f t="shared" si="5"/>
-        <v>178828.68480000002</v>
+        <v>189516.90880000003</v>
       </c>
       <c r="O12" s="178">
         <v>5.7</v>
       </c>
       <c r="P12" s="167">
         <f t="shared" si="1"/>
-        <v>3025.7859480000002</v>
+        <v>3216.1699380000005</v>
       </c>
       <c r="Q12" s="167">
         <f t="shared" si="2"/>
-        <v>968251.50336000009</v>
+        <v>1029174.3801600002</v>
       </c>
     </row>
     <row r="13" spans="2:20" s="166" customFormat="1" x14ac:dyDescent="0.25">
@@ -3025,26 +3025,26 @@
       </c>
       <c r="L13" s="177">
         <f>futuros!B4</f>
-        <v>361.1</v>
+        <v>383.3</v>
       </c>
       <c r="M13" s="177">
         <f t="shared" si="4"/>
-        <v>514.70148000000006</v>
+        <v>544.06763999999998</v>
       </c>
       <c r="N13" s="167">
         <f t="shared" si="5"/>
-        <v>173664.47360000003</v>
+        <v>183061.64480000001</v>
       </c>
       <c r="O13" s="178">
         <v>5.7</v>
       </c>
       <c r="P13" s="167">
         <f t="shared" si="1"/>
-        <v>2933.7984360000005</v>
+        <v>3101.1855479999999</v>
       </c>
       <c r="Q13" s="167">
         <f t="shared" si="2"/>
-        <v>938815.49952000019</v>
+        <v>992379.37535999995</v>
       </c>
       <c r="R13" s="163"/>
       <c r="S13" s="163"/>
@@ -3084,26 +3084,26 @@
       </c>
       <c r="L14" s="177">
         <f>futuros!B5</f>
-        <v>350.45</v>
+        <v>370.85</v>
       </c>
       <c r="M14" s="177">
         <f t="shared" si="4"/>
-        <v>500.61365999999998</v>
+        <v>527.59878000000003</v>
       </c>
       <c r="N14" s="167">
         <f t="shared" si="5"/>
-        <v>169156.37119999999</v>
+        <v>177791.60960000003</v>
       </c>
       <c r="O14" s="178">
         <v>5.7</v>
       </c>
       <c r="P14" s="167">
         <f t="shared" si="1"/>
-        <v>2853.4978620000002</v>
+        <v>3007.3130460000002</v>
       </c>
       <c r="Q14" s="167">
         <f t="shared" si="2"/>
-        <v>913119.31584000005</v>
+        <v>962340.17472000001</v>
       </c>
       <c r="R14" s="163"/>
       <c r="S14" s="163"/>
@@ -3143,26 +3143,26 @@
       </c>
       <c r="L15" s="177">
         <f>futuros!B4</f>
-        <v>361.1</v>
+        <v>383.3</v>
       </c>
       <c r="M15" s="177">
         <f t="shared" si="4"/>
-        <v>448.56148000000002</v>
+        <v>477.92764</v>
       </c>
       <c r="N15" s="167">
         <f t="shared" si="5"/>
-        <v>136499.67360000001</v>
+        <v>145896.84479999999</v>
       </c>
       <c r="O15" s="178">
         <v>5.7</v>
       </c>
       <c r="P15" s="167">
         <f t="shared" si="1"/>
-        <v>2556.800436</v>
+        <v>2724.1875479999999</v>
       </c>
       <c r="Q15" s="167">
         <f t="shared" si="2"/>
-        <v>818176.13951999997</v>
+        <v>871740.01535999996</v>
       </c>
       <c r="R15" s="163"/>
       <c r="S15" s="163"/>
@@ -3202,26 +3202,26 @@
       </c>
       <c r="L16" s="177">
         <f>futuros!B3</f>
-        <v>373.3</v>
+        <v>398.55</v>
       </c>
       <c r="M16" s="177">
         <f t="shared" si="4"/>
-        <v>563.90963999999997</v>
+        <v>597.31034</v>
       </c>
       <c r="N16" s="167">
         <f t="shared" si="5"/>
-        <v>197411.08479999998</v>
+        <v>208099.3088</v>
       </c>
       <c r="O16" s="178">
         <v>5.7</v>
       </c>
       <c r="P16" s="167">
         <f t="shared" si="1"/>
-        <v>3214.284948</v>
+        <v>3404.6689380000003</v>
       </c>
       <c r="Q16" s="167">
         <f t="shared" si="2"/>
-        <v>1028571.18336</v>
+        <v>1089494.0601600001</v>
       </c>
       <c r="R16" s="163"/>
       <c r="S16" s="163"/>
@@ -3348,20 +3348,20 @@
       <c r="L19" s="179"/>
       <c r="M19" s="182">
         <f>N19/E19</f>
-        <v>537.62525571428569</v>
+        <v>562.54586285714299</v>
       </c>
       <c r="N19" s="183">
         <f>SUM(N5:N18)</f>
-        <v>2408561.1455999999</v>
+        <v>2520205.4656000007</v>
       </c>
       <c r="O19" s="184"/>
       <c r="P19" s="185">
         <f>Q19/E19</f>
-        <v>2945.1711004285721</v>
+        <v>3087.2185611428572</v>
       </c>
       <c r="Q19" s="183">
         <f>SUM(Q5:Q18)</f>
-        <v>13194366.529920002</v>
+        <v>13830739.15392</v>
       </c>
     </row>
     <row r="20" spans="2:17" x14ac:dyDescent="0.25">
@@ -3484,7 +3484,7 @@
       </c>
       <c r="I25" s="177">
         <f>futuros!B3</f>
-        <v>373.3</v>
+        <v>398.55</v>
       </c>
       <c r="K25" s="163"/>
       <c r="L25" s="197">
@@ -3493,7 +3493,7 @@
       <c r="M25" s="163"/>
       <c r="N25" s="198">
         <f>(H25-I25)*1.3228*D25</f>
-        <v>-1289713.7097179999</v>
+        <v>-1457316.7522830002</v>
       </c>
       <c r="O25" s="178">
         <f>O5</f>
@@ -3501,7 +3501,7 @@
       </c>
       <c r="Q25" s="198">
         <f>N25*O25</f>
-        <v>-7351368.1453925995</v>
+        <v>-8306705.4880131008</v>
       </c>
     </row>
     <row r="26" spans="2:17" x14ac:dyDescent="0.25">
@@ -3526,7 +3526,7 @@
       </c>
       <c r="I26" s="177">
         <f>I25</f>
-        <v>373.3</v>
+        <v>398.55</v>
       </c>
       <c r="K26" s="163"/>
       <c r="L26" s="197">
@@ -3535,7 +3535,7 @@
       <c r="M26" s="163"/>
       <c r="N26" s="198">
         <f>(H26-I26)*1.3228*D26</f>
-        <v>-465167.11752000003</v>
+        <v>-531450.80666999996</v>
       </c>
       <c r="O26" s="178">
         <f>O6</f>
@@ -3543,7 +3543,7 @@
       </c>
       <c r="Q26" s="198">
         <f t="shared" ref="Q26:Q27" si="6">N26*O26</f>
-        <v>-2651452.5698640002</v>
+        <v>-3029269.5980189997</v>
       </c>
     </row>
     <row r="27" spans="2:17" x14ac:dyDescent="0.25">
@@ -3567,7 +3567,7 @@
       </c>
       <c r="I27" s="200">
         <f>I26</f>
-        <v>373.3</v>
+        <v>398.55</v>
       </c>
       <c r="K27" s="163"/>
       <c r="L27" s="197">
@@ -3576,7 +3576,7 @@
       <c r="M27" s="163"/>
       <c r="N27" s="198">
         <f>(H27-I27)*1.3228*D27</f>
-        <v>-600644.602908</v>
+        <v>-701017.046478</v>
       </c>
       <c r="O27" s="178">
         <f>O7</f>
@@ -3584,7 +3584,7 @@
       </c>
       <c r="Q27" s="198">
         <f t="shared" si="6"/>
-        <v>-3423674.2365756002</v>
+        <v>-3995797.1649246002</v>
       </c>
     </row>
     <row r="28" spans="2:17" x14ac:dyDescent="0.25">
@@ -3607,13 +3607,13 @@
       <c r="M28" s="202"/>
       <c r="N28" s="202">
         <f>SUM(N25:N27)</f>
-        <v>-2355525.4301459999</v>
+        <v>-2689784.6054310002</v>
       </c>
       <c r="O28" s="201"/>
       <c r="P28" s="201"/>
       <c r="Q28" s="202">
         <f>SUM(Q25:Q27)</f>
-        <v>-13426494.951832199</v>
+        <v>-15331772.250956699</v>
       </c>
     </row>
     <row r="29" spans="2:17" x14ac:dyDescent="0.25">
@@ -4297,7 +4297,7 @@
       </c>
       <c r="I57" s="177">
         <f>futuros!B8</f>
-        <v>312.2</v>
+        <v>328.95</v>
       </c>
       <c r="K57" s="178">
         <f>O8</f>
@@ -4309,7 +4309,7 @@
       <c r="M57" s="198"/>
       <c r="N57" s="198">
         <f>(H57-I57)*1.3228*D57</f>
-        <v>-38476.41587999992</v>
+        <v>-95009.746229999917</v>
       </c>
       <c r="O57" s="166">
         <f>O25</f>
@@ -4317,7 +4317,7 @@
       </c>
       <c r="Q57" s="198">
         <f>N57*O57</f>
-        <v>-219315.57051599954</v>
+        <v>-541555.55351099954</v>
       </c>
     </row>
     <row r="58" spans="2:17" x14ac:dyDescent="0.25">
@@ -4341,7 +4341,7 @@
       </c>
       <c r="I58" s="177">
         <f>I57</f>
-        <v>312.2</v>
+        <v>328.95</v>
       </c>
       <c r="K58" s="178">
         <f>O9</f>
@@ -4353,7 +4353,7 @@
       <c r="M58" s="198"/>
       <c r="N58" s="198">
         <f>(H58-I58)*1.3228*D58</f>
-        <v>30601.126079999965</v>
+        <v>-19650.723120000035</v>
       </c>
       <c r="O58" s="166">
         <f>O26</f>
@@ -4361,7 +4361,7 @@
       </c>
       <c r="Q58" s="198">
         <f>N58*O58</f>
-        <v>174426.41865599982</v>
+        <v>-112009.12178400021</v>
       </c>
     </row>
     <row r="59" spans="2:17" x14ac:dyDescent="0.25">
@@ -4384,13 +4384,13 @@
       <c r="M59" s="201"/>
       <c r="N59" s="202">
         <f>SUM(N56:N58)</f>
-        <v>-7875.289799999955</v>
+        <v>-114660.46934999996</v>
       </c>
       <c r="O59" s="201"/>
       <c r="P59" s="201"/>
       <c r="Q59" s="202">
         <f>SUM(Q56:Q58)</f>
-        <v>-44889.151859999722</v>
+        <v>-653564.67529499973</v>
       </c>
     </row>
     <row r="64" spans="2:17" x14ac:dyDescent="0.25">
@@ -4531,7 +4531,7 @@
   <dimension ref="A1:T71"/>
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A39" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A59" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="E69" sqref="E69"/>
     </sheetView>
   </sheetViews>
@@ -8057,7 +8057,7 @@
   <dimension ref="A1:D13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0.2"/>
@@ -8080,7 +8080,7 @@
         <v>270</v>
       </c>
       <c r="D1" s="162">
-        <v>45908</v>
+        <v>45915</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -8088,11 +8088,11 @@
         <v>45930</v>
       </c>
       <c r="B2" s="155">
-        <v>386.95</v>
+        <v>410.65</v>
       </c>
       <c r="C2" s="155">
         <f t="shared" ref="C2:C12" si="0">B2*1.3228</f>
-        <v>511.85746</v>
+        <v>543.20781999999997</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -8100,11 +8100,11 @@
         <v>46021</v>
       </c>
       <c r="B3" s="155">
-        <v>373.3</v>
+        <v>398.55</v>
       </c>
       <c r="C3" s="155">
         <f t="shared" si="0"/>
-        <v>493.80124000000001</v>
+        <v>527.20194000000004</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
@@ -8112,11 +8112,11 @@
         <v>46112</v>
       </c>
       <c r="B4" s="155">
-        <v>361.1</v>
+        <v>383.3</v>
       </c>
       <c r="C4" s="155">
         <f t="shared" si="0"/>
-        <v>477.66308000000004</v>
+        <v>507.02924000000002</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
@@ -8124,11 +8124,11 @@
         <v>46173</v>
       </c>
       <c r="B5" s="155">
-        <v>350.45</v>
+        <v>370.85</v>
       </c>
       <c r="C5" s="155">
         <f t="shared" si="0"/>
-        <v>463.57525999999996</v>
+        <v>490.56038000000001</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
@@ -8136,11 +8136,11 @@
         <v>46231</v>
       </c>
       <c r="B6" s="155">
-        <v>337.95</v>
+        <v>357</v>
       </c>
       <c r="C6" s="155">
         <f t="shared" si="0"/>
-        <v>447.04025999999999</v>
+        <v>472.2396</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
@@ -8148,11 +8148,11 @@
         <v>46295</v>
       </c>
       <c r="B7" s="155">
-        <v>324.25</v>
+        <v>342.4</v>
       </c>
       <c r="C7" s="155">
         <f t="shared" si="0"/>
-        <v>428.91789999999997</v>
+        <v>452.92671999999999</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
@@ -8160,11 +8160,11 @@
         <v>46386</v>
       </c>
       <c r="B8" s="155">
-        <v>312.2</v>
+        <v>328.95</v>
       </c>
       <c r="C8" s="155">
         <f t="shared" si="0"/>
-        <v>412.97816</v>
+        <v>435.13505999999995</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
@@ -8172,11 +8172,11 @@
         <v>46477</v>
       </c>
       <c r="B9" s="155">
-        <v>306.8</v>
+        <v>320</v>
       </c>
       <c r="C9" s="155">
         <f t="shared" si="0"/>
-        <v>405.83503999999999</v>
+        <v>423.29599999999999</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
@@ -8184,11 +8184,11 @@
         <v>46538</v>
       </c>
       <c r="B10" s="155">
-        <v>298.85000000000002</v>
+        <v>311.5</v>
       </c>
       <c r="C10" s="155">
         <f t="shared" si="0"/>
-        <v>395.31878</v>
+        <v>412.05219999999997</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
@@ -8196,11 +8196,11 @@
         <v>46596</v>
       </c>
       <c r="B11" s="155">
-        <v>292.3</v>
+        <v>303.55</v>
       </c>
       <c r="C11" s="155">
         <f t="shared" si="0"/>
-        <v>386.65444000000002</v>
+        <v>401.53593999999998</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
@@ -8208,11 +8208,11 @@
         <v>46660</v>
       </c>
       <c r="B12" s="155">
-        <v>284.89999999999998</v>
+        <v>295.95</v>
       </c>
       <c r="C12" s="155">
         <f t="shared" si="0"/>
-        <v>376.86571999999995</v>
+        <v>391.48265999999995</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
@@ -8220,11 +8220,11 @@
         <v>46751</v>
       </c>
       <c r="B13" s="155">
-        <v>279.05</v>
+        <v>289</v>
       </c>
       <c r="C13" s="155">
         <f>B13*1.3228</f>
-        <v>369.12734</v>
+        <v>382.28919999999999</v>
       </c>
     </row>
   </sheetData>
@@ -8238,7 +8238,7 @@
   <dimension ref="A1:N28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A15" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="L16" sqref="L16:L28"/>
     </sheetView>
   </sheetViews>
@@ -8967,7 +8967,7 @@
       </c>
       <c r="H16" s="155">
         <f>futuros!B3</f>
-        <v>373.3</v>
+        <v>398.55</v>
       </c>
       <c r="I16" s="2"/>
       <c r="J16" s="162">
@@ -8976,7 +8976,7 @@
       <c r="K16" s="162"/>
       <c r="L16" s="215">
         <f t="shared" si="2"/>
-        <v>-1289713.7097180001</v>
+        <v>-1457316.7522830002</v>
       </c>
       <c r="M16" s="160"/>
       <c r="N16" s="215"/>
@@ -9005,7 +9005,7 @@
       </c>
       <c r="H17" s="155">
         <f>futuros!B3</f>
-        <v>373.3</v>
+        <v>398.55</v>
       </c>
       <c r="I17" s="2"/>
       <c r="J17" s="162">
@@ -9014,7 +9014,7 @@
       <c r="K17" s="162"/>
       <c r="L17" s="215">
         <f t="shared" si="2"/>
-        <v>-465167.11752000003</v>
+        <v>-531450.80667000008</v>
       </c>
       <c r="M17" s="160"/>
       <c r="N17" s="215"/>
@@ -9045,7 +9045,7 @@
       </c>
       <c r="H18" s="155">
         <f>futuros!B3</f>
-        <v>373.3</v>
+        <v>398.55</v>
       </c>
       <c r="I18" s="2"/>
       <c r="J18" s="162">
@@ -9054,7 +9054,7 @@
       <c r="K18" s="162"/>
       <c r="L18" s="215">
         <f t="shared" si="2"/>
-        <v>-113666.68278000003</v>
+        <v>-179950.37193000005</v>
       </c>
       <c r="M18" s="160"/>
       <c r="N18" s="215"/>
@@ -9083,7 +9083,7 @@
       </c>
       <c r="H19" s="217">
         <f>futuros!B3</f>
-        <v>373.3</v>
+        <v>398.55</v>
       </c>
       <c r="I19" s="208"/>
       <c r="J19" s="219">
@@ -9092,7 +9092,7 @@
       <c r="K19" s="219"/>
       <c r="L19" s="220">
         <f t="shared" si="2"/>
-        <v>-317321.67700800003</v>
+        <v>-370348.62832800002</v>
       </c>
       <c r="M19" s="218"/>
       <c r="N19" s="220"/>
@@ -9123,7 +9123,7 @@
       </c>
       <c r="H20" s="155">
         <f>futuros!B4</f>
-        <v>361.1</v>
+        <v>383.3</v>
       </c>
       <c r="I20" s="2"/>
       <c r="J20" s="162">
@@ -9132,7 +9132,7 @@
       <c r="K20" s="162"/>
       <c r="L20" s="215">
         <f t="shared" si="2"/>
-        <v>-94765.987260000053</v>
+        <v>-153043.13178000003</v>
       </c>
       <c r="M20" s="160"/>
       <c r="N20" s="215"/>
@@ -9161,7 +9161,7 @@
       </c>
       <c r="H21" s="155">
         <f>futuros!B8</f>
-        <v>312.2</v>
+        <v>328.95</v>
       </c>
       <c r="I21" s="2"/>
       <c r="J21" s="162">
@@ -9170,7 +9170,7 @@
       <c r="K21" s="162"/>
       <c r="L21" s="215">
         <f t="shared" si="2"/>
-        <v>-38476.41587999992</v>
+        <v>-95009.746229999932</v>
       </c>
       <c r="M21" s="160"/>
       <c r="N21" s="215"/>
@@ -9198,7 +9198,7 @@
       </c>
       <c r="H22" s="155">
         <f>futuros!B8</f>
-        <v>312.2</v>
+        <v>328.95</v>
       </c>
       <c r="I22" s="2"/>
       <c r="J22" s="162">
@@ -9207,7 +9207,7 @@
       <c r="K22" s="162"/>
       <c r="L22" s="215">
         <f t="shared" si="2"/>
-        <v>30601.126079999965</v>
+        <v>-19650.723120000031</v>
       </c>
       <c r="M22" s="160"/>
       <c r="N22" s="215"/>
@@ -9235,7 +9235,7 @@
       </c>
       <c r="H23" s="155">
         <f>futuros!B8</f>
-        <v>312.2</v>
+        <v>328.95</v>
       </c>
       <c r="I23" s="2"/>
       <c r="J23" s="162">
@@ -9244,7 +9244,7 @@
       <c r="K23" s="162"/>
       <c r="L23" s="215">
         <f t="shared" si="2"/>
-        <v>-15000.552</v>
+        <v>-65252.4012</v>
       </c>
       <c r="M23" s="160"/>
       <c r="N23" s="215"/>
@@ -9273,7 +9273,7 @@
       </c>
       <c r="H24" s="217">
         <f>futuros!B8</f>
-        <v>312.2</v>
+        <v>328.95</v>
       </c>
       <c r="I24" s="208"/>
       <c r="J24" s="219">
@@ -9282,7 +9282,7 @@
       <c r="K24" s="219"/>
       <c r="L24" s="220">
         <f t="shared" si="2"/>
-        <v>-254109.3508799999</v>
+        <v>-429990.82307999989</v>
       </c>
       <c r="M24" s="218"/>
       <c r="N24" s="220"/>
@@ -9311,7 +9311,7 @@
       </c>
       <c r="H25" s="155">
         <f>futuros!B13</f>
-        <v>279.05</v>
+        <v>289</v>
       </c>
       <c r="I25" s="2"/>
       <c r="J25" s="162">
@@ -9320,7 +9320,7 @@
       <c r="K25" s="162"/>
       <c r="L25" s="215">
         <f t="shared" si="2"/>
-        <v>-123960.81159000004</v>
+        <v>-165006.07199999999</v>
       </c>
       <c r="M25" s="160"/>
       <c r="N25" s="215"/>
@@ -9346,7 +9346,7 @@
       </c>
       <c r="H26" s="155">
         <f>futuros!B13</f>
-        <v>279.05</v>
+        <v>289</v>
       </c>
       <c r="I26" s="2"/>
       <c r="J26" s="162">
@@ -9355,7 +9355,7 @@
       <c r="K26" s="162"/>
       <c r="L26" s="215">
         <f t="shared" ref="L26" si="8">D26*(G26-H26)*1.3228</f>
-        <v>-132154.86312000002</v>
+        <v>-162005.96160000001</v>
       </c>
       <c r="M26" s="160"/>
       <c r="N26" s="215"/>
@@ -9381,7 +9381,7 @@
       </c>
       <c r="H27" s="155">
         <f>futuros!B13</f>
-        <v>279.05</v>
+        <v>289</v>
       </c>
       <c r="I27" s="2"/>
       <c r="J27" s="162">
@@ -9390,7 +9390,7 @@
       <c r="K27" s="162"/>
       <c r="L27" s="215">
         <f t="shared" ref="L27" si="10">D27*(G27-H27)*1.3228</f>
-        <v>-52595.685450000019</v>
+        <v>-71252.622000000003</v>
       </c>
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.2">
@@ -9414,7 +9414,7 @@
       </c>
       <c r="H28" s="155">
         <f>futuros!B13</f>
-        <v>279.05</v>
+        <v>289</v>
       </c>
       <c r="I28" s="2"/>
       <c r="J28" s="162">
@@ -9423,7 +9423,7 @@
       <c r="K28" s="162"/>
       <c r="L28" s="215">
         <f t="shared" ref="L28" si="12">D28*(G28-H28)*1.3228</f>
-        <v>-30094.857450000018</v>
+        <v>-48751.794000000002</v>
       </c>
     </row>
   </sheetData>

--- a/vendas_cafe_em_reais.xlsx
+++ b/vendas_cafe_em_reais.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rotocastro/PycharmProjects/Vendas Cafe/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B3DDE4E-ED7C-7743-A7AE-12493A24F97E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38C8DACC-49DD-4C4F-B7DF-F8F729991E49}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5340" yWindow="1960" windowWidth="24060" windowHeight="14420" activeTab="2" xr2:uid="{AC82ADC5-E628-F847-8939-89BAF5623AE6}"/>
+    <workbookView xWindow="5340" yWindow="1960" windowWidth="24060" windowHeight="14420" activeTab="3" xr2:uid="{AC82ADC5-E628-F847-8939-89BAF5623AE6}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2 (2)" sheetId="16" state="hidden" r:id="rId1"/>
@@ -2633,26 +2633,26 @@
       </c>
       <c r="L6" s="177">
         <f>futuros!B3</f>
-        <v>398.55</v>
+        <v>416.65</v>
       </c>
       <c r="M6" s="177">
         <f>(L6+H6)*1.3228</f>
-        <v>566.88594000000001</v>
+        <v>590.82862</v>
       </c>
       <c r="N6" s="167">
         <f>(E6*(M6+H6))</f>
-        <v>191003.50080000001</v>
+        <v>198665.15840000001</v>
       </c>
       <c r="O6" s="178">
         <v>5.7</v>
       </c>
       <c r="P6" s="167">
         <f t="shared" ref="P6:P16" si="1">M6*O6</f>
-        <v>3231.2498580000001</v>
+        <v>3367.7231340000003</v>
       </c>
       <c r="Q6" s="167">
         <f t="shared" ref="Q6:Q16" si="2">P6*E6</f>
-        <v>1033999.95456</v>
+        <v>1077671.4028800002</v>
       </c>
     </row>
     <row r="7" spans="2:20" x14ac:dyDescent="0.25">
@@ -2689,26 +2689,26 @@
       </c>
       <c r="L7" s="177">
         <f>L6</f>
-        <v>398.55</v>
+        <v>416.65</v>
       </c>
       <c r="M7" s="177">
         <f>(L7+H7)*1.3228</f>
-        <v>566.88594000000001</v>
+        <v>590.82862</v>
       </c>
       <c r="N7" s="167">
         <f>(E7*(M7+H7))</f>
-        <v>191003.50080000001</v>
+        <v>198665.15840000001</v>
       </c>
       <c r="O7" s="178">
         <v>5.7</v>
       </c>
       <c r="P7" s="167">
         <f t="shared" si="1"/>
-        <v>3231.2498580000001</v>
+        <v>3367.7231340000003</v>
       </c>
       <c r="Q7" s="167">
         <f t="shared" si="2"/>
-        <v>1033999.95456</v>
+        <v>1077671.4028800002</v>
       </c>
     </row>
     <row r="8" spans="2:20" x14ac:dyDescent="0.25">
@@ -2745,26 +2745,26 @@
       </c>
       <c r="L8" s="177">
         <f>L7</f>
-        <v>398.55</v>
+        <v>416.65</v>
       </c>
       <c r="M8" s="177">
         <f>(L8+H8)*1.3228</f>
-        <v>566.88594000000001</v>
+        <v>590.82862</v>
       </c>
       <c r="N8" s="167">
         <f>(E8*(M8+H8))</f>
-        <v>191003.50080000001</v>
+        <v>198665.15840000001</v>
       </c>
       <c r="O8" s="178">
         <v>5.7</v>
       </c>
       <c r="P8" s="167">
         <f t="shared" si="1"/>
-        <v>3231.2498580000001</v>
+        <v>3367.7231340000003</v>
       </c>
       <c r="Q8" s="167">
         <f t="shared" si="2"/>
-        <v>1033999.95456</v>
+        <v>1077671.4028800002</v>
       </c>
     </row>
     <row r="9" spans="2:20" x14ac:dyDescent="0.25">
@@ -2801,26 +2801,26 @@
       </c>
       <c r="L9" s="177">
         <f>futuros!B3</f>
-        <v>398.55</v>
+        <v>416.65</v>
       </c>
       <c r="M9" s="177">
         <f>(L9+H9)*1.3228</f>
-        <v>566.88594000000001</v>
+        <v>590.82862</v>
       </c>
       <c r="N9" s="167">
         <f>(E9*(M9+H9))</f>
-        <v>191003.50080000001</v>
+        <v>198665.15840000001</v>
       </c>
       <c r="O9" s="178">
         <v>5.7</v>
       </c>
       <c r="P9" s="167">
         <f t="shared" si="1"/>
-        <v>3231.2498580000001</v>
+        <v>3367.7231340000003</v>
       </c>
       <c r="Q9" s="167">
         <f t="shared" si="2"/>
-        <v>1033999.95456</v>
+        <v>1077671.4028800002</v>
       </c>
     </row>
     <row r="10" spans="2:20" x14ac:dyDescent="0.25">
@@ -2857,26 +2857,26 @@
       </c>
       <c r="L10" s="177">
         <f>futuros!B4</f>
-        <v>383.3</v>
+        <v>399.6</v>
       </c>
       <c r="M10" s="177">
         <f>(L10+H10)*1.3228</f>
-        <v>546.71324000000004</v>
+        <v>568.27488000000005</v>
       </c>
       <c r="N10" s="167">
         <f>(E10*(M10+H10))</f>
-        <v>184548.23680000001</v>
+        <v>191447.96160000001</v>
       </c>
       <c r="O10" s="178">
         <v>5.7</v>
       </c>
       <c r="P10" s="167">
         <f t="shared" si="1"/>
-        <v>3116.2654680000005</v>
+        <v>3239.1668160000004</v>
       </c>
       <c r="Q10" s="167">
         <f t="shared" si="2"/>
-        <v>997204.94976000022</v>
+        <v>1036533.3811200002</v>
       </c>
     </row>
     <row r="11" spans="2:20" x14ac:dyDescent="0.25">
@@ -2913,26 +2913,26 @@
       </c>
       <c r="L11" s="177">
         <f>futuros!B3</f>
-        <v>398.55</v>
+        <v>416.65</v>
       </c>
       <c r="M11" s="177">
         <f t="shared" ref="M11:M16" si="4">(L11+H11)*1.3228</f>
-        <v>564.24034000000006</v>
+        <v>588.18301999999994</v>
       </c>
       <c r="N11" s="167">
         <f t="shared" ref="N11:N16" si="5">(E11*(M11+H11))</f>
-        <v>189516.90880000003</v>
+        <v>197178.56639999998</v>
       </c>
       <c r="O11" s="178">
         <v>5.7</v>
       </c>
       <c r="P11" s="167">
         <f t="shared" si="1"/>
-        <v>3216.1699380000005</v>
+        <v>3352.6432139999997</v>
       </c>
       <c r="Q11" s="167">
         <f t="shared" si="2"/>
-        <v>1029174.3801600002</v>
+        <v>1072845.8284799999</v>
       </c>
     </row>
     <row r="12" spans="2:20" x14ac:dyDescent="0.25">
@@ -2969,26 +2969,26 @@
       </c>
       <c r="L12" s="177">
         <f>futuros!B3</f>
-        <v>398.55</v>
+        <v>416.65</v>
       </c>
       <c r="M12" s="177">
         <f t="shared" si="4"/>
-        <v>564.24034000000006</v>
+        <v>588.18301999999994</v>
       </c>
       <c r="N12" s="167">
         <f t="shared" si="5"/>
-        <v>189516.90880000003</v>
+        <v>197178.56639999998</v>
       </c>
       <c r="O12" s="178">
         <v>5.7</v>
       </c>
       <c r="P12" s="167">
         <f t="shared" si="1"/>
-        <v>3216.1699380000005</v>
+        <v>3352.6432139999997</v>
       </c>
       <c r="Q12" s="167">
         <f t="shared" si="2"/>
-        <v>1029174.3801600002</v>
+        <v>1072845.8284799999</v>
       </c>
     </row>
     <row r="13" spans="2:20" s="166" customFormat="1" x14ac:dyDescent="0.25">
@@ -3025,26 +3025,26 @@
       </c>
       <c r="L13" s="177">
         <f>futuros!B4</f>
-        <v>383.3</v>
+        <v>399.6</v>
       </c>
       <c r="M13" s="177">
         <f t="shared" si="4"/>
-        <v>544.06763999999998</v>
+        <v>565.62927999999999</v>
       </c>
       <c r="N13" s="167">
         <f t="shared" si="5"/>
-        <v>183061.64480000001</v>
+        <v>189961.36960000001</v>
       </c>
       <c r="O13" s="178">
         <v>5.7</v>
       </c>
       <c r="P13" s="167">
         <f t="shared" si="1"/>
-        <v>3101.1855479999999</v>
+        <v>3224.0868960000003</v>
       </c>
       <c r="Q13" s="167">
         <f t="shared" si="2"/>
-        <v>992379.37535999995</v>
+        <v>1031707.8067200001</v>
       </c>
       <c r="R13" s="163"/>
       <c r="S13" s="163"/>
@@ -3084,26 +3084,26 @@
       </c>
       <c r="L14" s="177">
         <f>futuros!B5</f>
-        <v>370.85</v>
+        <v>386.15</v>
       </c>
       <c r="M14" s="177">
         <f t="shared" si="4"/>
-        <v>527.59878000000003</v>
+        <v>547.83762000000002</v>
       </c>
       <c r="N14" s="167">
         <f t="shared" si="5"/>
-        <v>177791.60960000003</v>
+        <v>184268.03840000002</v>
       </c>
       <c r="O14" s="178">
         <v>5.7</v>
       </c>
       <c r="P14" s="167">
         <f t="shared" si="1"/>
-        <v>3007.3130460000002</v>
+        <v>3122.674434</v>
       </c>
       <c r="Q14" s="167">
         <f t="shared" si="2"/>
-        <v>962340.17472000001</v>
+        <v>999255.81888000004</v>
       </c>
       <c r="R14" s="163"/>
       <c r="S14" s="163"/>
@@ -3143,26 +3143,26 @@
       </c>
       <c r="L15" s="177">
         <f>futuros!B4</f>
-        <v>383.3</v>
+        <v>399.6</v>
       </c>
       <c r="M15" s="177">
         <f t="shared" si="4"/>
-        <v>477.92764</v>
+        <v>499.48928000000001</v>
       </c>
       <c r="N15" s="167">
         <f t="shared" si="5"/>
-        <v>145896.84479999999</v>
+        <v>152796.56959999999</v>
       </c>
       <c r="O15" s="178">
         <v>5.7</v>
       </c>
       <c r="P15" s="167">
         <f t="shared" si="1"/>
-        <v>2724.1875479999999</v>
+        <v>2847.0888960000002</v>
       </c>
       <c r="Q15" s="167">
         <f t="shared" si="2"/>
-        <v>871740.01535999996</v>
+        <v>911068.44672000012</v>
       </c>
       <c r="R15" s="163"/>
       <c r="S15" s="163"/>
@@ -3202,26 +3202,26 @@
       </c>
       <c r="L16" s="177">
         <f>futuros!B3</f>
-        <v>398.55</v>
+        <v>416.65</v>
       </c>
       <c r="M16" s="177">
         <f t="shared" si="4"/>
-        <v>597.31034</v>
+        <v>621.25301999999999</v>
       </c>
       <c r="N16" s="167">
         <f t="shared" si="5"/>
-        <v>208099.3088</v>
+        <v>215760.9664</v>
       </c>
       <c r="O16" s="178">
         <v>5.7</v>
       </c>
       <c r="P16" s="167">
         <f t="shared" si="1"/>
-        <v>3404.6689380000003</v>
+        <v>3541.142214</v>
       </c>
       <c r="Q16" s="167">
         <f t="shared" si="2"/>
-        <v>1089494.0601600001</v>
+        <v>1133165.5084800001</v>
       </c>
       <c r="R16" s="163"/>
       <c r="S16" s="163"/>
@@ -3348,20 +3348,20 @@
       <c r="L19" s="179"/>
       <c r="M19" s="182">
         <f>N19/E19</f>
-        <v>562.54586285714299</v>
+        <v>580.58318571428572</v>
       </c>
       <c r="N19" s="183">
         <f>SUM(N5:N18)</f>
-        <v>2520205.4656000007</v>
+        <v>2601012.6719999998</v>
       </c>
       <c r="O19" s="184"/>
       <c r="P19" s="185">
         <f>Q19/E19</f>
-        <v>3087.2185611428572</v>
+        <v>3190.0313014285712</v>
       </c>
       <c r="Q19" s="183">
         <f>SUM(Q5:Q18)</f>
-        <v>13830739.15392</v>
+        <v>14291340.2304</v>
       </c>
     </row>
     <row r="20" spans="2:17" x14ac:dyDescent="0.25">
@@ -3484,7 +3484,7 @@
       </c>
       <c r="I25" s="177">
         <f>futuros!B3</f>
-        <v>398.55</v>
+        <v>416.65</v>
       </c>
       <c r="K25" s="163"/>
       <c r="L25" s="197">
@@ -3493,7 +3493,7 @@
       <c r="M25" s="163"/>
       <c r="N25" s="198">
         <f>(H25-I25)*1.3228*D25</f>
-        <v>-1457316.7522830002</v>
+        <v>-1577459.9233889997</v>
       </c>
       <c r="O25" s="178">
         <f>O5</f>
@@ -3501,7 +3501,7 @@
       </c>
       <c r="Q25" s="198">
         <f>N25*O25</f>
-        <v>-8306705.4880131008</v>
+        <v>-8991521.5633172989</v>
       </c>
     </row>
     <row r="26" spans="2:17" x14ac:dyDescent="0.25">
@@ -3526,7 +3526,7 @@
       </c>
       <c r="I26" s="177">
         <f>I25</f>
-        <v>398.55</v>
+        <v>416.65</v>
       </c>
       <c r="K26" s="163"/>
       <c r="L26" s="197">
@@ -3535,7 +3535,7 @@
       <c r="M26" s="163"/>
       <c r="N26" s="198">
         <f>(H26-I26)*1.3228*D26</f>
-        <v>-531450.80666999996</v>
+        <v>-578965.05512999999</v>
       </c>
       <c r="O26" s="178">
         <f>O6</f>
@@ -3543,7 +3543,7 @@
       </c>
       <c r="Q26" s="198">
         <f t="shared" ref="Q26:Q27" si="6">N26*O26</f>
-        <v>-3029269.5980189997</v>
+        <v>-3300100.814241</v>
       </c>
     </row>
     <row r="27" spans="2:17" x14ac:dyDescent="0.25">
@@ -3567,7 +3567,7 @@
       </c>
       <c r="I27" s="200">
         <f>I26</f>
-        <v>398.55</v>
+        <v>416.65</v>
       </c>
       <c r="K27" s="163"/>
       <c r="L27" s="197">
@@ -3576,7 +3576,7 @@
       <c r="M27" s="163"/>
       <c r="N27" s="198">
         <f>(H27-I27)*1.3228*D27</f>
-        <v>-701017.046478</v>
+        <v>-772967.19414599997</v>
       </c>
       <c r="O27" s="178">
         <f>O7</f>
@@ -3584,7 +3584,7 @@
       </c>
       <c r="Q27" s="198">
         <f t="shared" si="6"/>
-        <v>-3995797.1649246002</v>
+        <v>-4405913.0066321995</v>
       </c>
     </row>
     <row r="28" spans="2:17" x14ac:dyDescent="0.25">
@@ -3607,13 +3607,13 @@
       <c r="M28" s="202"/>
       <c r="N28" s="202">
         <f>SUM(N25:N27)</f>
-        <v>-2689784.6054310002</v>
+        <v>-2929392.1726649995</v>
       </c>
       <c r="O28" s="201"/>
       <c r="P28" s="201"/>
       <c r="Q28" s="202">
         <f>SUM(Q25:Q27)</f>
-        <v>-15331772.250956699</v>
+        <v>-16697535.384190498</v>
       </c>
     </row>
     <row r="29" spans="2:17" x14ac:dyDescent="0.25">
@@ -4297,7 +4297,7 @@
       </c>
       <c r="I57" s="177">
         <f>futuros!B8</f>
-        <v>328.95</v>
+        <v>342.7</v>
       </c>
       <c r="K57" s="178">
         <f>O8</f>
@@ -4309,7 +4309,7 @@
       <c r="M57" s="198"/>
       <c r="N57" s="198">
         <f>(H57-I57)*1.3228*D57</f>
-        <v>-95009.746229999917</v>
+        <v>-141417.70397999993</v>
       </c>
       <c r="O57" s="166">
         <f>O25</f>
@@ -4317,7 +4317,7 @@
       </c>
       <c r="Q57" s="198">
         <f>N57*O57</f>
-        <v>-541555.55351099954</v>
+        <v>-806080.91268599965</v>
       </c>
     </row>
     <row r="58" spans="2:17" x14ac:dyDescent="0.25">
@@ -4341,7 +4341,7 @@
       </c>
       <c r="I58" s="177">
         <f>I57</f>
-        <v>328.95</v>
+        <v>342.7</v>
       </c>
       <c r="K58" s="178">
         <f>O9</f>
@@ -4353,7 +4353,7 @@
       <c r="M58" s="198"/>
       <c r="N58" s="198">
         <f>(H58-I58)*1.3228*D58</f>
-        <v>-19650.723120000035</v>
+        <v>-60902.241120000035</v>
       </c>
       <c r="O58" s="166">
         <f>O26</f>
@@ -4361,7 +4361,7 @@
       </c>
       <c r="Q58" s="198">
         <f>N58*O58</f>
-        <v>-112009.12178400021</v>
+        <v>-347142.77438400022</v>
       </c>
     </row>
     <row r="59" spans="2:17" x14ac:dyDescent="0.25">
@@ -4384,13 +4384,13 @@
       <c r="M59" s="201"/>
       <c r="N59" s="202">
         <f>SUM(N56:N58)</f>
-        <v>-114660.46934999996</v>
+        <v>-202319.94509999995</v>
       </c>
       <c r="O59" s="201"/>
       <c r="P59" s="201"/>
       <c r="Q59" s="202">
         <f>SUM(Q56:Q58)</f>
-        <v>-653564.67529499973</v>
+        <v>-1153223.68707</v>
       </c>
     </row>
     <row r="64" spans="2:17" x14ac:dyDescent="0.25">
@@ -8056,8 +8056,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{62549E7F-C2F6-E740-8F49-EDB7C93FB4DD}">
   <dimension ref="A1:D13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0.2"/>
@@ -8088,11 +8088,11 @@
         <v>45930</v>
       </c>
       <c r="B2" s="155">
-        <v>410.65</v>
+        <v>425.15</v>
       </c>
       <c r="C2" s="155">
         <f t="shared" ref="C2:C12" si="0">B2*1.3228</f>
-        <v>543.20781999999997</v>
+        <v>562.38842</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -8100,11 +8100,11 @@
         <v>46021</v>
       </c>
       <c r="B3" s="155">
-        <v>398.55</v>
+        <v>416.65</v>
       </c>
       <c r="C3" s="155">
         <f t="shared" si="0"/>
-        <v>527.20194000000004</v>
+        <v>551.14461999999992</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
@@ -8112,11 +8112,11 @@
         <v>46112</v>
       </c>
       <c r="B4" s="155">
-        <v>383.3</v>
+        <v>399.6</v>
       </c>
       <c r="C4" s="155">
         <f t="shared" si="0"/>
-        <v>507.02924000000002</v>
+        <v>528.59087999999997</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
@@ -8124,11 +8124,11 @@
         <v>46173</v>
       </c>
       <c r="B5" s="155">
-        <v>370.85</v>
+        <v>386.15</v>
       </c>
       <c r="C5" s="155">
         <f t="shared" si="0"/>
-        <v>490.56038000000001</v>
+        <v>510.79921999999993</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
@@ -8136,11 +8136,11 @@
         <v>46231</v>
       </c>
       <c r="B6" s="155">
-        <v>357</v>
+        <v>371.75</v>
       </c>
       <c r="C6" s="155">
         <f t="shared" si="0"/>
-        <v>472.2396</v>
+        <v>491.7509</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
@@ -8148,11 +8148,11 @@
         <v>46295</v>
       </c>
       <c r="B7" s="155">
-        <v>342.4</v>
+        <v>356.05</v>
       </c>
       <c r="C7" s="155">
         <f t="shared" si="0"/>
-        <v>452.92671999999999</v>
+        <v>470.98293999999999</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
@@ -8160,11 +8160,11 @@
         <v>46386</v>
       </c>
       <c r="B8" s="155">
-        <v>328.95</v>
+        <v>342.7</v>
       </c>
       <c r="C8" s="155">
         <f t="shared" si="0"/>
-        <v>435.13505999999995</v>
+        <v>453.32355999999999</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
@@ -8172,11 +8172,11 @@
         <v>46477</v>
       </c>
       <c r="B9" s="155">
-        <v>320</v>
+        <v>332.8</v>
       </c>
       <c r="C9" s="155">
         <f t="shared" si="0"/>
-        <v>423.29599999999999</v>
+        <v>440.22784000000001</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
@@ -8184,11 +8184,11 @@
         <v>46538</v>
       </c>
       <c r="B10" s="155">
-        <v>311.5</v>
+        <v>323.64999999999998</v>
       </c>
       <c r="C10" s="155">
         <f t="shared" si="0"/>
-        <v>412.05219999999997</v>
+        <v>428.12421999999998</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
@@ -8196,11 +8196,11 @@
         <v>46596</v>
       </c>
       <c r="B11" s="155">
-        <v>303.55</v>
+        <v>315</v>
       </c>
       <c r="C11" s="155">
         <f t="shared" si="0"/>
-        <v>401.53593999999998</v>
+        <v>416.68200000000002</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
@@ -8208,11 +8208,11 @@
         <v>46660</v>
       </c>
       <c r="B12" s="155">
-        <v>295.95</v>
+        <v>305.89999999999998</v>
       </c>
       <c r="C12" s="155">
         <f t="shared" si="0"/>
-        <v>391.48265999999995</v>
+        <v>404.64451999999994</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
@@ -8220,11 +8220,11 @@
         <v>46751</v>
       </c>
       <c r="B13" s="155">
-        <v>289</v>
+        <v>298.14999999999998</v>
       </c>
       <c r="C13" s="155">
         <f>B13*1.3228</f>
-        <v>382.28919999999999</v>
+        <v>394.39281999999997</v>
       </c>
     </row>
   </sheetData>
@@ -8237,8 +8237,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{435A83C4-FEBA-7F44-BF8C-E9ADE9845E60}">
   <dimension ref="A1:N28"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A15" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="L16" sqref="L16:L28"/>
     </sheetView>
   </sheetViews>
@@ -8967,7 +8967,7 @@
       </c>
       <c r="H16" s="155">
         <f>futuros!B3</f>
-        <v>398.55</v>
+        <v>416.65</v>
       </c>
       <c r="I16" s="2"/>
       <c r="J16" s="162">
@@ -8976,7 +8976,7 @@
       <c r="K16" s="162"/>
       <c r="L16" s="215">
         <f t="shared" si="2"/>
-        <v>-1457316.7522830002</v>
+        <v>-1577459.9233889999</v>
       </c>
       <c r="M16" s="160"/>
       <c r="N16" s="215"/>
@@ -9005,7 +9005,7 @@
       </c>
       <c r="H17" s="155">
         <f>futuros!B3</f>
-        <v>398.55</v>
+        <v>416.65</v>
       </c>
       <c r="I17" s="2"/>
       <c r="J17" s="162">
@@ -9014,7 +9014,7 @@
       <c r="K17" s="162"/>
       <c r="L17" s="215">
         <f t="shared" si="2"/>
-        <v>-531450.80667000008</v>
+        <v>-578965.05512999999</v>
       </c>
       <c r="M17" s="160"/>
       <c r="N17" s="215"/>
@@ -9045,7 +9045,7 @@
       </c>
       <c r="H18" s="155">
         <f>futuros!B3</f>
-        <v>398.55</v>
+        <v>416.65</v>
       </c>
       <c r="I18" s="2"/>
       <c r="J18" s="162">
@@ -9054,7 +9054,7 @@
       <c r="K18" s="162"/>
       <c r="L18" s="215">
         <f t="shared" si="2"/>
-        <v>-179950.37193000005</v>
+        <v>-227464.62038999994</v>
       </c>
       <c r="M18" s="160"/>
       <c r="N18" s="215"/>
@@ -9083,7 +9083,7 @@
       </c>
       <c r="H19" s="217">
         <f>futuros!B3</f>
-        <v>398.55</v>
+        <v>416.65</v>
       </c>
       <c r="I19" s="208"/>
       <c r="J19" s="219">
@@ -9092,7 +9092,7 @@
       <c r="K19" s="219"/>
       <c r="L19" s="220">
         <f t="shared" si="2"/>
-        <v>-370348.62832800002</v>
+        <v>-408360.02709599992</v>
       </c>
       <c r="M19" s="218"/>
       <c r="N19" s="220"/>
@@ -9123,7 +9123,7 @@
       </c>
       <c r="H20" s="155">
         <f>futuros!B4</f>
-        <v>383.3</v>
+        <v>399.6</v>
       </c>
       <c r="I20" s="2"/>
       <c r="J20" s="162">
@@ -9132,7 +9132,7 @@
       <c r="K20" s="162"/>
       <c r="L20" s="215">
         <f t="shared" si="2"/>
-        <v>-153043.13178000003</v>
+        <v>-195832.20636000004</v>
       </c>
       <c r="M20" s="160"/>
       <c r="N20" s="215"/>
@@ -9161,7 +9161,7 @@
       </c>
       <c r="H21" s="155">
         <f>futuros!B8</f>
-        <v>328.95</v>
+        <v>342.7</v>
       </c>
       <c r="I21" s="2"/>
       <c r="J21" s="162">
@@ -9170,7 +9170,7 @@
       <c r="K21" s="162"/>
       <c r="L21" s="215">
         <f t="shared" si="2"/>
-        <v>-95009.746229999932</v>
+        <v>-141417.70397999993</v>
       </c>
       <c r="M21" s="160"/>
       <c r="N21" s="215"/>
@@ -9198,7 +9198,7 @@
       </c>
       <c r="H22" s="155">
         <f>futuros!B8</f>
-        <v>328.95</v>
+        <v>342.7</v>
       </c>
       <c r="I22" s="2"/>
       <c r="J22" s="162">
@@ -9207,7 +9207,7 @@
       <c r="K22" s="162"/>
       <c r="L22" s="215">
         <f t="shared" si="2"/>
-        <v>-19650.723120000031</v>
+        <v>-60902.241120000028</v>
       </c>
       <c r="M22" s="160"/>
       <c r="N22" s="215"/>
@@ -9235,7 +9235,7 @@
       </c>
       <c r="H23" s="155">
         <f>futuros!B8</f>
-        <v>328.95</v>
+        <v>342.7</v>
       </c>
       <c r="I23" s="2"/>
       <c r="J23" s="162">
@@ -9244,7 +9244,7 @@
       <c r="K23" s="162"/>
       <c r="L23" s="215">
         <f t="shared" si="2"/>
-        <v>-65252.4012</v>
+        <v>-106503.9192</v>
       </c>
       <c r="M23" s="160"/>
       <c r="N23" s="215"/>
@@ -9273,7 +9273,7 @@
       </c>
       <c r="H24" s="217">
         <f>futuros!B8</f>
-        <v>328.95</v>
+        <v>342.7</v>
       </c>
       <c r="I24" s="208"/>
       <c r="J24" s="219">
@@ -9282,7 +9282,7 @@
       <c r="K24" s="219"/>
       <c r="L24" s="220">
         <f t="shared" si="2"/>
-        <v>-429990.82307999989</v>
+        <v>-574371.13607999985</v>
       </c>
       <c r="M24" s="218"/>
       <c r="N24" s="220"/>
@@ -9311,7 +9311,7 @@
       </c>
       <c r="H25" s="155">
         <f>futuros!B13</f>
-        <v>289</v>
+        <v>298.14999999999998</v>
       </c>
       <c r="I25" s="2"/>
       <c r="J25" s="162">
@@ -9320,7 +9320,7 @@
       <c r="K25" s="162"/>
       <c r="L25" s="215">
         <f t="shared" si="2"/>
-        <v>-165006.07199999999</v>
+        <v>-202751.2109699999</v>
       </c>
       <c r="M25" s="160"/>
       <c r="N25" s="215"/>
@@ -9346,7 +9346,7 @@
       </c>
       <c r="H26" s="155">
         <f>futuros!B13</f>
-        <v>289</v>
+        <v>298.14999999999998</v>
       </c>
       <c r="I26" s="2"/>
       <c r="J26" s="162">
@@ -9355,7 +9355,7 @@
       <c r="K26" s="162"/>
       <c r="L26" s="215">
         <f t="shared" ref="L26" si="8">D26*(G26-H26)*1.3228</f>
-        <v>-162005.96160000001</v>
+        <v>-189456.97175999993</v>
       </c>
       <c r="M26" s="160"/>
       <c r="N26" s="215"/>
@@ -9381,7 +9381,7 @@
       </c>
       <c r="H27" s="155">
         <f>futuros!B13</f>
-        <v>289</v>
+        <v>298.14999999999998</v>
       </c>
       <c r="I27" s="2"/>
       <c r="J27" s="162">
@@ -9390,7 +9390,7 @@
       <c r="K27" s="162"/>
       <c r="L27" s="215">
         <f t="shared" ref="L27" si="10">D27*(G27-H27)*1.3228</f>
-        <v>-71252.622000000003</v>
+        <v>-88409.503349999955</v>
       </c>
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.2">
@@ -9414,7 +9414,7 @@
       </c>
       <c r="H28" s="155">
         <f>futuros!B13</f>
-        <v>289</v>
+        <v>298.14999999999998</v>
       </c>
       <c r="I28" s="2"/>
       <c r="J28" s="162">
@@ -9423,7 +9423,7 @@
       <c r="K28" s="162"/>
       <c r="L28" s="215">
         <f t="shared" ref="L28" si="12">D28*(G28-H28)*1.3228</f>
-        <v>-48751.794000000002</v>
+        <v>-65908.675349999961</v>
       </c>
     </row>
   </sheetData>

--- a/vendas_cafe_em_reais.xlsx
+++ b/vendas_cafe_em_reais.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rotocastro/PycharmProjects/Vendas Cafe/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38C8DACC-49DD-4C4F-B7DF-F8F729991E49}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B7DFB30-69F2-2344-8BFC-B889B5BBBB0A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5340" yWindow="1960" windowWidth="24060" windowHeight="14420" activeTab="3" xr2:uid="{AC82ADC5-E628-F847-8939-89BAF5623AE6}"/>
+    <workbookView xWindow="5340" yWindow="1960" windowWidth="24060" windowHeight="14420" activeTab="1" xr2:uid="{AC82ADC5-E628-F847-8939-89BAF5623AE6}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2 (2)" sheetId="16" state="hidden" r:id="rId1"/>
@@ -24,7 +24,7 @@
     <sheet name="CashFlow_Edson_Luiz" sheetId="3" state="hidden" r:id="rId9"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Sheet2!$A$1:$Q$71</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Sheet2!$A$1:$Q$72</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">'VENDA CAFÉ 220125'!$A$3:$Z$61</definedName>
     <definedName name="LITRAGEM" localSheetId="7">#REF!</definedName>
     <definedName name="LITRAGEM" localSheetId="5">#REF!</definedName>
@@ -70,7 +70,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="957" uniqueCount="354">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="962" uniqueCount="355">
   <si>
     <t>026/24</t>
   </si>
@@ -1132,6 +1132,9 @@
   </si>
   <si>
     <t>071/25</t>
+  </si>
+  <si>
+    <t>072/25</t>
   </si>
 </sst>
 </file>
@@ -4528,10 +4531,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E433115D-D1E6-C943-B0EC-2BC4BD1B44BA}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:T71"/>
+  <dimension ref="A1:T72"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A59" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A40" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="E69" sqref="E69"/>
     </sheetView>
   </sheetViews>
@@ -7872,57 +7875,53 @@
       <c r="A68" s="2">
         <v>2025</v>
       </c>
+      <c r="B68" s="2" t="s">
+        <v>354</v>
+      </c>
       <c r="C68" s="2" t="s">
-        <v>89</v>
+        <v>42</v>
       </c>
       <c r="D68" s="159" t="s">
-        <v>331</v>
+        <v>46</v>
       </c>
       <c r="E68" s="2">
-        <f>2400-E66-E65-E67</f>
-        <v>2365</v>
+        <v>320</v>
       </c>
       <c r="F68" s="2" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="G68" s="2" t="s">
-        <v>32</v>
+        <v>289</v>
       </c>
       <c r="H68" s="2">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="I68" s="158">
-        <v>45992</v>
+        <v>45901</v>
       </c>
       <c r="J68" s="2">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="K68" s="158">
-        <v>45992</v>
-      </c>
-      <c r="L68" s="158"/>
+        <v>45684</v>
+      </c>
+      <c r="L68" s="155"/>
+      <c r="M68" s="155"/>
       <c r="N68" s="3"/>
-      <c r="P68" s="3">
-        <v>1600</v>
-      </c>
-      <c r="Q68" s="3">
-        <f>E68*P68</f>
-        <v>3784000</v>
-      </c>
     </row>
     <row r="69" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A69" s="2">
         <v>2025</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>42</v>
+        <v>89</v>
       </c>
       <c r="D69" s="159" t="s">
         <v>331</v>
       </c>
       <c r="E69" s="2">
-        <f>0.7*8000-4800-E70-E71</f>
-        <v>286.5</v>
+        <f>2400-E66-E65-E67</f>
+        <v>2365</v>
       </c>
       <c r="F69" s="2" t="s">
         <v>32</v>
@@ -7942,16 +7941,14 @@
       <c r="K69" s="158">
         <v>45992</v>
       </c>
-      <c r="L69" s="155">
-        <v>325</v>
-      </c>
-      <c r="M69" s="155">
-        <f>(L69+H69)*1.3228</f>
-        <v>429.90999999999997</v>
-      </c>
-      <c r="N69" s="3">
-        <f>M69*E69</f>
-        <v>123169.215</v>
+      <c r="L69" s="158"/>
+      <c r="N69" s="3"/>
+      <c r="P69" s="3">
+        <v>1600</v>
+      </c>
+      <c r="Q69" s="3">
+        <f>E69*P69</f>
+        <v>3784000</v>
       </c>
     </row>
     <row r="70" spans="1:17" x14ac:dyDescent="0.2">
@@ -7965,7 +7962,8 @@
         <v>331</v>
       </c>
       <c r="E70" s="2">
-        <v>64.5</v>
+        <f>0.7*8000-4800-E71-E72</f>
+        <v>606.5</v>
       </c>
       <c r="F70" s="2" t="s">
         <v>32</v>
@@ -7980,21 +7978,21 @@
         <v>45992</v>
       </c>
       <c r="J70" s="2">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="K70" s="158">
         <v>45992</v>
       </c>
       <c r="L70" s="155">
-        <v>330</v>
+        <v>325</v>
       </c>
       <c r="M70" s="155">
         <f>(L70+H70)*1.3228</f>
-        <v>436.524</v>
+        <v>429.90999999999997</v>
       </c>
       <c r="N70" s="3">
         <f>M70*E70</f>
-        <v>28155.797999999999</v>
+        <v>260740.41499999998</v>
       </c>
     </row>
     <row r="71" spans="1:17" x14ac:dyDescent="0.2">
@@ -8008,7 +8006,7 @@
         <v>331</v>
       </c>
       <c r="E71" s="2">
-        <v>449</v>
+        <v>64.5</v>
       </c>
       <c r="F71" s="2" t="s">
         <v>32</v>
@@ -8020,30 +8018,74 @@
         <v>0</v>
       </c>
       <c r="I71" s="158">
-        <v>46082</v>
+        <v>45992</v>
       </c>
       <c r="J71" s="2">
         <v>1</v>
       </c>
       <c r="K71" s="158">
-        <v>46082</v>
+        <v>45992</v>
       </c>
       <c r="L71" s="155">
-        <v>325</v>
+        <v>330</v>
       </c>
       <c r="M71" s="155">
         <f>(L71+H71)*1.3228</f>
-        <v>429.90999999999997</v>
+        <v>436.524</v>
       </c>
       <c r="N71" s="3">
         <f>M71*E71</f>
-        <v>193029.59</v>
+        <v>28155.797999999999</v>
+      </c>
+    </row>
+    <row r="72" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A72" s="2">
+        <v>2025</v>
+      </c>
+      <c r="C72" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="D72" s="159" t="s">
+        <v>331</v>
+      </c>
+      <c r="E72" s="2">
+        <f>449-E68</f>
+        <v>129</v>
+      </c>
+      <c r="F72" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="G72" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="H72" s="2">
+        <v>0</v>
+      </c>
+      <c r="I72" s="158">
+        <v>46082</v>
+      </c>
+      <c r="J72" s="2">
+        <v>1</v>
+      </c>
+      <c r="K72" s="158">
+        <v>46082</v>
+      </c>
+      <c r="L72" s="155">
+        <v>325</v>
+      </c>
+      <c r="M72" s="155">
+        <f>(L72+H72)*1.3228</f>
+        <v>429.90999999999997</v>
+      </c>
+      <c r="N72" s="3">
+        <f>M72*E72</f>
+        <v>55458.39</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:Q71" xr:uid="{E433115D-D1E6-C943-B0EC-2BC4BD1B44BA}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:Q71">
-      <sortCondition ref="B1:B71"/>
+  <autoFilter ref="A1:Q72" xr:uid="{E433115D-D1E6-C943-B0EC-2BC4BD1B44BA}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:Q72">
+      <sortCondition ref="B1:B72"/>
     </sortState>
   </autoFilter>
   <phoneticPr fontId="5" type="noConversion"/>
@@ -8237,9 +8279,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{435A83C4-FEBA-7F44-BF8C-E9ADE9845E60}">
   <dimension ref="A1:N28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A15" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L16" sqref="L16:L28"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D16" sqref="D16:D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/vendas_cafe_em_reais.xlsx
+++ b/vendas_cafe_em_reais.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rotocastro/PycharmProjects/Vendas Cafe/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B7DFB30-69F2-2344-8BFC-B889B5BBBB0A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6005F70F-2E6C-CE48-8BF1-A0C2BB381C95}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="5340" yWindow="1960" windowWidth="24060" windowHeight="14420" activeTab="1" xr2:uid="{AC82ADC5-E628-F847-8939-89BAF5623AE6}"/>
   </bookViews>
@@ -4535,7 +4535,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A40" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E69" sqref="E69"/>
+      <selection pane="bottomLeft" activeCell="L58" sqref="L58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0.2"/>

--- a/vendas_cafe_em_reais.xlsx
+++ b/vendas_cafe_em_reais.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rotocastro/PycharmProjects/Vendas Cafe/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6005F70F-2E6C-CE48-8BF1-A0C2BB381C95}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95F275FD-7D55-984B-9CBB-8FFB3D6F06A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="5340" yWindow="1960" windowWidth="24060" windowHeight="14420" activeTab="1" xr2:uid="{AC82ADC5-E628-F847-8939-89BAF5623AE6}"/>
   </bookViews>
@@ -4534,8 +4534,8 @@
   <dimension ref="A1:T72"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A40" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L58" sqref="L58"/>
+      <pane ySplit="1" topLeftCell="A46" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E1" sqref="E1:E1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0.2"/>
@@ -7962,8 +7962,8 @@
         <v>331</v>
       </c>
       <c r="E70" s="2">
-        <f>0.7*8000-4800-E71-E72</f>
-        <v>606.5</v>
+        <f>0.7*8000-4800-E71-E72-E68</f>
+        <v>286.5</v>
       </c>
       <c r="F70" s="2" t="s">
         <v>32</v>
@@ -7992,7 +7992,7 @@
       </c>
       <c r="N70" s="3">
         <f>M70*E70</f>
-        <v>260740.41499999998</v>
+        <v>123169.215</v>
       </c>
     </row>
     <row r="71" spans="1:17" x14ac:dyDescent="0.2">

--- a/vendas_cafe_em_reais.xlsx
+++ b/vendas_cafe_em_reais.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rotocastro/PycharmProjects/Vendas Cafe/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95F275FD-7D55-984B-9CBB-8FFB3D6F06A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AEC861D1-1A8A-E64A-8CD2-5702AE86FCBF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="5340" yWindow="1960" windowWidth="24060" windowHeight="14420" activeTab="1" xr2:uid="{AC82ADC5-E628-F847-8939-89BAF5623AE6}"/>
   </bookViews>
@@ -24,7 +24,7 @@
     <sheet name="CashFlow_Edson_Luiz" sheetId="3" state="hidden" r:id="rId9"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Sheet2!$A$1:$Q$72</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Sheet2!$A$1:$Q$74</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">'VENDA CAFÉ 220125'!$A$3:$Z$61</definedName>
     <definedName name="LITRAGEM" localSheetId="7">#REF!</definedName>
     <definedName name="LITRAGEM" localSheetId="5">#REF!</definedName>
@@ -70,7 +70,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="962" uniqueCount="355">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="972" uniqueCount="357">
   <si>
     <t>026/24</t>
   </si>
@@ -1135,6 +1135,12 @@
   </si>
   <si>
     <t>072/25</t>
+  </si>
+  <si>
+    <t>073/25</t>
+  </si>
+  <si>
+    <t>074/25</t>
   </si>
 </sst>
 </file>
@@ -2635,27 +2641,27 @@
         <v>45961</v>
       </c>
       <c r="L6" s="177">
-        <f>futuros!B3</f>
-        <v>416.65</v>
+        <f>futuros!B2</f>
+        <v>365.65</v>
       </c>
       <c r="M6" s="177">
         <f>(L6+H6)*1.3228</f>
-        <v>590.82862</v>
+        <v>523.36581999999999</v>
       </c>
       <c r="N6" s="167">
         <f>(E6*(M6+H6))</f>
-        <v>198665.15840000001</v>
+        <v>177077.0624</v>
       </c>
       <c r="O6" s="178">
         <v>5.7</v>
       </c>
       <c r="P6" s="167">
         <f t="shared" ref="P6:P16" si="1">M6*O6</f>
-        <v>3367.7231340000003</v>
+        <v>2983.1851740000002</v>
       </c>
       <c r="Q6" s="167">
         <f t="shared" ref="Q6:Q16" si="2">P6*E6</f>
-        <v>1077671.4028800002</v>
+        <v>954619.25568000006</v>
       </c>
     </row>
     <row r="7" spans="2:20" x14ac:dyDescent="0.25">
@@ -2692,26 +2698,26 @@
       </c>
       <c r="L7" s="177">
         <f>L6</f>
-        <v>416.65</v>
+        <v>365.65</v>
       </c>
       <c r="M7" s="177">
         <f>(L7+H7)*1.3228</f>
-        <v>590.82862</v>
+        <v>523.36581999999999</v>
       </c>
       <c r="N7" s="167">
         <f>(E7*(M7+H7))</f>
-        <v>198665.15840000001</v>
+        <v>177077.0624</v>
       </c>
       <c r="O7" s="178">
         <v>5.7</v>
       </c>
       <c r="P7" s="167">
         <f t="shared" si="1"/>
-        <v>3367.7231340000003</v>
+        <v>2983.1851740000002</v>
       </c>
       <c r="Q7" s="167">
         <f t="shared" si="2"/>
-        <v>1077671.4028800002</v>
+        <v>954619.25568000006</v>
       </c>
     </row>
     <row r="8" spans="2:20" x14ac:dyDescent="0.25">
@@ -2748,26 +2754,26 @@
       </c>
       <c r="L8" s="177">
         <f>L7</f>
-        <v>416.65</v>
+        <v>365.65</v>
       </c>
       <c r="M8" s="177">
         <f>(L8+H8)*1.3228</f>
-        <v>590.82862</v>
+        <v>523.36581999999999</v>
       </c>
       <c r="N8" s="167">
         <f>(E8*(M8+H8))</f>
-        <v>198665.15840000001</v>
+        <v>177077.0624</v>
       </c>
       <c r="O8" s="178">
         <v>5.7</v>
       </c>
       <c r="P8" s="167">
         <f t="shared" si="1"/>
-        <v>3367.7231340000003</v>
+        <v>2983.1851740000002</v>
       </c>
       <c r="Q8" s="167">
         <f t="shared" si="2"/>
-        <v>1077671.4028800002</v>
+        <v>954619.25568000006</v>
       </c>
     </row>
     <row r="9" spans="2:20" x14ac:dyDescent="0.25">
@@ -2803,27 +2809,27 @@
         <v>46052</v>
       </c>
       <c r="L9" s="177">
-        <f>futuros!B3</f>
-        <v>416.65</v>
+        <f>futuros!B2</f>
+        <v>365.65</v>
       </c>
       <c r="M9" s="177">
         <f>(L9+H9)*1.3228</f>
-        <v>590.82862</v>
+        <v>523.36581999999999</v>
       </c>
       <c r="N9" s="167">
         <f>(E9*(M9+H9))</f>
-        <v>198665.15840000001</v>
+        <v>177077.0624</v>
       </c>
       <c r="O9" s="178">
         <v>5.7</v>
       </c>
       <c r="P9" s="167">
         <f t="shared" si="1"/>
-        <v>3367.7231340000003</v>
+        <v>2983.1851740000002</v>
       </c>
       <c r="Q9" s="167">
         <f t="shared" si="2"/>
-        <v>1077671.4028800002</v>
+        <v>954619.25568000006</v>
       </c>
     </row>
     <row r="10" spans="2:20" x14ac:dyDescent="0.25">
@@ -2859,27 +2865,27 @@
         <v>46114</v>
       </c>
       <c r="L10" s="177">
-        <f>futuros!B4</f>
-        <v>399.6</v>
+        <f>futuros!B3</f>
+        <v>346.15</v>
       </c>
       <c r="M10" s="177">
         <f>(L10+H10)*1.3228</f>
-        <v>568.27488000000005</v>
+        <v>497.57121999999998</v>
       </c>
       <c r="N10" s="167">
         <f>(E10*(M10+H10))</f>
-        <v>191447.96160000001</v>
+        <v>168822.7904</v>
       </c>
       <c r="O10" s="178">
         <v>5.7</v>
       </c>
       <c r="P10" s="167">
         <f t="shared" si="1"/>
-        <v>3239.1668160000004</v>
+        <v>2836.1559539999998</v>
       </c>
       <c r="Q10" s="167">
         <f t="shared" si="2"/>
-        <v>1036533.3811200002</v>
+        <v>907569.90527999995</v>
       </c>
     </row>
     <row r="11" spans="2:20" x14ac:dyDescent="0.25">
@@ -2915,27 +2921,27 @@
         <v>45961</v>
       </c>
       <c r="L11" s="177">
-        <f>futuros!B3</f>
-        <v>416.65</v>
+        <f>futuros!B2</f>
+        <v>365.65</v>
       </c>
       <c r="M11" s="177">
         <f t="shared" ref="M11:M16" si="4">(L11+H11)*1.3228</f>
-        <v>588.18301999999994</v>
+        <v>520.72021999999993</v>
       </c>
       <c r="N11" s="167">
         <f t="shared" ref="N11:N16" si="5">(E11*(M11+H11))</f>
-        <v>197178.56639999998</v>
+        <v>175590.47039999999</v>
       </c>
       <c r="O11" s="178">
         <v>5.7</v>
       </c>
       <c r="P11" s="167">
         <f t="shared" si="1"/>
-        <v>3352.6432139999997</v>
+        <v>2968.1052539999996</v>
       </c>
       <c r="Q11" s="167">
         <f t="shared" si="2"/>
-        <v>1072845.8284799999</v>
+        <v>949793.6812799999</v>
       </c>
     </row>
     <row r="12" spans="2:20" x14ac:dyDescent="0.25">
@@ -2971,27 +2977,27 @@
         <v>46022</v>
       </c>
       <c r="L12" s="177">
-        <f>futuros!B3</f>
-        <v>416.65</v>
+        <f>futuros!B2</f>
+        <v>365.65</v>
       </c>
       <c r="M12" s="177">
         <f t="shared" si="4"/>
-        <v>588.18301999999994</v>
+        <v>520.72021999999993</v>
       </c>
       <c r="N12" s="167">
         <f t="shared" si="5"/>
-        <v>197178.56639999998</v>
+        <v>175590.47039999999</v>
       </c>
       <c r="O12" s="178">
         <v>5.7</v>
       </c>
       <c r="P12" s="167">
         <f t="shared" si="1"/>
-        <v>3352.6432139999997</v>
+        <v>2968.1052539999996</v>
       </c>
       <c r="Q12" s="167">
         <f t="shared" si="2"/>
-        <v>1072845.8284799999</v>
+        <v>949793.6812799999</v>
       </c>
     </row>
     <row r="13" spans="2:20" s="166" customFormat="1" x14ac:dyDescent="0.25">
@@ -3027,27 +3033,27 @@
         <v>46083</v>
       </c>
       <c r="L13" s="177">
-        <f>futuros!B4</f>
-        <v>399.6</v>
+        <f>futuros!B3</f>
+        <v>346.15</v>
       </c>
       <c r="M13" s="177">
         <f t="shared" si="4"/>
-        <v>565.62927999999999</v>
+        <v>494.92561999999998</v>
       </c>
       <c r="N13" s="167">
         <f t="shared" si="5"/>
-        <v>189961.36960000001</v>
+        <v>167336.19839999999</v>
       </c>
       <c r="O13" s="178">
         <v>5.7</v>
       </c>
       <c r="P13" s="167">
         <f t="shared" si="1"/>
-        <v>3224.0868960000003</v>
+        <v>2821.0760340000002</v>
       </c>
       <c r="Q13" s="167">
         <f t="shared" si="2"/>
-        <v>1031707.8067200001</v>
+        <v>902744.33088000002</v>
       </c>
       <c r="R13" s="163"/>
       <c r="S13" s="163"/>
@@ -3086,27 +3092,27 @@
         <v>46142</v>
       </c>
       <c r="L14" s="177">
-        <f>futuros!B5</f>
-        <v>386.15</v>
+        <f>futuros!B4</f>
+        <v>332.15</v>
       </c>
       <c r="M14" s="177">
         <f t="shared" si="4"/>
-        <v>547.83762000000002</v>
+        <v>476.40641999999997</v>
       </c>
       <c r="N14" s="167">
         <f t="shared" si="5"/>
-        <v>184268.03840000002</v>
+        <v>161410.05439999999</v>
       </c>
       <c r="O14" s="178">
         <v>5.7</v>
       </c>
       <c r="P14" s="167">
         <f t="shared" si="1"/>
-        <v>3122.674434</v>
+        <v>2715.5165939999997</v>
       </c>
       <c r="Q14" s="167">
         <f t="shared" si="2"/>
-        <v>999255.81888000004</v>
+        <v>868965.31007999997</v>
       </c>
       <c r="R14" s="163"/>
       <c r="S14" s="163"/>
@@ -3145,27 +3151,27 @@
         <v>46052</v>
       </c>
       <c r="L15" s="177">
-        <f>futuros!B4</f>
-        <v>399.6</v>
+        <f>futuros!B3</f>
+        <v>346.15</v>
       </c>
       <c r="M15" s="177">
         <f t="shared" si="4"/>
-        <v>499.48928000000001</v>
+        <v>428.78561999999994</v>
       </c>
       <c r="N15" s="167">
         <f t="shared" si="5"/>
-        <v>152796.56959999999</v>
+        <v>130171.39839999998</v>
       </c>
       <c r="O15" s="178">
         <v>5.7</v>
       </c>
       <c r="P15" s="167">
         <f t="shared" si="1"/>
-        <v>2847.0888960000002</v>
+        <v>2444.0780339999997</v>
       </c>
       <c r="Q15" s="167">
         <f t="shared" si="2"/>
-        <v>911068.44672000012</v>
+        <v>782104.97087999992</v>
       </c>
       <c r="R15" s="163"/>
       <c r="S15" s="163"/>
@@ -3204,27 +3210,27 @@
         <v>45991</v>
       </c>
       <c r="L16" s="177">
-        <f>futuros!B3</f>
-        <v>416.65</v>
+        <f>futuros!B2</f>
+        <v>365.65</v>
       </c>
       <c r="M16" s="177">
         <f t="shared" si="4"/>
-        <v>621.25301999999999</v>
+        <v>553.79021999999998</v>
       </c>
       <c r="N16" s="167">
         <f t="shared" si="5"/>
-        <v>215760.9664</v>
+        <v>194172.87039999999</v>
       </c>
       <c r="O16" s="178">
         <v>5.7</v>
       </c>
       <c r="P16" s="167">
         <f t="shared" si="1"/>
-        <v>3541.142214</v>
+        <v>3156.6042539999999</v>
       </c>
       <c r="Q16" s="167">
         <f t="shared" si="2"/>
-        <v>1133165.5084800001</v>
+        <v>1010113.36128</v>
       </c>
       <c r="R16" s="163"/>
       <c r="S16" s="163"/>
@@ -3351,20 +3357,20 @@
       <c r="L19" s="179"/>
       <c r="M19" s="182">
         <f>N19/E19</f>
-        <v>580.58318571428572</v>
+        <v>526.59877285714288</v>
       </c>
       <c r="N19" s="183">
         <f>SUM(N5:N18)</f>
-        <v>2601012.6719999998</v>
+        <v>2359162.5024000001</v>
       </c>
       <c r="O19" s="184"/>
       <c r="P19" s="185">
         <f>Q19/E19</f>
-        <v>3190.0313014285712</v>
+        <v>2882.3201481428569</v>
       </c>
       <c r="Q19" s="183">
         <f>SUM(Q5:Q18)</f>
-        <v>14291340.2304</v>
+        <v>12912794.263679998</v>
       </c>
     </row>
     <row r="20" spans="2:17" x14ac:dyDescent="0.25">
@@ -3486,8 +3492,8 @@
         <v>179</v>
       </c>
       <c r="I25" s="177">
-        <f>futuros!B3</f>
-        <v>416.65</v>
+        <f>futuros!B2</f>
+        <v>365.65</v>
       </c>
       <c r="K25" s="163"/>
       <c r="L25" s="197">
@@ -3496,7 +3502,7 @@
       <c r="M25" s="163"/>
       <c r="N25" s="198">
         <f>(H25-I25)*1.3228*D25</f>
-        <v>-1577459.9233889997</v>
+        <v>-1238934.9661289998</v>
       </c>
       <c r="O25" s="178">
         <f>O5</f>
@@ -3504,7 +3510,7 @@
       </c>
       <c r="Q25" s="198">
         <f>N25*O25</f>
-        <v>-8991521.5633172989</v>
+        <v>-7061929.3069352992</v>
       </c>
     </row>
     <row r="26" spans="2:17" x14ac:dyDescent="0.25">
@@ -3529,7 +3535,7 @@
       </c>
       <c r="I26" s="177">
         <f>I25</f>
-        <v>416.65</v>
+        <v>365.65</v>
       </c>
       <c r="K26" s="163"/>
       <c r="L26" s="197">
@@ -3538,7 +3544,7 @@
       <c r="M26" s="163"/>
       <c r="N26" s="198">
         <f>(H26-I26)*1.3228*D26</f>
-        <v>-578965.05512999999</v>
+        <v>-445085.12852999999</v>
       </c>
       <c r="O26" s="178">
         <f>O6</f>
@@ -3546,7 +3552,7 @@
       </c>
       <c r="Q26" s="198">
         <f t="shared" ref="Q26:Q27" si="6">N26*O26</f>
-        <v>-3300100.814241</v>
+        <v>-2536985.2326210001</v>
       </c>
     </row>
     <row r="27" spans="2:17" x14ac:dyDescent="0.25">
@@ -3570,7 +3576,7 @@
       </c>
       <c r="I27" s="200">
         <f>I26</f>
-        <v>416.65</v>
+        <v>365.65</v>
       </c>
       <c r="K27" s="163"/>
       <c r="L27" s="197">
@@ -3579,7 +3585,7 @@
       <c r="M27" s="163"/>
       <c r="N27" s="198">
         <f>(H27-I27)*1.3228*D27</f>
-        <v>-772967.19414599997</v>
+        <v>-570234.73386599997</v>
       </c>
       <c r="O27" s="178">
         <f>O7</f>
@@ -3587,7 +3593,7 @@
       </c>
       <c r="Q27" s="198">
         <f t="shared" si="6"/>
-        <v>-4405913.0066321995</v>
+        <v>-3250337.9830362001</v>
       </c>
     </row>
     <row r="28" spans="2:17" x14ac:dyDescent="0.25">
@@ -3610,13 +3616,13 @@
       <c r="M28" s="202"/>
       <c r="N28" s="202">
         <f>SUM(N25:N27)</f>
-        <v>-2929392.1726649995</v>
+        <v>-2254254.8285249998</v>
       </c>
       <c r="O28" s="201"/>
       <c r="P28" s="201"/>
       <c r="Q28" s="202">
         <f>SUM(Q25:Q27)</f>
-        <v>-16697535.384190498</v>
+        <v>-12849252.522592498</v>
       </c>
     </row>
     <row r="29" spans="2:17" x14ac:dyDescent="0.25">
@@ -4299,8 +4305,8 @@
         <v>300.8</v>
       </c>
       <c r="I57" s="177">
-        <f>futuros!B8</f>
-        <v>342.7</v>
+        <f>futuros!B7</f>
+        <v>299.14999999999998</v>
       </c>
       <c r="K57" s="178">
         <f>O8</f>
@@ -4312,7 +4318,7 @@
       <c r="M57" s="198"/>
       <c r="N57" s="198">
         <f>(H57-I57)*1.3228*D57</f>
-        <v>-141417.70397999993</v>
+        <v>5568.9549300001145</v>
       </c>
       <c r="O57" s="166">
         <f>O25</f>
@@ -4320,7 +4326,7 @@
       </c>
       <c r="Q57" s="198">
         <f>N57*O57</f>
-        <v>-806080.91268599965</v>
+        <v>31743.043101000654</v>
       </c>
     </row>
     <row r="58" spans="2:17" x14ac:dyDescent="0.25">
@@ -4344,7 +4350,7 @@
       </c>
       <c r="I58" s="177">
         <f>I57</f>
-        <v>342.7</v>
+        <v>299.14999999999998</v>
       </c>
       <c r="K58" s="178">
         <f>O9</f>
@@ -4356,7 +4362,7 @@
       <c r="M58" s="198"/>
       <c r="N58" s="198">
         <f>(H58-I58)*1.3228*D58</f>
-        <v>-60902.241120000035</v>
+        <v>69752.566800000001</v>
       </c>
       <c r="O58" s="166">
         <f>O26</f>
@@ -4364,7 +4370,7 @@
       </c>
       <c r="Q58" s="198">
         <f>N58*O58</f>
-        <v>-347142.77438400022</v>
+        <v>397589.63076000003</v>
       </c>
     </row>
     <row r="59" spans="2:17" x14ac:dyDescent="0.25">
@@ -4387,13 +4393,13 @@
       <c r="M59" s="201"/>
       <c r="N59" s="202">
         <f>SUM(N56:N58)</f>
-        <v>-202319.94509999995</v>
+        <v>75321.52173000011</v>
       </c>
       <c r="O59" s="201"/>
       <c r="P59" s="201"/>
       <c r="Q59" s="202">
         <f>SUM(Q56:Q58)</f>
-        <v>-1153223.68707</v>
+        <v>429332.67386100069</v>
       </c>
     </row>
     <row r="64" spans="2:17" x14ac:dyDescent="0.25">
@@ -4531,7 +4537,7 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E433115D-D1E6-C943-B0EC-2BC4BD1B44BA}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:T72"/>
+  <dimension ref="A1:T74"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A46" activePane="bottomLeft" state="frozen"/>
@@ -7884,8 +7890,9 @@
       <c r="D68" s="159" t="s">
         <v>46</v>
       </c>
-      <c r="E68" s="2">
-        <v>320</v>
+      <c r="E68" s="213">
+        <f>20000/60</f>
+        <v>333.33333333333331</v>
       </c>
       <c r="F68" s="2" t="s">
         <v>27</v>
@@ -7913,86 +7920,92 @@
       <c r="A69" s="2">
         <v>2025</v>
       </c>
+      <c r="B69" s="2" t="s">
+        <v>355</v>
+      </c>
       <c r="C69" s="2" t="s">
         <v>89</v>
       </c>
       <c r="D69" s="159" t="s">
-        <v>331</v>
-      </c>
-      <c r="E69" s="2">
-        <f>2400-E66-E65-E67</f>
-        <v>2365</v>
+        <v>24</v>
+      </c>
+      <c r="E69" s="213">
+        <v>5</v>
       </c>
       <c r="F69" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G69" s="2" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="H69" s="2">
         <v>0</v>
       </c>
       <c r="I69" s="158">
-        <v>45992</v>
+        <v>45923</v>
       </c>
       <c r="J69" s="2">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="K69" s="158">
-        <v>45992</v>
-      </c>
-      <c r="L69" s="158"/>
+        <f>I69+20</f>
+        <v>45943</v>
+      </c>
+      <c r="L69" s="155"/>
+      <c r="M69" s="155"/>
       <c r="N69" s="3"/>
       <c r="P69" s="3">
-        <v>1600</v>
+        <v>2750</v>
       </c>
       <c r="Q69" s="3">
         <f>E69*P69</f>
-        <v>3784000</v>
+        <v>13750</v>
       </c>
     </row>
     <row r="70" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A70" s="2">
         <v>2025</v>
       </c>
+      <c r="B70" s="2" t="s">
+        <v>356</v>
+      </c>
       <c r="C70" s="2" t="s">
-        <v>42</v>
+        <v>89</v>
       </c>
       <c r="D70" s="159" t="s">
-        <v>331</v>
-      </c>
-      <c r="E70" s="2">
-        <f>0.7*8000-4800-E71-E72-E68</f>
-        <v>286.5</v>
+        <v>351</v>
+      </c>
+      <c r="E70" s="213">
+        <v>10</v>
       </c>
       <c r="F70" s="2" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="G70" s="2" t="s">
-        <v>32</v>
+        <v>290</v>
       </c>
       <c r="H70" s="2">
         <v>0</v>
       </c>
       <c r="I70" s="158">
-        <v>45992</v>
+        <v>45923</v>
       </c>
       <c r="J70" s="2">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="K70" s="158">
-        <v>45992</v>
-      </c>
-      <c r="L70" s="155">
-        <v>325</v>
-      </c>
-      <c r="M70" s="155">
-        <f>(L70+H70)*1.3228</f>
-        <v>429.90999999999997</v>
-      </c>
-      <c r="N70" s="3">
-        <f>M70*E70</f>
-        <v>123169.215</v>
+        <f>I70+20</f>
+        <v>45943</v>
+      </c>
+      <c r="L70" s="155"/>
+      <c r="M70" s="155"/>
+      <c r="N70" s="3"/>
+      <c r="P70" s="3">
+        <v>3200</v>
+      </c>
+      <c r="Q70" s="3">
+        <f>E70*P70</f>
+        <v>32000</v>
       </c>
     </row>
     <row r="71" spans="1:17" x14ac:dyDescent="0.2">
@@ -8000,13 +8013,14 @@
         <v>2025</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>42</v>
+        <v>89</v>
       </c>
       <c r="D71" s="159" t="s">
         <v>331</v>
       </c>
-      <c r="E71" s="2">
-        <v>64.5</v>
+      <c r="E71" s="213">
+        <f>2400-E66-E65-E67-E69-E70</f>
+        <v>2350</v>
       </c>
       <c r="F71" s="2" t="s">
         <v>32</v>
@@ -8021,21 +8035,19 @@
         <v>45992</v>
       </c>
       <c r="J71" s="2">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="K71" s="158">
         <v>45992</v>
       </c>
-      <c r="L71" s="155">
-        <v>330</v>
-      </c>
-      <c r="M71" s="155">
-        <f>(L71+H71)*1.3228</f>
-        <v>436.524</v>
-      </c>
-      <c r="N71" s="3">
-        <f>M71*E71</f>
-        <v>28155.797999999999</v>
+      <c r="L71" s="158"/>
+      <c r="N71" s="3"/>
+      <c r="P71" s="3">
+        <v>1600</v>
+      </c>
+      <c r="Q71" s="3">
+        <f>E71*P71</f>
+        <v>3760000</v>
       </c>
     </row>
     <row r="72" spans="1:17" x14ac:dyDescent="0.2">
@@ -8049,8 +8061,8 @@
         <v>331</v>
       </c>
       <c r="E72" s="2">
-        <f>449-E68</f>
-        <v>129</v>
+        <f>0.7*8000-4800-E73-E74-E68</f>
+        <v>286.49999999999994</v>
       </c>
       <c r="F72" s="2" t="s">
         <v>32</v>
@@ -8062,13 +8074,13 @@
         <v>0</v>
       </c>
       <c r="I72" s="158">
-        <v>46082</v>
+        <v>45992</v>
       </c>
       <c r="J72" s="2">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="K72" s="158">
-        <v>46082</v>
+        <v>45992</v>
       </c>
       <c r="L72" s="155">
         <v>325</v>
@@ -8079,13 +8091,100 @@
       </c>
       <c r="N72" s="3">
         <f>M72*E72</f>
-        <v>55458.39</v>
+        <v>123169.21499999997</v>
+      </c>
+    </row>
+    <row r="73" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A73" s="2">
+        <v>2025</v>
+      </c>
+      <c r="C73" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="D73" s="159" t="s">
+        <v>331</v>
+      </c>
+      <c r="E73" s="2">
+        <v>64.5</v>
+      </c>
+      <c r="F73" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="G73" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="H73" s="2">
+        <v>0</v>
+      </c>
+      <c r="I73" s="158">
+        <v>45992</v>
+      </c>
+      <c r="J73" s="2">
+        <v>1</v>
+      </c>
+      <c r="K73" s="158">
+        <v>45992</v>
+      </c>
+      <c r="L73" s="155">
+        <v>330</v>
+      </c>
+      <c r="M73" s="155">
+        <f>(L73+H73)*1.3228</f>
+        <v>436.524</v>
+      </c>
+      <c r="N73" s="3">
+        <f>M73*E73</f>
+        <v>28155.797999999999</v>
+      </c>
+    </row>
+    <row r="74" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A74" s="2">
+        <v>2025</v>
+      </c>
+      <c r="C74" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="D74" s="159" t="s">
+        <v>331</v>
+      </c>
+      <c r="E74" s="213">
+        <f>449-E68</f>
+        <v>115.66666666666669</v>
+      </c>
+      <c r="F74" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="G74" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="H74" s="2">
+        <v>0</v>
+      </c>
+      <c r="I74" s="158">
+        <v>46082</v>
+      </c>
+      <c r="J74" s="2">
+        <v>1</v>
+      </c>
+      <c r="K74" s="158">
+        <v>46082</v>
+      </c>
+      <c r="L74" s="155">
+        <v>325</v>
+      </c>
+      <c r="M74" s="155">
+        <f>(L74+H74)*1.3228</f>
+        <v>429.90999999999997</v>
+      </c>
+      <c r="N74" s="3">
+        <f>M74*E74</f>
+        <v>49726.256666666668</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:Q72" xr:uid="{E433115D-D1E6-C943-B0EC-2BC4BD1B44BA}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:Q72">
-      <sortCondition ref="B1:B72"/>
+  <autoFilter ref="A1:Q74" xr:uid="{E433115D-D1E6-C943-B0EC-2BC4BD1B44BA}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:Q74">
+      <sortCondition ref="B1:B74"/>
     </sortState>
   </autoFilter>
   <phoneticPr fontId="5" type="noConversion"/>
@@ -8096,10 +8195,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{62549E7F-C2F6-E740-8F49-EDB7C93FB4DD}">
-  <dimension ref="A1:D13"/>
+  <dimension ref="A1:D12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0.2"/>
@@ -8122,151 +8221,139 @@
         <v>270</v>
       </c>
       <c r="D1" s="162">
-        <v>45915</v>
+        <v>45922</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="158">
-        <v>45930</v>
+        <v>46021</v>
       </c>
       <c r="B2" s="155">
-        <v>425.15</v>
+        <v>365.65</v>
       </c>
       <c r="C2" s="155">
-        <f t="shared" ref="C2:C12" si="0">B2*1.3228</f>
-        <v>562.38842</v>
+        <f t="shared" ref="C2:C11" si="0">B2*1.3228</f>
+        <v>483.68181999999996</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="158">
-        <v>46021</v>
+        <v>46112</v>
       </c>
       <c r="B3" s="155">
-        <v>416.65</v>
+        <v>346.15</v>
       </c>
       <c r="C3" s="155">
         <f t="shared" si="0"/>
-        <v>551.14461999999992</v>
+        <v>457.88721999999996</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="158">
-        <v>46112</v>
+        <v>46173</v>
       </c>
       <c r="B4" s="155">
-        <v>399.6</v>
+        <v>332.15</v>
       </c>
       <c r="C4" s="155">
         <f t="shared" si="0"/>
-        <v>528.59087999999997</v>
+        <v>439.36801999999994</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" s="158">
-        <v>46173</v>
+        <v>46231</v>
       </c>
       <c r="B5" s="155">
-        <v>386.15</v>
+        <v>318.75</v>
       </c>
       <c r="C5" s="155">
         <f t="shared" si="0"/>
-        <v>510.79921999999993</v>
+        <v>421.64249999999998</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" s="158">
-        <v>46231</v>
+        <v>46295</v>
       </c>
       <c r="B6" s="155">
-        <v>371.75</v>
+        <v>308.2</v>
       </c>
       <c r="C6" s="155">
         <f t="shared" si="0"/>
-        <v>491.7509</v>
+        <v>407.68696</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" s="158">
-        <v>46295</v>
+        <v>46386</v>
       </c>
       <c r="B7" s="155">
-        <v>356.05</v>
+        <v>299.14999999999998</v>
       </c>
       <c r="C7" s="155">
         <f t="shared" si="0"/>
-        <v>470.98293999999999</v>
+        <v>395.71561999999994</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" s="158">
-        <v>46386</v>
+        <v>46477</v>
       </c>
       <c r="B8" s="155">
-        <v>342.7</v>
+        <v>294</v>
       </c>
       <c r="C8" s="155">
         <f t="shared" si="0"/>
-        <v>453.32355999999999</v>
+        <v>388.90319999999997</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" s="158">
-        <v>46477</v>
+        <v>46538</v>
       </c>
       <c r="B9" s="155">
-        <v>332.8</v>
+        <v>286.5</v>
       </c>
       <c r="C9" s="155">
         <f t="shared" si="0"/>
-        <v>440.22784000000001</v>
+        <v>378.98219999999998</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" s="158">
-        <v>46538</v>
+        <v>46596</v>
       </c>
       <c r="B10" s="155">
-        <v>323.64999999999998</v>
+        <v>281</v>
       </c>
       <c r="C10" s="155">
         <f t="shared" si="0"/>
-        <v>428.12421999999998</v>
+        <v>371.70679999999999</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" s="158">
-        <v>46596</v>
+        <v>46660</v>
       </c>
       <c r="B11" s="155">
-        <v>315</v>
+        <v>274.89999999999998</v>
       </c>
       <c r="C11" s="155">
         <f t="shared" si="0"/>
-        <v>416.68200000000002</v>
+        <v>363.63771999999994</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" s="158">
-        <v>46660</v>
+        <v>46751</v>
       </c>
       <c r="B12" s="155">
-        <v>305.89999999999998</v>
+        <v>268.89999999999998</v>
       </c>
       <c r="C12" s="155">
-        <f t="shared" si="0"/>
-        <v>404.64451999999994</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A13" s="158">
-        <v>46751</v>
-      </c>
-      <c r="B13" s="155">
-        <v>298.14999999999998</v>
-      </c>
-      <c r="C13" s="155">
-        <f>B13*1.3228</f>
-        <v>394.39281999999997</v>
+        <f>B12*1.3228</f>
+        <v>355.70091999999994</v>
       </c>
     </row>
   </sheetData>
@@ -8280,8 +8367,8 @@
   <dimension ref="A1:N28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D16" sqref="D16:D19"/>
+      <pane ySplit="1" topLeftCell="A15" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="L16" sqref="L16:L28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -9008,8 +9095,8 @@
         <v>179</v>
       </c>
       <c r="H16" s="155">
-        <f>futuros!B3</f>
-        <v>416.65</v>
+        <f>futuros!B2</f>
+        <v>365.65</v>
       </c>
       <c r="I16" s="2"/>
       <c r="J16" s="162">
@@ -9018,7 +9105,7 @@
       <c r="K16" s="162"/>
       <c r="L16" s="215">
         <f t="shared" si="2"/>
-        <v>-1577459.9233889999</v>
+        <v>-1238934.9661289998</v>
       </c>
       <c r="M16" s="160"/>
       <c r="N16" s="215"/>
@@ -9046,8 +9133,8 @@
         <v>196.1</v>
       </c>
       <c r="H17" s="155">
-        <f>futuros!B3</f>
-        <v>416.65</v>
+        <f>futuros!B2</f>
+        <v>365.65</v>
       </c>
       <c r="I17" s="2"/>
       <c r="J17" s="162">
@@ -9056,7 +9143,7 @@
       <c r="K17" s="162"/>
       <c r="L17" s="215">
         <f t="shared" si="2"/>
-        <v>-578965.05512999999</v>
+        <v>-445085.12852999999</v>
       </c>
       <c r="M17" s="160"/>
       <c r="N17" s="215"/>
@@ -9086,8 +9173,8 @@
         <v>330</v>
       </c>
       <c r="H18" s="155">
-        <f>futuros!B3</f>
-        <v>416.65</v>
+        <f>futuros!B2</f>
+        <v>365.65</v>
       </c>
       <c r="I18" s="2"/>
       <c r="J18" s="162">
@@ -9096,7 +9183,7 @@
       <c r="K18" s="162"/>
       <c r="L18" s="215">
         <f t="shared" si="2"/>
-        <v>-227464.62038999994</v>
+        <v>-93584.693789999947</v>
       </c>
       <c r="M18" s="160"/>
       <c r="N18" s="215"/>
@@ -9124,8 +9211,8 @@
         <v>222.2</v>
       </c>
       <c r="H19" s="217">
-        <f>futuros!B3</f>
-        <v>416.65</v>
+        <f>futuros!B2</f>
+        <v>365.65</v>
       </c>
       <c r="I19" s="208"/>
       <c r="J19" s="219">
@@ -9134,7 +9221,7 @@
       <c r="K19" s="219"/>
       <c r="L19" s="220">
         <f t="shared" si="2"/>
-        <v>-408360.02709599992</v>
+        <v>-301256.08581599995</v>
       </c>
       <c r="M19" s="218"/>
       <c r="N19" s="220"/>
@@ -9164,8 +9251,8 @@
         <v>325</v>
       </c>
       <c r="H20" s="155">
-        <f>futuros!B4</f>
-        <v>399.6</v>
+        <f>futuros!B3</f>
+        <v>346.15</v>
       </c>
       <c r="I20" s="2"/>
       <c r="J20" s="162">
@@ -9174,7 +9261,7 @@
       <c r="K20" s="162"/>
       <c r="L20" s="215">
         <f t="shared" si="2"/>
-        <v>-195832.20636000004</v>
+        <v>-55520.793089999934</v>
       </c>
       <c r="M20" s="160"/>
       <c r="N20" s="215"/>
@@ -9202,8 +9289,8 @@
         <v>300.8</v>
       </c>
       <c r="H21" s="155">
-        <f>futuros!B8</f>
-        <v>342.7</v>
+        <f>futuros!B7</f>
+        <v>299.14999999999998</v>
       </c>
       <c r="I21" s="2"/>
       <c r="J21" s="162">
@@ -9212,7 +9299,7 @@
       <c r="K21" s="162"/>
       <c r="L21" s="215">
         <f t="shared" si="2"/>
-        <v>-141417.70397999993</v>
+        <v>5568.9549300001145</v>
       </c>
       <c r="M21" s="160"/>
       <c r="N21" s="215"/>
@@ -9239,8 +9326,8 @@
         <v>322.39999999999998</v>
       </c>
       <c r="H22" s="155">
-        <f>futuros!B8</f>
-        <v>342.7</v>
+        <f>futuros!B7</f>
+        <v>299.14999999999998</v>
       </c>
       <c r="I22" s="2"/>
       <c r="J22" s="162">
@@ -9249,7 +9336,7 @@
       <c r="K22" s="162"/>
       <c r="L22" s="215">
         <f t="shared" si="2"/>
-        <v>-60902.241120000028</v>
+        <v>69752.566800000001</v>
       </c>
       <c r="M22" s="160"/>
       <c r="N22" s="215"/>
@@ -9276,8 +9363,8 @@
         <v>307.2</v>
       </c>
       <c r="H23" s="155">
-        <f>futuros!B8</f>
-        <v>342.7</v>
+        <f>futuros!B7</f>
+        <v>299.14999999999998</v>
       </c>
       <c r="I23" s="2"/>
       <c r="J23" s="162">
@@ -9286,7 +9373,7 @@
       <c r="K23" s="162"/>
       <c r="L23" s="215">
         <f t="shared" si="2"/>
-        <v>-106503.9192</v>
+        <v>24150.888720000035</v>
       </c>
       <c r="M23" s="160"/>
       <c r="N23" s="215"/>
@@ -9314,8 +9401,8 @@
         <v>288</v>
       </c>
       <c r="H24" s="217">
-        <f>futuros!B8</f>
-        <v>342.7</v>
+        <f>futuros!B7</f>
+        <v>299.14999999999998</v>
       </c>
       <c r="I24" s="208"/>
       <c r="J24" s="219">
@@ -9324,7 +9411,7 @@
       <c r="K24" s="219"/>
       <c r="L24" s="220">
         <f t="shared" si="2"/>
-        <v>-574371.13607999985</v>
+        <v>-117079.30835999976</v>
       </c>
       <c r="M24" s="218"/>
       <c r="N24" s="220"/>
@@ -9352,8 +9439,8 @@
         <v>249</v>
       </c>
       <c r="H25" s="155">
-        <f>futuros!B13</f>
-        <v>298.14999999999998</v>
+        <f>futuros!B12</f>
+        <v>268.89999999999998</v>
       </c>
       <c r="I25" s="2"/>
       <c r="J25" s="162">
@@ -9362,7 +9449,7 @@
       <c r="K25" s="162"/>
       <c r="L25" s="215">
         <f t="shared" si="2"/>
-        <v>-202751.2109699999</v>
+        <v>-82090.520819999903</v>
       </c>
       <c r="M25" s="160"/>
       <c r="N25" s="215"/>
@@ -9387,8 +9474,8 @@
         <v>235</v>
       </c>
       <c r="H26" s="155">
-        <f>futuros!B13</f>
-        <v>298.14999999999998</v>
+        <f>futuros!B12</f>
+        <v>268.89999999999998</v>
       </c>
       <c r="I26" s="2"/>
       <c r="J26" s="162">
@@ -9397,7 +9484,7 @@
       <c r="K26" s="162"/>
       <c r="L26" s="215">
         <f t="shared" ref="L26" si="8">D26*(G26-H26)*1.3228</f>
-        <v>-189456.97175999993</v>
+        <v>-101703.74255999994</v>
       </c>
       <c r="M26" s="160"/>
       <c r="N26" s="215"/>
@@ -9422,8 +9509,8 @@
         <v>251</v>
       </c>
       <c r="H27" s="155">
-        <f>futuros!B13</f>
-        <v>298.14999999999998</v>
+        <f>futuros!B12</f>
+        <v>268.89999999999998</v>
       </c>
       <c r="I27" s="2"/>
       <c r="J27" s="162">
@@ -9432,7 +9519,7 @@
       <c r="K27" s="162"/>
       <c r="L27" s="215">
         <f t="shared" ref="L27" si="10">D27*(G27-H27)*1.3228</f>
-        <v>-88409.503349999955</v>
+        <v>-33563.735099999954</v>
       </c>
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.2">
@@ -9455,8 +9542,8 @@
         <v>263</v>
       </c>
       <c r="H28" s="155">
-        <f>futuros!B13</f>
-        <v>298.14999999999998</v>
+        <f>futuros!B12</f>
+        <v>268.89999999999998</v>
       </c>
       <c r="I28" s="2"/>
       <c r="J28" s="162">
@@ -9465,7 +9552,7 @@
       <c r="K28" s="162"/>
       <c r="L28" s="215">
         <f t="shared" ref="L28" si="12">D28*(G28-H28)*1.3228</f>
-        <v>-65908.675349999961</v>
+        <v>-11062.907099999957</v>
       </c>
     </row>
   </sheetData>

--- a/vendas_cafe_em_reais.xlsx
+++ b/vendas_cafe_em_reais.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rotocastro/PycharmProjects/Vendas Cafe/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AEC861D1-1A8A-E64A-8CD2-5702AE86FCBF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{012FEF55-87C4-8444-B308-83C6A4CB2966}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5340" yWindow="1960" windowWidth="24060" windowHeight="14420" activeTab="1" xr2:uid="{AC82ADC5-E628-F847-8939-89BAF5623AE6}"/>
+    <workbookView xWindow="5340" yWindow="1960" windowWidth="24060" windowHeight="14420" activeTab="3" xr2:uid="{AC82ADC5-E628-F847-8939-89BAF5623AE6}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2 (2)" sheetId="16" state="hidden" r:id="rId1"/>
@@ -2642,26 +2642,26 @@
       </c>
       <c r="L6" s="177">
         <f>futuros!B2</f>
-        <v>365.65</v>
+        <v>368.6</v>
       </c>
       <c r="M6" s="177">
         <f>(L6+H6)*1.3228</f>
-        <v>523.36581999999999</v>
+        <v>527.26808000000005</v>
       </c>
       <c r="N6" s="167">
         <f>(E6*(M6+H6))</f>
-        <v>177077.0624</v>
+        <v>178325.7856</v>
       </c>
       <c r="O6" s="178">
         <v>5.7</v>
       </c>
       <c r="P6" s="167">
         <f t="shared" ref="P6:P16" si="1">M6*O6</f>
-        <v>2983.1851740000002</v>
+        <v>3005.4280560000002</v>
       </c>
       <c r="Q6" s="167">
         <f t="shared" ref="Q6:Q16" si="2">P6*E6</f>
-        <v>954619.25568000006</v>
+        <v>961736.97792000009</v>
       </c>
     </row>
     <row r="7" spans="2:20" x14ac:dyDescent="0.25">
@@ -2698,26 +2698,26 @@
       </c>
       <c r="L7" s="177">
         <f>L6</f>
-        <v>365.65</v>
+        <v>368.6</v>
       </c>
       <c r="M7" s="177">
         <f>(L7+H7)*1.3228</f>
-        <v>523.36581999999999</v>
+        <v>527.26808000000005</v>
       </c>
       <c r="N7" s="167">
         <f>(E7*(M7+H7))</f>
-        <v>177077.0624</v>
+        <v>178325.7856</v>
       </c>
       <c r="O7" s="178">
         <v>5.7</v>
       </c>
       <c r="P7" s="167">
         <f t="shared" si="1"/>
-        <v>2983.1851740000002</v>
+        <v>3005.4280560000002</v>
       </c>
       <c r="Q7" s="167">
         <f t="shared" si="2"/>
-        <v>954619.25568000006</v>
+        <v>961736.97792000009</v>
       </c>
     </row>
     <row r="8" spans="2:20" x14ac:dyDescent="0.25">
@@ -2754,26 +2754,26 @@
       </c>
       <c r="L8" s="177">
         <f>L7</f>
-        <v>365.65</v>
+        <v>368.6</v>
       </c>
       <c r="M8" s="177">
         <f>(L8+H8)*1.3228</f>
-        <v>523.36581999999999</v>
+        <v>527.26808000000005</v>
       </c>
       <c r="N8" s="167">
         <f>(E8*(M8+H8))</f>
-        <v>177077.0624</v>
+        <v>178325.7856</v>
       </c>
       <c r="O8" s="178">
         <v>5.7</v>
       </c>
       <c r="P8" s="167">
         <f t="shared" si="1"/>
-        <v>2983.1851740000002</v>
+        <v>3005.4280560000002</v>
       </c>
       <c r="Q8" s="167">
         <f t="shared" si="2"/>
-        <v>954619.25568000006</v>
+        <v>961736.97792000009</v>
       </c>
     </row>
     <row r="9" spans="2:20" x14ac:dyDescent="0.25">
@@ -2810,26 +2810,26 @@
       </c>
       <c r="L9" s="177">
         <f>futuros!B2</f>
-        <v>365.65</v>
+        <v>368.6</v>
       </c>
       <c r="M9" s="177">
         <f>(L9+H9)*1.3228</f>
-        <v>523.36581999999999</v>
+        <v>527.26808000000005</v>
       </c>
       <c r="N9" s="167">
         <f>(E9*(M9+H9))</f>
-        <v>177077.0624</v>
+        <v>178325.7856</v>
       </c>
       <c r="O9" s="178">
         <v>5.7</v>
       </c>
       <c r="P9" s="167">
         <f t="shared" si="1"/>
-        <v>2983.1851740000002</v>
+        <v>3005.4280560000002</v>
       </c>
       <c r="Q9" s="167">
         <f t="shared" si="2"/>
-        <v>954619.25568000006</v>
+        <v>961736.97792000009</v>
       </c>
     </row>
     <row r="10" spans="2:20" x14ac:dyDescent="0.25">
@@ -2866,26 +2866,26 @@
       </c>
       <c r="L10" s="177">
         <f>futuros!B3</f>
-        <v>346.15</v>
+        <v>349.1</v>
       </c>
       <c r="M10" s="177">
         <f>(L10+H10)*1.3228</f>
-        <v>497.57121999999998</v>
+        <v>501.47348</v>
       </c>
       <c r="N10" s="167">
         <f>(E10*(M10+H10))</f>
-        <v>168822.7904</v>
+        <v>170071.51360000001</v>
       </c>
       <c r="O10" s="178">
         <v>5.7</v>
       </c>
       <c r="P10" s="167">
         <f t="shared" si="1"/>
-        <v>2836.1559539999998</v>
+        <v>2858.3988359999998</v>
       </c>
       <c r="Q10" s="167">
         <f t="shared" si="2"/>
-        <v>907569.90527999995</v>
+        <v>914687.62751999998</v>
       </c>
     </row>
     <row r="11" spans="2:20" x14ac:dyDescent="0.25">
@@ -2922,26 +2922,26 @@
       </c>
       <c r="L11" s="177">
         <f>futuros!B2</f>
-        <v>365.65</v>
+        <v>368.6</v>
       </c>
       <c r="M11" s="177">
         <f t="shared" ref="M11:M16" si="4">(L11+H11)*1.3228</f>
-        <v>520.72021999999993</v>
+        <v>524.62248</v>
       </c>
       <c r="N11" s="167">
         <f t="shared" ref="N11:N16" si="5">(E11*(M11+H11))</f>
-        <v>175590.47039999999</v>
+        <v>176839.1936</v>
       </c>
       <c r="O11" s="178">
         <v>5.7</v>
       </c>
       <c r="P11" s="167">
         <f t="shared" si="1"/>
-        <v>2968.1052539999996</v>
+        <v>2990.3481360000001</v>
       </c>
       <c r="Q11" s="167">
         <f t="shared" si="2"/>
-        <v>949793.6812799999</v>
+        <v>956911.40352000005</v>
       </c>
     </row>
     <row r="12" spans="2:20" x14ac:dyDescent="0.25">
@@ -2978,26 +2978,26 @@
       </c>
       <c r="L12" s="177">
         <f>futuros!B2</f>
-        <v>365.65</v>
+        <v>368.6</v>
       </c>
       <c r="M12" s="177">
         <f t="shared" si="4"/>
-        <v>520.72021999999993</v>
+        <v>524.62248</v>
       </c>
       <c r="N12" s="167">
         <f t="shared" si="5"/>
-        <v>175590.47039999999</v>
+        <v>176839.1936</v>
       </c>
       <c r="O12" s="178">
         <v>5.7</v>
       </c>
       <c r="P12" s="167">
         <f t="shared" si="1"/>
-        <v>2968.1052539999996</v>
+        <v>2990.3481360000001</v>
       </c>
       <c r="Q12" s="167">
         <f t="shared" si="2"/>
-        <v>949793.6812799999</v>
+        <v>956911.40352000005</v>
       </c>
     </row>
     <row r="13" spans="2:20" s="166" customFormat="1" x14ac:dyDescent="0.25">
@@ -3034,26 +3034,26 @@
       </c>
       <c r="L13" s="177">
         <f>futuros!B3</f>
-        <v>346.15</v>
+        <v>349.1</v>
       </c>
       <c r="M13" s="177">
         <f t="shared" si="4"/>
-        <v>494.92561999999998</v>
+        <v>498.82787999999999</v>
       </c>
       <c r="N13" s="167">
         <f t="shared" si="5"/>
-        <v>167336.19839999999</v>
+        <v>168584.9216</v>
       </c>
       <c r="O13" s="178">
         <v>5.7</v>
       </c>
       <c r="P13" s="167">
         <f t="shared" si="1"/>
-        <v>2821.0760340000002</v>
+        <v>2843.3189160000002</v>
       </c>
       <c r="Q13" s="167">
         <f t="shared" si="2"/>
-        <v>902744.33088000002</v>
+        <v>909862.05312000006</v>
       </c>
       <c r="R13" s="163"/>
       <c r="S13" s="163"/>
@@ -3093,26 +3093,26 @@
       </c>
       <c r="L14" s="177">
         <f>futuros!B4</f>
-        <v>332.15</v>
+        <v>335.85</v>
       </c>
       <c r="M14" s="177">
         <f t="shared" si="4"/>
-        <v>476.40641999999997</v>
+        <v>481.30078000000003</v>
       </c>
       <c r="N14" s="167">
         <f t="shared" si="5"/>
-        <v>161410.05439999999</v>
+        <v>162976.24960000001</v>
       </c>
       <c r="O14" s="178">
         <v>5.7</v>
       </c>
       <c r="P14" s="167">
         <f t="shared" si="1"/>
-        <v>2715.5165939999997</v>
+        <v>2743.4144460000002</v>
       </c>
       <c r="Q14" s="167">
         <f t="shared" si="2"/>
-        <v>868965.31007999997</v>
+        <v>877892.6227200001</v>
       </c>
       <c r="R14" s="163"/>
       <c r="S14" s="163"/>
@@ -3152,26 +3152,26 @@
       </c>
       <c r="L15" s="177">
         <f>futuros!B3</f>
-        <v>346.15</v>
+        <v>349.1</v>
       </c>
       <c r="M15" s="177">
         <f t="shared" si="4"/>
-        <v>428.78561999999994</v>
+        <v>432.68788000000001</v>
       </c>
       <c r="N15" s="167">
         <f t="shared" si="5"/>
-        <v>130171.39839999998</v>
+        <v>131420.12160000001</v>
       </c>
       <c r="O15" s="178">
         <v>5.7</v>
       </c>
       <c r="P15" s="167">
         <f t="shared" si="1"/>
-        <v>2444.0780339999997</v>
+        <v>2466.3209160000001</v>
       </c>
       <c r="Q15" s="167">
         <f t="shared" si="2"/>
-        <v>782104.97087999992</v>
+        <v>789222.69312000007</v>
       </c>
       <c r="R15" s="163"/>
       <c r="S15" s="163"/>
@@ -3211,26 +3211,26 @@
       </c>
       <c r="L16" s="177">
         <f>futuros!B2</f>
-        <v>365.65</v>
+        <v>368.6</v>
       </c>
       <c r="M16" s="177">
         <f t="shared" si="4"/>
-        <v>553.79021999999998</v>
+        <v>557.69248000000005</v>
       </c>
       <c r="N16" s="167">
         <f t="shared" si="5"/>
-        <v>194172.87039999999</v>
+        <v>195421.59360000002</v>
       </c>
       <c r="O16" s="178">
         <v>5.7</v>
       </c>
       <c r="P16" s="167">
         <f t="shared" si="1"/>
-        <v>3156.6042539999999</v>
+        <v>3178.8471360000003</v>
       </c>
       <c r="Q16" s="167">
         <f t="shared" si="2"/>
-        <v>1010113.36128</v>
+        <v>1017231.0835200001</v>
       </c>
       <c r="R16" s="163"/>
       <c r="S16" s="163"/>
@@ -3357,20 +3357,20 @@
       <c r="L19" s="179"/>
       <c r="M19" s="182">
         <f>N19/E19</f>
-        <v>526.59877285714288</v>
+        <v>529.73569857142843</v>
       </c>
       <c r="N19" s="183">
         <f>SUM(N5:N18)</f>
-        <v>2359162.5024000001</v>
+        <v>2373215.9295999995</v>
       </c>
       <c r="O19" s="184"/>
       <c r="P19" s="185">
         <f>Q19/E19</f>
-        <v>2882.3201481428569</v>
+        <v>2900.2006247142858</v>
       </c>
       <c r="Q19" s="183">
         <f>SUM(Q5:Q18)</f>
-        <v>12912794.263679998</v>
+        <v>12992898.79872</v>
       </c>
     </row>
     <row r="20" spans="2:17" x14ac:dyDescent="0.25">
@@ -3493,7 +3493,7 @@
       </c>
       <c r="I25" s="177">
         <f>futuros!B2</f>
-        <v>365.65</v>
+        <v>368.6</v>
       </c>
       <c r="K25" s="163"/>
       <c r="L25" s="197">
@@ -3502,7 +3502,7 @@
       <c r="M25" s="163"/>
       <c r="N25" s="198">
         <f>(H25-I25)*1.3228*D25</f>
-        <v>-1238934.9661289998</v>
+        <v>-1258516.3116959999</v>
       </c>
       <c r="O25" s="178">
         <f>O5</f>
@@ -3510,7 +3510,7 @@
       </c>
       <c r="Q25" s="198">
         <f>N25*O25</f>
-        <v>-7061929.3069352992</v>
+        <v>-7173542.9766672002</v>
       </c>
     </row>
     <row r="26" spans="2:17" x14ac:dyDescent="0.25">
@@ -3535,7 +3535,7 @@
       </c>
       <c r="I26" s="177">
         <f>I25</f>
-        <v>365.65</v>
+        <v>368.6</v>
       </c>
       <c r="K26" s="163"/>
       <c r="L26" s="197">
@@ -3544,7 +3544,7 @@
       <c r="M26" s="163"/>
       <c r="N26" s="198">
         <f>(H26-I26)*1.3228*D26</f>
-        <v>-445085.12852999999</v>
+        <v>-452829.16350000002</v>
       </c>
       <c r="O26" s="178">
         <f>O6</f>
@@ -3552,7 +3552,7 @@
       </c>
       <c r="Q26" s="198">
         <f t="shared" ref="Q26:Q27" si="6">N26*O26</f>
-        <v>-2536985.2326210001</v>
+        <v>-2581126.2319500004</v>
       </c>
     </row>
     <row r="27" spans="2:17" x14ac:dyDescent="0.25">
@@ -3576,7 +3576,7 @@
       </c>
       <c r="I27" s="200">
         <f>I26</f>
-        <v>365.65</v>
+        <v>368.6</v>
       </c>
       <c r="K27" s="163"/>
       <c r="L27" s="197">
@@ -3585,7 +3585,7 @@
       <c r="M27" s="163"/>
       <c r="N27" s="198">
         <f>(H27-I27)*1.3228*D27</f>
-        <v>-570234.73386599997</v>
+        <v>-581961.41539200011</v>
       </c>
       <c r="O27" s="178">
         <f>O7</f>
@@ -3593,7 +3593,7 @@
       </c>
       <c r="Q27" s="198">
         <f t="shared" si="6"/>
-        <v>-3250337.9830362001</v>
+        <v>-3317180.0677344007</v>
       </c>
     </row>
     <row r="28" spans="2:17" x14ac:dyDescent="0.25">
@@ -3616,13 +3616,13 @@
       <c r="M28" s="202"/>
       <c r="N28" s="202">
         <f>SUM(N25:N27)</f>
-        <v>-2254254.8285249998</v>
+        <v>-2293306.890588</v>
       </c>
       <c r="O28" s="201"/>
       <c r="P28" s="201"/>
       <c r="Q28" s="202">
         <f>SUM(Q25:Q27)</f>
-        <v>-12849252.522592498</v>
+        <v>-13071849.276351601</v>
       </c>
     </row>
     <row r="29" spans="2:17" x14ac:dyDescent="0.25">
@@ -4306,7 +4306,7 @@
       </c>
       <c r="I57" s="177">
         <f>futuros!B7</f>
-        <v>299.14999999999998</v>
+        <v>301.5</v>
       </c>
       <c r="K57" s="178">
         <f>O8</f>
@@ -4318,7 +4318,7 @@
       <c r="M57" s="198"/>
       <c r="N57" s="198">
         <f>(H57-I57)*1.3228*D57</f>
-        <v>5568.9549300001145</v>
+        <v>-2362.5869399999615</v>
       </c>
       <c r="O57" s="166">
         <f>O25</f>
@@ -4326,7 +4326,7 @@
       </c>
       <c r="Q57" s="198">
         <f>N57*O57</f>
-        <v>31743.043101000654</v>
+        <v>-13466.74555799978</v>
       </c>
     </row>
     <row r="58" spans="2:17" x14ac:dyDescent="0.25">
@@ -4350,7 +4350,7 @@
       </c>
       <c r="I58" s="177">
         <f>I57</f>
-        <v>299.14999999999998</v>
+        <v>301.5</v>
       </c>
       <c r="K58" s="178">
         <f>O9</f>
@@ -4362,7 +4362,7 @@
       <c r="M58" s="198"/>
       <c r="N58" s="198">
         <f>(H58-I58)*1.3228*D58</f>
-        <v>69752.566800000001</v>
+        <v>62702.307359999933</v>
       </c>
       <c r="O58" s="166">
         <f>O26</f>
@@ -4370,7 +4370,7 @@
       </c>
       <c r="Q58" s="198">
         <f>N58*O58</f>
-        <v>397589.63076000003</v>
+        <v>357403.15195199964</v>
       </c>
     </row>
     <row r="59" spans="2:17" x14ac:dyDescent="0.25">
@@ -4393,13 +4393,13 @@
       <c r="M59" s="201"/>
       <c r="N59" s="202">
         <f>SUM(N56:N58)</f>
-        <v>75321.52173000011</v>
+        <v>60339.720419999969</v>
       </c>
       <c r="O59" s="201"/>
       <c r="P59" s="201"/>
       <c r="Q59" s="202">
         <f>SUM(Q56:Q58)</f>
-        <v>429332.67386100069</v>
+        <v>343936.40639399987</v>
       </c>
     </row>
     <row r="64" spans="2:17" x14ac:dyDescent="0.25">
@@ -4539,9 +4539,9 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:T74"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A46" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E1" sqref="E1:E1048576"/>
+      <selection pane="bottomLeft" activeCell="P32" sqref="P32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0.2"/>
@@ -6472,7 +6472,17 @@
         <f>M36*E36</f>
         <v>132160</v>
       </c>
-      <c r="O36" s="160"/>
+      <c r="O36" s="160">
+        <v>5.3368000000000002</v>
+      </c>
+      <c r="P36" s="3">
+        <f>M36*O36</f>
+        <v>2204.0984000000003</v>
+      </c>
+      <c r="Q36" s="3">
+        <f>P36*E36</f>
+        <v>705311.48800000013</v>
+      </c>
     </row>
     <row r="37" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A37" s="2">
@@ -8190,6 +8200,9 @@
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+  <ignoredErrors>
+    <ignoredError sqref="Q32" formula="1"/>
+  </ignoredErrors>
 </worksheet>
 </file>
 
@@ -8221,7 +8234,7 @@
         <v>270</v>
       </c>
       <c r="D1" s="162">
-        <v>45922</v>
+        <v>45925</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -8229,11 +8242,11 @@
         <v>46021</v>
       </c>
       <c r="B2" s="155">
-        <v>365.65</v>
+        <v>368.6</v>
       </c>
       <c r="C2" s="155">
         <f t="shared" ref="C2:C11" si="0">B2*1.3228</f>
-        <v>483.68181999999996</v>
+        <v>487.58408000000003</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -8241,11 +8254,11 @@
         <v>46112</v>
       </c>
       <c r="B3" s="155">
-        <v>346.15</v>
+        <v>349.1</v>
       </c>
       <c r="C3" s="155">
         <f t="shared" si="0"/>
-        <v>457.88721999999996</v>
+        <v>461.78948000000003</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
@@ -8253,11 +8266,11 @@
         <v>46173</v>
       </c>
       <c r="B4" s="155">
-        <v>332.15</v>
+        <v>335.85</v>
       </c>
       <c r="C4" s="155">
         <f t="shared" si="0"/>
-        <v>439.36801999999994</v>
+        <v>444.26238000000001</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
@@ -8265,11 +8278,11 @@
         <v>46231</v>
       </c>
       <c r="B5" s="155">
-        <v>318.75</v>
+        <v>322.7</v>
       </c>
       <c r="C5" s="155">
         <f t="shared" si="0"/>
-        <v>421.64249999999998</v>
+        <v>426.86755999999997</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
@@ -8277,11 +8290,11 @@
         <v>46295</v>
       </c>
       <c r="B6" s="155">
-        <v>308.2</v>
+        <v>310.25</v>
       </c>
       <c r="C6" s="155">
         <f t="shared" si="0"/>
-        <v>407.68696</v>
+        <v>410.39870000000002</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
@@ -8289,11 +8302,11 @@
         <v>46386</v>
       </c>
       <c r="B7" s="155">
-        <v>299.14999999999998</v>
+        <v>301.5</v>
       </c>
       <c r="C7" s="155">
         <f t="shared" si="0"/>
-        <v>395.71561999999994</v>
+        <v>398.82420000000002</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
@@ -8301,11 +8314,11 @@
         <v>46477</v>
       </c>
       <c r="B8" s="155">
-        <v>294</v>
+        <v>298.8</v>
       </c>
       <c r="C8" s="155">
         <f t="shared" si="0"/>
-        <v>388.90319999999997</v>
+        <v>395.25263999999999</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
@@ -8313,11 +8326,11 @@
         <v>46538</v>
       </c>
       <c r="B9" s="155">
-        <v>286.5</v>
+        <v>292.39999999999998</v>
       </c>
       <c r="C9" s="155">
         <f t="shared" si="0"/>
-        <v>378.98219999999998</v>
+        <v>386.78671999999995</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
@@ -8325,11 +8338,11 @@
         <v>46596</v>
       </c>
       <c r="B10" s="155">
-        <v>281</v>
+        <v>287.3</v>
       </c>
       <c r="C10" s="155">
         <f t="shared" si="0"/>
-        <v>371.70679999999999</v>
+        <v>380.04043999999999</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
@@ -8337,11 +8350,11 @@
         <v>46660</v>
       </c>
       <c r="B11" s="155">
-        <v>274.89999999999998</v>
+        <v>281.60000000000002</v>
       </c>
       <c r="C11" s="155">
         <f t="shared" si="0"/>
-        <v>363.63771999999994</v>
+        <v>372.50048000000004</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
@@ -8349,11 +8362,11 @@
         <v>46751</v>
       </c>
       <c r="B12" s="155">
-        <v>268.89999999999998</v>
+        <v>276.25</v>
       </c>
       <c r="C12" s="155">
         <f>B12*1.3228</f>
-        <v>355.70091999999994</v>
+        <v>365.42349999999999</v>
       </c>
     </row>
   </sheetData>
@@ -8366,8 +8379,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{435A83C4-FEBA-7F44-BF8C-E9ADE9845E60}">
   <dimension ref="A1:N28"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A15" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="L16" sqref="L16:L28"/>
     </sheetView>
   </sheetViews>
@@ -9096,7 +9109,7 @@
       </c>
       <c r="H16" s="155">
         <f>futuros!B2</f>
-        <v>365.65</v>
+        <v>368.6</v>
       </c>
       <c r="I16" s="2"/>
       <c r="J16" s="162">
@@ -9105,7 +9118,7 @@
       <c r="K16" s="162"/>
       <c r="L16" s="215">
         <f t="shared" si="2"/>
-        <v>-1238934.9661289998</v>
+        <v>-1258516.3116960002</v>
       </c>
       <c r="M16" s="160"/>
       <c r="N16" s="215"/>
@@ -9134,7 +9147,7 @@
       </c>
       <c r="H17" s="155">
         <f>futuros!B2</f>
-        <v>365.65</v>
+        <v>368.6</v>
       </c>
       <c r="I17" s="2"/>
       <c r="J17" s="162">
@@ -9143,7 +9156,7 @@
       <c r="K17" s="162"/>
       <c r="L17" s="215">
         <f t="shared" si="2"/>
-        <v>-445085.12852999999</v>
+        <v>-452829.16350000008</v>
       </c>
       <c r="M17" s="160"/>
       <c r="N17" s="215"/>
@@ -9174,7 +9187,7 @@
       </c>
       <c r="H18" s="155">
         <f>futuros!B2</f>
-        <v>365.65</v>
+        <v>368.6</v>
       </c>
       <c r="I18" s="2"/>
       <c r="J18" s="162">
@@ -9183,7 +9196,7 @@
       <c r="K18" s="162"/>
       <c r="L18" s="215">
         <f t="shared" si="2"/>
-        <v>-93584.693789999947</v>
+        <v>-101328.72876000006</v>
       </c>
       <c r="M18" s="160"/>
       <c r="N18" s="215"/>
@@ -9212,7 +9225,7 @@
       </c>
       <c r="H19" s="217">
         <f>futuros!B2</f>
-        <v>365.65</v>
+        <v>368.6</v>
       </c>
       <c r="I19" s="208"/>
       <c r="J19" s="219">
@@ -9221,7 +9234,7 @@
       <c r="K19" s="219"/>
       <c r="L19" s="220">
         <f t="shared" si="2"/>
-        <v>-301256.08581599995</v>
+        <v>-307451.31379200006</v>
       </c>
       <c r="M19" s="218"/>
       <c r="N19" s="220"/>
@@ -9252,7 +9265,7 @@
       </c>
       <c r="H20" s="155">
         <f>futuros!B3</f>
-        <v>346.15</v>
+        <v>349.1</v>
       </c>
       <c r="I20" s="2"/>
       <c r="J20" s="162">
@@ -9261,7 +9274,7 @@
       <c r="K20" s="162"/>
       <c r="L20" s="215">
         <f t="shared" si="2"/>
-        <v>-55520.793089999934</v>
+        <v>-63264.828060000065</v>
       </c>
       <c r="M20" s="160"/>
       <c r="N20" s="215"/>
@@ -9290,7 +9303,7 @@
       </c>
       <c r="H21" s="155">
         <f>futuros!B7</f>
-        <v>299.14999999999998</v>
+        <v>301.5</v>
       </c>
       <c r="I21" s="2"/>
       <c r="J21" s="162">
@@ -9299,7 +9312,7 @@
       <c r="K21" s="162"/>
       <c r="L21" s="215">
         <f t="shared" si="2"/>
-        <v>5568.9549300001145</v>
+        <v>-2362.5869399999615</v>
       </c>
       <c r="M21" s="160"/>
       <c r="N21" s="215"/>
@@ -9327,7 +9340,7 @@
       </c>
       <c r="H22" s="155">
         <f>futuros!B7</f>
-        <v>299.14999999999998</v>
+        <v>301.5</v>
       </c>
       <c r="I22" s="2"/>
       <c r="J22" s="162">
@@ -9336,7 +9349,7 @@
       <c r="K22" s="162"/>
       <c r="L22" s="215">
         <f t="shared" si="2"/>
-        <v>69752.566800000001</v>
+        <v>62702.307359999926</v>
       </c>
       <c r="M22" s="160"/>
       <c r="N22" s="215"/>
@@ -9364,7 +9377,7 @@
       </c>
       <c r="H23" s="155">
         <f>futuros!B7</f>
-        <v>299.14999999999998</v>
+        <v>301.5</v>
       </c>
       <c r="I23" s="2"/>
       <c r="J23" s="162">
@@ -9373,7 +9386,7 @@
       <c r="K23" s="162"/>
       <c r="L23" s="215">
         <f t="shared" si="2"/>
-        <v>24150.888720000035</v>
+        <v>17100.629279999968</v>
       </c>
       <c r="M23" s="160"/>
       <c r="N23" s="215"/>
@@ -9402,7 +9415,7 @@
       </c>
       <c r="H24" s="217">
         <f>futuros!B7</f>
-        <v>299.14999999999998</v>
+        <v>301.5</v>
       </c>
       <c r="I24" s="208"/>
       <c r="J24" s="219">
@@ -9411,7 +9424,7 @@
       <c r="K24" s="219"/>
       <c r="L24" s="220">
         <f t="shared" si="2"/>
-        <v>-117079.30835999976</v>
+        <v>-141755.2164</v>
       </c>
       <c r="M24" s="218"/>
       <c r="N24" s="220"/>
@@ -9440,7 +9453,7 @@
       </c>
       <c r="H25" s="155">
         <f>futuros!B12</f>
-        <v>268.89999999999998</v>
+        <v>276.25</v>
       </c>
       <c r="I25" s="2"/>
       <c r="J25" s="162">
@@ -9449,7 +9462,7 @@
       <c r="K25" s="162"/>
       <c r="L25" s="215">
         <f t="shared" si="2"/>
-        <v>-82090.520819999903</v>
+        <v>-112410.38655</v>
       </c>
       <c r="M25" s="160"/>
       <c r="N25" s="215"/>
@@ -9475,7 +9488,7 @@
       </c>
       <c r="H26" s="155">
         <f>futuros!B12</f>
-        <v>268.89999999999998</v>
+        <v>276.25</v>
       </c>
       <c r="I26" s="2"/>
       <c r="J26" s="162">
@@ -9484,7 +9497,7 @@
       <c r="K26" s="162"/>
       <c r="L26" s="215">
         <f t="shared" ref="L26" si="8">D26*(G26-H26)*1.3228</f>
-        <v>-101703.74255999994</v>
+        <v>-123754.554</v>
       </c>
       <c r="M26" s="160"/>
       <c r="N26" s="215"/>
@@ -9510,7 +9523,7 @@
       </c>
       <c r="H27" s="155">
         <f>futuros!B12</f>
-        <v>268.89999999999998</v>
+        <v>276.25</v>
       </c>
       <c r="I27" s="2"/>
       <c r="J27" s="162">
@@ -9519,7 +9532,7 @@
       <c r="K27" s="162"/>
       <c r="L27" s="215">
         <f t="shared" ref="L27" si="10">D27*(G27-H27)*1.3228</f>
-        <v>-33563.735099999954</v>
+        <v>-47345.492249999996</v>
       </c>
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.2">
@@ -9543,7 +9556,7 @@
       </c>
       <c r="H28" s="155">
         <f>futuros!B12</f>
-        <v>268.89999999999998</v>
+        <v>276.25</v>
       </c>
       <c r="I28" s="2"/>
       <c r="J28" s="162">
@@ -9552,7 +9565,7 @@
       <c r="K28" s="162"/>
       <c r="L28" s="215">
         <f t="shared" ref="L28" si="12">D28*(G28-H28)*1.3228</f>
-        <v>-11062.907099999957</v>
+        <v>-24844.664249999998</v>
       </c>
     </row>
   </sheetData>

--- a/vendas_cafe_em_reais.xlsx
+++ b/vendas_cafe_em_reais.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rotocastro/PycharmProjects/Vendas Cafe/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{012FEF55-87C4-8444-B308-83C6A4CB2966}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8B940C9-5ECE-644E-9D91-4E6636EC495C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="5340" yWindow="1960" windowWidth="24060" windowHeight="14420" activeTab="3" xr2:uid="{AC82ADC5-E628-F847-8939-89BAF5623AE6}"/>
   </bookViews>
@@ -2642,26 +2642,26 @@
       </c>
       <c r="L6" s="177">
         <f>futuros!B2</f>
-        <v>368.6</v>
+        <v>383.75</v>
       </c>
       <c r="M6" s="177">
         <f>(L6+H6)*1.3228</f>
-        <v>527.26808000000005</v>
+        <v>547.30849999999998</v>
       </c>
       <c r="N6" s="167">
         <f>(E6*(M6+H6))</f>
-        <v>178325.7856</v>
+        <v>184738.72</v>
       </c>
       <c r="O6" s="178">
         <v>5.7</v>
       </c>
       <c r="P6" s="167">
         <f t="shared" ref="P6:P16" si="1">M6*O6</f>
-        <v>3005.4280560000002</v>
+        <v>3119.6584499999999</v>
       </c>
       <c r="Q6" s="167">
         <f t="shared" ref="Q6:Q16" si="2">P6*E6</f>
-        <v>961736.97792000009</v>
+        <v>998290.70399999991</v>
       </c>
     </row>
     <row r="7" spans="2:20" x14ac:dyDescent="0.25">
@@ -2698,26 +2698,26 @@
       </c>
       <c r="L7" s="177">
         <f>L6</f>
-        <v>368.6</v>
+        <v>383.75</v>
       </c>
       <c r="M7" s="177">
         <f>(L7+H7)*1.3228</f>
-        <v>527.26808000000005</v>
+        <v>547.30849999999998</v>
       </c>
       <c r="N7" s="167">
         <f>(E7*(M7+H7))</f>
-        <v>178325.7856</v>
+        <v>184738.72</v>
       </c>
       <c r="O7" s="178">
         <v>5.7</v>
       </c>
       <c r="P7" s="167">
         <f t="shared" si="1"/>
-        <v>3005.4280560000002</v>
+        <v>3119.6584499999999</v>
       </c>
       <c r="Q7" s="167">
         <f t="shared" si="2"/>
-        <v>961736.97792000009</v>
+        <v>998290.70399999991</v>
       </c>
     </row>
     <row r="8" spans="2:20" x14ac:dyDescent="0.25">
@@ -2754,26 +2754,26 @@
       </c>
       <c r="L8" s="177">
         <f>L7</f>
-        <v>368.6</v>
+        <v>383.75</v>
       </c>
       <c r="M8" s="177">
         <f>(L8+H8)*1.3228</f>
-        <v>527.26808000000005</v>
+        <v>547.30849999999998</v>
       </c>
       <c r="N8" s="167">
         <f>(E8*(M8+H8))</f>
-        <v>178325.7856</v>
+        <v>184738.72</v>
       </c>
       <c r="O8" s="178">
         <v>5.7</v>
       </c>
       <c r="P8" s="167">
         <f t="shared" si="1"/>
-        <v>3005.4280560000002</v>
+        <v>3119.6584499999999</v>
       </c>
       <c r="Q8" s="167">
         <f t="shared" si="2"/>
-        <v>961736.97792000009</v>
+        <v>998290.70399999991</v>
       </c>
     </row>
     <row r="9" spans="2:20" x14ac:dyDescent="0.25">
@@ -2810,26 +2810,26 @@
       </c>
       <c r="L9" s="177">
         <f>futuros!B2</f>
-        <v>368.6</v>
+        <v>383.75</v>
       </c>
       <c r="M9" s="177">
         <f>(L9+H9)*1.3228</f>
-        <v>527.26808000000005</v>
+        <v>547.30849999999998</v>
       </c>
       <c r="N9" s="167">
         <f>(E9*(M9+H9))</f>
-        <v>178325.7856</v>
+        <v>184738.72</v>
       </c>
       <c r="O9" s="178">
         <v>5.7</v>
       </c>
       <c r="P9" s="167">
         <f t="shared" si="1"/>
-        <v>3005.4280560000002</v>
+        <v>3119.6584499999999</v>
       </c>
       <c r="Q9" s="167">
         <f t="shared" si="2"/>
-        <v>961736.97792000009</v>
+        <v>998290.70399999991</v>
       </c>
     </row>
     <row r="10" spans="2:20" x14ac:dyDescent="0.25">
@@ -2866,26 +2866,26 @@
       </c>
       <c r="L10" s="177">
         <f>futuros!B3</f>
-        <v>349.1</v>
+        <v>365.2</v>
       </c>
       <c r="M10" s="177">
         <f>(L10+H10)*1.3228</f>
-        <v>501.47348</v>
+        <v>522.77055999999993</v>
       </c>
       <c r="N10" s="167">
         <f>(E10*(M10+H10))</f>
-        <v>170071.51360000001</v>
+        <v>176886.57919999998</v>
       </c>
       <c r="O10" s="178">
         <v>5.7</v>
       </c>
       <c r="P10" s="167">
         <f t="shared" si="1"/>
-        <v>2858.3988359999998</v>
+        <v>2979.7921919999999</v>
       </c>
       <c r="Q10" s="167">
         <f t="shared" si="2"/>
-        <v>914687.62751999998</v>
+        <v>953533.50144000002</v>
       </c>
     </row>
     <row r="11" spans="2:20" x14ac:dyDescent="0.25">
@@ -2922,26 +2922,26 @@
       </c>
       <c r="L11" s="177">
         <f>futuros!B2</f>
-        <v>368.6</v>
+        <v>383.75</v>
       </c>
       <c r="M11" s="177">
         <f t="shared" ref="M11:M16" si="4">(L11+H11)*1.3228</f>
-        <v>524.62248</v>
+        <v>544.66290000000004</v>
       </c>
       <c r="N11" s="167">
         <f t="shared" ref="N11:N16" si="5">(E11*(M11+H11))</f>
-        <v>176839.1936</v>
+        <v>183252.12800000003</v>
       </c>
       <c r="O11" s="178">
         <v>5.7</v>
       </c>
       <c r="P11" s="167">
         <f t="shared" si="1"/>
-        <v>2990.3481360000001</v>
+        <v>3104.5785300000002</v>
       </c>
       <c r="Q11" s="167">
         <f t="shared" si="2"/>
-        <v>956911.40352000005</v>
+        <v>993465.1296000001</v>
       </c>
     </row>
     <row r="12" spans="2:20" x14ac:dyDescent="0.25">
@@ -2978,26 +2978,26 @@
       </c>
       <c r="L12" s="177">
         <f>futuros!B2</f>
-        <v>368.6</v>
+        <v>383.75</v>
       </c>
       <c r="M12" s="177">
         <f t="shared" si="4"/>
-        <v>524.62248</v>
+        <v>544.66290000000004</v>
       </c>
       <c r="N12" s="167">
         <f t="shared" si="5"/>
-        <v>176839.1936</v>
+        <v>183252.12800000003</v>
       </c>
       <c r="O12" s="178">
         <v>5.7</v>
       </c>
       <c r="P12" s="167">
         <f t="shared" si="1"/>
-        <v>2990.3481360000001</v>
+        <v>3104.5785300000002</v>
       </c>
       <c r="Q12" s="167">
         <f t="shared" si="2"/>
-        <v>956911.40352000005</v>
+        <v>993465.1296000001</v>
       </c>
     </row>
     <row r="13" spans="2:20" s="166" customFormat="1" x14ac:dyDescent="0.25">
@@ -3034,26 +3034,26 @@
       </c>
       <c r="L13" s="177">
         <f>futuros!B3</f>
-        <v>349.1</v>
+        <v>365.2</v>
       </c>
       <c r="M13" s="177">
         <f t="shared" si="4"/>
-        <v>498.82787999999999</v>
+        <v>520.12495999999999</v>
       </c>
       <c r="N13" s="167">
         <f t="shared" si="5"/>
-        <v>168584.9216</v>
+        <v>175399.9872</v>
       </c>
       <c r="O13" s="178">
         <v>5.7</v>
       </c>
       <c r="P13" s="167">
         <f t="shared" si="1"/>
-        <v>2843.3189160000002</v>
+        <v>2964.7122720000002</v>
       </c>
       <c r="Q13" s="167">
         <f t="shared" si="2"/>
-        <v>909862.05312000006</v>
+        <v>948707.9270400001</v>
       </c>
       <c r="R13" s="163"/>
       <c r="S13" s="163"/>
@@ -3093,26 +3093,26 @@
       </c>
       <c r="L14" s="177">
         <f>futuros!B4</f>
-        <v>335.85</v>
+        <v>352.15</v>
       </c>
       <c r="M14" s="177">
         <f t="shared" si="4"/>
-        <v>481.30078000000003</v>
+        <v>502.86241999999999</v>
       </c>
       <c r="N14" s="167">
         <f t="shared" si="5"/>
-        <v>162976.24960000001</v>
+        <v>169875.97439999998</v>
       </c>
       <c r="O14" s="178">
         <v>5.7</v>
       </c>
       <c r="P14" s="167">
         <f t="shared" si="1"/>
-        <v>2743.4144460000002</v>
+        <v>2866.3157940000001</v>
       </c>
       <c r="Q14" s="167">
         <f t="shared" si="2"/>
-        <v>877892.6227200001</v>
+        <v>917221.05408000003</v>
       </c>
       <c r="R14" s="163"/>
       <c r="S14" s="163"/>
@@ -3152,26 +3152,26 @@
       </c>
       <c r="L15" s="177">
         <f>futuros!B3</f>
-        <v>349.1</v>
+        <v>365.2</v>
       </c>
       <c r="M15" s="177">
         <f t="shared" si="4"/>
-        <v>432.68788000000001</v>
+        <v>453.98496</v>
       </c>
       <c r="N15" s="167">
         <f t="shared" si="5"/>
-        <v>131420.12160000001</v>
+        <v>138235.18719999999</v>
       </c>
       <c r="O15" s="178">
         <v>5.7</v>
       </c>
       <c r="P15" s="167">
         <f t="shared" si="1"/>
-        <v>2466.3209160000001</v>
+        <v>2587.7142720000002</v>
       </c>
       <c r="Q15" s="167">
         <f t="shared" si="2"/>
-        <v>789222.69312000007</v>
+        <v>828068.56704000011</v>
       </c>
       <c r="R15" s="163"/>
       <c r="S15" s="163"/>
@@ -3211,26 +3211,26 @@
       </c>
       <c r="L16" s="177">
         <f>futuros!B2</f>
-        <v>368.6</v>
+        <v>383.75</v>
       </c>
       <c r="M16" s="177">
         <f t="shared" si="4"/>
-        <v>557.69248000000005</v>
+        <v>577.73289999999997</v>
       </c>
       <c r="N16" s="167">
         <f t="shared" si="5"/>
-        <v>195421.59360000002</v>
+        <v>201834.52799999999</v>
       </c>
       <c r="O16" s="178">
         <v>5.7</v>
       </c>
       <c r="P16" s="167">
         <f t="shared" si="1"/>
-        <v>3178.8471360000003</v>
+        <v>3293.07753</v>
       </c>
       <c r="Q16" s="167">
         <f t="shared" si="2"/>
-        <v>1017231.0835200001</v>
+        <v>1053784.8096</v>
       </c>
       <c r="R16" s="163"/>
       <c r="S16" s="163"/>
@@ -3357,20 +3357,20 @@
       <c r="L19" s="179"/>
       <c r="M19" s="182">
         <f>N19/E19</f>
-        <v>529.73569857142843</v>
+        <v>545.85968571428566</v>
       </c>
       <c r="N19" s="183">
         <f>SUM(N5:N18)</f>
-        <v>2373215.9295999995</v>
+        <v>2445451.392</v>
       </c>
       <c r="O19" s="184"/>
       <c r="P19" s="185">
         <f>Q19/E19</f>
-        <v>2900.2006247142858</v>
+        <v>2992.1073514285708</v>
       </c>
       <c r="Q19" s="183">
         <f>SUM(Q5:Q18)</f>
-        <v>12992898.79872</v>
+        <v>13404640.934399998</v>
       </c>
     </row>
     <row r="20" spans="2:17" x14ac:dyDescent="0.25">
@@ -3493,7 +3493,7 @@
       </c>
       <c r="I25" s="177">
         <f>futuros!B2</f>
-        <v>368.6</v>
+        <v>383.75</v>
       </c>
       <c r="K25" s="163"/>
       <c r="L25" s="197">
@@ -3502,7 +3502,7 @@
       <c r="M25" s="163"/>
       <c r="N25" s="198">
         <f>(H25-I25)*1.3228*D25</f>
-        <v>-1258516.3116959999</v>
+        <v>-1359078.137235</v>
       </c>
       <c r="O25" s="178">
         <f>O5</f>
@@ -3510,7 +3510,7 @@
       </c>
       <c r="Q25" s="198">
         <f>N25*O25</f>
-        <v>-7173542.9766672002</v>
+        <v>-7746745.3822395001</v>
       </c>
     </row>
     <row r="26" spans="2:17" x14ac:dyDescent="0.25">
@@ -3535,7 +3535,7 @@
       </c>
       <c r="I26" s="177">
         <f>I25</f>
-        <v>368.6</v>
+        <v>383.75</v>
       </c>
       <c r="K26" s="163"/>
       <c r="L26" s="197">
@@ -3544,7 +3544,7 @@
       <c r="M26" s="163"/>
       <c r="N26" s="198">
         <f>(H26-I26)*1.3228*D26</f>
-        <v>-452829.16350000002</v>
+        <v>-492599.37699000002</v>
       </c>
       <c r="O26" s="178">
         <f>O6</f>
@@ -3552,7 +3552,7 @@
       </c>
       <c r="Q26" s="198">
         <f t="shared" ref="Q26:Q27" si="6">N26*O26</f>
-        <v>-2581126.2319500004</v>
+        <v>-2807816.448843</v>
       </c>
     </row>
     <row r="27" spans="2:17" x14ac:dyDescent="0.25">
@@ -3576,7 +3576,7 @@
       </c>
       <c r="I27" s="200">
         <f>I26</f>
-        <v>368.6</v>
+        <v>383.75</v>
       </c>
       <c r="K27" s="163"/>
       <c r="L27" s="197">
@@ -3585,7 +3585,7 @@
       <c r="M27" s="163"/>
       <c r="N27" s="198">
         <f>(H27-I27)*1.3228*D27</f>
-        <v>-581961.41539200011</v>
+        <v>-642184.88153400004</v>
       </c>
       <c r="O27" s="178">
         <f>O7</f>
@@ -3593,7 +3593,7 @@
       </c>
       <c r="Q27" s="198">
         <f t="shared" si="6"/>
-        <v>-3317180.0677344007</v>
+        <v>-3660453.8247438003</v>
       </c>
     </row>
     <row r="28" spans="2:17" x14ac:dyDescent="0.25">
@@ -3616,13 +3616,13 @@
       <c r="M28" s="202"/>
       <c r="N28" s="202">
         <f>SUM(N25:N27)</f>
-        <v>-2293306.890588</v>
+        <v>-2493862.395759</v>
       </c>
       <c r="O28" s="201"/>
       <c r="P28" s="201"/>
       <c r="Q28" s="202">
         <f>SUM(Q25:Q27)</f>
-        <v>-13071849.276351601</v>
+        <v>-14215015.6558263</v>
       </c>
     </row>
     <row r="29" spans="2:17" x14ac:dyDescent="0.25">
@@ -4306,7 +4306,7 @@
       </c>
       <c r="I57" s="177">
         <f>futuros!B7</f>
-        <v>301.5</v>
+        <v>319.05</v>
       </c>
       <c r="K57" s="178">
         <f>O8</f>
@@ -4318,7 +4318,7 @@
       <c r="M57" s="198"/>
       <c r="N57" s="198">
         <f>(H57-I57)*1.3228*D57</f>
-        <v>-2362.5869399999615</v>
+        <v>-61596.016649999998</v>
       </c>
       <c r="O57" s="166">
         <f>O25</f>
@@ -4326,7 +4326,7 @@
       </c>
       <c r="Q57" s="198">
         <f>N57*O57</f>
-        <v>-13466.74555799978</v>
+        <v>-351097.29490500002</v>
       </c>
     </row>
     <row r="58" spans="2:17" x14ac:dyDescent="0.25">
@@ -4350,7 +4350,7 @@
       </c>
       <c r="I58" s="177">
         <f>I57</f>
-        <v>301.5</v>
+        <v>319.05</v>
       </c>
       <c r="K58" s="178">
         <f>O9</f>
@@ -4362,7 +4362,7 @@
       <c r="M58" s="198"/>
       <c r="N58" s="198">
         <f>(H58-I58)*1.3228*D58</f>
-        <v>62702.307359999933</v>
+        <v>10050.369839999898</v>
       </c>
       <c r="O58" s="166">
         <f>O26</f>
@@ -4370,7 +4370,7 @@
       </c>
       <c r="Q58" s="198">
         <f>N58*O58</f>
-        <v>357403.15195199964</v>
+        <v>57287.108087999419</v>
       </c>
     </row>
     <row r="59" spans="2:17" x14ac:dyDescent="0.25">
@@ -4393,13 +4393,13 @@
       <c r="M59" s="201"/>
       <c r="N59" s="202">
         <f>SUM(N56:N58)</f>
-        <v>60339.720419999969</v>
+        <v>-51545.6468100001</v>
       </c>
       <c r="O59" s="201"/>
       <c r="P59" s="201"/>
       <c r="Q59" s="202">
         <f>SUM(Q56:Q58)</f>
-        <v>343936.40639399987</v>
+        <v>-293810.18681700062</v>
       </c>
     </row>
     <row r="64" spans="2:17" x14ac:dyDescent="0.25">
@@ -8234,7 +8234,7 @@
         <v>270</v>
       </c>
       <c r="D1" s="162">
-        <v>45925</v>
+        <v>45929</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -8242,11 +8242,11 @@
         <v>46021</v>
       </c>
       <c r="B2" s="155">
-        <v>368.6</v>
+        <v>383.75</v>
       </c>
       <c r="C2" s="155">
         <f t="shared" ref="C2:C11" si="0">B2*1.3228</f>
-        <v>487.58408000000003</v>
+        <v>507.62450000000001</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -8254,11 +8254,11 @@
         <v>46112</v>
       </c>
       <c r="B3" s="155">
-        <v>349.1</v>
+        <v>365.2</v>
       </c>
       <c r="C3" s="155">
         <f t="shared" si="0"/>
-        <v>461.78948000000003</v>
+        <v>483.08655999999996</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
@@ -8266,11 +8266,11 @@
         <v>46173</v>
       </c>
       <c r="B4" s="155">
-        <v>335.85</v>
+        <v>352.15</v>
       </c>
       <c r="C4" s="155">
         <f t="shared" si="0"/>
-        <v>444.26238000000001</v>
+        <v>465.82401999999996</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
@@ -8278,11 +8278,11 @@
         <v>46231</v>
       </c>
       <c r="B5" s="155">
-        <v>322.7</v>
+        <v>339.05</v>
       </c>
       <c r="C5" s="155">
         <f t="shared" si="0"/>
-        <v>426.86755999999997</v>
+        <v>448.49534</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
@@ -8290,11 +8290,11 @@
         <v>46295</v>
       </c>
       <c r="B6" s="155">
-        <v>310.25</v>
+        <v>327.10000000000002</v>
       </c>
       <c r="C6" s="155">
         <f t="shared" si="0"/>
-        <v>410.39870000000002</v>
+        <v>432.68788000000001</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
@@ -8302,11 +8302,11 @@
         <v>46386</v>
       </c>
       <c r="B7" s="155">
-        <v>301.5</v>
+        <v>319.05</v>
       </c>
       <c r="C7" s="155">
         <f t="shared" si="0"/>
-        <v>398.82420000000002</v>
+        <v>422.03933999999998</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
@@ -8314,11 +8314,11 @@
         <v>46477</v>
       </c>
       <c r="B8" s="155">
-        <v>298.8</v>
+        <v>312.75</v>
       </c>
       <c r="C8" s="155">
         <f t="shared" si="0"/>
-        <v>395.25263999999999</v>
+        <v>413.70569999999998</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
@@ -8326,11 +8326,11 @@
         <v>46538</v>
       </c>
       <c r="B9" s="155">
-        <v>292.39999999999998</v>
+        <v>307.8</v>
       </c>
       <c r="C9" s="155">
         <f t="shared" si="0"/>
-        <v>386.78671999999995</v>
+        <v>407.15784000000002</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
@@ -8338,11 +8338,11 @@
         <v>46596</v>
       </c>
       <c r="B10" s="155">
-        <v>287.3</v>
+        <v>300.35000000000002</v>
       </c>
       <c r="C10" s="155">
         <f t="shared" si="0"/>
-        <v>380.04043999999999</v>
+        <v>397.30298000000005</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
@@ -8350,11 +8350,11 @@
         <v>46660</v>
       </c>
       <c r="B11" s="155">
-        <v>281.60000000000002</v>
+        <v>294.64999999999998</v>
       </c>
       <c r="C11" s="155">
         <f t="shared" si="0"/>
-        <v>372.50048000000004</v>
+        <v>389.76301999999998</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
@@ -8362,11 +8362,11 @@
         <v>46751</v>
       </c>
       <c r="B12" s="155">
-        <v>276.25</v>
+        <v>289</v>
       </c>
       <c r="C12" s="155">
         <f>B12*1.3228</f>
-        <v>365.42349999999999</v>
+        <v>382.28919999999999</v>
       </c>
     </row>
   </sheetData>
@@ -8380,7 +8380,7 @@
   <dimension ref="A1:N28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A15" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="L16" sqref="L16:L28"/>
     </sheetView>
   </sheetViews>
@@ -9109,7 +9109,7 @@
       </c>
       <c r="H16" s="155">
         <f>futuros!B2</f>
-        <v>368.6</v>
+        <v>383.75</v>
       </c>
       <c r="I16" s="2"/>
       <c r="J16" s="162">
@@ -9118,7 +9118,7 @@
       <c r="K16" s="162"/>
       <c r="L16" s="215">
         <f t="shared" si="2"/>
-        <v>-1258516.3116960002</v>
+        <v>-1359078.1372349998</v>
       </c>
       <c r="M16" s="160"/>
       <c r="N16" s="215"/>
@@ -9147,7 +9147,7 @@
       </c>
       <c r="H17" s="155">
         <f>futuros!B2</f>
-        <v>368.6</v>
+        <v>383.75</v>
       </c>
       <c r="I17" s="2"/>
       <c r="J17" s="162">
@@ -9156,7 +9156,7 @@
       <c r="K17" s="162"/>
       <c r="L17" s="215">
         <f t="shared" si="2"/>
-        <v>-452829.16350000008</v>
+        <v>-492599.37698999996</v>
       </c>
       <c r="M17" s="160"/>
       <c r="N17" s="215"/>
@@ -9187,7 +9187,7 @@
       </c>
       <c r="H18" s="155">
         <f>futuros!B2</f>
-        <v>368.6</v>
+        <v>383.75</v>
       </c>
       <c r="I18" s="2"/>
       <c r="J18" s="162">
@@ -9196,7 +9196,7 @@
       <c r="K18" s="162"/>
       <c r="L18" s="215">
         <f t="shared" si="2"/>
-        <v>-101328.72876000006</v>
+        <v>-141098.94224999999</v>
       </c>
       <c r="M18" s="160"/>
       <c r="N18" s="215"/>
@@ -9225,7 +9225,7 @@
       </c>
       <c r="H19" s="217">
         <f>futuros!B2</f>
-        <v>368.6</v>
+        <v>383.75</v>
       </c>
       <c r="I19" s="208"/>
       <c r="J19" s="219">
@@ -9234,7 +9234,7 @@
       <c r="K19" s="219"/>
       <c r="L19" s="220">
         <f t="shared" si="2"/>
-        <v>-307451.31379200006</v>
+        <v>-339267.48458400002</v>
       </c>
       <c r="M19" s="218"/>
       <c r="N19" s="220"/>
@@ -9265,7 +9265,7 @@
       </c>
       <c r="H20" s="155">
         <f>futuros!B3</f>
-        <v>349.1</v>
+        <v>365.2</v>
       </c>
       <c r="I20" s="2"/>
       <c r="J20" s="162">
@@ -9274,7 +9274,7 @@
       <c r="K20" s="162"/>
       <c r="L20" s="215">
         <f t="shared" si="2"/>
-        <v>-63264.828060000065</v>
+        <v>-105528.88331999996</v>
       </c>
       <c r="M20" s="160"/>
       <c r="N20" s="215"/>
@@ -9303,7 +9303,7 @@
       </c>
       <c r="H21" s="155">
         <f>futuros!B7</f>
-        <v>301.5</v>
+        <v>319.05</v>
       </c>
       <c r="I21" s="2"/>
       <c r="J21" s="162">
@@ -9312,7 +9312,7 @@
       <c r="K21" s="162"/>
       <c r="L21" s="215">
         <f t="shared" si="2"/>
-        <v>-2362.5869399999615</v>
+        <v>-61596.016649999998</v>
       </c>
       <c r="M21" s="160"/>
       <c r="N21" s="215"/>
@@ -9340,7 +9340,7 @@
       </c>
       <c r="H22" s="155">
         <f>futuros!B7</f>
-        <v>301.5</v>
+        <v>319.05</v>
       </c>
       <c r="I22" s="2"/>
       <c r="J22" s="162">
@@ -9349,7 +9349,7 @@
       <c r="K22" s="162"/>
       <c r="L22" s="215">
         <f t="shared" si="2"/>
-        <v>62702.307359999926</v>
+        <v>10050.369839999898</v>
       </c>
       <c r="M22" s="160"/>
       <c r="N22" s="215"/>
@@ -9377,7 +9377,7 @@
       </c>
       <c r="H23" s="155">
         <f>futuros!B7</f>
-        <v>301.5</v>
+        <v>319.05</v>
       </c>
       <c r="I23" s="2"/>
       <c r="J23" s="162">
@@ -9386,7 +9386,7 @@
       <c r="K23" s="162"/>
       <c r="L23" s="215">
         <f t="shared" si="2"/>
-        <v>17100.629279999968</v>
+        <v>-35551.308240000064</v>
       </c>
       <c r="M23" s="160"/>
       <c r="N23" s="215"/>
@@ -9415,7 +9415,7 @@
       </c>
       <c r="H24" s="217">
         <f>futuros!B7</f>
-        <v>301.5</v>
+        <v>319.05</v>
       </c>
       <c r="I24" s="208"/>
       <c r="J24" s="219">
@@ -9424,7 +9424,7 @@
       <c r="K24" s="219"/>
       <c r="L24" s="220">
         <f t="shared" si="2"/>
-        <v>-141755.2164</v>
+        <v>-326036.9977200001</v>
       </c>
       <c r="M24" s="218"/>
       <c r="N24" s="220"/>
@@ -9453,7 +9453,7 @@
       </c>
       <c r="H25" s="155">
         <f>futuros!B12</f>
-        <v>276.25</v>
+        <v>289</v>
       </c>
       <c r="I25" s="2"/>
       <c r="J25" s="162">
@@ -9462,7 +9462,7 @@
       <c r="K25" s="162"/>
       <c r="L25" s="215">
         <f t="shared" si="2"/>
-        <v>-112410.38655</v>
+        <v>-165006.07199999999</v>
       </c>
       <c r="M25" s="160"/>
       <c r="N25" s="215"/>
@@ -9488,7 +9488,7 @@
       </c>
       <c r="H26" s="155">
         <f>futuros!B12</f>
-        <v>276.25</v>
+        <v>289</v>
       </c>
       <c r="I26" s="2"/>
       <c r="J26" s="162">
@@ -9497,7 +9497,7 @@
       <c r="K26" s="162"/>
       <c r="L26" s="215">
         <f t="shared" ref="L26" si="8">D26*(G26-H26)*1.3228</f>
-        <v>-123754.554</v>
+        <v>-162005.96160000001</v>
       </c>
       <c r="M26" s="160"/>
       <c r="N26" s="215"/>
@@ -9523,7 +9523,7 @@
       </c>
       <c r="H27" s="155">
         <f>futuros!B12</f>
-        <v>276.25</v>
+        <v>289</v>
       </c>
       <c r="I27" s="2"/>
       <c r="J27" s="162">
@@ -9532,7 +9532,7 @@
       <c r="K27" s="162"/>
       <c r="L27" s="215">
         <f t="shared" ref="L27" si="10">D27*(G27-H27)*1.3228</f>
-        <v>-47345.492249999996</v>
+        <v>-71252.622000000003</v>
       </c>
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.2">
@@ -9556,7 +9556,7 @@
       </c>
       <c r="H28" s="155">
         <f>futuros!B12</f>
-        <v>276.25</v>
+        <v>289</v>
       </c>
       <c r="I28" s="2"/>
       <c r="J28" s="162">
@@ -9565,7 +9565,7 @@
       <c r="K28" s="162"/>
       <c r="L28" s="215">
         <f t="shared" ref="L28" si="12">D28*(G28-H28)*1.3228</f>
-        <v>-24844.664249999998</v>
+        <v>-48751.794000000002</v>
       </c>
     </row>
   </sheetData>

--- a/vendas_cafe_em_reais.xlsx
+++ b/vendas_cafe_em_reais.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rotocastro/PycharmProjects/Vendas Cafe/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8B940C9-5ECE-644E-9D91-4E6636EC495C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{295E0BDA-1F64-2048-98EF-BE7635F7CBD7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5340" yWindow="1960" windowWidth="24060" windowHeight="14420" activeTab="3" xr2:uid="{AC82ADC5-E628-F847-8939-89BAF5623AE6}"/>
+    <workbookView xWindow="4420" yWindow="680" windowWidth="24980" windowHeight="18440" activeTab="3" xr2:uid="{AC82ADC5-E628-F847-8939-89BAF5623AE6}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2 (2)" sheetId="16" state="hidden" r:id="rId1"/>
@@ -2642,26 +2642,26 @@
       </c>
       <c r="L6" s="177">
         <f>futuros!B2</f>
-        <v>383.75</v>
+        <v>386.3</v>
       </c>
       <c r="M6" s="177">
         <f>(L6+H6)*1.3228</f>
-        <v>547.30849999999998</v>
+        <v>550.68164000000002</v>
       </c>
       <c r="N6" s="167">
         <f>(E6*(M6+H6))</f>
-        <v>184738.72</v>
+        <v>185818.12479999999</v>
       </c>
       <c r="O6" s="178">
         <v>5.7</v>
       </c>
       <c r="P6" s="167">
         <f t="shared" ref="P6:P16" si="1">M6*O6</f>
-        <v>3119.6584499999999</v>
+        <v>3138.8853480000002</v>
       </c>
       <c r="Q6" s="167">
         <f t="shared" ref="Q6:Q16" si="2">P6*E6</f>
-        <v>998290.70399999991</v>
+        <v>1004443.3113600001</v>
       </c>
     </row>
     <row r="7" spans="2:20" x14ac:dyDescent="0.25">
@@ -2698,26 +2698,26 @@
       </c>
       <c r="L7" s="177">
         <f>L6</f>
-        <v>383.75</v>
+        <v>386.3</v>
       </c>
       <c r="M7" s="177">
         <f>(L7+H7)*1.3228</f>
-        <v>547.30849999999998</v>
+        <v>550.68164000000002</v>
       </c>
       <c r="N7" s="167">
         <f>(E7*(M7+H7))</f>
-        <v>184738.72</v>
+        <v>185818.12479999999</v>
       </c>
       <c r="O7" s="178">
         <v>5.7</v>
       </c>
       <c r="P7" s="167">
         <f t="shared" si="1"/>
-        <v>3119.6584499999999</v>
+        <v>3138.8853480000002</v>
       </c>
       <c r="Q7" s="167">
         <f t="shared" si="2"/>
-        <v>998290.70399999991</v>
+        <v>1004443.3113600001</v>
       </c>
     </row>
     <row r="8" spans="2:20" x14ac:dyDescent="0.25">
@@ -2754,26 +2754,26 @@
       </c>
       <c r="L8" s="177">
         <f>L7</f>
-        <v>383.75</v>
+        <v>386.3</v>
       </c>
       <c r="M8" s="177">
         <f>(L8+H8)*1.3228</f>
-        <v>547.30849999999998</v>
+        <v>550.68164000000002</v>
       </c>
       <c r="N8" s="167">
         <f>(E8*(M8+H8))</f>
-        <v>184738.72</v>
+        <v>185818.12479999999</v>
       </c>
       <c r="O8" s="178">
         <v>5.7</v>
       </c>
       <c r="P8" s="167">
         <f t="shared" si="1"/>
-        <v>3119.6584499999999</v>
+        <v>3138.8853480000002</v>
       </c>
       <c r="Q8" s="167">
         <f t="shared" si="2"/>
-        <v>998290.70399999991</v>
+        <v>1004443.3113600001</v>
       </c>
     </row>
     <row r="9" spans="2:20" x14ac:dyDescent="0.25">
@@ -2810,26 +2810,26 @@
       </c>
       <c r="L9" s="177">
         <f>futuros!B2</f>
-        <v>383.75</v>
+        <v>386.3</v>
       </c>
       <c r="M9" s="177">
         <f>(L9+H9)*1.3228</f>
-        <v>547.30849999999998</v>
+        <v>550.68164000000002</v>
       </c>
       <c r="N9" s="167">
         <f>(E9*(M9+H9))</f>
-        <v>184738.72</v>
+        <v>185818.12479999999</v>
       </c>
       <c r="O9" s="178">
         <v>5.7</v>
       </c>
       <c r="P9" s="167">
         <f t="shared" si="1"/>
-        <v>3119.6584499999999</v>
+        <v>3138.8853480000002</v>
       </c>
       <c r="Q9" s="167">
         <f t="shared" si="2"/>
-        <v>998290.70399999991</v>
+        <v>1004443.3113600001</v>
       </c>
     </row>
     <row r="10" spans="2:20" x14ac:dyDescent="0.25">
@@ -2866,26 +2866,26 @@
       </c>
       <c r="L10" s="177">
         <f>futuros!B3</f>
-        <v>365.2</v>
+        <v>369.85</v>
       </c>
       <c r="M10" s="177">
         <f>(L10+H10)*1.3228</f>
-        <v>522.77055999999993</v>
+        <v>528.92158000000006</v>
       </c>
       <c r="N10" s="167">
         <f>(E10*(M10+H10))</f>
-        <v>176886.57919999998</v>
+        <v>178854.90560000003</v>
       </c>
       <c r="O10" s="178">
         <v>5.7</v>
       </c>
       <c r="P10" s="167">
         <f t="shared" si="1"/>
-        <v>2979.7921919999999</v>
+        <v>3014.8530060000003</v>
       </c>
       <c r="Q10" s="167">
         <f t="shared" si="2"/>
-        <v>953533.50144000002</v>
+        <v>964752.96192000015</v>
       </c>
     </row>
     <row r="11" spans="2:20" x14ac:dyDescent="0.25">
@@ -2922,26 +2922,26 @@
       </c>
       <c r="L11" s="177">
         <f>futuros!B2</f>
-        <v>383.75</v>
+        <v>386.3</v>
       </c>
       <c r="M11" s="177">
         <f t="shared" ref="M11:M16" si="4">(L11+H11)*1.3228</f>
-        <v>544.66290000000004</v>
+        <v>548.03603999999996</v>
       </c>
       <c r="N11" s="167">
         <f t="shared" ref="N11:N16" si="5">(E11*(M11+H11))</f>
-        <v>183252.12800000003</v>
+        <v>184331.53279999999</v>
       </c>
       <c r="O11" s="178">
         <v>5.7</v>
       </c>
       <c r="P11" s="167">
         <f t="shared" si="1"/>
-        <v>3104.5785300000002</v>
+        <v>3123.8054279999997</v>
       </c>
       <c r="Q11" s="167">
         <f t="shared" si="2"/>
-        <v>993465.1296000001</v>
+        <v>999617.73695999989</v>
       </c>
     </row>
     <row r="12" spans="2:20" x14ac:dyDescent="0.25">
@@ -2978,26 +2978,26 @@
       </c>
       <c r="L12" s="177">
         <f>futuros!B2</f>
-        <v>383.75</v>
+        <v>386.3</v>
       </c>
       <c r="M12" s="177">
         <f t="shared" si="4"/>
-        <v>544.66290000000004</v>
+        <v>548.03603999999996</v>
       </c>
       <c r="N12" s="167">
         <f t="shared" si="5"/>
-        <v>183252.12800000003</v>
+        <v>184331.53279999999</v>
       </c>
       <c r="O12" s="178">
         <v>5.7</v>
       </c>
       <c r="P12" s="167">
         <f t="shared" si="1"/>
-        <v>3104.5785300000002</v>
+        <v>3123.8054279999997</v>
       </c>
       <c r="Q12" s="167">
         <f t="shared" si="2"/>
-        <v>993465.1296000001</v>
+        <v>999617.73695999989</v>
       </c>
     </row>
     <row r="13" spans="2:20" s="166" customFormat="1" x14ac:dyDescent="0.25">
@@ -3034,26 +3034,26 @@
       </c>
       <c r="L13" s="177">
         <f>futuros!B3</f>
-        <v>365.2</v>
+        <v>369.85</v>
       </c>
       <c r="M13" s="177">
         <f t="shared" si="4"/>
-        <v>520.12495999999999</v>
+        <v>526.27598</v>
       </c>
       <c r="N13" s="167">
         <f t="shared" si="5"/>
-        <v>175399.9872</v>
+        <v>177368.31359999999</v>
       </c>
       <c r="O13" s="178">
         <v>5.7</v>
       </c>
       <c r="P13" s="167">
         <f t="shared" si="1"/>
-        <v>2964.7122720000002</v>
+        <v>2999.7730860000001</v>
       </c>
       <c r="Q13" s="167">
         <f t="shared" si="2"/>
-        <v>948707.9270400001</v>
+        <v>959927.38752000011</v>
       </c>
       <c r="R13" s="163"/>
       <c r="S13" s="163"/>
@@ -3093,26 +3093,26 @@
       </c>
       <c r="L14" s="177">
         <f>futuros!B4</f>
-        <v>352.15</v>
+        <v>358.2</v>
       </c>
       <c r="M14" s="177">
         <f t="shared" si="4"/>
-        <v>502.86241999999999</v>
+        <v>510.86535999999995</v>
       </c>
       <c r="N14" s="167">
         <f t="shared" si="5"/>
-        <v>169875.97439999998</v>
+        <v>172436.91519999999</v>
       </c>
       <c r="O14" s="178">
         <v>5.7</v>
       </c>
       <c r="P14" s="167">
         <f t="shared" si="1"/>
-        <v>2866.3157940000001</v>
+        <v>2911.9325519999998</v>
       </c>
       <c r="Q14" s="167">
         <f t="shared" si="2"/>
-        <v>917221.05408000003</v>
+        <v>931818.41663999995</v>
       </c>
       <c r="R14" s="163"/>
       <c r="S14" s="163"/>
@@ -3152,26 +3152,26 @@
       </c>
       <c r="L15" s="177">
         <f>futuros!B3</f>
-        <v>365.2</v>
+        <v>369.85</v>
       </c>
       <c r="M15" s="177">
         <f t="shared" si="4"/>
-        <v>453.98496</v>
+        <v>460.13598000000002</v>
       </c>
       <c r="N15" s="167">
         <f t="shared" si="5"/>
-        <v>138235.18719999999</v>
+        <v>140203.51360000001</v>
       </c>
       <c r="O15" s="178">
         <v>5.7</v>
       </c>
       <c r="P15" s="167">
         <f t="shared" si="1"/>
-        <v>2587.7142720000002</v>
+        <v>2622.7750860000001</v>
       </c>
       <c r="Q15" s="167">
         <f t="shared" si="2"/>
-        <v>828068.56704000011</v>
+        <v>839288.02752</v>
       </c>
       <c r="R15" s="163"/>
       <c r="S15" s="163"/>
@@ -3211,26 +3211,26 @@
       </c>
       <c r="L16" s="177">
         <f>futuros!B2</f>
-        <v>383.75</v>
+        <v>386.3</v>
       </c>
       <c r="M16" s="177">
         <f t="shared" si="4"/>
-        <v>577.73289999999997</v>
+        <v>581.10604000000001</v>
       </c>
       <c r="N16" s="167">
         <f t="shared" si="5"/>
-        <v>201834.52799999999</v>
+        <v>202913.93280000001</v>
       </c>
       <c r="O16" s="178">
         <v>5.7</v>
       </c>
       <c r="P16" s="167">
         <f t="shared" si="1"/>
-        <v>3293.07753</v>
+        <v>3312.3044280000004</v>
       </c>
       <c r="Q16" s="167">
         <f t="shared" si="2"/>
-        <v>1053784.8096</v>
+        <v>1059937.4169600001</v>
       </c>
       <c r="R16" s="163"/>
       <c r="S16" s="163"/>
@@ -3357,20 +3357,20 @@
       <c r="L19" s="179"/>
       <c r="M19" s="182">
         <f>N19/E19</f>
-        <v>545.85968571428566</v>
+        <v>549.43596999999988</v>
       </c>
       <c r="N19" s="183">
         <f>SUM(N5:N18)</f>
-        <v>2445451.392</v>
+        <v>2461473.1455999995</v>
       </c>
       <c r="O19" s="184"/>
       <c r="P19" s="185">
         <f>Q19/E19</f>
-        <v>2992.1073514285708</v>
+        <v>3012.4921718571436</v>
       </c>
       <c r="Q19" s="183">
         <f>SUM(Q5:Q18)</f>
-        <v>13404640.934399998</v>
+        <v>13495964.929920003</v>
       </c>
     </row>
     <row r="20" spans="2:17" x14ac:dyDescent="0.25">
@@ -3493,7 +3493,7 @@
       </c>
       <c r="I25" s="177">
         <f>futuros!B2</f>
-        <v>383.75</v>
+        <v>386.3</v>
       </c>
       <c r="K25" s="163"/>
       <c r="L25" s="197">
@@ -3502,7 +3502,7 @@
       <c r="M25" s="163"/>
       <c r="N25" s="198">
         <f>(H25-I25)*1.3228*D25</f>
-        <v>-1359078.137235</v>
+        <v>-1376004.3850980001</v>
       </c>
       <c r="O25" s="178">
         <f>O5</f>
@@ -3510,7 +3510,7 @@
       </c>
       <c r="Q25" s="198">
         <f>N25*O25</f>
-        <v>-7746745.3822395001</v>
+        <v>-7843224.9950586008</v>
       </c>
     </row>
     <row r="26" spans="2:17" x14ac:dyDescent="0.25">
@@ -3535,7 +3535,7 @@
       </c>
       <c r="I26" s="177">
         <f>I25</f>
-        <v>383.75</v>
+        <v>386.3</v>
       </c>
       <c r="K26" s="163"/>
       <c r="L26" s="197">
@@ -3544,7 +3544,7 @@
       <c r="M26" s="163"/>
       <c r="N26" s="198">
         <f>(H26-I26)*1.3228*D26</f>
-        <v>-492599.37699000002</v>
+        <v>-499293.37332000001</v>
       </c>
       <c r="O26" s="178">
         <f>O6</f>
@@ -3552,7 +3552,7 @@
       </c>
       <c r="Q26" s="198">
         <f t="shared" ref="Q26:Q27" si="6">N26*O26</f>
-        <v>-2807816.448843</v>
+        <v>-2845972.227924</v>
       </c>
     </row>
     <row r="27" spans="2:17" x14ac:dyDescent="0.25">
@@ -3576,7 +3576,7 @@
       </c>
       <c r="I27" s="200">
         <f>I26</f>
-        <v>383.75</v>
+        <v>386.3</v>
       </c>
       <c r="K27" s="163"/>
       <c r="L27" s="197">
@@ -3585,7 +3585,7 @@
       <c r="M27" s="163"/>
       <c r="N27" s="198">
         <f>(H27-I27)*1.3228*D27</f>
-        <v>-642184.88153400004</v>
+        <v>-652321.50454800006</v>
       </c>
       <c r="O27" s="178">
         <f>O7</f>
@@ -3593,7 +3593,7 @@
       </c>
       <c r="Q27" s="198">
         <f t="shared" si="6"/>
-        <v>-3660453.8247438003</v>
+        <v>-3718232.5759236002</v>
       </c>
     </row>
     <row r="28" spans="2:17" x14ac:dyDescent="0.25">
@@ -3616,13 +3616,13 @@
       <c r="M28" s="202"/>
       <c r="N28" s="202">
         <f>SUM(N25:N27)</f>
-        <v>-2493862.395759</v>
+        <v>-2527619.262966</v>
       </c>
       <c r="O28" s="201"/>
       <c r="P28" s="201"/>
       <c r="Q28" s="202">
         <f>SUM(Q25:Q27)</f>
-        <v>-14215015.6558263</v>
+        <v>-14407429.7989062</v>
       </c>
     </row>
     <row r="29" spans="2:17" x14ac:dyDescent="0.25">
@@ -4306,7 +4306,7 @@
       </c>
       <c r="I57" s="177">
         <f>futuros!B7</f>
-        <v>319.05</v>
+        <v>325.14999999999998</v>
       </c>
       <c r="K57" s="178">
         <f>O8</f>
@@ -4318,7 +4318,7 @@
       <c r="M57" s="198"/>
       <c r="N57" s="198">
         <f>(H57-I57)*1.3228*D57</f>
-        <v>-61596.016649999998</v>
+        <v>-82184.274269999878</v>
       </c>
       <c r="O57" s="166">
         <f>O25</f>
@@ -4326,7 +4326,7 @@
       </c>
       <c r="Q57" s="198">
         <f>N57*O57</f>
-        <v>-351097.29490500002</v>
+        <v>-468450.36333899933</v>
       </c>
     </row>
     <row r="58" spans="2:17" x14ac:dyDescent="0.25">
@@ -4350,7 +4350,7 @@
       </c>
       <c r="I58" s="177">
         <f>I57</f>
-        <v>319.05</v>
+        <v>325.14999999999998</v>
       </c>
       <c r="K58" s="178">
         <f>O9</f>
@@ -4362,7 +4362,7 @@
       <c r="M58" s="198"/>
       <c r="N58" s="198">
         <f>(H58-I58)*1.3228*D58</f>
-        <v>10050.369839999898</v>
+        <v>-8250.3035999999993</v>
       </c>
       <c r="O58" s="166">
         <f>O26</f>
@@ -4370,7 +4370,7 @@
       </c>
       <c r="Q58" s="198">
         <f>N58*O58</f>
-        <v>57287.108087999419</v>
+        <v>-47026.730519999997</v>
       </c>
     </row>
     <row r="59" spans="2:17" x14ac:dyDescent="0.25">
@@ -4393,13 +4393,13 @@
       <c r="M59" s="201"/>
       <c r="N59" s="202">
         <f>SUM(N56:N58)</f>
-        <v>-51545.6468100001</v>
+        <v>-90434.577869999877</v>
       </c>
       <c r="O59" s="201"/>
       <c r="P59" s="201"/>
       <c r="Q59" s="202">
         <f>SUM(Q56:Q58)</f>
-        <v>-293810.18681700062</v>
+        <v>-515477.09385899932</v>
       </c>
     </row>
     <row r="64" spans="2:17" x14ac:dyDescent="0.25">
@@ -4540,7 +4540,7 @@
   <dimension ref="A1:T74"/>
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A46" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A39" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="P32" sqref="P32"/>
     </sheetView>
   </sheetViews>
@@ -8234,7 +8234,7 @@
         <v>270</v>
       </c>
       <c r="D1" s="162">
-        <v>45929</v>
+        <v>45936</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -8242,11 +8242,11 @@
         <v>46021</v>
       </c>
       <c r="B2" s="155">
-        <v>383.75</v>
+        <v>386.3</v>
       </c>
       <c r="C2" s="155">
         <f t="shared" ref="C2:C11" si="0">B2*1.3228</f>
-        <v>507.62450000000001</v>
+        <v>510.99763999999999</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -8254,11 +8254,11 @@
         <v>46112</v>
       </c>
       <c r="B3" s="155">
-        <v>365.2</v>
+        <v>369.85</v>
       </c>
       <c r="C3" s="155">
         <f t="shared" si="0"/>
-        <v>483.08655999999996</v>
+        <v>489.23758000000004</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
@@ -8266,11 +8266,11 @@
         <v>46173</v>
       </c>
       <c r="B4" s="155">
-        <v>352.15</v>
+        <v>358.2</v>
       </c>
       <c r="C4" s="155">
         <f t="shared" si="0"/>
-        <v>465.82401999999996</v>
+        <v>473.82695999999999</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
@@ -8278,11 +8278,11 @@
         <v>46231</v>
       </c>
       <c r="B5" s="155">
-        <v>339.05</v>
+        <v>347.2</v>
       </c>
       <c r="C5" s="155">
         <f t="shared" si="0"/>
-        <v>448.49534</v>
+        <v>459.27616</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
@@ -8290,11 +8290,11 @@
         <v>46295</v>
       </c>
       <c r="B6" s="155">
-        <v>327.10000000000002</v>
+        <v>333.85</v>
       </c>
       <c r="C6" s="155">
         <f t="shared" si="0"/>
-        <v>432.68788000000001</v>
+        <v>441.61678000000001</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
@@ -8302,11 +8302,11 @@
         <v>46386</v>
       </c>
       <c r="B7" s="155">
-        <v>319.05</v>
+        <v>325.14999999999998</v>
       </c>
       <c r="C7" s="155">
         <f t="shared" si="0"/>
-        <v>422.03933999999998</v>
+        <v>430.10841999999997</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
@@ -8314,11 +8314,11 @@
         <v>46477</v>
       </c>
       <c r="B8" s="155">
-        <v>312.75</v>
+        <v>318.89999999999998</v>
       </c>
       <c r="C8" s="155">
         <f t="shared" si="0"/>
-        <v>413.70569999999998</v>
+        <v>421.84091999999998</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
@@ -8326,11 +8326,11 @@
         <v>46538</v>
       </c>
       <c r="B9" s="155">
-        <v>307.8</v>
+        <v>320.7</v>
       </c>
       <c r="C9" s="155">
         <f t="shared" si="0"/>
-        <v>407.15784000000002</v>
+        <v>424.22195999999997</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
@@ -8338,11 +8338,11 @@
         <v>46596</v>
       </c>
       <c r="B10" s="155">
-        <v>300.35000000000002</v>
+        <v>315.60000000000002</v>
       </c>
       <c r="C10" s="155">
         <f t="shared" si="0"/>
-        <v>397.30298000000005</v>
+        <v>417.47568000000001</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
@@ -8350,11 +8350,11 @@
         <v>46660</v>
       </c>
       <c r="B11" s="155">
-        <v>294.64999999999998</v>
+        <v>310.14999999999998</v>
       </c>
       <c r="C11" s="155">
         <f t="shared" si="0"/>
-        <v>389.76301999999998</v>
+        <v>410.26641999999998</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
@@ -8362,11 +8362,11 @@
         <v>46751</v>
       </c>
       <c r="B12" s="155">
-        <v>289</v>
+        <v>304.75</v>
       </c>
       <c r="C12" s="155">
         <f>B12*1.3228</f>
-        <v>382.28919999999999</v>
+        <v>403.12329999999997</v>
       </c>
     </row>
   </sheetData>
@@ -8380,7 +8380,7 @@
   <dimension ref="A1:N28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A15" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A16" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="L16" sqref="L16:L28"/>
     </sheetView>
   </sheetViews>
@@ -9109,7 +9109,7 @@
       </c>
       <c r="H16" s="155">
         <f>futuros!B2</f>
-        <v>383.75</v>
+        <v>386.3</v>
       </c>
       <c r="I16" s="2"/>
       <c r="J16" s="162">
@@ -9118,7 +9118,7 @@
       <c r="K16" s="162"/>
       <c r="L16" s="215">
         <f t="shared" si="2"/>
-        <v>-1359078.1372349998</v>
+        <v>-1376004.3850980001</v>
       </c>
       <c r="M16" s="160"/>
       <c r="N16" s="215"/>
@@ -9147,7 +9147,7 @@
       </c>
       <c r="H17" s="155">
         <f>futuros!B2</f>
-        <v>383.75</v>
+        <v>386.3</v>
       </c>
       <c r="I17" s="2"/>
       <c r="J17" s="162">
@@ -9156,7 +9156,7 @@
       <c r="K17" s="162"/>
       <c r="L17" s="215">
         <f t="shared" si="2"/>
-        <v>-492599.37698999996</v>
+        <v>-499293.37332000001</v>
       </c>
       <c r="M17" s="160"/>
       <c r="N17" s="215"/>
@@ -9187,7 +9187,7 @@
       </c>
       <c r="H18" s="155">
         <f>futuros!B2</f>
-        <v>383.75</v>
+        <v>386.3</v>
       </c>
       <c r="I18" s="2"/>
       <c r="J18" s="162">
@@ -9196,7 +9196,7 @@
       <c r="K18" s="162"/>
       <c r="L18" s="215">
         <f t="shared" si="2"/>
-        <v>-141098.94224999999</v>
+        <v>-147792.93858000002</v>
       </c>
       <c r="M18" s="160"/>
       <c r="N18" s="215"/>
@@ -9225,7 +9225,7 @@
       </c>
       <c r="H19" s="217">
         <f>futuros!B2</f>
-        <v>383.75</v>
+        <v>386.3</v>
       </c>
       <c r="I19" s="208"/>
       <c r="J19" s="219">
@@ -9234,7 +9234,7 @@
       <c r="K19" s="219"/>
       <c r="L19" s="220">
         <f t="shared" si="2"/>
-        <v>-339267.48458400002</v>
+        <v>-344622.68164800003</v>
       </c>
       <c r="M19" s="218"/>
       <c r="N19" s="220"/>
@@ -9265,7 +9265,7 @@
       </c>
       <c r="H20" s="155">
         <f>futuros!B3</f>
-        <v>365.2</v>
+        <v>369.85</v>
       </c>
       <c r="I20" s="2"/>
       <c r="J20" s="162">
@@ -9274,7 +9274,7 @@
       <c r="K20" s="162"/>
       <c r="L20" s="215">
         <f t="shared" si="2"/>
-        <v>-105528.88331999996</v>
+        <v>-117735.58251000005</v>
       </c>
       <c r="M20" s="160"/>
       <c r="N20" s="215"/>
@@ -9303,7 +9303,7 @@
       </c>
       <c r="H21" s="155">
         <f>futuros!B7</f>
-        <v>319.05</v>
+        <v>325.14999999999998</v>
       </c>
       <c r="I21" s="2"/>
       <c r="J21" s="162">
@@ -9312,7 +9312,7 @@
       <c r="K21" s="162"/>
       <c r="L21" s="215">
         <f t="shared" si="2"/>
-        <v>-61596.016649999998</v>
+        <v>-82184.274269999878</v>
       </c>
       <c r="M21" s="160"/>
       <c r="N21" s="215"/>
@@ -9340,7 +9340,7 @@
       </c>
       <c r="H22" s="155">
         <f>futuros!B7</f>
-        <v>319.05</v>
+        <v>325.14999999999998</v>
       </c>
       <c r="I22" s="2"/>
       <c r="J22" s="162">
@@ -9349,7 +9349,7 @@
       <c r="K22" s="162"/>
       <c r="L22" s="215">
         <f t="shared" si="2"/>
-        <v>10050.369839999898</v>
+        <v>-8250.3035999999993</v>
       </c>
       <c r="M22" s="160"/>
       <c r="N22" s="215"/>
@@ -9377,7 +9377,7 @@
       </c>
       <c r="H23" s="155">
         <f>futuros!B7</f>
-        <v>319.05</v>
+        <v>325.14999999999998</v>
       </c>
       <c r="I23" s="2"/>
       <c r="J23" s="162">
@@ -9386,7 +9386,7 @@
       <c r="K23" s="162"/>
       <c r="L23" s="215">
         <f t="shared" si="2"/>
-        <v>-35551.308240000064</v>
+        <v>-53851.981679999968</v>
       </c>
       <c r="M23" s="160"/>
       <c r="N23" s="215"/>
@@ -9415,7 +9415,7 @@
       </c>
       <c r="H24" s="217">
         <f>futuros!B7</f>
-        <v>319.05</v>
+        <v>325.14999999999998</v>
       </c>
       <c r="I24" s="208"/>
       <c r="J24" s="219">
@@ -9424,7 +9424,7 @@
       <c r="K24" s="219"/>
       <c r="L24" s="220">
         <f t="shared" si="2"/>
-        <v>-326036.9977200001</v>
+        <v>-390089.35475999978</v>
       </c>
       <c r="M24" s="218"/>
       <c r="N24" s="220"/>
@@ -9453,7 +9453,7 @@
       </c>
       <c r="H25" s="155">
         <f>futuros!B12</f>
-        <v>289</v>
+        <v>304.75</v>
       </c>
       <c r="I25" s="2"/>
       <c r="J25" s="162">
@@ -9462,7 +9462,7 @@
       <c r="K25" s="162"/>
       <c r="L25" s="215">
         <f t="shared" si="2"/>
-        <v>-165006.07199999999</v>
+        <v>-229977.21284999998</v>
       </c>
       <c r="M25" s="160"/>
       <c r="N25" s="215"/>
@@ -9488,7 +9488,7 @@
       </c>
       <c r="H26" s="155">
         <f>futuros!B12</f>
-        <v>289</v>
+        <v>304.75</v>
       </c>
       <c r="I26" s="2"/>
       <c r="J26" s="162">
@@ -9497,7 +9497,7 @@
       <c r="K26" s="162"/>
       <c r="L26" s="215">
         <f t="shared" ref="L26" si="8">D26*(G26-H26)*1.3228</f>
-        <v>-162005.96160000001</v>
+        <v>-209257.7004</v>
       </c>
       <c r="M26" s="160"/>
       <c r="N26" s="215"/>
@@ -9523,7 +9523,7 @@
       </c>
       <c r="H27" s="155">
         <f>futuros!B12</f>
-        <v>289</v>
+        <v>304.75</v>
       </c>
       <c r="I27" s="2"/>
       <c r="J27" s="162">
@@ -9532,7 +9532,7 @@
       <c r="K27" s="162"/>
       <c r="L27" s="215">
         <f t="shared" ref="L27" si="10">D27*(G27-H27)*1.3228</f>
-        <v>-71252.622000000003</v>
+        <v>-100784.95875000001</v>
       </c>
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.2">
@@ -9556,7 +9556,7 @@
       </c>
       <c r="H28" s="155">
         <f>futuros!B12</f>
-        <v>289</v>
+        <v>304.75</v>
       </c>
       <c r="I28" s="2"/>
       <c r="J28" s="162">
@@ -9565,7 +9565,7 @@
       <c r="K28" s="162"/>
       <c r="L28" s="215">
         <f t="shared" ref="L28" si="12">D28*(G28-H28)*1.3228</f>
-        <v>-48751.794000000002</v>
+        <v>-78284.130749999997</v>
       </c>
     </row>
   </sheetData>

--- a/vendas_cafe_em_reais.xlsx
+++ b/vendas_cafe_em_reais.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rotocastro/PycharmProjects/Vendas Cafe/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{295E0BDA-1F64-2048-98EF-BE7635F7CBD7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52EC92A2-929A-A142-9A49-02B0535AE982}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4420" yWindow="680" windowWidth="24980" windowHeight="18440" activeTab="3" xr2:uid="{AC82ADC5-E628-F847-8939-89BAF5623AE6}"/>
+    <workbookView xWindow="4420" yWindow="680" windowWidth="24980" windowHeight="18440" activeTab="1" xr2:uid="{AC82ADC5-E628-F847-8939-89BAF5623AE6}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2 (2)" sheetId="16" state="hidden" r:id="rId1"/>
@@ -2642,26 +2642,26 @@
       </c>
       <c r="L6" s="177">
         <f>futuros!B2</f>
-        <v>386.3</v>
+        <v>382.7</v>
       </c>
       <c r="M6" s="177">
         <f>(L6+H6)*1.3228</f>
-        <v>550.68164000000002</v>
+        <v>545.91955999999993</v>
       </c>
       <c r="N6" s="167">
         <f>(E6*(M6+H6))</f>
-        <v>185818.12479999999</v>
+        <v>184294.25919999997</v>
       </c>
       <c r="O6" s="178">
         <v>5.7</v>
       </c>
       <c r="P6" s="167">
         <f t="shared" ref="P6:P16" si="1">M6*O6</f>
-        <v>3138.8853480000002</v>
+        <v>3111.7414919999997</v>
       </c>
       <c r="Q6" s="167">
         <f t="shared" ref="Q6:Q16" si="2">P6*E6</f>
-        <v>1004443.3113600001</v>
+        <v>995757.27743999986</v>
       </c>
     </row>
     <row r="7" spans="2:20" x14ac:dyDescent="0.25">
@@ -2698,26 +2698,26 @@
       </c>
       <c r="L7" s="177">
         <f>L6</f>
-        <v>386.3</v>
+        <v>382.7</v>
       </c>
       <c r="M7" s="177">
         <f>(L7+H7)*1.3228</f>
-        <v>550.68164000000002</v>
+        <v>545.91955999999993</v>
       </c>
       <c r="N7" s="167">
         <f>(E7*(M7+H7))</f>
-        <v>185818.12479999999</v>
+        <v>184294.25919999997</v>
       </c>
       <c r="O7" s="178">
         <v>5.7</v>
       </c>
       <c r="P7" s="167">
         <f t="shared" si="1"/>
-        <v>3138.8853480000002</v>
+        <v>3111.7414919999997</v>
       </c>
       <c r="Q7" s="167">
         <f t="shared" si="2"/>
-        <v>1004443.3113600001</v>
+        <v>995757.27743999986</v>
       </c>
     </row>
     <row r="8" spans="2:20" x14ac:dyDescent="0.25">
@@ -2754,26 +2754,26 @@
       </c>
       <c r="L8" s="177">
         <f>L7</f>
-        <v>386.3</v>
+        <v>382.7</v>
       </c>
       <c r="M8" s="177">
         <f>(L8+H8)*1.3228</f>
-        <v>550.68164000000002</v>
+        <v>545.91955999999993</v>
       </c>
       <c r="N8" s="167">
         <f>(E8*(M8+H8))</f>
-        <v>185818.12479999999</v>
+        <v>184294.25919999997</v>
       </c>
       <c r="O8" s="178">
         <v>5.7</v>
       </c>
       <c r="P8" s="167">
         <f t="shared" si="1"/>
-        <v>3138.8853480000002</v>
+        <v>3111.7414919999997</v>
       </c>
       <c r="Q8" s="167">
         <f t="shared" si="2"/>
-        <v>1004443.3113600001</v>
+        <v>995757.27743999986</v>
       </c>
     </row>
     <row r="9" spans="2:20" x14ac:dyDescent="0.25">
@@ -2810,26 +2810,26 @@
       </c>
       <c r="L9" s="177">
         <f>futuros!B2</f>
-        <v>386.3</v>
+        <v>382.7</v>
       </c>
       <c r="M9" s="177">
         <f>(L9+H9)*1.3228</f>
-        <v>550.68164000000002</v>
+        <v>545.91955999999993</v>
       </c>
       <c r="N9" s="167">
         <f>(E9*(M9+H9))</f>
-        <v>185818.12479999999</v>
+        <v>184294.25919999997</v>
       </c>
       <c r="O9" s="178">
         <v>5.7</v>
       </c>
       <c r="P9" s="167">
         <f t="shared" si="1"/>
-        <v>3138.8853480000002</v>
+        <v>3111.7414919999997</v>
       </c>
       <c r="Q9" s="167">
         <f t="shared" si="2"/>
-        <v>1004443.3113600001</v>
+        <v>995757.27743999986</v>
       </c>
     </row>
     <row r="10" spans="2:20" x14ac:dyDescent="0.25">
@@ -2866,26 +2866,26 @@
       </c>
       <c r="L10" s="177">
         <f>futuros!B3</f>
-        <v>369.85</v>
+        <v>364.55</v>
       </c>
       <c r="M10" s="177">
         <f>(L10+H10)*1.3228</f>
-        <v>528.92158000000006</v>
+        <v>521.91074000000003</v>
       </c>
       <c r="N10" s="167">
         <f>(E10*(M10+H10))</f>
-        <v>178854.90560000003</v>
+        <v>176611.43680000002</v>
       </c>
       <c r="O10" s="178">
         <v>5.7</v>
       </c>
       <c r="P10" s="167">
         <f t="shared" si="1"/>
-        <v>3014.8530060000003</v>
+        <v>2974.8912180000002</v>
       </c>
       <c r="Q10" s="167">
         <f t="shared" si="2"/>
-        <v>964752.96192000015</v>
+        <v>951965.1897600001</v>
       </c>
     </row>
     <row r="11" spans="2:20" x14ac:dyDescent="0.25">
@@ -2922,26 +2922,26 @@
       </c>
       <c r="L11" s="177">
         <f>futuros!B2</f>
-        <v>386.3</v>
+        <v>382.7</v>
       </c>
       <c r="M11" s="177">
         <f t="shared" ref="M11:M16" si="4">(L11+H11)*1.3228</f>
-        <v>548.03603999999996</v>
+        <v>543.27395999999999</v>
       </c>
       <c r="N11" s="167">
         <f t="shared" ref="N11:N16" si="5">(E11*(M11+H11))</f>
-        <v>184331.53279999999</v>
+        <v>182807.6672</v>
       </c>
       <c r="O11" s="178">
         <v>5.7</v>
       </c>
       <c r="P11" s="167">
         <f t="shared" si="1"/>
-        <v>3123.8054279999997</v>
+        <v>3096.661572</v>
       </c>
       <c r="Q11" s="167">
         <f t="shared" si="2"/>
-        <v>999617.73695999989</v>
+        <v>990931.70304000005</v>
       </c>
     </row>
     <row r="12" spans="2:20" x14ac:dyDescent="0.25">
@@ -2978,26 +2978,26 @@
       </c>
       <c r="L12" s="177">
         <f>futuros!B2</f>
-        <v>386.3</v>
+        <v>382.7</v>
       </c>
       <c r="M12" s="177">
         <f t="shared" si="4"/>
-        <v>548.03603999999996</v>
+        <v>543.27395999999999</v>
       </c>
       <c r="N12" s="167">
         <f t="shared" si="5"/>
-        <v>184331.53279999999</v>
+        <v>182807.6672</v>
       </c>
       <c r="O12" s="178">
         <v>5.7</v>
       </c>
       <c r="P12" s="167">
         <f t="shared" si="1"/>
-        <v>3123.8054279999997</v>
+        <v>3096.661572</v>
       </c>
       <c r="Q12" s="167">
         <f t="shared" si="2"/>
-        <v>999617.73695999989</v>
+        <v>990931.70304000005</v>
       </c>
     </row>
     <row r="13" spans="2:20" s="166" customFormat="1" x14ac:dyDescent="0.25">
@@ -3034,26 +3034,26 @@
       </c>
       <c r="L13" s="177">
         <f>futuros!B3</f>
-        <v>369.85</v>
+        <v>364.55</v>
       </c>
       <c r="M13" s="177">
         <f t="shared" si="4"/>
-        <v>526.27598</v>
+        <v>519.26513999999997</v>
       </c>
       <c r="N13" s="167">
         <f t="shared" si="5"/>
-        <v>177368.31359999999</v>
+        <v>175124.84479999999</v>
       </c>
       <c r="O13" s="178">
         <v>5.7</v>
       </c>
       <c r="P13" s="167">
         <f t="shared" si="1"/>
-        <v>2999.7730860000001</v>
+        <v>2959.8112980000001</v>
       </c>
       <c r="Q13" s="167">
         <f t="shared" si="2"/>
-        <v>959927.38752000011</v>
+        <v>947139.61536000005</v>
       </c>
       <c r="R13" s="163"/>
       <c r="S13" s="163"/>
@@ -3093,26 +3093,26 @@
       </c>
       <c r="L14" s="177">
         <f>futuros!B4</f>
-        <v>358.2</v>
+        <v>351.3</v>
       </c>
       <c r="M14" s="177">
         <f t="shared" si="4"/>
-        <v>510.86535999999995</v>
+        <v>501.73804000000001</v>
       </c>
       <c r="N14" s="167">
         <f t="shared" si="5"/>
-        <v>172436.91519999999</v>
+        <v>169516.1728</v>
       </c>
       <c r="O14" s="178">
         <v>5.7</v>
       </c>
       <c r="P14" s="167">
         <f t="shared" si="1"/>
-        <v>2911.9325519999998</v>
+        <v>2859.9068280000001</v>
       </c>
       <c r="Q14" s="167">
         <f t="shared" si="2"/>
-        <v>931818.41663999995</v>
+        <v>915170.18495999998</v>
       </c>
       <c r="R14" s="163"/>
       <c r="S14" s="163"/>
@@ -3152,26 +3152,26 @@
       </c>
       <c r="L15" s="177">
         <f>futuros!B3</f>
-        <v>369.85</v>
+        <v>364.55</v>
       </c>
       <c r="M15" s="177">
         <f t="shared" si="4"/>
-        <v>460.13598000000002</v>
+        <v>453.12513999999999</v>
       </c>
       <c r="N15" s="167">
         <f t="shared" si="5"/>
-        <v>140203.51360000001</v>
+        <v>137960.0448</v>
       </c>
       <c r="O15" s="178">
         <v>5.7</v>
       </c>
       <c r="P15" s="167">
         <f t="shared" si="1"/>
-        <v>2622.7750860000001</v>
+        <v>2582.813298</v>
       </c>
       <c r="Q15" s="167">
         <f t="shared" si="2"/>
-        <v>839288.02752</v>
+        <v>826500.25536000007</v>
       </c>
       <c r="R15" s="163"/>
       <c r="S15" s="163"/>
@@ -3211,26 +3211,26 @@
       </c>
       <c r="L16" s="177">
         <f>futuros!B2</f>
-        <v>386.3</v>
+        <v>382.7</v>
       </c>
       <c r="M16" s="177">
         <f t="shared" si="4"/>
-        <v>581.10604000000001</v>
+        <v>576.34395999999992</v>
       </c>
       <c r="N16" s="167">
         <f t="shared" si="5"/>
-        <v>202913.93280000001</v>
+        <v>201390.06719999999</v>
       </c>
       <c r="O16" s="178">
         <v>5.7</v>
       </c>
       <c r="P16" s="167">
         <f t="shared" si="1"/>
-        <v>3312.3044280000004</v>
+        <v>3285.1605719999998</v>
       </c>
       <c r="Q16" s="167">
         <f t="shared" si="2"/>
-        <v>1059937.4169600001</v>
+        <v>1051251.38304</v>
       </c>
       <c r="R16" s="163"/>
       <c r="S16" s="163"/>
@@ -3357,20 +3357,20 @@
       <c r="L19" s="179"/>
       <c r="M19" s="182">
         <f>N19/E19</f>
-        <v>549.43596999999988</v>
+        <v>544.90065571428579</v>
       </c>
       <c r="N19" s="183">
         <f>SUM(N5:N18)</f>
-        <v>2461473.1455999995</v>
+        <v>2441154.9376000003</v>
       </c>
       <c r="O19" s="184"/>
       <c r="P19" s="185">
         <f>Q19/E19</f>
-        <v>3012.4921718571436</v>
+        <v>2986.6408804285716</v>
       </c>
       <c r="Q19" s="183">
         <f>SUM(Q5:Q18)</f>
-        <v>13495964.929920003</v>
+        <v>13380151.14432</v>
       </c>
     </row>
     <row r="20" spans="2:17" x14ac:dyDescent="0.25">
@@ -3493,7 +3493,7 @@
       </c>
       <c r="I25" s="177">
         <f>futuros!B2</f>
-        <v>386.3</v>
+        <v>382.7</v>
       </c>
       <c r="K25" s="163"/>
       <c r="L25" s="197">
@@ -3502,7 +3502,7 @@
       <c r="M25" s="163"/>
       <c r="N25" s="198">
         <f>(H25-I25)*1.3228*D25</f>
-        <v>-1376004.3850980001</v>
+        <v>-1352108.5057620001</v>
       </c>
       <c r="O25" s="178">
         <f>O5</f>
@@ -3510,7 +3510,7 @@
       </c>
       <c r="Q25" s="198">
         <f>N25*O25</f>
-        <v>-7843224.9950586008</v>
+        <v>-7707018.4828434009</v>
       </c>
     </row>
     <row r="26" spans="2:17" x14ac:dyDescent="0.25">
@@ -3535,7 +3535,7 @@
       </c>
       <c r="I26" s="177">
         <f>I25</f>
-        <v>386.3</v>
+        <v>382.7</v>
       </c>
       <c r="K26" s="163"/>
       <c r="L26" s="197">
@@ -3544,7 +3544,7 @@
       <c r="M26" s="163"/>
       <c r="N26" s="198">
         <f>(H26-I26)*1.3228*D26</f>
-        <v>-499293.37332000001</v>
+        <v>-489843.02555999998</v>
       </c>
       <c r="O26" s="178">
         <f>O6</f>
@@ -3552,7 +3552,7 @@
       </c>
       <c r="Q26" s="198">
         <f t="shared" ref="Q26:Q27" si="6">N26*O26</f>
-        <v>-2845972.227924</v>
+        <v>-2792105.2456919998</v>
       </c>
     </row>
     <row r="27" spans="2:17" x14ac:dyDescent="0.25">
@@ -3576,7 +3576,7 @@
       </c>
       <c r="I27" s="200">
         <f>I26</f>
-        <v>386.3</v>
+        <v>382.7</v>
       </c>
       <c r="K27" s="163"/>
       <c r="L27" s="197">
@@ -3585,7 +3585,7 @@
       <c r="M27" s="163"/>
       <c r="N27" s="198">
         <f>(H27-I27)*1.3228*D27</f>
-        <v>-652321.50454800006</v>
+        <v>-638010.9779399999</v>
       </c>
       <c r="O27" s="178">
         <f>O7</f>
@@ -3593,7 +3593,7 @@
       </c>
       <c r="Q27" s="198">
         <f t="shared" si="6"/>
-        <v>-3718232.5759236002</v>
+        <v>-3636662.5742579997</v>
       </c>
     </row>
     <row r="28" spans="2:17" x14ac:dyDescent="0.25">
@@ -3616,13 +3616,13 @@
       <c r="M28" s="202"/>
       <c r="N28" s="202">
         <f>SUM(N25:N27)</f>
-        <v>-2527619.262966</v>
+        <v>-2479962.5092620002</v>
       </c>
       <c r="O28" s="201"/>
       <c r="P28" s="201"/>
       <c r="Q28" s="202">
         <f>SUM(Q25:Q27)</f>
-        <v>-14407429.7989062</v>
+        <v>-14135786.3027934</v>
       </c>
     </row>
     <row r="29" spans="2:17" x14ac:dyDescent="0.25">
@@ -4306,7 +4306,7 @@
       </c>
       <c r="I57" s="177">
         <f>futuros!B7</f>
-        <v>325.14999999999998</v>
+        <v>320.35000000000002</v>
       </c>
       <c r="K57" s="178">
         <f>O8</f>
@@ -4318,7 +4318,7 @@
       <c r="M57" s="198"/>
       <c r="N57" s="198">
         <f>(H57-I57)*1.3228*D57</f>
-        <v>-82184.274269999878</v>
+        <v>-65983.678110000037</v>
       </c>
       <c r="O57" s="166">
         <f>O25</f>
@@ -4326,7 +4326,7 @@
       </c>
       <c r="Q57" s="198">
         <f>N57*O57</f>
-        <v>-468450.36333899933</v>
+        <v>-376106.96522700024</v>
       </c>
     </row>
     <row r="58" spans="2:17" x14ac:dyDescent="0.25">
@@ -4350,7 +4350,7 @@
       </c>
       <c r="I58" s="177">
         <f>I57</f>
-        <v>325.14999999999998</v>
+        <v>320.35000000000002</v>
       </c>
       <c r="K58" s="178">
         <f>O9</f>
@@ -4362,7 +4362,7 @@
       <c r="M58" s="198"/>
       <c r="N58" s="198">
         <f>(H58-I58)*1.3228*D58</f>
-        <v>-8250.3035999999993</v>
+        <v>6150.2263199998633</v>
       </c>
       <c r="O58" s="166">
         <f>O26</f>
@@ -4370,7 +4370,7 @@
       </c>
       <c r="Q58" s="198">
         <f>N58*O58</f>
-        <v>-47026.730519999997</v>
+        <v>35056.290023999223</v>
       </c>
     </row>
     <row r="59" spans="2:17" x14ac:dyDescent="0.25">
@@ -4393,13 +4393,13 @@
       <c r="M59" s="201"/>
       <c r="N59" s="202">
         <f>SUM(N56:N58)</f>
-        <v>-90434.577869999877</v>
+        <v>-59833.451790000174</v>
       </c>
       <c r="O59" s="201"/>
       <c r="P59" s="201"/>
       <c r="Q59" s="202">
         <f>SUM(Q56:Q58)</f>
-        <v>-515477.09385899932</v>
+        <v>-341050.67520300101</v>
       </c>
     </row>
     <row r="64" spans="2:17" x14ac:dyDescent="0.25">
@@ -4539,7 +4539,7 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:T74"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A39" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="P32" sqref="P32"/>
     </sheetView>
@@ -8234,7 +8234,7 @@
         <v>270</v>
       </c>
       <c r="D1" s="162">
-        <v>45936</v>
+        <v>45943</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -8242,11 +8242,11 @@
         <v>46021</v>
       </c>
       <c r="B2" s="155">
-        <v>386.3</v>
+        <v>382.7</v>
       </c>
       <c r="C2" s="155">
         <f t="shared" ref="C2:C11" si="0">B2*1.3228</f>
-        <v>510.99763999999999</v>
+        <v>506.23555999999996</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -8254,11 +8254,11 @@
         <v>46112</v>
       </c>
       <c r="B3" s="155">
-        <v>369.85</v>
+        <v>364.55</v>
       </c>
       <c r="C3" s="155">
         <f t="shared" si="0"/>
-        <v>489.23758000000004</v>
+        <v>482.22674000000001</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
@@ -8266,11 +8266,11 @@
         <v>46173</v>
       </c>
       <c r="B4" s="155">
-        <v>358.2</v>
+        <v>351.3</v>
       </c>
       <c r="C4" s="155">
         <f t="shared" si="0"/>
-        <v>473.82695999999999</v>
+        <v>464.69963999999999</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
@@ -8278,11 +8278,11 @@
         <v>46231</v>
       </c>
       <c r="B5" s="155">
-        <v>347.2</v>
+        <v>340</v>
       </c>
       <c r="C5" s="155">
         <f t="shared" si="0"/>
-        <v>459.27616</v>
+        <v>449.75200000000001</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
@@ -8290,11 +8290,11 @@
         <v>46295</v>
       </c>
       <c r="B6" s="155">
-        <v>333.85</v>
+        <v>328.6</v>
       </c>
       <c r="C6" s="155">
         <f t="shared" si="0"/>
-        <v>441.61678000000001</v>
+        <v>434.67207999999999</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
@@ -8302,11 +8302,11 @@
         <v>46386</v>
       </c>
       <c r="B7" s="155">
-        <v>325.14999999999998</v>
+        <v>320.35000000000002</v>
       </c>
       <c r="C7" s="155">
         <f t="shared" si="0"/>
-        <v>430.10841999999997</v>
+        <v>423.75898000000001</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
@@ -8314,11 +8314,11 @@
         <v>46477</v>
       </c>
       <c r="B8" s="155">
-        <v>318.89999999999998</v>
+        <v>309.5</v>
       </c>
       <c r="C8" s="155">
         <f t="shared" si="0"/>
-        <v>421.84091999999998</v>
+        <v>409.40659999999997</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
@@ -8326,11 +8326,11 @@
         <v>46538</v>
       </c>
       <c r="B9" s="155">
-        <v>320.7</v>
+        <v>302.3</v>
       </c>
       <c r="C9" s="155">
         <f t="shared" si="0"/>
-        <v>424.22195999999997</v>
+        <v>399.88244000000003</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
@@ -8338,11 +8338,11 @@
         <v>46596</v>
       </c>
       <c r="B10" s="155">
-        <v>315.60000000000002</v>
+        <v>297.2</v>
       </c>
       <c r="C10" s="155">
         <f t="shared" si="0"/>
-        <v>417.47568000000001</v>
+        <v>393.13615999999996</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
@@ -8350,11 +8350,11 @@
         <v>46660</v>
       </c>
       <c r="B11" s="155">
-        <v>310.14999999999998</v>
+        <v>291.5</v>
       </c>
       <c r="C11" s="155">
         <f t="shared" si="0"/>
-        <v>410.26641999999998</v>
+        <v>385.59620000000001</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
@@ -8362,11 +8362,11 @@
         <v>46751</v>
       </c>
       <c r="B12" s="155">
-        <v>304.75</v>
+        <v>285.5</v>
       </c>
       <c r="C12" s="155">
         <f>B12*1.3228</f>
-        <v>403.12329999999997</v>
+        <v>377.65940000000001</v>
       </c>
     </row>
   </sheetData>
@@ -8379,8 +8379,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{435A83C4-FEBA-7F44-BF8C-E9ADE9845E60}">
   <dimension ref="A1:N28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A16" activePane="bottomLeft" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A15" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="L16" sqref="L16:L28"/>
     </sheetView>
   </sheetViews>
@@ -9109,7 +9109,7 @@
       </c>
       <c r="H16" s="155">
         <f>futuros!B2</f>
-        <v>386.3</v>
+        <v>382.7</v>
       </c>
       <c r="I16" s="2"/>
       <c r="J16" s="162">
@@ -9118,7 +9118,7 @@
       <c r="K16" s="162"/>
       <c r="L16" s="215">
         <f t="shared" si="2"/>
-        <v>-1376004.3850980001</v>
+        <v>-1352108.5057619999</v>
       </c>
       <c r="M16" s="160"/>
       <c r="N16" s="215"/>
@@ -9147,7 +9147,7 @@
       </c>
       <c r="H17" s="155">
         <f>futuros!B2</f>
-        <v>386.3</v>
+        <v>382.7</v>
       </c>
       <c r="I17" s="2"/>
       <c r="J17" s="162">
@@ -9156,7 +9156,7 @@
       <c r="K17" s="162"/>
       <c r="L17" s="215">
         <f t="shared" si="2"/>
-        <v>-499293.37332000001</v>
+        <v>-489843.02555999998</v>
       </c>
       <c r="M17" s="160"/>
       <c r="N17" s="215"/>
@@ -9187,7 +9187,7 @@
       </c>
       <c r="H18" s="155">
         <f>futuros!B2</f>
-        <v>386.3</v>
+        <v>382.7</v>
       </c>
       <c r="I18" s="2"/>
       <c r="J18" s="162">
@@ -9196,7 +9196,7 @@
       <c r="K18" s="162"/>
       <c r="L18" s="215">
         <f t="shared" si="2"/>
-        <v>-147792.93858000002</v>
+        <v>-138342.59081999998</v>
       </c>
       <c r="M18" s="160"/>
       <c r="N18" s="215"/>
@@ -9225,7 +9225,7 @@
       </c>
       <c r="H19" s="217">
         <f>futuros!B2</f>
-        <v>386.3</v>
+        <v>382.7</v>
       </c>
       <c r="I19" s="208"/>
       <c r="J19" s="219">
@@ -9234,7 +9234,7 @@
       <c r="K19" s="219"/>
       <c r="L19" s="220">
         <f t="shared" si="2"/>
-        <v>-344622.68164800003</v>
+        <v>-337062.40343999997</v>
       </c>
       <c r="M19" s="218"/>
       <c r="N19" s="220"/>
@@ -9265,7 +9265,7 @@
       </c>
       <c r="H20" s="155">
         <f>futuros!B3</f>
-        <v>369.85</v>
+        <v>364.55</v>
       </c>
       <c r="I20" s="2"/>
       <c r="J20" s="162">
@@ -9274,7 +9274,7 @@
       <c r="K20" s="162"/>
       <c r="L20" s="215">
         <f t="shared" si="2"/>
-        <v>-117735.58251000005</v>
+        <v>-103822.57053000003</v>
       </c>
       <c r="M20" s="160"/>
       <c r="N20" s="215"/>
@@ -9303,7 +9303,7 @@
       </c>
       <c r="H21" s="155">
         <f>futuros!B7</f>
-        <v>325.14999999999998</v>
+        <v>320.35000000000002</v>
       </c>
       <c r="I21" s="2"/>
       <c r="J21" s="162">
@@ -9312,7 +9312,7 @@
       <c r="K21" s="162"/>
       <c r="L21" s="215">
         <f t="shared" si="2"/>
-        <v>-82184.274269999878</v>
+        <v>-65983.678110000037</v>
       </c>
       <c r="M21" s="160"/>
       <c r="N21" s="215"/>
@@ -9340,7 +9340,7 @@
       </c>
       <c r="H22" s="155">
         <f>futuros!B7</f>
-        <v>325.14999999999998</v>
+        <v>320.35000000000002</v>
       </c>
       <c r="I22" s="2"/>
       <c r="J22" s="162">
@@ -9349,7 +9349,7 @@
       <c r="K22" s="162"/>
       <c r="L22" s="215">
         <f t="shared" si="2"/>
-        <v>-8250.3035999999993</v>
+        <v>6150.2263199998633</v>
       </c>
       <c r="M22" s="160"/>
       <c r="N22" s="215"/>
@@ -9377,7 +9377,7 @@
       </c>
       <c r="H23" s="155">
         <f>futuros!B7</f>
-        <v>325.14999999999998</v>
+        <v>320.35000000000002</v>
       </c>
       <c r="I23" s="2"/>
       <c r="J23" s="162">
@@ -9386,7 +9386,7 @@
       <c r="K23" s="162"/>
       <c r="L23" s="215">
         <f t="shared" si="2"/>
-        <v>-53851.981679999968</v>
+        <v>-39451.451760000098</v>
       </c>
       <c r="M23" s="160"/>
       <c r="N23" s="215"/>
@@ -9415,7 +9415,7 @@
       </c>
       <c r="H24" s="217">
         <f>futuros!B7</f>
-        <v>325.14999999999998</v>
+        <v>320.35000000000002</v>
       </c>
       <c r="I24" s="208"/>
       <c r="J24" s="219">
@@ -9424,7 +9424,7 @@
       <c r="K24" s="219"/>
       <c r="L24" s="220">
         <f t="shared" si="2"/>
-        <v>-390089.35475999978</v>
+        <v>-339687.50004000025</v>
       </c>
       <c r="M24" s="218"/>
       <c r="N24" s="220"/>
@@ -9453,7 +9453,7 @@
       </c>
       <c r="H25" s="155">
         <f>futuros!B12</f>
-        <v>304.75</v>
+        <v>285.5</v>
       </c>
       <c r="I25" s="2"/>
       <c r="J25" s="162">
@@ -9462,7 +9462,7 @@
       <c r="K25" s="162"/>
       <c r="L25" s="215">
         <f t="shared" si="2"/>
-        <v>-229977.21284999998</v>
+        <v>-150568.04069999998</v>
       </c>
       <c r="M25" s="160"/>
       <c r="N25" s="215"/>
@@ -9488,7 +9488,7 @@
       </c>
       <c r="H26" s="155">
         <f>futuros!B12</f>
-        <v>304.75</v>
+        <v>285.5</v>
       </c>
       <c r="I26" s="2"/>
       <c r="J26" s="162">
@@ -9497,7 +9497,7 @@
       <c r="K26" s="162"/>
       <c r="L26" s="215">
         <f t="shared" ref="L26" si="8">D26*(G26-H26)*1.3228</f>
-        <v>-209257.7004</v>
+        <v>-151505.57519999999</v>
       </c>
       <c r="M26" s="160"/>
       <c r="N26" s="215"/>
@@ -9523,7 +9523,7 @@
       </c>
       <c r="H27" s="155">
         <f>futuros!B12</f>
-        <v>304.75</v>
+        <v>285.5</v>
       </c>
       <c r="I27" s="2"/>
       <c r="J27" s="162">
@@ -9532,7 +9532,7 @@
       <c r="K27" s="162"/>
       <c r="L27" s="215">
         <f t="shared" ref="L27" si="10">D27*(G27-H27)*1.3228</f>
-        <v>-100784.95875000001</v>
+        <v>-64689.880499999999</v>
       </c>
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.2">
@@ -9556,7 +9556,7 @@
       </c>
       <c r="H28" s="155">
         <f>futuros!B12</f>
-        <v>304.75</v>
+        <v>285.5</v>
       </c>
       <c r="I28" s="2"/>
       <c r="J28" s="162">
@@ -9565,7 +9565,7 @@
       <c r="K28" s="162"/>
       <c r="L28" s="215">
         <f t="shared" ref="L28" si="12">D28*(G28-H28)*1.3228</f>
-        <v>-78284.130749999997</v>
+        <v>-42189.052499999998</v>
       </c>
     </row>
   </sheetData>

--- a/vendas_cafe_em_reais.xlsx
+++ b/vendas_cafe_em_reais.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rotocastro/PycharmProjects/Vendas Cafe/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52EC92A2-929A-A142-9A49-02B0535AE982}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC8E01DC-3A49-3341-B94A-7199CBC8B54C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4420" yWindow="680" windowWidth="24980" windowHeight="18440" activeTab="1" xr2:uid="{AC82ADC5-E628-F847-8939-89BAF5623AE6}"/>
+    <workbookView xWindow="4420" yWindow="680" windowWidth="24980" windowHeight="18440" activeTab="3" xr2:uid="{AC82ADC5-E628-F847-8939-89BAF5623AE6}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2 (2)" sheetId="16" state="hidden" r:id="rId1"/>
@@ -2642,26 +2642,26 @@
       </c>
       <c r="L6" s="177">
         <f>futuros!B2</f>
-        <v>382.7</v>
+        <v>408.3</v>
       </c>
       <c r="M6" s="177">
         <f>(L6+H6)*1.3228</f>
-        <v>545.91955999999993</v>
+        <v>579.78323999999998</v>
       </c>
       <c r="N6" s="167">
         <f>(E6*(M6+H6))</f>
-        <v>184294.25919999997</v>
+        <v>195130.63679999998</v>
       </c>
       <c r="O6" s="178">
         <v>5.7</v>
       </c>
       <c r="P6" s="167">
         <f t="shared" ref="P6:P16" si="1">M6*O6</f>
-        <v>3111.7414919999997</v>
+        <v>3304.7644679999999</v>
       </c>
       <c r="Q6" s="167">
         <f t="shared" ref="Q6:Q16" si="2">P6*E6</f>
-        <v>995757.27743999986</v>
+        <v>1057524.6297599999</v>
       </c>
     </row>
     <row r="7" spans="2:20" x14ac:dyDescent="0.25">
@@ -2698,26 +2698,26 @@
       </c>
       <c r="L7" s="177">
         <f>L6</f>
-        <v>382.7</v>
+        <v>408.3</v>
       </c>
       <c r="M7" s="177">
         <f>(L7+H7)*1.3228</f>
-        <v>545.91955999999993</v>
+        <v>579.78323999999998</v>
       </c>
       <c r="N7" s="167">
         <f>(E7*(M7+H7))</f>
-        <v>184294.25919999997</v>
+        <v>195130.63679999998</v>
       </c>
       <c r="O7" s="178">
         <v>5.7</v>
       </c>
       <c r="P7" s="167">
         <f t="shared" si="1"/>
-        <v>3111.7414919999997</v>
+        <v>3304.7644679999999</v>
       </c>
       <c r="Q7" s="167">
         <f t="shared" si="2"/>
-        <v>995757.27743999986</v>
+        <v>1057524.6297599999</v>
       </c>
     </row>
     <row r="8" spans="2:20" x14ac:dyDescent="0.25">
@@ -2754,26 +2754,26 @@
       </c>
       <c r="L8" s="177">
         <f>L7</f>
-        <v>382.7</v>
+        <v>408.3</v>
       </c>
       <c r="M8" s="177">
         <f>(L8+H8)*1.3228</f>
-        <v>545.91955999999993</v>
+        <v>579.78323999999998</v>
       </c>
       <c r="N8" s="167">
         <f>(E8*(M8+H8))</f>
-        <v>184294.25919999997</v>
+        <v>195130.63679999998</v>
       </c>
       <c r="O8" s="178">
         <v>5.7</v>
       </c>
       <c r="P8" s="167">
         <f t="shared" si="1"/>
-        <v>3111.7414919999997</v>
+        <v>3304.7644679999999</v>
       </c>
       <c r="Q8" s="167">
         <f t="shared" si="2"/>
-        <v>995757.27743999986</v>
+        <v>1057524.6297599999</v>
       </c>
     </row>
     <row r="9" spans="2:20" x14ac:dyDescent="0.25">
@@ -2810,26 +2810,26 @@
       </c>
       <c r="L9" s="177">
         <f>futuros!B2</f>
-        <v>382.7</v>
+        <v>408.3</v>
       </c>
       <c r="M9" s="177">
         <f>(L9+H9)*1.3228</f>
-        <v>545.91955999999993</v>
+        <v>579.78323999999998</v>
       </c>
       <c r="N9" s="167">
         <f>(E9*(M9+H9))</f>
-        <v>184294.25919999997</v>
+        <v>195130.63679999998</v>
       </c>
       <c r="O9" s="178">
         <v>5.7</v>
       </c>
       <c r="P9" s="167">
         <f t="shared" si="1"/>
-        <v>3111.7414919999997</v>
+        <v>3304.7644679999999</v>
       </c>
       <c r="Q9" s="167">
         <f t="shared" si="2"/>
-        <v>995757.27743999986</v>
+        <v>1057524.6297599999</v>
       </c>
     </row>
     <row r="10" spans="2:20" x14ac:dyDescent="0.25">
@@ -2866,26 +2866,26 @@
       </c>
       <c r="L10" s="177">
         <f>futuros!B3</f>
-        <v>364.55</v>
+        <v>384.95</v>
       </c>
       <c r="M10" s="177">
         <f>(L10+H10)*1.3228</f>
-        <v>521.91074000000003</v>
+        <v>548.89585999999997</v>
       </c>
       <c r="N10" s="167">
         <f>(E10*(M10+H10))</f>
-        <v>176611.43680000002</v>
+        <v>185246.6752</v>
       </c>
       <c r="O10" s="178">
         <v>5.7</v>
       </c>
       <c r="P10" s="167">
         <f t="shared" si="1"/>
-        <v>2974.8912180000002</v>
+        <v>3128.7064019999998</v>
       </c>
       <c r="Q10" s="167">
         <f t="shared" si="2"/>
-        <v>951965.1897600001</v>
+        <v>1001186.0486399999</v>
       </c>
     </row>
     <row r="11" spans="2:20" x14ac:dyDescent="0.25">
@@ -2922,26 +2922,26 @@
       </c>
       <c r="L11" s="177">
         <f>futuros!B2</f>
-        <v>382.7</v>
+        <v>408.3</v>
       </c>
       <c r="M11" s="177">
         <f t="shared" ref="M11:M16" si="4">(L11+H11)*1.3228</f>
-        <v>543.27395999999999</v>
+        <v>577.13764000000003</v>
       </c>
       <c r="N11" s="167">
         <f t="shared" ref="N11:N16" si="5">(E11*(M11+H11))</f>
-        <v>182807.6672</v>
+        <v>193644.0448</v>
       </c>
       <c r="O11" s="178">
         <v>5.7</v>
       </c>
       <c r="P11" s="167">
         <f t="shared" si="1"/>
-        <v>3096.661572</v>
+        <v>3289.6845480000002</v>
       </c>
       <c r="Q11" s="167">
         <f t="shared" si="2"/>
-        <v>990931.70304000005</v>
+        <v>1052699.0553600001</v>
       </c>
     </row>
     <row r="12" spans="2:20" x14ac:dyDescent="0.25">
@@ -2978,26 +2978,26 @@
       </c>
       <c r="L12" s="177">
         <f>futuros!B2</f>
-        <v>382.7</v>
+        <v>408.3</v>
       </c>
       <c r="M12" s="177">
         <f t="shared" si="4"/>
-        <v>543.27395999999999</v>
+        <v>577.13764000000003</v>
       </c>
       <c r="N12" s="167">
         <f t="shared" si="5"/>
-        <v>182807.6672</v>
+        <v>193644.0448</v>
       </c>
       <c r="O12" s="178">
         <v>5.7</v>
       </c>
       <c r="P12" s="167">
         <f t="shared" si="1"/>
-        <v>3096.661572</v>
+        <v>3289.6845480000002</v>
       </c>
       <c r="Q12" s="167">
         <f t="shared" si="2"/>
-        <v>990931.70304000005</v>
+        <v>1052699.0553600001</v>
       </c>
     </row>
     <row r="13" spans="2:20" s="166" customFormat="1" x14ac:dyDescent="0.25">
@@ -3034,26 +3034,26 @@
       </c>
       <c r="L13" s="177">
         <f>futuros!B3</f>
-        <v>364.55</v>
+        <v>384.95</v>
       </c>
       <c r="M13" s="177">
         <f t="shared" si="4"/>
-        <v>519.26513999999997</v>
+        <v>546.25026000000003</v>
       </c>
       <c r="N13" s="167">
         <f t="shared" si="5"/>
-        <v>175124.84479999999</v>
+        <v>183760.08319999999</v>
       </c>
       <c r="O13" s="178">
         <v>5.7</v>
       </c>
       <c r="P13" s="167">
         <f t="shared" si="1"/>
-        <v>2959.8112980000001</v>
+        <v>3113.6264820000001</v>
       </c>
       <c r="Q13" s="167">
         <f t="shared" si="2"/>
-        <v>947139.61536000005</v>
+        <v>996360.47424000001</v>
       </c>
       <c r="R13" s="163"/>
       <c r="S13" s="163"/>
@@ -3093,26 +3093,26 @@
       </c>
       <c r="L14" s="177">
         <f>futuros!B4</f>
-        <v>351.3</v>
+        <v>369.05</v>
       </c>
       <c r="M14" s="177">
         <f t="shared" si="4"/>
-        <v>501.73804000000001</v>
+        <v>525.21774000000005</v>
       </c>
       <c r="N14" s="167">
         <f t="shared" si="5"/>
-        <v>169516.1728</v>
+        <v>177029.67680000002</v>
       </c>
       <c r="O14" s="178">
         <v>5.7</v>
       </c>
       <c r="P14" s="167">
         <f t="shared" si="1"/>
-        <v>2859.9068280000001</v>
+        <v>2993.7411180000004</v>
       </c>
       <c r="Q14" s="167">
         <f t="shared" si="2"/>
-        <v>915170.18495999998</v>
+        <v>957997.15776000009</v>
       </c>
       <c r="R14" s="163"/>
       <c r="S14" s="163"/>
@@ -3152,26 +3152,26 @@
       </c>
       <c r="L15" s="177">
         <f>futuros!B3</f>
-        <v>364.55</v>
+        <v>384.95</v>
       </c>
       <c r="M15" s="177">
         <f t="shared" si="4"/>
-        <v>453.12513999999999</v>
+        <v>480.11025999999998</v>
       </c>
       <c r="N15" s="167">
         <f t="shared" si="5"/>
-        <v>137960.0448</v>
+        <v>146595.28320000001</v>
       </c>
       <c r="O15" s="178">
         <v>5.7</v>
       </c>
       <c r="P15" s="167">
         <f t="shared" si="1"/>
-        <v>2582.813298</v>
+        <v>2736.6284820000001</v>
       </c>
       <c r="Q15" s="167">
         <f t="shared" si="2"/>
-        <v>826500.25536000007</v>
+        <v>875721.11424000002</v>
       </c>
       <c r="R15" s="163"/>
       <c r="S15" s="163"/>
@@ -3211,26 +3211,26 @@
       </c>
       <c r="L16" s="177">
         <f>futuros!B2</f>
-        <v>382.7</v>
+        <v>408.3</v>
       </c>
       <c r="M16" s="177">
         <f t="shared" si="4"/>
-        <v>576.34395999999992</v>
+        <v>610.20763999999997</v>
       </c>
       <c r="N16" s="167">
         <f t="shared" si="5"/>
-        <v>201390.06719999999</v>
+        <v>212226.4448</v>
       </c>
       <c r="O16" s="178">
         <v>5.7</v>
       </c>
       <c r="P16" s="167">
         <f t="shared" si="1"/>
-        <v>3285.1605719999998</v>
+        <v>3478.183548</v>
       </c>
       <c r="Q16" s="167">
         <f t="shared" si="2"/>
-        <v>1051251.38304</v>
+        <v>1113018.73536</v>
       </c>
       <c r="R16" s="163"/>
       <c r="S16" s="163"/>
@@ -3357,20 +3357,20 @@
       <c r="L19" s="179"/>
       <c r="M19" s="182">
         <f>N19/E19</f>
-        <v>544.90065571428579</v>
+        <v>569.29214285714284</v>
       </c>
       <c r="N19" s="183">
         <f>SUM(N5:N18)</f>
-        <v>2441154.9376000003</v>
+        <v>2550428.7999999998</v>
       </c>
       <c r="O19" s="184"/>
       <c r="P19" s="185">
         <f>Q19/E19</f>
-        <v>2986.6408804285716</v>
+        <v>3125.672357142857</v>
       </c>
       <c r="Q19" s="183">
         <f>SUM(Q5:Q18)</f>
-        <v>13380151.14432</v>
+        <v>14003012.16</v>
       </c>
     </row>
     <row r="20" spans="2:17" x14ac:dyDescent="0.25">
@@ -3493,7 +3493,7 @@
       </c>
       <c r="I25" s="177">
         <f>futuros!B2</f>
-        <v>382.7</v>
+        <v>408.3</v>
       </c>
       <c r="K25" s="163"/>
       <c r="L25" s="197">
@@ -3502,7 +3502,7 @@
       <c r="M25" s="163"/>
       <c r="N25" s="198">
         <f>(H25-I25)*1.3228*D25</f>
-        <v>-1352108.5057620001</v>
+        <v>-1522034.7588179999</v>
       </c>
       <c r="O25" s="178">
         <f>O5</f>
@@ -3510,7 +3510,7 @@
       </c>
       <c r="Q25" s="198">
         <f>N25*O25</f>
-        <v>-7707018.4828434009</v>
+        <v>-8675598.1252625994</v>
       </c>
     </row>
     <row r="26" spans="2:17" x14ac:dyDescent="0.25">
@@ -3535,7 +3535,7 @@
       </c>
       <c r="I26" s="177">
         <f>I25</f>
-        <v>382.7</v>
+        <v>408.3</v>
       </c>
       <c r="K26" s="163"/>
       <c r="L26" s="197">
@@ -3544,7 +3544,7 @@
       <c r="M26" s="163"/>
       <c r="N26" s="198">
         <f>(H26-I26)*1.3228*D26</f>
-        <v>-489843.02555999998</v>
+        <v>-557045.49852000002</v>
       </c>
       <c r="O26" s="178">
         <f>O6</f>
@@ -3552,7 +3552,7 @@
       </c>
       <c r="Q26" s="198">
         <f t="shared" ref="Q26:Q27" si="6">N26*O26</f>
-        <v>-2792105.2456919998</v>
+        <v>-3175159.3415640001</v>
       </c>
     </row>
     <row r="27" spans="2:17" x14ac:dyDescent="0.25">
@@ -3576,7 +3576,7 @@
       </c>
       <c r="I27" s="200">
         <f>I26</f>
-        <v>382.7</v>
+        <v>408.3</v>
       </c>
       <c r="K27" s="163"/>
       <c r="L27" s="197">
@@ -3585,7 +3585,7 @@
       <c r="M27" s="163"/>
       <c r="N27" s="198">
         <f>(H27-I27)*1.3228*D27</f>
-        <v>-638010.9779399999</v>
+        <v>-739774.7227080001</v>
       </c>
       <c r="O27" s="178">
         <f>O7</f>
@@ -3593,7 +3593,7 @@
       </c>
       <c r="Q27" s="198">
         <f t="shared" si="6"/>
-        <v>-3636662.5742579997</v>
+        <v>-4216715.9194356008</v>
       </c>
     </row>
     <row r="28" spans="2:17" x14ac:dyDescent="0.25">
@@ -3616,13 +3616,13 @@
       <c r="M28" s="202"/>
       <c r="N28" s="202">
         <f>SUM(N25:N27)</f>
-        <v>-2479962.5092620002</v>
+        <v>-2818854.9800460003</v>
       </c>
       <c r="O28" s="201"/>
       <c r="P28" s="201"/>
       <c r="Q28" s="202">
         <f>SUM(Q25:Q27)</f>
-        <v>-14135786.3027934</v>
+        <v>-16067473.386262201</v>
       </c>
     </row>
     <row r="29" spans="2:17" x14ac:dyDescent="0.25">
@@ -4306,7 +4306,7 @@
       </c>
       <c r="I57" s="177">
         <f>futuros!B7</f>
-        <v>320.35000000000002</v>
+        <v>330.15</v>
       </c>
       <c r="K57" s="178">
         <f>O8</f>
@@ -4318,7 +4318,7 @@
       <c r="M57" s="198"/>
       <c r="N57" s="198">
         <f>(H57-I57)*1.3228*D57</f>
-        <v>-65983.678110000037</v>
+        <v>-99059.895269999892</v>
       </c>
       <c r="O57" s="166">
         <f>O25</f>
@@ -4326,7 +4326,7 @@
       </c>
       <c r="Q57" s="198">
         <f>N57*O57</f>
-        <v>-376106.96522700024</v>
+        <v>-564641.40303899942</v>
       </c>
     </row>
     <row r="58" spans="2:17" x14ac:dyDescent="0.25">
@@ -4350,7 +4350,7 @@
       </c>
       <c r="I58" s="177">
         <f>I57</f>
-        <v>320.35000000000002</v>
+        <v>330.15</v>
       </c>
       <c r="K58" s="178">
         <f>O9</f>
@@ -4362,7 +4362,7 @@
       <c r="M58" s="198"/>
       <c r="N58" s="198">
         <f>(H58-I58)*1.3228*D58</f>
-        <v>6150.2263199998633</v>
+        <v>-23250.855599999999</v>
       </c>
       <c r="O58" s="166">
         <f>O26</f>
@@ -4370,7 +4370,7 @@
       </c>
       <c r="Q58" s="198">
         <f>N58*O58</f>
-        <v>35056.290023999223</v>
+        <v>-132529.87692000001</v>
       </c>
     </row>
     <row r="59" spans="2:17" x14ac:dyDescent="0.25">
@@ -4393,13 +4393,13 @@
       <c r="M59" s="201"/>
       <c r="N59" s="202">
         <f>SUM(N56:N58)</f>
-        <v>-59833.451790000174</v>
+        <v>-122310.75086999989</v>
       </c>
       <c r="O59" s="201"/>
       <c r="P59" s="201"/>
       <c r="Q59" s="202">
         <f>SUM(Q56:Q58)</f>
-        <v>-341050.67520300101</v>
+        <v>-697171.27995899948</v>
       </c>
     </row>
     <row r="64" spans="2:17" x14ac:dyDescent="0.25">
@@ -4539,7 +4539,7 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:T74"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A39" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="P32" sqref="P32"/>
     </sheetView>
@@ -8234,7 +8234,7 @@
         <v>270</v>
       </c>
       <c r="D1" s="162">
-        <v>45943</v>
+        <v>45950</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -8242,11 +8242,11 @@
         <v>46021</v>
       </c>
       <c r="B2" s="155">
-        <v>382.7</v>
+        <v>408.3</v>
       </c>
       <c r="C2" s="155">
         <f t="shared" ref="C2:C11" si="0">B2*1.3228</f>
-        <v>506.23555999999996</v>
+        <v>540.09924000000001</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -8254,11 +8254,11 @@
         <v>46112</v>
       </c>
       <c r="B3" s="155">
-        <v>364.55</v>
+        <v>384.95</v>
       </c>
       <c r="C3" s="155">
         <f t="shared" si="0"/>
-        <v>482.22674000000001</v>
+        <v>509.21186</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
@@ -8266,11 +8266,11 @@
         <v>46173</v>
       </c>
       <c r="B4" s="155">
-        <v>351.3</v>
+        <v>369.05</v>
       </c>
       <c r="C4" s="155">
         <f t="shared" si="0"/>
-        <v>464.69963999999999</v>
+        <v>488.17934000000002</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
@@ -8278,11 +8278,11 @@
         <v>46231</v>
       </c>
       <c r="B5" s="155">
-        <v>340</v>
+        <v>354.05</v>
       </c>
       <c r="C5" s="155">
         <f t="shared" si="0"/>
-        <v>449.75200000000001</v>
+        <v>468.33733999999998</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
@@ -8290,11 +8290,11 @@
         <v>46295</v>
       </c>
       <c r="B6" s="155">
-        <v>328.6</v>
+        <v>340.05</v>
       </c>
       <c r="C6" s="155">
         <f t="shared" si="0"/>
-        <v>434.67207999999999</v>
+        <v>449.81814000000003</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
@@ -8302,11 +8302,11 @@
         <v>46386</v>
       </c>
       <c r="B7" s="155">
-        <v>320.35000000000002</v>
+        <v>330.15</v>
       </c>
       <c r="C7" s="155">
         <f t="shared" si="0"/>
-        <v>423.75898000000001</v>
+        <v>436.72241999999994</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
@@ -8314,11 +8314,11 @@
         <v>46477</v>
       </c>
       <c r="B8" s="155">
-        <v>309.5</v>
+        <v>321.39999999999998</v>
       </c>
       <c r="C8" s="155">
         <f t="shared" si="0"/>
-        <v>409.40659999999997</v>
+        <v>425.14791999999994</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
@@ -8326,11 +8326,11 @@
         <v>46538</v>
       </c>
       <c r="B9" s="155">
-        <v>302.3</v>
+        <v>310.39999999999998</v>
       </c>
       <c r="C9" s="155">
         <f t="shared" si="0"/>
-        <v>399.88244000000003</v>
+        <v>410.59711999999996</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
@@ -8338,11 +8338,11 @@
         <v>46596</v>
       </c>
       <c r="B10" s="155">
-        <v>297.2</v>
+        <v>304.64999999999998</v>
       </c>
       <c r="C10" s="155">
         <f t="shared" si="0"/>
-        <v>393.13615999999996</v>
+        <v>402.99101999999993</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
@@ -8350,11 +8350,11 @@
         <v>46660</v>
       </c>
       <c r="B11" s="155">
-        <v>291.5</v>
+        <v>298.5</v>
       </c>
       <c r="C11" s="155">
         <f t="shared" si="0"/>
-        <v>385.59620000000001</v>
+        <v>394.85579999999999</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
@@ -8362,11 +8362,11 @@
         <v>46751</v>
       </c>
       <c r="B12" s="155">
-        <v>285.5</v>
+        <v>292.39999999999998</v>
       </c>
       <c r="C12" s="155">
         <f>B12*1.3228</f>
-        <v>377.65940000000001</v>
+        <v>386.78671999999995</v>
       </c>
     </row>
   </sheetData>
@@ -8379,9 +8379,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{435A83C4-FEBA-7F44-BF8C-E9ADE9845E60}">
   <dimension ref="A1:N28"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A15" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L16" sqref="L16:L28"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="L16" sqref="L16:L19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -9109,7 +9109,7 @@
       </c>
       <c r="H16" s="155">
         <f>futuros!B2</f>
-        <v>382.7</v>
+        <v>408.3</v>
       </c>
       <c r="I16" s="2"/>
       <c r="J16" s="162">
@@ -9118,7 +9118,7 @@
       <c r="K16" s="162"/>
       <c r="L16" s="215">
         <f t="shared" si="2"/>
-        <v>-1352108.5057619999</v>
+        <v>-1522034.7588180001</v>
       </c>
       <c r="M16" s="160"/>
       <c r="N16" s="215"/>
@@ -9147,7 +9147,7 @@
       </c>
       <c r="H17" s="155">
         <f>futuros!B2</f>
-        <v>382.7</v>
+        <v>408.3</v>
       </c>
       <c r="I17" s="2"/>
       <c r="J17" s="162">
@@ -9156,7 +9156,7 @@
       <c r="K17" s="162"/>
       <c r="L17" s="215">
         <f t="shared" si="2"/>
-        <v>-489843.02555999998</v>
+        <v>-557045.49852000002</v>
       </c>
       <c r="M17" s="160"/>
       <c r="N17" s="215"/>
@@ -9187,7 +9187,7 @@
       </c>
       <c r="H18" s="155">
         <f>futuros!B2</f>
-        <v>382.7</v>
+        <v>408.3</v>
       </c>
       <c r="I18" s="2"/>
       <c r="J18" s="162">
@@ -9196,7 +9196,7 @@
       <c r="K18" s="162"/>
       <c r="L18" s="215">
         <f t="shared" si="2"/>
-        <v>-138342.59081999998</v>
+        <v>-205545.06378000005</v>
       </c>
       <c r="M18" s="160"/>
       <c r="N18" s="215"/>
@@ -9225,7 +9225,7 @@
       </c>
       <c r="H19" s="217">
         <f>futuros!B2</f>
-        <v>382.7</v>
+        <v>408.3</v>
       </c>
       <c r="I19" s="208"/>
       <c r="J19" s="219">
@@ -9234,7 +9234,7 @@
       <c r="K19" s="219"/>
       <c r="L19" s="220">
         <f t="shared" si="2"/>
-        <v>-337062.40343999997</v>
+        <v>-390824.38180800003</v>
       </c>
       <c r="M19" s="218"/>
       <c r="N19" s="220"/>
@@ -9265,7 +9265,7 @@
       </c>
       <c r="H20" s="155">
         <f>futuros!B3</f>
-        <v>364.55</v>
+        <v>384.95</v>
       </c>
       <c r="I20" s="2"/>
       <c r="J20" s="162">
@@ -9274,7 +9274,7 @@
       <c r="K20" s="162"/>
       <c r="L20" s="215">
         <f t="shared" si="2"/>
-        <v>-103822.57053000003</v>
+        <v>-157374.54116999998</v>
       </c>
       <c r="M20" s="160"/>
       <c r="N20" s="215"/>
@@ -9303,7 +9303,7 @@
       </c>
       <c r="H21" s="155">
         <f>futuros!B7</f>
-        <v>320.35000000000002</v>
+        <v>330.15</v>
       </c>
       <c r="I21" s="2"/>
       <c r="J21" s="162">
@@ -9312,7 +9312,7 @@
       <c r="K21" s="162"/>
       <c r="L21" s="215">
         <f t="shared" si="2"/>
-        <v>-65983.678110000037</v>
+        <v>-99059.895269999877</v>
       </c>
       <c r="M21" s="160"/>
       <c r="N21" s="215"/>
@@ -9340,7 +9340,7 @@
       </c>
       <c r="H22" s="155">
         <f>futuros!B7</f>
-        <v>320.35000000000002</v>
+        <v>330.15</v>
       </c>
       <c r="I22" s="2"/>
       <c r="J22" s="162">
@@ -9349,7 +9349,7 @@
       <c r="K22" s="162"/>
       <c r="L22" s="215">
         <f t="shared" si="2"/>
-        <v>6150.2263199998633</v>
+        <v>-23250.855599999999</v>
       </c>
       <c r="M22" s="160"/>
       <c r="N22" s="215"/>
@@ -9377,7 +9377,7 @@
       </c>
       <c r="H23" s="155">
         <f>futuros!B7</f>
-        <v>320.35000000000002</v>
+        <v>330.15</v>
       </c>
       <c r="I23" s="2"/>
       <c r="J23" s="162">
@@ -9386,7 +9386,7 @@
       <c r="K23" s="162"/>
       <c r="L23" s="215">
         <f t="shared" si="2"/>
-        <v>-39451.451760000098</v>
+        <v>-68852.533679999964</v>
       </c>
       <c r="M23" s="160"/>
       <c r="N23" s="215"/>
@@ -9415,7 +9415,7 @@
       </c>
       <c r="H24" s="217">
         <f>futuros!B7</f>
-        <v>320.35000000000002</v>
+        <v>330.15</v>
       </c>
       <c r="I24" s="208"/>
       <c r="J24" s="219">
@@ -9424,7 +9424,7 @@
       <c r="K24" s="219"/>
       <c r="L24" s="220">
         <f t="shared" si="2"/>
-        <v>-339687.50004000025</v>
+        <v>-442591.28675999976</v>
       </c>
       <c r="M24" s="218"/>
       <c r="N24" s="220"/>
@@ -9453,7 +9453,7 @@
       </c>
       <c r="H25" s="155">
         <f>futuros!B12</f>
-        <v>285.5</v>
+        <v>292.39999999999998</v>
       </c>
       <c r="I25" s="2"/>
       <c r="J25" s="162">
@@ -9462,7 +9462,7 @@
       <c r="K25" s="162"/>
       <c r="L25" s="215">
         <f t="shared" si="2"/>
-        <v>-150568.04069999998</v>
+        <v>-179031.58811999991</v>
       </c>
       <c r="M25" s="160"/>
       <c r="N25" s="215"/>
@@ -9488,7 +9488,7 @@
       </c>
       <c r="H26" s="155">
         <f>futuros!B12</f>
-        <v>285.5</v>
+        <v>292.39999999999998</v>
       </c>
       <c r="I26" s="2"/>
       <c r="J26" s="162">
@@ -9497,7 +9497,7 @@
       <c r="K26" s="162"/>
       <c r="L26" s="215">
         <f t="shared" ref="L26" si="8">D26*(G26-H26)*1.3228</f>
-        <v>-151505.57519999999</v>
+        <v>-172206.33695999993</v>
       </c>
       <c r="M26" s="160"/>
       <c r="N26" s="215"/>
@@ -9523,7 +9523,7 @@
       </c>
       <c r="H27" s="155">
         <f>futuros!B12</f>
-        <v>285.5</v>
+        <v>292.39999999999998</v>
       </c>
       <c r="I27" s="2"/>
       <c r="J27" s="162">
@@ -9532,7 +9532,7 @@
       <c r="K27" s="162"/>
       <c r="L27" s="215">
         <f t="shared" ref="L27" si="10">D27*(G27-H27)*1.3228</f>
-        <v>-64689.880499999999</v>
+        <v>-77627.856599999956</v>
       </c>
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.2">
@@ -9556,7 +9556,7 @@
       </c>
       <c r="H28" s="155">
         <f>futuros!B12</f>
-        <v>285.5</v>
+        <v>292.39999999999998</v>
       </c>
       <c r="I28" s="2"/>
       <c r="J28" s="162">
@@ -9565,7 +9565,7 @@
       <c r="K28" s="162"/>
       <c r="L28" s="215">
         <f t="shared" ref="L28" si="12">D28*(G28-H28)*1.3228</f>
-        <v>-42189.052499999998</v>
+        <v>-55127.028599999961</v>
       </c>
     </row>
   </sheetData>

--- a/vendas_cafe_em_reais.xlsx
+++ b/vendas_cafe_em_reais.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rotocastro/PycharmProjects/Vendas Cafe/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC8E01DC-3A49-3341-B94A-7199CBC8B54C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51B0A892-64A4-9848-B8B5-ACF6FA955D57}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4420" yWindow="680" windowWidth="24980" windowHeight="18440" activeTab="3" xr2:uid="{AC82ADC5-E628-F847-8939-89BAF5623AE6}"/>
+    <workbookView xWindow="4640" yWindow="680" windowWidth="24760" windowHeight="18440" activeTab="1" xr2:uid="{AC82ADC5-E628-F847-8939-89BAF5623AE6}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2 (2)" sheetId="16" state="hidden" r:id="rId1"/>
@@ -1154,7 +1154,7 @@
     <numFmt numFmtId="167" formatCode="_-[$$-409]* #,##0.00_ ;_-[$$-409]* \-#,##0.00\ ;_-[$$-409]* &quot;-&quot;??_ ;_-@_ "/>
     <numFmt numFmtId="168" formatCode="#,##0_ ;[Red]\-#,##0\ "/>
   </numFmts>
-  <fonts count="21" x14ac:knownFonts="1">
+  <fonts count="22" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1290,6 +1290,13 @@
     <font>
       <sz val="10"/>
       <name val="Aptos Narrow"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -1519,11 +1526,12 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="9" fontId="21" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="226">
+  <cellXfs count="234">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -2055,6 +2063,28 @@
     <xf numFmtId="168" fontId="20" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="20" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="2" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2069,9 +2099,10 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="1" xr:uid="{FBDE122D-F9BE-AE4A-91C0-5CA92DAE08C8}"/>
+    <cellStyle name="Percent" xfId="2" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -2642,26 +2673,26 @@
       </c>
       <c r="L6" s="177">
         <f>futuros!B2</f>
-        <v>408.3</v>
+        <v>400.05</v>
       </c>
       <c r="M6" s="177">
         <f>(L6+H6)*1.3228</f>
-        <v>579.78323999999998</v>
+        <v>568.87013999999999</v>
       </c>
       <c r="N6" s="167">
         <f>(E6*(M6+H6))</f>
-        <v>195130.63679999998</v>
+        <v>191638.4448</v>
       </c>
       <c r="O6" s="178">
         <v>5.7</v>
       </c>
       <c r="P6" s="167">
         <f t="shared" ref="P6:P16" si="1">M6*O6</f>
-        <v>3304.7644679999999</v>
+        <v>3242.5597980000002</v>
       </c>
       <c r="Q6" s="167">
         <f t="shared" ref="Q6:Q16" si="2">P6*E6</f>
-        <v>1057524.6297599999</v>
+        <v>1037619.1353600001</v>
       </c>
     </row>
     <row r="7" spans="2:20" x14ac:dyDescent="0.25">
@@ -2698,26 +2729,26 @@
       </c>
       <c r="L7" s="177">
         <f>L6</f>
-        <v>408.3</v>
+        <v>400.05</v>
       </c>
       <c r="M7" s="177">
         <f>(L7+H7)*1.3228</f>
-        <v>579.78323999999998</v>
+        <v>568.87013999999999</v>
       </c>
       <c r="N7" s="167">
         <f>(E7*(M7+H7))</f>
-        <v>195130.63679999998</v>
+        <v>191638.4448</v>
       </c>
       <c r="O7" s="178">
         <v>5.7</v>
       </c>
       <c r="P7" s="167">
         <f t="shared" si="1"/>
-        <v>3304.7644679999999</v>
+        <v>3242.5597980000002</v>
       </c>
       <c r="Q7" s="167">
         <f t="shared" si="2"/>
-        <v>1057524.6297599999</v>
+        <v>1037619.1353600001</v>
       </c>
     </row>
     <row r="8" spans="2:20" x14ac:dyDescent="0.25">
@@ -2754,26 +2785,26 @@
       </c>
       <c r="L8" s="177">
         <f>L7</f>
-        <v>408.3</v>
+        <v>400.05</v>
       </c>
       <c r="M8" s="177">
         <f>(L8+H8)*1.3228</f>
-        <v>579.78323999999998</v>
+        <v>568.87013999999999</v>
       </c>
       <c r="N8" s="167">
         <f>(E8*(M8+H8))</f>
-        <v>195130.63679999998</v>
+        <v>191638.4448</v>
       </c>
       <c r="O8" s="178">
         <v>5.7</v>
       </c>
       <c r="P8" s="167">
         <f t="shared" si="1"/>
-        <v>3304.7644679999999</v>
+        <v>3242.5597980000002</v>
       </c>
       <c r="Q8" s="167">
         <f t="shared" si="2"/>
-        <v>1057524.6297599999</v>
+        <v>1037619.1353600001</v>
       </c>
     </row>
     <row r="9" spans="2:20" x14ac:dyDescent="0.25">
@@ -2810,26 +2841,26 @@
       </c>
       <c r="L9" s="177">
         <f>futuros!B2</f>
-        <v>408.3</v>
+        <v>400.05</v>
       </c>
       <c r="M9" s="177">
         <f>(L9+H9)*1.3228</f>
-        <v>579.78323999999998</v>
+        <v>568.87013999999999</v>
       </c>
       <c r="N9" s="167">
         <f>(E9*(M9+H9))</f>
-        <v>195130.63679999998</v>
+        <v>191638.4448</v>
       </c>
       <c r="O9" s="178">
         <v>5.7</v>
       </c>
       <c r="P9" s="167">
         <f t="shared" si="1"/>
-        <v>3304.7644679999999</v>
+        <v>3242.5597980000002</v>
       </c>
       <c r="Q9" s="167">
         <f t="shared" si="2"/>
-        <v>1057524.6297599999</v>
+        <v>1037619.1353600001</v>
       </c>
     </row>
     <row r="10" spans="2:20" x14ac:dyDescent="0.25">
@@ -2866,26 +2897,26 @@
       </c>
       <c r="L10" s="177">
         <f>futuros!B3</f>
-        <v>384.95</v>
+        <v>378.75</v>
       </c>
       <c r="M10" s="177">
         <f>(L10+H10)*1.3228</f>
-        <v>548.89585999999997</v>
+        <v>540.69449999999995</v>
       </c>
       <c r="N10" s="167">
         <f>(E10*(M10+H10))</f>
-        <v>185246.6752</v>
+        <v>182622.24</v>
       </c>
       <c r="O10" s="178">
         <v>5.7</v>
       </c>
       <c r="P10" s="167">
         <f t="shared" si="1"/>
-        <v>3128.7064019999998</v>
+        <v>3081.9586499999996</v>
       </c>
       <c r="Q10" s="167">
         <f t="shared" si="2"/>
-        <v>1001186.0486399999</v>
+        <v>986226.76799999992</v>
       </c>
     </row>
     <row r="11" spans="2:20" x14ac:dyDescent="0.25">
@@ -2922,26 +2953,26 @@
       </c>
       <c r="L11" s="177">
         <f>futuros!B2</f>
-        <v>408.3</v>
+        <v>400.05</v>
       </c>
       <c r="M11" s="177">
         <f t="shared" ref="M11:M16" si="4">(L11+H11)*1.3228</f>
-        <v>577.13764000000003</v>
+        <v>566.22454000000005</v>
       </c>
       <c r="N11" s="167">
         <f t="shared" ref="N11:N16" si="5">(E11*(M11+H11))</f>
-        <v>193644.0448</v>
+        <v>190151.85280000002</v>
       </c>
       <c r="O11" s="178">
         <v>5.7</v>
       </c>
       <c r="P11" s="167">
         <f t="shared" si="1"/>
-        <v>3289.6845480000002</v>
+        <v>3227.4798780000006</v>
       </c>
       <c r="Q11" s="167">
         <f t="shared" si="2"/>
-        <v>1052699.0553600001</v>
+        <v>1032793.5609600001</v>
       </c>
     </row>
     <row r="12" spans="2:20" x14ac:dyDescent="0.25">
@@ -2978,26 +3009,26 @@
       </c>
       <c r="L12" s="177">
         <f>futuros!B2</f>
-        <v>408.3</v>
+        <v>400.05</v>
       </c>
       <c r="M12" s="177">
         <f t="shared" si="4"/>
-        <v>577.13764000000003</v>
+        <v>566.22454000000005</v>
       </c>
       <c r="N12" s="167">
         <f t="shared" si="5"/>
-        <v>193644.0448</v>
+        <v>190151.85280000002</v>
       </c>
       <c r="O12" s="178">
         <v>5.7</v>
       </c>
       <c r="P12" s="167">
         <f t="shared" si="1"/>
-        <v>3289.6845480000002</v>
+        <v>3227.4798780000006</v>
       </c>
       <c r="Q12" s="167">
         <f t="shared" si="2"/>
-        <v>1052699.0553600001</v>
+        <v>1032793.5609600001</v>
       </c>
     </row>
     <row r="13" spans="2:20" s="166" customFormat="1" x14ac:dyDescent="0.25">
@@ -3034,26 +3065,26 @@
       </c>
       <c r="L13" s="177">
         <f>futuros!B3</f>
-        <v>384.95</v>
+        <v>378.75</v>
       </c>
       <c r="M13" s="177">
         <f t="shared" si="4"/>
-        <v>546.25026000000003</v>
+        <v>538.0489</v>
       </c>
       <c r="N13" s="167">
         <f t="shared" si="5"/>
-        <v>183760.08319999999</v>
+        <v>181135.64799999999</v>
       </c>
       <c r="O13" s="178">
         <v>5.7</v>
       </c>
       <c r="P13" s="167">
         <f t="shared" si="1"/>
-        <v>3113.6264820000001</v>
+        <v>3066.8787299999999</v>
       </c>
       <c r="Q13" s="167">
         <f t="shared" si="2"/>
-        <v>996360.47424000001</v>
+        <v>981401.1936</v>
       </c>
       <c r="R13" s="163"/>
       <c r="S13" s="163"/>
@@ -3093,26 +3124,26 @@
       </c>
       <c r="L14" s="177">
         <f>futuros!B4</f>
-        <v>369.05</v>
+        <v>363.15</v>
       </c>
       <c r="M14" s="177">
         <f t="shared" si="4"/>
-        <v>525.21774000000005</v>
+        <v>517.41321999999991</v>
       </c>
       <c r="N14" s="167">
         <f t="shared" si="5"/>
-        <v>177029.67680000002</v>
+        <v>174532.23039999997</v>
       </c>
       <c r="O14" s="178">
         <v>5.7</v>
       </c>
       <c r="P14" s="167">
         <f t="shared" si="1"/>
-        <v>2993.7411180000004</v>
+        <v>2949.2553539999994</v>
       </c>
       <c r="Q14" s="167">
         <f t="shared" si="2"/>
-        <v>957997.15776000009</v>
+        <v>943761.71327999979</v>
       </c>
       <c r="R14" s="163"/>
       <c r="S14" s="163"/>
@@ -3152,26 +3183,26 @@
       </c>
       <c r="L15" s="177">
         <f>futuros!B3</f>
-        <v>384.95</v>
+        <v>378.75</v>
       </c>
       <c r="M15" s="177">
         <f t="shared" si="4"/>
-        <v>480.11025999999998</v>
+        <v>471.90890000000002</v>
       </c>
       <c r="N15" s="167">
         <f t="shared" si="5"/>
-        <v>146595.28320000001</v>
+        <v>143970.848</v>
       </c>
       <c r="O15" s="178">
         <v>5.7</v>
       </c>
       <c r="P15" s="167">
         <f t="shared" si="1"/>
-        <v>2736.6284820000001</v>
+        <v>2689.8807300000003</v>
       </c>
       <c r="Q15" s="167">
         <f t="shared" si="2"/>
-        <v>875721.11424000002</v>
+        <v>860761.83360000013</v>
       </c>
       <c r="R15" s="163"/>
       <c r="S15" s="163"/>
@@ -3211,26 +3242,26 @@
       </c>
       <c r="L16" s="177">
         <f>futuros!B2</f>
-        <v>408.3</v>
+        <v>400.05</v>
       </c>
       <c r="M16" s="177">
         <f t="shared" si="4"/>
-        <v>610.20763999999997</v>
+        <v>599.29453999999998</v>
       </c>
       <c r="N16" s="167">
         <f t="shared" si="5"/>
-        <v>212226.4448</v>
+        <v>208734.25279999999</v>
       </c>
       <c r="O16" s="178">
         <v>5.7</v>
       </c>
       <c r="P16" s="167">
         <f t="shared" si="1"/>
-        <v>3478.183548</v>
+        <v>3415.9788779999999</v>
       </c>
       <c r="Q16" s="167">
         <f t="shared" si="2"/>
-        <v>1113018.73536</v>
+        <v>1093113.2409600001</v>
       </c>
       <c r="R16" s="163"/>
       <c r="S16" s="163"/>
@@ -3357,20 +3388,20 @@
       <c r="L19" s="179"/>
       <c r="M19" s="182">
         <f>N19/E19</f>
-        <v>569.29214285714284</v>
+        <v>561.52069285714288</v>
       </c>
       <c r="N19" s="183">
         <f>SUM(N5:N18)</f>
-        <v>2550428.7999999998</v>
+        <v>2515612.7039999999</v>
       </c>
       <c r="O19" s="184"/>
       <c r="P19" s="185">
         <f>Q19/E19</f>
-        <v>3125.672357142857</v>
+        <v>3081.3750921428573</v>
       </c>
       <c r="Q19" s="183">
         <f>SUM(Q5:Q18)</f>
-        <v>14003012.16</v>
+        <v>13804560.412800001</v>
       </c>
     </row>
     <row r="20" spans="2:17" x14ac:dyDescent="0.25">
@@ -3493,7 +3524,7 @@
       </c>
       <c r="I25" s="177">
         <f>futuros!B2</f>
-        <v>408.3</v>
+        <v>400.05</v>
       </c>
       <c r="K25" s="163"/>
       <c r="L25" s="197">
@@ -3502,7 +3533,7 @@
       <c r="M25" s="163"/>
       <c r="N25" s="198">
         <f>(H25-I25)*1.3228*D25</f>
-        <v>-1522034.7588179999</v>
+        <v>-1467273.368673</v>
       </c>
       <c r="O25" s="178">
         <f>O5</f>
@@ -3510,7 +3541,7 @@
       </c>
       <c r="Q25" s="198">
         <f>N25*O25</f>
-        <v>-8675598.1252625994</v>
+        <v>-8363458.2014361005</v>
       </c>
     </row>
     <row r="26" spans="2:17" x14ac:dyDescent="0.25">
@@ -3535,7 +3566,7 @@
       </c>
       <c r="I26" s="177">
         <f>I25</f>
-        <v>408.3</v>
+        <v>400.05</v>
       </c>
       <c r="K26" s="163"/>
       <c r="L26" s="197">
@@ -3544,7 +3575,7 @@
       <c r="M26" s="163"/>
       <c r="N26" s="198">
         <f>(H26-I26)*1.3228*D26</f>
-        <v>-557045.49852000002</v>
+        <v>-535388.45157000003</v>
       </c>
       <c r="O26" s="178">
         <f>O6</f>
@@ -3552,7 +3583,7 @@
       </c>
       <c r="Q26" s="198">
         <f t="shared" ref="Q26:Q27" si="6">N26*O26</f>
-        <v>-3175159.3415640001</v>
+        <v>-3051714.1739490004</v>
       </c>
     </row>
     <row r="27" spans="2:17" x14ac:dyDescent="0.25">
@@ -3576,7 +3607,7 @@
       </c>
       <c r="I27" s="200">
         <f>I26</f>
-        <v>408.3</v>
+        <v>400.05</v>
       </c>
       <c r="K27" s="163"/>
       <c r="L27" s="197">
@@ -3585,7 +3616,7 @@
       <c r="M27" s="163"/>
       <c r="N27" s="198">
         <f>(H27-I27)*1.3228*D27</f>
-        <v>-739774.7227080001</v>
+        <v>-706979.76589799998</v>
       </c>
       <c r="O27" s="178">
         <f>O7</f>
@@ -3593,7 +3624,7 @@
       </c>
       <c r="Q27" s="198">
         <f t="shared" si="6"/>
-        <v>-4216715.9194356008</v>
+        <v>-4029784.6656185999</v>
       </c>
     </row>
     <row r="28" spans="2:17" x14ac:dyDescent="0.25">
@@ -3616,13 +3647,13 @@
       <c r="M28" s="202"/>
       <c r="N28" s="202">
         <f>SUM(N25:N27)</f>
-        <v>-2818854.9800460003</v>
+        <v>-2709641.586141</v>
       </c>
       <c r="O28" s="201"/>
       <c r="P28" s="201"/>
       <c r="Q28" s="202">
         <f>SUM(Q25:Q27)</f>
-        <v>-16067473.386262201</v>
+        <v>-15444957.041003702</v>
       </c>
     </row>
     <row r="29" spans="2:17" x14ac:dyDescent="0.25">
@@ -4306,7 +4337,7 @@
       </c>
       <c r="I57" s="177">
         <f>futuros!B7</f>
-        <v>330.15</v>
+        <v>322.5</v>
       </c>
       <c r="K57" s="178">
         <f>O8</f>
@@ -4318,7 +4349,7 @@
       <c r="M57" s="198"/>
       <c r="N57" s="198">
         <f>(H57-I57)*1.3228*D57</f>
-        <v>-99059.895269999892</v>
+        <v>-73240.195139999967</v>
       </c>
       <c r="O57" s="166">
         <f>O25</f>
@@ -4326,7 +4357,7 @@
       </c>
       <c r="Q57" s="198">
         <f>N57*O57</f>
-        <v>-564641.40303899942</v>
+        <v>-417469.11229799985</v>
       </c>
     </row>
     <row r="58" spans="2:17" x14ac:dyDescent="0.25">
@@ -4350,7 +4381,7 @@
       </c>
       <c r="I58" s="177">
         <f>I57</f>
-        <v>330.15</v>
+        <v>322.5</v>
       </c>
       <c r="K58" s="178">
         <f>O9</f>
@@ -4362,7 +4393,7 @@
       <c r="M58" s="198"/>
       <c r="N58" s="198">
         <f>(H58-I58)*1.3228*D58</f>
-        <v>-23250.855599999999</v>
+        <v>-300.01104000006819</v>
       </c>
       <c r="O58" s="166">
         <f>O26</f>
@@ -4370,7 +4401,7 @@
       </c>
       <c r="Q58" s="198">
         <f>N58*O58</f>
-        <v>-132529.87692000001</v>
+        <v>-1710.0629280003886</v>
       </c>
     </row>
     <row r="59" spans="2:17" x14ac:dyDescent="0.25">
@@ -4393,13 +4424,13 @@
       <c r="M59" s="201"/>
       <c r="N59" s="202">
         <f>SUM(N56:N58)</f>
-        <v>-122310.75086999989</v>
+        <v>-73540.206180000037</v>
       </c>
       <c r="O59" s="201"/>
       <c r="P59" s="201"/>
       <c r="Q59" s="202">
         <f>SUM(Q56:Q58)</f>
-        <v>-697171.27995899948</v>
+        <v>-419179.17522600025</v>
       </c>
     </row>
     <row r="64" spans="2:17" x14ac:dyDescent="0.25">
@@ -4539,9 +4570,9 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:T74"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A39" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="P32" sqref="P32"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A35" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G54" sqref="G54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0.2"/>
@@ -7226,7 +7257,7 @@
         <v>19</v>
       </c>
       <c r="E53" s="2">
-        <v>320</v>
+        <v>240</v>
       </c>
       <c r="F53" s="2" t="s">
         <v>27</v>
@@ -7251,7 +7282,7 @@
       </c>
       <c r="N53" s="3">
         <f t="shared" si="4"/>
-        <v>156160</v>
+        <v>117120</v>
       </c>
     </row>
     <row r="54" spans="1:17" x14ac:dyDescent="0.2">
@@ -7268,13 +7299,13 @@
         <v>19</v>
       </c>
       <c r="E54" s="2">
-        <v>320</v>
+        <v>80</v>
       </c>
       <c r="F54" s="2" t="s">
         <v>27</v>
       </c>
       <c r="G54" s="2" t="s">
-        <v>289</v>
+        <v>35</v>
       </c>
       <c r="H54" s="2">
         <v>0</v>
@@ -7293,7 +7324,7 @@
       </c>
       <c r="N54" s="3">
         <f t="shared" si="4"/>
-        <v>160000</v>
+        <v>40000</v>
       </c>
     </row>
     <row r="55" spans="1:17" x14ac:dyDescent="0.2">
@@ -8234,7 +8265,7 @@
         <v>270</v>
       </c>
       <c r="D1" s="162">
-        <v>45950</v>
+        <v>45964</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -8242,11 +8273,11 @@
         <v>46021</v>
       </c>
       <c r="B2" s="155">
-        <v>408.3</v>
+        <v>400.05</v>
       </c>
       <c r="C2" s="155">
         <f t="shared" ref="C2:C11" si="0">B2*1.3228</f>
-        <v>540.09924000000001</v>
+        <v>529.18614000000002</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -8254,11 +8285,11 @@
         <v>46112</v>
       </c>
       <c r="B3" s="155">
-        <v>384.95</v>
+        <v>378.75</v>
       </c>
       <c r="C3" s="155">
         <f t="shared" si="0"/>
-        <v>509.21186</v>
+        <v>501.01049999999998</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
@@ -8266,11 +8297,11 @@
         <v>46173</v>
       </c>
       <c r="B4" s="155">
-        <v>369.05</v>
+        <v>363.15</v>
       </c>
       <c r="C4" s="155">
         <f t="shared" si="0"/>
-        <v>488.17934000000002</v>
+        <v>480.37481999999994</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
@@ -8278,11 +8309,11 @@
         <v>46231</v>
       </c>
       <c r="B5" s="155">
-        <v>354.05</v>
+        <v>348.25</v>
       </c>
       <c r="C5" s="155">
         <f t="shared" si="0"/>
-        <v>468.33733999999998</v>
+        <v>460.6651</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
@@ -8290,11 +8321,11 @@
         <v>46295</v>
       </c>
       <c r="B6" s="155">
-        <v>340.05</v>
+        <v>334</v>
       </c>
       <c r="C6" s="155">
         <f t="shared" si="0"/>
-        <v>449.81814000000003</v>
+        <v>441.8152</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
@@ -8302,11 +8333,11 @@
         <v>46386</v>
       </c>
       <c r="B7" s="155">
-        <v>330.15</v>
+        <v>322.5</v>
       </c>
       <c r="C7" s="155">
         <f t="shared" si="0"/>
-        <v>436.72241999999994</v>
+        <v>426.60300000000001</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
@@ -8314,11 +8345,11 @@
         <v>46477</v>
       </c>
       <c r="B8" s="155">
-        <v>321.39999999999998</v>
+        <v>311.8</v>
       </c>
       <c r="C8" s="155">
         <f t="shared" si="0"/>
-        <v>425.14791999999994</v>
+        <v>412.44904000000002</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
@@ -8326,11 +8357,11 @@
         <v>46538</v>
       </c>
       <c r="B9" s="155">
-        <v>310.39999999999998</v>
+        <v>306.5</v>
       </c>
       <c r="C9" s="155">
         <f t="shared" si="0"/>
-        <v>410.59711999999996</v>
+        <v>405.43819999999999</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
@@ -8338,11 +8369,11 @@
         <v>46596</v>
       </c>
       <c r="B10" s="155">
-        <v>304.64999999999998</v>
+        <v>301.35000000000002</v>
       </c>
       <c r="C10" s="155">
         <f t="shared" si="0"/>
-        <v>402.99101999999993</v>
+        <v>398.62578000000002</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
@@ -8350,11 +8381,11 @@
         <v>46660</v>
       </c>
       <c r="B11" s="155">
-        <v>298.5</v>
+        <v>295.95</v>
       </c>
       <c r="C11" s="155">
         <f t="shared" si="0"/>
-        <v>394.85579999999999</v>
+        <v>391.48265999999995</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
@@ -8362,11 +8393,11 @@
         <v>46751</v>
       </c>
       <c r="B12" s="155">
-        <v>292.39999999999998</v>
+        <v>290.35000000000002</v>
       </c>
       <c r="C12" s="155">
         <f>B12*1.3228</f>
-        <v>386.78671999999995</v>
+        <v>384.07498000000004</v>
       </c>
     </row>
   </sheetData>
@@ -8379,9 +8410,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{435A83C4-FEBA-7F44-BF8C-E9ADE9845E60}">
   <dimension ref="A1:N28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L16" sqref="L16:L19"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="L18" sqref="L18:L28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -9041,48 +9072,48 @@
       </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A15" s="209" t="s">
+      <c r="A15" s="1" t="s">
         <v>295</v>
       </c>
-      <c r="B15" s="209" t="s">
+      <c r="B15" s="1" t="s">
         <v>325</v>
       </c>
-      <c r="C15" s="208">
-        <f>C19</f>
+      <c r="C15" s="2">
+        <f>C17</f>
         <v>47616</v>
       </c>
-      <c r="D15" s="216">
+      <c r="D15" s="213">
         <f t="shared" ref="D15" si="4">283.5*F15</f>
         <v>1417.5</v>
       </c>
-      <c r="E15" s="216"/>
-      <c r="F15" s="217">
+      <c r="E15" s="213"/>
+      <c r="F15" s="155">
         <v>5</v>
       </c>
-      <c r="G15" s="217">
-        <f>G19</f>
+      <c r="G15" s="155">
+        <f>G17</f>
         <v>222.2</v>
       </c>
-      <c r="H15" s="217">
+      <c r="H15" s="155">
         <v>280</v>
       </c>
-      <c r="I15" s="208"/>
-      <c r="J15" s="219">
+      <c r="I15" s="2"/>
+      <c r="J15" s="162">
         <v>45769</v>
       </c>
-      <c r="K15" s="219">
+      <c r="K15" s="162">
         <v>45840</v>
       </c>
-      <c r="L15" s="220">
+      <c r="L15" s="215">
         <f t="shared" ref="L15" si="5">D15*(G15-H15)*1.3228</f>
         <v>-108378.98820000002</v>
       </c>
-      <c r="M15" s="218">
+      <c r="M15" s="160">
         <f>5.4677</f>
         <v>5.4676999999999998</v>
       </c>
-      <c r="N15" s="220">
-        <f t="shared" ref="N15" si="6">IF(I15="",L15*M15,(D15*(G15*I15-H15*M15)*1.3328))</f>
+      <c r="N15" s="215">
+        <f t="shared" ref="N15:N16" si="6">IF(I15="",L15*M15,(D15*(G15*I15-H15*M15)*1.3328))</f>
         <v>-592583.79378114012</v>
       </c>
     </row>
@@ -9091,7 +9122,7 @@
         <v>295</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>330</v>
+        <v>325</v>
       </c>
       <c r="C16" s="2">
         <v>25852</v>
@@ -9108,133 +9139,145 @@
         <v>179</v>
       </c>
       <c r="H16" s="155">
-        <f>futuros!B2</f>
-        <v>408.3</v>
-      </c>
-      <c r="I16" s="2"/>
+        <v>434</v>
+      </c>
+      <c r="I16" s="228"/>
       <c r="J16" s="162">
         <v>45973</v>
       </c>
-      <c r="K16" s="162"/>
+      <c r="K16" s="162">
+        <v>45953</v>
+      </c>
       <c r="L16" s="215">
         <f t="shared" si="2"/>
-        <v>-1522034.7588180001</v>
-      </c>
-      <c r="M16" s="160"/>
-      <c r="N16" s="215"/>
+        <v>-1692624.7863</v>
+      </c>
+      <c r="M16" s="160">
+        <v>5.3811</v>
+      </c>
+      <c r="N16" s="215">
+        <f t="shared" si="6"/>
+        <v>-9108183.2375589311</v>
+      </c>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A17" s="1" t="s">
+      <c r="A17" s="209" t="s">
+        <v>295</v>
+      </c>
+      <c r="B17" s="209" t="s">
+        <v>325</v>
+      </c>
+      <c r="C17" s="208">
+        <v>47616</v>
+      </c>
+      <c r="D17" s="216">
+        <f>283.5*F17</f>
+        <v>1587.6</v>
+      </c>
+      <c r="E17" s="216"/>
+      <c r="F17" s="217">
+        <f>10.6-5</f>
+        <v>5.6</v>
+      </c>
+      <c r="G17" s="217">
+        <v>222.2</v>
+      </c>
+      <c r="H17" s="217">
+        <v>434</v>
+      </c>
+      <c r="I17" s="228"/>
+      <c r="J17" s="219">
+        <v>45980</v>
+      </c>
+      <c r="K17" s="219">
+        <v>45953</v>
+      </c>
+      <c r="L17" s="220">
+        <f>D17*(G17-H17)*1.3228</f>
+        <v>-444796.36790399998</v>
+      </c>
+      <c r="M17" s="218">
+        <v>5.3811</v>
+      </c>
+      <c r="N17" s="220">
+        <f>IF(I17="",L17*M17,(D17*(G17*I17-H17*M17)*1.3328))</f>
+        <v>-2393493.7353282142</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A18" s="221" t="s">
         <v>296</v>
       </c>
-      <c r="B17" s="1" t="s">
+      <c r="B18" s="221" t="s">
         <v>330</v>
       </c>
-      <c r="C17" s="2">
+      <c r="C18" s="222">
         <v>507931308</v>
       </c>
-      <c r="D17" s="213">
+      <c r="D18" s="223">
         <f t="shared" si="0"/>
         <v>1984.5</v>
       </c>
-      <c r="E17" s="213"/>
-      <c r="F17" s="155">
+      <c r="E18" s="223"/>
+      <c r="F18" s="224">
         <f>262500/37500</f>
         <v>7</v>
       </c>
-      <c r="G17" s="155">
+      <c r="G18" s="224">
         <v>196.1</v>
       </c>
-      <c r="H17" s="155">
+      <c r="H18" s="224">
         <f>futuros!B2</f>
-        <v>408.3</v>
-      </c>
-      <c r="I17" s="2"/>
-      <c r="J17" s="162">
+        <v>400.05</v>
+      </c>
+      <c r="I18" s="222"/>
+      <c r="J18" s="225">
         <v>45973</v>
       </c>
-      <c r="K17" s="162"/>
-      <c r="L17" s="215">
+      <c r="K18" s="225"/>
+      <c r="L18" s="226">
         <f t="shared" si="2"/>
-        <v>-557045.49852000002</v>
-      </c>
-      <c r="M17" s="160"/>
-      <c r="N17" s="215"/>
-    </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A18" s="1" t="s">
+        <v>-535388.45157000003</v>
+      </c>
+      <c r="M18" s="227"/>
+      <c r="N18" s="226"/>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A19" s="209" t="s">
         <v>296</v>
       </c>
-      <c r="B18" s="1" t="s">
+      <c r="B19" s="209" t="s">
         <v>329</v>
       </c>
-      <c r="C18" s="2">
+      <c r="C19" s="208">
         <v>29487615</v>
       </c>
-      <c r="D18" s="213">
+      <c r="D19" s="216">
         <f t="shared" si="0"/>
         <v>1984.5</v>
       </c>
-      <c r="E18" s="213" t="s">
+      <c r="E19" s="216" t="s">
         <v>344</v>
       </c>
-      <c r="F18" s="155">
+      <c r="F19" s="217">
         <f>262500/37500</f>
         <v>7</v>
       </c>
-      <c r="G18" s="155">
+      <c r="G19" s="217">
         <v>330</v>
-      </c>
-      <c r="H18" s="155">
-        <f>futuros!B2</f>
-        <v>408.3</v>
-      </c>
-      <c r="I18" s="2"/>
-      <c r="J18" s="162">
-        <v>45973</v>
-      </c>
-      <c r="K18" s="162"/>
-      <c r="L18" s="215">
-        <f t="shared" si="2"/>
-        <v>-205545.06378000005</v>
-      </c>
-      <c r="M18" s="160"/>
-      <c r="N18" s="215"/>
-    </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A19" s="209" t="s">
-        <v>295</v>
-      </c>
-      <c r="B19" s="209" t="s">
-        <v>330</v>
-      </c>
-      <c r="C19" s="208">
-        <v>47616</v>
-      </c>
-      <c r="D19" s="216">
-        <f t="shared" si="0"/>
-        <v>1587.6</v>
-      </c>
-      <c r="E19" s="216"/>
-      <c r="F19" s="217">
-        <f>10.6-5</f>
-        <v>5.6</v>
-      </c>
-      <c r="G19" s="217">
-        <v>222.2</v>
       </c>
       <c r="H19" s="217">
         <f>futuros!B2</f>
-        <v>408.3</v>
+        <v>400.05</v>
       </c>
       <c r="I19" s="208"/>
       <c r="J19" s="219">
-        <v>45980</v>
+        <v>45973</v>
       </c>
       <c r="K19" s="219"/>
       <c r="L19" s="220">
         <f t="shared" si="2"/>
-        <v>-390824.38180800003</v>
+        <v>-183888.01683000004</v>
       </c>
       <c r="M19" s="218"/>
       <c r="N19" s="220"/>
@@ -9265,7 +9308,7 @@
       </c>
       <c r="H20" s="155">
         <f>futuros!B3</f>
-        <v>384.95</v>
+        <v>378.75</v>
       </c>
       <c r="I20" s="2"/>
       <c r="J20" s="162">
@@ -9274,7 +9317,7 @@
       <c r="K20" s="162"/>
       <c r="L20" s="215">
         <f t="shared" si="2"/>
-        <v>-157374.54116999998</v>
+        <v>-141098.94224999999</v>
       </c>
       <c r="M20" s="160"/>
       <c r="N20" s="215"/>
@@ -9303,7 +9346,7 @@
       </c>
       <c r="H21" s="155">
         <f>futuros!B7</f>
-        <v>330.15</v>
+        <v>322.5</v>
       </c>
       <c r="I21" s="2"/>
       <c r="J21" s="162">
@@ -9312,7 +9355,7 @@
       <c r="K21" s="162"/>
       <c r="L21" s="215">
         <f t="shared" si="2"/>
-        <v>-99059.895269999877</v>
+        <v>-73240.195139999967</v>
       </c>
       <c r="M21" s="160"/>
       <c r="N21" s="215"/>
@@ -9340,7 +9383,7 @@
       </c>
       <c r="H22" s="155">
         <f>futuros!B7</f>
-        <v>330.15</v>
+        <v>322.5</v>
       </c>
       <c r="I22" s="2"/>
       <c r="J22" s="162">
@@ -9349,7 +9392,7 @@
       <c r="K22" s="162"/>
       <c r="L22" s="215">
         <f t="shared" si="2"/>
-        <v>-23250.855599999999</v>
+        <v>-300.01104000006819</v>
       </c>
       <c r="M22" s="160"/>
       <c r="N22" s="215"/>
@@ -9377,7 +9420,7 @@
       </c>
       <c r="H23" s="155">
         <f>futuros!B7</f>
-        <v>330.15</v>
+        <v>322.5</v>
       </c>
       <c r="I23" s="2"/>
       <c r="J23" s="162">
@@ -9386,7 +9429,7 @@
       <c r="K23" s="162"/>
       <c r="L23" s="215">
         <f t="shared" si="2"/>
-        <v>-68852.533679999964</v>
+        <v>-45901.689120000032</v>
       </c>
       <c r="M23" s="160"/>
       <c r="N23" s="215"/>
@@ -9415,7 +9458,7 @@
       </c>
       <c r="H24" s="217">
         <f>futuros!B7</f>
-        <v>330.15</v>
+        <v>322.5</v>
       </c>
       <c r="I24" s="208"/>
       <c r="J24" s="219">
@@ -9424,7 +9467,7 @@
       <c r="K24" s="219"/>
       <c r="L24" s="220">
         <f t="shared" si="2"/>
-        <v>-442591.28675999976</v>
+        <v>-362263.3308</v>
       </c>
       <c r="M24" s="218"/>
       <c r="N24" s="220"/>
@@ -9453,7 +9496,7 @@
       </c>
       <c r="H25" s="155">
         <f>futuros!B12</f>
-        <v>292.39999999999998</v>
+        <v>290.35000000000002</v>
       </c>
       <c r="I25" s="2"/>
       <c r="J25" s="162">
@@ -9462,7 +9505,7 @@
       <c r="K25" s="162"/>
       <c r="L25" s="215">
         <f t="shared" si="2"/>
-        <v>-179031.58811999991</v>
+        <v>-170575.02693000008</v>
       </c>
       <c r="M25" s="160"/>
       <c r="N25" s="215"/>
@@ -9488,7 +9531,7 @@
       </c>
       <c r="H26" s="155">
         <f>futuros!B12</f>
-        <v>292.39999999999998</v>
+        <v>290.35000000000002</v>
       </c>
       <c r="I26" s="2"/>
       <c r="J26" s="162">
@@ -9497,7 +9540,7 @@
       <c r="K26" s="162"/>
       <c r="L26" s="215">
         <f t="shared" ref="L26" si="8">D26*(G26-H26)*1.3228</f>
-        <v>-172206.33695999993</v>
+        <v>-166056.11064000006</v>
       </c>
       <c r="M26" s="160"/>
       <c r="N26" s="215"/>
@@ -9523,7 +9566,7 @@
       </c>
       <c r="H27" s="155">
         <f>futuros!B12</f>
-        <v>292.39999999999998</v>
+        <v>290.35000000000002</v>
       </c>
       <c r="I27" s="2"/>
       <c r="J27" s="162">
@@ -9532,7 +9575,7 @@
       <c r="K27" s="162"/>
       <c r="L27" s="215">
         <f t="shared" ref="L27" si="10">D27*(G27-H27)*1.3228</f>
-        <v>-77627.856599999956</v>
+        <v>-73783.965150000033</v>
       </c>
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.2">
@@ -9556,7 +9599,7 @@
       </c>
       <c r="H28" s="155">
         <f>futuros!B12</f>
-        <v>292.39999999999998</v>
+        <v>290.35000000000002</v>
       </c>
       <c r="I28" s="2"/>
       <c r="J28" s="162">
@@ -9565,14 +9608,13 @@
       <c r="K28" s="162"/>
       <c r="L28" s="215">
         <f t="shared" ref="L28" si="12">D28*(G28-H28)*1.3228</f>
-        <v>-55127.028599999961</v>
+        <v>-51283.137150000039</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
     <ignoredError sqref="E7:E13" numberStoredAsText="1"/>
-    <ignoredError sqref="F19" formula="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
@@ -10297,10 +10339,10 @@
       <c r="M3" s="56" t="s">
         <v>111</v>
       </c>
-      <c r="N3" s="221" t="s">
+      <c r="N3" s="229" t="s">
         <v>112</v>
       </c>
-      <c r="O3" s="221"/>
+      <c r="O3" s="229"/>
       <c r="P3" s="55" t="s">
         <v>113</v>
       </c>
@@ -13381,8 +13423,8 @@
       <c r="K74" s="83"/>
       <c r="L74" s="83"/>
       <c r="M74" s="83"/>
-      <c r="N74" s="222"/>
-      <c r="O74" s="222"/>
+      <c r="N74" s="230"/>
+      <c r="O74" s="230"/>
       <c r="P74" s="83"/>
       <c r="Q74" s="83"/>
       <c r="R74" s="83"/>
@@ -15739,8 +15781,8 @@
       <c r="M8" s="4"/>
     </row>
     <row r="9" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B9" s="223"/>
-      <c r="C9" s="224"/>
+      <c r="B9" s="231"/>
+      <c r="C9" s="232"/>
       <c r="D9" s="6"/>
       <c r="E9" s="6" t="s">
         <v>48</v>
@@ -16342,10 +16384,10 @@
     </row>
     <row r="43" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B43" s="41"/>
-      <c r="C43" s="225" t="s">
+      <c r="C43" s="233" t="s">
         <v>74</v>
       </c>
-      <c r="D43" s="225"/>
+      <c r="D43" s="233"/>
     </row>
     <row r="44" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B44" s="42"/>
@@ -16355,10 +16397,10 @@
     </row>
     <row r="45" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B45" s="43"/>
-      <c r="C45" s="225" t="s">
+      <c r="C45" s="233" t="s">
         <v>76</v>
       </c>
-      <c r="D45" s="225"/>
+      <c r="D45" s="233"/>
     </row>
     <row r="46" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B46" s="44"/>

--- a/vendas_cafe_em_reais.xlsx
+++ b/vendas_cafe_em_reais.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rotocastro/PycharmProjects/Vendas Cafe/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51B0A892-64A4-9848-B8B5-ACF6FA955D57}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1AEDC74-CA82-BC45-B939-2791147AB1ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4640" yWindow="680" windowWidth="24760" windowHeight="18440" activeTab="1" xr2:uid="{AC82ADC5-E628-F847-8939-89BAF5623AE6}"/>
   </bookViews>
@@ -2673,26 +2673,26 @@
       </c>
       <c r="L6" s="177">
         <f>futuros!B2</f>
-        <v>400.05</v>
+        <v>405.35</v>
       </c>
       <c r="M6" s="177">
         <f>(L6+H6)*1.3228</f>
-        <v>568.87013999999999</v>
+        <v>575.88098000000002</v>
       </c>
       <c r="N6" s="167">
         <f>(E6*(M6+H6))</f>
-        <v>191638.4448</v>
+        <v>193881.9136</v>
       </c>
       <c r="O6" s="178">
         <v>5.7</v>
       </c>
       <c r="P6" s="167">
         <f t="shared" ref="P6:P16" si="1">M6*O6</f>
-        <v>3242.5597980000002</v>
+        <v>3282.5215860000003</v>
       </c>
       <c r="Q6" s="167">
         <f t="shared" ref="Q6:Q16" si="2">P6*E6</f>
-        <v>1037619.1353600001</v>
+        <v>1050406.9075200001</v>
       </c>
     </row>
     <row r="7" spans="2:20" x14ac:dyDescent="0.25">
@@ -2729,26 +2729,26 @@
       </c>
       <c r="L7" s="177">
         <f>L6</f>
-        <v>400.05</v>
+        <v>405.35</v>
       </c>
       <c r="M7" s="177">
         <f>(L7+H7)*1.3228</f>
-        <v>568.87013999999999</v>
+        <v>575.88098000000002</v>
       </c>
       <c r="N7" s="167">
         <f>(E7*(M7+H7))</f>
-        <v>191638.4448</v>
+        <v>193881.9136</v>
       </c>
       <c r="O7" s="178">
         <v>5.7</v>
       </c>
       <c r="P7" s="167">
         <f t="shared" si="1"/>
-        <v>3242.5597980000002</v>
+        <v>3282.5215860000003</v>
       </c>
       <c r="Q7" s="167">
         <f t="shared" si="2"/>
-        <v>1037619.1353600001</v>
+        <v>1050406.9075200001</v>
       </c>
     </row>
     <row r="8" spans="2:20" x14ac:dyDescent="0.25">
@@ -2785,26 +2785,26 @@
       </c>
       <c r="L8" s="177">
         <f>L7</f>
-        <v>400.05</v>
+        <v>405.35</v>
       </c>
       <c r="M8" s="177">
         <f>(L8+H8)*1.3228</f>
-        <v>568.87013999999999</v>
+        <v>575.88098000000002</v>
       </c>
       <c r="N8" s="167">
         <f>(E8*(M8+H8))</f>
-        <v>191638.4448</v>
+        <v>193881.9136</v>
       </c>
       <c r="O8" s="178">
         <v>5.7</v>
       </c>
       <c r="P8" s="167">
         <f t="shared" si="1"/>
-        <v>3242.5597980000002</v>
+        <v>3282.5215860000003</v>
       </c>
       <c r="Q8" s="167">
         <f t="shared" si="2"/>
-        <v>1037619.1353600001</v>
+        <v>1050406.9075200001</v>
       </c>
     </row>
     <row r="9" spans="2:20" x14ac:dyDescent="0.25">
@@ -2841,26 +2841,26 @@
       </c>
       <c r="L9" s="177">
         <f>futuros!B2</f>
-        <v>400.05</v>
+        <v>405.35</v>
       </c>
       <c r="M9" s="177">
         <f>(L9+H9)*1.3228</f>
-        <v>568.87013999999999</v>
+        <v>575.88098000000002</v>
       </c>
       <c r="N9" s="167">
         <f>(E9*(M9+H9))</f>
-        <v>191638.4448</v>
+        <v>193881.9136</v>
       </c>
       <c r="O9" s="178">
         <v>5.7</v>
       </c>
       <c r="P9" s="167">
         <f t="shared" si="1"/>
-        <v>3242.5597980000002</v>
+        <v>3282.5215860000003</v>
       </c>
       <c r="Q9" s="167">
         <f t="shared" si="2"/>
-        <v>1037619.1353600001</v>
+        <v>1050406.9075200001</v>
       </c>
     </row>
     <row r="10" spans="2:20" x14ac:dyDescent="0.25">
@@ -2897,26 +2897,26 @@
       </c>
       <c r="L10" s="177">
         <f>futuros!B3</f>
-        <v>378.75</v>
+        <v>381.4</v>
       </c>
       <c r="M10" s="177">
         <f>(L10+H10)*1.3228</f>
-        <v>540.69449999999995</v>
+        <v>544.19991999999991</v>
       </c>
       <c r="N10" s="167">
         <f>(E10*(M10+H10))</f>
-        <v>182622.24</v>
+        <v>183743.97439999998</v>
       </c>
       <c r="O10" s="178">
         <v>5.7</v>
       </c>
       <c r="P10" s="167">
         <f t="shared" si="1"/>
-        <v>3081.9586499999996</v>
+        <v>3101.9395439999994</v>
       </c>
       <c r="Q10" s="167">
         <f t="shared" si="2"/>
-        <v>986226.76799999992</v>
+        <v>992620.65407999977</v>
       </c>
     </row>
     <row r="11" spans="2:20" x14ac:dyDescent="0.25">
@@ -2953,26 +2953,26 @@
       </c>
       <c r="L11" s="177">
         <f>futuros!B2</f>
-        <v>400.05</v>
+        <v>405.35</v>
       </c>
       <c r="M11" s="177">
         <f t="shared" ref="M11:M16" si="4">(L11+H11)*1.3228</f>
-        <v>566.22454000000005</v>
+        <v>573.23537999999996</v>
       </c>
       <c r="N11" s="167">
         <f t="shared" ref="N11:N16" si="5">(E11*(M11+H11))</f>
-        <v>190151.85280000002</v>
+        <v>192395.3216</v>
       </c>
       <c r="O11" s="178">
         <v>5.7</v>
       </c>
       <c r="P11" s="167">
         <f t="shared" si="1"/>
-        <v>3227.4798780000006</v>
+        <v>3267.4416659999997</v>
       </c>
       <c r="Q11" s="167">
         <f t="shared" si="2"/>
-        <v>1032793.5609600001</v>
+        <v>1045581.3331199999</v>
       </c>
     </row>
     <row r="12" spans="2:20" x14ac:dyDescent="0.25">
@@ -3009,26 +3009,26 @@
       </c>
       <c r="L12" s="177">
         <f>futuros!B2</f>
-        <v>400.05</v>
+        <v>405.35</v>
       </c>
       <c r="M12" s="177">
         <f t="shared" si="4"/>
-        <v>566.22454000000005</v>
+        <v>573.23537999999996</v>
       </c>
       <c r="N12" s="167">
         <f t="shared" si="5"/>
-        <v>190151.85280000002</v>
+        <v>192395.3216</v>
       </c>
       <c r="O12" s="178">
         <v>5.7</v>
       </c>
       <c r="P12" s="167">
         <f t="shared" si="1"/>
-        <v>3227.4798780000006</v>
+        <v>3267.4416659999997</v>
       </c>
       <c r="Q12" s="167">
         <f t="shared" si="2"/>
-        <v>1032793.5609600001</v>
+        <v>1045581.3331199999</v>
       </c>
     </row>
     <row r="13" spans="2:20" s="166" customFormat="1" x14ac:dyDescent="0.25">
@@ -3065,26 +3065,26 @@
       </c>
       <c r="L13" s="177">
         <f>futuros!B3</f>
-        <v>378.75</v>
+        <v>381.4</v>
       </c>
       <c r="M13" s="177">
         <f t="shared" si="4"/>
-        <v>538.0489</v>
+        <v>541.55431999999996</v>
       </c>
       <c r="N13" s="167">
         <f t="shared" si="5"/>
-        <v>181135.64799999999</v>
+        <v>182257.3824</v>
       </c>
       <c r="O13" s="178">
         <v>5.7</v>
       </c>
       <c r="P13" s="167">
         <f t="shared" si="1"/>
-        <v>3066.8787299999999</v>
+        <v>3086.8596239999997</v>
       </c>
       <c r="Q13" s="167">
         <f t="shared" si="2"/>
-        <v>981401.1936</v>
+        <v>987795.07967999997</v>
       </c>
       <c r="R13" s="163"/>
       <c r="S13" s="163"/>
@@ -3124,26 +3124,26 @@
       </c>
       <c r="L14" s="177">
         <f>futuros!B4</f>
-        <v>363.15</v>
+        <v>363.85</v>
       </c>
       <c r="M14" s="177">
         <f t="shared" si="4"/>
-        <v>517.41321999999991</v>
+        <v>518.33918000000006</v>
       </c>
       <c r="N14" s="167">
         <f t="shared" si="5"/>
-        <v>174532.23039999997</v>
+        <v>174828.53760000001</v>
       </c>
       <c r="O14" s="178">
         <v>5.7</v>
       </c>
       <c r="P14" s="167">
         <f t="shared" si="1"/>
-        <v>2949.2553539999994</v>
+        <v>2954.5333260000002</v>
       </c>
       <c r="Q14" s="167">
         <f t="shared" si="2"/>
-        <v>943761.71327999979</v>
+        <v>945450.6643200001</v>
       </c>
       <c r="R14" s="163"/>
       <c r="S14" s="163"/>
@@ -3183,26 +3183,26 @@
       </c>
       <c r="L15" s="177">
         <f>futuros!B3</f>
-        <v>378.75</v>
+        <v>381.4</v>
       </c>
       <c r="M15" s="177">
         <f t="shared" si="4"/>
-        <v>471.90890000000002</v>
+        <v>475.41431999999998</v>
       </c>
       <c r="N15" s="167">
         <f t="shared" si="5"/>
-        <v>143970.848</v>
+        <v>145092.58239999998</v>
       </c>
       <c r="O15" s="178">
         <v>5.7</v>
       </c>
       <c r="P15" s="167">
         <f t="shared" si="1"/>
-        <v>2689.8807300000003</v>
+        <v>2709.8616240000001</v>
       </c>
       <c r="Q15" s="167">
         <f t="shared" si="2"/>
-        <v>860761.83360000013</v>
+        <v>867155.7196800001</v>
       </c>
       <c r="R15" s="163"/>
       <c r="S15" s="163"/>
@@ -3242,26 +3242,26 @@
       </c>
       <c r="L16" s="177">
         <f>futuros!B2</f>
-        <v>400.05</v>
+        <v>405.35</v>
       </c>
       <c r="M16" s="177">
         <f t="shared" si="4"/>
-        <v>599.29453999999998</v>
+        <v>606.30538000000001</v>
       </c>
       <c r="N16" s="167">
         <f t="shared" si="5"/>
-        <v>208734.25279999999</v>
+        <v>210977.72159999999</v>
       </c>
       <c r="O16" s="178">
         <v>5.7</v>
       </c>
       <c r="P16" s="167">
         <f t="shared" si="1"/>
-        <v>3415.9788779999999</v>
+        <v>3455.940666</v>
       </c>
       <c r="Q16" s="167">
         <f t="shared" si="2"/>
-        <v>1093113.2409600001</v>
+        <v>1105901.01312</v>
       </c>
       <c r="R16" s="163"/>
       <c r="S16" s="163"/>
@@ -3388,20 +3388,20 @@
       <c r="L19" s="179"/>
       <c r="M19" s="182">
         <f>N19/E19</f>
-        <v>561.52069285714288</v>
+        <v>565.84341428571418</v>
       </c>
       <c r="N19" s="183">
         <f>SUM(N5:N18)</f>
-        <v>2515612.7039999999</v>
+        <v>2534978.4959999993</v>
       </c>
       <c r="O19" s="184"/>
       <c r="P19" s="185">
         <f>Q19/E19</f>
-        <v>3081.3750921428573</v>
+        <v>3106.0146042857141</v>
       </c>
       <c r="Q19" s="183">
         <f>SUM(Q5:Q18)</f>
-        <v>13804560.412800001</v>
+        <v>13914945.427199999</v>
       </c>
     </row>
     <row r="20" spans="2:17" x14ac:dyDescent="0.25">
@@ -3524,7 +3524,7 @@
       </c>
       <c r="I25" s="177">
         <f>futuros!B2</f>
-        <v>400.05</v>
+        <v>405.35</v>
       </c>
       <c r="K25" s="163"/>
       <c r="L25" s="197">
@@ -3533,7 +3533,7 @@
       <c r="M25" s="163"/>
       <c r="N25" s="198">
         <f>(H25-I25)*1.3228*D25</f>
-        <v>-1467273.368673</v>
+        <v>-1502453.4132510002</v>
       </c>
       <c r="O25" s="178">
         <f>O5</f>
@@ -3541,7 +3541,7 @@
       </c>
       <c r="Q25" s="198">
         <f>N25*O25</f>
-        <v>-8363458.2014361005</v>
+        <v>-8563984.4555307012</v>
       </c>
     </row>
     <row r="26" spans="2:17" x14ac:dyDescent="0.25">
@@ -3566,7 +3566,7 @@
       </c>
       <c r="I26" s="177">
         <f>I25</f>
-        <v>400.05</v>
+        <v>405.35</v>
       </c>
       <c r="K26" s="163"/>
       <c r="L26" s="197">
@@ -3575,7 +3575,7 @@
       <c r="M26" s="163"/>
       <c r="N26" s="198">
         <f>(H26-I26)*1.3228*D26</f>
-        <v>-535388.45157000003</v>
+        <v>-549301.46354999999</v>
       </c>
       <c r="O26" s="178">
         <f>O6</f>
@@ -3583,7 +3583,7 @@
       </c>
       <c r="Q26" s="198">
         <f t="shared" ref="Q26:Q27" si="6">N26*O26</f>
-        <v>-3051714.1739490004</v>
+        <v>-3131018.3422349999</v>
       </c>
     </row>
     <row r="27" spans="2:17" x14ac:dyDescent="0.25">
@@ -3607,7 +3607,7 @@
       </c>
       <c r="I27" s="200">
         <f>I26</f>
-        <v>400.05</v>
+        <v>405.35</v>
       </c>
       <c r="K27" s="163"/>
       <c r="L27" s="197">
@@ -3616,7 +3616,7 @@
       <c r="M27" s="163"/>
       <c r="N27" s="198">
         <f>(H27-I27)*1.3228*D27</f>
-        <v>-706979.76589799998</v>
+        <v>-728048.04118200007</v>
       </c>
       <c r="O27" s="178">
         <f>O7</f>
@@ -3624,7 +3624,7 @@
       </c>
       <c r="Q27" s="198">
         <f t="shared" si="6"/>
-        <v>-4029784.6656185999</v>
+        <v>-4149873.8347374005</v>
       </c>
     </row>
     <row r="28" spans="2:17" x14ac:dyDescent="0.25">
@@ -3647,13 +3647,13 @@
       <c r="M28" s="202"/>
       <c r="N28" s="202">
         <f>SUM(N25:N27)</f>
-        <v>-2709641.586141</v>
+        <v>-2779802.9179830002</v>
       </c>
       <c r="O28" s="201"/>
       <c r="P28" s="201"/>
       <c r="Q28" s="202">
         <f>SUM(Q25:Q27)</f>
-        <v>-15444957.041003702</v>
+        <v>-15844876.632503103</v>
       </c>
     </row>
     <row r="29" spans="2:17" x14ac:dyDescent="0.25">
@@ -4337,7 +4337,7 @@
       </c>
       <c r="I57" s="177">
         <f>futuros!B7</f>
-        <v>322.5</v>
+        <v>328.9</v>
       </c>
       <c r="K57" s="178">
         <f>O8</f>
@@ -4349,7 +4349,7 @@
       <c r="M57" s="198"/>
       <c r="N57" s="198">
         <f>(H57-I57)*1.3228*D57</f>
-        <v>-73240.195139999967</v>
+        <v>-94840.990019999881</v>
       </c>
       <c r="O57" s="166">
         <f>O25</f>
@@ -4357,7 +4357,7 @@
       </c>
       <c r="Q57" s="198">
         <f>N57*O57</f>
-        <v>-417469.11229799985</v>
+        <v>-540593.64311399939</v>
       </c>
     </row>
     <row r="58" spans="2:17" x14ac:dyDescent="0.25">
@@ -4381,7 +4381,7 @@
       </c>
       <c r="I58" s="177">
         <f>I57</f>
-        <v>322.5</v>
+        <v>328.9</v>
       </c>
       <c r="K58" s="178">
         <f>O9</f>
@@ -4393,7 +4393,7 @@
       <c r="M58" s="198"/>
       <c r="N58" s="198">
         <f>(H58-I58)*1.3228*D58</f>
-        <v>-300.01104000006819</v>
+        <v>-19500.7176</v>
       </c>
       <c r="O58" s="166">
         <f>O26</f>
@@ -4401,7 +4401,7 @@
       </c>
       <c r="Q58" s="198">
         <f>N58*O58</f>
-        <v>-1710.0629280003886</v>
+        <v>-111154.09032</v>
       </c>
     </row>
     <row r="59" spans="2:17" x14ac:dyDescent="0.25">
@@ -4424,13 +4424,13 @@
       <c r="M59" s="201"/>
       <c r="N59" s="202">
         <f>SUM(N56:N58)</f>
-        <v>-73540.206180000037</v>
+        <v>-114341.70761999988</v>
       </c>
       <c r="O59" s="201"/>
       <c r="P59" s="201"/>
       <c r="Q59" s="202">
         <f>SUM(Q56:Q58)</f>
-        <v>-419179.17522600025</v>
+        <v>-651747.73343399935</v>
       </c>
     </row>
     <row r="64" spans="2:17" x14ac:dyDescent="0.25">
@@ -4571,8 +4571,8 @@
   <dimension ref="A1:T74"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A35" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G54" sqref="G54"/>
+      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="N49" sqref="N49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0.2"/>
@@ -7044,15 +7044,15 @@
         <v>45966</v>
       </c>
       <c r="L48" s="155">
-        <v>330</v>
+        <v>402</v>
       </c>
       <c r="M48" s="155">
         <f>(L48+H48)*1.3228</f>
-        <v>476.20799999999997</v>
+        <v>571.44960000000003</v>
       </c>
       <c r="N48" s="3">
         <f t="shared" ref="N48:N62" si="4">M48*E48</f>
-        <v>152386.56</v>
+        <v>182863.872</v>
       </c>
     </row>
     <row r="49" spans="1:17" x14ac:dyDescent="0.2">
@@ -7091,15 +7091,15 @@
         <v>45996</v>
       </c>
       <c r="L49" s="155">
-        <v>330</v>
+        <v>402</v>
       </c>
       <c r="M49" s="155">
         <f>(L49+H49)*1.3228</f>
-        <v>476.20799999999997</v>
+        <v>571.44960000000003</v>
       </c>
       <c r="N49" s="3">
         <f t="shared" si="4"/>
-        <v>152386.56</v>
+        <v>182863.872</v>
       </c>
     </row>
     <row r="50" spans="1:17" x14ac:dyDescent="0.2">
@@ -7185,15 +7185,15 @@
         <v>45996</v>
       </c>
       <c r="L51" s="155">
-        <v>330</v>
+        <v>413</v>
       </c>
       <c r="M51" s="155">
         <f>(L51+H51)*1.3228</f>
-        <v>476.20799999999997</v>
+        <v>586.00040000000001</v>
       </c>
       <c r="N51" s="3">
         <f t="shared" si="4"/>
-        <v>152386.56</v>
+        <v>187520.128</v>
       </c>
     </row>
     <row r="52" spans="1:17" x14ac:dyDescent="0.2">
@@ -7449,15 +7449,15 @@
         <v>45966</v>
       </c>
       <c r="L57" s="155">
-        <v>325</v>
+        <v>402</v>
       </c>
       <c r="M57" s="155">
         <f t="shared" ref="M57:M62" si="6">(L57+H57)*1.3228</f>
-        <v>466.94839999999999</v>
+        <v>568.80399999999997</v>
       </c>
       <c r="N57" s="3">
         <f t="shared" si="4"/>
-        <v>149423.48800000001</v>
+        <v>182017.28</v>
       </c>
     </row>
     <row r="58" spans="1:17" x14ac:dyDescent="0.2">
@@ -7953,9 +7953,17 @@
       <c r="K68" s="158">
         <v>45684</v>
       </c>
-      <c r="L68" s="155"/>
-      <c r="M68" s="155"/>
-      <c r="N68" s="3"/>
+      <c r="L68" s="155">
+        <f>M68/1.3228</f>
+        <v>417.28000000000003</v>
+      </c>
+      <c r="M68" s="155">
+        <v>551.97798399999999</v>
+      </c>
+      <c r="N68" s="3">
+        <f>M68*E68</f>
+        <v>183992.66133333332</v>
+      </c>
     </row>
     <row r="69" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A69" s="2">
@@ -8265,7 +8273,7 @@
         <v>270</v>
       </c>
       <c r="D1" s="162">
-        <v>45964</v>
+        <v>45978</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -8273,11 +8281,11 @@
         <v>46021</v>
       </c>
       <c r="B2" s="155">
-        <v>400.05</v>
+        <v>405.35</v>
       </c>
       <c r="C2" s="155">
         <f t="shared" ref="C2:C11" si="0">B2*1.3228</f>
-        <v>529.18614000000002</v>
+        <v>536.19698000000005</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -8285,11 +8293,11 @@
         <v>46112</v>
       </c>
       <c r="B3" s="155">
-        <v>378.75</v>
+        <v>381.4</v>
       </c>
       <c r="C3" s="155">
         <f t="shared" si="0"/>
-        <v>501.01049999999998</v>
+        <v>504.51591999999994</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
@@ -8297,11 +8305,11 @@
         <v>46173</v>
       </c>
       <c r="B4" s="155">
-        <v>363.15</v>
+        <v>363.85</v>
       </c>
       <c r="C4" s="155">
         <f t="shared" si="0"/>
-        <v>480.37481999999994</v>
+        <v>481.30078000000003</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
@@ -8309,11 +8317,11 @@
         <v>46231</v>
       </c>
       <c r="B5" s="155">
-        <v>348.25</v>
+        <v>349.65</v>
       </c>
       <c r="C5" s="155">
         <f t="shared" si="0"/>
-        <v>460.6651</v>
+        <v>462.51701999999995</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
@@ -8321,11 +8329,11 @@
         <v>46295</v>
       </c>
       <c r="B6" s="155">
-        <v>334</v>
+        <v>336.9</v>
       </c>
       <c r="C6" s="155">
         <f t="shared" si="0"/>
-        <v>441.8152</v>
+        <v>445.65131999999994</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
@@ -8333,11 +8341,11 @@
         <v>46386</v>
       </c>
       <c r="B7" s="155">
-        <v>322.5</v>
+        <v>328.9</v>
       </c>
       <c r="C7" s="155">
         <f t="shared" si="0"/>
-        <v>426.60300000000001</v>
+        <v>435.06891999999993</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
@@ -8345,11 +8353,11 @@
         <v>46477</v>
       </c>
       <c r="B8" s="155">
-        <v>311.8</v>
+        <v>322.64999999999998</v>
       </c>
       <c r="C8" s="155">
         <f t="shared" si="0"/>
-        <v>412.44904000000002</v>
+        <v>426.80141999999995</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
@@ -8357,11 +8365,11 @@
         <v>46538</v>
       </c>
       <c r="B9" s="155">
-        <v>306.5</v>
+        <v>320.35000000000002</v>
       </c>
       <c r="C9" s="155">
         <f t="shared" si="0"/>
-        <v>405.43819999999999</v>
+        <v>423.75898000000001</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
@@ -8369,11 +8377,11 @@
         <v>46596</v>
       </c>
       <c r="B10" s="155">
-        <v>301.35000000000002</v>
+        <v>316.64999999999998</v>
       </c>
       <c r="C10" s="155">
         <f t="shared" si="0"/>
-        <v>398.62578000000002</v>
+        <v>418.86461999999995</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
@@ -8381,11 +8389,11 @@
         <v>46660</v>
       </c>
       <c r="B11" s="155">
-        <v>295.95</v>
+        <v>312.75</v>
       </c>
       <c r="C11" s="155">
         <f t="shared" si="0"/>
-        <v>391.48265999999995</v>
+        <v>413.70569999999998</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
@@ -8393,11 +8401,11 @@
         <v>46751</v>
       </c>
       <c r="B12" s="155">
-        <v>290.35000000000002</v>
+        <v>307.5</v>
       </c>
       <c r="C12" s="155">
         <f>B12*1.3228</f>
-        <v>384.07498000000004</v>
+        <v>406.76099999999997</v>
       </c>
     </row>
   </sheetData>
@@ -9228,7 +9236,7 @@
       </c>
       <c r="H18" s="224">
         <f>futuros!B2</f>
-        <v>400.05</v>
+        <v>405.35</v>
       </c>
       <c r="I18" s="222"/>
       <c r="J18" s="225">
@@ -9237,7 +9245,7 @@
       <c r="K18" s="225"/>
       <c r="L18" s="226">
         <f t="shared" si="2"/>
-        <v>-535388.45157000003</v>
+        <v>-549301.4635500001</v>
       </c>
       <c r="M18" s="227"/>
       <c r="N18" s="226"/>
@@ -9268,7 +9276,7 @@
       </c>
       <c r="H19" s="217">
         <f>futuros!B2</f>
-        <v>400.05</v>
+        <v>405.35</v>
       </c>
       <c r="I19" s="208"/>
       <c r="J19" s="219">
@@ -9277,7 +9285,7 @@
       <c r="K19" s="219"/>
       <c r="L19" s="220">
         <f t="shared" si="2"/>
-        <v>-183888.01683000004</v>
+        <v>-197801.02881000005</v>
       </c>
       <c r="M19" s="218"/>
       <c r="N19" s="220"/>
@@ -9308,7 +9316,7 @@
       </c>
       <c r="H20" s="155">
         <f>futuros!B3</f>
-        <v>378.75</v>
+        <v>381.4</v>
       </c>
       <c r="I20" s="2"/>
       <c r="J20" s="162">
@@ -9317,7 +9325,7 @@
       <c r="K20" s="162"/>
       <c r="L20" s="215">
         <f t="shared" si="2"/>
-        <v>-141098.94224999999</v>
+        <v>-148055.44823999994</v>
       </c>
       <c r="M20" s="160"/>
       <c r="N20" s="215"/>
@@ -9346,7 +9354,7 @@
       </c>
       <c r="H21" s="155">
         <f>futuros!B7</f>
-        <v>322.5</v>
+        <v>328.9</v>
       </c>
       <c r="I21" s="2"/>
       <c r="J21" s="162">
@@ -9355,7 +9363,7 @@
       <c r="K21" s="162"/>
       <c r="L21" s="215">
         <f t="shared" si="2"/>
-        <v>-73240.195139999967</v>
+        <v>-94840.990019999881</v>
       </c>
       <c r="M21" s="160"/>
       <c r="N21" s="215"/>
@@ -9383,7 +9391,7 @@
       </c>
       <c r="H22" s="155">
         <f>futuros!B7</f>
-        <v>322.5</v>
+        <v>328.9</v>
       </c>
       <c r="I22" s="2"/>
       <c r="J22" s="162">
@@ -9392,7 +9400,7 @@
       <c r="K22" s="162"/>
       <c r="L22" s="215">
         <f t="shared" si="2"/>
-        <v>-300.01104000006819</v>
+        <v>-19500.7176</v>
       </c>
       <c r="M22" s="160"/>
       <c r="N22" s="215"/>
@@ -9420,7 +9428,7 @@
       </c>
       <c r="H23" s="155">
         <f>futuros!B7</f>
-        <v>322.5</v>
+        <v>328.9</v>
       </c>
       <c r="I23" s="2"/>
       <c r="J23" s="162">
@@ -9429,7 +9437,7 @@
       <c r="K23" s="162"/>
       <c r="L23" s="215">
         <f t="shared" si="2"/>
-        <v>-45901.689120000032</v>
+        <v>-65102.395679999965</v>
       </c>
       <c r="M23" s="160"/>
       <c r="N23" s="215"/>
@@ -9458,7 +9466,7 @@
       </c>
       <c r="H24" s="217">
         <f>futuros!B7</f>
-        <v>322.5</v>
+        <v>328.9</v>
       </c>
       <c r="I24" s="208"/>
       <c r="J24" s="219">
@@ -9467,7 +9475,7 @@
       <c r="K24" s="219"/>
       <c r="L24" s="220">
         <f t="shared" si="2"/>
-        <v>-362263.3308</v>
+        <v>-429465.80375999975</v>
       </c>
       <c r="M24" s="218"/>
       <c r="N24" s="220"/>
@@ -9496,7 +9504,7 @@
       </c>
       <c r="H25" s="155">
         <f>futuros!B12</f>
-        <v>290.35000000000002</v>
+        <v>307.5</v>
       </c>
       <c r="I25" s="2"/>
       <c r="J25" s="162">
@@ -9505,7 +9513,7 @@
       <c r="K25" s="162"/>
       <c r="L25" s="215">
         <f t="shared" si="2"/>
-        <v>-170575.02693000008</v>
+        <v>-241321.38029999999</v>
       </c>
       <c r="M25" s="160"/>
       <c r="N25" s="215"/>
@@ -9531,7 +9539,7 @@
       </c>
       <c r="H26" s="155">
         <f>futuros!B12</f>
-        <v>290.35000000000002</v>
+        <v>307.5</v>
       </c>
       <c r="I26" s="2"/>
       <c r="J26" s="162">
@@ -9540,7 +9548,7 @@
       <c r="K26" s="162"/>
       <c r="L26" s="215">
         <f t="shared" ref="L26" si="8">D26*(G26-H26)*1.3228</f>
-        <v>-166056.11064000006</v>
+        <v>-217508.00399999999</v>
       </c>
       <c r="M26" s="160"/>
       <c r="N26" s="215"/>
@@ -9566,7 +9574,7 @@
       </c>
       <c r="H27" s="155">
         <f>futuros!B12</f>
-        <v>290.35000000000002</v>
+        <v>307.5</v>
       </c>
       <c r="I27" s="2"/>
       <c r="J27" s="162">
@@ -9575,7 +9583,7 @@
       <c r="K27" s="162"/>
       <c r="L27" s="215">
         <f t="shared" ref="L27" si="10">D27*(G27-H27)*1.3228</f>
-        <v>-73783.965150000033</v>
+        <v>-105941.3985</v>
       </c>
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.2">
@@ -9599,7 +9607,7 @@
       </c>
       <c r="H28" s="155">
         <f>futuros!B12</f>
-        <v>290.35000000000002</v>
+        <v>307.5</v>
       </c>
       <c r="I28" s="2"/>
       <c r="J28" s="162">
@@ -9608,7 +9616,7 @@
       <c r="K28" s="162"/>
       <c r="L28" s="215">
         <f t="shared" ref="L28" si="12">D28*(G28-H28)*1.3228</f>
-        <v>-51283.137150000039</v>
+        <v>-83440.570500000002</v>
       </c>
     </row>
   </sheetData>

--- a/vendas_cafe_em_reais.xlsx
+++ b/vendas_cafe_em_reais.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rotocastro/PycharmProjects/Vendas Cafe/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1AEDC74-CA82-BC45-B939-2791147AB1ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA78976C-C1F8-7E40-9AFA-EA1143A238FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4640" yWindow="680" windowWidth="24760" windowHeight="18440" activeTab="1" xr2:uid="{AC82ADC5-E628-F847-8939-89BAF5623AE6}"/>
+    <workbookView xWindow="4420" yWindow="680" windowWidth="21340" windowHeight="18440" activeTab="1" xr2:uid="{AC82ADC5-E628-F847-8939-89BAF5623AE6}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2 (2)" sheetId="16" state="hidden" r:id="rId1"/>
@@ -24,7 +24,7 @@
     <sheet name="CashFlow_Edson_Luiz" sheetId="3" state="hidden" r:id="rId9"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Sheet2!$A$1:$Q$74</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Sheet2!$A$1:$Q$78</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">'VENDA CAFÉ 220125'!$A$3:$Z$61</definedName>
     <definedName name="LITRAGEM" localSheetId="7">#REF!</definedName>
     <definedName name="LITRAGEM" localSheetId="5">#REF!</definedName>
@@ -70,7 +70,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="972" uniqueCount="357">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="999" uniqueCount="362">
   <si>
     <t>026/24</t>
   </si>
@@ -1141,6 +1141,21 @@
   </si>
   <si>
     <t>074/25</t>
+  </si>
+  <si>
+    <t>075/25</t>
+  </si>
+  <si>
+    <t>076/25</t>
+  </si>
+  <si>
+    <t>077/25</t>
+  </si>
+  <si>
+    <t>078/25</t>
+  </si>
+  <si>
+    <t>WWTrading Worldwide</t>
   </si>
 </sst>
 </file>
@@ -1404,7 +1419,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="12">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -1525,13 +1540,24 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="21" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="234">
+  <cellXfs count="235">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -2063,26 +2089,29 @@
     <xf numFmtId="168" fontId="20" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="2" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="1" fontId="2" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="2" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="14" fontId="2" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="2" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="168" fontId="20" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="2" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="2" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="2" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="9" fontId="2" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="20" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="2" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
@@ -2673,26 +2702,26 @@
       </c>
       <c r="L6" s="177">
         <f>futuros!B2</f>
-        <v>405.35</v>
+        <v>399.9</v>
       </c>
       <c r="M6" s="177">
         <f>(L6+H6)*1.3228</f>
-        <v>575.88098000000002</v>
+        <v>568.67171999999994</v>
       </c>
       <c r="N6" s="167">
         <f>(E6*(M6+H6))</f>
-        <v>193881.9136</v>
+        <v>191574.95039999997</v>
       </c>
       <c r="O6" s="178">
         <v>5.7</v>
       </c>
       <c r="P6" s="167">
         <f t="shared" ref="P6:P16" si="1">M6*O6</f>
-        <v>3282.5215860000003</v>
+        <v>3241.4288039999997</v>
       </c>
       <c r="Q6" s="167">
         <f t="shared" ref="Q6:Q16" si="2">P6*E6</f>
-        <v>1050406.9075200001</v>
+        <v>1037257.2172799999</v>
       </c>
     </row>
     <row r="7" spans="2:20" x14ac:dyDescent="0.25">
@@ -2729,26 +2758,26 @@
       </c>
       <c r="L7" s="177">
         <f>L6</f>
-        <v>405.35</v>
+        <v>399.9</v>
       </c>
       <c r="M7" s="177">
         <f>(L7+H7)*1.3228</f>
-        <v>575.88098000000002</v>
+        <v>568.67171999999994</v>
       </c>
       <c r="N7" s="167">
         <f>(E7*(M7+H7))</f>
-        <v>193881.9136</v>
+        <v>191574.95039999997</v>
       </c>
       <c r="O7" s="178">
         <v>5.7</v>
       </c>
       <c r="P7" s="167">
         <f t="shared" si="1"/>
-        <v>3282.5215860000003</v>
+        <v>3241.4288039999997</v>
       </c>
       <c r="Q7" s="167">
         <f t="shared" si="2"/>
-        <v>1050406.9075200001</v>
+        <v>1037257.2172799999</v>
       </c>
     </row>
     <row r="8" spans="2:20" x14ac:dyDescent="0.25">
@@ -2785,26 +2814,26 @@
       </c>
       <c r="L8" s="177">
         <f>L7</f>
-        <v>405.35</v>
+        <v>399.9</v>
       </c>
       <c r="M8" s="177">
         <f>(L8+H8)*1.3228</f>
-        <v>575.88098000000002</v>
+        <v>568.67171999999994</v>
       </c>
       <c r="N8" s="167">
         <f>(E8*(M8+H8))</f>
-        <v>193881.9136</v>
+        <v>191574.95039999997</v>
       </c>
       <c r="O8" s="178">
         <v>5.7</v>
       </c>
       <c r="P8" s="167">
         <f t="shared" si="1"/>
-        <v>3282.5215860000003</v>
+        <v>3241.4288039999997</v>
       </c>
       <c r="Q8" s="167">
         <f t="shared" si="2"/>
-        <v>1050406.9075200001</v>
+        <v>1037257.2172799999</v>
       </c>
     </row>
     <row r="9" spans="2:20" x14ac:dyDescent="0.25">
@@ -2841,26 +2870,26 @@
       </c>
       <c r="L9" s="177">
         <f>futuros!B2</f>
-        <v>405.35</v>
+        <v>399.9</v>
       </c>
       <c r="M9" s="177">
         <f>(L9+H9)*1.3228</f>
-        <v>575.88098000000002</v>
+        <v>568.67171999999994</v>
       </c>
       <c r="N9" s="167">
         <f>(E9*(M9+H9))</f>
-        <v>193881.9136</v>
+        <v>191574.95039999997</v>
       </c>
       <c r="O9" s="178">
         <v>5.7</v>
       </c>
       <c r="P9" s="167">
         <f t="shared" si="1"/>
-        <v>3282.5215860000003</v>
+        <v>3241.4288039999997</v>
       </c>
       <c r="Q9" s="167">
         <f t="shared" si="2"/>
-        <v>1050406.9075200001</v>
+        <v>1037257.2172799999</v>
       </c>
     </row>
     <row r="10" spans="2:20" x14ac:dyDescent="0.25">
@@ -2897,26 +2926,26 @@
       </c>
       <c r="L10" s="177">
         <f>futuros!B3</f>
-        <v>381.4</v>
+        <v>369.4</v>
       </c>
       <c r="M10" s="177">
         <f>(L10+H10)*1.3228</f>
-        <v>544.19991999999991</v>
+        <v>528.32632000000001</v>
       </c>
       <c r="N10" s="167">
         <f>(E10*(M10+H10))</f>
-        <v>183743.97439999998</v>
+        <v>178664.42240000001</v>
       </c>
       <c r="O10" s="178">
         <v>5.7</v>
       </c>
       <c r="P10" s="167">
         <f t="shared" si="1"/>
-        <v>3101.9395439999994</v>
+        <v>3011.460024</v>
       </c>
       <c r="Q10" s="167">
         <f t="shared" si="2"/>
-        <v>992620.65407999977</v>
+        <v>963667.20767999999</v>
       </c>
     </row>
     <row r="11" spans="2:20" x14ac:dyDescent="0.25">
@@ -2953,26 +2982,26 @@
       </c>
       <c r="L11" s="177">
         <f>futuros!B2</f>
-        <v>405.35</v>
+        <v>399.9</v>
       </c>
       <c r="M11" s="177">
         <f t="shared" ref="M11:M16" si="4">(L11+H11)*1.3228</f>
-        <v>573.23537999999996</v>
+        <v>566.02611999999999</v>
       </c>
       <c r="N11" s="167">
         <f t="shared" ref="N11:N16" si="5">(E11*(M11+H11))</f>
-        <v>192395.3216</v>
+        <v>190088.3584</v>
       </c>
       <c r="O11" s="178">
         <v>5.7</v>
       </c>
       <c r="P11" s="167">
         <f t="shared" si="1"/>
-        <v>3267.4416659999997</v>
+        <v>3226.348884</v>
       </c>
       <c r="Q11" s="167">
         <f t="shared" si="2"/>
-        <v>1045581.3331199999</v>
+        <v>1032431.6428799999</v>
       </c>
     </row>
     <row r="12" spans="2:20" x14ac:dyDescent="0.25">
@@ -3009,26 +3038,26 @@
       </c>
       <c r="L12" s="177">
         <f>futuros!B2</f>
-        <v>405.35</v>
+        <v>399.9</v>
       </c>
       <c r="M12" s="177">
         <f t="shared" si="4"/>
-        <v>573.23537999999996</v>
+        <v>566.02611999999999</v>
       </c>
       <c r="N12" s="167">
         <f t="shared" si="5"/>
-        <v>192395.3216</v>
+        <v>190088.3584</v>
       </c>
       <c r="O12" s="178">
         <v>5.7</v>
       </c>
       <c r="P12" s="167">
         <f t="shared" si="1"/>
-        <v>3267.4416659999997</v>
+        <v>3226.348884</v>
       </c>
       <c r="Q12" s="167">
         <f t="shared" si="2"/>
-        <v>1045581.3331199999</v>
+        <v>1032431.6428799999</v>
       </c>
     </row>
     <row r="13" spans="2:20" s="166" customFormat="1" x14ac:dyDescent="0.25">
@@ -3065,26 +3094,26 @@
       </c>
       <c r="L13" s="177">
         <f>futuros!B3</f>
-        <v>381.4</v>
+        <v>369.4</v>
       </c>
       <c r="M13" s="177">
         <f t="shared" si="4"/>
-        <v>541.55431999999996</v>
+        <v>525.68071999999995</v>
       </c>
       <c r="N13" s="167">
         <f t="shared" si="5"/>
-        <v>182257.3824</v>
+        <v>177177.83039999998</v>
       </c>
       <c r="O13" s="178">
         <v>5.7</v>
       </c>
       <c r="P13" s="167">
         <f t="shared" si="1"/>
-        <v>3086.8596239999997</v>
+        <v>2996.3801039999998</v>
       </c>
       <c r="Q13" s="167">
         <f t="shared" si="2"/>
-        <v>987795.07967999997</v>
+        <v>958841.63327999995</v>
       </c>
       <c r="R13" s="163"/>
       <c r="S13" s="163"/>
@@ -3124,26 +3153,26 @@
       </c>
       <c r="L14" s="177">
         <f>futuros!B4</f>
-        <v>363.85</v>
+        <v>351.85</v>
       </c>
       <c r="M14" s="177">
         <f t="shared" si="4"/>
-        <v>518.33918000000006</v>
+        <v>502.46558000000005</v>
       </c>
       <c r="N14" s="167">
         <f t="shared" si="5"/>
-        <v>174828.53760000001</v>
+        <v>169748.98560000001</v>
       </c>
       <c r="O14" s="178">
         <v>5.7</v>
       </c>
       <c r="P14" s="167">
         <f t="shared" si="1"/>
-        <v>2954.5333260000002</v>
+        <v>2864.0538060000003</v>
       </c>
       <c r="Q14" s="167">
         <f t="shared" si="2"/>
-        <v>945450.6643200001</v>
+        <v>916497.21792000008</v>
       </c>
       <c r="R14" s="163"/>
       <c r="S14" s="163"/>
@@ -3183,26 +3212,26 @@
       </c>
       <c r="L15" s="177">
         <f>futuros!B3</f>
-        <v>381.4</v>
+        <v>369.4</v>
       </c>
       <c r="M15" s="177">
         <f t="shared" si="4"/>
-        <v>475.41431999999998</v>
+        <v>459.54071999999996</v>
       </c>
       <c r="N15" s="167">
         <f t="shared" si="5"/>
-        <v>145092.58239999998</v>
+        <v>140013.03039999999</v>
       </c>
       <c r="O15" s="178">
         <v>5.7</v>
       </c>
       <c r="P15" s="167">
         <f t="shared" si="1"/>
-        <v>2709.8616240000001</v>
+        <v>2619.3821039999998</v>
       </c>
       <c r="Q15" s="167">
         <f t="shared" si="2"/>
-        <v>867155.7196800001</v>
+        <v>838202.27327999996</v>
       </c>
       <c r="R15" s="163"/>
       <c r="S15" s="163"/>
@@ -3242,26 +3271,26 @@
       </c>
       <c r="L16" s="177">
         <f>futuros!B2</f>
-        <v>405.35</v>
+        <v>399.9</v>
       </c>
       <c r="M16" s="177">
         <f t="shared" si="4"/>
-        <v>606.30538000000001</v>
+        <v>599.09611999999993</v>
       </c>
       <c r="N16" s="167">
         <f t="shared" si="5"/>
-        <v>210977.72159999999</v>
+        <v>208670.75839999999</v>
       </c>
       <c r="O16" s="178">
         <v>5.7</v>
       </c>
       <c r="P16" s="167">
         <f t="shared" si="1"/>
-        <v>3455.940666</v>
+        <v>3414.8478839999998</v>
       </c>
       <c r="Q16" s="167">
         <f t="shared" si="2"/>
-        <v>1105901.01312</v>
+        <v>1092751.3228799999</v>
       </c>
       <c r="R16" s="163"/>
       <c r="S16" s="163"/>
@@ -3388,20 +3417,20 @@
       <c r="L19" s="179"/>
       <c r="M19" s="182">
         <f>N19/E19</f>
-        <v>565.84341428571418</v>
+        <v>557.70346999999992</v>
       </c>
       <c r="N19" s="183">
         <f>SUM(N5:N18)</f>
-        <v>2534978.4959999993</v>
+        <v>2498511.5455999998</v>
       </c>
       <c r="O19" s="184"/>
       <c r="P19" s="185">
         <f>Q19/E19</f>
-        <v>3106.0146042857141</v>
+        <v>3059.6169218571426</v>
       </c>
       <c r="Q19" s="183">
         <f>SUM(Q5:Q18)</f>
-        <v>13914945.427199999</v>
+        <v>13707083.80992</v>
       </c>
     </row>
     <row r="20" spans="2:17" x14ac:dyDescent="0.25">
@@ -3524,7 +3553,7 @@
       </c>
       <c r="I25" s="177">
         <f>futuros!B2</f>
-        <v>405.35</v>
+        <v>399.9</v>
       </c>
       <c r="K25" s="163"/>
       <c r="L25" s="197">
@@ -3533,7 +3562,7 @@
       <c r="M25" s="163"/>
       <c r="N25" s="198">
         <f>(H25-I25)*1.3228*D25</f>
-        <v>-1502453.4132510002</v>
+        <v>-1466277.7070339997</v>
       </c>
       <c r="O25" s="178">
         <f>O5</f>
@@ -3541,7 +3570,7 @@
       </c>
       <c r="Q25" s="198">
         <f>N25*O25</f>
-        <v>-8563984.4555307012</v>
+        <v>-8357782.9300937988</v>
       </c>
     </row>
     <row r="26" spans="2:17" x14ac:dyDescent="0.25">
@@ -3566,7 +3595,7 @@
       </c>
       <c r="I26" s="177">
         <f>I25</f>
-        <v>405.35</v>
+        <v>399.9</v>
       </c>
       <c r="K26" s="163"/>
       <c r="L26" s="197">
@@ -3575,7 +3604,7 @@
       <c r="M26" s="163"/>
       <c r="N26" s="198">
         <f>(H26-I26)*1.3228*D26</f>
-        <v>-549301.46354999999</v>
+        <v>-534994.68707999995</v>
       </c>
       <c r="O26" s="178">
         <f>O6</f>
@@ -3583,7 +3612,7 @@
       </c>
       <c r="Q26" s="198">
         <f t="shared" ref="Q26:Q27" si="6">N26*O26</f>
-        <v>-3131018.3422349999</v>
+        <v>-3049469.7163559999</v>
       </c>
     </row>
     <row r="27" spans="2:17" x14ac:dyDescent="0.25">
@@ -3607,7 +3636,7 @@
       </c>
       <c r="I27" s="200">
         <f>I26</f>
-        <v>405.35</v>
+        <v>399.9</v>
       </c>
       <c r="K27" s="163"/>
       <c r="L27" s="197">
@@ -3616,7 +3645,7 @@
       <c r="M27" s="163"/>
       <c r="N27" s="198">
         <f>(H27-I27)*1.3228*D27</f>
-        <v>-728048.04118200007</v>
+        <v>-706383.49395599996</v>
       </c>
       <c r="O27" s="178">
         <f>O7</f>
@@ -3624,7 +3653,7 @@
       </c>
       <c r="Q27" s="198">
         <f t="shared" si="6"/>
-        <v>-4149873.8347374005</v>
+        <v>-4026385.9155492</v>
       </c>
     </row>
     <row r="28" spans="2:17" x14ac:dyDescent="0.25">
@@ -3647,13 +3676,13 @@
       <c r="M28" s="202"/>
       <c r="N28" s="202">
         <f>SUM(N25:N27)</f>
-        <v>-2779802.9179830002</v>
+        <v>-2707655.8880699999</v>
       </c>
       <c r="O28" s="201"/>
       <c r="P28" s="201"/>
       <c r="Q28" s="202">
         <f>SUM(Q25:Q27)</f>
-        <v>-15844876.632503103</v>
+        <v>-15433638.561998999</v>
       </c>
     </row>
     <row r="29" spans="2:17" x14ac:dyDescent="0.25">
@@ -4337,7 +4366,7 @@
       </c>
       <c r="I57" s="177">
         <f>futuros!B7</f>
-        <v>328.9</v>
+        <v>319.5</v>
       </c>
       <c r="K57" s="178">
         <f>O8</f>
@@ -4349,7 +4378,7 @@
       <c r="M57" s="198"/>
       <c r="N57" s="198">
         <f>(H57-I57)*1.3228*D57</f>
-        <v>-94840.990019999881</v>
+        <v>-63114.822539999957</v>
       </c>
       <c r="O57" s="166">
         <f>O25</f>
@@ -4357,7 +4386,7 @@
       </c>
       <c r="Q57" s="198">
         <f>N57*O57</f>
-        <v>-540593.64311399939</v>
+        <v>-359754.48847799975</v>
       </c>
     </row>
     <row r="58" spans="2:17" x14ac:dyDescent="0.25">
@@ -4381,7 +4410,7 @@
       </c>
       <c r="I58" s="177">
         <f>I57</f>
-        <v>328.9</v>
+        <v>319.5</v>
       </c>
       <c r="K58" s="178">
         <f>O9</f>
@@ -4393,7 +4422,7 @@
       <c r="M58" s="198"/>
       <c r="N58" s="198">
         <f>(H58-I58)*1.3228*D58</f>
-        <v>-19500.7176</v>
+        <v>8700.320159999932</v>
       </c>
       <c r="O58" s="166">
         <f>O26</f>
@@ -4401,7 +4430,7 @@
       </c>
       <c r="Q58" s="198">
         <f>N58*O58</f>
-        <v>-111154.09032</v>
+        <v>49591.824911999611</v>
       </c>
     </row>
     <row r="59" spans="2:17" x14ac:dyDescent="0.25">
@@ -4424,13 +4453,13 @@
       <c r="M59" s="201"/>
       <c r="N59" s="202">
         <f>SUM(N56:N58)</f>
-        <v>-114341.70761999988</v>
+        <v>-54414.502380000027</v>
       </c>
       <c r="O59" s="201"/>
       <c r="P59" s="201"/>
       <c r="Q59" s="202">
         <f>SUM(Q56:Q58)</f>
-        <v>-651747.73343399935</v>
+        <v>-310162.66356600012</v>
       </c>
     </row>
     <row r="64" spans="2:17" x14ac:dyDescent="0.25">
@@ -4568,11 +4597,11 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E433115D-D1E6-C943-B0EC-2BC4BD1B44BA}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:T74"/>
+  <dimension ref="A1:T78"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="N49" sqref="N49"/>
+      <pane ySplit="1" topLeftCell="A31" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="Q75" sqref="Q75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0.2"/>
@@ -6963,6 +6992,17 @@
         <f>M46*E46</f>
         <v>161600</v>
       </c>
+      <c r="O46" s="160">
+        <v>5.3209999999999997</v>
+      </c>
+      <c r="P46" s="3">
+        <f>M46*O46</f>
+        <v>2687.105</v>
+      </c>
+      <c r="Q46" s="3">
+        <f>P46*E46</f>
+        <v>859873.6</v>
+      </c>
     </row>
     <row r="47" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A47" s="2">
@@ -8061,186 +8101,358 @@
       <c r="A71" s="2">
         <v>2025</v>
       </c>
+      <c r="B71" s="2" t="s">
+        <v>357</v>
+      </c>
       <c r="C71" s="2" t="s">
         <v>89</v>
       </c>
       <c r="D71" s="159" t="s">
-        <v>331</v>
+        <v>24</v>
       </c>
       <c r="E71" s="213">
-        <f>2400-E66-E65-E67-E69-E70</f>
-        <v>2350</v>
+        <v>3</v>
       </c>
       <c r="F71" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G71" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="H71" s="2">
-        <v>0</v>
+        <v>37</v>
       </c>
       <c r="I71" s="158">
-        <v>45992</v>
+        <v>45979</v>
       </c>
       <c r="J71" s="2">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="K71" s="158">
-        <v>45992</v>
-      </c>
-      <c r="L71" s="158"/>
+        <f>I71</f>
+        <v>45979</v>
+      </c>
+      <c r="L71" s="155"/>
+      <c r="M71" s="155"/>
       <c r="N71" s="3"/>
       <c r="P71" s="3">
-        <v>1600</v>
+        <v>2650</v>
       </c>
       <c r="Q71" s="3">
         <f>E71*P71</f>
-        <v>3760000</v>
+        <v>7950</v>
       </c>
     </row>
     <row r="72" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A72" s="2">
         <v>2025</v>
       </c>
+      <c r="B72" s="2" t="s">
+        <v>358</v>
+      </c>
       <c r="C72" s="2" t="s">
-        <v>42</v>
+        <v>89</v>
       </c>
       <c r="D72" s="159" t="s">
-        <v>331</v>
-      </c>
-      <c r="E72" s="2">
-        <f>0.7*8000-4800-E73-E74-E68</f>
-        <v>286.49999999999994</v>
+        <v>24</v>
+      </c>
+      <c r="E72" s="213">
+        <v>12</v>
       </c>
       <c r="F72" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G72" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="H72" s="2">
-        <v>0</v>
+        <v>37</v>
       </c>
       <c r="I72" s="158">
-        <v>45992</v>
+        <v>46023</v>
       </c>
       <c r="J72" s="2">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="K72" s="158">
-        <v>45992</v>
-      </c>
-      <c r="L72" s="155">
-        <v>325</v>
-      </c>
-      <c r="M72" s="155">
-        <f>(L72+H72)*1.3228</f>
-        <v>429.90999999999997</v>
-      </c>
-      <c r="N72" s="3">
-        <f>M72*E72</f>
-        <v>123169.21499999997</v>
+        <f t="shared" ref="K72:K74" si="7">I72</f>
+        <v>46023</v>
+      </c>
+      <c r="L72" s="155"/>
+      <c r="M72" s="155"/>
+      <c r="N72" s="3"/>
+      <c r="P72" s="3">
+        <v>2650</v>
+      </c>
+      <c r="Q72" s="3">
+        <f>E72*P72</f>
+        <v>31800</v>
       </c>
     </row>
     <row r="73" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A73" s="2">
         <v>2025</v>
       </c>
+      <c r="B73" s="2" t="s">
+        <v>359</v>
+      </c>
       <c r="C73" s="2" t="s">
-        <v>42</v>
+        <v>89</v>
       </c>
       <c r="D73" s="159" t="s">
-        <v>331</v>
-      </c>
-      <c r="E73" s="2">
-        <v>64.5</v>
+        <v>257</v>
+      </c>
+      <c r="E73" s="213">
+        <v>30</v>
       </c>
       <c r="F73" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G73" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="H73" s="2">
-        <v>0</v>
+        <v>35</v>
       </c>
       <c r="I73" s="158">
-        <v>45992</v>
+        <v>45986</v>
       </c>
       <c r="J73" s="2">
         <v>1</v>
       </c>
       <c r="K73" s="158">
-        <v>45992</v>
-      </c>
-      <c r="L73" s="155">
-        <v>330</v>
-      </c>
-      <c r="M73" s="155">
-        <f>(L73+H73)*1.3228</f>
-        <v>436.524</v>
-      </c>
-      <c r="N73" s="3">
-        <f>M73*E73</f>
-        <v>28155.797999999999</v>
+        <f t="shared" si="7"/>
+        <v>45986</v>
+      </c>
+      <c r="L73" s="155"/>
+      <c r="M73" s="155"/>
+      <c r="N73" s="3"/>
+      <c r="P73" s="3">
+        <v>2650</v>
+      </c>
+      <c r="Q73" s="3">
+        <f>E73*P73</f>
+        <v>79500</v>
       </c>
     </row>
     <row r="74" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A74" s="2">
         <v>2025</v>
       </c>
+      <c r="B74" s="2" t="s">
+        <v>360</v>
+      </c>
       <c r="C74" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="D74" s="159" t="s">
+        <v>361</v>
+      </c>
+      <c r="E74" s="213">
+        <v>5</v>
+      </c>
+      <c r="F74" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="G74" s="2" t="s">
+        <v>290</v>
+      </c>
+      <c r="I74" s="158">
+        <v>45979</v>
+      </c>
+      <c r="J74" s="2">
+        <v>1</v>
+      </c>
+      <c r="K74" s="158">
+        <f t="shared" si="7"/>
+        <v>45979</v>
+      </c>
+      <c r="L74" s="155"/>
+      <c r="M74" s="155"/>
+      <c r="N74" s="3"/>
+      <c r="P74" s="3">
+        <v>2300</v>
+      </c>
+      <c r="Q74" s="3">
+        <f>E74*P74</f>
+        <v>11500</v>
+      </c>
+    </row>
+    <row r="75" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A75" s="2">
+        <v>2025</v>
+      </c>
+      <c r="C75" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="D75" s="159" t="s">
+        <v>331</v>
+      </c>
+      <c r="E75" s="213">
+        <f>2400-E66-E65-E67-E69-E70-E71-E72-E73-E74</f>
+        <v>2300</v>
+      </c>
+      <c r="F75" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="G75" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="H75" s="2">
+        <v>0</v>
+      </c>
+      <c r="I75" s="158">
+        <v>45992</v>
+      </c>
+      <c r="J75" s="2">
+        <v>4</v>
+      </c>
+      <c r="K75" s="158">
+        <v>45992</v>
+      </c>
+      <c r="L75" s="158"/>
+      <c r="N75" s="3"/>
+      <c r="P75" s="3">
+        <v>1600</v>
+      </c>
+      <c r="Q75" s="3">
+        <f>E75*P75</f>
+        <v>3680000</v>
+      </c>
+    </row>
+    <row r="76" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A76" s="2">
+        <v>2025</v>
+      </c>
+      <c r="C76" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="D74" s="159" t="s">
+      <c r="D76" s="159" t="s">
         <v>331</v>
       </c>
-      <c r="E74" s="213">
+      <c r="E76" s="2">
+        <f>0.7*8000-4800-E77-E78-E68</f>
+        <v>286.49999999999994</v>
+      </c>
+      <c r="F76" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="G76" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="H76" s="2">
+        <v>0</v>
+      </c>
+      <c r="I76" s="158">
+        <v>45992</v>
+      </c>
+      <c r="J76" s="2">
+        <v>4</v>
+      </c>
+      <c r="K76" s="158">
+        <v>45992</v>
+      </c>
+      <c r="L76" s="155">
+        <v>325</v>
+      </c>
+      <c r="M76" s="155">
+        <f>(L76+H76)*1.3228</f>
+        <v>429.90999999999997</v>
+      </c>
+      <c r="N76" s="3">
+        <f>M76*E76</f>
+        <v>123169.21499999997</v>
+      </c>
+    </row>
+    <row r="77" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A77" s="2">
+        <v>2025</v>
+      </c>
+      <c r="C77" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="D77" s="159" t="s">
+        <v>331</v>
+      </c>
+      <c r="E77" s="2">
+        <v>64.5</v>
+      </c>
+      <c r="F77" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="G77" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="H77" s="2">
+        <v>0</v>
+      </c>
+      <c r="I77" s="158">
+        <v>45992</v>
+      </c>
+      <c r="J77" s="2">
+        <v>1</v>
+      </c>
+      <c r="K77" s="158">
+        <v>45992</v>
+      </c>
+      <c r="L77" s="155">
+        <v>330</v>
+      </c>
+      <c r="M77" s="155">
+        <f>(L77+H77)*1.3228</f>
+        <v>436.524</v>
+      </c>
+      <c r="N77" s="3">
+        <f>M77*E77</f>
+        <v>28155.797999999999</v>
+      </c>
+    </row>
+    <row r="78" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A78" s="2">
+        <v>2025</v>
+      </c>
+      <c r="C78" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="D78" s="159" t="s">
+        <v>331</v>
+      </c>
+      <c r="E78" s="213">
         <f>449-E68</f>
         <v>115.66666666666669</v>
       </c>
-      <c r="F74" s="2" t="s">
+      <c r="F78" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="G74" s="2" t="s">
+      <c r="G78" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="H74" s="2">
+      <c r="H78" s="2">
         <v>0</v>
       </c>
-      <c r="I74" s="158">
+      <c r="I78" s="158">
         <v>46082</v>
       </c>
-      <c r="J74" s="2">
+      <c r="J78" s="2">
         <v>1</v>
       </c>
-      <c r="K74" s="158">
+      <c r="K78" s="158">
         <v>46082</v>
       </c>
-      <c r="L74" s="155">
+      <c r="L78" s="155">
         <v>325</v>
       </c>
-      <c r="M74" s="155">
-        <f>(L74+H74)*1.3228</f>
+      <c r="M78" s="155">
+        <f>(L78+H78)*1.3228</f>
         <v>429.90999999999997</v>
       </c>
-      <c r="N74" s="3">
-        <f>M74*E74</f>
+      <c r="N78" s="3">
+        <f>M78*E78</f>
         <v>49726.256666666668</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:Q74" xr:uid="{E433115D-D1E6-C943-B0EC-2BC4BD1B44BA}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:Q74">
-      <sortCondition ref="B1:B74"/>
+  <autoFilter ref="A1:Q78" xr:uid="{E433115D-D1E6-C943-B0EC-2BC4BD1B44BA}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:Q78">
+      <sortCondition ref="B1:B78"/>
     </sortState>
   </autoFilter>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
   <ignoredErrors>
-    <ignoredError sqref="Q32" formula="1"/>
+    <ignoredError sqref="Q32 Q46" formula="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
@@ -8273,7 +8485,7 @@
         <v>270</v>
       </c>
       <c r="D1" s="162">
-        <v>45978</v>
+        <v>45985</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -8281,11 +8493,11 @@
         <v>46021</v>
       </c>
       <c r="B2" s="155">
-        <v>405.35</v>
+        <v>399.9</v>
       </c>
       <c r="C2" s="155">
         <f t="shared" ref="C2:C11" si="0">B2*1.3228</f>
-        <v>536.19698000000005</v>
+        <v>528.98771999999997</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -8293,11 +8505,11 @@
         <v>46112</v>
       </c>
       <c r="B3" s="155">
-        <v>381.4</v>
+        <v>369.4</v>
       </c>
       <c r="C3" s="155">
         <f t="shared" si="0"/>
-        <v>504.51591999999994</v>
+        <v>488.64231999999998</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
@@ -8305,11 +8517,11 @@
         <v>46173</v>
       </c>
       <c r="B4" s="155">
-        <v>363.85</v>
+        <v>351.85</v>
       </c>
       <c r="C4" s="155">
         <f t="shared" si="0"/>
-        <v>481.30078000000003</v>
+        <v>465.42718000000002</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
@@ -8317,11 +8529,11 @@
         <v>46231</v>
       </c>
       <c r="B5" s="155">
-        <v>349.65</v>
+        <v>337.35</v>
       </c>
       <c r="C5" s="155">
         <f t="shared" si="0"/>
-        <v>462.51701999999995</v>
+        <v>446.24657999999999</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
@@ -8329,11 +8541,11 @@
         <v>46295</v>
       </c>
       <c r="B6" s="155">
-        <v>336.9</v>
+        <v>326.64999999999998</v>
       </c>
       <c r="C6" s="155">
         <f t="shared" si="0"/>
-        <v>445.65131999999994</v>
+        <v>432.09261999999995</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
@@ -8341,11 +8553,11 @@
         <v>46386</v>
       </c>
       <c r="B7" s="155">
-        <v>328.9</v>
+        <v>319.5</v>
       </c>
       <c r="C7" s="155">
         <f t="shared" si="0"/>
-        <v>435.06891999999993</v>
+        <v>422.63459999999998</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
@@ -8353,11 +8565,11 @@
         <v>46477</v>
       </c>
       <c r="B8" s="155">
-        <v>322.64999999999998</v>
+        <v>315.45</v>
       </c>
       <c r="C8" s="155">
         <f t="shared" si="0"/>
-        <v>426.80141999999995</v>
+        <v>417.27725999999996</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
@@ -8365,11 +8577,11 @@
         <v>46538</v>
       </c>
       <c r="B9" s="155">
-        <v>320.35000000000002</v>
+        <v>312.64999999999998</v>
       </c>
       <c r="C9" s="155">
         <f t="shared" si="0"/>
-        <v>423.75898000000001</v>
+        <v>413.57341999999994</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
@@ -8377,11 +8589,11 @@
         <v>46596</v>
       </c>
       <c r="B10" s="155">
-        <v>316.64999999999998</v>
+        <v>312</v>
       </c>
       <c r="C10" s="155">
         <f t="shared" si="0"/>
-        <v>418.86461999999995</v>
+        <v>412.71359999999999</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
@@ -8389,11 +8601,11 @@
         <v>46660</v>
       </c>
       <c r="B11" s="155">
-        <v>312.75</v>
+        <v>306.14999999999998</v>
       </c>
       <c r="C11" s="155">
         <f t="shared" si="0"/>
-        <v>413.70569999999998</v>
+        <v>404.97521999999998</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
@@ -8401,11 +8613,11 @@
         <v>46751</v>
       </c>
       <c r="B12" s="155">
-        <v>307.5</v>
+        <v>301.3</v>
       </c>
       <c r="C12" s="155">
         <f>B12*1.3228</f>
-        <v>406.76099999999997</v>
+        <v>398.55964</v>
       </c>
     </row>
   </sheetData>
@@ -8416,11 +8628,11 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{435A83C4-FEBA-7F44-BF8C-E9ADE9845E60}">
-  <dimension ref="A1:N28"/>
+  <dimension ref="A1:N31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L18" sqref="L18:L28"/>
+      <selection pane="bottomLeft" activeCell="D22" sqref="D22:D31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -8486,7 +8698,7 @@
         <v>314</v>
       </c>
       <c r="D2" s="213">
-        <f t="shared" ref="D2:D25" si="0">283.5*F2</f>
+        <f t="shared" ref="D2:D27" si="0">283.5*F2</f>
         <v>1304.0999999999999</v>
       </c>
       <c r="E2" s="214" t="s">
@@ -8517,7 +8729,7 @@
         <v>5.2268999999999997</v>
       </c>
       <c r="N2" s="215">
-        <f>IF(I2="",L2*M2,(D2*(G2*I2-H2*M2)*1.3328))</f>
+        <f>M2*L2</f>
         <v>-449484.20503505802</v>
       </c>
     </row>
@@ -8556,14 +8768,14 @@
         <v>45520</v>
       </c>
       <c r="L3" s="215">
-        <f t="shared" ref="L3:L25" si="2">D3*(G3-H3)*1.3228</f>
+        <f t="shared" ref="L3:L27" si="2">D3*(G3-H3)*1.3228</f>
         <v>-10387.882259999997</v>
       </c>
       <c r="M3" s="160">
         <v>5.4650999999999996</v>
       </c>
       <c r="N3" s="215">
-        <f t="shared" ref="N3:N13" si="3">IF(I3="",L3*M3,(D3*(G3*I3-H3*M3)*1.3328))</f>
+        <f t="shared" ref="N3:N18" si="3">M3*L3</f>
         <v>-56770.815339125977</v>
       </c>
     </row>
@@ -8612,7 +8824,7 @@
       </c>
       <c r="N4" s="215">
         <f t="shared" si="3"/>
-        <v>-2515744.9198118164</v>
+        <v>-1902782.0810538542</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.2">
@@ -8660,7 +8872,7 @@
       </c>
       <c r="N5" s="215">
         <f t="shared" si="3"/>
-        <v>-4971063.7003114084</v>
+        <v>-4095054.4599586446</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.2">
@@ -9075,7 +9287,7 @@
         <v>5.883</v>
       </c>
       <c r="N14" s="215">
-        <f>IF(I14="",L14*M14,(D14*(G14*I14-H14*M14)*1.3328))</f>
+        <f t="shared" si="3"/>
         <v>-331022.26474607555</v>
       </c>
     </row>
@@ -9087,7 +9299,7 @@
         <v>325</v>
       </c>
       <c r="C15" s="2">
-        <f>C17</f>
+        <f>C18</f>
         <v>47616</v>
       </c>
       <c r="D15" s="213">
@@ -9099,7 +9311,7 @@
         <v>5</v>
       </c>
       <c r="G15" s="155">
-        <f>G17</f>
+        <f>G18</f>
         <v>222.2</v>
       </c>
       <c r="H15" s="155">
@@ -9121,289 +9333,310 @@
         <v>5.4676999999999998</v>
       </c>
       <c r="N15" s="215">
-        <f t="shared" ref="N15:N16" si="6">IF(I15="",L15*M15,(D15*(G15*I15-H15*M15)*1.3328))</f>
+        <f t="shared" si="3"/>
         <v>-592583.79378114012</v>
       </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>325</v>
       </c>
       <c r="C16" s="2">
-        <v>25852</v>
+        <v>29487615</v>
       </c>
       <c r="D16" s="213">
-        <f t="shared" si="0"/>
-        <v>5017.95</v>
-      </c>
-      <c r="E16" s="213"/>
+        <f>283.5*F16</f>
+        <v>283.5</v>
+      </c>
+      <c r="E16" s="213" t="s">
+        <v>344</v>
+      </c>
       <c r="F16" s="155">
-        <v>17.7</v>
+        <v>1</v>
       </c>
       <c r="G16" s="155">
-        <v>179</v>
+        <v>330</v>
       </c>
       <c r="H16" s="155">
-        <v>434</v>
-      </c>
-      <c r="I16" s="228"/>
+        <v>298.60000000000002</v>
+      </c>
+      <c r="I16" s="2"/>
       <c r="J16" s="162">
         <v>45973</v>
       </c>
       <c r="K16" s="162">
+        <v>45868</v>
+      </c>
+      <c r="L16" s="215">
+        <f>D16*(G16-H16)*1.3228</f>
+        <v>11775.433319999993</v>
+      </c>
+      <c r="M16" s="222">
+        <f>N16/L16</f>
+        <v>5.3660513615816594</v>
+      </c>
+      <c r="N16" s="215">
+        <f>63187.58</f>
+        <v>63187.58</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A17" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>325</v>
+      </c>
+      <c r="C17" s="2">
+        <v>25852</v>
+      </c>
+      <c r="D17" s="213">
+        <f t="shared" si="0"/>
+        <v>5017.95</v>
+      </c>
+      <c r="E17" s="213"/>
+      <c r="F17" s="155">
+        <v>17.7</v>
+      </c>
+      <c r="G17" s="155">
+        <v>179</v>
+      </c>
+      <c r="H17" s="155">
+        <v>434</v>
+      </c>
+      <c r="I17" s="221"/>
+      <c r="J17" s="162">
+        <v>45973</v>
+      </c>
+      <c r="K17" s="162">
         <v>45953</v>
       </c>
-      <c r="L16" s="215">
+      <c r="L17" s="215">
         <f t="shared" si="2"/>
         <v>-1692624.7863</v>
       </c>
-      <c r="M16" s="160">
+      <c r="M17" s="160">
         <v>5.3811</v>
       </c>
-      <c r="N16" s="215">
-        <f t="shared" si="6"/>
+      <c r="N17" s="215">
+        <f t="shared" si="3"/>
         <v>-9108183.2375589311</v>
       </c>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A17" s="209" t="s">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A18" s="1" t="s">
         <v>295</v>
       </c>
-      <c r="B17" s="209" t="s">
+      <c r="B18" s="1" t="s">
         <v>325</v>
       </c>
-      <c r="C17" s="208">
+      <c r="C18" s="2">
         <v>47616</v>
       </c>
-      <c r="D17" s="216">
-        <f>283.5*F17</f>
+      <c r="D18" s="213">
+        <f>283.5*F18</f>
         <v>1587.6</v>
       </c>
-      <c r="E17" s="216"/>
-      <c r="F17" s="217">
+      <c r="E18" s="213"/>
+      <c r="F18" s="155">
         <f>10.6-5</f>
         <v>5.6</v>
       </c>
-      <c r="G17" s="217">
+      <c r="G18" s="155">
         <v>222.2</v>
       </c>
-      <c r="H17" s="217">
+      <c r="H18" s="155">
         <v>434</v>
       </c>
-      <c r="I17" s="228"/>
-      <c r="J17" s="219">
+      <c r="I18" s="221"/>
+      <c r="J18" s="162">
         <v>45980</v>
       </c>
-      <c r="K17" s="219">
+      <c r="K18" s="162">
         <v>45953</v>
       </c>
-      <c r="L17" s="220">
-        <f>D17*(G17-H17)*1.3228</f>
+      <c r="L18" s="215">
+        <f>D18*(G18-H18)*1.3228</f>
         <v>-444796.36790399998</v>
       </c>
-      <c r="M17" s="218">
+      <c r="M18" s="160">
         <v>5.3811</v>
       </c>
-      <c r="N17" s="220">
-        <f>IF(I17="",L17*M17,(D17*(G17*I17-H17*M17)*1.3328))</f>
+      <c r="N18" s="215">
+        <f t="shared" si="3"/>
         <v>-2393493.7353282142</v>
       </c>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A18" s="221" t="s">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A19" s="1" t="s">
         <v>296</v>
       </c>
-      <c r="B18" s="221" t="s">
-        <v>330</v>
-      </c>
-      <c r="C18" s="222">
+      <c r="B19" s="1" t="s">
+        <v>325</v>
+      </c>
+      <c r="C19" s="2">
         <v>507931308</v>
       </c>
-      <c r="D18" s="223">
+      <c r="D19" s="213">
         <f t="shared" si="0"/>
         <v>1984.5</v>
       </c>
-      <c r="E18" s="223"/>
-      <c r="F18" s="224">
+      <c r="E19" s="213"/>
+      <c r="F19" s="155">
         <f>262500/37500</f>
         <v>7</v>
       </c>
-      <c r="G18" s="224">
+      <c r="G19" s="155">
         <v>196.1</v>
       </c>
-      <c r="H18" s="224">
-        <f>futuros!B2</f>
-        <v>405.35</v>
-      </c>
-      <c r="I18" s="222"/>
-      <c r="J18" s="225">
+      <c r="H19" s="155">
+        <v>404.2</v>
+      </c>
+      <c r="I19" s="2"/>
+      <c r="J19" s="162">
         <v>45973</v>
       </c>
-      <c r="K18" s="225"/>
-      <c r="L18" s="226">
+      <c r="K19" s="162">
+        <v>45973</v>
+      </c>
+      <c r="L19" s="215">
         <f t="shared" si="2"/>
-        <v>-549301.4635500001</v>
-      </c>
-      <c r="M18" s="227"/>
-      <c r="N18" s="226"/>
-    </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A19" s="209" t="s">
-        <v>296</v>
-      </c>
-      <c r="B19" s="209" t="s">
-        <v>329</v>
-      </c>
-      <c r="C19" s="208">
-        <v>29487615</v>
-      </c>
-      <c r="D19" s="216">
-        <f t="shared" si="0"/>
-        <v>1984.5</v>
-      </c>
-      <c r="E19" s="216" t="s">
-        <v>344</v>
-      </c>
-      <c r="F19" s="217">
-        <f>262500/37500</f>
-        <v>7</v>
-      </c>
-      <c r="G19" s="217">
-        <v>330</v>
-      </c>
-      <c r="H19" s="217">
-        <f>futuros!B2</f>
-        <v>405.35</v>
-      </c>
-      <c r="I19" s="208"/>
-      <c r="J19" s="219">
-        <v>45973</v>
-      </c>
-      <c r="K19" s="219"/>
-      <c r="L19" s="220">
-        <f t="shared" si="2"/>
-        <v>-197801.02881000005</v>
-      </c>
-      <c r="M19" s="218"/>
-      <c r="N19" s="220"/>
+        <v>-546282.60245999997</v>
+      </c>
+      <c r="M19" s="160">
+        <v>5.3754999999999997</v>
+      </c>
+      <c r="N19" s="215">
+        <v>-2923513.53</v>
+      </c>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
         <v>296</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="C20" s="2">
-        <v>29487625</v>
+        <v>29487615</v>
       </c>
       <c r="D20" s="213">
         <f t="shared" si="0"/>
-        <v>1984.5</v>
+        <v>1701</v>
       </c>
       <c r="E20" s="213" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="F20" s="155">
-        <f>262500/37500</f>
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G20" s="155">
-        <v>325</v>
+        <v>330</v>
       </c>
       <c r="H20" s="155">
-        <f>futuros!B3</f>
-        <v>381.4</v>
+        <v>403.65</v>
       </c>
       <c r="I20" s="2"/>
       <c r="J20" s="162">
-        <v>46063</v>
-      </c>
-      <c r="K20" s="162"/>
+        <v>45973</v>
+      </c>
+      <c r="K20" s="162">
+        <v>45973</v>
+      </c>
       <c r="L20" s="215">
         <f t="shared" si="2"/>
-        <v>-148055.44823999994</v>
-      </c>
-      <c r="M20" s="160"/>
-      <c r="N20" s="215"/>
+        <v>-165718.59821999996</v>
+      </c>
+      <c r="M20" s="160">
+        <v>5.2885</v>
+      </c>
+      <c r="N20" s="215">
+        <v>-876370.55</v>
+      </c>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A21" s="1" t="s">
+      <c r="A21" s="209" t="s">
         <v>296</v>
       </c>
-      <c r="B21" s="1" t="s">
-        <v>330</v>
-      </c>
-      <c r="C21" s="2">
-        <v>28133721</v>
-      </c>
-      <c r="D21" s="213">
-        <f t="shared" si="0"/>
-        <v>2551.5</v>
-      </c>
-      <c r="E21" s="213"/>
-      <c r="F21" s="155">
-        <f>337500/37500</f>
-        <v>9</v>
-      </c>
-      <c r="G21" s="155">
-        <v>300.8</v>
-      </c>
-      <c r="H21" s="155">
-        <f>futuros!B7</f>
-        <v>328.9</v>
-      </c>
-      <c r="I21" s="2"/>
-      <c r="J21" s="162">
-        <v>46345</v>
-      </c>
-      <c r="K21" s="162"/>
-      <c r="L21" s="215">
+      <c r="B21" s="209" t="s">
+        <v>325</v>
+      </c>
+      <c r="C21" s="208">
+        <v>29487625</v>
+      </c>
+      <c r="D21" s="216">
+        <f t="shared" si="0"/>
+        <v>283.5</v>
+      </c>
+      <c r="E21" s="216"/>
+      <c r="F21" s="217">
+        <v>1</v>
+      </c>
+      <c r="G21" s="217">
+        <v>325</v>
+      </c>
+      <c r="H21" s="217">
+        <v>384.6</v>
+      </c>
+      <c r="I21" s="208"/>
+      <c r="J21" s="219">
+        <v>46063</v>
+      </c>
+      <c r="K21" s="219">
+        <v>45979</v>
+      </c>
+      <c r="L21" s="220">
         <f t="shared" si="2"/>
-        <v>-94840.990019999881</v>
-      </c>
-      <c r="M21" s="160"/>
-      <c r="N21" s="215"/>
+        <v>-22350.822480000006</v>
+      </c>
+      <c r="M21" s="218">
+        <v>5.2641852489000645</v>
+      </c>
+      <c r="N21" s="220">
+        <v>-117658.87</v>
+      </c>
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A22" s="1" t="s">
+      <c r="A22" s="223" t="s">
         <v>296</v>
       </c>
-      <c r="B22" s="1" t="s">
-        <v>330</v>
-      </c>
-      <c r="C22" s="2">
-        <v>28594897</v>
-      </c>
-      <c r="D22" s="213">
-        <f t="shared" si="0"/>
-        <v>2268</v>
-      </c>
-      <c r="E22" s="213"/>
-      <c r="F22" s="155">
-        <v>8</v>
-      </c>
-      <c r="G22" s="155">
-        <v>322.39999999999998</v>
-      </c>
-      <c r="H22" s="155">
-        <f>futuros!B7</f>
-        <v>328.9</v>
-      </c>
-      <c r="I22" s="2"/>
-      <c r="J22" s="162">
-        <v>46345</v>
-      </c>
-      <c r="K22" s="162"/>
-      <c r="L22" s="215">
+      <c r="B22" s="223" t="s">
+        <v>329</v>
+      </c>
+      <c r="C22" s="224">
+        <v>29487625</v>
+      </c>
+      <c r="D22" s="225">
+        <f t="shared" si="0"/>
+        <v>1701</v>
+      </c>
+      <c r="E22" s="225" t="s">
+        <v>345</v>
+      </c>
+      <c r="F22" s="226">
+        <v>6</v>
+      </c>
+      <c r="G22" s="226">
+        <v>325</v>
+      </c>
+      <c r="H22" s="226">
+        <f>futuros!B3</f>
+        <v>369.4</v>
+      </c>
+      <c r="I22" s="224"/>
+      <c r="J22" s="227">
+        <v>46063</v>
+      </c>
+      <c r="K22" s="227"/>
+      <c r="L22" s="228">
         <f t="shared" si="2"/>
-        <v>-19500.7176</v>
-      </c>
-      <c r="M22" s="160"/>
-      <c r="N22" s="215"/>
+        <v>-99903.676319999955</v>
+      </c>
+      <c r="M22" s="229"/>
+      <c r="N22" s="228"/>
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
@@ -9413,22 +9646,23 @@
         <v>330</v>
       </c>
       <c r="C23" s="2">
-        <v>29340843</v>
+        <v>28133721</v>
       </c>
       <c r="D23" s="213">
         <f t="shared" si="0"/>
-        <v>2268</v>
+        <v>2551.5</v>
       </c>
       <c r="E23" s="213"/>
       <c r="F23" s="155">
-        <v>8</v>
+        <f>337500/37500</f>
+        <v>9</v>
       </c>
       <c r="G23" s="155">
-        <v>307.2</v>
+        <v>300.8</v>
       </c>
       <c r="H23" s="155">
         <f>futuros!B7</f>
-        <v>328.9</v>
+        <v>319.5</v>
       </c>
       <c r="I23" s="2"/>
       <c r="J23" s="162">
@@ -9437,48 +9671,47 @@
       <c r="K23" s="162"/>
       <c r="L23" s="215">
         <f t="shared" si="2"/>
-        <v>-65102.395679999965</v>
+        <v>-63114.822539999965</v>
       </c>
       <c r="M23" s="160"/>
       <c r="N23" s="215"/>
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A24" s="209" t="s">
+      <c r="A24" s="1" t="s">
         <v>296</v>
       </c>
-      <c r="B24" s="209" t="s">
+      <c r="B24" s="1" t="s">
         <v>330</v>
       </c>
-      <c r="C24" s="208">
-        <v>29487626</v>
-      </c>
-      <c r="D24" s="216">
-        <f t="shared" si="0"/>
-        <v>7938</v>
-      </c>
-      <c r="E24" s="216"/>
-      <c r="F24" s="217">
-        <f>1050000/37500</f>
-        <v>28</v>
-      </c>
-      <c r="G24" s="217">
-        <v>288</v>
-      </c>
-      <c r="H24" s="217">
+      <c r="C24" s="2">
+        <v>28594897</v>
+      </c>
+      <c r="D24" s="213">
+        <f t="shared" si="0"/>
+        <v>2268</v>
+      </c>
+      <c r="E24" s="213"/>
+      <c r="F24" s="155">
+        <v>8</v>
+      </c>
+      <c r="G24" s="155">
+        <v>322.39999999999998</v>
+      </c>
+      <c r="H24" s="155">
         <f>futuros!B7</f>
-        <v>328.9</v>
-      </c>
-      <c r="I24" s="208"/>
-      <c r="J24" s="219">
+        <v>319.5</v>
+      </c>
+      <c r="I24" s="2"/>
+      <c r="J24" s="162">
         <v>46345</v>
       </c>
-      <c r="K24" s="219"/>
-      <c r="L24" s="220">
+      <c r="K24" s="162"/>
+      <c r="L24" s="215">
         <f t="shared" si="2"/>
-        <v>-429465.80375999975</v>
-      </c>
-      <c r="M24" s="218"/>
-      <c r="N24" s="220"/>
+        <v>8700.3201599999302</v>
+      </c>
+      <c r="M24" s="160"/>
+      <c r="N24" s="215"/>
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
@@ -9488,70 +9721,72 @@
         <v>330</v>
       </c>
       <c r="C25" s="2">
-        <v>29575268</v>
+        <v>29340843</v>
       </c>
       <c r="D25" s="213">
         <f t="shared" si="0"/>
-        <v>3118.5</v>
+        <v>2268</v>
       </c>
       <c r="E25" s="213"/>
       <c r="F25" s="155">
-        <f>412500/37500</f>
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="G25" s="155">
-        <v>249</v>
+        <v>307.2</v>
       </c>
       <c r="H25" s="155">
-        <f>futuros!B12</f>
-        <v>307.5</v>
+        <f>futuros!B7</f>
+        <v>319.5</v>
       </c>
       <c r="I25" s="2"/>
       <c r="J25" s="162">
-        <v>46710</v>
+        <v>46345</v>
       </c>
       <c r="K25" s="162"/>
       <c r="L25" s="215">
         <f t="shared" si="2"/>
-        <v>-241321.38029999999</v>
+        <v>-36901.357920000031</v>
       </c>
       <c r="M25" s="160"/>
       <c r="N25" s="215"/>
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A26" s="1" t="s">
+      <c r="A26" s="209" t="s">
         <v>296</v>
       </c>
-      <c r="B26" s="1" t="s">
+      <c r="B26" s="209" t="s">
         <v>330</v>
       </c>
-      <c r="C26" s="2"/>
-      <c r="D26" s="213">
-        <f t="shared" ref="D26" si="7">283.5*F26</f>
-        <v>2268</v>
-      </c>
-      <c r="E26" s="213"/>
-      <c r="F26" s="155">
-        <v>8</v>
-      </c>
-      <c r="G26" s="155">
-        <v>235</v>
-      </c>
-      <c r="H26" s="155">
-        <f>futuros!B12</f>
-        <v>307.5</v>
-      </c>
-      <c r="I26" s="2"/>
-      <c r="J26" s="162">
-        <v>46710</v>
-      </c>
-      <c r="K26" s="162"/>
-      <c r="L26" s="215">
-        <f t="shared" ref="L26" si="8">D26*(G26-H26)*1.3228</f>
-        <v>-217508.00399999999</v>
-      </c>
-      <c r="M26" s="160"/>
-      <c r="N26" s="215"/>
+      <c r="C26" s="208">
+        <v>29487626</v>
+      </c>
+      <c r="D26" s="216">
+        <f t="shared" si="0"/>
+        <v>7938</v>
+      </c>
+      <c r="E26" s="216"/>
+      <c r="F26" s="217">
+        <f>1050000/37500</f>
+        <v>28</v>
+      </c>
+      <c r="G26" s="217">
+        <v>288</v>
+      </c>
+      <c r="H26" s="217">
+        <f>futuros!B7</f>
+        <v>319.5</v>
+      </c>
+      <c r="I26" s="208"/>
+      <c r="J26" s="219">
+        <v>46345</v>
+      </c>
+      <c r="K26" s="219"/>
+      <c r="L26" s="220">
+        <f t="shared" si="2"/>
+        <v>-330762.1716</v>
+      </c>
+      <c r="M26" s="218"/>
+      <c r="N26" s="220"/>
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
@@ -9560,21 +9795,24 @@
       <c r="B27" s="1" t="s">
         <v>330</v>
       </c>
-      <c r="C27" s="2"/>
+      <c r="C27" s="2">
+        <v>29575268</v>
+      </c>
       <c r="D27" s="213">
-        <f t="shared" ref="D27" si="9">283.5*F27</f>
-        <v>1417.5</v>
+        <f t="shared" si="0"/>
+        <v>3118.5</v>
       </c>
       <c r="E27" s="213"/>
       <c r="F27" s="155">
-        <v>5</v>
+        <f>412500/37500</f>
+        <v>11</v>
       </c>
       <c r="G27" s="155">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="H27" s="155">
         <f>futuros!B12</f>
-        <v>307.5</v>
+        <v>301.3</v>
       </c>
       <c r="I27" s="2"/>
       <c r="J27" s="162">
@@ -9582,9 +9820,11 @@
       </c>
       <c r="K27" s="162"/>
       <c r="L27" s="215">
-        <f t="shared" ref="L27" si="10">D27*(G27-H27)*1.3228</f>
-        <v>-105941.3985</v>
-      </c>
+        <f t="shared" si="2"/>
+        <v>-215745.43914000006</v>
+      </c>
+      <c r="M27" s="160"/>
+      <c r="N27" s="215"/>
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
@@ -9595,19 +9835,19 @@
       </c>
       <c r="C28" s="2"/>
       <c r="D28" s="213">
-        <f t="shared" ref="D28" si="11">283.5*F28</f>
-        <v>1417.5</v>
+        <f t="shared" ref="D28" si="6">283.5*F28</f>
+        <v>2268</v>
       </c>
       <c r="E28" s="213"/>
       <c r="F28" s="155">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="G28" s="155">
-        <v>263</v>
+        <v>235</v>
       </c>
       <c r="H28" s="155">
         <f>futuros!B12</f>
-        <v>307.5</v>
+        <v>301.3</v>
       </c>
       <c r="I28" s="2"/>
       <c r="J28" s="162">
@@ -9615,14 +9855,116 @@
       </c>
       <c r="K28" s="162"/>
       <c r="L28" s="215">
-        <f t="shared" ref="L28" si="12">D28*(G28-H28)*1.3228</f>
-        <v>-83440.570500000002</v>
+        <f t="shared" ref="L28" si="7">D28*(G28-H28)*1.3228</f>
+        <v>-198907.31952000002</v>
+      </c>
+      <c r="M28" s="160"/>
+      <c r="N28" s="215"/>
+    </row>
+    <row r="29" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A29" s="1" t="s">
+        <v>296</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>330</v>
+      </c>
+      <c r="C29" s="2"/>
+      <c r="D29" s="213">
+        <f t="shared" ref="D29" si="8">283.5*F29</f>
+        <v>1417.5</v>
+      </c>
+      <c r="E29" s="213"/>
+      <c r="F29" s="155">
+        <v>5</v>
+      </c>
+      <c r="G29" s="155">
+        <v>251</v>
+      </c>
+      <c r="H29" s="155">
+        <f>futuros!B12</f>
+        <v>301.3</v>
+      </c>
+      <c r="I29" s="2"/>
+      <c r="J29" s="162">
+        <v>46710</v>
+      </c>
+      <c r="K29" s="162"/>
+      <c r="L29" s="215">
+        <f t="shared" ref="L29" si="9">D29*(G29-H29)*1.3228</f>
+        <v>-94315.97070000002</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A30" s="1" t="s">
+        <v>296</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>330</v>
+      </c>
+      <c r="C30" s="2"/>
+      <c r="D30" s="213">
+        <f t="shared" ref="D30" si="10">283.5*F30</f>
+        <v>1417.5</v>
+      </c>
+      <c r="E30" s="213"/>
+      <c r="F30" s="155">
+        <v>5</v>
+      </c>
+      <c r="G30" s="155">
+        <v>263</v>
+      </c>
+      <c r="H30" s="155">
+        <f>futuros!B12</f>
+        <v>301.3</v>
+      </c>
+      <c r="I30" s="2"/>
+      <c r="J30" s="162">
+        <v>46710</v>
+      </c>
+      <c r="K30" s="162"/>
+      <c r="L30" s="215">
+        <f t="shared" ref="L30" si="11">D30*(G30-H30)*1.3228</f>
+        <v>-71815.142700000011</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A31" s="1" t="s">
+        <v>296</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>330</v>
+      </c>
+      <c r="C31" s="2"/>
+      <c r="D31" s="213">
+        <f t="shared" ref="D31" si="12">283.5*F31</f>
+        <v>1984.5</v>
+      </c>
+      <c r="E31" s="213"/>
+      <c r="F31" s="155">
+        <v>7</v>
+      </c>
+      <c r="G31" s="155">
+        <v>305</v>
+      </c>
+      <c r="H31" s="155">
+        <f>futuros!B12</f>
+        <v>301.3</v>
+      </c>
+      <c r="I31" s="2"/>
+      <c r="J31" s="162">
+        <v>46710</v>
+      </c>
+      <c r="K31" s="162"/>
+      <c r="L31" s="215">
+        <f t="shared" ref="L31" si="13">D31*(G31-H31)*1.3228</f>
+        <v>9712.8574199999712</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
     <ignoredError sqref="E7:E13" numberStoredAsText="1"/>
+    <ignoredError sqref="N16" formula="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
@@ -10347,10 +10689,10 @@
       <c r="M3" s="56" t="s">
         <v>111</v>
       </c>
-      <c r="N3" s="229" t="s">
+      <c r="N3" s="230" t="s">
         <v>112</v>
       </c>
-      <c r="O3" s="229"/>
+      <c r="O3" s="230"/>
       <c r="P3" s="55" t="s">
         <v>113</v>
       </c>
@@ -13431,8 +13773,8 @@
       <c r="K74" s="83"/>
       <c r="L74" s="83"/>
       <c r="M74" s="83"/>
-      <c r="N74" s="230"/>
-      <c r="O74" s="230"/>
+      <c r="N74" s="231"/>
+      <c r="O74" s="231"/>
       <c r="P74" s="83"/>
       <c r="Q74" s="83"/>
       <c r="R74" s="83"/>
@@ -15789,8 +16131,8 @@
       <c r="M8" s="4"/>
     </row>
     <row r="9" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B9" s="231"/>
-      <c r="C9" s="232"/>
+      <c r="B9" s="232"/>
+      <c r="C9" s="233"/>
       <c r="D9" s="6"/>
       <c r="E9" s="6" t="s">
         <v>48</v>
@@ -16392,10 +16734,10 @@
     </row>
     <row r="43" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B43" s="41"/>
-      <c r="C43" s="233" t="s">
+      <c r="C43" s="234" t="s">
         <v>74</v>
       </c>
-      <c r="D43" s="233"/>
+      <c r="D43" s="234"/>
     </row>
     <row r="44" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B44" s="42"/>
@@ -16405,10 +16747,10 @@
     </row>
     <row r="45" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B45" s="43"/>
-      <c r="C45" s="233" t="s">
+      <c r="C45" s="234" t="s">
         <v>76</v>
       </c>
-      <c r="D45" s="233"/>
+      <c r="D45" s="234"/>
     </row>
     <row r="46" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B46" s="44"/>

--- a/vendas_cafe_em_reais.xlsx
+++ b/vendas_cafe_em_reais.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rotocastro/PycharmProjects/Vendas Cafe/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA78976C-C1F8-7E40-9AFA-EA1143A238FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DBBC6320-6CF7-364B-AB8D-96878F59DA67}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4420" yWindow="680" windowWidth="21340" windowHeight="18440" activeTab="1" xr2:uid="{AC82ADC5-E628-F847-8939-89BAF5623AE6}"/>
   </bookViews>
@@ -4600,8 +4600,8 @@
   <dimension ref="A1:T78"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A31" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="Q75" sqref="Q75"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I62" sqref="I62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0.2"/>
@@ -7074,14 +7074,14 @@
         <v>30</v>
       </c>
       <c r="I48" s="158">
-        <v>45901</v>
+        <v>45953</v>
       </c>
       <c r="J48" s="2">
         <v>1</v>
       </c>
       <c r="K48" s="158">
         <f>I48+65</f>
-        <v>45966</v>
+        <v>46018</v>
       </c>
       <c r="L48" s="155">
         <v>402</v>
@@ -7121,14 +7121,14 @@
         <v>30</v>
       </c>
       <c r="I49" s="158">
-        <v>45931</v>
+        <v>45953</v>
       </c>
       <c r="J49" s="2">
         <v>1</v>
       </c>
       <c r="K49" s="158">
         <f>I49+65</f>
-        <v>45996</v>
+        <v>46018</v>
       </c>
       <c r="L49" s="155">
         <v>402</v>
@@ -7168,14 +7168,14 @@
         <v>30</v>
       </c>
       <c r="I50" s="158">
-        <v>45901</v>
+        <v>45953</v>
       </c>
       <c r="J50" s="2">
         <v>1</v>
       </c>
       <c r="K50" s="158">
         <f>I50+65</f>
-        <v>45966</v>
+        <v>46018</v>
       </c>
       <c r="L50" s="155">
         <v>330</v>
@@ -7215,14 +7215,14 @@
         <v>30</v>
       </c>
       <c r="I51" s="158">
-        <v>45931</v>
+        <v>45953</v>
       </c>
       <c r="J51" s="2">
         <v>1</v>
       </c>
       <c r="K51" s="158">
         <f>I51+65</f>
-        <v>45996</v>
+        <v>46018</v>
       </c>
       <c r="L51" s="155">
         <v>413</v>
@@ -7309,7 +7309,7 @@
         <v>0</v>
       </c>
       <c r="I53" s="158">
-        <v>45962</v>
+        <v>45973</v>
       </c>
       <c r="J53" s="2">
         <v>4</v>
@@ -7351,7 +7351,7 @@
         <v>0</v>
       </c>
       <c r="I54" s="158">
-        <v>45962</v>
+        <v>45973</v>
       </c>
       <c r="J54" s="2">
         <v>4</v>
@@ -7479,14 +7479,14 @@
         <v>28</v>
       </c>
       <c r="I57" s="158">
-        <v>45901</v>
+        <v>45953</v>
       </c>
       <c r="J57" s="2">
         <v>1</v>
       </c>
       <c r="K57" s="158">
         <f t="shared" ref="K57:K62" si="5">I57+65</f>
-        <v>45966</v>
+        <v>46018</v>
       </c>
       <c r="L57" s="155">
         <v>402</v>
@@ -7526,14 +7526,14 @@
         <v>28</v>
       </c>
       <c r="I58" s="158">
-        <v>45962</v>
+        <v>45991</v>
       </c>
       <c r="J58" s="2">
         <v>1</v>
       </c>
       <c r="K58" s="158">
         <f t="shared" si="5"/>
-        <v>46027</v>
+        <v>46056</v>
       </c>
       <c r="L58" s="155">
         <v>325</v>
@@ -7714,14 +7714,14 @@
         <v>53</v>
       </c>
       <c r="I62" s="158">
-        <v>45931</v>
+        <v>45974</v>
       </c>
       <c r="J62" s="2">
         <v>1</v>
       </c>
       <c r="K62" s="158">
         <f t="shared" si="5"/>
-        <v>45996</v>
+        <v>46039</v>
       </c>
       <c r="L62" s="155">
         <v>330</v>
@@ -8047,7 +8047,7 @@
         <v>2750</v>
       </c>
       <c r="Q69" s="3">
-        <f>E69*P69</f>
+        <f t="shared" ref="Q69:Q75" si="7">E69*P69</f>
         <v>13750</v>
       </c>
     </row>
@@ -8093,7 +8093,7 @@
         <v>3200</v>
       </c>
       <c r="Q70" s="3">
-        <f>E70*P70</f>
+        <f t="shared" si="7"/>
         <v>32000</v>
       </c>
     </row>
@@ -8136,7 +8136,7 @@
         <v>2650</v>
       </c>
       <c r="Q71" s="3">
-        <f>E71*P71</f>
+        <f t="shared" si="7"/>
         <v>7950</v>
       </c>
     </row>
@@ -8169,7 +8169,7 @@
         <v>1</v>
       </c>
       <c r="K72" s="158">
-        <f t="shared" ref="K72:K74" si="7">I72</f>
+        <f t="shared" ref="K72:K74" si="8">I72</f>
         <v>46023</v>
       </c>
       <c r="L72" s="155"/>
@@ -8179,7 +8179,7 @@
         <v>2650</v>
       </c>
       <c r="Q72" s="3">
-        <f>E72*P72</f>
+        <f t="shared" si="7"/>
         <v>31800</v>
       </c>
     </row>
@@ -8212,7 +8212,7 @@
         <v>1</v>
       </c>
       <c r="K73" s="158">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>45986</v>
       </c>
       <c r="L73" s="155"/>
@@ -8222,7 +8222,7 @@
         <v>2650</v>
       </c>
       <c r="Q73" s="3">
-        <f>E73*P73</f>
+        <f t="shared" si="7"/>
         <v>79500</v>
       </c>
     </row>
@@ -8255,7 +8255,7 @@
         <v>1</v>
       </c>
       <c r="K74" s="158">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>45979</v>
       </c>
       <c r="L74" s="155"/>
@@ -8265,7 +8265,7 @@
         <v>2300</v>
       </c>
       <c r="Q74" s="3">
-        <f>E74*P74</f>
+        <f t="shared" si="7"/>
         <v>11500</v>
       </c>
     </row>
@@ -8307,7 +8307,7 @@
         <v>1600</v>
       </c>
       <c r="Q75" s="3">
-        <f>E75*P75</f>
+        <f t="shared" si="7"/>
         <v>3680000</v>
       </c>
     </row>

--- a/vendas_cafe_em_reais.xlsx
+++ b/vendas_cafe_em_reais.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rotocastro/PycharmProjects/Vendas Cafe/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DBBC6320-6CF7-364B-AB8D-96878F59DA67}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7058749C-3638-3D47-B4C0-4DDB6BA75338}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4420" yWindow="680" windowWidth="21340" windowHeight="18440" activeTab="1" xr2:uid="{AC82ADC5-E628-F847-8939-89BAF5623AE6}"/>
+    <workbookView xWindow="4420" yWindow="680" windowWidth="24980" windowHeight="18440" activeTab="1" xr2:uid="{AC82ADC5-E628-F847-8939-89BAF5623AE6}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2 (2)" sheetId="16" state="hidden" r:id="rId1"/>
@@ -24,7 +24,7 @@
     <sheet name="CashFlow_Edson_Luiz" sheetId="3" state="hidden" r:id="rId9"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Sheet2!$A$1:$Q$78</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Sheet2!$A$1:$Q$80</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">'VENDA CAFÉ 220125'!$A$3:$Z$61</definedName>
     <definedName name="LITRAGEM" localSheetId="7">#REF!</definedName>
     <definedName name="LITRAGEM" localSheetId="5">#REF!</definedName>
@@ -70,7 +70,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="999" uniqueCount="362">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1009" uniqueCount="365">
   <si>
     <t>026/24</t>
   </si>
@@ -1156,6 +1156,15 @@
   </si>
   <si>
     <t>WWTrading Worldwide</t>
+  </si>
+  <si>
+    <t>079/25</t>
+  </si>
+  <si>
+    <t>080/25</t>
+  </si>
+  <si>
+    <t>Café 3 Corações</t>
   </si>
 </sst>
 </file>
@@ -1557,7 +1566,7 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="21" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="235">
+  <cellXfs count="234">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -2092,9 +2101,6 @@
     <xf numFmtId="9" fontId="2" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2702,26 +2708,26 @@
       </c>
       <c r="L6" s="177">
         <f>futuros!B2</f>
-        <v>399.9</v>
+        <v>407.1</v>
       </c>
       <c r="M6" s="177">
         <f>(L6+H6)*1.3228</f>
-        <v>568.67171999999994</v>
+        <v>578.19587999999999</v>
       </c>
       <c r="N6" s="167">
         <f>(E6*(M6+H6))</f>
-        <v>191574.95039999997</v>
+        <v>194622.68160000001</v>
       </c>
       <c r="O6" s="178">
         <v>5.7</v>
       </c>
       <c r="P6" s="167">
         <f t="shared" ref="P6:P16" si="1">M6*O6</f>
-        <v>3241.4288039999997</v>
+        <v>3295.716516</v>
       </c>
       <c r="Q6" s="167">
         <f t="shared" ref="Q6:Q16" si="2">P6*E6</f>
-        <v>1037257.2172799999</v>
+        <v>1054629.2851199999</v>
       </c>
     </row>
     <row r="7" spans="2:20" x14ac:dyDescent="0.25">
@@ -2758,26 +2764,26 @@
       </c>
       <c r="L7" s="177">
         <f>L6</f>
-        <v>399.9</v>
+        <v>407.1</v>
       </c>
       <c r="M7" s="177">
         <f>(L7+H7)*1.3228</f>
-        <v>568.67171999999994</v>
+        <v>578.19587999999999</v>
       </c>
       <c r="N7" s="167">
         <f>(E7*(M7+H7))</f>
-        <v>191574.95039999997</v>
+        <v>194622.68160000001</v>
       </c>
       <c r="O7" s="178">
         <v>5.7</v>
       </c>
       <c r="P7" s="167">
         <f t="shared" si="1"/>
-        <v>3241.4288039999997</v>
+        <v>3295.716516</v>
       </c>
       <c r="Q7" s="167">
         <f t="shared" si="2"/>
-        <v>1037257.2172799999</v>
+        <v>1054629.2851199999</v>
       </c>
     </row>
     <row r="8" spans="2:20" x14ac:dyDescent="0.25">
@@ -2814,26 +2820,26 @@
       </c>
       <c r="L8" s="177">
         <f>L7</f>
-        <v>399.9</v>
+        <v>407.1</v>
       </c>
       <c r="M8" s="177">
         <f>(L8+H8)*1.3228</f>
-        <v>568.67171999999994</v>
+        <v>578.19587999999999</v>
       </c>
       <c r="N8" s="167">
         <f>(E8*(M8+H8))</f>
-        <v>191574.95039999997</v>
+        <v>194622.68160000001</v>
       </c>
       <c r="O8" s="178">
         <v>5.7</v>
       </c>
       <c r="P8" s="167">
         <f t="shared" si="1"/>
-        <v>3241.4288039999997</v>
+        <v>3295.716516</v>
       </c>
       <c r="Q8" s="167">
         <f t="shared" si="2"/>
-        <v>1037257.2172799999</v>
+        <v>1054629.2851199999</v>
       </c>
     </row>
     <row r="9" spans="2:20" x14ac:dyDescent="0.25">
@@ -2870,26 +2876,26 @@
       </c>
       <c r="L9" s="177">
         <f>futuros!B2</f>
-        <v>399.9</v>
+        <v>407.1</v>
       </c>
       <c r="M9" s="177">
         <f>(L9+H9)*1.3228</f>
-        <v>568.67171999999994</v>
+        <v>578.19587999999999</v>
       </c>
       <c r="N9" s="167">
         <f>(E9*(M9+H9))</f>
-        <v>191574.95039999997</v>
+        <v>194622.68160000001</v>
       </c>
       <c r="O9" s="178">
         <v>5.7</v>
       </c>
       <c r="P9" s="167">
         <f t="shared" si="1"/>
-        <v>3241.4288039999997</v>
+        <v>3295.716516</v>
       </c>
       <c r="Q9" s="167">
         <f t="shared" si="2"/>
-        <v>1037257.2172799999</v>
+        <v>1054629.2851199999</v>
       </c>
     </row>
     <row r="10" spans="2:20" x14ac:dyDescent="0.25">
@@ -2926,26 +2932,26 @@
       </c>
       <c r="L10" s="177">
         <f>futuros!B3</f>
-        <v>369.4</v>
+        <v>375.6</v>
       </c>
       <c r="M10" s="177">
         <f>(L10+H10)*1.3228</f>
-        <v>528.32632000000001</v>
+        <v>536.52768000000003</v>
       </c>
       <c r="N10" s="167">
         <f>(E10*(M10+H10))</f>
-        <v>178664.42240000001</v>
+        <v>181288.85760000002</v>
       </c>
       <c r="O10" s="178">
         <v>5.7</v>
       </c>
       <c r="P10" s="167">
         <f t="shared" si="1"/>
-        <v>3011.460024</v>
+        <v>3058.2077760000002</v>
       </c>
       <c r="Q10" s="167">
         <f t="shared" si="2"/>
-        <v>963667.20767999999</v>
+        <v>978626.48832</v>
       </c>
     </row>
     <row r="11" spans="2:20" x14ac:dyDescent="0.25">
@@ -2982,26 +2988,26 @@
       </c>
       <c r="L11" s="177">
         <f>futuros!B2</f>
-        <v>399.9</v>
+        <v>407.1</v>
       </c>
       <c r="M11" s="177">
         <f t="shared" ref="M11:M16" si="4">(L11+H11)*1.3228</f>
-        <v>566.02611999999999</v>
+        <v>575.55028000000004</v>
       </c>
       <c r="N11" s="167">
         <f t="shared" ref="N11:N16" si="5">(E11*(M11+H11))</f>
-        <v>190088.3584</v>
+        <v>193136.08960000001</v>
       </c>
       <c r="O11" s="178">
         <v>5.7</v>
       </c>
       <c r="P11" s="167">
         <f t="shared" si="1"/>
-        <v>3226.348884</v>
+        <v>3280.6365960000003</v>
       </c>
       <c r="Q11" s="167">
         <f t="shared" si="2"/>
-        <v>1032431.6428799999</v>
+        <v>1049803.7107200001</v>
       </c>
     </row>
     <row r="12" spans="2:20" x14ac:dyDescent="0.25">
@@ -3038,26 +3044,26 @@
       </c>
       <c r="L12" s="177">
         <f>futuros!B2</f>
-        <v>399.9</v>
+        <v>407.1</v>
       </c>
       <c r="M12" s="177">
         <f t="shared" si="4"/>
-        <v>566.02611999999999</v>
+        <v>575.55028000000004</v>
       </c>
       <c r="N12" s="167">
         <f t="shared" si="5"/>
-        <v>190088.3584</v>
+        <v>193136.08960000001</v>
       </c>
       <c r="O12" s="178">
         <v>5.7</v>
       </c>
       <c r="P12" s="167">
         <f t="shared" si="1"/>
-        <v>3226.348884</v>
+        <v>3280.6365960000003</v>
       </c>
       <c r="Q12" s="167">
         <f t="shared" si="2"/>
-        <v>1032431.6428799999</v>
+        <v>1049803.7107200001</v>
       </c>
     </row>
     <row r="13" spans="2:20" s="166" customFormat="1" x14ac:dyDescent="0.25">
@@ -3094,26 +3100,26 @@
       </c>
       <c r="L13" s="177">
         <f>futuros!B3</f>
-        <v>369.4</v>
+        <v>375.6</v>
       </c>
       <c r="M13" s="177">
         <f t="shared" si="4"/>
-        <v>525.68071999999995</v>
+        <v>533.88207999999997</v>
       </c>
       <c r="N13" s="167">
         <f t="shared" si="5"/>
-        <v>177177.83039999998</v>
+        <v>179802.26559999998</v>
       </c>
       <c r="O13" s="178">
         <v>5.7</v>
       </c>
       <c r="P13" s="167">
         <f t="shared" si="1"/>
-        <v>2996.3801039999998</v>
+        <v>3043.1278560000001</v>
       </c>
       <c r="Q13" s="167">
         <f t="shared" si="2"/>
-        <v>958841.63327999995</v>
+        <v>973800.91391999996</v>
       </c>
       <c r="R13" s="163"/>
       <c r="S13" s="163"/>
@@ -3153,26 +3159,26 @@
       </c>
       <c r="L14" s="177">
         <f>futuros!B4</f>
-        <v>351.85</v>
+        <v>358.65</v>
       </c>
       <c r="M14" s="177">
         <f t="shared" si="4"/>
-        <v>502.46558000000005</v>
+        <v>511.46061999999995</v>
       </c>
       <c r="N14" s="167">
         <f t="shared" si="5"/>
-        <v>169748.98560000001</v>
+        <v>172627.39839999998</v>
       </c>
       <c r="O14" s="178">
         <v>5.7</v>
       </c>
       <c r="P14" s="167">
         <f t="shared" si="1"/>
-        <v>2864.0538060000003</v>
+        <v>2915.3255339999996</v>
       </c>
       <c r="Q14" s="167">
         <f t="shared" si="2"/>
-        <v>916497.21792000008</v>
+        <v>932904.17087999987</v>
       </c>
       <c r="R14" s="163"/>
       <c r="S14" s="163"/>
@@ -3212,26 +3218,26 @@
       </c>
       <c r="L15" s="177">
         <f>futuros!B3</f>
-        <v>369.4</v>
+        <v>375.6</v>
       </c>
       <c r="M15" s="177">
         <f t="shared" si="4"/>
-        <v>459.54071999999996</v>
+        <v>467.74208000000004</v>
       </c>
       <c r="N15" s="167">
         <f t="shared" si="5"/>
-        <v>140013.03039999999</v>
+        <v>142637.46560000003</v>
       </c>
       <c r="O15" s="178">
         <v>5.7</v>
       </c>
       <c r="P15" s="167">
         <f t="shared" si="1"/>
-        <v>2619.3821039999998</v>
+        <v>2666.1298560000005</v>
       </c>
       <c r="Q15" s="167">
         <f t="shared" si="2"/>
-        <v>838202.27327999996</v>
+        <v>853161.55392000009</v>
       </c>
       <c r="R15" s="163"/>
       <c r="S15" s="163"/>
@@ -3271,26 +3277,26 @@
       </c>
       <c r="L16" s="177">
         <f>futuros!B2</f>
-        <v>399.9</v>
+        <v>407.1</v>
       </c>
       <c r="M16" s="177">
         <f t="shared" si="4"/>
-        <v>599.09611999999993</v>
+        <v>608.62027999999998</v>
       </c>
       <c r="N16" s="167">
         <f t="shared" si="5"/>
-        <v>208670.75839999999</v>
+        <v>211718.4896</v>
       </c>
       <c r="O16" s="178">
         <v>5.7</v>
       </c>
       <c r="P16" s="167">
         <f t="shared" si="1"/>
-        <v>3414.8478839999998</v>
+        <v>3469.1355960000001</v>
       </c>
       <c r="Q16" s="167">
         <f t="shared" si="2"/>
-        <v>1092751.3228799999</v>
+        <v>1110123.39072</v>
       </c>
       <c r="R16" s="163"/>
       <c r="S16" s="163"/>
@@ -3417,20 +3423,20 @@
       <c r="L19" s="179"/>
       <c r="M19" s="182">
         <f>N19/E19</f>
-        <v>557.70346999999992</v>
+        <v>564.86548714285721</v>
       </c>
       <c r="N19" s="183">
         <f>SUM(N5:N18)</f>
-        <v>2498511.5455999998</v>
+        <v>2530597.3824000005</v>
       </c>
       <c r="O19" s="184"/>
       <c r="P19" s="185">
         <f>Q19/E19</f>
-        <v>3059.6169218571426</v>
+        <v>3100.4404195714283</v>
       </c>
       <c r="Q19" s="183">
         <f>SUM(Q5:Q18)</f>
-        <v>13707083.80992</v>
+        <v>13889973.07968</v>
       </c>
     </row>
     <row r="20" spans="2:17" x14ac:dyDescent="0.25">
@@ -3553,7 +3559,7 @@
       </c>
       <c r="I25" s="177">
         <f>futuros!B2</f>
-        <v>399.9</v>
+        <v>407.1</v>
       </c>
       <c r="K25" s="163"/>
       <c r="L25" s="197">
@@ -3562,7 +3568,7 @@
       <c r="M25" s="163"/>
       <c r="N25" s="198">
         <f>(H25-I25)*1.3228*D25</f>
-        <v>-1466277.7070339997</v>
+        <v>-1514069.4657059999</v>
       </c>
       <c r="O25" s="178">
         <f>O5</f>
@@ -3570,7 +3576,7 @@
       </c>
       <c r="Q25" s="198">
         <f>N25*O25</f>
-        <v>-8357782.9300937988</v>
+        <v>-8630195.9545242004</v>
       </c>
     </row>
     <row r="26" spans="2:17" x14ac:dyDescent="0.25">
@@ -3595,7 +3601,7 @@
       </c>
       <c r="I26" s="177">
         <f>I25</f>
-        <v>399.9</v>
+        <v>407.1</v>
       </c>
       <c r="K26" s="163"/>
       <c r="L26" s="197">
@@ -3604,7 +3610,7 @@
       <c r="M26" s="163"/>
       <c r="N26" s="198">
         <f>(H26-I26)*1.3228*D26</f>
-        <v>-534994.68707999995</v>
+        <v>-553895.38260000013</v>
       </c>
       <c r="O26" s="178">
         <f>O6</f>
@@ -3612,7 +3618,7 @@
       </c>
       <c r="Q26" s="198">
         <f t="shared" ref="Q26:Q27" si="6">N26*O26</f>
-        <v>-3049469.7163559999</v>
+        <v>-3157203.6808200008</v>
       </c>
     </row>
     <row r="27" spans="2:17" x14ac:dyDescent="0.25">
@@ -3636,7 +3642,7 @@
       </c>
       <c r="I27" s="200">
         <f>I26</f>
-        <v>399.9</v>
+        <v>407.1</v>
       </c>
       <c r="K27" s="163"/>
       <c r="L27" s="197">
@@ -3645,7 +3651,7 @@
       <c r="M27" s="163"/>
       <c r="N27" s="198">
         <f>(H27-I27)*1.3228*D27</f>
-        <v>-706383.49395599996</v>
+        <v>-735004.54717200005</v>
       </c>
       <c r="O27" s="178">
         <f>O7</f>
@@ -3653,7 +3659,7 @@
       </c>
       <c r="Q27" s="198">
         <f t="shared" si="6"/>
-        <v>-4026385.9155492</v>
+        <v>-4189525.9188804002</v>
       </c>
     </row>
     <row r="28" spans="2:17" x14ac:dyDescent="0.25">
@@ -3676,13 +3682,13 @@
       <c r="M28" s="202"/>
       <c r="N28" s="202">
         <f>SUM(N25:N27)</f>
-        <v>-2707655.8880699999</v>
+        <v>-2802969.3954779999</v>
       </c>
       <c r="O28" s="201"/>
       <c r="P28" s="201"/>
       <c r="Q28" s="202">
         <f>SUM(Q25:Q27)</f>
-        <v>-15433638.561998999</v>
+        <v>-15976925.554224603</v>
       </c>
     </row>
     <row r="29" spans="2:17" x14ac:dyDescent="0.25">
@@ -4366,7 +4372,7 @@
       </c>
       <c r="I57" s="177">
         <f>futuros!B7</f>
-        <v>319.5</v>
+        <v>324.8</v>
       </c>
       <c r="K57" s="178">
         <f>O8</f>
@@ -4378,7 +4384,7 @@
       <c r="M57" s="198"/>
       <c r="N57" s="198">
         <f>(H57-I57)*1.3228*D57</f>
-        <v>-63114.822539999957</v>
+        <v>-81002.980800000005</v>
       </c>
       <c r="O57" s="166">
         <f>O25</f>
@@ -4386,7 +4392,7 @@
       </c>
       <c r="Q57" s="198">
         <f>N57*O57</f>
-        <v>-359754.48847799975</v>
+        <v>-461716.99056000006</v>
       </c>
     </row>
     <row r="58" spans="2:17" x14ac:dyDescent="0.25">
@@ -4410,7 +4416,7 @@
       </c>
       <c r="I58" s="177">
         <f>I57</f>
-        <v>319.5</v>
+        <v>324.8</v>
       </c>
       <c r="K58" s="178">
         <f>O9</f>
@@ -4422,7 +4428,7 @@
       <c r="M58" s="198"/>
       <c r="N58" s="198">
         <f>(H58-I58)*1.3228*D58</f>
-        <v>8700.320159999932</v>
+        <v>-7200.2649600001023</v>
       </c>
       <c r="O58" s="166">
         <f>O26</f>
@@ -4430,7 +4436,7 @@
       </c>
       <c r="Q58" s="198">
         <f>N58*O58</f>
-        <v>49591.824911999611</v>
+        <v>-41041.510272000582</v>
       </c>
     </row>
     <row r="59" spans="2:17" x14ac:dyDescent="0.25">
@@ -4453,13 +4459,13 @@
       <c r="M59" s="201"/>
       <c r="N59" s="202">
         <f>SUM(N56:N58)</f>
-        <v>-54414.502380000027</v>
+        <v>-88203.245760000107</v>
       </c>
       <c r="O59" s="201"/>
       <c r="P59" s="201"/>
       <c r="Q59" s="202">
         <f>SUM(Q56:Q58)</f>
-        <v>-310162.66356600012</v>
+        <v>-502758.50083200063</v>
       </c>
     </row>
     <row r="64" spans="2:17" x14ac:dyDescent="0.25">
@@ -4597,11 +4603,11 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E433115D-D1E6-C943-B0EC-2BC4BD1B44BA}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:T78"/>
+  <dimension ref="A1:T80"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I62" sqref="I62"/>
+      <pane ySplit="1" topLeftCell="A42" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D75" sqref="D75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0.2"/>
@@ -8047,7 +8053,7 @@
         <v>2750</v>
       </c>
       <c r="Q69" s="3">
-        <f t="shared" ref="Q69:Q75" si="7">E69*P69</f>
+        <f t="shared" ref="Q69:Q77" si="7">E69*P69</f>
         <v>13750</v>
       </c>
     </row>
@@ -8273,86 +8279,86 @@
       <c r="A75" s="2">
         <v>2025</v>
       </c>
+      <c r="B75" s="2" t="s">
+        <v>362</v>
+      </c>
       <c r="C75" s="2" t="s">
         <v>89</v>
       </c>
       <c r="D75" s="159" t="s">
-        <v>331</v>
+        <v>364</v>
       </c>
       <c r="E75" s="213">
-        <f>2400-E66-E65-E67-E69-E70-E71-E72-E73-E74</f>
-        <v>2300</v>
+        <v>161</v>
       </c>
       <c r="F75" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G75" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="H75" s="2">
-        <v>0</v>
+        <v>289</v>
       </c>
       <c r="I75" s="158">
-        <v>45992</v>
+        <v>46001</v>
       </c>
       <c r="J75" s="2">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="K75" s="158">
-        <v>45992</v>
-      </c>
-      <c r="L75" s="158"/>
+        <f t="shared" ref="K75:K76" si="9">I75</f>
+        <v>46001</v>
+      </c>
+      <c r="L75" s="155"/>
+      <c r="M75" s="155"/>
       <c r="N75" s="3"/>
       <c r="P75" s="3">
-        <v>1600</v>
+        <v>2600</v>
       </c>
       <c r="Q75" s="3">
-        <f t="shared" si="7"/>
-        <v>3680000</v>
+        <f t="shared" ref="Q75:Q76" si="10">E75*P75</f>
+        <v>418600</v>
       </c>
     </row>
     <row r="76" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A76" s="2">
         <v>2025</v>
       </c>
+      <c r="B76" s="2" t="s">
+        <v>363</v>
+      </c>
       <c r="C76" s="2" t="s">
-        <v>42</v>
+        <v>89</v>
       </c>
       <c r="D76" s="159" t="s">
-        <v>331</v>
-      </c>
-      <c r="E76" s="2">
-        <f>0.7*8000-4800-E77-E78-E68</f>
-        <v>286.49999999999994</v>
+        <v>364</v>
+      </c>
+      <c r="E76" s="213">
+        <v>75</v>
       </c>
       <c r="F76" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G76" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="H76" s="2">
-        <v>0</v>
+        <v>289</v>
       </c>
       <c r="I76" s="158">
-        <v>45992</v>
+        <v>46001</v>
       </c>
       <c r="J76" s="2">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="K76" s="158">
-        <v>45992</v>
-      </c>
-      <c r="L76" s="155">
-        <v>325</v>
-      </c>
-      <c r="M76" s="155">
-        <f>(L76+H76)*1.3228</f>
-        <v>429.90999999999997</v>
-      </c>
-      <c r="N76" s="3">
-        <f>M76*E76</f>
-        <v>123169.21499999997</v>
+        <f t="shared" si="9"/>
+        <v>46001</v>
+      </c>
+      <c r="L76" s="155"/>
+      <c r="M76" s="155"/>
+      <c r="N76" s="3"/>
+      <c r="P76" s="3">
+        <v>2600</v>
+      </c>
+      <c r="Q76" s="3">
+        <f t="shared" si="10"/>
+        <v>195000</v>
       </c>
     </row>
     <row r="77" spans="1:17" x14ac:dyDescent="0.2">
@@ -8360,13 +8366,14 @@
         <v>2025</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>42</v>
+        <v>89</v>
       </c>
       <c r="D77" s="159" t="s">
         <v>331</v>
       </c>
-      <c r="E77" s="2">
-        <v>64.5</v>
+      <c r="E77" s="213">
+        <f>2400-E66-E65-E67-E69-E70-E71-E72-E73-E74-E75-E76</f>
+        <v>2064</v>
       </c>
       <c r="F77" s="2" t="s">
         <v>32</v>
@@ -8378,24 +8385,22 @@
         <v>0</v>
       </c>
       <c r="I77" s="158">
-        <v>45992</v>
+        <v>46023</v>
       </c>
       <c r="J77" s="2">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="K77" s="158">
-        <v>45992</v>
-      </c>
-      <c r="L77" s="155">
-        <v>330</v>
-      </c>
-      <c r="M77" s="155">
-        <f>(L77+H77)*1.3228</f>
-        <v>436.524</v>
-      </c>
-      <c r="N77" s="3">
-        <f>M77*E77</f>
-        <v>28155.797999999999</v>
+        <v>46023</v>
+      </c>
+      <c r="L77" s="158"/>
+      <c r="N77" s="3"/>
+      <c r="P77" s="3">
+        <v>1600</v>
+      </c>
+      <c r="Q77" s="3">
+        <f t="shared" si="7"/>
+        <v>3302400</v>
       </c>
     </row>
     <row r="78" spans="1:17" x14ac:dyDescent="0.2">
@@ -8408,9 +8413,9 @@
       <c r="D78" s="159" t="s">
         <v>331</v>
       </c>
-      <c r="E78" s="213">
-        <f>449-E68</f>
-        <v>115.66666666666669</v>
+      <c r="E78" s="2">
+        <f>0.7*8000-4800-E79-E80-E68</f>
+        <v>286.49999999999994</v>
       </c>
       <c r="F78" s="2" t="s">
         <v>32</v>
@@ -8422,13 +8427,13 @@
         <v>0</v>
       </c>
       <c r="I78" s="158">
-        <v>46082</v>
+        <v>46023</v>
       </c>
       <c r="J78" s="2">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="K78" s="158">
-        <v>46082</v>
+        <v>46023</v>
       </c>
       <c r="L78" s="155">
         <v>325</v>
@@ -8439,13 +8444,100 @@
       </c>
       <c r="N78" s="3">
         <f>M78*E78</f>
+        <v>123169.21499999997</v>
+      </c>
+    </row>
+    <row r="79" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A79" s="2">
+        <v>2025</v>
+      </c>
+      <c r="C79" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="D79" s="159" t="s">
+        <v>331</v>
+      </c>
+      <c r="E79" s="2">
+        <v>64.5</v>
+      </c>
+      <c r="F79" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="G79" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="H79" s="2">
+        <v>0</v>
+      </c>
+      <c r="I79" s="158">
+        <v>46023</v>
+      </c>
+      <c r="J79" s="2">
+        <v>1</v>
+      </c>
+      <c r="K79" s="158">
+        <v>46023</v>
+      </c>
+      <c r="L79" s="155">
+        <v>330</v>
+      </c>
+      <c r="M79" s="155">
+        <f>(L79+H79)*1.3228</f>
+        <v>436.524</v>
+      </c>
+      <c r="N79" s="3">
+        <f>M79*E79</f>
+        <v>28155.797999999999</v>
+      </c>
+    </row>
+    <row r="80" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A80" s="2">
+        <v>2025</v>
+      </c>
+      <c r="C80" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="D80" s="159" t="s">
+        <v>331</v>
+      </c>
+      <c r="E80" s="213">
+        <f>449-E68</f>
+        <v>115.66666666666669</v>
+      </c>
+      <c r="F80" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="G80" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="H80" s="2">
+        <v>0</v>
+      </c>
+      <c r="I80" s="158">
+        <v>46082</v>
+      </c>
+      <c r="J80" s="2">
+        <v>1</v>
+      </c>
+      <c r="K80" s="158">
+        <v>46082</v>
+      </c>
+      <c r="L80" s="155">
+        <v>325</v>
+      </c>
+      <c r="M80" s="155">
+        <f>(L80+H80)*1.3228</f>
+        <v>429.90999999999997</v>
+      </c>
+      <c r="N80" s="3">
+        <f>M80*E80</f>
         <v>49726.256666666668</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:Q78" xr:uid="{E433115D-D1E6-C943-B0EC-2BC4BD1B44BA}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:Q78">
-      <sortCondition ref="B1:B78"/>
+  <autoFilter ref="A1:Q80" xr:uid="{E433115D-D1E6-C943-B0EC-2BC4BD1B44BA}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:Q80">
+      <sortCondition ref="B1:B80"/>
     </sortState>
   </autoFilter>
   <phoneticPr fontId="5" type="noConversion"/>
@@ -8485,7 +8577,7 @@
         <v>270</v>
       </c>
       <c r="D1" s="162">
-        <v>45985</v>
+        <v>45992</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -8493,11 +8585,11 @@
         <v>46021</v>
       </c>
       <c r="B2" s="155">
-        <v>399.9</v>
+        <v>407.1</v>
       </c>
       <c r="C2" s="155">
         <f t="shared" ref="C2:C11" si="0">B2*1.3228</f>
-        <v>528.98771999999997</v>
+        <v>538.51188000000002</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -8505,11 +8597,11 @@
         <v>46112</v>
       </c>
       <c r="B3" s="155">
-        <v>369.4</v>
+        <v>375.6</v>
       </c>
       <c r="C3" s="155">
         <f t="shared" si="0"/>
-        <v>488.64231999999998</v>
+        <v>496.84368000000001</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
@@ -8517,11 +8609,11 @@
         <v>46173</v>
       </c>
       <c r="B4" s="155">
-        <v>351.85</v>
+        <v>358.65</v>
       </c>
       <c r="C4" s="155">
         <f t="shared" si="0"/>
-        <v>465.42718000000002</v>
+        <v>474.42221999999998</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
@@ -8529,11 +8621,11 @@
         <v>46231</v>
       </c>
       <c r="B5" s="155">
-        <v>337.35</v>
+        <v>344.65</v>
       </c>
       <c r="C5" s="155">
         <f t="shared" si="0"/>
-        <v>446.24657999999999</v>
+        <v>455.90301999999997</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
@@ -8541,11 +8633,11 @@
         <v>46295</v>
       </c>
       <c r="B6" s="155">
-        <v>326.64999999999998</v>
+        <v>332.75</v>
       </c>
       <c r="C6" s="155">
         <f t="shared" si="0"/>
-        <v>432.09261999999995</v>
+        <v>440.1617</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
@@ -8553,11 +8645,11 @@
         <v>46386</v>
       </c>
       <c r="B7" s="155">
-        <v>319.5</v>
+        <v>324.8</v>
       </c>
       <c r="C7" s="155">
         <f t="shared" si="0"/>
-        <v>422.63459999999998</v>
+        <v>429.64544000000001</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
@@ -8565,11 +8657,11 @@
         <v>46477</v>
       </c>
       <c r="B8" s="155">
-        <v>315.45</v>
+        <v>325.89999999999998</v>
       </c>
       <c r="C8" s="155">
         <f t="shared" si="0"/>
-        <v>417.27725999999996</v>
+        <v>431.10051999999996</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
@@ -8577,11 +8669,11 @@
         <v>46538</v>
       </c>
       <c r="B9" s="155">
-        <v>312.64999999999998</v>
+        <v>322.7</v>
       </c>
       <c r="C9" s="155">
         <f t="shared" si="0"/>
-        <v>413.57341999999994</v>
+        <v>426.86755999999997</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
@@ -8589,11 +8681,11 @@
         <v>46596</v>
       </c>
       <c r="B10" s="155">
-        <v>312</v>
+        <v>318.89999999999998</v>
       </c>
       <c r="C10" s="155">
         <f t="shared" si="0"/>
-        <v>412.71359999999999</v>
+        <v>421.84091999999998</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
@@ -8601,11 +8693,11 @@
         <v>46660</v>
       </c>
       <c r="B11" s="155">
-        <v>306.14999999999998</v>
+        <v>314.64999999999998</v>
       </c>
       <c r="C11" s="155">
         <f t="shared" si="0"/>
-        <v>404.97521999999998</v>
+        <v>416.21901999999994</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
@@ -8613,11 +8705,11 @@
         <v>46751</v>
       </c>
       <c r="B12" s="155">
-        <v>301.3</v>
+        <v>309.35000000000002</v>
       </c>
       <c r="C12" s="155">
         <f>B12*1.3228</f>
-        <v>398.55964</v>
+        <v>409.20818000000003</v>
       </c>
     </row>
   </sheetData>
@@ -8631,8 +8723,8 @@
   <dimension ref="A1:N31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D22" sqref="D22:D31"/>
+      <pane ySplit="1" topLeftCell="A21" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="L22" sqref="L22:L31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -8816,15 +8908,14 @@
         <v>45602</v>
       </c>
       <c r="L4" s="215">
-        <f t="shared" si="2"/>
-        <v>-329805.88641000004</v>
+        <f>N4/M4</f>
+        <v>-432777.9808400122</v>
       </c>
       <c r="M4" s="160">
         <v>5.7694000000000001</v>
       </c>
       <c r="N4" s="215">
-        <f t="shared" si="3"/>
-        <v>-1902782.0810538542</v>
+        <v>-2496869.2826583665</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.2">
@@ -8864,15 +8955,14 @@
         <v>45602</v>
       </c>
       <c r="L5" s="215">
-        <f t="shared" si="2"/>
-        <v>-709788.61926000006</v>
+        <f>N5/M5</f>
+        <v>-855160.98786707607</v>
       </c>
       <c r="M5" s="160">
         <v>5.7694000000000001</v>
       </c>
       <c r="N5" s="215">
-        <f t="shared" si="3"/>
-        <v>-4095054.4599586446</v>
+        <v>-4933765.8034003088</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.2">
@@ -9374,7 +9464,7 @@
         <f>D16*(G16-H16)*1.3228</f>
         <v>11775.433319999993</v>
       </c>
-      <c r="M16" s="222">
+      <c r="M16" s="160">
         <f>N16/L16</f>
         <v>5.3660513615816594</v>
       </c>
@@ -9600,43 +9690,43 @@
       </c>
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A22" s="223" t="s">
+      <c r="A22" s="222" t="s">
         <v>296</v>
       </c>
-      <c r="B22" s="223" t="s">
+      <c r="B22" s="222" t="s">
         <v>329</v>
       </c>
-      <c r="C22" s="224">
+      <c r="C22" s="223">
         <v>29487625</v>
       </c>
-      <c r="D22" s="225">
+      <c r="D22" s="224">
         <f t="shared" si="0"/>
         <v>1701</v>
       </c>
-      <c r="E22" s="225" t="s">
+      <c r="E22" s="224" t="s">
         <v>345</v>
       </c>
-      <c r="F22" s="226">
+      <c r="F22" s="225">
         <v>6</v>
       </c>
-      <c r="G22" s="226">
+      <c r="G22" s="225">
         <v>325</v>
       </c>
-      <c r="H22" s="226">
+      <c r="H22" s="225">
         <f>futuros!B3</f>
-        <v>369.4</v>
-      </c>
-      <c r="I22" s="224"/>
-      <c r="J22" s="227">
+        <v>375.6</v>
+      </c>
+      <c r="I22" s="223"/>
+      <c r="J22" s="226">
         <v>46063</v>
       </c>
-      <c r="K22" s="227"/>
-      <c r="L22" s="228">
+      <c r="K22" s="226"/>
+      <c r="L22" s="227">
         <f t="shared" si="2"/>
-        <v>-99903.676319999955</v>
-      </c>
-      <c r="M22" s="229"/>
-      <c r="N22" s="228"/>
+        <v>-113854.18968000004</v>
+      </c>
+      <c r="M22" s="228"/>
+      <c r="N22" s="227"/>
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
@@ -9662,7 +9752,7 @@
       </c>
       <c r="H23" s="155">
         <f>futuros!B7</f>
-        <v>319.5</v>
+        <v>324.8</v>
       </c>
       <c r="I23" s="2"/>
       <c r="J23" s="162">
@@ -9671,7 +9761,7 @@
       <c r="K23" s="162"/>
       <c r="L23" s="215">
         <f t="shared" si="2"/>
-        <v>-63114.822539999965</v>
+        <v>-81002.980800000005</v>
       </c>
       <c r="M23" s="160"/>
       <c r="N23" s="215"/>
@@ -9699,7 +9789,7 @@
       </c>
       <c r="H24" s="155">
         <f>futuros!B7</f>
-        <v>319.5</v>
+        <v>324.8</v>
       </c>
       <c r="I24" s="2"/>
       <c r="J24" s="162">
@@ -9708,7 +9798,7 @@
       <c r="K24" s="162"/>
       <c r="L24" s="215">
         <f t="shared" si="2"/>
-        <v>8700.3201599999302</v>
+        <v>-7200.2649600001023</v>
       </c>
       <c r="M24" s="160"/>
       <c r="N24" s="215"/>
@@ -9736,7 +9826,7 @@
       </c>
       <c r="H25" s="155">
         <f>futuros!B7</f>
-        <v>319.5</v>
+        <v>324.8</v>
       </c>
       <c r="I25" s="2"/>
       <c r="J25" s="162">
@@ -9745,7 +9835,7 @@
       <c r="K25" s="162"/>
       <c r="L25" s="215">
         <f t="shared" si="2"/>
-        <v>-36901.357920000031</v>
+        <v>-52801.943040000071</v>
       </c>
       <c r="M25" s="160"/>
       <c r="N25" s="215"/>
@@ -9774,7 +9864,7 @@
       </c>
       <c r="H26" s="217">
         <f>futuros!B7</f>
-        <v>319.5</v>
+        <v>324.8</v>
       </c>
       <c r="I26" s="208"/>
       <c r="J26" s="219">
@@ -9783,7 +9873,7 @@
       <c r="K26" s="219"/>
       <c r="L26" s="220">
         <f t="shared" si="2"/>
-        <v>-330762.1716</v>
+        <v>-386414.2195200001</v>
       </c>
       <c r="M26" s="218"/>
       <c r="N26" s="220"/>
@@ -9812,7 +9902,7 @@
       </c>
       <c r="H27" s="155">
         <f>futuros!B12</f>
-        <v>301.3</v>
+        <v>309.35000000000002</v>
       </c>
       <c r="I27" s="2"/>
       <c r="J27" s="162">
@@ -9821,7 +9911,7 @@
       <c r="K27" s="162"/>
       <c r="L27" s="215">
         <f t="shared" si="2"/>
-        <v>-215745.43914000006</v>
+        <v>-248952.91113000008</v>
       </c>
       <c r="M27" s="160"/>
       <c r="N27" s="215"/>
@@ -9847,7 +9937,7 @@
       </c>
       <c r="H28" s="155">
         <f>futuros!B12</f>
-        <v>301.3</v>
+        <v>309.35000000000002</v>
       </c>
       <c r="I28" s="2"/>
       <c r="J28" s="162">
@@ -9856,7 +9946,7 @@
       <c r="K28" s="162"/>
       <c r="L28" s="215">
         <f t="shared" ref="L28" si="7">D28*(G28-H28)*1.3228</f>
-        <v>-198907.31952000002</v>
+        <v>-223058.20824000007</v>
       </c>
       <c r="M28" s="160"/>
       <c r="N28" s="215"/>
@@ -9882,7 +9972,7 @@
       </c>
       <c r="H29" s="155">
         <f>futuros!B12</f>
-        <v>301.3</v>
+        <v>309.35000000000002</v>
       </c>
       <c r="I29" s="2"/>
       <c r="J29" s="162">
@@ -9891,7 +9981,7 @@
       <c r="K29" s="162"/>
       <c r="L29" s="215">
         <f t="shared" ref="L29" si="9">D29*(G29-H29)*1.3228</f>
-        <v>-94315.97070000002</v>
+        <v>-109410.27615000003</v>
       </c>
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.2">
@@ -9915,7 +10005,7 @@
       </c>
       <c r="H30" s="155">
         <f>futuros!B12</f>
-        <v>301.3</v>
+        <v>309.35000000000002</v>
       </c>
       <c r="I30" s="2"/>
       <c r="J30" s="162">
@@ -9924,7 +10014,7 @@
       <c r="K30" s="162"/>
       <c r="L30" s="215">
         <f t="shared" ref="L30" si="11">D30*(G30-H30)*1.3228</f>
-        <v>-71815.142700000011</v>
+        <v>-86909.44815000004</v>
       </c>
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.2">
@@ -9948,7 +10038,7 @@
       </c>
       <c r="H31" s="155">
         <f>futuros!B12</f>
-        <v>301.3</v>
+        <v>309.35000000000002</v>
       </c>
       <c r="I31" s="2"/>
       <c r="J31" s="162">
@@ -9957,7 +10047,7 @@
       <c r="K31" s="162"/>
       <c r="L31" s="215">
         <f t="shared" ref="L31" si="13">D31*(G31-H31)*1.3228</f>
-        <v>9712.8574199999712</v>
+        <v>-11419.170210000058</v>
       </c>
     </row>
   </sheetData>
@@ -10689,10 +10779,10 @@
       <c r="M3" s="56" t="s">
         <v>111</v>
       </c>
-      <c r="N3" s="230" t="s">
+      <c r="N3" s="229" t="s">
         <v>112</v>
       </c>
-      <c r="O3" s="230"/>
+      <c r="O3" s="229"/>
       <c r="P3" s="55" t="s">
         <v>113</v>
       </c>
@@ -13773,8 +13863,8 @@
       <c r="K74" s="83"/>
       <c r="L74" s="83"/>
       <c r="M74" s="83"/>
-      <c r="N74" s="231"/>
-      <c r="O74" s="231"/>
+      <c r="N74" s="230"/>
+      <c r="O74" s="230"/>
       <c r="P74" s="83"/>
       <c r="Q74" s="83"/>
       <c r="R74" s="83"/>
@@ -16131,8 +16221,8 @@
       <c r="M8" s="4"/>
     </row>
     <row r="9" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B9" s="232"/>
-      <c r="C9" s="233"/>
+      <c r="B9" s="231"/>
+      <c r="C9" s="232"/>
       <c r="D9" s="6"/>
       <c r="E9" s="6" t="s">
         <v>48</v>
@@ -16734,10 +16824,10 @@
     </row>
     <row r="43" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B43" s="41"/>
-      <c r="C43" s="234" t="s">
+      <c r="C43" s="233" t="s">
         <v>74</v>
       </c>
-      <c r="D43" s="234"/>
+      <c r="D43" s="233"/>
     </row>
     <row r="44" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B44" s="42"/>
@@ -16747,10 +16837,10 @@
     </row>
     <row r="45" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B45" s="43"/>
-      <c r="C45" s="234" t="s">
+      <c r="C45" s="233" t="s">
         <v>76</v>
       </c>
-      <c r="D45" s="234"/>
+      <c r="D45" s="233"/>
     </row>
     <row r="46" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B46" s="44"/>

--- a/vendas_cafe_em_reais.xlsx
+++ b/vendas_cafe_em_reais.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rotocastro/PycharmProjects/Vendas Cafe/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7058749C-3638-3D47-B4C0-4DDB6BA75338}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E06122B-B5EF-8A44-9AE5-A7AF80A07498}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4420" yWindow="680" windowWidth="24980" windowHeight="18440" activeTab="1" xr2:uid="{AC82ADC5-E628-F847-8939-89BAF5623AE6}"/>
   </bookViews>
@@ -2708,26 +2708,26 @@
       </c>
       <c r="L6" s="177">
         <f>futuros!B2</f>
-        <v>407.1</v>
+        <v>405.6</v>
       </c>
       <c r="M6" s="177">
         <f>(L6+H6)*1.3228</f>
-        <v>578.19587999999999</v>
+        <v>576.21168</v>
       </c>
       <c r="N6" s="167">
         <f>(E6*(M6+H6))</f>
-        <v>194622.68160000001</v>
+        <v>193987.73759999999</v>
       </c>
       <c r="O6" s="178">
         <v>5.7</v>
       </c>
       <c r="P6" s="167">
         <f t="shared" ref="P6:P16" si="1">M6*O6</f>
-        <v>3295.716516</v>
+        <v>3284.4065760000003</v>
       </c>
       <c r="Q6" s="167">
         <f t="shared" ref="Q6:Q16" si="2">P6*E6</f>
-        <v>1054629.2851199999</v>
+        <v>1051010.1043200002</v>
       </c>
     </row>
     <row r="7" spans="2:20" x14ac:dyDescent="0.25">
@@ -2764,26 +2764,26 @@
       </c>
       <c r="L7" s="177">
         <f>L6</f>
-        <v>407.1</v>
+        <v>405.6</v>
       </c>
       <c r="M7" s="177">
         <f>(L7+H7)*1.3228</f>
-        <v>578.19587999999999</v>
+        <v>576.21168</v>
       </c>
       <c r="N7" s="167">
         <f>(E7*(M7+H7))</f>
-        <v>194622.68160000001</v>
+        <v>193987.73759999999</v>
       </c>
       <c r="O7" s="178">
         <v>5.7</v>
       </c>
       <c r="P7" s="167">
         <f t="shared" si="1"/>
-        <v>3295.716516</v>
+        <v>3284.4065760000003</v>
       </c>
       <c r="Q7" s="167">
         <f t="shared" si="2"/>
-        <v>1054629.2851199999</v>
+        <v>1051010.1043200002</v>
       </c>
     </row>
     <row r="8" spans="2:20" x14ac:dyDescent="0.25">
@@ -2820,26 +2820,26 @@
       </c>
       <c r="L8" s="177">
         <f>L7</f>
-        <v>407.1</v>
+        <v>405.6</v>
       </c>
       <c r="M8" s="177">
         <f>(L8+H8)*1.3228</f>
-        <v>578.19587999999999</v>
+        <v>576.21168</v>
       </c>
       <c r="N8" s="167">
         <f>(E8*(M8+H8))</f>
-        <v>194622.68160000001</v>
+        <v>193987.73759999999</v>
       </c>
       <c r="O8" s="178">
         <v>5.7</v>
       </c>
       <c r="P8" s="167">
         <f t="shared" si="1"/>
-        <v>3295.716516</v>
+        <v>3284.4065760000003</v>
       </c>
       <c r="Q8" s="167">
         <f t="shared" si="2"/>
-        <v>1054629.2851199999</v>
+        <v>1051010.1043200002</v>
       </c>
     </row>
     <row r="9" spans="2:20" x14ac:dyDescent="0.25">
@@ -2876,26 +2876,26 @@
       </c>
       <c r="L9" s="177">
         <f>futuros!B2</f>
-        <v>407.1</v>
+        <v>405.6</v>
       </c>
       <c r="M9" s="177">
         <f>(L9+H9)*1.3228</f>
-        <v>578.19587999999999</v>
+        <v>576.21168</v>
       </c>
       <c r="N9" s="167">
         <f>(E9*(M9+H9))</f>
-        <v>194622.68160000001</v>
+        <v>193987.73759999999</v>
       </c>
       <c r="O9" s="178">
         <v>5.7</v>
       </c>
       <c r="P9" s="167">
         <f t="shared" si="1"/>
-        <v>3295.716516</v>
+        <v>3284.4065760000003</v>
       </c>
       <c r="Q9" s="167">
         <f t="shared" si="2"/>
-        <v>1054629.2851199999</v>
+        <v>1051010.1043200002</v>
       </c>
     </row>
     <row r="10" spans="2:20" x14ac:dyDescent="0.25">
@@ -2932,26 +2932,26 @@
       </c>
       <c r="L10" s="177">
         <f>futuros!B3</f>
-        <v>375.6</v>
+        <v>376.65</v>
       </c>
       <c r="M10" s="177">
         <f>(L10+H10)*1.3228</f>
-        <v>536.52768000000003</v>
+        <v>537.91661999999997</v>
       </c>
       <c r="N10" s="167">
         <f>(E10*(M10+H10))</f>
-        <v>181288.85760000002</v>
+        <v>181733.31839999999</v>
       </c>
       <c r="O10" s="178">
         <v>5.7</v>
       </c>
       <c r="P10" s="167">
         <f t="shared" si="1"/>
-        <v>3058.2077760000002</v>
+        <v>3066.124734</v>
       </c>
       <c r="Q10" s="167">
         <f t="shared" si="2"/>
-        <v>978626.48832</v>
+        <v>981159.91488000005</v>
       </c>
     </row>
     <row r="11" spans="2:20" x14ac:dyDescent="0.25">
@@ -2988,26 +2988,26 @@
       </c>
       <c r="L11" s="177">
         <f>futuros!B2</f>
-        <v>407.1</v>
+        <v>405.6</v>
       </c>
       <c r="M11" s="177">
         <f t="shared" ref="M11:M16" si="4">(L11+H11)*1.3228</f>
-        <v>575.55028000000004</v>
+        <v>573.56608000000006</v>
       </c>
       <c r="N11" s="167">
         <f t="shared" ref="N11:N16" si="5">(E11*(M11+H11))</f>
-        <v>193136.08960000001</v>
+        <v>192501.14560000002</v>
       </c>
       <c r="O11" s="178">
         <v>5.7</v>
       </c>
       <c r="P11" s="167">
         <f t="shared" si="1"/>
-        <v>3280.6365960000003</v>
+        <v>3269.3266560000006</v>
       </c>
       <c r="Q11" s="167">
         <f t="shared" si="2"/>
-        <v>1049803.7107200001</v>
+        <v>1046184.5299200002</v>
       </c>
     </row>
     <row r="12" spans="2:20" x14ac:dyDescent="0.25">
@@ -3044,26 +3044,26 @@
       </c>
       <c r="L12" s="177">
         <f>futuros!B2</f>
-        <v>407.1</v>
+        <v>405.6</v>
       </c>
       <c r="M12" s="177">
         <f t="shared" si="4"/>
-        <v>575.55028000000004</v>
+        <v>573.56608000000006</v>
       </c>
       <c r="N12" s="167">
         <f t="shared" si="5"/>
-        <v>193136.08960000001</v>
+        <v>192501.14560000002</v>
       </c>
       <c r="O12" s="178">
         <v>5.7</v>
       </c>
       <c r="P12" s="167">
         <f t="shared" si="1"/>
-        <v>3280.6365960000003</v>
+        <v>3269.3266560000006</v>
       </c>
       <c r="Q12" s="167">
         <f t="shared" si="2"/>
-        <v>1049803.7107200001</v>
+        <v>1046184.5299200002</v>
       </c>
     </row>
     <row r="13" spans="2:20" s="166" customFormat="1" x14ac:dyDescent="0.25">
@@ -3100,26 +3100,26 @@
       </c>
       <c r="L13" s="177">
         <f>futuros!B3</f>
-        <v>375.6</v>
+        <v>376.65</v>
       </c>
       <c r="M13" s="177">
         <f t="shared" si="4"/>
-        <v>533.88207999999997</v>
+        <v>535.27101999999991</v>
       </c>
       <c r="N13" s="167">
         <f t="shared" si="5"/>
-        <v>179802.26559999998</v>
+        <v>180246.72639999999</v>
       </c>
       <c r="O13" s="178">
         <v>5.7</v>
       </c>
       <c r="P13" s="167">
         <f t="shared" si="1"/>
-        <v>3043.1278560000001</v>
+        <v>3051.0448139999994</v>
       </c>
       <c r="Q13" s="167">
         <f t="shared" si="2"/>
-        <v>973800.91391999996</v>
+        <v>976334.34047999978</v>
       </c>
       <c r="R13" s="163"/>
       <c r="S13" s="163"/>
@@ -3159,26 +3159,26 @@
       </c>
       <c r="L14" s="177">
         <f>futuros!B4</f>
-        <v>358.65</v>
+        <v>358.9</v>
       </c>
       <c r="M14" s="177">
         <f t="shared" si="4"/>
-        <v>511.46061999999995</v>
+        <v>511.79131999999998</v>
       </c>
       <c r="N14" s="167">
         <f t="shared" si="5"/>
-        <v>172627.39839999998</v>
+        <v>172733.22240000003</v>
       </c>
       <c r="O14" s="178">
         <v>5.7</v>
       </c>
       <c r="P14" s="167">
         <f t="shared" si="1"/>
-        <v>2915.3255339999996</v>
+        <v>2917.2105240000001</v>
       </c>
       <c r="Q14" s="167">
         <f t="shared" si="2"/>
-        <v>932904.17087999987</v>
+        <v>933507.36768000002</v>
       </c>
       <c r="R14" s="163"/>
       <c r="S14" s="163"/>
@@ -3218,26 +3218,26 @@
       </c>
       <c r="L15" s="177">
         <f>futuros!B3</f>
-        <v>375.6</v>
+        <v>376.65</v>
       </c>
       <c r="M15" s="177">
         <f t="shared" si="4"/>
-        <v>467.74208000000004</v>
+        <v>469.13101999999998</v>
       </c>
       <c r="N15" s="167">
         <f t="shared" si="5"/>
-        <v>142637.46560000003</v>
+        <v>143081.9264</v>
       </c>
       <c r="O15" s="178">
         <v>5.7</v>
       </c>
       <c r="P15" s="167">
         <f t="shared" si="1"/>
-        <v>2666.1298560000005</v>
+        <v>2674.0468139999998</v>
       </c>
       <c r="Q15" s="167">
         <f t="shared" si="2"/>
-        <v>853161.55392000009</v>
+        <v>855694.98047999991</v>
       </c>
       <c r="R15" s="163"/>
       <c r="S15" s="163"/>
@@ -3277,26 +3277,26 @@
       </c>
       <c r="L16" s="177">
         <f>futuros!B2</f>
-        <v>407.1</v>
+        <v>405.6</v>
       </c>
       <c r="M16" s="177">
         <f t="shared" si="4"/>
-        <v>608.62027999999998</v>
+        <v>606.63607999999999</v>
       </c>
       <c r="N16" s="167">
         <f t="shared" si="5"/>
-        <v>211718.4896</v>
+        <v>211083.54560000001</v>
       </c>
       <c r="O16" s="178">
         <v>5.7</v>
       </c>
       <c r="P16" s="167">
         <f t="shared" si="1"/>
-        <v>3469.1355960000001</v>
+        <v>3457.825656</v>
       </c>
       <c r="Q16" s="167">
         <f t="shared" si="2"/>
-        <v>1110123.39072</v>
+        <v>1106504.2099200001</v>
       </c>
       <c r="R16" s="163"/>
       <c r="S16" s="163"/>
@@ -3423,20 +3423,20 @@
       <c r="L19" s="179"/>
       <c r="M19" s="182">
         <f>N19/E19</f>
-        <v>564.86548714285721</v>
+        <v>564.19463857142853</v>
       </c>
       <c r="N19" s="183">
         <f>SUM(N5:N18)</f>
-        <v>2530597.3824000005</v>
+        <v>2527591.9808</v>
       </c>
       <c r="O19" s="184"/>
       <c r="P19" s="185">
         <f>Q19/E19</f>
-        <v>3100.4404195714283</v>
+        <v>3096.6165827142859</v>
       </c>
       <c r="Q19" s="183">
         <f>SUM(Q5:Q18)</f>
-        <v>13889973.07968</v>
+        <v>13872842.290560002</v>
       </c>
     </row>
     <row r="20" spans="2:17" x14ac:dyDescent="0.25">
@@ -3559,7 +3559,7 @@
       </c>
       <c r="I25" s="177">
         <f>futuros!B2</f>
-        <v>407.1</v>
+        <v>405.6</v>
       </c>
       <c r="K25" s="163"/>
       <c r="L25" s="197">
@@ -3568,7 +3568,7 @@
       <c r="M25" s="163"/>
       <c r="N25" s="198">
         <f>(H25-I25)*1.3228*D25</f>
-        <v>-1514069.4657059999</v>
+        <v>-1504112.849316</v>
       </c>
       <c r="O25" s="178">
         <f>O5</f>
@@ -3576,7 +3576,7 @@
       </c>
       <c r="Q25" s="198">
         <f>N25*O25</f>
-        <v>-8630195.9545242004</v>
+        <v>-8573443.2411011998</v>
       </c>
     </row>
     <row r="26" spans="2:17" x14ac:dyDescent="0.25">
@@ -3601,7 +3601,7 @@
       </c>
       <c r="I26" s="177">
         <f>I25</f>
-        <v>407.1</v>
+        <v>405.6</v>
       </c>
       <c r="K26" s="163"/>
       <c r="L26" s="197">
@@ -3610,7 +3610,7 @@
       <c r="M26" s="163"/>
       <c r="N26" s="198">
         <f>(H26-I26)*1.3228*D26</f>
-        <v>-553895.38260000013</v>
+        <v>-549957.73770000006</v>
       </c>
       <c r="O26" s="178">
         <f>O6</f>
@@ -3618,7 +3618,7 @@
       </c>
       <c r="Q26" s="198">
         <f t="shared" ref="Q26:Q27" si="6">N26*O26</f>
-        <v>-3157203.6808200008</v>
+        <v>-3134759.1048900005</v>
       </c>
     </row>
     <row r="27" spans="2:17" x14ac:dyDescent="0.25">
@@ -3642,7 +3642,7 @@
       </c>
       <c r="I27" s="200">
         <f>I26</f>
-        <v>407.1</v>
+        <v>405.6</v>
       </c>
       <c r="K27" s="163"/>
       <c r="L27" s="197">
@@ -3651,7 +3651,7 @@
       <c r="M27" s="163"/>
       <c r="N27" s="198">
         <f>(H27-I27)*1.3228*D27</f>
-        <v>-735004.54717200005</v>
+        <v>-729041.82775200019</v>
       </c>
       <c r="O27" s="178">
         <f>O7</f>
@@ -3659,7 +3659,7 @@
       </c>
       <c r="Q27" s="198">
         <f t="shared" si="6"/>
-        <v>-4189525.9188804002</v>
+        <v>-4155538.418186401</v>
       </c>
     </row>
     <row r="28" spans="2:17" x14ac:dyDescent="0.25">
@@ -3682,13 +3682,13 @@
       <c r="M28" s="202"/>
       <c r="N28" s="202">
         <f>SUM(N25:N27)</f>
-        <v>-2802969.3954779999</v>
+        <v>-2783112.4147680001</v>
       </c>
       <c r="O28" s="201"/>
       <c r="P28" s="201"/>
       <c r="Q28" s="202">
         <f>SUM(Q25:Q27)</f>
-        <v>-15976925.554224603</v>
+        <v>-15863740.764177602</v>
       </c>
     </row>
     <row r="29" spans="2:17" x14ac:dyDescent="0.25">
@@ -4372,7 +4372,7 @@
       </c>
       <c r="I57" s="177">
         <f>futuros!B7</f>
-        <v>324.8</v>
+        <v>326.35000000000002</v>
       </c>
       <c r="K57" s="178">
         <f>O8</f>
@@ -4384,7 +4384,7 @@
       <c r="M57" s="198"/>
       <c r="N57" s="198">
         <f>(H57-I57)*1.3228*D57</f>
-        <v>-81002.980800000005</v>
+        <v>-86234.423310000027</v>
       </c>
       <c r="O57" s="166">
         <f>O25</f>
@@ -4392,7 +4392,7 @@
       </c>
       <c r="Q57" s="198">
         <f>N57*O57</f>
-        <v>-461716.99056000006</v>
+        <v>-491536.2128670002</v>
       </c>
     </row>
     <row r="58" spans="2:17" x14ac:dyDescent="0.25">
@@ -4416,7 +4416,7 @@
       </c>
       <c r="I58" s="177">
         <f>I57</f>
-        <v>324.8</v>
+        <v>326.35000000000002</v>
       </c>
       <c r="K58" s="178">
         <f>O9</f>
@@ -4428,7 +4428,7 @@
       <c r="M58" s="198"/>
       <c r="N58" s="198">
         <f>(H58-I58)*1.3228*D58</f>
-        <v>-7200.2649600001023</v>
+        <v>-11850.436080000138</v>
       </c>
       <c r="O58" s="166">
         <f>O26</f>
@@ -4436,7 +4436,7 @@
       </c>
       <c r="Q58" s="198">
         <f>N58*O58</f>
-        <v>-41041.510272000582</v>
+        <v>-67547.48565600079</v>
       </c>
     </row>
     <row r="59" spans="2:17" x14ac:dyDescent="0.25">
@@ -4459,13 +4459,13 @@
       <c r="M59" s="201"/>
       <c r="N59" s="202">
         <f>SUM(N56:N58)</f>
-        <v>-88203.245760000107</v>
+        <v>-98084.859390000172</v>
       </c>
       <c r="O59" s="201"/>
       <c r="P59" s="201"/>
       <c r="Q59" s="202">
         <f>SUM(Q56:Q58)</f>
-        <v>-502758.50083200063</v>
+        <v>-559083.69852300105</v>
       </c>
     </row>
     <row r="64" spans="2:17" x14ac:dyDescent="0.25">
@@ -4606,7 +4606,7 @@
   <dimension ref="A1:T80"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A42" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A25" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="D75" sqref="D75"/>
     </sheetView>
   </sheetViews>
@@ -8577,7 +8577,7 @@
         <v>270</v>
       </c>
       <c r="D1" s="162">
-        <v>45992</v>
+        <v>45999</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -8585,11 +8585,11 @@
         <v>46021</v>
       </c>
       <c r="B2" s="155">
-        <v>407.1</v>
+        <v>405.6</v>
       </c>
       <c r="C2" s="155">
         <f t="shared" ref="C2:C11" si="0">B2*1.3228</f>
-        <v>538.51188000000002</v>
+        <v>536.52768000000003</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -8597,11 +8597,11 @@
         <v>46112</v>
       </c>
       <c r="B3" s="155">
-        <v>375.6</v>
+        <v>376.65</v>
       </c>
       <c r="C3" s="155">
         <f t="shared" si="0"/>
-        <v>496.84368000000001</v>
+        <v>498.23261999999994</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
@@ -8609,11 +8609,11 @@
         <v>46173</v>
       </c>
       <c r="B4" s="155">
-        <v>358.65</v>
+        <v>358.9</v>
       </c>
       <c r="C4" s="155">
         <f t="shared" si="0"/>
-        <v>474.42221999999998</v>
+        <v>474.75291999999996</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
@@ -8621,11 +8621,11 @@
         <v>46231</v>
       </c>
       <c r="B5" s="155">
-        <v>344.65</v>
+        <v>345.45</v>
       </c>
       <c r="C5" s="155">
         <f t="shared" si="0"/>
-        <v>455.90301999999997</v>
+        <v>456.96125999999998</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
@@ -8633,11 +8633,11 @@
         <v>46295</v>
       </c>
       <c r="B6" s="155">
-        <v>332.75</v>
+        <v>334.85</v>
       </c>
       <c r="C6" s="155">
         <f t="shared" si="0"/>
-        <v>440.1617</v>
+        <v>442.93958000000003</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
@@ -8645,11 +8645,11 @@
         <v>46386</v>
       </c>
       <c r="B7" s="155">
-        <v>324.8</v>
+        <v>326.35000000000002</v>
       </c>
       <c r="C7" s="155">
         <f t="shared" si="0"/>
-        <v>429.64544000000001</v>
+        <v>431.69578000000001</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
@@ -8657,11 +8657,11 @@
         <v>46477</v>
       </c>
       <c r="B8" s="155">
-        <v>325.89999999999998</v>
+        <v>318.60000000000002</v>
       </c>
       <c r="C8" s="155">
         <f t="shared" si="0"/>
-        <v>431.10051999999996</v>
+        <v>421.44408000000004</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
@@ -8669,11 +8669,11 @@
         <v>46538</v>
       </c>
       <c r="B9" s="155">
-        <v>322.7</v>
+        <v>315.5</v>
       </c>
       <c r="C9" s="155">
         <f t="shared" si="0"/>
-        <v>426.86755999999997</v>
+        <v>417.34339999999997</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
@@ -8681,11 +8681,11 @@
         <v>46596</v>
       </c>
       <c r="B10" s="155">
-        <v>318.89999999999998</v>
+        <v>311.85000000000002</v>
       </c>
       <c r="C10" s="155">
         <f t="shared" si="0"/>
-        <v>421.84091999999998</v>
+        <v>412.51518000000004</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
@@ -8693,11 +8693,11 @@
         <v>46660</v>
       </c>
       <c r="B11" s="155">
-        <v>314.64999999999998</v>
+        <v>308</v>
       </c>
       <c r="C11" s="155">
         <f t="shared" si="0"/>
-        <v>416.21901999999994</v>
+        <v>407.42239999999998</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
@@ -8705,11 +8705,11 @@
         <v>46751</v>
       </c>
       <c r="B12" s="155">
-        <v>309.35000000000002</v>
+        <v>303</v>
       </c>
       <c r="C12" s="155">
         <f>B12*1.3228</f>
-        <v>409.20818000000003</v>
+        <v>400.80840000000001</v>
       </c>
     </row>
   </sheetData>
@@ -8723,8 +8723,8 @@
   <dimension ref="A1:N31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A21" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L22" sqref="L22:L31"/>
+      <pane ySplit="1" topLeftCell="A16" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H22" sqref="H22:H31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -9714,7 +9714,7 @@
       </c>
       <c r="H22" s="225">
         <f>futuros!B3</f>
-        <v>375.6</v>
+        <v>376.65</v>
       </c>
       <c r="I22" s="223"/>
       <c r="J22" s="226">
@@ -9723,7 +9723,7 @@
       <c r="K22" s="226"/>
       <c r="L22" s="227">
         <f t="shared" si="2"/>
-        <v>-113854.18968000004</v>
+        <v>-116216.77661999995</v>
       </c>
       <c r="M22" s="228"/>
       <c r="N22" s="227"/>
@@ -9752,7 +9752,7 @@
       </c>
       <c r="H23" s="155">
         <f>futuros!B7</f>
-        <v>324.8</v>
+        <v>326.35000000000002</v>
       </c>
       <c r="I23" s="2"/>
       <c r="J23" s="162">
@@ -9761,7 +9761,7 @@
       <c r="K23" s="162"/>
       <c r="L23" s="215">
         <f t="shared" si="2"/>
-        <v>-81002.980800000005</v>
+        <v>-86234.423310000027</v>
       </c>
       <c r="M23" s="160"/>
       <c r="N23" s="215"/>
@@ -9789,7 +9789,7 @@
       </c>
       <c r="H24" s="155">
         <f>futuros!B7</f>
-        <v>324.8</v>
+        <v>326.35000000000002</v>
       </c>
       <c r="I24" s="2"/>
       <c r="J24" s="162">
@@ -9798,7 +9798,7 @@
       <c r="K24" s="162"/>
       <c r="L24" s="215">
         <f t="shared" si="2"/>
-        <v>-7200.2649600001023</v>
+        <v>-11850.436080000138</v>
       </c>
       <c r="M24" s="160"/>
       <c r="N24" s="215"/>
@@ -9826,7 +9826,7 @@
       </c>
       <c r="H25" s="155">
         <f>futuros!B7</f>
-        <v>324.8</v>
+        <v>326.35000000000002</v>
       </c>
       <c r="I25" s="2"/>
       <c r="J25" s="162">
@@ -9835,7 +9835,7 @@
       <c r="K25" s="162"/>
       <c r="L25" s="215">
         <f t="shared" si="2"/>
-        <v>-52801.943040000071</v>
+        <v>-57452.114160000099</v>
       </c>
       <c r="M25" s="160"/>
       <c r="N25" s="215"/>
@@ -9864,7 +9864,7 @@
       </c>
       <c r="H26" s="217">
         <f>futuros!B7</f>
-        <v>324.8</v>
+        <v>326.35000000000002</v>
       </c>
       <c r="I26" s="208"/>
       <c r="J26" s="219">
@@ -9873,7 +9873,7 @@
       <c r="K26" s="219"/>
       <c r="L26" s="220">
         <f t="shared" si="2"/>
-        <v>-386414.2195200001</v>
+        <v>-402689.81844000024</v>
       </c>
       <c r="M26" s="218"/>
       <c r="N26" s="220"/>
@@ -9902,7 +9902,7 @@
       </c>
       <c r="H27" s="155">
         <f>futuros!B12</f>
-        <v>309.35000000000002</v>
+        <v>303</v>
       </c>
       <c r="I27" s="2"/>
       <c r="J27" s="162">
@@ -9911,7 +9911,7 @@
       <c r="K27" s="162"/>
       <c r="L27" s="215">
         <f t="shared" si="2"/>
-        <v>-248952.91113000008</v>
+        <v>-222758.1972</v>
       </c>
       <c r="M27" s="160"/>
       <c r="N27" s="215"/>
@@ -9937,7 +9937,7 @@
       </c>
       <c r="H28" s="155">
         <f>futuros!B12</f>
-        <v>309.35000000000002</v>
+        <v>303</v>
       </c>
       <c r="I28" s="2"/>
       <c r="J28" s="162">
@@ -9946,7 +9946,7 @@
       <c r="K28" s="162"/>
       <c r="L28" s="215">
         <f t="shared" ref="L28" si="7">D28*(G28-H28)*1.3228</f>
-        <v>-223058.20824000007</v>
+        <v>-204007.50719999999</v>
       </c>
       <c r="M28" s="160"/>
       <c r="N28" s="215"/>
@@ -9972,7 +9972,7 @@
       </c>
       <c r="H29" s="155">
         <f>futuros!B12</f>
-        <v>309.35000000000002</v>
+        <v>303</v>
       </c>
       <c r="I29" s="2"/>
       <c r="J29" s="162">
@@ -9981,7 +9981,7 @@
       <c r="K29" s="162"/>
       <c r="L29" s="215">
         <f t="shared" ref="L29" si="9">D29*(G29-H29)*1.3228</f>
-        <v>-109410.27615000003</v>
+        <v>-97503.588000000003</v>
       </c>
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.2">
@@ -10005,7 +10005,7 @@
       </c>
       <c r="H30" s="155">
         <f>futuros!B12</f>
-        <v>309.35000000000002</v>
+        <v>303</v>
       </c>
       <c r="I30" s="2"/>
       <c r="J30" s="162">
@@ -10014,7 +10014,7 @@
       <c r="K30" s="162"/>
       <c r="L30" s="215">
         <f t="shared" ref="L30" si="11">D30*(G30-H30)*1.3228</f>
-        <v>-86909.44815000004</v>
+        <v>-75002.759999999995</v>
       </c>
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.2">
@@ -10038,7 +10038,7 @@
       </c>
       <c r="H31" s="155">
         <f>futuros!B12</f>
-        <v>309.35000000000002</v>
+        <v>303</v>
       </c>
       <c r="I31" s="2"/>
       <c r="J31" s="162">
@@ -10047,7 +10047,7 @@
       <c r="K31" s="162"/>
       <c r="L31" s="215">
         <f t="shared" ref="L31" si="13">D31*(G31-H31)*1.3228</f>
-        <v>-11419.170210000058</v>
+        <v>5250.1931999999997</v>
       </c>
     </row>
   </sheetData>

--- a/vendas_cafe_em_reais.xlsx
+++ b/vendas_cafe_em_reais.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rotocastro/PycharmProjects/Vendas Cafe/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E06122B-B5EF-8A44-9AE5-A7AF80A07498}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A415B8E2-3D36-EC4E-A522-1B95010FDFFC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4420" yWindow="680" windowWidth="24980" windowHeight="18440" activeTab="1" xr2:uid="{AC82ADC5-E628-F847-8939-89BAF5623AE6}"/>
+    <workbookView xWindow="3680" yWindow="660" windowWidth="25720" windowHeight="18460" activeTab="2" xr2:uid="{AC82ADC5-E628-F847-8939-89BAF5623AE6}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2 (2)" sheetId="16" state="hidden" r:id="rId1"/>
@@ -24,7 +24,7 @@
     <sheet name="CashFlow_Edson_Luiz" sheetId="3" state="hidden" r:id="rId9"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Sheet2!$A$1:$Q$80</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Sheet2!$A$1:$Q$83</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">'VENDA CAFÉ 220125'!$A$3:$Z$61</definedName>
     <definedName name="LITRAGEM" localSheetId="7">#REF!</definedName>
     <definedName name="LITRAGEM" localSheetId="5">#REF!</definedName>
@@ -70,7 +70,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1009" uniqueCount="365">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1024" uniqueCount="368">
   <si>
     <t>026/24</t>
   </si>
@@ -1165,6 +1165,15 @@
   </si>
   <si>
     <t>Café 3 Corações</t>
+  </si>
+  <si>
+    <t>081/25</t>
+  </si>
+  <si>
+    <t>082/25</t>
+  </si>
+  <si>
+    <t>083/25</t>
   </si>
 </sst>
 </file>
@@ -2708,26 +2717,26 @@
       </c>
       <c r="L6" s="177">
         <f>futuros!B2</f>
-        <v>405.6</v>
+        <v>351.9</v>
       </c>
       <c r="M6" s="177">
         <f>(L6+H6)*1.3228</f>
-        <v>576.21168</v>
+        <v>505.17731999999995</v>
       </c>
       <c r="N6" s="167">
         <f>(E6*(M6+H6))</f>
-        <v>193987.73759999999</v>
+        <v>171256.74239999999</v>
       </c>
       <c r="O6" s="178">
         <v>5.7</v>
       </c>
       <c r="P6" s="167">
         <f t="shared" ref="P6:P16" si="1">M6*O6</f>
-        <v>3284.4065760000003</v>
+        <v>2879.5107239999998</v>
       </c>
       <c r="Q6" s="167">
         <f t="shared" ref="Q6:Q16" si="2">P6*E6</f>
-        <v>1051010.1043200002</v>
+        <v>921443.43167999992</v>
       </c>
     </row>
     <row r="7" spans="2:20" x14ac:dyDescent="0.25">
@@ -2764,26 +2773,26 @@
       </c>
       <c r="L7" s="177">
         <f>L6</f>
-        <v>405.6</v>
+        <v>351.9</v>
       </c>
       <c r="M7" s="177">
         <f>(L7+H7)*1.3228</f>
-        <v>576.21168</v>
+        <v>505.17731999999995</v>
       </c>
       <c r="N7" s="167">
         <f>(E7*(M7+H7))</f>
-        <v>193987.73759999999</v>
+        <v>171256.74239999999</v>
       </c>
       <c r="O7" s="178">
         <v>5.7</v>
       </c>
       <c r="P7" s="167">
         <f t="shared" si="1"/>
-        <v>3284.4065760000003</v>
+        <v>2879.5107239999998</v>
       </c>
       <c r="Q7" s="167">
         <f t="shared" si="2"/>
-        <v>1051010.1043200002</v>
+        <v>921443.43167999992</v>
       </c>
     </row>
     <row r="8" spans="2:20" x14ac:dyDescent="0.25">
@@ -2820,26 +2829,26 @@
       </c>
       <c r="L8" s="177">
         <f>L7</f>
-        <v>405.6</v>
+        <v>351.9</v>
       </c>
       <c r="M8" s="177">
         <f>(L8+H8)*1.3228</f>
-        <v>576.21168</v>
+        <v>505.17731999999995</v>
       </c>
       <c r="N8" s="167">
         <f>(E8*(M8+H8))</f>
-        <v>193987.73759999999</v>
+        <v>171256.74239999999</v>
       </c>
       <c r="O8" s="178">
         <v>5.7</v>
       </c>
       <c r="P8" s="167">
         <f t="shared" si="1"/>
-        <v>3284.4065760000003</v>
+        <v>2879.5107239999998</v>
       </c>
       <c r="Q8" s="167">
         <f t="shared" si="2"/>
-        <v>1051010.1043200002</v>
+        <v>921443.43167999992</v>
       </c>
     </row>
     <row r="9" spans="2:20" x14ac:dyDescent="0.25">
@@ -2876,26 +2885,26 @@
       </c>
       <c r="L9" s="177">
         <f>futuros!B2</f>
-        <v>405.6</v>
+        <v>351.9</v>
       </c>
       <c r="M9" s="177">
         <f>(L9+H9)*1.3228</f>
-        <v>576.21168</v>
+        <v>505.17731999999995</v>
       </c>
       <c r="N9" s="167">
         <f>(E9*(M9+H9))</f>
-        <v>193987.73759999999</v>
+        <v>171256.74239999999</v>
       </c>
       <c r="O9" s="178">
         <v>5.7</v>
       </c>
       <c r="P9" s="167">
         <f t="shared" si="1"/>
-        <v>3284.4065760000003</v>
+        <v>2879.5107239999998</v>
       </c>
       <c r="Q9" s="167">
         <f t="shared" si="2"/>
-        <v>1051010.1043200002</v>
+        <v>921443.43167999992</v>
       </c>
     </row>
     <row r="10" spans="2:20" x14ac:dyDescent="0.25">
@@ -2932,26 +2941,26 @@
       </c>
       <c r="L10" s="177">
         <f>futuros!B3</f>
-        <v>376.65</v>
+        <v>345.15</v>
       </c>
       <c r="M10" s="177">
         <f>(L10+H10)*1.3228</f>
-        <v>537.91661999999997</v>
+        <v>496.24841999999995</v>
       </c>
       <c r="N10" s="167">
         <f>(E10*(M10+H10))</f>
-        <v>181733.31839999999</v>
+        <v>168399.49439999997</v>
       </c>
       <c r="O10" s="178">
         <v>5.7</v>
       </c>
       <c r="P10" s="167">
         <f t="shared" si="1"/>
-        <v>3066.124734</v>
+        <v>2828.6159939999998</v>
       </c>
       <c r="Q10" s="167">
         <f t="shared" si="2"/>
-        <v>981159.91488000005</v>
+        <v>905157.11807999993</v>
       </c>
     </row>
     <row r="11" spans="2:20" x14ac:dyDescent="0.25">
@@ -2988,26 +2997,26 @@
       </c>
       <c r="L11" s="177">
         <f>futuros!B2</f>
-        <v>405.6</v>
+        <v>351.9</v>
       </c>
       <c r="M11" s="177">
         <f t="shared" ref="M11:M16" si="4">(L11+H11)*1.3228</f>
-        <v>573.56608000000006</v>
+        <v>502.53171999999995</v>
       </c>
       <c r="N11" s="167">
         <f t="shared" ref="N11:N16" si="5">(E11*(M11+H11))</f>
-        <v>192501.14560000002</v>
+        <v>169770.15039999998</v>
       </c>
       <c r="O11" s="178">
         <v>5.7</v>
       </c>
       <c r="P11" s="167">
         <f t="shared" si="1"/>
-        <v>3269.3266560000006</v>
+        <v>2864.4308039999996</v>
       </c>
       <c r="Q11" s="167">
         <f t="shared" si="2"/>
-        <v>1046184.5299200002</v>
+        <v>916617.85727999988</v>
       </c>
     </row>
     <row r="12" spans="2:20" x14ac:dyDescent="0.25">
@@ -3044,26 +3053,26 @@
       </c>
       <c r="L12" s="177">
         <f>futuros!B2</f>
-        <v>405.6</v>
+        <v>351.9</v>
       </c>
       <c r="M12" s="177">
         <f t="shared" si="4"/>
-        <v>573.56608000000006</v>
+        <v>502.53171999999995</v>
       </c>
       <c r="N12" s="167">
         <f t="shared" si="5"/>
-        <v>192501.14560000002</v>
+        <v>169770.15039999998</v>
       </c>
       <c r="O12" s="178">
         <v>5.7</v>
       </c>
       <c r="P12" s="167">
         <f t="shared" si="1"/>
-        <v>3269.3266560000006</v>
+        <v>2864.4308039999996</v>
       </c>
       <c r="Q12" s="167">
         <f t="shared" si="2"/>
-        <v>1046184.5299200002</v>
+        <v>916617.85727999988</v>
       </c>
     </row>
     <row r="13" spans="2:20" s="166" customFormat="1" x14ac:dyDescent="0.25">
@@ -3100,26 +3109,26 @@
       </c>
       <c r="L13" s="177">
         <f>futuros!B3</f>
-        <v>376.65</v>
+        <v>345.15</v>
       </c>
       <c r="M13" s="177">
         <f t="shared" si="4"/>
-        <v>535.27101999999991</v>
+        <v>493.60281999999995</v>
       </c>
       <c r="N13" s="167">
         <f t="shared" si="5"/>
-        <v>180246.72639999999</v>
+        <v>166912.90239999999</v>
       </c>
       <c r="O13" s="178">
         <v>5.7</v>
       </c>
       <c r="P13" s="167">
         <f t="shared" si="1"/>
-        <v>3051.0448139999994</v>
+        <v>2813.5360739999996</v>
       </c>
       <c r="Q13" s="167">
         <f t="shared" si="2"/>
-        <v>976334.34047999978</v>
+        <v>900331.54367999989</v>
       </c>
       <c r="R13" s="163"/>
       <c r="S13" s="163"/>
@@ -3159,26 +3168,26 @@
       </c>
       <c r="L14" s="177">
         <f>futuros!B4</f>
-        <v>358.9</v>
+        <v>330.85</v>
       </c>
       <c r="M14" s="177">
         <f t="shared" si="4"/>
-        <v>511.79131999999998</v>
+        <v>474.68678</v>
       </c>
       <c r="N14" s="167">
         <f t="shared" si="5"/>
-        <v>172733.22240000003</v>
+        <v>160859.7696</v>
       </c>
       <c r="O14" s="178">
         <v>5.7</v>
       </c>
       <c r="P14" s="167">
         <f t="shared" si="1"/>
-        <v>2917.2105240000001</v>
+        <v>2705.7146459999999</v>
       </c>
       <c r="Q14" s="167">
         <f t="shared" si="2"/>
-        <v>933507.36768000002</v>
+        <v>865828.68672</v>
       </c>
       <c r="R14" s="163"/>
       <c r="S14" s="163"/>
@@ -3218,26 +3227,26 @@
       </c>
       <c r="L15" s="177">
         <f>futuros!B3</f>
-        <v>376.65</v>
+        <v>345.15</v>
       </c>
       <c r="M15" s="177">
         <f t="shared" si="4"/>
-        <v>469.13101999999998</v>
+        <v>427.46281999999997</v>
       </c>
       <c r="N15" s="167">
         <f t="shared" si="5"/>
-        <v>143081.9264</v>
+        <v>129748.10239999999</v>
       </c>
       <c r="O15" s="178">
         <v>5.7</v>
       </c>
       <c r="P15" s="167">
         <f t="shared" si="1"/>
-        <v>2674.0468139999998</v>
+        <v>2436.5380740000001</v>
       </c>
       <c r="Q15" s="167">
         <f t="shared" si="2"/>
-        <v>855694.98047999991</v>
+        <v>779692.18368000002</v>
       </c>
       <c r="R15" s="163"/>
       <c r="S15" s="163"/>
@@ -3277,26 +3286,26 @@
       </c>
       <c r="L16" s="177">
         <f>futuros!B2</f>
-        <v>405.6</v>
+        <v>351.9</v>
       </c>
       <c r="M16" s="177">
         <f t="shared" si="4"/>
-        <v>606.63607999999999</v>
+        <v>535.60172</v>
       </c>
       <c r="N16" s="167">
         <f t="shared" si="5"/>
-        <v>211083.54560000001</v>
+        <v>188352.55040000001</v>
       </c>
       <c r="O16" s="178">
         <v>5.7</v>
       </c>
       <c r="P16" s="167">
         <f t="shared" si="1"/>
-        <v>3457.825656</v>
+        <v>3052.9298039999999</v>
       </c>
       <c r="Q16" s="167">
         <f t="shared" si="2"/>
-        <v>1106504.2099200001</v>
+        <v>976937.53727999993</v>
       </c>
       <c r="R16" s="163"/>
       <c r="S16" s="163"/>
@@ -3423,20 +3432,20 @@
       <c r="L19" s="179"/>
       <c r="M19" s="182">
         <f>N19/E19</f>
-        <v>564.19463857142853</v>
+        <v>517.09823428571417</v>
       </c>
       <c r="N19" s="183">
         <f>SUM(N5:N18)</f>
-        <v>2527591.9808</v>
+        <v>2316600.0895999996</v>
       </c>
       <c r="O19" s="184"/>
       <c r="P19" s="185">
         <f>Q19/E19</f>
-        <v>3096.6165827142859</v>
+        <v>2828.1670782857141</v>
       </c>
       <c r="Q19" s="183">
         <f>SUM(Q5:Q18)</f>
-        <v>13872842.290560002</v>
+        <v>12670188.51072</v>
       </c>
     </row>
     <row r="20" spans="2:17" x14ac:dyDescent="0.25">
@@ -3559,7 +3568,7 @@
       </c>
       <c r="I25" s="177">
         <f>futuros!B2</f>
-        <v>405.6</v>
+        <v>351.9</v>
       </c>
       <c r="K25" s="163"/>
       <c r="L25" s="197">
@@ -3568,7 +3577,7 @@
       <c r="M25" s="163"/>
       <c r="N25" s="198">
         <f>(H25-I25)*1.3228*D25</f>
-        <v>-1504112.849316</v>
+        <v>-1147665.9825539999</v>
       </c>
       <c r="O25" s="178">
         <f>O5</f>
@@ -3576,7 +3585,7 @@
       </c>
       <c r="Q25" s="198">
         <f>N25*O25</f>
-        <v>-8573443.2411011998</v>
+        <v>-6541696.1005577995</v>
       </c>
     </row>
     <row r="26" spans="2:17" x14ac:dyDescent="0.25">
@@ -3601,7 +3610,7 @@
       </c>
       <c r="I26" s="177">
         <f>I25</f>
-        <v>405.6</v>
+        <v>351.9</v>
       </c>
       <c r="K26" s="163"/>
       <c r="L26" s="197">
@@ -3610,7 +3619,7 @@
       <c r="M26" s="163"/>
       <c r="N26" s="198">
         <f>(H26-I26)*1.3228*D26</f>
-        <v>-549957.73770000006</v>
+        <v>-408990.05027999997</v>
       </c>
       <c r="O26" s="178">
         <f>O6</f>
@@ -3618,7 +3627,7 @@
       </c>
       <c r="Q26" s="198">
         <f t="shared" ref="Q26:Q27" si="6">N26*O26</f>
-        <v>-3134759.1048900005</v>
+        <v>-2331243.2865959997</v>
       </c>
     </row>
     <row r="27" spans="2:17" x14ac:dyDescent="0.25">
@@ -3642,7 +3651,7 @@
       </c>
       <c r="I27" s="200">
         <f>I26</f>
-        <v>405.6</v>
+        <v>351.9</v>
       </c>
       <c r="K27" s="163"/>
       <c r="L27" s="197">
@@ -3651,7 +3660,7 @@
       <c r="M27" s="163"/>
       <c r="N27" s="198">
         <f>(H27-I27)*1.3228*D27</f>
-        <v>-729041.82775200019</v>
+        <v>-515576.47251599992</v>
       </c>
       <c r="O27" s="178">
         <f>O7</f>
@@ -3659,7 +3668,7 @@
       </c>
       <c r="Q27" s="198">
         <f t="shared" si="6"/>
-        <v>-4155538.418186401</v>
+        <v>-2938785.8933411995</v>
       </c>
     </row>
     <row r="28" spans="2:17" x14ac:dyDescent="0.25">
@@ -3682,13 +3691,13 @@
       <c r="M28" s="202"/>
       <c r="N28" s="202">
         <f>SUM(N25:N27)</f>
-        <v>-2783112.4147680001</v>
+        <v>-2072232.5053499998</v>
       </c>
       <c r="O28" s="201"/>
       <c r="P28" s="201"/>
       <c r="Q28" s="202">
         <f>SUM(Q25:Q27)</f>
-        <v>-15863740.764177602</v>
+        <v>-11811725.280494999</v>
       </c>
     </row>
     <row r="29" spans="2:17" x14ac:dyDescent="0.25">
@@ -4372,7 +4381,7 @@
       </c>
       <c r="I57" s="177">
         <f>futuros!B7</f>
-        <v>326.35000000000002</v>
+        <v>310.85000000000002</v>
       </c>
       <c r="K57" s="178">
         <f>O8</f>
@@ -4384,7 +4393,7 @@
       <c r="M57" s="198"/>
       <c r="N57" s="198">
         <f>(H57-I57)*1.3228*D57</f>
-        <v>-86234.423310000027</v>
+        <v>-33919.998210000034</v>
       </c>
       <c r="O57" s="166">
         <f>O25</f>
@@ -4392,7 +4401,7 @@
       </c>
       <c r="Q57" s="198">
         <f>N57*O57</f>
-        <v>-491536.2128670002</v>
+        <v>-193343.98979700019</v>
       </c>
     </row>
     <row r="58" spans="2:17" x14ac:dyDescent="0.25">
@@ -4416,7 +4425,7 @@
       </c>
       <c r="I58" s="177">
         <f>I57</f>
-        <v>326.35000000000002</v>
+        <v>310.85000000000002</v>
       </c>
       <c r="K58" s="178">
         <f>O9</f>
@@ -4428,7 +4437,7 @@
       <c r="M58" s="198"/>
       <c r="N58" s="198">
         <f>(H58-I58)*1.3228*D58</f>
-        <v>-11850.436080000138</v>
+        <v>34651.27511999986</v>
       </c>
       <c r="O58" s="166">
         <f>O26</f>
@@ -4436,7 +4445,7 @@
       </c>
       <c r="Q58" s="198">
         <f>N58*O58</f>
-        <v>-67547.48565600079</v>
+        <v>197512.2681839992</v>
       </c>
     </row>
     <row r="59" spans="2:17" x14ac:dyDescent="0.25">
@@ -4459,13 +4468,13 @@
       <c r="M59" s="201"/>
       <c r="N59" s="202">
         <f>SUM(N56:N58)</f>
-        <v>-98084.859390000172</v>
+        <v>731.27690999982588</v>
       </c>
       <c r="O59" s="201"/>
       <c r="P59" s="201"/>
       <c r="Q59" s="202">
         <f>SUM(Q56:Q58)</f>
-        <v>-559083.69852300105</v>
+        <v>4168.2783869990089</v>
       </c>
     </row>
     <row r="64" spans="2:17" x14ac:dyDescent="0.25">
@@ -4602,12 +4611,12 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E433115D-D1E6-C943-B0EC-2BC4BD1B44BA}">
-  <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:T80"/>
+  <sheetPr codeName="Sheet1" filterMode="1"/>
+  <dimension ref="A1:T83"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A25" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D75" sqref="D75"/>
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="Q77" sqref="Q77:Q79"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0.2"/>
@@ -4677,7 +4686,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A2" s="2">
         <v>2023</v>
       </c>
@@ -4732,7 +4741,7 @@
         <v>432141.12</v>
       </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A3" s="2">
         <v>2023</v>
       </c>
@@ -4787,7 +4796,7 @@
         <v>438048.96</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A4" s="2">
         <v>2023</v>
       </c>
@@ -4842,7 +4851,7 @@
         <v>438048.96</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A5" s="2">
         <v>2023</v>
       </c>
@@ -4897,7 +4906,7 @@
         <v>438048.96</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A6" s="2">
         <v>2023</v>
       </c>
@@ -4952,7 +4961,7 @@
         <v>593923.70559999999</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A7" s="2">
         <v>2023</v>
       </c>
@@ -4998,7 +5007,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A8" s="2">
         <v>2023</v>
       </c>
@@ -5053,7 +5062,7 @@
         <v>510952.14719999995</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A9" s="2">
         <v>2023</v>
       </c>
@@ -5108,7 +5117,7 @@
         <v>81465.963999999993</v>
       </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A10" s="2">
         <v>2023</v>
       </c>
@@ -5164,7 +5173,7 @@
         <v>572795</v>
       </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A11" s="2">
         <v>2023</v>
       </c>
@@ -5220,7 +5229,7 @@
         <v>579189.00000000012</v>
       </c>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A12" s="2">
         <v>2023</v>
       </c>
@@ -5266,7 +5275,7 @@
         <v>4500</v>
       </c>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A13" s="2">
         <v>2024</v>
       </c>
@@ -5322,7 +5331,7 @@
         <v>644770.36761309032</v>
       </c>
     </row>
-    <row r="14" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:17" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A14" s="2">
         <v>2024</v>
       </c>
@@ -5378,7 +5387,7 @@
         <v>644770.36761309032</v>
       </c>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A15" s="2">
         <v>2023</v>
       </c>
@@ -5424,7 +5433,7 @@
         <v>209760</v>
       </c>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A16" s="2">
         <v>2024</v>
       </c>
@@ -5478,7 +5487,7 @@
         <v>872662.71598079987</v>
       </c>
     </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A17" s="2">
         <v>2024</v>
       </c>
@@ -5534,7 +5543,7 @@
         <v>644770.36761309032</v>
       </c>
     </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A18" s="2">
         <v>2024</v>
       </c>
@@ -5590,7 +5599,7 @@
         <v>853026.09919999982</v>
       </c>
     </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A19" s="2">
         <v>2024</v>
       </c>
@@ -5646,7 +5655,7 @@
         <v>813512.56806459511</v>
       </c>
     </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A20" s="2">
         <v>2024</v>
       </c>
@@ -5702,7 +5711,7 @@
         <v>853026.09919999982</v>
       </c>
     </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A21" s="2">
         <v>2024</v>
       </c>
@@ -5759,7 +5768,7 @@
         <v>798447.14999999991</v>
       </c>
     </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A22" s="2">
         <v>2024</v>
       </c>
@@ -5815,7 +5824,7 @@
         <v>491273.79249599995</v>
       </c>
     </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A23" s="2">
         <v>2024</v>
       </c>
@@ -5871,7 +5880,7 @@
         <v>372088.74226757936</v>
       </c>
     </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A24" s="2">
         <v>2024</v>
       </c>
@@ -5928,7 +5937,7 @@
         <v>564613.5687060327</v>
       </c>
     </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A25" s="2">
         <v>2024</v>
       </c>
@@ -5984,7 +5993,7 @@
         <v>331928.71448399761</v>
       </c>
     </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A26" s="2">
         <v>2024</v>
       </c>
@@ -6041,7 +6050,7 @@
         <v>806560.96</v>
       </c>
     </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A27" s="2">
         <v>2024</v>
       </c>
@@ -6098,7 +6107,7 @@
         <v>911158.48771225847</v>
       </c>
     </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A28" s="2">
         <v>2024</v>
       </c>
@@ -6153,7 +6162,7 @@
         <v>604032</v>
       </c>
     </row>
-    <row r="29" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A29" s="2">
         <v>2024</v>
       </c>
@@ -6208,7 +6217,7 @@
         <v>604032</v>
       </c>
     </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A30" s="2">
         <v>2024</v>
       </c>
@@ -6254,7 +6263,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="31" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A31" s="2">
         <v>2024</v>
       </c>
@@ -6301,7 +6310,7 @@
         <v>8548</v>
       </c>
     </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A32" s="2">
         <v>2024</v>
       </c>
@@ -6358,7 +6367,7 @@
         <v>769571.90422314662</v>
       </c>
     </row>
-    <row r="33" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
       <c r="A33" s="2">
         <v>2024</v>
       </c>
@@ -6404,7 +6413,7 @@
         <v>1052500</v>
       </c>
     </row>
-    <row r="34" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
       <c r="A34" s="2">
         <v>2024</v>
       </c>
@@ -6450,7 +6459,7 @@
         <v>44000</v>
       </c>
     </row>
-    <row r="35" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
       <c r="A35" s="2">
         <v>2024</v>
       </c>
@@ -6496,7 +6505,7 @@
         <v>1000000</v>
       </c>
     </row>
-    <row r="36" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
       <c r="A36" s="2">
         <v>2024</v>
       </c>
@@ -6550,7 +6559,7 @@
         <v>705311.48800000013</v>
       </c>
     </row>
-    <row r="37" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
       <c r="A37" s="2">
         <v>2024</v>
       </c>
@@ -6595,7 +6604,7 @@
       <c r="O37" s="160"/>
       <c r="T37" s="161"/>
     </row>
-    <row r="38" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
       <c r="A38" s="2">
         <v>2024</v>
       </c>
@@ -6639,7 +6648,7 @@
       </c>
       <c r="O38" s="160"/>
     </row>
-    <row r="39" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
       <c r="A39" s="2">
         <v>2024</v>
       </c>
@@ -6685,7 +6694,7 @@
         <v>1146.665</v>
       </c>
     </row>
-    <row r="40" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
       <c r="A40" s="2">
         <v>2024</v>
       </c>
@@ -6731,7 +6740,7 @@
         <v>18316.27</v>
       </c>
     </row>
-    <row r="41" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
       <c r="A41" s="2">
         <v>2024</v>
       </c>
@@ -6777,7 +6786,7 @@
         <v>393903</v>
       </c>
     </row>
-    <row r="42" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
       <c r="A42" s="2">
         <v>2024</v>
       </c>
@@ -6823,7 +6832,7 @@
         <v>1403484</v>
       </c>
     </row>
-    <row r="43" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
       <c r="A43" s="2">
         <v>2024</v>
       </c>
@@ -6867,7 +6876,7 @@
         <v>635250</v>
       </c>
     </row>
-    <row r="44" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
       <c r="A44" s="2">
         <v>2024</v>
       </c>
@@ -6911,7 +6920,7 @@
         <v>106080</v>
       </c>
     </row>
-    <row r="45" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
       <c r="A45" s="2">
         <v>2024</v>
       </c>
@@ -6955,7 +6964,7 @@
         <v>18316.27</v>
       </c>
     </row>
-    <row r="46" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
       <c r="A46" s="2">
         <v>2025</v>
       </c>
@@ -7010,7 +7019,7 @@
         <v>859873.6</v>
       </c>
     </row>
-    <row r="47" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
       <c r="A47" s="2">
         <v>2024</v>
       </c>
@@ -7242,7 +7251,7 @@
         <v>187520.128</v>
       </c>
     </row>
-    <row r="52" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A52" s="2">
         <v>2025</v>
       </c>
@@ -7373,7 +7382,7 @@
         <v>40000</v>
       </c>
     </row>
-    <row r="55" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A55" s="2">
         <v>2026</v>
       </c>
@@ -7416,7 +7425,7 @@
         <v>135360</v>
       </c>
     </row>
-    <row r="56" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A56" s="2">
         <v>2026</v>
       </c>
@@ -7553,7 +7562,7 @@
         <v>149423.48800000001</v>
       </c>
     </row>
-    <row r="59" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A59" s="2">
         <v>2025</v>
       </c>
@@ -7600,7 +7609,7 @@
         <v>149423.48800000001</v>
       </c>
     </row>
-    <row r="60" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A60" s="2">
         <v>2025</v>
       </c>
@@ -7741,7 +7750,7 @@
         <v>162122.36800000002</v>
       </c>
     </row>
-    <row r="63" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A63" s="2">
         <v>2024</v>
       </c>
@@ -7786,7 +7795,7 @@
         <v>1500</v>
       </c>
     </row>
-    <row r="64" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A64" s="2">
         <v>2025</v>
       </c>
@@ -7829,7 +7838,7 @@
         <v>148224</v>
       </c>
     </row>
-    <row r="65" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A65" s="2">
         <v>2025</v>
       </c>
@@ -7874,7 +7883,7 @@
         <v>28200</v>
       </c>
     </row>
-    <row r="66" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A66" s="2">
         <v>2025</v>
       </c>
@@ -7919,7 +7928,7 @@
         <v>45000</v>
       </c>
     </row>
-    <row r="67" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A67" s="2">
         <v>2025</v>
       </c>
@@ -7997,7 +8006,7 @@
         <v>1</v>
       </c>
       <c r="K68" s="158">
-        <v>45684</v>
+        <v>46049</v>
       </c>
       <c r="L68" s="155">
         <f>M68/1.3228</f>
@@ -8011,7 +8020,7 @@
         <v>183992.66133333332</v>
       </c>
     </row>
-    <row r="69" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A69" s="2">
         <v>2025</v>
       </c>
@@ -8053,11 +8062,11 @@
         <v>2750</v>
       </c>
       <c r="Q69" s="3">
-        <f t="shared" ref="Q69:Q77" si="7">E69*P69</f>
+        <f t="shared" ref="Q69:Q80" si="7">E69*P69</f>
         <v>13750</v>
       </c>
     </row>
-    <row r="70" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A70" s="2">
         <v>2025</v>
       </c>
@@ -8103,7 +8112,7 @@
         <v>32000</v>
       </c>
     </row>
-    <row r="71" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A71" s="2">
         <v>2025</v>
       </c>
@@ -8124,6 +8133,9 @@
       </c>
       <c r="G71" s="2" t="s">
         <v>37</v>
+      </c>
+      <c r="H71" s="2">
+        <v>0</v>
       </c>
       <c r="I71" s="158">
         <v>45979</v>
@@ -8168,6 +8180,9 @@
       <c r="G72" s="2" t="s">
         <v>37</v>
       </c>
+      <c r="H72" s="2">
+        <v>0</v>
+      </c>
       <c r="I72" s="158">
         <v>46023</v>
       </c>
@@ -8189,7 +8204,7 @@
         <v>31800</v>
       </c>
     </row>
-    <row r="73" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A73" s="2">
         <v>2025</v>
       </c>
@@ -8210,6 +8225,9 @@
       </c>
       <c r="G73" s="2" t="s">
         <v>35</v>
+      </c>
+      <c r="H73" s="2">
+        <v>0</v>
       </c>
       <c r="I73" s="158">
         <v>45986</v>
@@ -8232,7 +8250,7 @@
         <v>79500</v>
       </c>
     </row>
-    <row r="74" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A74" s="2">
         <v>2025</v>
       </c>
@@ -8253,6 +8271,9 @@
       </c>
       <c r="G74" s="2" t="s">
         <v>290</v>
+      </c>
+      <c r="H74" s="2">
+        <v>0</v>
       </c>
       <c r="I74" s="158">
         <v>45979</v>
@@ -8297,15 +8318,18 @@
       <c r="G75" s="2" t="s">
         <v>289</v>
       </c>
+      <c r="H75" s="2">
+        <v>0</v>
+      </c>
       <c r="I75" s="158">
-        <v>46001</v>
+        <v>46014</v>
       </c>
       <c r="J75" s="2">
         <v>1</v>
       </c>
       <c r="K75" s="158">
-        <f t="shared" ref="K75:K76" si="9">I75</f>
-        <v>46001</v>
+        <f t="shared" ref="K75:K79" si="9">I75</f>
+        <v>46014</v>
       </c>
       <c r="L75" s="155"/>
       <c r="M75" s="155"/>
@@ -8340,15 +8364,18 @@
       <c r="G76" s="2" t="s">
         <v>289</v>
       </c>
+      <c r="H76" s="2">
+        <v>0</v>
+      </c>
       <c r="I76" s="158">
-        <v>46001</v>
+        <v>46014</v>
       </c>
       <c r="J76" s="2">
         <v>1</v>
       </c>
       <c r="K76" s="158">
         <f t="shared" si="9"/>
-        <v>46001</v>
+        <v>46014</v>
       </c>
       <c r="L76" s="155"/>
       <c r="M76" s="155"/>
@@ -8365,18 +8392,20 @@
       <c r="A77" s="2">
         <v>2025</v>
       </c>
+      <c r="B77" s="2" t="s">
+        <v>365</v>
+      </c>
       <c r="C77" s="2" t="s">
         <v>89</v>
       </c>
       <c r="D77" s="159" t="s">
-        <v>331</v>
+        <v>364</v>
       </c>
       <c r="E77" s="213">
-        <f>2400-E66-E65-E67-E69-E70-E71-E72-E73-E74-E75-E76</f>
-        <v>2064</v>
+        <v>4</v>
       </c>
       <c r="F77" s="2" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="G77" s="2" t="s">
         <v>32</v>
@@ -8385,40 +8414,44 @@
         <v>0</v>
       </c>
       <c r="I77" s="158">
-        <v>46023</v>
+        <v>46014</v>
       </c>
       <c r="J77" s="2">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="K77" s="158">
-        <v>46023</v>
-      </c>
-      <c r="L77" s="158"/>
+        <f t="shared" si="9"/>
+        <v>46014</v>
+      </c>
+      <c r="L77" s="155"/>
+      <c r="M77" s="155"/>
       <c r="N77" s="3"/>
       <c r="P77" s="3">
-        <v>1600</v>
+        <v>2600</v>
       </c>
       <c r="Q77" s="3">
-        <f t="shared" si="7"/>
-        <v>3302400</v>
+        <f t="shared" ref="Q77:Q79" si="11">E77*P77</f>
+        <v>10400</v>
       </c>
     </row>
     <row r="78" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A78" s="2">
         <v>2025</v>
       </c>
+      <c r="B78" s="2" t="s">
+        <v>366</v>
+      </c>
       <c r="C78" s="2" t="s">
-        <v>42</v>
+        <v>89</v>
       </c>
       <c r="D78" s="159" t="s">
-        <v>331</v>
-      </c>
-      <c r="E78" s="2">
-        <f>0.7*8000-4800-E79-E80-E68</f>
-        <v>286.49999999999994</v>
+        <v>364</v>
+      </c>
+      <c r="E78" s="213">
+        <v>10</v>
       </c>
       <c r="F78" s="2" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="G78" s="2" t="s">
         <v>32</v>
@@ -8427,41 +8460,44 @@
         <v>0</v>
       </c>
       <c r="I78" s="158">
-        <v>46023</v>
+        <v>46014</v>
       </c>
       <c r="J78" s="2">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="K78" s="158">
-        <v>46023</v>
-      </c>
-      <c r="L78" s="155">
-        <v>325</v>
-      </c>
-      <c r="M78" s="155">
-        <f>(L78+H78)*1.3228</f>
-        <v>429.90999999999997</v>
-      </c>
-      <c r="N78" s="3">
-        <f>M78*E78</f>
-        <v>123169.21499999997</v>
+        <f t="shared" si="9"/>
+        <v>46014</v>
+      </c>
+      <c r="L78" s="155"/>
+      <c r="M78" s="155"/>
+      <c r="N78" s="3"/>
+      <c r="P78" s="3">
+        <v>2600</v>
+      </c>
+      <c r="Q78" s="3">
+        <f t="shared" si="11"/>
+        <v>26000</v>
       </c>
     </row>
     <row r="79" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A79" s="2">
         <v>2025</v>
       </c>
+      <c r="B79" s="2" t="s">
+        <v>367</v>
+      </c>
       <c r="C79" s="2" t="s">
-        <v>42</v>
+        <v>89</v>
       </c>
       <c r="D79" s="159" t="s">
-        <v>331</v>
-      </c>
-      <c r="E79" s="2">
-        <v>64.5</v>
+        <v>364</v>
+      </c>
+      <c r="E79" s="213">
+        <v>10</v>
       </c>
       <c r="F79" s="2" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="G79" s="2" t="s">
         <v>32</v>
@@ -8470,24 +8506,24 @@
         <v>0</v>
       </c>
       <c r="I79" s="158">
-        <v>46023</v>
+        <v>46014</v>
       </c>
       <c r="J79" s="2">
         <v>1</v>
       </c>
       <c r="K79" s="158">
-        <v>46023</v>
-      </c>
-      <c r="L79" s="155">
-        <v>330</v>
-      </c>
-      <c r="M79" s="155">
-        <f>(L79+H79)*1.3228</f>
-        <v>436.524</v>
-      </c>
-      <c r="N79" s="3">
-        <f>M79*E79</f>
-        <v>28155.797999999999</v>
+        <f t="shared" si="9"/>
+        <v>46014</v>
+      </c>
+      <c r="L79" s="155"/>
+      <c r="M79" s="155"/>
+      <c r="N79" s="3"/>
+      <c r="P79" s="3">
+        <v>2600</v>
+      </c>
+      <c r="Q79" s="3">
+        <f t="shared" si="11"/>
+        <v>26000</v>
       </c>
     </row>
     <row r="80" spans="1:17" x14ac:dyDescent="0.2">
@@ -8495,49 +8531,185 @@
         <v>2025</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>42</v>
+        <v>89</v>
       </c>
       <c r="D80" s="159" t="s">
         <v>331</v>
       </c>
       <c r="E80" s="213">
+        <f>2400-E66-E65-E67-E69-E70-E71-E72-E73-E74-E75-E76-E77-E78-E79</f>
+        <v>2040</v>
+      </c>
+      <c r="F80" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="G80" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="H80" s="2">
+        <v>0</v>
+      </c>
+      <c r="I80" s="158">
+        <v>46023</v>
+      </c>
+      <c r="J80" s="2">
+        <v>4</v>
+      </c>
+      <c r="K80" s="158">
+        <v>46023</v>
+      </c>
+      <c r="L80" s="158"/>
+      <c r="N80" s="3"/>
+      <c r="P80" s="3">
+        <v>1600</v>
+      </c>
+      <c r="Q80" s="3">
+        <f t="shared" si="7"/>
+        <v>3264000</v>
+      </c>
+    </row>
+    <row r="81" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A81" s="2">
+        <v>2025</v>
+      </c>
+      <c r="C81" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="D81" s="159" t="s">
+        <v>331</v>
+      </c>
+      <c r="E81" s="2">
+        <f>0.7*8000-4800-E82-E83-E68</f>
+        <v>286.49999999999994</v>
+      </c>
+      <c r="F81" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="G81" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="H81" s="2">
+        <v>0</v>
+      </c>
+      <c r="I81" s="158">
+        <v>46023</v>
+      </c>
+      <c r="J81" s="2">
+        <v>4</v>
+      </c>
+      <c r="K81" s="158">
+        <v>46023</v>
+      </c>
+      <c r="L81" s="155">
+        <v>325</v>
+      </c>
+      <c r="M81" s="155">
+        <f>(L81+H81)*1.3228</f>
+        <v>429.90999999999997</v>
+      </c>
+      <c r="N81" s="3">
+        <f>M81*E81</f>
+        <v>123169.21499999997</v>
+      </c>
+    </row>
+    <row r="82" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A82" s="2">
+        <v>2025</v>
+      </c>
+      <c r="C82" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="D82" s="159" t="s">
+        <v>331</v>
+      </c>
+      <c r="E82" s="2">
+        <v>64.5</v>
+      </c>
+      <c r="F82" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="G82" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="H82" s="2">
+        <v>0</v>
+      </c>
+      <c r="I82" s="158">
+        <v>46023</v>
+      </c>
+      <c r="J82" s="2">
+        <v>1</v>
+      </c>
+      <c r="K82" s="158">
+        <v>46023</v>
+      </c>
+      <c r="L82" s="155">
+        <v>330</v>
+      </c>
+      <c r="M82" s="155">
+        <f>(L82+H82)*1.3228</f>
+        <v>436.524</v>
+      </c>
+      <c r="N82" s="3">
+        <f>M82*E82</f>
+        <v>28155.797999999999</v>
+      </c>
+    </row>
+    <row r="83" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A83" s="2">
+        <v>2025</v>
+      </c>
+      <c r="C83" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="D83" s="159" t="s">
+        <v>331</v>
+      </c>
+      <c r="E83" s="213">
         <f>449-E68</f>
         <v>115.66666666666669</v>
       </c>
-      <c r="F80" s="2" t="s">
+      <c r="F83" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="G80" s="2" t="s">
+      <c r="G83" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="H80" s="2">
+      <c r="H83" s="2">
         <v>0</v>
       </c>
-      <c r="I80" s="158">
+      <c r="I83" s="158">
         <v>46082</v>
       </c>
-      <c r="J80" s="2">
+      <c r="J83" s="2">
         <v>1</v>
       </c>
-      <c r="K80" s="158">
+      <c r="K83" s="158">
         <v>46082</v>
       </c>
-      <c r="L80" s="155">
+      <c r="L83" s="155">
         <v>325</v>
       </c>
-      <c r="M80" s="155">
-        <f>(L80+H80)*1.3228</f>
+      <c r="M83" s="155">
+        <f>(L83+H83)*1.3228</f>
         <v>429.90999999999997</v>
       </c>
-      <c r="N80" s="3">
-        <f>M80*E80</f>
+      <c r="N83" s="3">
+        <f>M83*E83</f>
         <v>49726.256666666668</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:Q80" xr:uid="{E433115D-D1E6-C943-B0EC-2BC4BD1B44BA}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:Q80">
-      <sortCondition ref="B1:B80"/>
+  <autoFilter ref="A1:Q83" xr:uid="{E433115D-D1E6-C943-B0EC-2BC4BD1B44BA}">
+    <filterColumn colId="10">
+      <filters>
+        <dateGroupItem year="2026" month="1" dateTimeGrouping="month"/>
+        <dateGroupItem year="2026" month="2" dateTimeGrouping="month"/>
+        <dateGroupItem year="2025" month="12" dateTimeGrouping="month"/>
+      </filters>
+    </filterColumn>
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:Q83">
+      <sortCondition ref="B1:B83"/>
     </sortState>
   </autoFilter>
   <phoneticPr fontId="5" type="noConversion"/>
@@ -8551,10 +8723,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{62549E7F-C2F6-E740-8F49-EDB7C93FB4DD}">
-  <dimension ref="A1:D12"/>
+  <dimension ref="A1:D13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0.2"/>
@@ -8577,7 +8749,7 @@
         <v>270</v>
       </c>
       <c r="D1" s="162">
-        <v>45999</v>
+        <v>46017</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -8585,11 +8757,11 @@
         <v>46021</v>
       </c>
       <c r="B2" s="155">
-        <v>405.6</v>
+        <v>351.9</v>
       </c>
       <c r="C2" s="155">
         <f t="shared" ref="C2:C11" si="0">B2*1.3228</f>
-        <v>536.52768000000003</v>
+        <v>465.49331999999998</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -8597,11 +8769,11 @@
         <v>46112</v>
       </c>
       <c r="B3" s="155">
-        <v>376.65</v>
+        <v>345.15</v>
       </c>
       <c r="C3" s="155">
         <f t="shared" si="0"/>
-        <v>498.23261999999994</v>
+        <v>456.56441999999998</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
@@ -8609,11 +8781,11 @@
         <v>46173</v>
       </c>
       <c r="B4" s="155">
-        <v>358.9</v>
+        <v>330.85</v>
       </c>
       <c r="C4" s="155">
         <f t="shared" si="0"/>
-        <v>474.75291999999996</v>
+        <v>437.64838000000003</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
@@ -8621,11 +8793,11 @@
         <v>46231</v>
       </c>
       <c r="B5" s="155">
-        <v>345.45</v>
+        <v>322.7</v>
       </c>
       <c r="C5" s="155">
         <f t="shared" si="0"/>
-        <v>456.96125999999998</v>
+        <v>426.86755999999997</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
@@ -8633,11 +8805,11 @@
         <v>46295</v>
       </c>
       <c r="B6" s="155">
-        <v>334.85</v>
+        <v>316.2</v>
       </c>
       <c r="C6" s="155">
         <f t="shared" si="0"/>
-        <v>442.93958000000003</v>
+        <v>418.26935999999995</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
@@ -8645,11 +8817,11 @@
         <v>46386</v>
       </c>
       <c r="B7" s="155">
-        <v>326.35000000000002</v>
+        <v>310.85000000000002</v>
       </c>
       <c r="C7" s="155">
         <f t="shared" si="0"/>
-        <v>431.69578000000001</v>
+        <v>411.19238000000001</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
@@ -8657,11 +8829,11 @@
         <v>46477</v>
       </c>
       <c r="B8" s="155">
-        <v>318.60000000000002</v>
+        <v>307.55</v>
       </c>
       <c r="C8" s="155">
         <f t="shared" si="0"/>
-        <v>421.44408000000004</v>
+        <v>406.82713999999999</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
@@ -8669,11 +8841,11 @@
         <v>46538</v>
       </c>
       <c r="B9" s="155">
-        <v>315.5</v>
+        <v>304.55</v>
       </c>
       <c r="C9" s="155">
         <f t="shared" si="0"/>
-        <v>417.34339999999997</v>
+        <v>402.85874000000001</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
@@ -8681,11 +8853,11 @@
         <v>46596</v>
       </c>
       <c r="B10" s="155">
-        <v>311.85000000000002</v>
+        <v>300.7</v>
       </c>
       <c r="C10" s="155">
         <f t="shared" si="0"/>
-        <v>412.51518000000004</v>
+        <v>397.76595999999995</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
@@ -8693,11 +8865,11 @@
         <v>46660</v>
       </c>
       <c r="B11" s="155">
-        <v>308</v>
+        <v>296.64999999999998</v>
       </c>
       <c r="C11" s="155">
         <f t="shared" si="0"/>
-        <v>407.42239999999998</v>
+        <v>392.40861999999998</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
@@ -8705,11 +8877,23 @@
         <v>46751</v>
       </c>
       <c r="B12" s="155">
-        <v>303</v>
+        <v>292.39999999999998</v>
       </c>
       <c r="C12" s="155">
         <f>B12*1.3228</f>
-        <v>400.80840000000001</v>
+        <v>386.78671999999995</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A13" s="158">
+        <v>46843</v>
+      </c>
+      <c r="B13" s="155">
+        <v>288.95</v>
+      </c>
+      <c r="C13" s="155">
+        <f>B13*1.3228</f>
+        <v>382.22305999999998</v>
       </c>
     </row>
   </sheetData>
@@ -8722,8 +8906,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{435A83C4-FEBA-7F44-BF8C-E9ADE9845E60}">
   <dimension ref="A1:N31"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A16" activePane="bottomLeft" state="frozen"/>
+    <sheetView topLeftCell="D1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="H22" sqref="H22:H31"/>
     </sheetView>
   </sheetViews>
@@ -9714,7 +9898,7 @@
       </c>
       <c r="H22" s="225">
         <f>futuros!B3</f>
-        <v>376.65</v>
+        <v>345.15</v>
       </c>
       <c r="I22" s="223"/>
       <c r="J22" s="226">
@@ -9723,7 +9907,7 @@
       <c r="K22" s="226"/>
       <c r="L22" s="227">
         <f t="shared" si="2"/>
-        <v>-116216.77661999995</v>
+        <v>-45339.168419999944</v>
       </c>
       <c r="M22" s="228"/>
       <c r="N22" s="227"/>
@@ -9752,7 +9936,7 @@
       </c>
       <c r="H23" s="155">
         <f>futuros!B7</f>
-        <v>326.35000000000002</v>
+        <v>310.85000000000002</v>
       </c>
       <c r="I23" s="2"/>
       <c r="J23" s="162">
@@ -9761,7 +9945,7 @@
       <c r="K23" s="162"/>
       <c r="L23" s="215">
         <f t="shared" si="2"/>
-        <v>-86234.423310000027</v>
+        <v>-33919.998210000042</v>
       </c>
       <c r="M23" s="160"/>
       <c r="N23" s="215"/>
@@ -9789,7 +9973,7 @@
       </c>
       <c r="H24" s="155">
         <f>futuros!B7</f>
-        <v>326.35000000000002</v>
+        <v>310.85000000000002</v>
       </c>
       <c r="I24" s="2"/>
       <c r="J24" s="162">
@@ -9798,7 +9982,7 @@
       <c r="K24" s="162"/>
       <c r="L24" s="215">
         <f t="shared" si="2"/>
-        <v>-11850.436080000138</v>
+        <v>34651.27511999986</v>
       </c>
       <c r="M24" s="160"/>
       <c r="N24" s="215"/>
@@ -9826,7 +10010,7 @@
       </c>
       <c r="H25" s="155">
         <f>futuros!B7</f>
-        <v>326.35000000000002</v>
+        <v>310.85000000000002</v>
       </c>
       <c r="I25" s="2"/>
       <c r="J25" s="162">
@@ -9835,7 +10019,7 @@
       <c r="K25" s="162"/>
       <c r="L25" s="215">
         <f t="shared" si="2"/>
-        <v>-57452.114160000099</v>
+        <v>-10950.402960000101</v>
       </c>
       <c r="M25" s="160"/>
       <c r="N25" s="215"/>
@@ -9864,7 +10048,7 @@
       </c>
       <c r="H26" s="217">
         <f>futuros!B7</f>
-        <v>326.35000000000002</v>
+        <v>310.85000000000002</v>
       </c>
       <c r="I26" s="208"/>
       <c r="J26" s="219">
@@ -9873,7 +10057,7 @@
       <c r="K26" s="219"/>
       <c r="L26" s="220">
         <f t="shared" si="2"/>
-        <v>-402689.81844000024</v>
+        <v>-239933.82924000025</v>
       </c>
       <c r="M26" s="218"/>
       <c r="N26" s="220"/>
@@ -9902,7 +10086,7 @@
       </c>
       <c r="H27" s="155">
         <f>futuros!B12</f>
-        <v>303</v>
+        <v>292.39999999999998</v>
       </c>
       <c r="I27" s="2"/>
       <c r="J27" s="162">
@@ -9911,7 +10095,7 @@
       <c r="K27" s="162"/>
       <c r="L27" s="215">
         <f t="shared" si="2"/>
-        <v>-222758.1972</v>
+        <v>-179031.58811999991</v>
       </c>
       <c r="M27" s="160"/>
       <c r="N27" s="215"/>
@@ -9937,7 +10121,7 @@
       </c>
       <c r="H28" s="155">
         <f>futuros!B12</f>
-        <v>303</v>
+        <v>292.39999999999998</v>
       </c>
       <c r="I28" s="2"/>
       <c r="J28" s="162">
@@ -9946,7 +10130,7 @@
       <c r="K28" s="162"/>
       <c r="L28" s="215">
         <f t="shared" ref="L28" si="7">D28*(G28-H28)*1.3228</f>
-        <v>-204007.50719999999</v>
+        <v>-172206.33695999993</v>
       </c>
       <c r="M28" s="160"/>
       <c r="N28" s="215"/>
@@ -9972,7 +10156,7 @@
       </c>
       <c r="H29" s="155">
         <f>futuros!B12</f>
-        <v>303</v>
+        <v>292.39999999999998</v>
       </c>
       <c r="I29" s="2"/>
       <c r="J29" s="162">
@@ -9981,7 +10165,7 @@
       <c r="K29" s="162"/>
       <c r="L29" s="215">
         <f t="shared" ref="L29" si="9">D29*(G29-H29)*1.3228</f>
-        <v>-97503.588000000003</v>
+        <v>-77627.856599999956</v>
       </c>
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.2">
@@ -10005,7 +10189,7 @@
       </c>
       <c r="H30" s="155">
         <f>futuros!B12</f>
-        <v>303</v>
+        <v>292.39999999999998</v>
       </c>
       <c r="I30" s="2"/>
       <c r="J30" s="162">
@@ -10014,7 +10198,7 @@
       <c r="K30" s="162"/>
       <c r="L30" s="215">
         <f t="shared" ref="L30" si="11">D30*(G30-H30)*1.3228</f>
-        <v>-75002.759999999995</v>
+        <v>-55127.028599999961</v>
       </c>
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.2">
@@ -10038,7 +10222,7 @@
       </c>
       <c r="H31" s="155">
         <f>futuros!B12</f>
-        <v>303</v>
+        <v>292.39999999999998</v>
       </c>
       <c r="I31" s="2"/>
       <c r="J31" s="162">
@@ -10047,7 +10231,7 @@
       <c r="K31" s="162"/>
       <c r="L31" s="215">
         <f t="shared" ref="L31" si="13">D31*(G31-H31)*1.3228</f>
-        <v>5250.1931999999997</v>
+        <v>33076.217160000058</v>
       </c>
     </row>
   </sheetData>

--- a/vendas_cafe_em_reais.xlsx
+++ b/vendas_cafe_em_reais.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rotocastro/PycharmProjects/Vendas Cafe/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A415B8E2-3D36-EC4E-A522-1B95010FDFFC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3033C8C-410D-344D-BB09-F2DBB915F562}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3680" yWindow="660" windowWidth="25720" windowHeight="18460" activeTab="2" xr2:uid="{AC82ADC5-E628-F847-8939-89BAF5623AE6}"/>
+    <workbookView xWindow="14720" yWindow="660" windowWidth="14680" windowHeight="18460" activeTab="1" xr2:uid="{AC82ADC5-E628-F847-8939-89BAF5623AE6}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2 (2)" sheetId="16" state="hidden" r:id="rId1"/>
@@ -24,7 +24,7 @@
     <sheet name="CashFlow_Edson_Luiz" sheetId="3" state="hidden" r:id="rId9"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Sheet2!$A$1:$Q$83</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Sheet2!$A$1:$Q$85</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">'VENDA CAFÉ 220125'!$A$3:$Z$61</definedName>
     <definedName name="LITRAGEM" localSheetId="7">#REF!</definedName>
     <definedName name="LITRAGEM" localSheetId="5">#REF!</definedName>
@@ -70,7 +70,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1024" uniqueCount="368">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1034" uniqueCount="372">
   <si>
     <t>026/24</t>
   </si>
@@ -1174,6 +1174,18 @@
   </si>
   <si>
     <t>083/25</t>
+  </si>
+  <si>
+    <t>061A/25</t>
+  </si>
+  <si>
+    <t>061B/25</t>
+  </si>
+  <si>
+    <t>063A/25</t>
+  </si>
+  <si>
+    <t>063B/25</t>
   </si>
 </sst>
 </file>
@@ -4612,11 +4624,11 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E433115D-D1E6-C943-B0EC-2BC4BD1B44BA}">
   <sheetPr codeName="Sheet1" filterMode="1"/>
-  <dimension ref="A1:T83"/>
+  <dimension ref="A1:T85"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="Q77" sqref="Q77:Q79"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A46" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I80" sqref="I80"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0.2"/>
@@ -6964,7 +6976,7 @@
         <v>18316.27</v>
       </c>
     </row>
-    <row r="46" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A46" s="2">
         <v>2025</v>
       </c>
@@ -7106,11 +7118,11 @@
         <v>571.44960000000003</v>
       </c>
       <c r="N48" s="3">
-        <f t="shared" ref="N48:N62" si="4">M48*E48</f>
+        <f t="shared" ref="N48:N64" si="4">M48*E48</f>
         <v>182863.872</v>
       </c>
     </row>
-    <row r="49" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A49" s="2">
         <v>2025</v>
       </c>
@@ -7157,7 +7169,7 @@
         <v>182863.872</v>
       </c>
     </row>
-    <row r="50" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A50" s="2">
         <v>2025</v>
       </c>
@@ -7204,7 +7216,7 @@
         <v>152386.56</v>
       </c>
     </row>
-    <row r="51" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A51" s="2">
         <v>2025</v>
       </c>
@@ -7251,7 +7263,7 @@
         <v>187520.128</v>
       </c>
     </row>
-    <row r="52" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A52" s="2">
         <v>2025</v>
       </c>
@@ -7298,7 +7310,7 @@
         <v>152386.56</v>
       </c>
     </row>
-    <row r="53" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A53" s="2">
         <v>2025</v>
       </c>
@@ -7340,7 +7352,7 @@
         <v>117120</v>
       </c>
     </row>
-    <row r="54" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A54" s="2">
         <v>2025</v>
       </c>
@@ -7382,7 +7394,7 @@
         <v>40000</v>
       </c>
     </row>
-    <row r="55" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A55" s="2">
         <v>2026</v>
       </c>
@@ -7425,7 +7437,7 @@
         <v>135360</v>
       </c>
     </row>
-    <row r="56" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A56" s="2">
         <v>2026</v>
       </c>
@@ -7468,7 +7480,7 @@
         <v>139520</v>
       </c>
     </row>
-    <row r="57" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A57" s="2">
         <v>2025</v>
       </c>
@@ -7500,14 +7512,14 @@
         <v>1</v>
       </c>
       <c r="K57" s="158">
-        <f t="shared" ref="K57:K62" si="5">I57+65</f>
+        <f t="shared" ref="K57:K64" si="5">I57+65</f>
         <v>46018</v>
       </c>
       <c r="L57" s="155">
         <v>402</v>
       </c>
       <c r="M57" s="155">
-        <f t="shared" ref="M57:M62" si="6">(L57+H57)*1.3228</f>
+        <f t="shared" ref="M57:M64" si="6">(L57+H57)*1.3228</f>
         <v>568.80399999999997</v>
       </c>
       <c r="N57" s="3">
@@ -7515,12 +7527,12 @@
         <v>182017.28</v>
       </c>
     </row>
-    <row r="58" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A58" s="2">
         <v>2025</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>284</v>
+        <v>368</v>
       </c>
       <c r="C58" s="2" t="s">
         <v>42</v>
@@ -7547,7 +7559,7 @@
         <v>1</v>
       </c>
       <c r="K58" s="158">
-        <f t="shared" si="5"/>
+        <f>I58+65</f>
         <v>46056</v>
       </c>
       <c r="L58" s="155">
@@ -7562,12 +7574,12 @@
         <v>149423.48800000001</v>
       </c>
     </row>
-    <row r="59" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A59" s="2">
         <v>2025</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>285</v>
+        <v>369</v>
       </c>
       <c r="C59" s="2" t="s">
         <v>42</v>
@@ -7588,61 +7600,61 @@
         <v>28</v>
       </c>
       <c r="I59" s="158">
-        <v>46023</v>
+        <v>46008</v>
       </c>
       <c r="J59" s="2">
         <v>1</v>
       </c>
       <c r="K59" s="158">
+        <f>I59+65</f>
+        <v>46073</v>
+      </c>
+      <c r="L59" s="155">
+        <v>325</v>
+      </c>
+      <c r="M59" s="155">
+        <f t="shared" ref="M59" si="7">(L59+H59)*1.3228</f>
+        <v>466.94839999999999</v>
+      </c>
+      <c r="N59" s="3">
+        <f t="shared" ref="N59" si="8">M59*E59</f>
+        <v>149423.48800000001</v>
+      </c>
+    </row>
+    <row r="60" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A60" s="2">
+        <v>2025</v>
+      </c>
+      <c r="B60" s="2" t="s">
+        <v>285</v>
+      </c>
+      <c r="C60" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="D60" s="159" t="s">
+        <v>264</v>
+      </c>
+      <c r="E60" s="2">
+        <v>320</v>
+      </c>
+      <c r="F60" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="G60" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="H60" s="2">
+        <v>28</v>
+      </c>
+      <c r="I60" s="158">
+        <v>46023</v>
+      </c>
+      <c r="J60" s="2">
+        <v>1</v>
+      </c>
+      <c r="K60" s="158">
         <f t="shared" si="5"/>
         <v>46088</v>
-      </c>
-      <c r="L59" s="155">
-        <v>325</v>
-      </c>
-      <c r="M59" s="155">
-        <f t="shared" si="6"/>
-        <v>466.94839999999999</v>
-      </c>
-      <c r="N59" s="3">
-        <f t="shared" si="4"/>
-        <v>149423.48800000001</v>
-      </c>
-    </row>
-    <row r="60" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A60" s="2">
-        <v>2025</v>
-      </c>
-      <c r="B60" s="2" t="s">
-        <v>286</v>
-      </c>
-      <c r="C60" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="D60" s="159" t="s">
-        <v>264</v>
-      </c>
-      <c r="E60" s="2">
-        <v>320</v>
-      </c>
-      <c r="F60" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="G60" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="H60" s="2">
-        <v>28</v>
-      </c>
-      <c r="I60" s="158">
-        <v>46082</v>
-      </c>
-      <c r="J60" s="2">
-        <v>1</v>
-      </c>
-      <c r="K60" s="158">
-        <f t="shared" si="5"/>
-        <v>46147</v>
       </c>
       <c r="L60" s="155">
         <v>325</v>
@@ -7656,12 +7668,12 @@
         <v>149423.48800000001</v>
       </c>
     </row>
-    <row r="61" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A61" s="2">
         <v>2025</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>287</v>
+        <v>370</v>
       </c>
       <c r="C61" s="2" t="s">
         <v>42</v>
@@ -7673,42 +7685,42 @@
         <v>320</v>
       </c>
       <c r="F61" s="2" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="G61" s="2" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="H61" s="2">
-        <v>-22</v>
+        <v>28</v>
       </c>
       <c r="I61" s="158">
-        <v>45992</v>
+        <v>45990</v>
       </c>
       <c r="J61" s="2">
         <v>1</v>
       </c>
       <c r="K61" s="158">
         <f t="shared" si="5"/>
-        <v>46057</v>
+        <v>46055</v>
       </c>
       <c r="L61" s="155">
         <v>325</v>
       </c>
       <c r="M61" s="155">
         <f t="shared" si="6"/>
-        <v>400.80840000000001</v>
+        <v>466.94839999999999</v>
       </c>
       <c r="N61" s="3">
         <f t="shared" si="4"/>
-        <v>128258.68799999999</v>
-      </c>
-    </row>
-    <row r="62" spans="1:17" x14ac:dyDescent="0.2">
+        <v>149423.48800000001</v>
+      </c>
+    </row>
+    <row r="62" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A62" s="2">
         <v>2025</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>288</v>
+        <v>371</v>
       </c>
       <c r="C62" s="2" t="s">
         <v>42</v>
@@ -7723,229 +7735,233 @@
         <v>27</v>
       </c>
       <c r="G62" s="2" t="s">
-        <v>290</v>
+        <v>37</v>
       </c>
       <c r="H62" s="2">
-        <v>53</v>
+        <v>28</v>
       </c>
       <c r="I62" s="158">
-        <v>45974</v>
+        <v>46008</v>
       </c>
       <c r="J62" s="2">
         <v>1</v>
       </c>
       <c r="K62" s="158">
+        <f t="shared" ref="K62" si="9">I62+65</f>
+        <v>46073</v>
+      </c>
+      <c r="L62" s="155">
+        <v>325</v>
+      </c>
+      <c r="M62" s="155">
+        <f t="shared" ref="M62" si="10">(L62+H62)*1.3228</f>
+        <v>466.94839999999999</v>
+      </c>
+      <c r="N62" s="3">
+        <f t="shared" ref="N62" si="11">M62*E62</f>
+        <v>149423.48800000001</v>
+      </c>
+    </row>
+    <row r="63" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A63" s="2">
+        <v>2025</v>
+      </c>
+      <c r="B63" s="2" t="s">
+        <v>287</v>
+      </c>
+      <c r="C63" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="D63" s="159" t="s">
+        <v>264</v>
+      </c>
+      <c r="E63" s="2">
+        <v>320</v>
+      </c>
+      <c r="F63" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="G63" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="H63" s="2">
+        <v>-22</v>
+      </c>
+      <c r="I63" s="158">
+        <v>45992</v>
+      </c>
+      <c r="J63" s="2">
+        <v>1</v>
+      </c>
+      <c r="K63" s="158">
+        <f t="shared" si="5"/>
+        <v>46057</v>
+      </c>
+      <c r="L63" s="155">
+        <v>325</v>
+      </c>
+      <c r="M63" s="155">
+        <f t="shared" si="6"/>
+        <v>400.80840000000001</v>
+      </c>
+      <c r="N63" s="3">
+        <f t="shared" si="4"/>
+        <v>128258.68799999999</v>
+      </c>
+    </row>
+    <row r="64" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A64" s="2">
+        <v>2025</v>
+      </c>
+      <c r="B64" s="2" t="s">
+        <v>288</v>
+      </c>
+      <c r="C64" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="D64" s="159" t="s">
+        <v>264</v>
+      </c>
+      <c r="E64" s="2">
+        <v>320</v>
+      </c>
+      <c r="F64" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="G64" s="2" t="s">
+        <v>290</v>
+      </c>
+      <c r="H64" s="2">
+        <v>53</v>
+      </c>
+      <c r="I64" s="158">
+        <v>45974</v>
+      </c>
+      <c r="J64" s="2">
+        <v>1</v>
+      </c>
+      <c r="K64" s="158">
         <f t="shared" si="5"/>
         <v>46039</v>
       </c>
-      <c r="L62" s="155">
+      <c r="L64" s="155">
         <v>330</v>
       </c>
-      <c r="M62" s="155">
+      <c r="M64" s="155">
         <f t="shared" si="6"/>
         <v>506.63240000000002</v>
       </c>
-      <c r="N62" s="3">
+      <c r="N64" s="3">
         <f t="shared" si="4"/>
         <v>162122.36800000002</v>
       </c>
     </row>
-    <row r="63" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A63" s="2">
-        <v>2024</v>
-      </c>
-      <c r="B63" s="2" t="s">
-        <v>346</v>
-      </c>
-      <c r="C63" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="D63" s="159" t="s">
-        <v>349</v>
-      </c>
-      <c r="E63" s="2">
-        <v>0.5</v>
-      </c>
-      <c r="F63" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="G63" s="2" t="s">
-        <v>290</v>
-      </c>
-      <c r="H63" s="2">
-        <v>0</v>
-      </c>
-      <c r="I63" s="158">
-        <v>45809</v>
-      </c>
-      <c r="J63" s="2">
-        <v>1</v>
-      </c>
-      <c r="K63" s="158">
-        <v>45809</v>
-      </c>
-      <c r="L63" s="155"/>
-      <c r="M63" s="155"/>
-      <c r="N63" s="3"/>
-      <c r="P63" s="3">
-        <v>3000</v>
-      </c>
-      <c r="Q63" s="3">
-        <f>E63*P63</f>
-        <v>1500</v>
-      </c>
-    </row>
-    <row r="64" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A64" s="2">
-        <v>2025</v>
-      </c>
-      <c r="B64" s="2" t="s">
-        <v>347</v>
-      </c>
-      <c r="C64" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="D64" s="159" t="s">
-        <v>350</v>
-      </c>
-      <c r="E64" s="2">
-        <v>320</v>
-      </c>
-      <c r="F64" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="G64" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="H64" s="2">
-        <v>0</v>
-      </c>
-      <c r="I64" s="158">
-        <v>45931</v>
-      </c>
-      <c r="J64" s="2">
-        <v>1</v>
-      </c>
-      <c r="K64" s="158">
-        <v>45931</v>
-      </c>
-      <c r="L64" s="155"/>
-      <c r="M64" s="155">
-        <v>463.2</v>
-      </c>
-      <c r="N64" s="3">
-        <f>M64*E64</f>
-        <v>148224</v>
-      </c>
-    </row>
     <row r="65" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A65" s="2">
-        <v>2025</v>
+        <v>2024</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="C65" s="2" t="s">
         <v>89</v>
       </c>
       <c r="D65" s="159" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="E65" s="2">
-        <v>12</v>
+        <v>0.5</v>
       </c>
       <c r="F65" s="2" t="s">
         <v>27</v>
       </c>
       <c r="G65" s="2" t="s">
-        <v>37</v>
+        <v>290</v>
       </c>
       <c r="H65" s="2">
         <v>0</v>
       </c>
       <c r="I65" s="158">
-        <v>45880</v>
+        <v>45809</v>
       </c>
       <c r="J65" s="2">
         <v>1</v>
       </c>
       <c r="K65" s="158">
-        <v>45880</v>
+        <v>45809</v>
       </c>
       <c r="L65" s="155"/>
       <c r="M65" s="155"/>
       <c r="N65" s="3"/>
       <c r="P65" s="3">
-        <v>2350</v>
+        <v>3000</v>
       </c>
       <c r="Q65" s="3">
         <f>E65*P65</f>
-        <v>28200</v>
-      </c>
-    </row>
-    <row r="66" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="66" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A66" s="2">
         <v>2025</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>352</v>
+        <v>347</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>89</v>
+        <v>42</v>
       </c>
       <c r="D66" s="159" t="s">
-        <v>257</v>
+        <v>350</v>
       </c>
       <c r="E66" s="2">
-        <v>20</v>
+        <v>320</v>
       </c>
       <c r="F66" s="2" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="G66" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="H66" s="2">
         <v>0</v>
       </c>
       <c r="I66" s="158">
-        <v>45887</v>
+        <v>45931</v>
       </c>
       <c r="J66" s="2">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="K66" s="158">
-        <v>45880</v>
+        <v>45931</v>
       </c>
       <c r="L66" s="155"/>
-      <c r="M66" s="155"/>
-      <c r="N66" s="3"/>
-      <c r="P66" s="3">
-        <v>2250</v>
-      </c>
-      <c r="Q66" s="3">
-        <f>E66*P66</f>
-        <v>45000</v>
-      </c>
-    </row>
-    <row r="67" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+      <c r="M66" s="155">
+        <v>463.2</v>
+      </c>
+      <c r="N66" s="3">
+        <f>M66*E66</f>
+        <v>148224</v>
+      </c>
+    </row>
+    <row r="67" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A67" s="2">
         <v>2025</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>353</v>
+        <v>348</v>
       </c>
       <c r="C67" s="2" t="s">
         <v>89</v>
       </c>
       <c r="D67" s="159" t="s">
-        <v>24</v>
+        <v>351</v>
       </c>
       <c r="E67" s="2">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="F67" s="2" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="G67" s="2" t="s">
         <v>37</v>
@@ -7954,23 +7970,23 @@
         <v>0</v>
       </c>
       <c r="I67" s="158">
-        <v>45889</v>
+        <v>45880</v>
       </c>
       <c r="J67" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K67" s="158">
-        <v>45920</v>
+        <v>45880</v>
       </c>
       <c r="L67" s="155"/>
       <c r="M67" s="155"/>
       <c r="N67" s="3"/>
       <c r="P67" s="3">
-        <v>2500</v>
+        <v>2350</v>
       </c>
       <c r="Q67" s="3">
         <f>E67*P67</f>
-        <v>7500</v>
+        <v>28200</v>
       </c>
     </row>
     <row r="68" spans="1:17" x14ac:dyDescent="0.2">
@@ -7978,54 +7994,52 @@
         <v>2025</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>42</v>
+        <v>89</v>
       </c>
       <c r="D68" s="159" t="s">
-        <v>46</v>
-      </c>
-      <c r="E68" s="213">
-        <f>20000/60</f>
-        <v>333.33333333333331</v>
+        <v>257</v>
+      </c>
+      <c r="E68" s="2">
+        <v>20</v>
       </c>
       <c r="F68" s="2" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="G68" s="2" t="s">
-        <v>289</v>
+        <v>37</v>
       </c>
       <c r="H68" s="2">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="I68" s="158">
-        <v>45901</v>
+        <v>45887</v>
       </c>
       <c r="J68" s="2">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="K68" s="158">
-        <v>46049</v>
-      </c>
-      <c r="L68" s="155">
-        <f>M68/1.3228</f>
-        <v>417.28000000000003</v>
-      </c>
-      <c r="M68" s="155">
-        <v>551.97798399999999</v>
-      </c>
-      <c r="N68" s="3">
-        <f>M68*E68</f>
-        <v>183992.66133333332</v>
-      </c>
-    </row>
-    <row r="69" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+        <v>45880</v>
+      </c>
+      <c r="L68" s="155"/>
+      <c r="M68" s="155"/>
+      <c r="N68" s="3"/>
+      <c r="P68" s="3">
+        <v>2250</v>
+      </c>
+      <c r="Q68" s="3">
+        <f>E68*P68</f>
+        <v>45000</v>
+      </c>
+    </row>
+    <row r="69" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A69" s="2">
         <v>2025</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="C69" s="2" t="s">
         <v>89</v>
@@ -8033,8 +8047,8 @@
       <c r="D69" s="159" t="s">
         <v>24</v>
       </c>
-      <c r="E69" s="213">
-        <v>5</v>
+      <c r="E69" s="2">
+        <v>3</v>
       </c>
       <c r="F69" s="2" t="s">
         <v>33</v>
@@ -8046,78 +8060,78 @@
         <v>0</v>
       </c>
       <c r="I69" s="158">
-        <v>45923</v>
+        <v>45889</v>
       </c>
       <c r="J69" s="2">
         <v>2</v>
       </c>
       <c r="K69" s="158">
-        <f>I69+20</f>
-        <v>45943</v>
+        <v>45920</v>
       </c>
       <c r="L69" s="155"/>
       <c r="M69" s="155"/>
       <c r="N69" s="3"/>
       <c r="P69" s="3">
-        <v>2750</v>
+        <v>2500</v>
       </c>
       <c r="Q69" s="3">
-        <f t="shared" ref="Q69:Q80" si="7">E69*P69</f>
-        <v>13750</v>
-      </c>
-    </row>
-    <row r="70" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+        <f>E69*P69</f>
+        <v>7500</v>
+      </c>
+    </row>
+    <row r="70" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A70" s="2">
         <v>2025</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>89</v>
+        <v>42</v>
       </c>
       <c r="D70" s="159" t="s">
-        <v>351</v>
+        <v>46</v>
       </c>
       <c r="E70" s="213">
-        <v>10</v>
+        <f>20000/60</f>
+        <v>333.33333333333331</v>
       </c>
       <c r="F70" s="2" t="s">
         <v>27</v>
       </c>
       <c r="G70" s="2" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="H70" s="2">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="I70" s="158">
-        <v>45923</v>
+        <v>45901</v>
       </c>
       <c r="J70" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K70" s="158">
-        <f>I70+20</f>
-        <v>45943</v>
-      </c>
-      <c r="L70" s="155"/>
-      <c r="M70" s="155"/>
-      <c r="N70" s="3"/>
-      <c r="P70" s="3">
-        <v>3200</v>
-      </c>
-      <c r="Q70" s="3">
-        <f t="shared" si="7"/>
-        <v>32000</v>
-      </c>
-    </row>
-    <row r="71" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+        <v>46080</v>
+      </c>
+      <c r="L70" s="155">
+        <f>M70/1.3228</f>
+        <v>417.28000000000003</v>
+      </c>
+      <c r="M70" s="155">
+        <v>551.97798399999999</v>
+      </c>
+      <c r="N70" s="3">
+        <f>M70*E70</f>
+        <v>183992.66133333332</v>
+      </c>
+    </row>
+    <row r="71" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A71" s="2">
         <v>2025</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="C71" s="2" t="s">
         <v>89</v>
@@ -8126,7 +8140,7 @@
         <v>24</v>
       </c>
       <c r="E71" s="213">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F71" s="2" t="s">
         <v>33</v>
@@ -8138,24 +8152,24 @@
         <v>0</v>
       </c>
       <c r="I71" s="158">
-        <v>45979</v>
+        <v>45923</v>
       </c>
       <c r="J71" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K71" s="158">
-        <f>I71</f>
-        <v>45979</v>
+        <f>I71+20</f>
+        <v>45943</v>
       </c>
       <c r="L71" s="155"/>
       <c r="M71" s="155"/>
       <c r="N71" s="3"/>
       <c r="P71" s="3">
-        <v>2650</v>
+        <v>2750</v>
       </c>
       <c r="Q71" s="3">
-        <f t="shared" si="7"/>
-        <v>7950</v>
+        <f t="shared" ref="Q71:Q82" si="12">E71*P71</f>
+        <v>13750</v>
       </c>
     </row>
     <row r="72" spans="1:17" x14ac:dyDescent="0.2">
@@ -8163,81 +8177,81 @@
         <v>2025</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="C72" s="2" t="s">
         <v>89</v>
       </c>
       <c r="D72" s="159" t="s">
-        <v>24</v>
+        <v>351</v>
       </c>
       <c r="E72" s="213">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F72" s="2" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="G72" s="2" t="s">
-        <v>37</v>
+        <v>290</v>
       </c>
       <c r="H72" s="2">
         <v>0</v>
       </c>
       <c r="I72" s="158">
-        <v>46023</v>
+        <v>45923</v>
       </c>
       <c r="J72" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K72" s="158">
-        <f t="shared" ref="K72:K74" si="8">I72</f>
-        <v>46023</v>
+        <f>I72+20</f>
+        <v>45943</v>
       </c>
       <c r="L72" s="155"/>
       <c r="M72" s="155"/>
       <c r="N72" s="3"/>
       <c r="P72" s="3">
-        <v>2650</v>
+        <v>3200</v>
       </c>
       <c r="Q72" s="3">
-        <f t="shared" si="7"/>
-        <v>31800</v>
-      </c>
-    </row>
-    <row r="73" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+        <f t="shared" si="12"/>
+        <v>32000</v>
+      </c>
+    </row>
+    <row r="73" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A73" s="2">
         <v>2025</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="C73" s="2" t="s">
         <v>89</v>
       </c>
       <c r="D73" s="159" t="s">
-        <v>257</v>
+        <v>24</v>
       </c>
       <c r="E73" s="213">
-        <v>30</v>
+        <v>3</v>
       </c>
       <c r="F73" s="2" t="s">
         <v>33</v>
       </c>
       <c r="G73" s="2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="H73" s="2">
         <v>0</v>
       </c>
       <c r="I73" s="158">
-        <v>45986</v>
+        <v>45979</v>
       </c>
       <c r="J73" s="2">
         <v>1</v>
       </c>
       <c r="K73" s="158">
-        <f t="shared" si="8"/>
-        <v>45986</v>
+        <f>I73</f>
+        <v>45979</v>
       </c>
       <c r="L73" s="155"/>
       <c r="M73" s="155"/>
@@ -8246,54 +8260,54 @@
         <v>2650</v>
       </c>
       <c r="Q73" s="3">
-        <f t="shared" si="7"/>
-        <v>79500</v>
-      </c>
-    </row>
-    <row r="74" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+        <f t="shared" si="12"/>
+        <v>7950</v>
+      </c>
+    </row>
+    <row r="74" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A74" s="2">
         <v>2025</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="C74" s="2" t="s">
         <v>89</v>
       </c>
       <c r="D74" s="159" t="s">
-        <v>361</v>
+        <v>24</v>
       </c>
       <c r="E74" s="213">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="F74" s="2" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="G74" s="2" t="s">
-        <v>290</v>
+        <v>37</v>
       </c>
       <c r="H74" s="2">
         <v>0</v>
       </c>
       <c r="I74" s="158">
-        <v>45979</v>
+        <v>46023</v>
       </c>
       <c r="J74" s="2">
         <v>1</v>
       </c>
       <c r="K74" s="158">
-        <f t="shared" si="8"/>
-        <v>45979</v>
+        <f t="shared" ref="K74:K76" si="13">I74</f>
+        <v>46023</v>
       </c>
       <c r="L74" s="155"/>
       <c r="M74" s="155"/>
       <c r="N74" s="3"/>
       <c r="P74" s="3">
-        <v>2300</v>
+        <v>2650</v>
       </c>
       <c r="Q74" s="3">
-        <f t="shared" si="7"/>
-        <v>11500</v>
+        <f t="shared" si="12"/>
+        <v>31800</v>
       </c>
     </row>
     <row r="75" spans="1:17" x14ac:dyDescent="0.2">
@@ -8301,45 +8315,45 @@
         <v>2025</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="C75" s="2" t="s">
         <v>89</v>
       </c>
       <c r="D75" s="159" t="s">
-        <v>364</v>
+        <v>257</v>
       </c>
       <c r="E75" s="213">
-        <v>161</v>
+        <v>30</v>
       </c>
       <c r="F75" s="2" t="s">
         <v>33</v>
       </c>
       <c r="G75" s="2" t="s">
-        <v>289</v>
+        <v>35</v>
       </c>
       <c r="H75" s="2">
         <v>0</v>
       </c>
       <c r="I75" s="158">
-        <v>46014</v>
+        <v>45986</v>
       </c>
       <c r="J75" s="2">
         <v>1</v>
       </c>
       <c r="K75" s="158">
-        <f t="shared" ref="K75:K79" si="9">I75</f>
-        <v>46014</v>
+        <f t="shared" si="13"/>
+        <v>45986</v>
       </c>
       <c r="L75" s="155"/>
       <c r="M75" s="155"/>
       <c r="N75" s="3"/>
       <c r="P75" s="3">
-        <v>2600</v>
+        <v>2650</v>
       </c>
       <c r="Q75" s="3">
-        <f t="shared" ref="Q75:Q76" si="10">E75*P75</f>
-        <v>418600</v>
+        <f t="shared" si="12"/>
+        <v>79500</v>
       </c>
     </row>
     <row r="76" spans="1:17" x14ac:dyDescent="0.2">
@@ -8347,45 +8361,45 @@
         <v>2025</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="C76" s="2" t="s">
         <v>89</v>
       </c>
       <c r="D76" s="159" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="E76" s="213">
-        <v>75</v>
+        <v>5</v>
       </c>
       <c r="F76" s="2" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="G76" s="2" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="H76" s="2">
         <v>0</v>
       </c>
       <c r="I76" s="158">
-        <v>46014</v>
+        <v>45979</v>
       </c>
       <c r="J76" s="2">
         <v>1</v>
       </c>
       <c r="K76" s="158">
-        <f t="shared" si="9"/>
-        <v>46014</v>
+        <f t="shared" si="13"/>
+        <v>45979</v>
       </c>
       <c r="L76" s="155"/>
       <c r="M76" s="155"/>
       <c r="N76" s="3"/>
       <c r="P76" s="3">
-        <v>2600</v>
+        <v>2300</v>
       </c>
       <c r="Q76" s="3">
-        <f t="shared" si="10"/>
-        <v>195000</v>
+        <f t="shared" si="12"/>
+        <v>11500</v>
       </c>
     </row>
     <row r="77" spans="1:17" x14ac:dyDescent="0.2">
@@ -8393,7 +8407,7 @@
         <v>2025</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="C77" s="2" t="s">
         <v>89</v>
@@ -8402,13 +8416,13 @@
         <v>364</v>
       </c>
       <c r="E77" s="213">
-        <v>4</v>
+        <v>161</v>
       </c>
       <c r="F77" s="2" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="G77" s="2" t="s">
-        <v>32</v>
+        <v>289</v>
       </c>
       <c r="H77" s="2">
         <v>0</v>
@@ -8420,7 +8434,7 @@
         <v>1</v>
       </c>
       <c r="K77" s="158">
-        <f t="shared" si="9"/>
+        <f t="shared" ref="K77:K81" si="14">I77</f>
         <v>46014</v>
       </c>
       <c r="L77" s="155"/>
@@ -8430,8 +8444,8 @@
         <v>2600</v>
       </c>
       <c r="Q77" s="3">
-        <f t="shared" ref="Q77:Q79" si="11">E77*P77</f>
-        <v>10400</v>
+        <f t="shared" ref="Q77:Q78" si="15">E77*P77</f>
+        <v>418600</v>
       </c>
     </row>
     <row r="78" spans="1:17" x14ac:dyDescent="0.2">
@@ -8439,7 +8453,7 @@
         <v>2025</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="C78" s="2" t="s">
         <v>89</v>
@@ -8448,13 +8462,13 @@
         <v>364</v>
       </c>
       <c r="E78" s="213">
-        <v>10</v>
+        <v>75</v>
       </c>
       <c r="F78" s="2" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="G78" s="2" t="s">
-        <v>32</v>
+        <v>289</v>
       </c>
       <c r="H78" s="2">
         <v>0</v>
@@ -8466,7 +8480,7 @@
         <v>1</v>
       </c>
       <c r="K78" s="158">
-        <f t="shared" si="9"/>
+        <f t="shared" si="14"/>
         <v>46014</v>
       </c>
       <c r="L78" s="155"/>
@@ -8476,8 +8490,8 @@
         <v>2600</v>
       </c>
       <c r="Q78" s="3">
-        <f t="shared" si="11"/>
-        <v>26000</v>
+        <f t="shared" si="15"/>
+        <v>195000</v>
       </c>
     </row>
     <row r="79" spans="1:17" x14ac:dyDescent="0.2">
@@ -8485,7 +8499,7 @@
         <v>2025</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="C79" s="2" t="s">
         <v>89</v>
@@ -8494,7 +8508,7 @@
         <v>364</v>
       </c>
       <c r="E79" s="213">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="F79" s="2" t="s">
         <v>27</v>
@@ -8512,36 +8526,38 @@
         <v>1</v>
       </c>
       <c r="K79" s="158">
-        <f t="shared" si="9"/>
+        <f t="shared" si="14"/>
         <v>46014</v>
       </c>
       <c r="L79" s="155"/>
       <c r="M79" s="155"/>
       <c r="N79" s="3"/>
       <c r="P79" s="3">
-        <v>2600</v>
+        <v>5000</v>
       </c>
       <c r="Q79" s="3">
-        <f t="shared" si="11"/>
-        <v>26000</v>
+        <f t="shared" ref="Q79:Q81" si="16">E79*P79</f>
+        <v>20000</v>
       </c>
     </row>
     <row r="80" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A80" s="2">
         <v>2025</v>
       </c>
+      <c r="B80" s="2" t="s">
+        <v>366</v>
+      </c>
       <c r="C80" s="2" t="s">
         <v>89</v>
       </c>
       <c r="D80" s="159" t="s">
-        <v>331</v>
+        <v>364</v>
       </c>
       <c r="E80" s="213">
-        <f>2400-E66-E65-E67-E69-E70-E71-E72-E73-E74-E75-E76-E77-E78-E79</f>
-        <v>2040</v>
+        <v>10</v>
       </c>
       <c r="F80" s="2" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="G80" s="2" t="s">
         <v>32</v>
@@ -8550,40 +8566,44 @@
         <v>0</v>
       </c>
       <c r="I80" s="158">
-        <v>46023</v>
+        <v>46014</v>
       </c>
       <c r="J80" s="2">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="K80" s="158">
-        <v>46023</v>
-      </c>
-      <c r="L80" s="158"/>
+        <f t="shared" si="14"/>
+        <v>46014</v>
+      </c>
+      <c r="L80" s="155"/>
+      <c r="M80" s="155"/>
       <c r="N80" s="3"/>
       <c r="P80" s="3">
-        <v>1600</v>
+        <v>4600</v>
       </c>
       <c r="Q80" s="3">
-        <f t="shared" si="7"/>
-        <v>3264000</v>
-      </c>
-    </row>
-    <row r="81" spans="1:14" x14ac:dyDescent="0.2">
+        <f t="shared" si="16"/>
+        <v>46000</v>
+      </c>
+    </row>
+    <row r="81" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A81" s="2">
         <v>2025</v>
       </c>
+      <c r="B81" s="2" t="s">
+        <v>367</v>
+      </c>
       <c r="C81" s="2" t="s">
-        <v>42</v>
+        <v>89</v>
       </c>
       <c r="D81" s="159" t="s">
-        <v>331</v>
-      </c>
-      <c r="E81" s="2">
-        <f>0.7*8000-4800-E82-E83-E68</f>
-        <v>286.49999999999994</v>
+        <v>364</v>
+      </c>
+      <c r="E81" s="213">
+        <v>10</v>
       </c>
       <c r="F81" s="2" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="G81" s="2" t="s">
         <v>32</v>
@@ -8592,38 +8612,39 @@
         <v>0</v>
       </c>
       <c r="I81" s="158">
-        <v>46023</v>
+        <v>46014</v>
       </c>
       <c r="J81" s="2">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="K81" s="158">
-        <v>46023</v>
-      </c>
-      <c r="L81" s="155">
-        <v>325</v>
-      </c>
-      <c r="M81" s="155">
-        <f>(L81+H81)*1.3228</f>
-        <v>429.90999999999997</v>
-      </c>
-      <c r="N81" s="3">
-        <f>M81*E81</f>
-        <v>123169.21499999997</v>
-      </c>
-    </row>
-    <row r="82" spans="1:14" x14ac:dyDescent="0.2">
+        <f t="shared" si="14"/>
+        <v>46014</v>
+      </c>
+      <c r="L81" s="155"/>
+      <c r="M81" s="155"/>
+      <c r="N81" s="3"/>
+      <c r="P81" s="3">
+        <v>4600</v>
+      </c>
+      <c r="Q81" s="3">
+        <f t="shared" si="16"/>
+        <v>46000</v>
+      </c>
+    </row>
+    <row r="82" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A82" s="2">
         <v>2025</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>42</v>
+        <v>89</v>
       </c>
       <c r="D82" s="159" t="s">
         <v>331</v>
       </c>
-      <c r="E82" s="2">
-        <v>64.5</v>
+      <c r="E82" s="213">
+        <f>2400-E68-E67-E69-E71-E72-E73-E74-E75-E76-E77-E78-E79-E80-E81</f>
+        <v>2040</v>
       </c>
       <c r="F82" s="2" t="s">
         <v>32</v>
@@ -8638,24 +8659,22 @@
         <v>46023</v>
       </c>
       <c r="J82" s="2">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="K82" s="158">
         <v>46023</v>
       </c>
-      <c r="L82" s="155">
-        <v>330</v>
-      </c>
-      <c r="M82" s="155">
-        <f>(L82+H82)*1.3228</f>
-        <v>436.524</v>
-      </c>
-      <c r="N82" s="3">
-        <f>M82*E82</f>
-        <v>28155.797999999999</v>
-      </c>
-    </row>
-    <row r="83" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+      <c r="L82" s="158"/>
+      <c r="N82" s="3"/>
+      <c r="P82" s="3">
+        <v>1600</v>
+      </c>
+      <c r="Q82" s="3">
+        <f t="shared" si="12"/>
+        <v>3264000</v>
+      </c>
+    </row>
+    <row r="83" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A83" s="2">
         <v>2025</v>
       </c>
@@ -8665,9 +8684,9 @@
       <c r="D83" s="159" t="s">
         <v>331</v>
       </c>
-      <c r="E83" s="213">
-        <f>449-E68</f>
-        <v>115.66666666666669</v>
+      <c r="E83" s="2">
+        <f>0.7*8000-4800-E84-E85-E70</f>
+        <v>286.49999999999994</v>
       </c>
       <c r="F83" s="2" t="s">
         <v>32</v>
@@ -8679,13 +8698,13 @@
         <v>0</v>
       </c>
       <c r="I83" s="158">
-        <v>46082</v>
+        <v>46023</v>
       </c>
       <c r="J83" s="2">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="K83" s="158">
-        <v>46082</v>
+        <v>46023</v>
       </c>
       <c r="L83" s="155">
         <v>325</v>
@@ -8696,20 +8715,105 @@
       </c>
       <c r="N83" s="3">
         <f>M83*E83</f>
+        <v>123169.21499999997</v>
+      </c>
+    </row>
+    <row r="84" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A84" s="2">
+        <v>2025</v>
+      </c>
+      <c r="C84" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="D84" s="159" t="s">
+        <v>331</v>
+      </c>
+      <c r="E84" s="2">
+        <v>64.5</v>
+      </c>
+      <c r="F84" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="G84" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="H84" s="2">
+        <v>0</v>
+      </c>
+      <c r="I84" s="158">
+        <v>46023</v>
+      </c>
+      <c r="J84" s="2">
+        <v>1</v>
+      </c>
+      <c r="K84" s="158">
+        <v>46023</v>
+      </c>
+      <c r="L84" s="155">
+        <v>330</v>
+      </c>
+      <c r="M84" s="155">
+        <f>(L84+H84)*1.3228</f>
+        <v>436.524</v>
+      </c>
+      <c r="N84" s="3">
+        <f>M84*E84</f>
+        <v>28155.797999999999</v>
+      </c>
+    </row>
+    <row r="85" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A85" s="2">
+        <v>2025</v>
+      </c>
+      <c r="C85" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="D85" s="159" t="s">
+        <v>331</v>
+      </c>
+      <c r="E85" s="213">
+        <f>449-E70</f>
+        <v>115.66666666666669</v>
+      </c>
+      <c r="F85" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="G85" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="H85" s="2">
+        <v>0</v>
+      </c>
+      <c r="I85" s="158">
+        <v>46082</v>
+      </c>
+      <c r="J85" s="2">
+        <v>1</v>
+      </c>
+      <c r="K85" s="158">
+        <v>46082</v>
+      </c>
+      <c r="L85" s="155">
+        <v>325</v>
+      </c>
+      <c r="M85" s="155">
+        <f>(L85+H85)*1.3228</f>
+        <v>429.90999999999997</v>
+      </c>
+      <c r="N85" s="3">
+        <f>M85*E85</f>
         <v>49726.256666666668</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:Q83" xr:uid="{E433115D-D1E6-C943-B0EC-2BC4BD1B44BA}">
-    <filterColumn colId="10">
+  <autoFilter ref="A1:Q85" xr:uid="{E433115D-D1E6-C943-B0EC-2BC4BD1B44BA}">
+    <filterColumn colId="0">
       <filters>
-        <dateGroupItem year="2026" month="1" dateTimeGrouping="month"/>
-        <dateGroupItem year="2026" month="2" dateTimeGrouping="month"/>
-        <dateGroupItem year="2025" month="12" dateTimeGrouping="month"/>
+        <filter val="2025"/>
       </filters>
     </filterColumn>
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:Q83">
-      <sortCondition ref="B1:B83"/>
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:Q85">
+      <sortCondition ref="B1:B85"/>
     </sortState>
   </autoFilter>
   <phoneticPr fontId="5" type="noConversion"/>
@@ -8725,7 +8829,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{62549E7F-C2F6-E740-8F49-EDB7C93FB4DD}">
   <dimension ref="A1:D13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
